--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motat\Downloads\CSPIT_Homepage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Microsoft One Drive\OneDrive\Desktop\CSPIT_NEW_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C682047-89F0-46E5-95F4-B20B71655EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BDBE31-1E6C-4877-8BF3-DA25418B039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
   <si>
     <t>Name</t>
   </si>
@@ -71,9 +71,6 @@
     <t>faculty_image\AneriPandya.webp</t>
   </si>
   <si>
-    <t>Profile</t>
-  </si>
-  <si>
     <t>Abhishek Patel</t>
   </si>
   <si>
@@ -83,24 +80,12 @@
     <t>Interest details...</t>
   </si>
   <si>
-    <t>Profile info...</t>
-  </si>
-  <si>
     <t>Research</t>
   </si>
   <si>
-    <t>Publications</t>
-  </si>
-  <si>
     <t>Teaching</t>
   </si>
   <si>
-    <t>Conference</t>
-  </si>
-  <si>
-    <t>Fellowships</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -110,21 +95,9 @@
     <t>Image Src</t>
   </si>
   <si>
-    <t>Research details...</t>
-  </si>
-  <si>
-    <t>Publications details...</t>
-  </si>
-  <si>
     <t>Teaching details...</t>
   </si>
   <si>
-    <t>Conference details...</t>
-  </si>
-  <si>
-    <t>Fellowships details...</t>
-  </si>
-  <si>
     <t>abc@example.com</t>
   </si>
   <si>
@@ -143,16 +116,22 @@
     <t>Teching a</t>
   </si>
   <si>
-    <t xml:space="preserve">CONFERENCE  </t>
-  </si>
-  <si>
-    <t>FELOOWSHIP</t>
-  </si>
-  <si>
     <t>faculty_image\AvaniKhokhariya.webp</t>
   </si>
   <si>
-    <t>Profilew</t>
+    <t>Academics</t>
+  </si>
+  <si>
+    <t>Academics info</t>
+  </si>
+  <si>
+    <t>Research and publication details...</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>https://www.charusat.ac.in/cspit/index.html</t>
   </si>
 </sst>
 </file>
@@ -541,7 +520,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="K2" sqref="K2:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -566,75 +545,63 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>16</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>17</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>8</v>
       </c>
@@ -650,32 +617,26 @@
       <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
+      <c r="F3" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -691,70 +652,58 @@
       <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
-        <v>18</v>
+      <c r="F4" s="5" t="s">
+        <v>31</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="L4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>32</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>33</v>
+      <c r="I5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -796,15 +745,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M2" r:id="rId1" xr:uid="{0519644A-0615-4AD5-8E70-41B2C78D5C5F}"/>
-    <hyperlink ref="M3" r:id="rId2" xr:uid="{81367E78-F015-423E-8B92-29D0213C4337}"/>
-    <hyperlink ref="M4" r:id="rId3" xr:uid="{451A86B9-6F67-47C1-B8CE-1B76AE93937C}"/>
-    <hyperlink ref="L5" r:id="rId4" xr:uid="{31BEFDC5-55C0-408B-B194-C5D7FA348878}"/>
-    <hyperlink ref="M5" r:id="rId5" xr:uid="{8CE0B7FE-7B35-4A89-ABC6-BFD9B8741ADB}"/>
+    <hyperlink ref="J2" r:id="rId1" xr:uid="{0519644A-0615-4AD5-8E70-41B2C78D5C5F}"/>
+    <hyperlink ref="J3" r:id="rId2" xr:uid="{81367E78-F015-423E-8B92-29D0213C4337}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{451A86B9-6F67-47C1-B8CE-1B76AE93937C}"/>
+    <hyperlink ref="I5" r:id="rId4" xr:uid="{31BEFDC5-55C0-408B-B194-C5D7FA348878}"/>
+    <hyperlink ref="J5" r:id="rId5" xr:uid="{8CE0B7FE-7B35-4A89-ABC6-BFD9B8741ADB}"/>
     <hyperlink ref="E2" r:id="rId6" xr:uid="{A62FB5FE-12B7-435E-B3DF-DE702ECD1D4C}"/>
     <hyperlink ref="E3" r:id="rId7" xr:uid="{5213EB05-47C0-440B-BCE0-5AE39F81C1FB}"/>
     <hyperlink ref="E4" r:id="rId8" xr:uid="{DFCDD958-95A9-4FCA-9FB2-8AE32FE2122D}"/>
     <hyperlink ref="E5" r:id="rId9" xr:uid="{BDA57A78-BFD2-4782-B2A5-E341CD8C9BFE}"/>
+    <hyperlink ref="K2" r:id="rId10" xr:uid="{6A8C48D4-F790-4D90-A216-7CDAB5CD3FC9}"/>
+    <hyperlink ref="K3:K5" r:id="rId11" display="https://www.charusat.ac.in/cspit/index.html" xr:uid="{CFA7AF8B-5015-4D55-A810-4BF0FFBF1A7A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Microsoft One Drive\OneDrive\Desktop\CSPIT_NEW_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9BDBE31-1E6C-4877-8BF3-DA25418B039F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248929BC-7291-4CA9-AAA2-270484AC0911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Name</t>
   </si>
@@ -77,9 +77,6 @@
     <t>M. Tech., Ph.D.</t>
   </si>
   <si>
-    <t>Interest details...</t>
-  </si>
-  <si>
     <t>Research</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>Image Src</t>
   </si>
   <si>
-    <t>Teaching details...</t>
-  </si>
-  <si>
     <t>abc@example.com</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>Algorithm, Machine Learning, Data Structure</t>
   </si>
   <si>
-    <t>Teching a</t>
-  </si>
-  <si>
     <t>faculty_image\AvaniKhokhariya.webp</t>
   </si>
   <si>
@@ -132,6 +123,9 @@
   </si>
   <si>
     <t>https://www.charusat.ac.in/cspit/index.html</t>
+  </si>
+  <si>
+    <t>Project details...</t>
   </si>
 </sst>
 </file>
@@ -520,7 +514,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2:K5"/>
+      <selection activeCell="D3" sqref="D2:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -545,25 +539,25 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="72" x14ac:dyDescent="0.3">
@@ -576,29 +570,29 @@
       <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
@@ -618,22 +612,22 @@
         <v>9</v>
       </c>
       <c r="F3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
@@ -653,57 +647,57 @@
         <v>13</v>
       </c>
       <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Microsoft One Drive\OneDrive\Desktop\CSPIT_NEW_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4518248c6cd0c0d5/Desktop/CSPIT_NEW_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248929BC-7291-4CA9-AAA2-270484AC0911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{248929BC-7291-4CA9-AAA2-270484AC0911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73366BEF-B555-41A1-984F-798CC60C7851}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="338">
   <si>
     <t>Name</t>
   </si>
@@ -47,27 +47,15 @@
     <t>faculty_image\AbhishekPatel.webp</t>
   </si>
   <si>
-    <t>Cyber Security, Information Security</t>
-  </si>
-  <si>
     <t>M. Tech.</t>
   </si>
   <si>
-    <t>Prof. Akshita Kadam</t>
-  </si>
-  <si>
     <t>faculty_image\Akshitakadam.webp</t>
   </si>
   <si>
-    <t>Dr. Aneri Pandya</t>
-  </si>
-  <si>
     <t>Ph. D.</t>
   </si>
   <si>
-    <t>Microprocessor Controller</t>
-  </si>
-  <si>
     <t>faculty_image\AneriPandya.webp</t>
   </si>
   <si>
@@ -95,27 +83,15 @@
     <t>abc@example.com</t>
   </si>
   <si>
-    <t>https://linkedin.com/in/abc</t>
-  </si>
-  <si>
-    <t>Prof. Avani Khokhariya</t>
-  </si>
-  <si>
     <t>M. Tech</t>
   </si>
   <si>
-    <t>Algorithm, Machine Learning, Data Structure</t>
-  </si>
-  <si>
     <t>faculty_image\AvaniKhokhariya.webp</t>
   </si>
   <si>
     <t>Academics</t>
   </si>
   <si>
-    <t>Academics info</t>
-  </si>
-  <si>
     <t>Research and publication details...</t>
   </si>
   <si>
@@ -126,13 +102,968 @@
   </si>
   <si>
     <t>Project details...</t>
+  </si>
+  <si>
+    <t>Dr. Nilaykumar A. Patel</t>
+  </si>
+  <si>
+    <t>Abhishek Swarnkar</t>
+  </si>
+  <si>
+    <t>Dr. Poonam Thanki</t>
+  </si>
+  <si>
+    <t>Dr. Manthan S. Manavadaria</t>
+  </si>
+  <si>
+    <t>Bhavin Mehta</t>
+  </si>
+  <si>
+    <t>Dr. Kanwar Preet Kaur</t>
+  </si>
+  <si>
+    <t>CHOKSHI RIKITA J</t>
+  </si>
+  <si>
+    <t>TRUSHIT UPADHYAYA</t>
+  </si>
+  <si>
+    <t>Dr. Mrugendrasinh Rahevar</t>
+  </si>
+  <si>
+    <t>Ravi Patel</t>
+  </si>
+  <si>
+    <t>Ronak R Patel</t>
+  </si>
+  <si>
+    <t>RANDHAWA KAWALJITSINGH MANSINGH</t>
+  </si>
+  <si>
+    <t>Dr. Bimal Patel</t>
+  </si>
+  <si>
+    <t>Nikita Bhatt</t>
+  </si>
+  <si>
+    <t>Deep Kothadiya</t>
+  </si>
+  <si>
+    <t>PARMANAND S PATEL</t>
+  </si>
+  <si>
+    <t>Krunal Maheriya</t>
+  </si>
+  <si>
+    <t>​Mr. Priteshkumar Prajapati</t>
+  </si>
+  <si>
+    <t>Dr.Hardik Modi</t>
+  </si>
+  <si>
+    <t>Dr. Ashwin Makwana</t>
+  </si>
+  <si>
+    <t>Pavitra Modi</t>
+  </si>
+  <si>
+    <t>Bhargav Shobhana</t>
+  </si>
+  <si>
+    <t>GAURAV KUMAR GAUTAM</t>
+  </si>
+  <si>
+    <t>Patel Dhavalkumar Sunilbhai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Niyati Vijaybhai Patel </t>
+  </si>
+  <si>
+    <t>Dr. Miral Mukeshbhai Desai</t>
+  </si>
+  <si>
+    <t>GAJANAN SHANKARRAO PATANGE</t>
+  </si>
+  <si>
+    <t>Anand P Patel</t>
+  </si>
+  <si>
+    <t>Vikas Panchal</t>
+  </si>
+  <si>
+    <t>Dr. Arpita J Shah</t>
+  </si>
+  <si>
+    <t>Dr.Sneha Padhiar</t>
+  </si>
+  <si>
+    <t>Harshul Yagnik</t>
+  </si>
+  <si>
+    <t>Brinda Patel</t>
+  </si>
+  <si>
+    <t>Dr. Dhaval Bhoi</t>
+  </si>
+  <si>
+    <t>Patel Sagarkumar Baldevbhai</t>
+  </si>
+  <si>
+    <t>AKSHITA KADAM</t>
+  </si>
+  <si>
+    <t>Neha Hirensinh Rajput</t>
+  </si>
+  <si>
+    <t>Dr. Dattatraya G. Subhedar</t>
+  </si>
+  <si>
+    <t>THAKAR HEMANG ANILKUMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jalpa Ardeshana </t>
+  </si>
+  <si>
+    <t>Dr. Spoorthy. V</t>
+  </si>
+  <si>
+    <t>Dhara Milan Patel</t>
+  </si>
+  <si>
+    <t>DHARMENDRASINH VIRENDRASINH CHAUHAN</t>
+  </si>
+  <si>
+    <t>Rajnik S. Katriya</t>
+  </si>
+  <si>
+    <t>Dr. Sanket Suthar</t>
+  </si>
+  <si>
+    <t>Dr. Kundankumar M. Patel</t>
+  </si>
+  <si>
+    <t>Pinal Chirag Patel</t>
+  </si>
+  <si>
+    <t>Vidisha Pradhan</t>
+  </si>
+  <si>
+    <t>Dharmendrasinh Rathod</t>
+  </si>
+  <si>
+    <t>Madhav Oza</t>
+  </si>
+  <si>
+    <t>Hemant N Yadav</t>
+  </si>
+  <si>
+    <t>Dr. Vijaykumar Chaudhary</t>
+  </si>
+  <si>
+    <t>Megha Jemin Desai</t>
+  </si>
+  <si>
+    <t>Kamleshbhai Valjibhai Chauhan</t>
+  </si>
+  <si>
+    <t>Dr. Aneri  Killol Pandya</t>
+  </si>
+  <si>
+    <t>Killol V. Pandya</t>
+  </si>
+  <si>
+    <t>Mayurkumar P Sutaria</t>
+  </si>
+  <si>
+    <t>MIHIR MEHTA</t>
+  </si>
+  <si>
+    <t>Gaurang Patel</t>
+  </si>
+  <si>
+    <t>Nishant Pushpak Koshti</t>
+  </si>
+  <si>
+    <t>Dr. Akash Vyas</t>
+  </si>
+  <si>
+    <t>Brijesh Kundaliya</t>
+  </si>
+  <si>
+    <t>Jalpesh Vasa</t>
+  </si>
+  <si>
+    <t>Vaishali Koria</t>
+  </si>
+  <si>
+    <t>Jignesh Patel</t>
+  </si>
+  <si>
+    <t>Dr. V R Panchal</t>
+  </si>
+  <si>
+    <t>Dr. Mihir Bhatt</t>
+  </si>
+  <si>
+    <t>Dr. Sagar Chokshi</t>
+  </si>
+  <si>
+    <t>Pratik B Panchal</t>
+  </si>
+  <si>
+    <t>Ms. Hemangi Oza</t>
+  </si>
+  <si>
+    <t>Vibha Parmar</t>
+  </si>
+  <si>
+    <t>Jitendra Prabhakar Chaudhari</t>
+  </si>
+  <si>
+    <t>MAULIK SHAH</t>
+  </si>
+  <si>
+    <t>Arpita Patel</t>
+  </si>
+  <si>
+    <t>Dr.Jigar Sarda</t>
+  </si>
+  <si>
+    <t>Trusha Patel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Srushti Gajjar </t>
+  </si>
+  <si>
+    <t>Axat Vijaykumar Patel</t>
+  </si>
+  <si>
+    <t>Ronak Patel</t>
+  </si>
+  <si>
+    <t>ASIFIQBAL YAVARMIYA THAKOR</t>
+  </si>
+  <si>
+    <t>MAHAMMADSOAIB SAIYAD</t>
+  </si>
+  <si>
+    <t>Jivanadhar A Joshi</t>
+  </si>
+  <si>
+    <t>Dr. Tigmanshu Patel</t>
+  </si>
+  <si>
+    <t>JAY KIRITKUMAR BHAVSAR</t>
+  </si>
+  <si>
+    <t>Dr. Purvi Prajapati</t>
+  </si>
+  <si>
+    <t>Nirpex Patel</t>
+  </si>
+  <si>
+    <t>Dr. Priyanka Pranav Patel</t>
+  </si>
+  <si>
+    <t>Mehulkumar Katakiya</t>
+  </si>
+  <si>
+    <t>Niyati Pandit</t>
+  </si>
+  <si>
+    <t>Harmish Gopalbhai Bhatt</t>
+  </si>
+  <si>
+    <t>Mikin Patel</t>
+  </si>
+  <si>
+    <t>Sarita Thummar</t>
+  </si>
+  <si>
+    <t>Electrical Power system, Power system Dynamics, Power system Protection</t>
+  </si>
+  <si>
+    <t>Heat Transfer, Computational Fluid Dynamics, Thermodynamics</t>
+  </si>
+  <si>
+    <t>Reconfigurable antennas, Wireless Communication</t>
+  </si>
+  <si>
+    <t>Bio-electronics and Communication Systems</t>
+  </si>
+  <si>
+    <t>Solar Collectors, Nanofluid, Heat Transfer</t>
+  </si>
+  <si>
+    <t>Metamaterials, Frequency Selective Surfaces, Antennas</t>
+  </si>
+  <si>
+    <t>Image Processing,Operating System,DBMS</t>
+  </si>
+  <si>
+    <t>Antennas, Computer Networks, Microwave Engineering</t>
+  </si>
+  <si>
+    <t>Deep Learning, Large Language Model</t>
+  </si>
+  <si>
+    <t>Internet Technologies, Cloud Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deep Learning, Cloud Computing , Spring Boot </t>
+  </si>
+  <si>
+    <t>Tribology, Advanced ceramics, Polymer composites</t>
+  </si>
+  <si>
+    <t>Internet of Things,Computer Network,Software Engineering,Large Language Models</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Machine Learning, Deep Learning, Multi-Modal Information Retrieval </t>
+  </si>
+  <si>
+    <t>Computer Vision, IoT, Quantum Computing</t>
+  </si>
+  <si>
+    <t>Deep Learning, Internet of Things, Big Data Analytics, Programming in C</t>
+  </si>
+  <si>
+    <t>Machine Learning, Deep Learning</t>
+  </si>
+  <si>
+    <t>1. Cryptography &amp; Network Security, 2. Cyber Security &amp; Digital Forensics, 3. Cloud Computing</t>
+  </si>
+  <si>
+    <t>Digital Signal Processing, Bio-Medical Image Processing, Mobile and Satellite Communication</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence &amp; Machine Learning, Software Engineering, Project Management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Web Application development </t>
+  </si>
+  <si>
+    <t>Structural engineering, Earthquake Engineering</t>
+  </si>
+  <si>
+    <t>MACHINE LEARNING, DEEP LEARNING, COMPUTER VISION</t>
+  </si>
+  <si>
+    <t>UI/UX, Fog Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DBMS , software engineering </t>
+  </si>
+  <si>
+    <t>Embedded System, IoT, Computer Vision</t>
+  </si>
+  <si>
+    <t>Industrial engineering, Production Engineering,Engineering Management</t>
+  </si>
+  <si>
+    <t>CAD/CAM, Design, Automotive Engineering</t>
+  </si>
+  <si>
+    <t>Material characterization, Design of machines, Metallurgy</t>
+  </si>
+  <si>
+    <t>Cloud Computing, DBMS , Operating Systems</t>
+  </si>
+  <si>
+    <t>Information Security, Software Engineering, Mobile Application Development</t>
+  </si>
+  <si>
+    <t>Computer Vision, Internet of Things, VLSI Technologies</t>
+  </si>
+  <si>
+    <t>Cloud Computing, Computer Networks, Python</t>
+  </si>
+  <si>
+    <t>Data Mining, Theory of Computation</t>
+  </si>
+  <si>
+    <t>Wireless Communication, Analog Electronics</t>
+  </si>
+  <si>
+    <t>Cybersecurity, Information Security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structural Dynamics &amp; Earthquake Engineering
+Structural Analysis &amp; Design
+Engineering Mechanics
+</t>
+  </si>
+  <si>
+    <t>1. Heat Transfer &amp; Fluid Flow  2. Battery Thermal Management System  3. Nanofluids</t>
+  </si>
+  <si>
+    <t>Natural language processing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Data Structures , Cloud Computing, Machine Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio processing, Machine learning and Deep learning </t>
+  </si>
+  <si>
+    <t>Antenna &amp; RF microwave, Signal Processing</t>
+  </si>
+  <si>
+    <t>Wireless Communication, vehicular communications</t>
+  </si>
+  <si>
+    <t>Cyber Security, Blockchain and Database Management Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computer Vision, Design and analysis of Algorithms, Machine Learning </t>
+  </si>
+  <si>
+    <t>Manufacturing of composites, Design of Experiments, Machining of
+Composites</t>
+  </si>
+  <si>
+    <t>Engineering Mechanics, Structural Analysis, Advanced structural Analysis</t>
+  </si>
+  <si>
+    <t>Blockchain Technology, Data Structures &amp; Algorithms, Java Programming</t>
+  </si>
+  <si>
+    <t>Machine Learning
+Deep Learning
+ASP .NET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Mechanical Vibration 3. Finite Element Analysis 2. Application of MR Damper </t>
+  </si>
+  <si>
+    <t>Machine Learning, LLM, Time series forecasting</t>
+  </si>
+  <si>
+    <t>Machining of Polymer Matrix Composite, Computer Aided Engineering</t>
+  </si>
+  <si>
+    <t>Construction Project Management, Building Construction, Construction Technology</t>
+  </si>
+  <si>
+    <t>Nano tribology, wettability, thermal properties of nanostructured materials and Thin Film Coatings</t>
+  </si>
+  <si>
+    <t>IoT, Microprocessor and microcontroller, Metamaterial Antenna design</t>
+  </si>
+  <si>
+    <t>Designing of planar,-MIMO antennas, Microcontroller and Microprocessor, Programming using Arduino, Digital Electronics</t>
+  </si>
+  <si>
+    <t>Metal Casting and Composites</t>
+  </si>
+  <si>
+    <t>Renewable Energy Sources, Wind Energy, DFIG Wind Turbines</t>
+  </si>
+  <si>
+    <t>CAD, Additive Manufacturing, Machine Learning</t>
+  </si>
+  <si>
+    <t>Image Processing, Graph Theory , Computer Networks</t>
+  </si>
+  <si>
+    <t>Metal Casting, Advanced Machining, 3D Printing</t>
+  </si>
+  <si>
+    <t>Embedded Systems, IoT, Wireless Sensor Networks</t>
+  </si>
+  <si>
+    <t>Data Privacy, Machine Learning, Full Stack Development</t>
+  </si>
+  <si>
+    <t>Data Structures and Algorithms, Design and Analysis of Algorithms, Competitive Programming</t>
+  </si>
+  <si>
+    <t>Microcontrollers, PLC &amp; IA, Power System</t>
+  </si>
+  <si>
+    <t>Structural Engineering, Base Isolation</t>
+  </si>
+  <si>
+    <t>High Voltage Engineering, Transformer oil based Nanofluids</t>
+  </si>
+  <si>
+    <t>Polymeric Composite, Engineering Graphics, Mechanical/Tribological Characterization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advance Power System Protection, Signal and System, Integration of Renewable Energy, Electrical Vehicle  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Environmental Engineering, Solid Waste Management, Environmental Science </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power System, Energy management and Audit, Optimization </t>
+  </si>
+  <si>
+    <t>Electronic Circuits, Image Processing</t>
+  </si>
+  <si>
+    <t>Computer Aided Design, Finite Element Analysis, Machine Design</t>
+  </si>
+  <si>
+    <t>Algorithms, Machine Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mixed Signal VLSI,Wireless Communication </t>
+  </si>
+  <si>
+    <t>Aritficial Inetlligent &amp; Machine Learning, Electric Vehicle, Smart Grid</t>
+  </si>
+  <si>
+    <t>Image Processing, Theory of Computation, Compiler</t>
+  </si>
+  <si>
+    <t>C/C++, Web development, Python</t>
+  </si>
+  <si>
+    <t>Vibration, Satellite structure, Optomechanical Design, Machine vision</t>
+  </si>
+  <si>
+    <t>Machine Learning, Deep Learning, Operating System</t>
+  </si>
+  <si>
+    <t>Digital Electronics, Embedded Systems, Internet of Things</t>
+  </si>
+  <si>
+    <t>ELECTRIC VEHICLES, POWER ELECTRONICS, CONTROL SYSTEMS</t>
+  </si>
+  <si>
+    <t>Embedded system and Micro controller programming, Power Electronics, Signal Processing, Numerical relaying, Microgrid converter control, Dspace real time simulator, Matlab Modelling</t>
+  </si>
+  <si>
+    <t>Control Systems, Fault Diagnosis, System Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concrete Technology, Reinforced  Concrete Structural Design, </t>
+  </si>
+  <si>
+    <t>Data Structures, Design and Analysis of Algorithms, Language Processor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Finite Element Analysis, Composite Structures, Bridge Engineering, Design of Steel and RCC Structures,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programming in C &amp; CPP, Artificial Intelligence, Machine Learning, Deep Learning, Image Processing </t>
+  </si>
+  <si>
+    <t>Geotechnical testing, Geotechnical - Earthquake Engineering</t>
+  </si>
+  <si>
+    <t>Website development,C++,Java</t>
+  </si>
+  <si>
+    <t>Manufacturing engineering, Metal matrix composite</t>
+  </si>
+  <si>
+    <t>AI,Generative models,LLMs</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-nilay-patel-106bab14/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abhishek-swarnkar-2018/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/poonam-thanki-b112a6a2/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-manthan-s-manavadaria-2a222219/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/bhavin-mehta-86b47795/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-kanwar-preet-kaur-bamrah-64a3a221/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rikita-chokshi-44bb65263/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/tkupadhyaya/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mrugendrasinh-rahevar/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ravi-patel-13686b19/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ronak-patel-63663613a/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-kawaljitsingh-randhawa-96816064/</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/bimal-patel-b7504849</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nikita-bhatt-ce/?originalSubdomain=in</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/deep-kothadiya-phd-70983a86/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/parmanand-patel-1269016b/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/krunal-maheriya-aba5681a1/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/priteshprajapati/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-hardik-modi-181035b/</t>
+  </si>
+  <si>
+    <t>hlinkedin.com/in/dr-ashwin-makwana-9a6688112</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/pavitramodi/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/bhargavshobhana/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/gaurav-kumar1582/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dhaval-patel-481b0885/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/me?trk=p_mwlite_profile_self-secondary_nav</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-miral-desai-245448a2/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/gajanan-patange-05ba2219/overlay/about-this-profile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BEvV8mS8jTpy2mGfBhro1og%3D%3D</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/anandpatel010883</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vikas-panchal-873277251/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abhishek-patel-6035986a/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/arpitajshah/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sneha-padhiar-4aaa17146/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/harshul-yagnik-81a6a022/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/brinda-patel-652073252</t>
+  </si>
+  <si>
+    <t>http://www.linkedin.com/in/dhavalbhoi</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sagarkumar-patel-0bb94bb5/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/akshita-kadam/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/neha-chauhan22</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/feed/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/public-profile/settings?trk=d_flagship3_profile_self_view_public_profile</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jalpa-ardeshana-381496b7/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-spoorthy-v-10ab3813a/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dhara-patel-839488138</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dharmendrasinh-chauhan-073a491a4/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/rajnik-katriya/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sanket-suthar-544a69210/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/kundan-patel-b9508b27b</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vidisha-pradhan-733a1b63/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dharmendrasinh-rathod-4482a2a4/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/madhav-oza-60bb5650</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hemantnyadav/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-vijay-chaudhary-12769b311/</t>
+  </si>
+  <si>
+    <t>inkedin.com/in/mjdesai/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=in</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aneri-pandya-550687141/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/ prof-mayur-sutaria</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mihirmehta-educational-project-and-placements/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/gaurang-patel-a99266119/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/nishant-koshti-52b68b8b</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-akash-vyas-85497444/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/brijesh-kundaliya-552b7722/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jalpesh-vasa/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/vaishali-mewada-7a619053/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jignesh1607/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/vijaykumar-panchal-631852280</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-mihir-bhatt-806a85aa/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-sagar-chokshi-8646601a/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/pratik-panchal-a35b325a</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/hemangi-oza-60a189190/</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/vibha-parmar-81b3045b</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jpc-437182a6/</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/maulik-shah-30b483119</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/saritavisavalia</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-jigar-sarda-00384414/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/trusha-patel-gajjar</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/srushti-gajjar-92b829142?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/axatpatel/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/ronaknpatel/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/asifiqbal-thakor-56949b237/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/saiyadmahammadsoaib/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/jivanadhar-joshi-a76a12ab/</t>
+  </si>
+  <si>
+    <t>https://in.linkedin.com/in/dr-tigmanshu-patel-b3252639</t>
+  </si>
+  <si>
+    <t>linkedin.com/in/jay-bhavsar-a4a9646a</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/purvi-prajapati-37ba6651</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/nirpex-patel-508956119/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/priyanka-patel-ph-d-00403393/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mehulkumar-katakiya-029357b8/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/niyati-pandit-001335140?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/harmish-bhatt-88581510a/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/mikin-patel-24191386/</t>
+  </si>
+  <si>
+    <t>CHARUSAT Research paper award (3 times), Editorial Board member in 3 journals, Best conference presentation in 2023-24</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>CHARUSAT Research Paper Award</t>
+  </si>
+  <si>
+    <t>Best presentation award in 2023-24</t>
+  </si>
+  <si>
+    <t>Outstanding Woman Researcher in Metamaterials, Venus International Women Awards (VIWA 2024) by Venus International Foundation, Chennai</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Mentor Award by NPTEL </t>
+  </si>
+  <si>
+    <t>Appreciation/Recognition for research by CHARUSAT</t>
+  </si>
+  <si>
+    <t>Gold Medalist at M. Tech Level (Gujarat Technological University).
+Best Practice Award on Teaching and Learning at A Symposium on Pedagogical Practices: A key to Outcome Based Education.
+Best Research Paper Award in Conference RAME 2024.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHARUSAT Research Award, </t>
+  </si>
+  <si>
+    <t>“2021 EC-Council Instructor Best Newcomer” from EC-Council Global Awards 2021</t>
+  </si>
+  <si>
+    <t>CHARUSAT Research Paper Award, IEEE Reviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Won best innovative idea presentation for “Creating Favorable Environment for Innovation and Entrepreneurship on Campuses” at GMDC, Ahmeabad organized by iCreate (International Center for entrepreneurship and technology) among 75 participants from various engineering colleges of Gujarat.
+•Won best Research Paper Award in ISCE-2021 International Conference, Delhi
+•Won 3 times Research Paper Appreciation Award in 2019, 2020, and 2022.
+•Won Best Pedagogy Practice Award by IQAC, CHARUSAT in 2023.
+</t>
+  </si>
+  <si>
+    <t>Research Award (CHARUSAT)</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Guru Dronacharya Award</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Yes - SPOURAL 2011</t>
+  </si>
+  <si>
+    <t>NIL</t>
+  </si>
+  <si>
+    <t>Enduring Commitment Award</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Top Performing Mentor July-October 2018 by NPTEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Top Performing Mentor for NPTEL (Government) Online Course “Database Management System” during Jul-Dec 2024. 
+- Android Forensics with Belka soft (Non Government)  for their score of 100% in the training course. Award Date : 19/03/2024
+- Top Performing Mentor for NPTEL (Government) Online Course “Computer Network” from Dec-March 2024.
+- Top Performing Mentor for NPTEL (Government) Online Course “Database Management System” during Jul-Dec 2023.
+</t>
+  </si>
+  <si>
+    <t>Best Paper Award in 2018 and Research paper award in 2022</t>
+  </si>
+  <si>
+    <t>Appriciation Award for cooordinating sucessfully all the events manage by Executive Central Council Faculty Representative, Coordinator of Executive Central Council Faculty Representative in  2023-24 and coconvener of ULSC in 2024-25</t>
+  </si>
+  <si>
+    <t>Top Performing Mentor for the NPTEL Course DBMS</t>
+  </si>
+  <si>
+    <t>Not yet.</t>
+  </si>
+  <si>
+    <t>Nil</t>
+  </si>
+  <si>
+    <t>Best Mentor Award - NPTEL, SPOC-SIH, Best Paper Award at RAME-2024 Conference, SPOC-KAVACH-2023</t>
+  </si>
+  <si>
+    <t>Best research paper award</t>
+  </si>
+  <si>
+    <t>Received Various Research Paper Awards</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>No awards as such</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSIP winner in public utility 2019-20 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best paper award in 1st international conference on simulation ,automation and robotics,Elite certificate in  NPTEL online certification course “Hardware modeling using Verilog </t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>N.A</t>
+  </si>
+  <si>
+    <t>Best Paper Presenter Award, Best Paper Award</t>
+  </si>
+  <si>
+    <t>CHARUSAT Research Paper award</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,11 +1108,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF333333"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -192,7 +1134,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -200,21 +1142,64 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF8F9FA"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF8F9FA"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -224,19 +1209,87 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{2B175AFE-DE6F-44DD-9AC1-83DAFD876053}"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF5B3F86"/>
+          <bgColor rgb="FF5B3F86"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Form Responses 1-style" pivot="0" count="3" xr9:uid="{950B485F-9671-4237-B0CD-DC38C9197A06}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -511,21 +1564,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D2:D3"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:K94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.88671875" customWidth="1"/>
     <col min="3" max="3" width="20.44140625" customWidth="1"/>
     <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="20.21875" customWidth="1"/>
     <col min="13" max="13" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="9" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -539,217 +1594,3424 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>31</v>
+      <c r="F4" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>120</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="B6" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>301</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="20"/>
+      <c r="G8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="3"/>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="B9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="21"/>
+      <c r="G9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>304</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>219</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>221</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="K15" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>223</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="K18" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>308</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>309</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>227</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A21" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>310</v>
+      </c>
+      <c r="G21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>311</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A25" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F25" s="21"/>
+      <c r="G25" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F26" s="20"/>
+      <c r="G26" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A27" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D27" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" s="21" t="s">
+        <v>312</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="K27" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>313</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="K28" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A29" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>314</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>237</v>
+      </c>
+      <c r="K30" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A31" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D31" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="K31" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>316</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A33" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J33" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A34" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>317</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J34" s="16" t="s">
+        <v>241</v>
+      </c>
+      <c r="K34" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J35" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="K35" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A36" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>318</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J36" s="16" t="s">
+        <v>243</v>
+      </c>
+      <c r="K36" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A37" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="18" t="s">
+        <v>244</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A38" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J38" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A39" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D39" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J39" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J40" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="21"/>
+      <c r="G41" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J41" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="20"/>
+      <c r="G42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A43" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D43" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J43" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A45" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="14" t="s">
+        <v>159</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J45" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>321</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J47" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="K47" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A48" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H48" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C49" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H49" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J49" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="K49" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A50" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="20"/>
+      <c r="G50" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="K50" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A51" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F51" s="21" t="s">
+        <v>324</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J51" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="K51" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A52" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="K52" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="21"/>
+      <c r="G53" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J53" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A54" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F54" s="20"/>
+      <c r="G54" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J54" s="16" t="s">
+        <v>260</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J55" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A56" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J56" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D57" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F57" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J57" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A58" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>325</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J58" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" s="14" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F59" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J59" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A60" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F60" s="20"/>
+      <c r="G60" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J60" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A61" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F61" s="21"/>
+      <c r="G61" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J61" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A62" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F62" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J62" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A63" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D63" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F63" s="21" t="s">
+        <v>317</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H63" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J63" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A64" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F64" s="20"/>
+      <c r="G64" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J64" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A65" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="14" t="s">
+        <v>179</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F65" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J65" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A66" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F66" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J66" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A67" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F67" s="21"/>
+      <c r="G67" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H67" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J67" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A68" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F68" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="G68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H68" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J68" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A69" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F69" s="21" t="s">
+        <v>318</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H69" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J69" s="18" t="s">
+        <v>273</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A70" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F70" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J70" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A71" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D71" s="14" t="s">
+        <v>185</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J71" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A72" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>331</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J72" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A73" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="14" t="s">
+        <v>187</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F73" s="21" t="s">
+        <v>332</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J73" s="18" t="s">
+        <v>277</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A74" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>303</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J74" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A75" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F75" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J75" s="18" t="s">
+        <v>279</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A76" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F76" s="20"/>
+      <c r="G76" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J76" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D77" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F77" s="21" t="s">
+        <v>333</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J77" s="18" t="s">
+        <v>247</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A78" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F78" s="20"/>
+      <c r="G78" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J78" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="21" t="s">
+        <v>315</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J79" s="18" t="s">
+        <v>282</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A80" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="20"/>
+      <c r="G80" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H80" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J80" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F81" s="21" t="s">
+        <v>303</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J81" s="18" t="s">
+        <v>284</v>
+      </c>
+      <c r="K81" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A82" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F82" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H82" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J82" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="K82" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F83" s="21" t="s">
+        <v>330</v>
+      </c>
+      <c r="G83" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H83" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J83" s="18" t="s">
+        <v>286</v>
+      </c>
+      <c r="K83" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A84" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F84" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J84" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="K84" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="21" t="s">
+        <v>335</v>
+      </c>
+      <c r="G85" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H85" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J85" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="K85" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="20"/>
+      <c r="G86" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H86" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I86" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J86" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="K86" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="21"/>
+      <c r="G87" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J87" s="18" t="s">
+        <v>290</v>
+      </c>
+      <c r="K87" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A88" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="20"/>
+      <c r="G88" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J88" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="K88" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F89" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I89" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J89" s="18" t="s">
+        <v>292</v>
+      </c>
+      <c r="K89" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A90" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>336</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H90" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I90" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J90" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="K90" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D91" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F91" s="21"/>
+      <c r="G91" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J91" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="K91" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A92" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F92" s="20" t="s">
+        <v>299</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J92" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="K92" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F93" s="21"/>
+      <c r="G93" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J93" s="18" t="s">
+        <v>296</v>
+      </c>
+      <c r="K93" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" ht="72" x14ac:dyDescent="0.3">
+      <c r="A94" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J94" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="K94" s="5" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{0519644A-0615-4AD5-8E70-41B2C78D5C5F}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{81367E78-F015-423E-8B92-29D0213C4337}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{451A86B9-6F67-47C1-B8CE-1B76AE93937C}"/>
-    <hyperlink ref="I5" r:id="rId4" xr:uid="{31BEFDC5-55C0-408B-B194-C5D7FA348878}"/>
-    <hyperlink ref="J5" r:id="rId5" xr:uid="{8CE0B7FE-7B35-4A89-ABC6-BFD9B8741ADB}"/>
-    <hyperlink ref="E2" r:id="rId6" xr:uid="{A62FB5FE-12B7-435E-B3DF-DE702ECD1D4C}"/>
-    <hyperlink ref="E3" r:id="rId7" xr:uid="{5213EB05-47C0-440B-BCE0-5AE39F81C1FB}"/>
-    <hyperlink ref="E4" r:id="rId8" xr:uid="{DFCDD958-95A9-4FCA-9FB2-8AE32FE2122D}"/>
-    <hyperlink ref="E5" r:id="rId9" xr:uid="{BDA57A78-BFD2-4782-B2A5-E341CD8C9BFE}"/>
-    <hyperlink ref="K2" r:id="rId10" xr:uid="{6A8C48D4-F790-4D90-A216-7CDAB5CD3FC9}"/>
-    <hyperlink ref="K3:K5" r:id="rId11" display="https://www.charusat.ac.in/cspit/index.html" xr:uid="{CFA7AF8B-5015-4D55-A810-4BF0FFBF1A7A}"/>
+    <hyperlink ref="I5" r:id="rId1" xr:uid="{31BEFDC5-55C0-408B-B194-C5D7FA348878}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{A62FB5FE-12B7-435E-B3DF-DE702ECD1D4C}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{5213EB05-47C0-440B-BCE0-5AE39F81C1FB}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{DFCDD958-95A9-4FCA-9FB2-8AE32FE2122D}"/>
+    <hyperlink ref="E5" r:id="rId5" xr:uid="{BDA57A78-BFD2-4782-B2A5-E341CD8C9BFE}"/>
+    <hyperlink ref="K2" r:id="rId6" xr:uid="{6A8C48D4-F790-4D90-A216-7CDAB5CD3FC9}"/>
+    <hyperlink ref="K3:K5" r:id="rId7" display="https://www.charusat.ac.in/cspit/index.html" xr:uid="{CFA7AF8B-5015-4D55-A810-4BF0FFBF1A7A}"/>
+    <hyperlink ref="J2" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="J3" r:id="rId9" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="J4" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="J5" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="J6" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="J7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="J8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="J9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="J10" r:id="rId16" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="J11" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="J12" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="J13" r:id="rId19" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="J14" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="J15" r:id="rId21" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="J16" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="J17" r:id="rId23" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="J18" r:id="rId24" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="J19" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="J20" r:id="rId26" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="J21" r:id="rId27" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="J22" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="J23" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="J24" r:id="rId30" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="J25" r:id="rId31" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="J26" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="J27" r:id="rId33" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="J28" r:id="rId34" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="J29" r:id="rId35" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="J30" r:id="rId36" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="J31" r:id="rId37" xr:uid="{00000000-0004-0000-0000-0000B4000000}"/>
+    <hyperlink ref="J32" r:id="rId38" xr:uid="{00000000-0004-0000-0000-0000BA000000}"/>
+    <hyperlink ref="J33" r:id="rId39" xr:uid="{00000000-0004-0000-0000-0000C1000000}"/>
+    <hyperlink ref="J34" r:id="rId40" xr:uid="{00000000-0004-0000-0000-0000C7000000}"/>
+    <hyperlink ref="J35" r:id="rId41" xr:uid="{00000000-0004-0000-0000-0000CC000000}"/>
+    <hyperlink ref="J36" r:id="rId42" xr:uid="{00000000-0004-0000-0000-0000D1000000}"/>
+    <hyperlink ref="J37" r:id="rId43" xr:uid="{00000000-0004-0000-0000-0000D5000000}"/>
+    <hyperlink ref="J38" r:id="rId44" xr:uid="{00000000-0004-0000-0000-0000DC000000}"/>
+    <hyperlink ref="J39" r:id="rId45" xr:uid="{00000000-0004-0000-0000-0000E1000000}"/>
+    <hyperlink ref="J40" r:id="rId46" xr:uid="{00000000-0004-0000-0000-0000E5000000}"/>
+    <hyperlink ref="J41" r:id="rId47" xr:uid="{00000000-0004-0000-0000-0000EB000000}"/>
+    <hyperlink ref="J42" r:id="rId48" xr:uid="{00000000-0004-0000-0000-0000F0000000}"/>
+    <hyperlink ref="J43" r:id="rId49" xr:uid="{00000000-0004-0000-0000-0000F4000000}"/>
+    <hyperlink ref="J44" r:id="rId50" xr:uid="{00000000-0004-0000-0000-0000FA000000}"/>
+    <hyperlink ref="J45" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000000010000}"/>
+    <hyperlink ref="J46" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000007010000}"/>
+    <hyperlink ref="J47" r:id="rId53" xr:uid="{00000000-0004-0000-0000-00000E010000}"/>
+    <hyperlink ref="J48" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000017010000}"/>
+    <hyperlink ref="J49" r:id="rId55" xr:uid="{00000000-0004-0000-0000-00001D010000}"/>
+    <hyperlink ref="J50" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000020010000}"/>
+    <hyperlink ref="J51" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000024010000}"/>
+    <hyperlink ref="J52" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00002C010000}"/>
+    <hyperlink ref="J53" r:id="rId59" xr:uid="{00000000-0004-0000-0000-000033010000}"/>
+    <hyperlink ref="J54" r:id="rId60" xr:uid="{00000000-0004-0000-0000-000038010000}"/>
+    <hyperlink ref="J55" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003B010000}"/>
+    <hyperlink ref="J56" r:id="rId62" xr:uid="{00000000-0004-0000-0000-000041010000}"/>
+    <hyperlink ref="J57" r:id="rId63" xr:uid="{00000000-0004-0000-0000-000048010000}"/>
+    <hyperlink ref="J58" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00004E010000}"/>
+    <hyperlink ref="J60" r:id="rId65" xr:uid="{00000000-0004-0000-0000-00005C010000}"/>
+    <hyperlink ref="J61" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000061010000}"/>
+    <hyperlink ref="J62" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000067010000}"/>
+    <hyperlink ref="J63" r:id="rId68" xr:uid="{00000000-0004-0000-0000-00006C010000}"/>
+    <hyperlink ref="J64" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000073010000}"/>
+    <hyperlink ref="J65" r:id="rId70" xr:uid="{00000000-0004-0000-0000-00007A010000}"/>
+    <hyperlink ref="J66" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000082010000}"/>
+    <hyperlink ref="J67" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000087010000}"/>
+    <hyperlink ref="J68" r:id="rId73" xr:uid="{00000000-0004-0000-0000-00008E010000}"/>
+    <hyperlink ref="J69" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000091010000}"/>
+    <hyperlink ref="J70" r:id="rId75" xr:uid="{00000000-0004-0000-0000-000099010000}"/>
+    <hyperlink ref="J71" r:id="rId76" xr:uid="{00000000-0004-0000-0000-0000A2010000}"/>
+    <hyperlink ref="J72" r:id="rId77" xr:uid="{00000000-0004-0000-0000-0000A6010000}"/>
+    <hyperlink ref="J73" r:id="rId78" xr:uid="{00000000-0004-0000-0000-0000AB010000}"/>
+    <hyperlink ref="J74" r:id="rId79" xr:uid="{00000000-0004-0000-0000-0000B0010000}"/>
+    <hyperlink ref="J75" r:id="rId80" xr:uid="{00000000-0004-0000-0000-0000B6010000}"/>
+    <hyperlink ref="J76" r:id="rId81" xr:uid="{00000000-0004-0000-0000-0000BD010000}"/>
+    <hyperlink ref="J77" r:id="rId82" xr:uid="{00000000-0004-0000-0000-0000C1010000}"/>
+    <hyperlink ref="J78" r:id="rId83" xr:uid="{00000000-0004-0000-0000-0000C8010000}"/>
+    <hyperlink ref="J79" r:id="rId84" xr:uid="{00000000-0004-0000-0000-0000D0010000}"/>
+    <hyperlink ref="J80" r:id="rId85" xr:uid="{00000000-0004-0000-0000-0000D7010000}"/>
+    <hyperlink ref="J81" r:id="rId86" xr:uid="{00000000-0004-0000-0000-0000D9010000}"/>
+    <hyperlink ref="J82" r:id="rId87" xr:uid="{00000000-0004-0000-0000-0000DC010000}"/>
+    <hyperlink ref="J83" r:id="rId88" xr:uid="{00000000-0004-0000-0000-0000E5010000}"/>
+    <hyperlink ref="J84" r:id="rId89" xr:uid="{00000000-0004-0000-0000-0000E9010000}"/>
+    <hyperlink ref="J85" r:id="rId90" xr:uid="{00000000-0004-0000-0000-0000ED010000}"/>
+    <hyperlink ref="J86" r:id="rId91" xr:uid="{00000000-0004-0000-0000-0000F1010000}"/>
+    <hyperlink ref="J87" r:id="rId92" xr:uid="{00000000-0004-0000-0000-0000F6010000}"/>
+    <hyperlink ref="J88" r:id="rId93" xr:uid="{00000000-0004-0000-0000-0000FC010000}"/>
+    <hyperlink ref="J89" r:id="rId94" xr:uid="{00000000-0004-0000-0000-000002020000}"/>
+    <hyperlink ref="J90" r:id="rId95" xr:uid="{00000000-0004-0000-0000-000005020000}"/>
+    <hyperlink ref="J91" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00000E020000}"/>
+    <hyperlink ref="J92" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000013020000}"/>
+    <hyperlink ref="J93" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000017020000}"/>
+    <hyperlink ref="J94" r:id="rId99" xr:uid="{00000000-0004-0000-0000-00001D020000}"/>
+    <hyperlink ref="E6:E94" r:id="rId100" display="faculty_image\AvaniKhokhariya.webp" xr:uid="{1CEC3C98-0A5D-4D86-82F1-AD2FD83D44BD}"/>
+    <hyperlink ref="I6" r:id="rId101" xr:uid="{FF18AC04-1CD4-4A73-8554-95CF53EED885}"/>
+    <hyperlink ref="I7" r:id="rId102" xr:uid="{13384709-E782-4B35-8FFC-698EED4F49EE}"/>
+    <hyperlink ref="I8" r:id="rId103" xr:uid="{464ECE65-6005-4A5D-BEBD-444463057B8A}"/>
+    <hyperlink ref="I9" r:id="rId104" xr:uid="{73AC5281-B0F9-4A78-B0A6-3A42248D0FB0}"/>
+    <hyperlink ref="I10" r:id="rId105" xr:uid="{B330C417-F9EE-4208-878D-82C5E324EBDC}"/>
+    <hyperlink ref="I11" r:id="rId106" xr:uid="{6563FDA3-6C5B-4E99-8A64-4E1B094F8C08}"/>
+    <hyperlink ref="I12" r:id="rId107" xr:uid="{37888624-A4D7-4233-B41B-1FD397169D14}"/>
+    <hyperlink ref="I13" r:id="rId108" xr:uid="{FC6F9BFB-223D-4CC5-ACCA-E0F75AD90F8A}"/>
+    <hyperlink ref="I14" r:id="rId109" xr:uid="{802FD827-2748-453A-B2BA-2B639BC7CC8A}"/>
+    <hyperlink ref="I15" r:id="rId110" xr:uid="{A9F550F8-E13E-4ADA-8F81-B511F26C4979}"/>
+    <hyperlink ref="I16" r:id="rId111" xr:uid="{F1375A74-2201-40C0-A003-AA1A1CC223DA}"/>
+    <hyperlink ref="I17" r:id="rId112" xr:uid="{922FC7C2-7044-4411-9B0D-EC170B5DD1A4}"/>
+    <hyperlink ref="I18" r:id="rId113" xr:uid="{CEE53142-6B4A-4A72-BB2F-59D5401DC254}"/>
+    <hyperlink ref="I19" r:id="rId114" xr:uid="{E8B6B4B8-086A-4C01-B1B4-CA8A6CF644F0}"/>
+    <hyperlink ref="I20" r:id="rId115" xr:uid="{E0A9EFD0-91B1-44DC-965F-FC280DB4A356}"/>
+    <hyperlink ref="I21" r:id="rId116" xr:uid="{316D94F7-34E9-41A6-BAC1-9BACA7C56E31}"/>
+    <hyperlink ref="I22" r:id="rId117" xr:uid="{854A46C6-DAF2-499A-A08D-1726D992EA62}"/>
+    <hyperlink ref="I23" r:id="rId118" xr:uid="{C4FBD29B-B52F-448A-91D5-E522610BCAFB}"/>
+    <hyperlink ref="I24" r:id="rId119" xr:uid="{DBA0C30F-39C3-414F-B5D4-9DB384556767}"/>
+    <hyperlink ref="I25" r:id="rId120" xr:uid="{439C2EAB-5AC5-4671-950C-9701394B8B92}"/>
+    <hyperlink ref="I26" r:id="rId121" xr:uid="{5B5BDC42-E84A-42F9-A024-F45F58EB4707}"/>
+    <hyperlink ref="I27" r:id="rId122" xr:uid="{256EC1C1-FCF5-468C-BBA7-7F9067089AFD}"/>
+    <hyperlink ref="I28" r:id="rId123" xr:uid="{41721B06-4621-4059-AB8E-C60DA6671DE8}"/>
+    <hyperlink ref="I29" r:id="rId124" xr:uid="{38FB9735-99BF-4435-8E14-4E77EA9E8678}"/>
+    <hyperlink ref="I30" r:id="rId125" xr:uid="{2CAD65DA-9F41-40FB-9C15-AC0BAD6F6FE7}"/>
+    <hyperlink ref="I31" r:id="rId126" xr:uid="{E62BE3D3-1701-4F46-9CD0-40553370AA70}"/>
+    <hyperlink ref="I32" r:id="rId127" xr:uid="{CFAB6B20-9450-4F80-A939-6DF0AA356831}"/>
+    <hyperlink ref="I33" r:id="rId128" xr:uid="{6C095352-5A20-4747-9E7B-0EBC31A98C95}"/>
+    <hyperlink ref="I34" r:id="rId129" xr:uid="{64A93BD0-A9C7-4CAA-8286-5C2870B8161B}"/>
+    <hyperlink ref="I35" r:id="rId130" xr:uid="{076C7F28-959E-4A2E-82A2-4FC5E94B4487}"/>
+    <hyperlink ref="I36" r:id="rId131" xr:uid="{CF96DEB3-2E1B-42C9-B31B-58A97A0F311C}"/>
+    <hyperlink ref="I37" r:id="rId132" xr:uid="{CF251D1C-252F-47B0-9084-95BED4EFBA59}"/>
+    <hyperlink ref="I38" r:id="rId133" xr:uid="{23BD0F99-092B-43E5-8B3B-7532043BE1A6}"/>
+    <hyperlink ref="I39" r:id="rId134" xr:uid="{9880EDC5-080B-4BC4-85C3-2073796E677D}"/>
+    <hyperlink ref="I40" r:id="rId135" xr:uid="{06BA2DBB-81B1-457F-BEC5-0206B9C98B15}"/>
+    <hyperlink ref="I41" r:id="rId136" xr:uid="{E0792950-98CC-481B-BFA4-1510F2237774}"/>
+    <hyperlink ref="I42" r:id="rId137" xr:uid="{9E4C91D4-B27E-4687-9769-DE91981AB0E0}"/>
+    <hyperlink ref="I43" r:id="rId138" xr:uid="{BED00FAF-47D9-4AB7-B7E2-EFBA80435B99}"/>
+    <hyperlink ref="I44" r:id="rId139" xr:uid="{BCC12A33-653B-44F9-9D21-7EC3A42AB9F3}"/>
+    <hyperlink ref="I45" r:id="rId140" xr:uid="{A29E030E-8E08-4729-8AD8-55C5E4C0572D}"/>
+    <hyperlink ref="I46" r:id="rId141" xr:uid="{9E413344-2DD5-4067-ACAF-EBC49D0C9147}"/>
+    <hyperlink ref="I47" r:id="rId142" xr:uid="{4DC73CB7-E77F-4526-B768-0F2498CA535C}"/>
+    <hyperlink ref="I48" r:id="rId143" xr:uid="{640F4EE8-C403-40A7-8F5E-0FB343C6D75C}"/>
+    <hyperlink ref="I49" r:id="rId144" xr:uid="{75D384C7-674B-4B75-8D4E-1D1B5FADCCA0}"/>
+    <hyperlink ref="I50" r:id="rId145" xr:uid="{42A3C68D-56F3-4294-8CFB-4BD5BDCD7DF9}"/>
+    <hyperlink ref="I51" r:id="rId146" xr:uid="{D1C0DC1D-E2C9-44E3-B73C-3C0D11B8C40C}"/>
+    <hyperlink ref="I52" r:id="rId147" xr:uid="{152CB3E9-A845-4ECE-8225-7A968B9951C7}"/>
+    <hyperlink ref="I53" r:id="rId148" xr:uid="{7170EA07-BDF5-477B-A05A-79E5594A4612}"/>
+    <hyperlink ref="I54" r:id="rId149" xr:uid="{F05B1503-CD34-4964-A4A2-FAD2CA89E275}"/>
+    <hyperlink ref="I55" r:id="rId150" xr:uid="{E857D3EB-2760-4201-ABD6-2B0D7A0D0C6C}"/>
+    <hyperlink ref="I56" r:id="rId151" xr:uid="{61842B9B-67EC-475A-B726-2B9E08E800A4}"/>
+    <hyperlink ref="I57" r:id="rId152" xr:uid="{19EFBF54-9D78-4AAD-94FD-98743AFC6ECF}"/>
+    <hyperlink ref="I58" r:id="rId153" xr:uid="{CEE817A1-2D15-4BAF-AA01-2947F6792320}"/>
+    <hyperlink ref="I59" r:id="rId154" xr:uid="{62899AC3-5010-4449-B41C-A88089F91337}"/>
+    <hyperlink ref="I60" r:id="rId155" xr:uid="{F3BD8E79-CBDD-40D3-A8DB-1CEAB6B4F4FD}"/>
+    <hyperlink ref="I61" r:id="rId156" xr:uid="{30B32444-EBAC-47BE-B259-8B88D75CD0C7}"/>
+    <hyperlink ref="I62" r:id="rId157" xr:uid="{7F58DA30-348B-48C9-980D-7B7B8F96F7B9}"/>
+    <hyperlink ref="I63" r:id="rId158" xr:uid="{DC542A5D-EB8E-4B0F-92B3-EBF4767F88D1}"/>
+    <hyperlink ref="I64" r:id="rId159" xr:uid="{DE504447-1A13-4D9A-B8AE-1C272EDD182B}"/>
+    <hyperlink ref="I65" r:id="rId160" xr:uid="{5370CF0E-7D85-4805-AB33-082799F02ABA}"/>
+    <hyperlink ref="I66" r:id="rId161" xr:uid="{77566A8C-EEC8-4F90-AA14-3F127967182F}"/>
+    <hyperlink ref="I67" r:id="rId162" xr:uid="{EED44BB9-D147-467A-B065-6BDC431A3E39}"/>
+    <hyperlink ref="I68" r:id="rId163" xr:uid="{A4822456-53BA-41B2-9501-D220A24EFB30}"/>
+    <hyperlink ref="I69" r:id="rId164" xr:uid="{32FA68B6-5EBF-4E62-AABA-20D7800E7501}"/>
+    <hyperlink ref="I70" r:id="rId165" xr:uid="{82DD5191-2AF6-4B51-B144-9632CA77F4A0}"/>
+    <hyperlink ref="I71" r:id="rId166" xr:uid="{00E188D2-B23F-4068-9179-1DD9CC40B771}"/>
+    <hyperlink ref="I72" r:id="rId167" xr:uid="{C2F5E5C1-4B40-412E-AB88-26EFDFCC8240}"/>
+    <hyperlink ref="I73" r:id="rId168" xr:uid="{C569757B-F360-4C5D-9854-B164481B20CA}"/>
+    <hyperlink ref="I74" r:id="rId169" xr:uid="{3E544105-9A5E-403A-B535-597DD289053D}"/>
+    <hyperlink ref="I75" r:id="rId170" xr:uid="{C201D217-42DA-48D4-8913-AC27BAE3D736}"/>
+    <hyperlink ref="I76" r:id="rId171" xr:uid="{4F793645-3A0E-4E69-9833-4C0573237E94}"/>
+    <hyperlink ref="I77" r:id="rId172" xr:uid="{7018A460-7378-4472-AC19-1E0BDDB876E5}"/>
+    <hyperlink ref="I78" r:id="rId173" xr:uid="{7AECB8D2-24F9-4CD5-B0A1-313328F35155}"/>
+    <hyperlink ref="I79" r:id="rId174" xr:uid="{22BBF41F-11C4-4D77-AE82-070BFC9518BC}"/>
+    <hyperlink ref="I80" r:id="rId175" xr:uid="{E798CA17-75CD-4034-96D6-5976EF2BA416}"/>
+    <hyperlink ref="I81" r:id="rId176" xr:uid="{71A2A000-F971-4632-9A1C-722823CF85A7}"/>
+    <hyperlink ref="I82" r:id="rId177" xr:uid="{78CEB97D-873D-4E13-96BB-4B52718F27AA}"/>
+    <hyperlink ref="I83" r:id="rId178" xr:uid="{4518610A-79E4-430F-95E8-B5B14551E1DF}"/>
+    <hyperlink ref="I84" r:id="rId179" xr:uid="{E6E4F70D-8B13-4825-84C0-13CE3AA2DB8A}"/>
+    <hyperlink ref="I85" r:id="rId180" xr:uid="{212928A6-7E2A-4199-AC57-E83768178FF3}"/>
+    <hyperlink ref="I86" r:id="rId181" xr:uid="{589493A3-B9A6-44EE-BA70-3C86BD236FCE}"/>
+    <hyperlink ref="I87" r:id="rId182" xr:uid="{578339AB-AE47-4BDE-8473-FEA20DF389AF}"/>
+    <hyperlink ref="I88" r:id="rId183" xr:uid="{263D36CD-1FEE-4C30-BF60-4A1BD37924E4}"/>
+    <hyperlink ref="I89" r:id="rId184" xr:uid="{BAC0E3F0-BB8A-4160-93FA-8AD0A96BFDBA}"/>
+    <hyperlink ref="I90" r:id="rId185" xr:uid="{B51251A4-4AEB-47CC-AC8E-6467D780E876}"/>
+    <hyperlink ref="I91" r:id="rId186" xr:uid="{955BF806-C9C8-429F-80B0-27441F1E5804}"/>
+    <hyperlink ref="I92" r:id="rId187" xr:uid="{52A1208A-3CB9-4397-BA21-85D5ED6A4BFA}"/>
+    <hyperlink ref="I93" r:id="rId188" xr:uid="{AF2E1DB7-D15E-41AA-BD20-88A9179E091F}"/>
+    <hyperlink ref="I94" r:id="rId189" xr:uid="{0FA94707-7778-4415-A80A-287F4E46DB41}"/>
+    <hyperlink ref="K6:K94" r:id="rId190" display="https://www.charusat.ac.in/cspit/index.html" xr:uid="{B922DED2-E710-4E9F-A179-C4C931583C85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -1818,8 +1818,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E97" sqref="E97"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4518248c6cd0c0d5/Desktop/CSPIT_NEW_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{248929BC-7291-4CA9-AAA2-270484AC0911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2131DFCE-8F59-446C-9B7F-12D036881964}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{248929BC-7291-4CA9-AAA2-270484AC0911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D10DA3D-5D92-4B61-B793-B58CA0CFD561}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="809">
   <si>
     <t>Name</t>
   </si>
@@ -579,282 +579,6 @@
   </si>
   <si>
     <t>N.A</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x401</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x402</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x403</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x404</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x405</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x406</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x407</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x408</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x409</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x410</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x411</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x412</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x413</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x414</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x415</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x416</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x417</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x418</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x419</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x420</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x421</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x422</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x423</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x424</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x425</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x426</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x427</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x428</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x429</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x430</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x431</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x432</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x433</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x434</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x435</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x436</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x437</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x438</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x439</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x440</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x441</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x442</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x443</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x444</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x445</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x446</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x447</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x448</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x449</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x450</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x451</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x452</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x453</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x454</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x455</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x456</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x457</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x458</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x459</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x460</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x461</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x462</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x463</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x464</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x465</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x466</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x467</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x468</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x469</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x470</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x471</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x472</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x473</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x474</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x475</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x476</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x477</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x478</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x479</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x480</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x481</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x482</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x483</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x484</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x485</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x486</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x487</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x488</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x489</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x490</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x491</t>
-  </si>
-  <si>
-    <t>https://placehold.co/600x492</t>
   </si>
   <si>
     <t>AAYUSHI PUSHPAKANT CHAUDHARI</t>
@@ -2546,6 +2270,348 @@
   </si>
   <si>
     <t>https://placehold.co/400x600</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x601</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x602</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x603</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x604</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x605</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x606</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x607</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x608</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x609</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x610</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x611</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x612</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x613</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x614</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x615</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x616</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x617</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x618</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x619</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x620</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x621</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x622</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x623</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x624</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x625</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x626</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x627</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x628</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x629</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x630</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x631</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x632</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x633</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x634</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x635</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x636</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x637</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x638</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x639</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x640</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x641</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x642</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x643</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x644</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x645</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x646</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x647</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x648</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x649</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x650</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x651</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x652</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x653</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x654</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x655</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x656</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x657</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x658</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x659</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x660</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x661</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x662</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x663</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x664</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x665</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x666</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x667</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x668</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x669</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x670</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x671</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x672</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x673</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x674</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x675</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x676</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x677</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x678</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x679</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x680</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x681</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x682</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x683</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x684</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x685</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x686</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x687</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x688</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x689</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x690</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x691</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x692</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x693</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x694</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x695</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x696</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x697</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x698</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x699</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x700</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x701</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x702</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x703</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x704</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x705</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x706</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x707</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x708</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x709</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x710</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x711</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x712</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x713</t>
+  </si>
+  <si>
+    <t>https://placehold.co/400x714</t>
   </si>
 </sst>
 </file>
@@ -3039,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3091,22 +3157,22 @@
     </row>
     <row r="2" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
-        <v>274</v>
+        <v>182</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>407</v>
+        <v>315</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>786</v>
+        <v>694</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>542</v>
+        <v>450</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>179</v>
@@ -3115,21 +3181,21 @@
         <v>179</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>432</v>
+        <v>340</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>388</v>
+        <v>296</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>690</v>
+        <v>598</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="198" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
-        <v>275</v>
+        <v>183</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -3138,10 +3204,10 @@
         <v>20</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>182</v>
+        <v>695</v>
       </c>
       <c r="F3" s="11" t="s">
-        <v>543</v>
+        <v>451</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>179</v>
@@ -3150,21 +3216,21 @@
         <v>179</v>
       </c>
       <c r="I3" s="13" t="s">
-        <v>433</v>
+        <v>341</v>
       </c>
       <c r="J3" s="9" t="s">
         <v>135</v>
       </c>
       <c r="K3" s="9" t="s">
-        <v>691</v>
+        <v>599</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3173,10 +3239,10 @@
         <v>35</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>183</v>
+        <v>696</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>544</v>
+        <v>452</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>179</v>
@@ -3185,21 +3251,21 @@
         <v>179</v>
       </c>
       <c r="I4" s="13" t="s">
-        <v>434</v>
+        <v>342</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>692</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -3208,10 +3274,10 @@
         <v>79</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>184</v>
+        <v>697</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>545</v>
+        <v>453</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>179</v>
@@ -3220,21 +3286,21 @@
         <v>179</v>
       </c>
       <c r="I5" s="13" t="s">
-        <v>435</v>
+        <v>343</v>
       </c>
       <c r="J5" s="9" t="s">
         <v>115</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>693</v>
+        <v>601</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>278</v>
+        <v>186</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>
@@ -3243,10 +3309,10 @@
         <v>54</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>185</v>
+        <v>698</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>546</v>
+        <v>454</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>179</v>
@@ -3255,70 +3321,70 @@
         <v>179</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>436</v>
+        <v>344</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>694</v>
+        <v>602</v>
       </c>
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
     <row r="7" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>408</v>
+        <v>316</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>186</v>
+        <v>699</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>547</v>
+        <v>455</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>656</v>
+        <v>564</v>
       </c>
       <c r="I7" s="13" t="s">
-        <v>437</v>
+        <v>345</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>142</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>695</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="66" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>280</v>
+        <v>188</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>409</v>
+        <v>317</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>187</v>
+        <v>700</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>548</v>
+        <v>456</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>179</v>
@@ -3327,7 +3393,7 @@
         <v>179</v>
       </c>
       <c r="I8" s="13" t="s">
-        <v>438</v>
+        <v>346</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>179</v>
@@ -3338,10 +3404,10 @@
     </row>
     <row r="9" spans="1:13" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>281</v>
+        <v>189</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>12</v>
@@ -3350,10 +3416,10 @@
         <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>188</v>
+        <v>701</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>549</v>
+        <v>457</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>179</v>
@@ -3362,21 +3428,21 @@
         <v>179</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>439</v>
+        <v>347</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>128</v>
       </c>
       <c r="K9" s="9" t="s">
-        <v>696</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="132" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>282</v>
+        <v>190</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>12</v>
@@ -3385,10 +3451,10 @@
         <v>73</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>189</v>
+        <v>702</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>550</v>
+        <v>458</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>179</v>
@@ -3397,33 +3463,33 @@
         <v>179</v>
       </c>
       <c r="I10" s="13" t="s">
-        <v>440</v>
+        <v>348</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>697</v>
+        <v>605</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="290.39999999999998" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>283</v>
+        <v>191</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>410</v>
+        <v>318</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>190</v>
+        <v>703</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>551</v>
+        <v>459</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>179</v>
@@ -3432,21 +3498,21 @@
         <v>179</v>
       </c>
       <c r="I11" s="13" t="s">
-        <v>441</v>
+        <v>349</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>138</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>697</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>284</v>
+        <v>192</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>12</v>
@@ -3455,33 +3521,33 @@
         <v>48</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>191</v>
+        <v>704</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>552</v>
+        <v>460</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H12" s="11" t="s">
-        <v>657</v>
+        <v>565</v>
       </c>
       <c r="I12" s="13" t="s">
-        <v>442</v>
+        <v>350</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>136</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>285</v>
+        <v>193</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>12</v>
@@ -3490,33 +3556,33 @@
         <v>92</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>192</v>
+        <v>705</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>553</v>
+        <v>461</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H13" s="11" t="s">
-        <v>658</v>
+        <v>566</v>
       </c>
       <c r="I13" s="13" t="s">
-        <v>443</v>
+        <v>351</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>165</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>697</v>
+        <v>605</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>286</v>
+        <v>194</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>12</v>
@@ -3525,25 +3591,25 @@
         <v>38</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>193</v>
+        <v>706</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>554</v>
+        <v>462</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H14" s="11" t="s">
-        <v>659</v>
+        <v>567</v>
       </c>
       <c r="I14" s="13" t="s">
-        <v>444</v>
+        <v>352</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>137</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>699</v>
+        <v>607</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="198" x14ac:dyDescent="0.3">
@@ -3551,7 +3617,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>12</v>
@@ -3560,10 +3626,10 @@
         <v>97</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>194</v>
+        <v>707</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>555</v>
+        <v>463</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>179</v>
@@ -3572,33 +3638,33 @@
         <v>179</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>445</v>
+        <v>353</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>700</v>
+        <v>608</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>287</v>
+        <v>195</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>411</v>
+        <v>319</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>195</v>
+        <v>708</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>556</v>
+        <v>464</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>179</v>
@@ -3607,7 +3673,7 @@
         <v>179</v>
       </c>
       <c r="I16" s="13" t="s">
-        <v>446</v>
+        <v>354</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>179</v>
@@ -3618,10 +3684,10 @@
     </row>
     <row r="17" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>288</v>
+        <v>196</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>12</v>
@@ -3630,33 +3696,33 @@
         <v>40</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>196</v>
+        <v>709</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>557</v>
+        <v>465</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>660</v>
+        <v>568</v>
       </c>
       <c r="I17" s="13" t="s">
-        <v>447</v>
+        <v>355</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>389</v>
+        <v>297</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>701</v>
+        <v>609</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="224.4" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>289</v>
+        <v>197</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>12</v>
@@ -3665,10 +3731,10 @@
         <v>23</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>197</v>
+        <v>710</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>558</v>
+        <v>466</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>179</v>
@@ -3677,21 +3743,21 @@
         <v>179</v>
       </c>
       <c r="I18" s="13" t="s">
-        <v>447</v>
+        <v>355</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>157</v>
       </c>
       <c r="K18" s="9" t="s">
-        <v>702</v>
+        <v>610</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>290</v>
+        <v>198</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>12</v>
@@ -3700,33 +3766,33 @@
         <v>31</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>198</v>
+        <v>711</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>559</v>
+        <v>467</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H19" s="11" t="s">
-        <v>661</v>
+        <v>569</v>
       </c>
       <c r="I19" s="13" t="s">
-        <v>448</v>
+        <v>356</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>159</v>
       </c>
       <c r="K19" s="9" t="s">
-        <v>703</v>
+        <v>611</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>291</v>
+        <v>199</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>12</v>
@@ -3735,10 +3801,10 @@
         <v>80</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>199</v>
+        <v>712</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>560</v>
+        <v>468</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>179</v>
@@ -3747,21 +3813,21 @@
         <v>179</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>449</v>
+        <v>357</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>132</v>
       </c>
       <c r="K20" s="9" t="s">
-        <v>697</v>
+        <v>605</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
-        <v>292</v>
+        <v>200</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>12</v>
@@ -3770,10 +3836,10 @@
         <v>51</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>200</v>
+        <v>713</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>561</v>
+        <v>469</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>179</v>
@@ -3782,21 +3848,21 @@
         <v>179</v>
       </c>
       <c r="I21" s="13" t="s">
-        <v>450</v>
+        <v>358</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>704</v>
+        <v>612</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="250.8" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
-        <v>293</v>
+        <v>201</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>12</v>
@@ -3805,33 +3871,33 @@
         <v>56</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>201</v>
+        <v>714</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>562</v>
+        <v>470</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H22" s="11" t="s">
-        <v>662</v>
+        <v>570</v>
       </c>
       <c r="I22" s="13" t="s">
-        <v>451</v>
+        <v>359</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>162</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>705</v>
+        <v>613</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>294</v>
+        <v>202</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>12</v>
@@ -3840,10 +3906,10 @@
         <v>33</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>202</v>
+        <v>715</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>563</v>
+        <v>471</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>179</v>
@@ -3852,21 +3918,21 @@
         <v>179</v>
       </c>
       <c r="I23" s="13" t="s">
-        <v>452</v>
+        <v>360</v>
       </c>
       <c r="J23" s="9" t="s">
         <v>120</v>
       </c>
       <c r="K23" s="9" t="s">
-        <v>706</v>
+        <v>614</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="356.4" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
-        <v>295</v>
+        <v>203</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>12</v>
@@ -3875,10 +3941,10 @@
         <v>60</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>203</v>
+        <v>716</v>
       </c>
       <c r="F24" s="11" t="s">
-        <v>564</v>
+        <v>472</v>
       </c>
       <c r="G24" s="7" t="s">
         <v>179</v>
@@ -3887,33 +3953,33 @@
         <v>179</v>
       </c>
       <c r="I24" s="13" t="s">
-        <v>453</v>
+        <v>361</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>390</v>
+        <v>298</v>
       </c>
       <c r="K24" s="9" t="s">
-        <v>707</v>
+        <v>615</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>296</v>
+        <v>204</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>412</v>
+        <v>320</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>204</v>
+        <v>717</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>565</v>
+        <v>473</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>179</v>
@@ -3922,7 +3988,7 @@
         <v>179</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>454</v>
+        <v>362</v>
       </c>
       <c r="J25" s="7" t="s">
         <v>179</v>
@@ -3936,7 +4002,7 @@
         <v>16</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>12</v>
@@ -3945,33 +4011,33 @@
         <v>61</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>205</v>
+        <v>718</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>566</v>
+        <v>474</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H26" s="11" t="s">
-        <v>663</v>
+        <v>571</v>
       </c>
       <c r="I26" s="13" t="s">
-        <v>455</v>
+        <v>363</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>391</v>
+        <v>299</v>
       </c>
       <c r="K26" s="9" t="s">
-        <v>708</v>
+        <v>616</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
-        <v>297</v>
+        <v>205</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>12</v>
@@ -3980,10 +4046,10 @@
         <v>67</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>206</v>
+        <v>719</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>567</v>
+        <v>475</v>
       </c>
       <c r="G27" s="7" t="s">
         <v>179</v>
@@ -3992,21 +4058,21 @@
         <v>179</v>
       </c>
       <c r="I27" s="14" t="s">
-        <v>456</v>
+        <v>364</v>
       </c>
       <c r="J27" s="9" t="s">
         <v>127</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>709</v>
+        <v>617</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
-        <v>298</v>
+        <v>206</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>12</v>
@@ -4015,10 +4081,10 @@
         <v>52</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>207</v>
+        <v>720</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>568</v>
+        <v>476</v>
       </c>
       <c r="G28" s="7" t="s">
         <v>179</v>
@@ -4027,21 +4093,21 @@
         <v>179</v>
       </c>
       <c r="I28" s="14" t="s">
-        <v>457</v>
+        <v>365</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>392</v>
+        <v>300</v>
       </c>
       <c r="K28" s="9" t="s">
-        <v>698</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
-        <v>299</v>
+        <v>207</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>12</v>
@@ -4050,10 +4116,10 @@
         <v>42</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>208</v>
+        <v>721</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>569</v>
+        <v>477</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>179</v>
@@ -4062,33 +4128,33 @@
         <v>179</v>
       </c>
       <c r="I29" s="14" t="s">
-        <v>458</v>
+        <v>366</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>134</v>
       </c>
       <c r="K29" s="9" t="s">
-        <v>710</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="198" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
-        <v>300</v>
+        <v>208</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>413</v>
+        <v>321</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>209</v>
+        <v>722</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>570</v>
+        <v>478</v>
       </c>
       <c r="G30" s="7" t="s">
         <v>179</v>
@@ -4097,7 +4163,7 @@
         <v>179</v>
       </c>
       <c r="I30" s="13" t="s">
-        <v>459</v>
+        <v>367</v>
       </c>
       <c r="J30" s="7" t="s">
         <v>179</v>
@@ -4108,45 +4174,45 @@
     </row>
     <row r="31" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
-        <v>301</v>
+        <v>209</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>414</v>
+        <v>322</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>210</v>
+        <v>723</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>571</v>
+        <v>479</v>
       </c>
       <c r="G31" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H31" s="11" t="s">
-        <v>664</v>
+        <v>572</v>
       </c>
       <c r="I31" s="13" t="s">
-        <v>460</v>
+        <v>368</v>
       </c>
       <c r="J31" s="9" t="s">
         <v>175</v>
       </c>
       <c r="K31" s="9" t="s">
-        <v>711</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
-        <v>302</v>
+        <v>210</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>12</v>
@@ -4155,10 +4221,10 @@
         <v>45</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>211</v>
+        <v>724</v>
       </c>
       <c r="F32" s="11" t="s">
-        <v>572</v>
+        <v>480</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>179</v>
@@ -4167,33 +4233,33 @@
         <v>179</v>
       </c>
       <c r="I32" s="13" t="s">
-        <v>461</v>
+        <v>369</v>
       </c>
       <c r="J32" s="9" t="s">
         <v>109</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>712</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="343.2" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
-        <v>303</v>
+        <v>211</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>415</v>
+        <v>323</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>212</v>
+        <v>725</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>573</v>
+        <v>481</v>
       </c>
       <c r="G33" s="7" t="s">
         <v>179</v>
@@ -4202,21 +4268,21 @@
         <v>179</v>
       </c>
       <c r="I33" s="13" t="s">
-        <v>462</v>
+        <v>370</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>393</v>
+        <v>301</v>
       </c>
       <c r="K33" s="9" t="s">
-        <v>713</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
-        <v>304</v>
+        <v>212</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>12</v>
@@ -4225,33 +4291,33 @@
         <v>77</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>213</v>
+        <v>726</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>574</v>
+        <v>482</v>
       </c>
       <c r="G34" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H34" s="11" t="s">
-        <v>665</v>
+        <v>573</v>
       </c>
       <c r="I34" s="13" t="s">
-        <v>463</v>
+        <v>371</v>
       </c>
       <c r="J34" s="9" t="s">
         <v>147</v>
       </c>
       <c r="K34" s="9" t="s">
-        <v>714</v>
+        <v>622</v>
       </c>
     </row>
     <row r="35" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
-        <v>305</v>
+        <v>213</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>12</v>
@@ -4260,10 +4326,10 @@
         <v>41</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>214</v>
+        <v>727</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>575</v>
+        <v>483</v>
       </c>
       <c r="G35" s="7" t="s">
         <v>179</v>
@@ -4272,21 +4338,21 @@
         <v>179</v>
       </c>
       <c r="I35" s="13" t="s">
-        <v>464</v>
+        <v>372</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K35" s="9" t="s">
-        <v>715</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="198" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
-        <v>306</v>
+        <v>214</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>12</v>
@@ -4295,10 +4361,10 @@
         <v>37</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>215</v>
+        <v>728</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>576</v>
+        <v>484</v>
       </c>
       <c r="G36" s="7" t="s">
         <v>179</v>
@@ -4307,21 +4373,21 @@
         <v>179</v>
       </c>
       <c r="I36" s="13" t="s">
-        <v>465</v>
+        <v>373</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>394</v>
+        <v>302</v>
       </c>
       <c r="K36" s="9" t="s">
-        <v>716</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>12</v>
@@ -4330,10 +4396,10 @@
         <v>106</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>216</v>
+        <v>729</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>577</v>
+        <v>485</v>
       </c>
       <c r="G37" s="7" t="s">
         <v>179</v>
@@ -4342,21 +4408,21 @@
         <v>179</v>
       </c>
       <c r="I37" s="13" t="s">
-        <v>466</v>
+        <v>374</v>
       </c>
       <c r="J37" s="9" t="s">
         <v>112</v>
       </c>
       <c r="K37" s="9" t="s">
-        <v>717</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>12</v>
@@ -4365,10 +4431,10 @@
         <v>50</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>217</v>
+        <v>730</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>578</v>
+        <v>486</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>179</v>
@@ -4377,21 +4443,21 @@
         <v>179</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>467</v>
+        <v>375</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K38" s="9" t="s">
-        <v>718</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="237.6" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
-        <v>309</v>
+        <v>217</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>12</v>
@@ -4400,10 +4466,10 @@
         <v>57</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>218</v>
+        <v>731</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>579</v>
+        <v>487</v>
       </c>
       <c r="G39" s="7" t="s">
         <v>179</v>
@@ -4412,21 +4478,21 @@
         <v>179</v>
       </c>
       <c r="I39" s="13" t="s">
-        <v>468</v>
+        <v>376</v>
       </c>
       <c r="J39" s="9" t="s">
         <v>161</v>
       </c>
       <c r="K39" s="11" t="s">
-        <v>719</v>
+        <v>627</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>310</v>
+        <v>218</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>12</v>
@@ -4435,10 +4501,10 @@
         <v>88</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>219</v>
+        <v>732</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>580</v>
+        <v>488</v>
       </c>
       <c r="G40" s="7" t="s">
         <v>179</v>
@@ -4451,15 +4517,15 @@
         <v>179</v>
       </c>
       <c r="K40" s="9" t="s">
-        <v>720</v>
+        <v>628</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
-        <v>311</v>
+        <v>219</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>12</v>
@@ -4468,33 +4534,33 @@
         <v>69</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>220</v>
+        <v>733</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>581</v>
+        <v>489</v>
       </c>
       <c r="G41" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H41" s="11" t="s">
-        <v>666</v>
+        <v>574</v>
       </c>
       <c r="I41" s="13" t="s">
-        <v>469</v>
+        <v>377</v>
       </c>
       <c r="J41" s="9" t="s">
         <v>111</v>
       </c>
       <c r="K41" s="9" t="s">
-        <v>721</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>12</v>
@@ -4503,10 +4569,10 @@
         <v>58</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>221</v>
+        <v>734</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>582</v>
+        <v>490</v>
       </c>
       <c r="G42" s="7" t="s">
         <v>179</v>
@@ -4515,21 +4581,21 @@
         <v>179</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>470</v>
+        <v>378</v>
       </c>
       <c r="J42" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K42" s="9" t="s">
-        <v>722</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
-        <v>313</v>
+        <v>221</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>12</v>
@@ -4538,10 +4604,10 @@
         <v>81</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>222</v>
+        <v>735</v>
       </c>
       <c r="F43" s="11" t="s">
-        <v>583</v>
+        <v>491</v>
       </c>
       <c r="G43" s="7" t="s">
         <v>179</v>
@@ -4550,13 +4616,13 @@
         <v>179</v>
       </c>
       <c r="I43" s="13" t="s">
-        <v>471</v>
+        <v>379</v>
       </c>
       <c r="J43" s="9" t="s">
         <v>152</v>
       </c>
       <c r="K43" s="9" t="s">
-        <v>723</v>
+        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="316.8" x14ac:dyDescent="0.3">
@@ -4564,7 +4630,7 @@
         <v>18</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>12</v>
@@ -4573,10 +4639,10 @@
         <v>101</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>223</v>
+        <v>736</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>584</v>
+        <v>492</v>
       </c>
       <c r="G44" s="7" t="s">
         <v>179</v>
@@ -4585,21 +4651,21 @@
         <v>179</v>
       </c>
       <c r="I44" s="13" t="s">
-        <v>472</v>
+        <v>380</v>
       </c>
       <c r="J44" s="9" t="s">
         <v>137</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>724</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
-        <v>314</v>
+        <v>222</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>12</v>
@@ -4608,10 +4674,10 @@
         <v>93</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>224</v>
+        <v>737</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>585</v>
+        <v>493</v>
       </c>
       <c r="G45" s="7" t="s">
         <v>179</v>
@@ -4620,21 +4686,21 @@
         <v>179</v>
       </c>
       <c r="I45" s="13" t="s">
-        <v>473</v>
+        <v>381</v>
       </c>
       <c r="J45" s="9" t="s">
         <v>141</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>725</v>
+        <v>633</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
-        <v>315</v>
+        <v>223</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>12</v>
@@ -4643,10 +4709,10 @@
         <v>83</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>225</v>
+        <v>738</v>
       </c>
       <c r="F46" s="11" t="s">
-        <v>586</v>
+        <v>494</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>179</v>
@@ -4655,21 +4721,21 @@
         <v>179</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>474</v>
+        <v>382</v>
       </c>
       <c r="J46" s="9" t="s">
         <v>119</v>
       </c>
       <c r="K46" s="9" t="s">
-        <v>726</v>
+        <v>634</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="224.4" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="s">
-        <v>316</v>
+        <v>224</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>12</v>
@@ -4678,19 +4744,19 @@
         <v>99</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>226</v>
+        <v>739</v>
       </c>
       <c r="F47" s="11" t="s">
-        <v>587</v>
+        <v>495</v>
       </c>
       <c r="G47" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>667</v>
+        <v>575</v>
       </c>
       <c r="I47" s="13" t="s">
-        <v>475</v>
+        <v>383</v>
       </c>
       <c r="J47" s="9" t="s">
         <v>158</v>
@@ -4701,10 +4767,10 @@
     </row>
     <row r="48" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="s">
-        <v>317</v>
+        <v>225</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>12</v>
@@ -4713,10 +4779,10 @@
         <v>72</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>227</v>
+        <v>740</v>
       </c>
       <c r="F48" s="11" t="s">
-        <v>588</v>
+        <v>496</v>
       </c>
       <c r="G48" s="7" t="s">
         <v>179</v>
@@ -4725,21 +4791,21 @@
         <v>179</v>
       </c>
       <c r="I48" s="13" t="s">
-        <v>476</v>
+        <v>384</v>
       </c>
       <c r="J48" s="9" t="s">
         <v>160</v>
       </c>
       <c r="K48" s="9" t="s">
-        <v>697</v>
+        <v>605</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="s">
-        <v>318</v>
+        <v>226</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>12</v>
@@ -4748,10 +4814,10 @@
         <v>24</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>228</v>
+        <v>741</v>
       </c>
       <c r="F49" s="11" t="s">
-        <v>589</v>
+        <v>497</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>179</v>
@@ -4764,7 +4830,7 @@
         <v>139</v>
       </c>
       <c r="K49" s="9" t="s">
-        <v>727</v>
+        <v>635</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="303.60000000000002" x14ac:dyDescent="0.3">
@@ -4772,7 +4838,7 @@
         <v>15</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>12</v>
@@ -4781,33 +4847,33 @@
         <v>30</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>229</v>
+        <v>742</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>590</v>
+        <v>498</v>
       </c>
       <c r="G50" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H50" s="11" t="s">
-        <v>668</v>
+        <v>576</v>
       </c>
       <c r="I50" s="13" t="s">
-        <v>477</v>
+        <v>385</v>
       </c>
       <c r="J50" s="9" t="s">
         <v>108</v>
       </c>
       <c r="K50" s="9" t="s">
-        <v>728</v>
+        <v>636</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="s">
-        <v>319</v>
+        <v>227</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>12</v>
@@ -4816,33 +4882,33 @@
         <v>74</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>230</v>
+        <v>743</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>591</v>
+        <v>499</v>
       </c>
       <c r="G51" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>669</v>
+        <v>577</v>
       </c>
       <c r="I51" s="13" t="s">
-        <v>478</v>
+        <v>386</v>
       </c>
       <c r="J51" s="9" t="s">
         <v>117</v>
       </c>
       <c r="K51" s="9" t="s">
-        <v>697</v>
+        <v>605</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="s">
-        <v>320</v>
+        <v>228</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>12</v>
@@ -4851,10 +4917,10 @@
         <v>35</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>231</v>
+        <v>744</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>592</v>
+        <v>500</v>
       </c>
       <c r="G52" s="7" t="s">
         <v>179</v>
@@ -4863,7 +4929,7 @@
         <v>179</v>
       </c>
       <c r="I52" s="13" t="s">
-        <v>479</v>
+        <v>387</v>
       </c>
       <c r="J52" s="7" t="s">
         <v>179</v>
@@ -4874,10 +4940,10 @@
     </row>
     <row r="53" spans="1:11" ht="198" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="s">
-        <v>321</v>
+        <v>229</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>12</v>
@@ -4886,10 +4952,10 @@
         <v>64</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>232</v>
+        <v>745</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>593</v>
+        <v>501</v>
       </c>
       <c r="G53" s="7" t="s">
         <v>179</v>
@@ -4898,21 +4964,21 @@
         <v>179</v>
       </c>
       <c r="I53" s="13" t="s">
-        <v>480</v>
+        <v>388</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>395</v>
+        <v>303</v>
       </c>
       <c r="K53" s="9" t="s">
-        <v>729</v>
+        <v>637</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="s">
-        <v>322</v>
+        <v>230</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>12</v>
@@ -4921,68 +4987,68 @@
         <v>68</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>233</v>
+        <v>746</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>594</v>
+        <v>502</v>
       </c>
       <c r="G54" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H54" s="11" t="s">
-        <v>670</v>
+        <v>578</v>
       </c>
       <c r="I54" s="13" t="s">
-        <v>481</v>
+        <v>389</v>
       </c>
       <c r="J54" s="9" t="s">
         <v>143</v>
       </c>
       <c r="K54" s="9" t="s">
-        <v>730</v>
+        <v>638</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>416</v>
+        <v>324</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>234</v>
+        <v>747</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>595</v>
+        <v>503</v>
       </c>
       <c r="G55" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>671</v>
+        <v>579</v>
       </c>
       <c r="I55" s="13" t="s">
-        <v>482</v>
+        <v>390</v>
       </c>
       <c r="J55" s="9" t="s">
         <v>150</v>
       </c>
       <c r="K55" s="9" t="s">
-        <v>731</v>
+        <v>639</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="356.4" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="s">
-        <v>324</v>
+        <v>232</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>12</v>
@@ -4991,10 +5057,10 @@
         <v>98</v>
       </c>
       <c r="E56" s="4" t="s">
-        <v>235</v>
+        <v>748</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>596</v>
+        <v>504</v>
       </c>
       <c r="G56" s="7" t="s">
         <v>179</v>
@@ -5003,21 +5069,21 @@
         <v>179</v>
       </c>
       <c r="I56" s="13" t="s">
-        <v>483</v>
+        <v>391</v>
       </c>
       <c r="J56" s="9" t="s">
         <v>177</v>
       </c>
       <c r="K56" s="9" t="s">
-        <v>732</v>
+        <v>640</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="s">
-        <v>325</v>
+        <v>233</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>12</v>
@@ -5026,68 +5092,68 @@
         <v>22</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>236</v>
+        <v>749</v>
       </c>
       <c r="F57" s="11" t="s">
-        <v>597</v>
+        <v>505</v>
       </c>
       <c r="G57" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>672</v>
+        <v>580</v>
       </c>
       <c r="I57" s="13" t="s">
-        <v>484</v>
+        <v>392</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>396</v>
+        <v>304</v>
       </c>
       <c r="K57" s="9" t="s">
-        <v>733</v>
+        <v>641</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
-        <v>326</v>
+        <v>234</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>417</v>
+        <v>325</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>237</v>
+        <v>750</v>
       </c>
       <c r="F58" s="11" t="s">
-        <v>598</v>
+        <v>506</v>
       </c>
       <c r="G58" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H58" s="11" t="s">
-        <v>673</v>
+        <v>581</v>
       </c>
       <c r="I58" s="13" t="s">
-        <v>485</v>
+        <v>393</v>
       </c>
       <c r="J58" s="9" t="s">
         <v>170</v>
       </c>
       <c r="K58" s="9" t="s">
-        <v>734</v>
+        <v>642</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="s">
-        <v>327</v>
+        <v>235</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>12</v>
@@ -5096,45 +5162,45 @@
         <v>90</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>238</v>
+        <v>751</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>599</v>
+        <v>507</v>
       </c>
       <c r="G59" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H59" s="11" t="s">
-        <v>674</v>
+        <v>582</v>
       </c>
       <c r="I59" s="13" t="s">
-        <v>486</v>
+        <v>394</v>
       </c>
       <c r="J59" s="9" t="s">
         <v>168</v>
       </c>
       <c r="K59" s="9" t="s">
-        <v>735</v>
+        <v>643</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="303.60000000000002" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="s">
-        <v>328</v>
+        <v>236</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>418</v>
+        <v>326</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>239</v>
+        <v>752</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>600</v>
+        <v>508</v>
       </c>
       <c r="G60" s="7" t="s">
         <v>179</v>
@@ -5143,21 +5209,21 @@
         <v>179</v>
       </c>
       <c r="I60" s="13" t="s">
-        <v>487</v>
+        <v>395</v>
       </c>
       <c r="J60" s="9" t="s">
         <v>154</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>736</v>
+        <v>644</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="s">
-        <v>329</v>
+        <v>237</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>12</v>
@@ -5166,33 +5232,33 @@
         <v>75</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>240</v>
+        <v>753</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>601</v>
+        <v>509</v>
       </c>
       <c r="G61" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H61" s="11" t="s">
-        <v>675</v>
+        <v>583</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>488</v>
+        <v>396</v>
       </c>
       <c r="J61" s="9" t="s">
         <v>114</v>
       </c>
       <c r="K61" s="9" t="s">
-        <v>737</v>
+        <v>645</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="s">
-        <v>330</v>
+        <v>238</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>12</v>
@@ -5201,10 +5267,10 @@
         <v>71</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>241</v>
+        <v>754</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>602</v>
+        <v>510</v>
       </c>
       <c r="G62" s="7" t="s">
         <v>179</v>
@@ -5213,21 +5279,21 @@
         <v>179</v>
       </c>
       <c r="I62" s="13" t="s">
-        <v>489</v>
+        <v>397</v>
       </c>
       <c r="J62" s="9" t="s">
         <v>164</v>
       </c>
       <c r="K62" s="9" t="s">
-        <v>738</v>
+        <v>646</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="s">
-        <v>331</v>
+        <v>239</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>12</v>
@@ -5236,10 +5302,10 @@
         <v>105</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>242</v>
+        <v>755</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>603</v>
+        <v>511</v>
       </c>
       <c r="G63" s="7" t="s">
         <v>179</v>
@@ -5248,21 +5314,21 @@
         <v>179</v>
       </c>
       <c r="I63" s="13" t="s">
-        <v>490</v>
+        <v>398</v>
       </c>
       <c r="J63" s="9" t="s">
         <v>121</v>
       </c>
       <c r="K63" s="9" t="s">
-        <v>739</v>
+        <v>647</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="264" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="s">
-        <v>332</v>
+        <v>240</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>12</v>
@@ -5271,10 +5337,10 @@
         <v>85</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>243</v>
+        <v>756</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>604</v>
+        <v>512</v>
       </c>
       <c r="G64" s="7" t="s">
         <v>179</v>
@@ -5283,21 +5349,21 @@
         <v>179</v>
       </c>
       <c r="I64" s="13" t="s">
-        <v>491</v>
+        <v>399</v>
       </c>
       <c r="J64" s="9" t="s">
         <v>171</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>697</v>
+        <v>605</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="356.4" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
-        <v>333</v>
+        <v>241</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>12</v>
@@ -5306,33 +5372,33 @@
         <v>76</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>244</v>
+        <v>757</v>
       </c>
       <c r="F65" s="11" t="s">
-        <v>605</v>
+        <v>513</v>
       </c>
       <c r="G65" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H65" s="11" t="s">
-        <v>676</v>
+        <v>584</v>
       </c>
       <c r="I65" s="13" t="s">
-        <v>492</v>
+        <v>400</v>
       </c>
       <c r="J65" s="9" t="s">
         <v>133</v>
       </c>
       <c r="K65" s="9" t="s">
-        <v>740</v>
+        <v>648</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="s">
-        <v>334</v>
+        <v>242</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>12</v>
@@ -5341,33 +5407,33 @@
         <v>107</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>245</v>
+        <v>758</v>
       </c>
       <c r="F66" s="11" t="s">
-        <v>606</v>
+        <v>514</v>
       </c>
       <c r="G66" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H66" s="11" t="s">
-        <v>677</v>
+        <v>585</v>
       </c>
       <c r="I66" s="13" t="s">
-        <v>493</v>
+        <v>401</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>397</v>
+        <v>305</v>
       </c>
       <c r="K66" s="9" t="s">
-        <v>741</v>
+        <v>649</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="s">
-        <v>335</v>
+        <v>243</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>12</v>
@@ -5376,33 +5442,33 @@
         <v>44</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>246</v>
+        <v>759</v>
       </c>
       <c r="F67" s="11" t="s">
-        <v>607</v>
+        <v>515</v>
       </c>
       <c r="G67" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H67" s="11" t="s">
-        <v>678</v>
+        <v>586</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>494</v>
+        <v>402</v>
       </c>
       <c r="J67" s="9" t="s">
         <v>116</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>742</v>
+        <v>650</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="s">
-        <v>336</v>
+        <v>244</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>12</v>
@@ -5411,10 +5477,10 @@
         <v>27</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>247</v>
+        <v>760</v>
       </c>
       <c r="F68" s="11" t="s">
-        <v>608</v>
+        <v>516</v>
       </c>
       <c r="G68" s="7" t="s">
         <v>179</v>
@@ -5423,33 +5489,33 @@
         <v>179</v>
       </c>
       <c r="I68" s="13" t="s">
-        <v>495</v>
+        <v>403</v>
       </c>
       <c r="J68" s="9" t="s">
         <v>145</v>
       </c>
       <c r="K68" s="9" t="s">
-        <v>743</v>
+        <v>651</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="s">
-        <v>337</v>
+        <v>245</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>419</v>
+        <v>327</v>
       </c>
       <c r="E69" s="4" t="s">
-        <v>248</v>
+        <v>761</v>
       </c>
       <c r="F69" s="11" t="s">
-        <v>609</v>
+        <v>517</v>
       </c>
       <c r="G69" s="7" t="s">
         <v>179</v>
@@ -5458,21 +5524,21 @@
         <v>179</v>
       </c>
       <c r="I69" s="13" t="s">
-        <v>496</v>
+        <v>404</v>
       </c>
       <c r="J69" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K69" s="9" t="s">
-        <v>697</v>
+        <v>605</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="343.2" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="s">
-        <v>338</v>
+        <v>246</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>12</v>
@@ -5481,10 +5547,10 @@
         <v>55</v>
       </c>
       <c r="E70" s="4" t="s">
-        <v>249</v>
+        <v>762</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>610</v>
+        <v>518</v>
       </c>
       <c r="G70" s="7" t="s">
         <v>179</v>
@@ -5493,21 +5559,21 @@
         <v>179</v>
       </c>
       <c r="I70" s="13" t="s">
-        <v>497</v>
+        <v>405</v>
       </c>
       <c r="J70" s="9" t="s">
         <v>144</v>
       </c>
       <c r="K70" s="9" t="s">
-        <v>744</v>
+        <v>652</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="s">
-        <v>339</v>
+        <v>247</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>12</v>
@@ -5516,10 +5582,10 @@
         <v>32</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>250</v>
+        <v>763</v>
       </c>
       <c r="F71" s="11" t="s">
-        <v>611</v>
+        <v>519</v>
       </c>
       <c r="G71" s="7" t="s">
         <v>179</v>
@@ -5528,21 +5594,21 @@
         <v>179</v>
       </c>
       <c r="I71" s="13" t="s">
-        <v>498</v>
+        <v>406</v>
       </c>
       <c r="J71" s="9" t="s">
         <v>129</v>
       </c>
       <c r="K71" s="9" t="s">
-        <v>745</v>
+        <v>653</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="396" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="s">
-        <v>340</v>
+        <v>248</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>12</v>
@@ -5551,68 +5617,68 @@
         <v>19</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>251</v>
+        <v>764</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>612</v>
+        <v>520</v>
       </c>
       <c r="G72" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H72" s="11" t="s">
-        <v>679</v>
+        <v>587</v>
       </c>
       <c r="I72" s="13" t="s">
-        <v>499</v>
+        <v>407</v>
       </c>
       <c r="J72" s="9" t="s">
         <v>110</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>746</v>
+        <v>654</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="s">
-        <v>341</v>
+        <v>249</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>420</v>
+        <v>328</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>252</v>
+        <v>765</v>
       </c>
       <c r="F73" s="11" t="s">
-        <v>613</v>
+        <v>521</v>
       </c>
       <c r="G73" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>680</v>
+        <v>588</v>
       </c>
       <c r="I73" s="13" t="s">
-        <v>500</v>
+        <v>408</v>
       </c>
       <c r="J73" s="9" t="s">
         <v>156</v>
       </c>
       <c r="K73" s="9" t="s">
-        <v>747</v>
+        <v>655</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="s">
-        <v>342</v>
+        <v>250</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>12</v>
@@ -5621,10 +5687,10 @@
         <v>103</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>253</v>
+        <v>766</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>614</v>
+        <v>522</v>
       </c>
       <c r="G74" s="7" t="s">
         <v>179</v>
@@ -5633,21 +5699,21 @@
         <v>179</v>
       </c>
       <c r="I74" s="13" t="s">
-        <v>501</v>
+        <v>409</v>
       </c>
       <c r="J74" s="9" t="s">
         <v>131</v>
       </c>
       <c r="K74" s="9" t="s">
-        <v>748</v>
+        <v>656</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="s">
-        <v>343</v>
+        <v>251</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>12</v>
@@ -5656,10 +5722,10 @@
         <v>78</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>254</v>
+        <v>767</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>615</v>
+        <v>523</v>
       </c>
       <c r="G75" s="7" t="s">
         <v>179</v>
@@ -5668,33 +5734,33 @@
         <v>179</v>
       </c>
       <c r="I75" s="13" t="s">
-        <v>502</v>
+        <v>410</v>
       </c>
       <c r="J75" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K75" s="9" t="s">
-        <v>697</v>
+        <v>605</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="s">
-        <v>344</v>
+        <v>252</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D76" s="11" t="s">
-        <v>421</v>
+        <v>329</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>255</v>
+        <v>768</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>616</v>
+        <v>524</v>
       </c>
       <c r="G76" s="7" t="s">
         <v>179</v>
@@ -5703,21 +5769,21 @@
         <v>179</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>503</v>
+        <v>411</v>
       </c>
       <c r="J76" s="9" t="s">
         <v>123</v>
       </c>
       <c r="K76" s="9" t="s">
-        <v>749</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="s">
-        <v>345</v>
+        <v>253</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>12</v>
@@ -5726,10 +5792,10 @@
         <v>43</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>256</v>
+        <v>769</v>
       </c>
       <c r="F77" s="11" t="s">
-        <v>617</v>
+        <v>525</v>
       </c>
       <c r="G77" s="7" t="s">
         <v>179</v>
@@ -5738,7 +5804,7 @@
         <v>179</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>504</v>
+        <v>412</v>
       </c>
       <c r="J77" s="7" t="s">
         <v>179</v>
@@ -5749,10 +5815,10 @@
     </row>
     <row r="78" spans="1:11" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="s">
-        <v>346</v>
+        <v>254</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>12</v>
@@ -5761,10 +5827,10 @@
         <v>34</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>257</v>
+        <v>770</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>618</v>
+        <v>526</v>
       </c>
       <c r="G78" s="7" t="s">
         <v>179</v>
@@ -5773,33 +5839,33 @@
         <v>179</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>505</v>
+        <v>413</v>
       </c>
       <c r="J78" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K78" s="9" t="s">
-        <v>750</v>
+        <v>658</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="s">
-        <v>347</v>
+        <v>255</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>258</v>
+        <v>771</v>
       </c>
       <c r="F79" s="11" t="s">
-        <v>619</v>
+        <v>527</v>
       </c>
       <c r="G79" s="7" t="s">
         <v>179</v>
@@ -5808,21 +5874,21 @@
         <v>179</v>
       </c>
       <c r="I79" s="14" t="s">
-        <v>506</v>
+        <v>414</v>
       </c>
       <c r="J79" s="9" t="s">
         <v>122</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>751</v>
+        <v>659</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="s">
-        <v>348</v>
+        <v>256</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>12</v>
@@ -5831,10 +5897,10 @@
         <v>39</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>259</v>
+        <v>772</v>
       </c>
       <c r="F80" s="11" t="s">
-        <v>620</v>
+        <v>528</v>
       </c>
       <c r="G80" s="7" t="s">
         <v>179</v>
@@ -5843,21 +5909,21 @@
         <v>179</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>507</v>
+        <v>415</v>
       </c>
       <c r="J80" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K80" s="9" t="s">
-        <v>752</v>
+        <v>660</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="290.39999999999998" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="s">
-        <v>349</v>
+        <v>257</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>12</v>
@@ -5866,10 +5932,10 @@
         <v>65</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>260</v>
+        <v>773</v>
       </c>
       <c r="F81" s="11" t="s">
-        <v>621</v>
+        <v>529</v>
       </c>
       <c r="G81" s="7" t="s">
         <v>179</v>
@@ -5878,33 +5944,33 @@
         <v>179</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>508</v>
+        <v>416</v>
       </c>
       <c r="J81" s="9" t="s">
         <v>174</v>
       </c>
       <c r="K81" s="9" t="s">
-        <v>753</v>
+        <v>661</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="s">
-        <v>350</v>
+        <v>258</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>423</v>
+        <v>331</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>261</v>
+        <v>774</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>622</v>
+        <v>530</v>
       </c>
       <c r="G82" s="7" t="s">
         <v>179</v>
@@ -5913,21 +5979,21 @@
         <v>179</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>509</v>
+        <v>417</v>
       </c>
       <c r="J82" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K82" s="9" t="s">
-        <v>754</v>
+        <v>662</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="250.8" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="s">
-        <v>351</v>
+        <v>259</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>12</v>
@@ -5936,10 +6002,10 @@
         <v>21</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>262</v>
+        <v>775</v>
       </c>
       <c r="F83" s="11" t="s">
-        <v>623</v>
+        <v>531</v>
       </c>
       <c r="G83" s="7" t="s">
         <v>179</v>
@@ -5948,21 +6014,21 @@
         <v>179</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>510</v>
+        <v>418</v>
       </c>
       <c r="J83" s="9" t="s">
         <v>176</v>
       </c>
       <c r="K83" s="9" t="s">
-        <v>755</v>
+        <v>663</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="290.39999999999998" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="s">
-        <v>352</v>
+        <v>260</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>12</v>
@@ -5971,10 +6037,10 @@
         <v>87</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>263</v>
+        <v>776</v>
       </c>
       <c r="F84" s="11" t="s">
-        <v>624</v>
+        <v>532</v>
       </c>
       <c r="G84" s="7" t="s">
         <v>179</v>
@@ -5983,33 +6049,33 @@
         <v>179</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>511</v>
+        <v>419</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>398</v>
+        <v>306</v>
       </c>
       <c r="K84" s="9" t="s">
-        <v>756</v>
+        <v>664</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="s">
-        <v>353</v>
+        <v>261</v>
       </c>
       <c r="B85" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>424</v>
+        <v>332</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>264</v>
+        <v>777</v>
       </c>
       <c r="F85" s="11" t="s">
-        <v>625</v>
+        <v>533</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>179</v>
@@ -6018,21 +6084,21 @@
         <v>179</v>
       </c>
       <c r="I85" s="14" t="s">
-        <v>512</v>
+        <v>420</v>
       </c>
       <c r="J85" s="9" t="s">
         <v>148</v>
       </c>
       <c r="K85" s="9" t="s">
-        <v>757</v>
+        <v>665</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="s">
-        <v>354</v>
+        <v>262</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>12</v>
@@ -6041,10 +6107,10 @@
         <v>36</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>265</v>
+        <v>778</v>
       </c>
       <c r="F86" s="11" t="s">
-        <v>626</v>
+        <v>534</v>
       </c>
       <c r="G86" s="7" t="s">
         <v>179</v>
@@ -6053,21 +6119,21 @@
         <v>179</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>513</v>
+        <v>421</v>
       </c>
       <c r="J86" s="10" t="s">
-        <v>399</v>
+        <v>307</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>758</v>
+        <v>666</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="s">
-        <v>355</v>
+        <v>263</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>12</v>
@@ -6076,45 +6142,45 @@
         <v>104</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>266</v>
+        <v>779</v>
       </c>
       <c r="F87" s="11" t="s">
-        <v>627</v>
+        <v>535</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H87" s="11" t="s">
-        <v>681</v>
+        <v>589</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>514</v>
+        <v>422</v>
       </c>
       <c r="J87" s="9" t="s">
         <v>151</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>759</v>
+        <v>667</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="s">
-        <v>356</v>
+        <v>264</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>425</v>
+        <v>333</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>267</v>
+        <v>780</v>
       </c>
       <c r="F88" s="11" t="s">
-        <v>628</v>
+        <v>536</v>
       </c>
       <c r="G88" s="7" t="s">
         <v>179</v>
@@ -6123,21 +6189,21 @@
         <v>179</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>515</v>
+        <v>423</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>400</v>
+        <v>308</v>
       </c>
       <c r="K88" s="9" t="s">
-        <v>760</v>
+        <v>668</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="132" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="s">
-        <v>357</v>
+        <v>265</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>12</v>
@@ -6146,10 +6212,10 @@
         <v>102</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>268</v>
+        <v>781</v>
       </c>
       <c r="F89" s="11" t="s">
-        <v>629</v>
+        <v>537</v>
       </c>
       <c r="G89" s="7" t="s">
         <v>179</v>
@@ -6158,21 +6224,21 @@
         <v>179</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>516</v>
+        <v>424</v>
       </c>
       <c r="J89" s="9" t="s">
         <v>173</v>
       </c>
       <c r="K89" s="9" t="s">
-        <v>761</v>
+        <v>669</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="s">
-        <v>358</v>
+        <v>266</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>12</v>
@@ -6181,10 +6247,10 @@
         <v>62</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>269</v>
+        <v>782</v>
       </c>
       <c r="F90" s="11" t="s">
-        <v>630</v>
+        <v>538</v>
       </c>
       <c r="G90" s="7" t="s">
         <v>179</v>
@@ -6197,15 +6263,15 @@
         <v>179</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>762</v>
+        <v>670</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="s">
-        <v>359</v>
+        <v>267</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>12</v>
@@ -6214,33 +6280,33 @@
         <v>28</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>270</v>
+        <v>783</v>
       </c>
       <c r="F91" s="11" t="s">
-        <v>631</v>
+        <v>539</v>
       </c>
       <c r="G91" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H91" s="11" t="s">
-        <v>682</v>
+        <v>590</v>
       </c>
       <c r="I91" s="14" t="s">
-        <v>517</v>
+        <v>425</v>
       </c>
       <c r="J91" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K91" s="9" t="s">
-        <v>763</v>
+        <v>671</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="s">
-        <v>360</v>
+        <v>268</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>12</v>
@@ -6249,10 +6315,10 @@
         <v>25</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>271</v>
+        <v>784</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>632</v>
+        <v>540</v>
       </c>
       <c r="G92" s="7" t="s">
         <v>179</v>
@@ -6261,56 +6327,56 @@
         <v>179</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>518</v>
+        <v>426</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>401</v>
+        <v>309</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>764</v>
+        <v>672</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="s">
-        <v>361</v>
+        <v>269</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>426</v>
+        <v>334</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>272</v>
+        <v>785</v>
       </c>
       <c r="F93" s="11" t="s">
-        <v>633</v>
+        <v>541</v>
       </c>
       <c r="G93" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H93" s="11" t="s">
-        <v>683</v>
+        <v>591</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>519</v>
+        <v>427</v>
       </c>
       <c r="J93" s="9" t="s">
         <v>163</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>765</v>
+        <v>673</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="s">
-        <v>362</v>
+        <v>270</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>12</v>
@@ -6319,10 +6385,10 @@
         <v>96</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>273</v>
+        <v>786</v>
       </c>
       <c r="F94" s="11" t="s">
-        <v>634</v>
+        <v>542</v>
       </c>
       <c r="G94" s="7" t="s">
         <v>179</v>
@@ -6331,27 +6397,30 @@
         <v>179</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>520</v>
+        <v>428</v>
       </c>
       <c r="J94" s="9" t="s">
         <v>126</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>766</v>
+        <v>674</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="s">
-        <v>363</v>
+        <v>271</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>29</v>
       </c>
+      <c r="E95" s="4" t="s">
+        <v>787</v>
+      </c>
       <c r="F95" s="11" t="s">
-        <v>635</v>
+        <v>543</v>
       </c>
       <c r="G95" s="7" t="s">
         <v>179</v>
@@ -6360,114 +6429,126 @@
         <v>179</v>
       </c>
       <c r="I95" s="13" t="s">
-        <v>521</v>
+        <v>429</v>
       </c>
       <c r="J95" s="9" t="s">
         <v>153</v>
       </c>
       <c r="K95" s="9" t="s">
-        <v>767</v>
+        <v>675</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="382.8" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="s">
-        <v>364</v>
+        <v>272</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>86</v>
       </c>
+      <c r="E96" s="4" t="s">
+        <v>788</v>
+      </c>
       <c r="F96" s="11" t="s">
-        <v>636</v>
+        <v>544</v>
       </c>
       <c r="G96" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H96" s="11" t="s">
-        <v>684</v>
+        <v>592</v>
       </c>
       <c r="I96" s="13" t="s">
-        <v>522</v>
+        <v>430</v>
       </c>
       <c r="J96" s="9" t="s">
         <v>166</v>
       </c>
       <c r="K96" s="9" t="s">
-        <v>768</v>
+        <v>676</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="s">
-        <v>365</v>
+        <v>273</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>53</v>
       </c>
+      <c r="E97" s="4" t="s">
+        <v>789</v>
+      </c>
       <c r="F97" s="11" t="s">
-        <v>637</v>
+        <v>545</v>
       </c>
       <c r="G97" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H97" s="11" t="s">
-        <v>685</v>
+        <v>593</v>
       </c>
       <c r="I97" s="14" t="s">
-        <v>523</v>
+        <v>431</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>402</v>
+        <v>310</v>
       </c>
       <c r="K97" s="9" t="s">
-        <v>769</v>
+        <v>677</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="s">
-        <v>366</v>
+        <v>274</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>63</v>
       </c>
+      <c r="E98" s="4" t="s">
+        <v>790</v>
+      </c>
       <c r="F98" s="11" t="s">
-        <v>638</v>
+        <v>546</v>
       </c>
       <c r="G98" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>686</v>
+        <v>594</v>
       </c>
       <c r="I98" s="14" t="s">
-        <v>524</v>
+        <v>432</v>
       </c>
       <c r="J98" s="9" t="s">
         <v>113</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>770</v>
+        <v>678</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="s">
-        <v>367</v>
+        <v>275</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>91</v>
       </c>
+      <c r="E99" s="4" t="s">
+        <v>791</v>
+      </c>
       <c r="F99" s="11" t="s">
-        <v>639</v>
+        <v>547</v>
       </c>
       <c r="G99" s="7" t="s">
         <v>179</v>
@@ -6476,27 +6557,30 @@
         <v>179</v>
       </c>
       <c r="I99" s="13" t="s">
-        <v>525</v>
+        <v>433</v>
       </c>
       <c r="J99" s="9" t="s">
         <v>140</v>
       </c>
       <c r="K99" s="9" t="s">
-        <v>771</v>
+        <v>679</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="s">
-        <v>368</v>
+        <v>276</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>427</v>
+        <v>335</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>792</v>
       </c>
       <c r="F100" s="11" t="s">
-        <v>640</v>
+        <v>548</v>
       </c>
       <c r="G100" s="7" t="s">
         <v>179</v>
@@ -6505,27 +6589,30 @@
         <v>179</v>
       </c>
       <c r="I100" s="13" t="s">
-        <v>526</v>
+        <v>434</v>
       </c>
       <c r="J100" s="9" t="s">
         <v>178</v>
       </c>
       <c r="K100" s="9" t="s">
-        <v>772</v>
+        <v>680</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="s">
-        <v>369</v>
+        <v>277</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D101" s="11" t="s">
         <v>49</v>
       </c>
+      <c r="E101" s="4" t="s">
+        <v>793</v>
+      </c>
       <c r="F101" s="11" t="s">
-        <v>641</v>
+        <v>549</v>
       </c>
       <c r="G101" s="7" t="s">
         <v>179</v>
@@ -6534,27 +6621,30 @@
         <v>179</v>
       </c>
       <c r="I101" s="13" t="s">
-        <v>527</v>
+        <v>435</v>
       </c>
       <c r="J101" s="9" t="s">
         <v>169</v>
       </c>
       <c r="K101" s="9" t="s">
-        <v>773</v>
+        <v>681</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="s">
-        <v>370</v>
+        <v>278</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D102" s="11" t="s">
         <v>59</v>
       </c>
+      <c r="E102" s="4" t="s">
+        <v>794</v>
+      </c>
       <c r="F102" s="11" t="s">
-        <v>642</v>
+        <v>550</v>
       </c>
       <c r="G102" s="7" t="s">
         <v>179</v>
@@ -6563,27 +6653,30 @@
         <v>179</v>
       </c>
       <c r="I102" s="13" t="s">
-        <v>528</v>
+        <v>436</v>
       </c>
       <c r="J102" s="7" t="s">
         <v>179</v>
       </c>
       <c r="K102" s="9" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" ht="52.8" x14ac:dyDescent="0.3">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="s">
-        <v>371</v>
+        <v>279</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D103" s="11" t="s">
         <v>95</v>
       </c>
+      <c r="E103" s="4" t="s">
+        <v>795</v>
+      </c>
       <c r="F103" s="11" t="s">
-        <v>643</v>
+        <v>551</v>
       </c>
       <c r="G103" s="7" t="s">
         <v>179</v>
@@ -6592,7 +6685,7 @@
         <v>179</v>
       </c>
       <c r="I103" s="13" t="s">
-        <v>529</v>
+        <v>437</v>
       </c>
       <c r="J103" s="9" t="s">
         <v>125</v>
@@ -6603,16 +6696,19 @@
     </row>
     <row r="104" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A104" s="7" t="s">
-        <v>372</v>
+        <v>280</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D104" s="11" t="s">
         <v>100</v>
       </c>
+      <c r="E104" s="4" t="s">
+        <v>796</v>
+      </c>
       <c r="F104" s="11" t="s">
-        <v>644</v>
+        <v>552</v>
       </c>
       <c r="G104" s="7" t="s">
         <v>179</v>
@@ -6625,21 +6721,24 @@
         <v>179</v>
       </c>
       <c r="K104" s="9" t="s">
-        <v>775</v>
+        <v>683</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A105" s="7" t="s">
-        <v>373</v>
+        <v>281</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D105" s="11" t="s">
         <v>94</v>
       </c>
+      <c r="E105" s="4" t="s">
+        <v>797</v>
+      </c>
       <c r="F105" s="11" t="s">
-        <v>645</v>
+        <v>553</v>
       </c>
       <c r="G105" s="7" t="s">
         <v>179</v>
@@ -6648,85 +6747,94 @@
         <v>180</v>
       </c>
       <c r="I105" s="13" t="s">
-        <v>530</v>
+        <v>438</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>403</v>
+        <v>311</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>776</v>
+        <v>684</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A106" s="7" t="s">
-        <v>374</v>
+        <v>282</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="D106" s="11" t="s">
         <v>26</v>
       </c>
+      <c r="E106" s="4" t="s">
+        <v>798</v>
+      </c>
       <c r="F106" s="11" t="s">
-        <v>646</v>
+        <v>554</v>
       </c>
       <c r="G106" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H106" s="11" t="s">
-        <v>687</v>
+        <v>595</v>
       </c>
       <c r="I106" s="13" t="s">
-        <v>531</v>
+        <v>439</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>404</v>
+        <v>312</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>777</v>
+        <v>685</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="316.8" x14ac:dyDescent="0.3">
       <c r="A107" s="7" t="s">
-        <v>375</v>
+        <v>283</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>387</v>
+        <v>295</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>428</v>
+        <v>336</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>799</v>
       </c>
       <c r="F107" s="11" t="s">
-        <v>647</v>
+        <v>555</v>
       </c>
       <c r="G107" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>688</v>
+        <v>596</v>
       </c>
       <c r="I107" s="13" t="s">
-        <v>532</v>
+        <v>440</v>
       </c>
       <c r="J107" s="9" t="s">
         <v>130</v>
       </c>
       <c r="K107" s="9" t="s">
-        <v>778</v>
+        <v>686</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="66" x14ac:dyDescent="0.3">
       <c r="A108" s="7" t="s">
-        <v>376</v>
+        <v>284</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>429</v>
+        <v>337</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>800</v>
       </c>
       <c r="F108" s="11" t="s">
-        <v>648</v>
+        <v>556</v>
       </c>
       <c r="G108" s="7" t="s">
         <v>179</v>
@@ -6735,25 +6843,28 @@
         <v>179</v>
       </c>
       <c r="I108" s="13" t="s">
-        <v>533</v>
+        <v>441</v>
       </c>
       <c r="J108" s="9" t="s">
         <v>172</v>
       </c>
       <c r="K108" s="9" t="s">
-        <v>779</v>
+        <v>687</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A109" s="7" t="s">
-        <v>377</v>
+        <v>285</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D109" s="11" t="s">
         <v>82</v>
       </c>
+      <c r="E109" s="4" t="s">
+        <v>801</v>
+      </c>
       <c r="F109" s="11" t="s">
         <v>82</v>
       </c>
@@ -6764,27 +6875,30 @@
         <v>179</v>
       </c>
       <c r="I109" s="13" t="s">
-        <v>534</v>
+        <v>442</v>
       </c>
       <c r="J109" s="9" t="s">
         <v>155</v>
       </c>
       <c r="K109" s="9" t="s">
-        <v>780</v>
+        <v>688</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A110" s="7" t="s">
-        <v>378</v>
+        <v>286</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D110" s="11" t="s">
         <v>89</v>
       </c>
+      <c r="E110" s="4" t="s">
+        <v>802</v>
+      </c>
       <c r="F110" s="11" t="s">
-        <v>649</v>
+        <v>557</v>
       </c>
       <c r="G110" s="7" t="s">
         <v>179</v>
@@ -6793,27 +6907,30 @@
         <v>179</v>
       </c>
       <c r="I110" s="13" t="s">
-        <v>535</v>
+        <v>443</v>
       </c>
       <c r="J110" s="9" t="s">
         <v>149</v>
       </c>
       <c r="K110" s="9" t="s">
-        <v>781</v>
+        <v>689</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="198" x14ac:dyDescent="0.3">
       <c r="A111" s="7" t="s">
-        <v>379</v>
+        <v>287</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D111" s="11" t="s">
         <v>66</v>
       </c>
+      <c r="E111" s="4" t="s">
+        <v>803</v>
+      </c>
       <c r="F111" s="11" t="s">
-        <v>650</v>
+        <v>558</v>
       </c>
       <c r="G111" s="7" t="s">
         <v>179</v>
@@ -6822,56 +6939,62 @@
         <v>179</v>
       </c>
       <c r="I111" s="14" t="s">
-        <v>536</v>
+        <v>444</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>405</v>
+        <v>313</v>
       </c>
       <c r="K111" s="9" t="s">
-        <v>782</v>
+        <v>690</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="224.4" x14ac:dyDescent="0.3">
       <c r="A112" s="7" t="s">
-        <v>380</v>
+        <v>288</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>70</v>
       </c>
+      <c r="E112" s="4" t="s">
+        <v>804</v>
+      </c>
       <c r="F112" s="11" t="s">
-        <v>651</v>
+        <v>559</v>
       </c>
       <c r="G112" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H112" s="11" t="s">
-        <v>689</v>
+        <v>597</v>
       </c>
       <c r="I112" s="13" t="s">
-        <v>537</v>
+        <v>445</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>406</v>
+        <v>314</v>
       </c>
       <c r="K112" s="9" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="113" spans="1:11" ht="39.6" x14ac:dyDescent="0.3">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A113" s="7" t="s">
-        <v>381</v>
+        <v>289</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>386</v>
+        <v>294</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>84</v>
       </c>
+      <c r="E113" s="4" t="s">
+        <v>805</v>
+      </c>
       <c r="F113" s="11" t="s">
-        <v>652</v>
+        <v>560</v>
       </c>
       <c r="G113" s="7" t="s">
         <v>179</v>
@@ -6880,7 +7003,7 @@
         <v>179</v>
       </c>
       <c r="I113" s="13" t="s">
-        <v>538</v>
+        <v>446</v>
       </c>
       <c r="J113" s="9" t="s">
         <v>146</v>
@@ -6891,16 +7014,19 @@
     </row>
     <row r="114" spans="1:11" ht="343.2" x14ac:dyDescent="0.3">
       <c r="A114" s="7" t="s">
-        <v>382</v>
+        <v>290</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>47</v>
       </c>
+      <c r="E114" s="4" t="s">
+        <v>806</v>
+      </c>
       <c r="F114" s="11" t="s">
-        <v>653</v>
+        <v>561</v>
       </c>
       <c r="G114" s="7" t="s">
         <v>179</v>
@@ -6909,27 +7035,30 @@
         <v>179</v>
       </c>
       <c r="I114" s="13" t="s">
-        <v>539</v>
+        <v>447</v>
       </c>
       <c r="J114" s="9" t="s">
         <v>118</v>
       </c>
       <c r="K114" s="9" t="s">
-        <v>784</v>
+        <v>692</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A115" s="7" t="s">
-        <v>383</v>
+        <v>291</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>430</v>
+        <v>338</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>807</v>
       </c>
       <c r="F115" s="11" t="s">
-        <v>654</v>
+        <v>562</v>
       </c>
       <c r="G115" s="7" t="s">
         <v>179</v>
@@ -6938,27 +7067,30 @@
         <v>181</v>
       </c>
       <c r="I115" s="13" t="s">
-        <v>540</v>
+        <v>448</v>
       </c>
       <c r="J115" s="9" t="s">
         <v>167</v>
       </c>
       <c r="K115" s="9" t="s">
-        <v>697</v>
+        <v>605</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A116" s="7" t="s">
-        <v>384</v>
+        <v>292</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>385</v>
+        <v>293</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>431</v>
+        <v>339</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>808</v>
       </c>
       <c r="F116" s="11" t="s">
-        <v>655</v>
+        <v>563</v>
       </c>
       <c r="G116" s="7" t="s">
         <v>179</v>
@@ -6967,13 +7099,13 @@
         <v>179</v>
       </c>
       <c r="I116" s="13" t="s">
-        <v>541</v>
+        <v>449</v>
       </c>
       <c r="J116" s="9" t="s">
         <v>124</v>
       </c>
       <c r="K116" s="9" t="s">
-        <v>785</v>
+        <v>693</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
@@ -6983,212 +7115,325 @@
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{A62FB5FE-12B7-435E-B3DF-DE702ECD1D4C}"/>
-    <hyperlink ref="E3:E94" r:id="rId2" display="https://placehold.co/600x400" xr:uid="{4B1B57F9-DFD7-43E3-A9CD-E57CEDD90496}"/>
-    <hyperlink ref="J50" r:id="rId3" xr:uid="{1D5C1AA2-48DA-4272-8361-D1F6390F4A8A}"/>
-    <hyperlink ref="J32" r:id="rId4" xr:uid="{07580F44-3EB0-4FC9-A0BC-741F22B717D0}"/>
-    <hyperlink ref="J72" r:id="rId5" xr:uid="{EC663350-A4C2-4197-9706-00B0B9DD533E}"/>
-    <hyperlink ref="J41" r:id="rId6" xr:uid="{365774F7-088C-408F-93AA-B644740C58D9}"/>
-    <hyperlink ref="J37" r:id="rId7" xr:uid="{2C7B75FD-E3C0-42CF-83F6-459F0AECF5F1}"/>
-    <hyperlink ref="J98" r:id="rId8" xr:uid="{FAF49D99-73A1-424F-8F14-222BE5BF6A3E}"/>
-    <hyperlink ref="J61" r:id="rId9" xr:uid="{C9BCF61A-B467-4102-A492-122F086F0368}"/>
-    <hyperlink ref="J5" r:id="rId10" xr:uid="{9132E956-A6F2-408D-BCB3-793987676EB2}"/>
-    <hyperlink ref="J67" r:id="rId11" xr:uid="{B3B1FE62-6D6C-4AE2-89C7-9BA3CD9D9CAD}"/>
-    <hyperlink ref="J51" r:id="rId12" xr:uid="{060192C3-5B3F-4F89-8722-9EAEB8436D76}"/>
-    <hyperlink ref="J114" r:id="rId13" xr:uid="{9A56F857-80BA-453A-A71D-E0BDEE54D2EA}"/>
-    <hyperlink ref="J46" r:id="rId14" xr:uid="{37219DD7-E96E-4B17-8B78-5F083639C855}"/>
-    <hyperlink ref="J23" r:id="rId15" xr:uid="{C6B07C0D-3A87-4139-924F-5D7C1974C1A4}"/>
-    <hyperlink ref="J63" r:id="rId16" xr:uid="{0557C60D-4B94-481D-8675-9B6A13A6E44E}"/>
-    <hyperlink ref="J79" r:id="rId17" xr:uid="{2BEE3DD1-BF03-4532-A5CC-08BA52989648}"/>
-    <hyperlink ref="J76" r:id="rId18" xr:uid="{ECBB95AD-163D-47E5-AE29-E99FBEACD551}"/>
-    <hyperlink ref="J116" r:id="rId19" xr:uid="{B7C081AD-03CF-4BC1-8314-B3DB15B7A1A8}"/>
-    <hyperlink ref="J103" r:id="rId20" xr:uid="{FE79FDF6-FF3F-47E7-A6EB-61273051E34C}"/>
-    <hyperlink ref="J94" r:id="rId21" xr:uid="{E60C066D-7C09-4775-9755-93FB2496E685}"/>
-    <hyperlink ref="J27" r:id="rId22" xr:uid="{DB56D042-417D-4980-B343-57966445DD15}"/>
-    <hyperlink ref="J9" r:id="rId23" xr:uid="{41E05142-8322-4ADC-B2D1-6307E6503A28}"/>
-    <hyperlink ref="J71" r:id="rId24" xr:uid="{C941D8EE-B31B-41A0-8434-710FA0F29FA2}"/>
-    <hyperlink ref="J107" r:id="rId25" xr:uid="{3FD4E4BE-14F7-4840-883D-4F2D3CF24736}"/>
-    <hyperlink ref="J74" r:id="rId26" xr:uid="{4CA1DEF6-A95D-469A-9864-86DB842D9D7E}"/>
-    <hyperlink ref="J20" r:id="rId27" xr:uid="{9F14FCDD-261E-4DB7-B89B-7AFDD35C5F59}"/>
-    <hyperlink ref="J65" r:id="rId28" xr:uid="{B968D9CE-854E-44A5-839B-BC3785EBA897}"/>
-    <hyperlink ref="J29" r:id="rId29" xr:uid="{E6341C31-9A0F-4579-A129-AD8416FEE7E6}"/>
-    <hyperlink ref="J3" r:id="rId30" xr:uid="{C2A2ABF9-D6F5-40C9-A337-0A36930FE005}"/>
-    <hyperlink ref="J12" r:id="rId31" xr:uid="{FF6B8699-08B4-4FA2-9C18-AC3761329346}"/>
-    <hyperlink ref="J11" r:id="rId32" xr:uid="{391E59F1-0413-4010-9CCD-27966E9CF696}"/>
-    <hyperlink ref="J49" r:id="rId33" xr:uid="{952D02F0-9EF0-4BDA-B7C9-D666B8F45A0F}"/>
-    <hyperlink ref="J99" r:id="rId34" xr:uid="{DA36FE56-CEA7-4667-9B2F-B8E1EAE3BE4F}"/>
-    <hyperlink ref="J45" r:id="rId35" xr:uid="{51708E22-07A7-4722-ABBE-3EA9DA919731}"/>
-    <hyperlink ref="J7" r:id="rId36" xr:uid="{ECA98728-8B92-4597-A1D5-7852C41DB295}"/>
-    <hyperlink ref="J54" r:id="rId37" xr:uid="{897F2A47-0C60-4C48-8995-23FF92EE670E}"/>
-    <hyperlink ref="J70" r:id="rId38" xr:uid="{A00E1FB7-8130-4C2B-87FF-5B66EA7E0CA6}"/>
-    <hyperlink ref="J68" r:id="rId39" xr:uid="{4A459664-ADD6-4B1A-9D0B-4458A3929DDB}"/>
-    <hyperlink ref="J14" r:id="rId40" xr:uid="{7C08DC05-6727-4C00-BAEF-ACB5039B3450}"/>
-    <hyperlink ref="J113" r:id="rId41" xr:uid="{427DA8DA-D435-4E88-A781-EFEDDD9A1348}"/>
-    <hyperlink ref="J34" r:id="rId42" xr:uid="{E5B34EDE-2D9D-4928-A4FC-BE3DCA6F4135}"/>
-    <hyperlink ref="J85" r:id="rId43" xr:uid="{B10DA8C5-89DD-49EE-B690-B896A77AF222}"/>
-    <hyperlink ref="J110" r:id="rId44" xr:uid="{27C35E27-41D2-4C95-8515-85ECF6A2AF2F}"/>
-    <hyperlink ref="J55" r:id="rId45" xr:uid="{FA3FE8C1-D538-4393-8A74-F9D38F1AD383}"/>
-    <hyperlink ref="J87" r:id="rId46" xr:uid="{AAF82C19-A246-44BC-8C6D-719C1BBB79FA}"/>
-    <hyperlink ref="J43" r:id="rId47" xr:uid="{9FFC6EED-2BF8-492D-BED2-9844CA3BAA39}"/>
-    <hyperlink ref="J95" r:id="rId48" xr:uid="{BD7CEAF1-07D3-4DA1-9E09-3CB8FA9D599F}"/>
-    <hyperlink ref="J60" r:id="rId49" xr:uid="{969D1A3E-E46C-4F7B-AE77-531A320C4304}"/>
-    <hyperlink ref="J109" r:id="rId50" xr:uid="{194FB438-3D8E-4988-9A0F-BE78862A897F}"/>
-    <hyperlink ref="J73" r:id="rId51" xr:uid="{50A97F83-E81F-4F3D-A0FE-6F89C56F1553}"/>
-    <hyperlink ref="J18" r:id="rId52" xr:uid="{9D6739B9-25FB-4AD8-A1DE-ED95ECA0DC3D}"/>
-    <hyperlink ref="J47" r:id="rId53" xr:uid="{FF785176-459B-4642-B519-8827B9479E18}"/>
-    <hyperlink ref="J19" r:id="rId54" xr:uid="{CAE1EDD1-54B1-43A0-BC14-71D5F39C0989}"/>
-    <hyperlink ref="J48" r:id="rId55" xr:uid="{34DBE895-4A68-4101-A95F-0D1703F6F99B}"/>
-    <hyperlink ref="J39" r:id="rId56" xr:uid="{20571038-E2A8-490A-A708-71434EEE1241}"/>
-    <hyperlink ref="J22" r:id="rId57" xr:uid="{4ED2406A-A7F7-4F7D-AC82-33E65E0937C5}"/>
-    <hyperlink ref="J93" r:id="rId58" xr:uid="{6D6B4F57-F0BC-4D3A-AB3E-16530E9A3BF9}"/>
-    <hyperlink ref="J62" r:id="rId59" xr:uid="{220AAEE1-4B69-434D-919E-793B15701F56}"/>
-    <hyperlink ref="J13" r:id="rId60" xr:uid="{36E94D27-889A-4138-8B56-2BDA3E0E2936}"/>
-    <hyperlink ref="J96" r:id="rId61" xr:uid="{3E7F1ED5-C1A1-4947-88F9-D2C0ABEEFE2D}"/>
-    <hyperlink ref="J115" r:id="rId62" xr:uid="{C7A5D386-CE26-487B-8493-425163F6026F}"/>
-    <hyperlink ref="J59" r:id="rId63" xr:uid="{64EC53E9-C283-43B8-8F04-F94CC1551130}"/>
-    <hyperlink ref="J101" r:id="rId64" xr:uid="{CB506A56-F184-45D4-94D4-4754DB1F83F8}"/>
-    <hyperlink ref="J58" r:id="rId65" xr:uid="{611143F7-8C10-441D-8AFF-D075C11F6E3C}"/>
-    <hyperlink ref="J64" r:id="rId66" xr:uid="{4E34E76F-FB5A-4061-8895-5937178AB0D7}"/>
-    <hyperlink ref="J108" r:id="rId67" xr:uid="{07364CE1-8F52-4B44-8033-72ACCB7AE0B5}"/>
-    <hyperlink ref="J89" r:id="rId68" xr:uid="{60BBFCC1-A1D7-460D-9B87-90C82CC53102}"/>
-    <hyperlink ref="J81" r:id="rId69" xr:uid="{6E2DF16B-FFD9-4FBA-84F5-FCD2BF417979}"/>
-    <hyperlink ref="J31" r:id="rId70" xr:uid="{5948898D-15C0-40CD-9870-EB6AEBCE3531}"/>
-    <hyperlink ref="J83" r:id="rId71" xr:uid="{2080D984-893E-4ECF-9127-5BB8C2FB4F87}"/>
-    <hyperlink ref="J56" r:id="rId72" xr:uid="{C9A084FC-D00D-4AE4-8839-52F8373C0210}"/>
-    <hyperlink ref="J100" r:id="rId73" xr:uid="{05D2CE17-A253-42D9-BAE3-9B8D9DA9BB1D}"/>
-    <hyperlink ref="J112" r:id="rId74" xr:uid="{70FCEC48-86B9-463A-82D9-9129E69EE014}"/>
-    <hyperlink ref="J92" r:id="rId75" xr:uid="{71B9AE20-5D47-46BA-8408-8FD889684DB4}"/>
-    <hyperlink ref="J33" r:id="rId76" xr:uid="{B7DF871A-BDF1-4F93-872C-5AC4803D3DEC}"/>
-    <hyperlink ref="J44" r:id="rId77" xr:uid="{79CD5B9F-DF5C-42F3-9541-A95A9DA7D268}"/>
-    <hyperlink ref="J53" r:id="rId78" xr:uid="{0C4A588C-E4A6-449B-B944-41E5263F7922}"/>
-    <hyperlink ref="J106" r:id="rId79" xr:uid="{7BADC23C-FF1A-4BC8-A59B-48BCCBBA5420}"/>
-    <hyperlink ref="J26" r:id="rId80" xr:uid="{A451C2AA-8D5D-4E25-92D0-EFEEDE893900}"/>
-    <hyperlink ref="J84" r:id="rId81" xr:uid="{FAE92D77-4ED8-41C7-A75F-BEE6ECFDAC63}"/>
-    <hyperlink ref="J111" r:id="rId82" xr:uid="{3954D6ED-1F8C-49AB-A0E7-89EDC7E93E30}"/>
-    <hyperlink ref="J97" r:id="rId83" xr:uid="{9C9913BB-D3AF-4F9D-B490-DE014CA61F97}"/>
-    <hyperlink ref="J24" r:id="rId84" xr:uid="{2BA923B1-01AB-42EC-98FC-B94C5A93FE5D}"/>
-    <hyperlink ref="J36" r:id="rId85" xr:uid="{5604341C-D265-4BA2-A663-706B3A066252}"/>
-    <hyperlink ref="J105" r:id="rId86" xr:uid="{30EF7B6F-C2E0-4E23-B067-9B4EBCF50B7A}"/>
-    <hyperlink ref="J57" r:id="rId87" xr:uid="{8D7CAB23-1B91-4121-9FC1-92C20E8C3D4C}"/>
-    <hyperlink ref="J28" r:id="rId88" xr:uid="{AB439C54-0998-4492-A4BD-B3216A16AF66}"/>
-    <hyperlink ref="J88" r:id="rId89" xr:uid="{BC0A0757-8CC8-4D02-9717-F576CDC1DE89}"/>
-    <hyperlink ref="J2" r:id="rId90" xr:uid="{20754D1A-B3F6-4DA0-B053-62069E33FDE3}"/>
-    <hyperlink ref="J17" r:id="rId91" xr:uid="{94B5DBC7-2C9D-43F6-B516-3C7223B7935E}"/>
-    <hyperlink ref="J66" r:id="rId92" xr:uid="{9D6075ED-4522-4832-90BC-52F373F72264}"/>
-    <hyperlink ref="J86" r:id="rId93" xr:uid="{D21EB7B9-6FDD-4024-A996-DB2901E40A1E}"/>
-    <hyperlink ref="I111" r:id="rId94" xr:uid="{FCDFA339-6AA6-456A-A996-0A4744C7F2E5}"/>
-    <hyperlink ref="I27" r:id="rId95" xr:uid="{64024B8D-276C-4573-A93E-C996E5910768}"/>
-    <hyperlink ref="I79" r:id="rId96" xr:uid="{14DDA89B-F6CC-41AC-8D73-98E3D8BD4583}"/>
-    <hyperlink ref="I98" r:id="rId97" xr:uid="{BA8829CC-9C51-40BA-B360-070FE235D58D}"/>
-    <hyperlink ref="I91" r:id="rId98" xr:uid="{AA2D512B-D0D1-4773-A9D4-C7B49CA59E7F}"/>
-    <hyperlink ref="I85" r:id="rId99" xr:uid="{13DD8D08-E1E5-4350-BD36-4D94FF7E036D}"/>
-    <hyperlink ref="I97" r:id="rId100" xr:uid="{0D34D343-EEB2-4AF2-9564-E93F6AC69CF6}"/>
-    <hyperlink ref="I29" r:id="rId101" xr:uid="{09686EA7-614D-4CDE-9CBB-80B4EB7A26D6}"/>
-    <hyperlink ref="I28" r:id="rId102" xr:uid="{975B2F34-94C8-4546-B9A8-2C21EE0884C2}"/>
-    <hyperlink ref="K72" r:id="rId103" xr:uid="{0F0D5987-4C2E-4734-964F-C3D455F9BA51}"/>
-    <hyperlink ref="K3" r:id="rId104" xr:uid="{EE099882-D900-4A06-A1E6-FC22120382CF}"/>
-    <hyperlink ref="K83" r:id="rId105" xr:uid="{C93F7616-DFC2-4507-A336-EF00F4D76D16}"/>
-    <hyperlink ref="K57" r:id="rId106" xr:uid="{804FD0FD-5CBC-412B-960D-9DB3BF754059}"/>
-    <hyperlink ref="K18" r:id="rId107" xr:uid="{A77992F5-6D42-47B4-B03A-76325692B177}"/>
-    <hyperlink ref="K49" r:id="rId108" xr:uid="{7750AC04-B542-4CC5-8727-100F9D04580C}"/>
-    <hyperlink ref="K92" r:id="rId109" xr:uid="{1746B136-638A-40FE-9199-BC84149F4B43}"/>
-    <hyperlink ref="K106" r:id="rId110" xr:uid="{7A5921BB-02EE-4E14-BF32-D9E0D6F22047}"/>
-    <hyperlink ref="K68" r:id="rId111" xr:uid="{6496000B-FA6F-4802-804E-02C2D0FA390B}"/>
-    <hyperlink ref="K91" r:id="rId112" xr:uid="{397ACCB1-DD39-41BD-9E71-3BEB01F5CEBC}"/>
-    <hyperlink ref="K95" r:id="rId113" xr:uid="{2273773B-FD6E-47DA-8A17-887BC876EAAB}"/>
-    <hyperlink ref="K50" r:id="rId114" xr:uid="{E5C5B4B2-DFE9-4DC8-A9BB-12A67E379921}"/>
-    <hyperlink ref="K19" r:id="rId115" xr:uid="{0BEBF7A0-F67E-4912-9D0F-9F670B5A5BBA}"/>
-    <hyperlink ref="K71" r:id="rId116" xr:uid="{7F33585E-0265-45CF-BD22-FD4212DF7E4E}"/>
-    <hyperlink ref="K23" r:id="rId117" xr:uid="{3C4827CA-7C56-4FEF-AB4C-C8FC02A4FED8}"/>
-    <hyperlink ref="K78" r:id="rId118" xr:uid="{C34A7402-A0B1-485C-BDCA-CB39CA5FD434}"/>
-    <hyperlink ref="K86" r:id="rId119" xr:uid="{74640D86-8E19-4328-A15B-BA55061B8682}"/>
-    <hyperlink ref="K36" r:id="rId120" xr:uid="{EC51FFC2-5E4D-4CEC-A7F6-4F6030BC779E}"/>
-    <hyperlink ref="K14" r:id="rId121" xr:uid="{52FE5DAD-801B-41C8-B53E-183CA41E1C5B}"/>
-    <hyperlink ref="K80" r:id="rId122" xr:uid="{81F59018-1E18-4196-900D-314DA6EFEC6F}"/>
-    <hyperlink ref="K17" r:id="rId123" xr:uid="{61F02C3E-4E76-4099-BD35-17D0BA1AD257}"/>
-    <hyperlink ref="K35" r:id="rId124" xr:uid="{756460BB-71D0-4481-A203-6B8A7914E7EA}"/>
-    <hyperlink ref="K29" r:id="rId125" xr:uid="{19643B1A-5DF7-48A2-B209-74196CAE9C18}"/>
-    <hyperlink ref="K67" r:id="rId126" xr:uid="{AE42DB9B-7357-48A4-BF1A-EF8C57BA9D91}"/>
-    <hyperlink ref="K9" r:id="rId127" xr:uid="{5FC8930E-FF8C-481F-B888-5BBDB82A77BF}"/>
-    <hyperlink ref="K114" r:id="rId128" xr:uid="{EEBFC43C-2BEC-4D21-84ED-6E40FEBC09A3}"/>
-    <hyperlink ref="K4" r:id="rId129" xr:uid="{DA75D164-436C-487F-BF87-AEEAECE6BCFD}"/>
-    <hyperlink ref="K12" r:id="rId130" xr:uid="{5965647B-9CDB-449D-B65F-74718ACA198E}"/>
-    <hyperlink ref="K101" r:id="rId131" xr:uid="{B9B4616E-DFBF-4D2C-A61F-75BB885A7F5F}"/>
-    <hyperlink ref="K38" r:id="rId132" xr:uid="{EB486796-D78B-4536-B4B7-8587A937AA32}"/>
-    <hyperlink ref="K21" r:id="rId133" xr:uid="{E83B2938-E629-444E-85E2-03B9052B8531}"/>
-    <hyperlink ref="K28" r:id="rId134" xr:uid="{30EAFB7B-526A-45B0-8079-DA4D43028ECE}"/>
-    <hyperlink ref="K97" r:id="rId135" xr:uid="{762DB4DC-E8A5-40A9-98ED-72E617CD4BBF}"/>
-    <hyperlink ref="K6" r:id="rId136" xr:uid="{5B1F9DA4-3702-4F75-A92B-73A78460C569}"/>
-    <hyperlink ref="K70" r:id="rId137" xr:uid="{D72C2A5D-77AB-4244-86A6-19EDA0FCC245}"/>
-    <hyperlink ref="K22" r:id="rId138" xr:uid="{00CFC86D-AAF8-4276-BB57-8D64F5221836}"/>
-    <hyperlink ref="K42" r:id="rId139" xr:uid="{D6C1DBAD-42FD-4F14-B00B-9AF3DABF054E}"/>
-    <hyperlink ref="K102" r:id="rId140" xr:uid="{EB8701D8-EB08-46B7-A5AE-E1B481D9A95E}"/>
-    <hyperlink ref="K24" r:id="rId141" xr:uid="{F374D0B5-9989-4604-A197-D4DABF6768B3}"/>
-    <hyperlink ref="K26" r:id="rId142" xr:uid="{FBC06C49-BD56-4E6F-BC48-52437AA921D8}"/>
-    <hyperlink ref="K90" r:id="rId143" xr:uid="{59090E5A-B368-4D26-97CD-28315FE1649B}"/>
-    <hyperlink ref="K98" r:id="rId144" xr:uid="{7D6815D1-B2E7-4884-A5B3-5FB6B6DECAA7}"/>
-    <hyperlink ref="K53" r:id="rId145" xr:uid="{BD1DBA29-0A38-405C-869D-919FBAF3CABE}"/>
-    <hyperlink ref="K81" r:id="rId146" xr:uid="{700F918C-6D7F-4F86-8E52-FA3448385277}"/>
-    <hyperlink ref="K111" r:id="rId147" xr:uid="{410D5303-E084-40A0-B4E5-C6B661D0E341}"/>
-    <hyperlink ref="K27" r:id="rId148" xr:uid="{2CD0EB44-11CD-489A-BC64-4707488F0627}"/>
-    <hyperlink ref="K54" r:id="rId149" xr:uid="{D752C18E-C1F9-4582-A01C-DBACC95FFF01}"/>
-    <hyperlink ref="K41" r:id="rId150" xr:uid="{6CE4B488-3FA1-4875-8AED-709FB6AAF413}"/>
-    <hyperlink ref="K112" r:id="rId151" xr:uid="{F388E6B2-74C0-496D-B947-313715436D43}"/>
-    <hyperlink ref="K62" r:id="rId152" xr:uid="{E14A0A29-512D-4C0A-AC59-3BA97406A5DF}"/>
-    <hyperlink ref="K48" r:id="rId153" xr:uid="{AA04A97A-5602-4DAB-BBF9-56AE078D6A6B}"/>
-    <hyperlink ref="K10" r:id="rId154" xr:uid="{4AD4C08F-0D89-4913-BFAE-909540124E98}"/>
-    <hyperlink ref="K51" r:id="rId155" xr:uid="{8CBA9C11-2842-40AC-A19F-EC56ED2AE73C}"/>
-    <hyperlink ref="K61" r:id="rId156" xr:uid="{A67F1829-7168-4F31-938F-0E402BEC764F}"/>
-    <hyperlink ref="K65" r:id="rId157" xr:uid="{02CD5577-DF14-4A58-90DB-C32D984E00A4}"/>
-    <hyperlink ref="K34" r:id="rId158" xr:uid="{AEC62A60-9D6E-4195-B6C7-07B573AAB9AB}"/>
-    <hyperlink ref="K75" r:id="rId159" xr:uid="{57836204-C10E-47A9-ABD0-964615A39799}"/>
-    <hyperlink ref="K5" r:id="rId160" xr:uid="{CB20B70D-D184-4F42-87C8-7C24CB09FB80}"/>
-    <hyperlink ref="K20" r:id="rId161" xr:uid="{9B31FA0F-97F1-4009-A17B-D1970E44A23B}"/>
-    <hyperlink ref="K43" r:id="rId162" xr:uid="{558AF694-694C-4456-B042-7F256CC5F4A3}"/>
-    <hyperlink ref="K109" r:id="rId163" xr:uid="{90F8EACB-B5DE-41C2-8E4F-2831020A53F8}"/>
-    <hyperlink ref="K46" r:id="rId164" xr:uid="{744AF7C5-7154-4EAC-AE5E-5D1A09D2B714}"/>
-    <hyperlink ref="K64" r:id="rId165" xr:uid="{9DD5D021-E7AA-4BF2-8C63-6FEBE80C4F47}"/>
-    <hyperlink ref="K96" r:id="rId166" xr:uid="{A75B397D-50A0-494D-A283-5A1847A6D821}"/>
-    <hyperlink ref="K84" r:id="rId167" xr:uid="{B9C87EAF-1E42-4F43-B5D8-CA7E0C13B35B}"/>
-    <hyperlink ref="K40" r:id="rId168" location="other_information_panel" xr:uid="{779901CB-38DA-4AE9-A7AE-E67C3526F5AB}"/>
-    <hyperlink ref="K110" r:id="rId169" xr:uid="{EA26E735-CEDB-4D25-886E-95EE4ABB89D5}"/>
-    <hyperlink ref="K59" r:id="rId170" xr:uid="{C16B82EF-1627-494A-8B7A-D86440B475C1}"/>
-    <hyperlink ref="K99" r:id="rId171" xr:uid="{02986C07-103B-4E72-B4C5-38246A96A10B}"/>
-    <hyperlink ref="K13" r:id="rId172" xr:uid="{1C519843-410A-4DAC-8E43-DABB8138655A}"/>
-    <hyperlink ref="K45" r:id="rId173" xr:uid="{04A6890C-9C31-4DDF-AE3B-BE882ED14E67}"/>
-    <hyperlink ref="K105" r:id="rId174" xr:uid="{483EB898-A68D-4102-AD07-CC203273797A}"/>
-    <hyperlink ref="K94" r:id="rId175" xr:uid="{F97397E0-B82C-4102-B22C-0515B36A9EE0}"/>
-    <hyperlink ref="K15" r:id="rId176" xr:uid="{D93D3FD6-870F-474D-82E7-AC8A24413220}"/>
-    <hyperlink ref="K56" r:id="rId177" xr:uid="{F94C1AD7-8029-44C2-971E-BFCFA48BC144}"/>
-    <hyperlink ref="K104" r:id="rId178" xr:uid="{E85CD11C-8D3D-4798-920E-3ED4A39DE89C}"/>
-    <hyperlink ref="K44" r:id="rId179" xr:uid="{F98688E1-BA82-48B2-8406-301BC86F87AD}"/>
-    <hyperlink ref="K89" r:id="rId180" xr:uid="{6AD026CA-B52B-4FE9-846B-E8B3CADC50B1}"/>
-    <hyperlink ref="K74" r:id="rId181" xr:uid="{FF8A5C27-5FF2-41C3-AC24-EAC6B38062DC}"/>
-    <hyperlink ref="K87" r:id="rId182" xr:uid="{9E42EB8D-EBD2-4A34-B4BB-363354FC459D}"/>
-    <hyperlink ref="K63" r:id="rId183" xr:uid="{A947B764-4081-4F58-9A72-EE36B2F6B1A8}"/>
-    <hyperlink ref="K37" r:id="rId184" xr:uid="{D7E25286-F64E-48F0-87E7-AD5249062C23}"/>
-    <hyperlink ref="K66" r:id="rId185" xr:uid="{2682634A-D393-40EB-BB9A-7494E4D35B57}"/>
-    <hyperlink ref="K107" r:id="rId186" xr:uid="{D6389A52-CBF7-46E3-A0FF-C937E2085D03}"/>
-    <hyperlink ref="K58" r:id="rId187" xr:uid="{922214CE-3494-48CB-9F57-2094D032ED23}"/>
-    <hyperlink ref="K69" r:id="rId188" xr:uid="{A9BC71CB-6498-4BD8-87A3-E7773119EC6D}"/>
-    <hyperlink ref="K73" r:id="rId189" xr:uid="{ECCF3B3D-8869-4E78-8AF8-A759F9B89FCF}"/>
-    <hyperlink ref="K2" r:id="rId190" xr:uid="{ED423ECC-A508-491A-936B-2E5B1E6F68F6}"/>
-    <hyperlink ref="K11" r:id="rId191" xr:uid="{101F867B-4835-4B9B-B9A2-8A30BF5E39BA}"/>
-    <hyperlink ref="K93" r:id="rId192" xr:uid="{518B5621-8224-4929-935E-6E61B0D233B9}"/>
-    <hyperlink ref="K116" r:id="rId193" xr:uid="{0AB090DA-4676-4891-99C4-858677B7F30B}"/>
-    <hyperlink ref="K79" r:id="rId194" xr:uid="{D22DB7E4-105B-47A6-B318-5FCC6EE2D6D0}"/>
-    <hyperlink ref="K33" r:id="rId195" xr:uid="{1F160EFB-4611-4304-BA0C-5C038C4927F1}"/>
-    <hyperlink ref="K100" r:id="rId196" xr:uid="{CD7AD12A-6103-47A5-B209-2D6D523B2FE0}"/>
-    <hyperlink ref="K88" r:id="rId197" xr:uid="{7F5FFBCF-5DCE-48F4-B908-A33AD421D876}"/>
-    <hyperlink ref="K85" r:id="rId198" xr:uid="{C3BDAF64-F083-4E30-8920-E61D453C0059}"/>
-    <hyperlink ref="K108" r:id="rId199" xr:uid="{258E8198-2B54-471C-89B3-E31545A6746D}"/>
-    <hyperlink ref="K60" r:id="rId200" xr:uid="{B61EB6CD-166C-428C-8388-3CC03DBF164D}"/>
-    <hyperlink ref="K55" r:id="rId201" xr:uid="{028F1EAD-4081-4BB3-87E0-5BC784D40372}"/>
-    <hyperlink ref="K115" r:id="rId202" xr:uid="{65A8626F-5E28-40CC-A814-D5542099879E}"/>
-    <hyperlink ref="K7" r:id="rId203" xr:uid="{DEA87D27-8F89-4183-8C6D-7441AC3F88A6}"/>
-    <hyperlink ref="K31" r:id="rId204" xr:uid="{6E9716B0-C281-4344-AD25-D219F69D604B}"/>
-    <hyperlink ref="K76" r:id="rId205" xr:uid="{2B65B8B8-7878-4F90-B2AA-A349185889BE}"/>
-    <hyperlink ref="K82" r:id="rId206" xr:uid="{B546B3CA-9FEA-44AA-9E9A-BC12B606BD6A}"/>
+    <hyperlink ref="J50" r:id="rId2" xr:uid="{1D5C1AA2-48DA-4272-8361-D1F6390F4A8A}"/>
+    <hyperlink ref="J32" r:id="rId3" xr:uid="{07580F44-3EB0-4FC9-A0BC-741F22B717D0}"/>
+    <hyperlink ref="J72" r:id="rId4" xr:uid="{EC663350-A4C2-4197-9706-00B0B9DD533E}"/>
+    <hyperlink ref="J41" r:id="rId5" xr:uid="{365774F7-088C-408F-93AA-B644740C58D9}"/>
+    <hyperlink ref="J37" r:id="rId6" xr:uid="{2C7B75FD-E3C0-42CF-83F6-459F0AECF5F1}"/>
+    <hyperlink ref="J98" r:id="rId7" xr:uid="{FAF49D99-73A1-424F-8F14-222BE5BF6A3E}"/>
+    <hyperlink ref="J61" r:id="rId8" xr:uid="{C9BCF61A-B467-4102-A492-122F086F0368}"/>
+    <hyperlink ref="J5" r:id="rId9" xr:uid="{9132E956-A6F2-408D-BCB3-793987676EB2}"/>
+    <hyperlink ref="J67" r:id="rId10" xr:uid="{B3B1FE62-6D6C-4AE2-89C7-9BA3CD9D9CAD}"/>
+    <hyperlink ref="J51" r:id="rId11" xr:uid="{060192C3-5B3F-4F89-8722-9EAEB8436D76}"/>
+    <hyperlink ref="J114" r:id="rId12" xr:uid="{9A56F857-80BA-453A-A71D-E0BDEE54D2EA}"/>
+    <hyperlink ref="J46" r:id="rId13" xr:uid="{37219DD7-E96E-4B17-8B78-5F083639C855}"/>
+    <hyperlink ref="J23" r:id="rId14" xr:uid="{C6B07C0D-3A87-4139-924F-5D7C1974C1A4}"/>
+    <hyperlink ref="J63" r:id="rId15" xr:uid="{0557C60D-4B94-481D-8675-9B6A13A6E44E}"/>
+    <hyperlink ref="J79" r:id="rId16" xr:uid="{2BEE3DD1-BF03-4532-A5CC-08BA52989648}"/>
+    <hyperlink ref="J76" r:id="rId17" xr:uid="{ECBB95AD-163D-47E5-AE29-E99FBEACD551}"/>
+    <hyperlink ref="J116" r:id="rId18" xr:uid="{B7C081AD-03CF-4BC1-8314-B3DB15B7A1A8}"/>
+    <hyperlink ref="J103" r:id="rId19" xr:uid="{FE79FDF6-FF3F-47E7-A6EB-61273051E34C}"/>
+    <hyperlink ref="J94" r:id="rId20" xr:uid="{E60C066D-7C09-4775-9755-93FB2496E685}"/>
+    <hyperlink ref="J27" r:id="rId21" xr:uid="{DB56D042-417D-4980-B343-57966445DD15}"/>
+    <hyperlink ref="J9" r:id="rId22" xr:uid="{41E05142-8322-4ADC-B2D1-6307E6503A28}"/>
+    <hyperlink ref="J71" r:id="rId23" xr:uid="{C941D8EE-B31B-41A0-8434-710FA0F29FA2}"/>
+    <hyperlink ref="J107" r:id="rId24" xr:uid="{3FD4E4BE-14F7-4840-883D-4F2D3CF24736}"/>
+    <hyperlink ref="J74" r:id="rId25" xr:uid="{4CA1DEF6-A95D-469A-9864-86DB842D9D7E}"/>
+    <hyperlink ref="J20" r:id="rId26" xr:uid="{9F14FCDD-261E-4DB7-B89B-7AFDD35C5F59}"/>
+    <hyperlink ref="J65" r:id="rId27" xr:uid="{B968D9CE-854E-44A5-839B-BC3785EBA897}"/>
+    <hyperlink ref="J29" r:id="rId28" xr:uid="{E6341C31-9A0F-4579-A129-AD8416FEE7E6}"/>
+    <hyperlink ref="J3" r:id="rId29" xr:uid="{C2A2ABF9-D6F5-40C9-A337-0A36930FE005}"/>
+    <hyperlink ref="J12" r:id="rId30" xr:uid="{FF6B8699-08B4-4FA2-9C18-AC3761329346}"/>
+    <hyperlink ref="J11" r:id="rId31" xr:uid="{391E59F1-0413-4010-9CCD-27966E9CF696}"/>
+    <hyperlink ref="J49" r:id="rId32" xr:uid="{952D02F0-9EF0-4BDA-B7C9-D666B8F45A0F}"/>
+    <hyperlink ref="J99" r:id="rId33" xr:uid="{DA36FE56-CEA7-4667-9B2F-B8E1EAE3BE4F}"/>
+    <hyperlink ref="J45" r:id="rId34" xr:uid="{51708E22-07A7-4722-ABBE-3EA9DA919731}"/>
+    <hyperlink ref="J7" r:id="rId35" xr:uid="{ECA98728-8B92-4597-A1D5-7852C41DB295}"/>
+    <hyperlink ref="J54" r:id="rId36" xr:uid="{897F2A47-0C60-4C48-8995-23FF92EE670E}"/>
+    <hyperlink ref="J70" r:id="rId37" xr:uid="{A00E1FB7-8130-4C2B-87FF-5B66EA7E0CA6}"/>
+    <hyperlink ref="J68" r:id="rId38" xr:uid="{4A459664-ADD6-4B1A-9D0B-4458A3929DDB}"/>
+    <hyperlink ref="J14" r:id="rId39" xr:uid="{7C08DC05-6727-4C00-BAEF-ACB5039B3450}"/>
+    <hyperlink ref="J113" r:id="rId40" xr:uid="{427DA8DA-D435-4E88-A781-EFEDDD9A1348}"/>
+    <hyperlink ref="J34" r:id="rId41" xr:uid="{E5B34EDE-2D9D-4928-A4FC-BE3DCA6F4135}"/>
+    <hyperlink ref="J85" r:id="rId42" xr:uid="{B10DA8C5-89DD-49EE-B690-B896A77AF222}"/>
+    <hyperlink ref="J110" r:id="rId43" xr:uid="{27C35E27-41D2-4C95-8515-85ECF6A2AF2F}"/>
+    <hyperlink ref="J55" r:id="rId44" xr:uid="{FA3FE8C1-D538-4393-8A74-F9D38F1AD383}"/>
+    <hyperlink ref="J87" r:id="rId45" xr:uid="{AAF82C19-A246-44BC-8C6D-719C1BBB79FA}"/>
+    <hyperlink ref="J43" r:id="rId46" xr:uid="{9FFC6EED-2BF8-492D-BED2-9844CA3BAA39}"/>
+    <hyperlink ref="J95" r:id="rId47" xr:uid="{BD7CEAF1-07D3-4DA1-9E09-3CB8FA9D599F}"/>
+    <hyperlink ref="J60" r:id="rId48" xr:uid="{969D1A3E-E46C-4F7B-AE77-531A320C4304}"/>
+    <hyperlink ref="J109" r:id="rId49" xr:uid="{194FB438-3D8E-4988-9A0F-BE78862A897F}"/>
+    <hyperlink ref="J73" r:id="rId50" xr:uid="{50A97F83-E81F-4F3D-A0FE-6F89C56F1553}"/>
+    <hyperlink ref="J18" r:id="rId51" xr:uid="{9D6739B9-25FB-4AD8-A1DE-ED95ECA0DC3D}"/>
+    <hyperlink ref="J47" r:id="rId52" xr:uid="{FF785176-459B-4642-B519-8827B9479E18}"/>
+    <hyperlink ref="J19" r:id="rId53" xr:uid="{CAE1EDD1-54B1-43A0-BC14-71D5F39C0989}"/>
+    <hyperlink ref="J48" r:id="rId54" xr:uid="{34DBE895-4A68-4101-A95F-0D1703F6F99B}"/>
+    <hyperlink ref="J39" r:id="rId55" xr:uid="{20571038-E2A8-490A-A708-71434EEE1241}"/>
+    <hyperlink ref="J22" r:id="rId56" xr:uid="{4ED2406A-A7F7-4F7D-AC82-33E65E0937C5}"/>
+    <hyperlink ref="J93" r:id="rId57" xr:uid="{6D6B4F57-F0BC-4D3A-AB3E-16530E9A3BF9}"/>
+    <hyperlink ref="J62" r:id="rId58" xr:uid="{220AAEE1-4B69-434D-919E-793B15701F56}"/>
+    <hyperlink ref="J13" r:id="rId59" xr:uid="{36E94D27-889A-4138-8B56-2BDA3E0E2936}"/>
+    <hyperlink ref="J96" r:id="rId60" xr:uid="{3E7F1ED5-C1A1-4947-88F9-D2C0ABEEFE2D}"/>
+    <hyperlink ref="J115" r:id="rId61" xr:uid="{C7A5D386-CE26-487B-8493-425163F6026F}"/>
+    <hyperlink ref="J59" r:id="rId62" xr:uid="{64EC53E9-C283-43B8-8F04-F94CC1551130}"/>
+    <hyperlink ref="J101" r:id="rId63" xr:uid="{CB506A56-F184-45D4-94D4-4754DB1F83F8}"/>
+    <hyperlink ref="J58" r:id="rId64" xr:uid="{611143F7-8C10-441D-8AFF-D075C11F6E3C}"/>
+    <hyperlink ref="J64" r:id="rId65" xr:uid="{4E34E76F-FB5A-4061-8895-5937178AB0D7}"/>
+    <hyperlink ref="J108" r:id="rId66" xr:uid="{07364CE1-8F52-4B44-8033-72ACCB7AE0B5}"/>
+    <hyperlink ref="J89" r:id="rId67" xr:uid="{60BBFCC1-A1D7-460D-9B87-90C82CC53102}"/>
+    <hyperlink ref="J81" r:id="rId68" xr:uid="{6E2DF16B-FFD9-4FBA-84F5-FCD2BF417979}"/>
+    <hyperlink ref="J31" r:id="rId69" xr:uid="{5948898D-15C0-40CD-9870-EB6AEBCE3531}"/>
+    <hyperlink ref="J83" r:id="rId70" xr:uid="{2080D984-893E-4ECF-9127-5BB8C2FB4F87}"/>
+    <hyperlink ref="J56" r:id="rId71" xr:uid="{C9A084FC-D00D-4AE4-8839-52F8373C0210}"/>
+    <hyperlink ref="J100" r:id="rId72" xr:uid="{05D2CE17-A253-42D9-BAE3-9B8D9DA9BB1D}"/>
+    <hyperlink ref="J112" r:id="rId73" xr:uid="{70FCEC48-86B9-463A-82D9-9129E69EE014}"/>
+    <hyperlink ref="J92" r:id="rId74" xr:uid="{71B9AE20-5D47-46BA-8408-8FD889684DB4}"/>
+    <hyperlink ref="J33" r:id="rId75" xr:uid="{B7DF871A-BDF1-4F93-872C-5AC4803D3DEC}"/>
+    <hyperlink ref="J44" r:id="rId76" xr:uid="{79CD5B9F-DF5C-42F3-9541-A95A9DA7D268}"/>
+    <hyperlink ref="J53" r:id="rId77" xr:uid="{0C4A588C-E4A6-449B-B944-41E5263F7922}"/>
+    <hyperlink ref="J106" r:id="rId78" xr:uid="{7BADC23C-FF1A-4BC8-A59B-48BCCBBA5420}"/>
+    <hyperlink ref="J26" r:id="rId79" xr:uid="{A451C2AA-8D5D-4E25-92D0-EFEEDE893900}"/>
+    <hyperlink ref="J84" r:id="rId80" xr:uid="{FAE92D77-4ED8-41C7-A75F-BEE6ECFDAC63}"/>
+    <hyperlink ref="J111" r:id="rId81" xr:uid="{3954D6ED-1F8C-49AB-A0E7-89EDC7E93E30}"/>
+    <hyperlink ref="J97" r:id="rId82" xr:uid="{9C9913BB-D3AF-4F9D-B490-DE014CA61F97}"/>
+    <hyperlink ref="J24" r:id="rId83" xr:uid="{2BA923B1-01AB-42EC-98FC-B94C5A93FE5D}"/>
+    <hyperlink ref="J36" r:id="rId84" xr:uid="{5604341C-D265-4BA2-A663-706B3A066252}"/>
+    <hyperlink ref="J105" r:id="rId85" xr:uid="{30EF7B6F-C2E0-4E23-B067-9B4EBCF50B7A}"/>
+    <hyperlink ref="J57" r:id="rId86" xr:uid="{8D7CAB23-1B91-4121-9FC1-92C20E8C3D4C}"/>
+    <hyperlink ref="J28" r:id="rId87" xr:uid="{AB439C54-0998-4492-A4BD-B3216A16AF66}"/>
+    <hyperlink ref="J88" r:id="rId88" xr:uid="{BC0A0757-8CC8-4D02-9717-F576CDC1DE89}"/>
+    <hyperlink ref="J2" r:id="rId89" xr:uid="{20754D1A-B3F6-4DA0-B053-62069E33FDE3}"/>
+    <hyperlink ref="J17" r:id="rId90" xr:uid="{94B5DBC7-2C9D-43F6-B516-3C7223B7935E}"/>
+    <hyperlink ref="J66" r:id="rId91" xr:uid="{9D6075ED-4522-4832-90BC-52F373F72264}"/>
+    <hyperlink ref="J86" r:id="rId92" xr:uid="{D21EB7B9-6FDD-4024-A996-DB2901E40A1E}"/>
+    <hyperlink ref="I111" r:id="rId93" xr:uid="{FCDFA339-6AA6-456A-A996-0A4744C7F2E5}"/>
+    <hyperlink ref="I27" r:id="rId94" xr:uid="{64024B8D-276C-4573-A93E-C996E5910768}"/>
+    <hyperlink ref="I79" r:id="rId95" xr:uid="{14DDA89B-F6CC-41AC-8D73-98E3D8BD4583}"/>
+    <hyperlink ref="I98" r:id="rId96" xr:uid="{BA8829CC-9C51-40BA-B360-070FE235D58D}"/>
+    <hyperlink ref="I91" r:id="rId97" xr:uid="{AA2D512B-D0D1-4773-A9D4-C7B49CA59E7F}"/>
+    <hyperlink ref="I85" r:id="rId98" xr:uid="{13DD8D08-E1E5-4350-BD36-4D94FF7E036D}"/>
+    <hyperlink ref="I97" r:id="rId99" xr:uid="{0D34D343-EEB2-4AF2-9564-E93F6AC69CF6}"/>
+    <hyperlink ref="I29" r:id="rId100" xr:uid="{09686EA7-614D-4CDE-9CBB-80B4EB7A26D6}"/>
+    <hyperlink ref="I28" r:id="rId101" xr:uid="{975B2F34-94C8-4546-B9A8-2C21EE0884C2}"/>
+    <hyperlink ref="K72" r:id="rId102" xr:uid="{0F0D5987-4C2E-4734-964F-C3D455F9BA51}"/>
+    <hyperlink ref="K3" r:id="rId103" xr:uid="{EE099882-D900-4A06-A1E6-FC22120382CF}"/>
+    <hyperlink ref="K83" r:id="rId104" xr:uid="{C93F7616-DFC2-4507-A336-EF00F4D76D16}"/>
+    <hyperlink ref="K57" r:id="rId105" xr:uid="{804FD0FD-5CBC-412B-960D-9DB3BF754059}"/>
+    <hyperlink ref="K18" r:id="rId106" xr:uid="{A77992F5-6D42-47B4-B03A-76325692B177}"/>
+    <hyperlink ref="K49" r:id="rId107" xr:uid="{7750AC04-B542-4CC5-8727-100F9D04580C}"/>
+    <hyperlink ref="K92" r:id="rId108" xr:uid="{1746B136-638A-40FE-9199-BC84149F4B43}"/>
+    <hyperlink ref="K106" r:id="rId109" xr:uid="{7A5921BB-02EE-4E14-BF32-D9E0D6F22047}"/>
+    <hyperlink ref="K68" r:id="rId110" xr:uid="{6496000B-FA6F-4802-804E-02C2D0FA390B}"/>
+    <hyperlink ref="K91" r:id="rId111" xr:uid="{397ACCB1-DD39-41BD-9E71-3BEB01F5CEBC}"/>
+    <hyperlink ref="K95" r:id="rId112" xr:uid="{2273773B-FD6E-47DA-8A17-887BC876EAAB}"/>
+    <hyperlink ref="K50" r:id="rId113" xr:uid="{E5C5B4B2-DFE9-4DC8-A9BB-12A67E379921}"/>
+    <hyperlink ref="K19" r:id="rId114" xr:uid="{0BEBF7A0-F67E-4912-9D0F-9F670B5A5BBA}"/>
+    <hyperlink ref="K71" r:id="rId115" xr:uid="{7F33585E-0265-45CF-BD22-FD4212DF7E4E}"/>
+    <hyperlink ref="K23" r:id="rId116" xr:uid="{3C4827CA-7C56-4FEF-AB4C-C8FC02A4FED8}"/>
+    <hyperlink ref="K78" r:id="rId117" xr:uid="{C34A7402-A0B1-485C-BDCA-CB39CA5FD434}"/>
+    <hyperlink ref="K86" r:id="rId118" xr:uid="{74640D86-8E19-4328-A15B-BA55061B8682}"/>
+    <hyperlink ref="K36" r:id="rId119" xr:uid="{EC51FFC2-5E4D-4CEC-A7F6-4F6030BC779E}"/>
+    <hyperlink ref="K14" r:id="rId120" xr:uid="{52FE5DAD-801B-41C8-B53E-183CA41E1C5B}"/>
+    <hyperlink ref="K80" r:id="rId121" xr:uid="{81F59018-1E18-4196-900D-314DA6EFEC6F}"/>
+    <hyperlink ref="K17" r:id="rId122" xr:uid="{61F02C3E-4E76-4099-BD35-17D0BA1AD257}"/>
+    <hyperlink ref="K35" r:id="rId123" xr:uid="{756460BB-71D0-4481-A203-6B8A7914E7EA}"/>
+    <hyperlink ref="K29" r:id="rId124" xr:uid="{19643B1A-5DF7-48A2-B209-74196CAE9C18}"/>
+    <hyperlink ref="K67" r:id="rId125" xr:uid="{AE42DB9B-7357-48A4-BF1A-EF8C57BA9D91}"/>
+    <hyperlink ref="K9" r:id="rId126" xr:uid="{5FC8930E-FF8C-481F-B888-5BBDB82A77BF}"/>
+    <hyperlink ref="K114" r:id="rId127" xr:uid="{EEBFC43C-2BEC-4D21-84ED-6E40FEBC09A3}"/>
+    <hyperlink ref="K4" r:id="rId128" xr:uid="{DA75D164-436C-487F-BF87-AEEAECE6BCFD}"/>
+    <hyperlink ref="K12" r:id="rId129" xr:uid="{5965647B-9CDB-449D-B65F-74718ACA198E}"/>
+    <hyperlink ref="K101" r:id="rId130" xr:uid="{B9B4616E-DFBF-4D2C-A61F-75BB885A7F5F}"/>
+    <hyperlink ref="K38" r:id="rId131" xr:uid="{EB486796-D78B-4536-B4B7-8587A937AA32}"/>
+    <hyperlink ref="K21" r:id="rId132" xr:uid="{E83B2938-E629-444E-85E2-03B9052B8531}"/>
+    <hyperlink ref="K28" r:id="rId133" xr:uid="{30EAFB7B-526A-45B0-8079-DA4D43028ECE}"/>
+    <hyperlink ref="K97" r:id="rId134" xr:uid="{762DB4DC-E8A5-40A9-98ED-72E617CD4BBF}"/>
+    <hyperlink ref="K6" r:id="rId135" xr:uid="{5B1F9DA4-3702-4F75-A92B-73A78460C569}"/>
+    <hyperlink ref="K70" r:id="rId136" xr:uid="{D72C2A5D-77AB-4244-86A6-19EDA0FCC245}"/>
+    <hyperlink ref="K22" r:id="rId137" xr:uid="{00CFC86D-AAF8-4276-BB57-8D64F5221836}"/>
+    <hyperlink ref="K42" r:id="rId138" xr:uid="{D6C1DBAD-42FD-4F14-B00B-9AF3DABF054E}"/>
+    <hyperlink ref="K102" r:id="rId139" xr:uid="{EB8701D8-EB08-46B7-A5AE-E1B481D9A95E}"/>
+    <hyperlink ref="K24" r:id="rId140" xr:uid="{F374D0B5-9989-4604-A197-D4DABF6768B3}"/>
+    <hyperlink ref="K26" r:id="rId141" xr:uid="{FBC06C49-BD56-4E6F-BC48-52437AA921D8}"/>
+    <hyperlink ref="K90" r:id="rId142" xr:uid="{59090E5A-B368-4D26-97CD-28315FE1649B}"/>
+    <hyperlink ref="K98" r:id="rId143" xr:uid="{7D6815D1-B2E7-4884-A5B3-5FB6B6DECAA7}"/>
+    <hyperlink ref="K53" r:id="rId144" xr:uid="{BD1DBA29-0A38-405C-869D-919FBAF3CABE}"/>
+    <hyperlink ref="K81" r:id="rId145" xr:uid="{700F918C-6D7F-4F86-8E52-FA3448385277}"/>
+    <hyperlink ref="K111" r:id="rId146" xr:uid="{410D5303-E084-40A0-B4E5-C6B661D0E341}"/>
+    <hyperlink ref="K27" r:id="rId147" xr:uid="{2CD0EB44-11CD-489A-BC64-4707488F0627}"/>
+    <hyperlink ref="K54" r:id="rId148" xr:uid="{D752C18E-C1F9-4582-A01C-DBACC95FFF01}"/>
+    <hyperlink ref="K41" r:id="rId149" xr:uid="{6CE4B488-3FA1-4875-8AED-709FB6AAF413}"/>
+    <hyperlink ref="K112" r:id="rId150" xr:uid="{F388E6B2-74C0-496D-B947-313715436D43}"/>
+    <hyperlink ref="K62" r:id="rId151" xr:uid="{E14A0A29-512D-4C0A-AC59-3BA97406A5DF}"/>
+    <hyperlink ref="K48" r:id="rId152" xr:uid="{AA04A97A-5602-4DAB-BBF9-56AE078D6A6B}"/>
+    <hyperlink ref="K10" r:id="rId153" xr:uid="{4AD4C08F-0D89-4913-BFAE-909540124E98}"/>
+    <hyperlink ref="K51" r:id="rId154" xr:uid="{8CBA9C11-2842-40AC-A19F-EC56ED2AE73C}"/>
+    <hyperlink ref="K61" r:id="rId155" xr:uid="{A67F1829-7168-4F31-938F-0E402BEC764F}"/>
+    <hyperlink ref="K65" r:id="rId156" xr:uid="{02CD5577-DF14-4A58-90DB-C32D984E00A4}"/>
+    <hyperlink ref="K34" r:id="rId157" xr:uid="{AEC62A60-9D6E-4195-B6C7-07B573AAB9AB}"/>
+    <hyperlink ref="K75" r:id="rId158" xr:uid="{57836204-C10E-47A9-ABD0-964615A39799}"/>
+    <hyperlink ref="K5" r:id="rId159" xr:uid="{CB20B70D-D184-4F42-87C8-7C24CB09FB80}"/>
+    <hyperlink ref="K20" r:id="rId160" xr:uid="{9B31FA0F-97F1-4009-A17B-D1970E44A23B}"/>
+    <hyperlink ref="K43" r:id="rId161" xr:uid="{558AF694-694C-4456-B042-7F256CC5F4A3}"/>
+    <hyperlink ref="K109" r:id="rId162" xr:uid="{90F8EACB-B5DE-41C2-8E4F-2831020A53F8}"/>
+    <hyperlink ref="K46" r:id="rId163" xr:uid="{744AF7C5-7154-4EAC-AE5E-5D1A09D2B714}"/>
+    <hyperlink ref="K64" r:id="rId164" xr:uid="{9DD5D021-E7AA-4BF2-8C63-6FEBE80C4F47}"/>
+    <hyperlink ref="K96" r:id="rId165" xr:uid="{A75B397D-50A0-494D-A283-5A1847A6D821}"/>
+    <hyperlink ref="K84" r:id="rId166" xr:uid="{B9C87EAF-1E42-4F43-B5D8-CA7E0C13B35B}"/>
+    <hyperlink ref="K40" r:id="rId167" location="other_information_panel" xr:uid="{779901CB-38DA-4AE9-A7AE-E67C3526F5AB}"/>
+    <hyperlink ref="K110" r:id="rId168" xr:uid="{EA26E735-CEDB-4D25-886E-95EE4ABB89D5}"/>
+    <hyperlink ref="K59" r:id="rId169" xr:uid="{C16B82EF-1627-494A-8B7A-D86440B475C1}"/>
+    <hyperlink ref="K99" r:id="rId170" xr:uid="{02986C07-103B-4E72-B4C5-38246A96A10B}"/>
+    <hyperlink ref="K13" r:id="rId171" xr:uid="{1C519843-410A-4DAC-8E43-DABB8138655A}"/>
+    <hyperlink ref="K45" r:id="rId172" xr:uid="{04A6890C-9C31-4DDF-AE3B-BE882ED14E67}"/>
+    <hyperlink ref="K105" r:id="rId173" xr:uid="{483EB898-A68D-4102-AD07-CC203273797A}"/>
+    <hyperlink ref="K94" r:id="rId174" xr:uid="{F97397E0-B82C-4102-B22C-0515B36A9EE0}"/>
+    <hyperlink ref="K15" r:id="rId175" xr:uid="{D93D3FD6-870F-474D-82E7-AC8A24413220}"/>
+    <hyperlink ref="K56" r:id="rId176" xr:uid="{F94C1AD7-8029-44C2-971E-BFCFA48BC144}"/>
+    <hyperlink ref="K104" r:id="rId177" xr:uid="{E85CD11C-8D3D-4798-920E-3ED4A39DE89C}"/>
+    <hyperlink ref="K44" r:id="rId178" xr:uid="{F98688E1-BA82-48B2-8406-301BC86F87AD}"/>
+    <hyperlink ref="K89" r:id="rId179" xr:uid="{6AD026CA-B52B-4FE9-846B-E8B3CADC50B1}"/>
+    <hyperlink ref="K74" r:id="rId180" xr:uid="{FF8A5C27-5FF2-41C3-AC24-EAC6B38062DC}"/>
+    <hyperlink ref="K87" r:id="rId181" xr:uid="{9E42EB8D-EBD2-4A34-B4BB-363354FC459D}"/>
+    <hyperlink ref="K63" r:id="rId182" xr:uid="{A947B764-4081-4F58-9A72-EE36B2F6B1A8}"/>
+    <hyperlink ref="K37" r:id="rId183" xr:uid="{D7E25286-F64E-48F0-87E7-AD5249062C23}"/>
+    <hyperlink ref="K66" r:id="rId184" xr:uid="{2682634A-D393-40EB-BB9A-7494E4D35B57}"/>
+    <hyperlink ref="K107" r:id="rId185" xr:uid="{D6389A52-CBF7-46E3-A0FF-C937E2085D03}"/>
+    <hyperlink ref="K58" r:id="rId186" xr:uid="{922214CE-3494-48CB-9F57-2094D032ED23}"/>
+    <hyperlink ref="K69" r:id="rId187" xr:uid="{A9BC71CB-6498-4BD8-87A3-E7773119EC6D}"/>
+    <hyperlink ref="K73" r:id="rId188" xr:uid="{ECCF3B3D-8869-4E78-8AF8-A759F9B89FCF}"/>
+    <hyperlink ref="K2" r:id="rId189" xr:uid="{ED423ECC-A508-491A-936B-2E5B1E6F68F6}"/>
+    <hyperlink ref="K11" r:id="rId190" xr:uid="{101F867B-4835-4B9B-B9A2-8A30BF5E39BA}"/>
+    <hyperlink ref="K93" r:id="rId191" xr:uid="{518B5621-8224-4929-935E-6E61B0D233B9}"/>
+    <hyperlink ref="K116" r:id="rId192" xr:uid="{0AB090DA-4676-4891-99C4-858677B7F30B}"/>
+    <hyperlink ref="K79" r:id="rId193" xr:uid="{D22DB7E4-105B-47A6-B318-5FCC6EE2D6D0}"/>
+    <hyperlink ref="K33" r:id="rId194" xr:uid="{1F160EFB-4611-4304-BA0C-5C038C4927F1}"/>
+    <hyperlink ref="K100" r:id="rId195" xr:uid="{CD7AD12A-6103-47A5-B209-2D6D523B2FE0}"/>
+    <hyperlink ref="K88" r:id="rId196" xr:uid="{7F5FFBCF-5DCE-48F4-B908-A33AD421D876}"/>
+    <hyperlink ref="K85" r:id="rId197" xr:uid="{C3BDAF64-F083-4E30-8920-E61D453C0059}"/>
+    <hyperlink ref="K108" r:id="rId198" xr:uid="{258E8198-2B54-471C-89B3-E31545A6746D}"/>
+    <hyperlink ref="K60" r:id="rId199" xr:uid="{B61EB6CD-166C-428C-8388-3CC03DBF164D}"/>
+    <hyperlink ref="K55" r:id="rId200" xr:uid="{028F1EAD-4081-4BB3-87E0-5BC784D40372}"/>
+    <hyperlink ref="K115" r:id="rId201" xr:uid="{65A8626F-5E28-40CC-A814-D5542099879E}"/>
+    <hyperlink ref="K7" r:id="rId202" xr:uid="{DEA87D27-8F89-4183-8C6D-7441AC3F88A6}"/>
+    <hyperlink ref="K31" r:id="rId203" xr:uid="{6E9716B0-C281-4344-AD25-D219F69D604B}"/>
+    <hyperlink ref="K76" r:id="rId204" xr:uid="{2B65B8B8-7878-4F90-B2AA-A349185889BE}"/>
+    <hyperlink ref="K82" r:id="rId205" xr:uid="{B546B3CA-9FEA-44AA-9E9A-BC12B606BD6A}"/>
     <hyperlink ref="K32" display="https://www.bing.com/ck/a?!&amp;&amp;p=b0a72c5db1999799JmltdHM9MTcyOTQ2ODgwMCZpZ3VpZD0wMDExMmIyNS1kMzQ5LTY3MTItMmE4My0zZTA1ZDI1NjY2MWEmaW5zaWQ9NTE5OA&amp;ptn=3&amp;ver=2&amp;hsh=3&amp;fclid=00112b25-d349-6712-2a83-3e05d256661a&amp;psq=vidwan+profile+gajanan+patange&amp;u=a1aHR0cHM6Ly92a" xr:uid="{BED4151B-2757-468A-87B9-C591A5724DBA}"/>
+    <hyperlink ref="E3" r:id="rId206" display="https://placehold.co/400x600" xr:uid="{B0FAAFEF-605D-4098-8F11-6FC6A0E9E0D6}"/>
+    <hyperlink ref="E4" r:id="rId207" display="https://placehold.co/400x600" xr:uid="{AB4A22E1-9601-4D07-8888-34F1D29BD46A}"/>
+    <hyperlink ref="E6" r:id="rId208" display="https://placehold.co/400x600" xr:uid="{D5047CB0-F6D4-4475-9DBF-0B83B4DAEAB4}"/>
+    <hyperlink ref="E8" r:id="rId209" display="https://placehold.co/400x600" xr:uid="{341347BE-FDF4-47C3-A9AA-7BF0532F61DB}"/>
+    <hyperlink ref="E10" r:id="rId210" display="https://placehold.co/400x600" xr:uid="{CE30ABE6-4735-49AC-9E38-986CD096C5BF}"/>
+    <hyperlink ref="E12" r:id="rId211" display="https://placehold.co/400x600" xr:uid="{17D5C088-BD3A-4E75-8035-22B027942A64}"/>
+    <hyperlink ref="E14" r:id="rId212" display="https://placehold.co/400x600" xr:uid="{6815D31E-1624-40E4-AD43-8FB5276A3E13}"/>
+    <hyperlink ref="E16" r:id="rId213" display="https://placehold.co/400x600" xr:uid="{E4649D49-9071-4A49-9859-62D1EA6127A5}"/>
+    <hyperlink ref="E18" r:id="rId214" display="https://placehold.co/400x600" xr:uid="{D37B5237-F7AD-4C72-A4B8-18846345A20A}"/>
+    <hyperlink ref="E20" r:id="rId215" display="https://placehold.co/400x600" xr:uid="{455E2F96-6FCE-4ED2-9C3B-2E6E7249AE44}"/>
+    <hyperlink ref="E22" r:id="rId216" display="https://placehold.co/400x600" xr:uid="{77807312-4DCC-424A-9227-0205668D168B}"/>
+    <hyperlink ref="E24" r:id="rId217" display="https://placehold.co/400x600" xr:uid="{8AAD6443-2520-4082-8EC0-C46B0A509927}"/>
+    <hyperlink ref="E26" r:id="rId218" display="https://placehold.co/400x600" xr:uid="{5B8C9469-79CD-4130-A71A-FB9845883315}"/>
+    <hyperlink ref="E28" r:id="rId219" display="https://placehold.co/400x600" xr:uid="{C6FD206E-083A-424A-BEB2-E5FA5EA1028A}"/>
+    <hyperlink ref="E30" r:id="rId220" display="https://placehold.co/400x600" xr:uid="{3C06105A-95B0-486E-B562-804FA49B279E}"/>
+    <hyperlink ref="E32" r:id="rId221" display="https://placehold.co/400x600" xr:uid="{445C6875-08FB-4A0D-945E-88ACC5B3E36F}"/>
+    <hyperlink ref="E34" r:id="rId222" display="https://placehold.co/400x600" xr:uid="{65D66EC6-EE19-4700-A25B-1483B78EB1EF}"/>
+    <hyperlink ref="E36" r:id="rId223" display="https://placehold.co/400x600" xr:uid="{2E844F72-E0A3-4D15-89E8-4C62C40B0097}"/>
+    <hyperlink ref="E38" r:id="rId224" display="https://placehold.co/400x600" xr:uid="{15AC029B-EF8F-4E8F-BB97-C5EC917FD18C}"/>
+    <hyperlink ref="E40" r:id="rId225" display="https://placehold.co/400x600" xr:uid="{5FE82AD6-8780-451F-B565-3C9E2036135F}"/>
+    <hyperlink ref="E42" r:id="rId226" display="https://placehold.co/400x600" xr:uid="{F7983BF9-576C-4FA2-B35A-DFA749ACF1B5}"/>
+    <hyperlink ref="E44" r:id="rId227" display="https://placehold.co/400x600" xr:uid="{DF66767C-72DE-4D71-B54F-89D37A2B3207}"/>
+    <hyperlink ref="E46" r:id="rId228" display="https://placehold.co/400x600" xr:uid="{E6907F0E-8A63-42E5-881D-83BE98378391}"/>
+    <hyperlink ref="E48" r:id="rId229" display="https://placehold.co/400x600" xr:uid="{BF819DDD-F33C-4323-B234-FA5AEFEBF540}"/>
+    <hyperlink ref="E50" r:id="rId230" display="https://placehold.co/400x600" xr:uid="{B4631102-EF86-443A-975E-E151B867331C}"/>
+    <hyperlink ref="E52" r:id="rId231" display="https://placehold.co/400x600" xr:uid="{D0C8995E-2389-436D-96F9-0ECFED635D2D}"/>
+    <hyperlink ref="E54" r:id="rId232" display="https://placehold.co/400x600" xr:uid="{41208DE8-410A-4988-814F-34D6808B3973}"/>
+    <hyperlink ref="E56" r:id="rId233" display="https://placehold.co/400x600" xr:uid="{D60F983F-3A4A-4B45-A5A9-1CBD13CCBAB1}"/>
+    <hyperlink ref="E58" r:id="rId234" display="https://placehold.co/400x600" xr:uid="{DDB2A0FD-936A-490E-BE1E-1762A651B20C}"/>
+    <hyperlink ref="E60" r:id="rId235" display="https://placehold.co/400x600" xr:uid="{DC2E2CDF-295E-4080-9F0C-4EBEAF3FB8EA}"/>
+    <hyperlink ref="E62" r:id="rId236" display="https://placehold.co/400x600" xr:uid="{5E732335-693B-490D-844A-64351A2B11C7}"/>
+    <hyperlink ref="E64" r:id="rId237" display="https://placehold.co/400x600" xr:uid="{B032BBB6-4D16-4E33-A3F0-D7039E10D767}"/>
+    <hyperlink ref="E66" r:id="rId238" display="https://placehold.co/400x600" xr:uid="{C71F9231-ACA2-46E1-BE2F-462475789CDA}"/>
+    <hyperlink ref="E68" r:id="rId239" display="https://placehold.co/400x600" xr:uid="{6DAF2527-3F52-4351-90EE-F788A7836287}"/>
+    <hyperlink ref="E70" r:id="rId240" display="https://placehold.co/400x600" xr:uid="{C213B07F-FB90-4578-BA40-CB5277C5E9F8}"/>
+    <hyperlink ref="E72" r:id="rId241" display="https://placehold.co/400x600" xr:uid="{B6B3C0BC-449F-4D5F-8991-2960BC1E1B95}"/>
+    <hyperlink ref="E74" r:id="rId242" display="https://placehold.co/400x600" xr:uid="{12F3E568-1027-43BC-89EA-C5D4D2C3F3B1}"/>
+    <hyperlink ref="E76" r:id="rId243" display="https://placehold.co/400x600" xr:uid="{9BCFDA15-C8D8-41F6-B5C1-8DB9E3F54F38}"/>
+    <hyperlink ref="E78" r:id="rId244" display="https://placehold.co/400x600" xr:uid="{5074351A-0735-4679-AE99-F1F491EAD66F}"/>
+    <hyperlink ref="E80" r:id="rId245" display="https://placehold.co/400x600" xr:uid="{797A27FB-9286-43BA-A3D3-06E0B7DF57C7}"/>
+    <hyperlink ref="E82" r:id="rId246" display="https://placehold.co/400x600" xr:uid="{E22D4C78-609C-4F6C-902E-67DDEA2AEC08}"/>
+    <hyperlink ref="E84" r:id="rId247" display="https://placehold.co/400x600" xr:uid="{689543FA-D772-478F-B75B-353A8D5F5A0F}"/>
+    <hyperlink ref="E86" r:id="rId248" display="https://placehold.co/400x600" xr:uid="{6F1B4F40-1347-45F9-B0B9-89687F77E0B0}"/>
+    <hyperlink ref="E88" r:id="rId249" display="https://placehold.co/400x600" xr:uid="{269A95A2-A318-4245-8364-07E925D041A6}"/>
+    <hyperlink ref="E90" r:id="rId250" display="https://placehold.co/400x600" xr:uid="{BC5C79FD-42B9-4F63-B259-53ADA917C149}"/>
+    <hyperlink ref="E92" r:id="rId251" display="https://placehold.co/400x600" xr:uid="{F219C840-96AC-40EA-9D7B-C09CBA360D2A}"/>
+    <hyperlink ref="E94" r:id="rId252" display="https://placehold.co/400x600" xr:uid="{E85B62E0-66A6-4BDE-AB82-B3F3885FF25D}"/>
+    <hyperlink ref="E96" r:id="rId253" display="https://placehold.co/400x600" xr:uid="{F685C903-F46A-4AEA-A4B6-30F5F5C38E02}"/>
+    <hyperlink ref="E98" r:id="rId254" display="https://placehold.co/400x600" xr:uid="{34A32507-5178-4AE2-8923-C76F8834EAC3}"/>
+    <hyperlink ref="E100" r:id="rId255" display="https://placehold.co/400x600" xr:uid="{316F114E-DC59-4C12-AAE4-7C561A6A4A37}"/>
+    <hyperlink ref="E102" r:id="rId256" display="https://placehold.co/400x600" xr:uid="{E6C4E1E9-ADFC-463C-BA35-72BF5470C0FC}"/>
+    <hyperlink ref="E104" r:id="rId257" display="https://placehold.co/400x600" xr:uid="{5C2E1F62-17AE-4C61-86CF-CFAADD48E3DA}"/>
+    <hyperlink ref="E106" r:id="rId258" display="https://placehold.co/400x600" xr:uid="{EB2D28AA-5611-4D14-B6D8-65655568052B}"/>
+    <hyperlink ref="E108" r:id="rId259" display="https://placehold.co/400x600" xr:uid="{1A1FF6C3-6CA4-4205-87F4-FFA4C505FE05}"/>
+    <hyperlink ref="E110" r:id="rId260" display="https://placehold.co/400x600" xr:uid="{D5F8DE7D-9A2E-4EB2-AD3E-1B6347BBB03A}"/>
+    <hyperlink ref="E112" r:id="rId261" display="https://placehold.co/400x600" xr:uid="{72604405-579A-4D04-AD70-2F433C2E73DD}"/>
+    <hyperlink ref="E114" r:id="rId262" display="https://placehold.co/400x600" xr:uid="{F52A7ADE-923C-4FC0-835C-C78BE5475FD1}"/>
+    <hyperlink ref="E116" r:id="rId263" display="https://placehold.co/400x600" xr:uid="{88BB9B9A-193B-430A-8A94-9996D9F8B858}"/>
+    <hyperlink ref="E5" r:id="rId264" display="https://placehold.co/400x600" xr:uid="{673B2D9E-5CEE-40DD-A0A2-66025584E8C2}"/>
+    <hyperlink ref="E7" r:id="rId265" display="https://placehold.co/400x600" xr:uid="{20202916-CECB-497F-BB8D-D7E09DCEC193}"/>
+    <hyperlink ref="E9" r:id="rId266" display="https://placehold.co/400x600" xr:uid="{E7773CE7-BD5F-4624-B940-0E795B4A4E30}"/>
+    <hyperlink ref="E11" r:id="rId267" display="https://placehold.co/400x600" xr:uid="{93DA058C-7CEC-4BA2-9D33-5FB8B5E88910}"/>
+    <hyperlink ref="E13" r:id="rId268" display="https://placehold.co/400x600" xr:uid="{8F788626-64E7-4F1D-A12D-F2E9D916467C}"/>
+    <hyperlink ref="E15" r:id="rId269" display="https://placehold.co/400x600" xr:uid="{8AD2972F-0CB2-4DCE-8821-C56F9057AD5B}"/>
+    <hyperlink ref="E17" r:id="rId270" display="https://placehold.co/400x600" xr:uid="{6BB1EE3F-7C68-4024-B0F7-6091F2E03670}"/>
+    <hyperlink ref="E19" r:id="rId271" display="https://placehold.co/400x600" xr:uid="{D4698768-8DC5-407A-B6F4-C1C875BFB78D}"/>
+    <hyperlink ref="E21" r:id="rId272" display="https://placehold.co/400x600" xr:uid="{13DD67BA-1FCB-43E0-A39C-FFE32E5D3954}"/>
+    <hyperlink ref="E23" r:id="rId273" display="https://placehold.co/400x600" xr:uid="{90D0F56C-C7DB-4632-B91C-EF74541F5FEA}"/>
+    <hyperlink ref="E25" r:id="rId274" display="https://placehold.co/400x600" xr:uid="{F6A0C9FE-D2B9-4181-8F81-93868F3E313C}"/>
+    <hyperlink ref="E27" r:id="rId275" display="https://placehold.co/400x600" xr:uid="{848B184F-1DE9-469A-9D63-F5CDEBF10D7A}"/>
+    <hyperlink ref="E29" r:id="rId276" display="https://placehold.co/400x600" xr:uid="{1AF17D20-76D5-4714-B7E2-2D8B8CB9ADC3}"/>
+    <hyperlink ref="E31" r:id="rId277" display="https://placehold.co/400x600" xr:uid="{22DD1D25-8288-4AC9-A5FC-D9B7B89B515C}"/>
+    <hyperlink ref="E33" r:id="rId278" display="https://placehold.co/400x600" xr:uid="{01F92761-8D63-4A2C-8713-25D41165DB40}"/>
+    <hyperlink ref="E35" r:id="rId279" display="https://placehold.co/400x600" xr:uid="{FFD57A2F-B179-4903-B296-F8069D1F1332}"/>
+    <hyperlink ref="E37" r:id="rId280" display="https://placehold.co/400x600" xr:uid="{291A37C6-A686-4CDE-9352-CAE725E23B11}"/>
+    <hyperlink ref="E39" r:id="rId281" display="https://placehold.co/400x600" xr:uid="{6ECECF25-2624-4D12-A089-9B4C4DBCF38B}"/>
+    <hyperlink ref="E41" r:id="rId282" display="https://placehold.co/400x600" xr:uid="{B8267D85-A691-4187-91DB-27E364616A8C}"/>
+    <hyperlink ref="E43" r:id="rId283" display="https://placehold.co/400x600" xr:uid="{AA69E1F0-E88A-495C-A844-C33C82F6CE26}"/>
+    <hyperlink ref="E45" r:id="rId284" display="https://placehold.co/400x600" xr:uid="{269F03E1-526C-4849-A6D5-8276665E4485}"/>
+    <hyperlink ref="E47" r:id="rId285" display="https://placehold.co/400x600" xr:uid="{D722AC52-912D-4A3F-8560-FAA4DCA60A56}"/>
+    <hyperlink ref="E49" r:id="rId286" display="https://placehold.co/400x600" xr:uid="{6ED9D463-8E32-4780-942A-C1EC9D07542B}"/>
+    <hyperlink ref="E51" r:id="rId287" display="https://placehold.co/400x600" xr:uid="{FAAE2569-D069-46B3-A7AA-6969338A4AFF}"/>
+    <hyperlink ref="E53" r:id="rId288" display="https://placehold.co/400x600" xr:uid="{919767C3-0A6A-4A63-9549-0F7B3A7EE7DF}"/>
+    <hyperlink ref="E55" r:id="rId289" display="https://placehold.co/400x600" xr:uid="{BD76B93C-ACC1-4CF1-A623-39E4FAFED853}"/>
+    <hyperlink ref="E57" r:id="rId290" display="https://placehold.co/400x600" xr:uid="{7964589D-7453-4997-AC7B-F98F5B5B7029}"/>
+    <hyperlink ref="E59" r:id="rId291" display="https://placehold.co/400x600" xr:uid="{F72D2D0A-AD07-45DC-AA3D-223C36C995AB}"/>
+    <hyperlink ref="E61" r:id="rId292" display="https://placehold.co/400x600" xr:uid="{D79CAE5D-C5B6-4B75-8261-008B5374EBDB}"/>
+    <hyperlink ref="E63" r:id="rId293" display="https://placehold.co/400x600" xr:uid="{75C81E45-FAA6-4175-A2FE-BA7C7F71F6F3}"/>
+    <hyperlink ref="E65" r:id="rId294" display="https://placehold.co/400x600" xr:uid="{2A43A7D2-0D9B-42A8-8E87-E447ECDB9951}"/>
+    <hyperlink ref="E67" r:id="rId295" display="https://placehold.co/400x600" xr:uid="{F199289C-0CB7-41CD-95E9-D9C97B86A7E7}"/>
+    <hyperlink ref="E69" r:id="rId296" display="https://placehold.co/400x600" xr:uid="{E4715AC6-7D6D-4434-A585-79B8F25233F6}"/>
+    <hyperlink ref="E71" r:id="rId297" display="https://placehold.co/400x600" xr:uid="{CFD1BDC4-A848-4998-9430-C29DB079EED4}"/>
+    <hyperlink ref="E73" r:id="rId298" display="https://placehold.co/400x600" xr:uid="{DEC62E70-AB7A-4365-B90A-11A1D549F375}"/>
+    <hyperlink ref="E75" r:id="rId299" display="https://placehold.co/400x600" xr:uid="{A925F566-676A-47EA-9068-3A8AC9C78A71}"/>
+    <hyperlink ref="E77" r:id="rId300" display="https://placehold.co/400x600" xr:uid="{826BB4FF-EF4E-4C68-AE45-B4C9CEE10FB5}"/>
+    <hyperlink ref="E79" r:id="rId301" display="https://placehold.co/400x600" xr:uid="{D55B186E-0A96-4185-9D34-01F9C47E843E}"/>
+    <hyperlink ref="E81" r:id="rId302" display="https://placehold.co/400x600" xr:uid="{AC60663B-FB99-47D2-A9DA-11C43648559B}"/>
+    <hyperlink ref="E83" r:id="rId303" display="https://placehold.co/400x600" xr:uid="{F83899A5-222C-48AC-9ABC-BC254C3600A8}"/>
+    <hyperlink ref="E85" r:id="rId304" display="https://placehold.co/400x600" xr:uid="{2EE015AD-95D3-42D3-9727-0C2D20C22B2D}"/>
+    <hyperlink ref="E87" r:id="rId305" display="https://placehold.co/400x600" xr:uid="{1E9351A5-5685-4A61-91E2-9C72A14FBA45}"/>
+    <hyperlink ref="E89" r:id="rId306" display="https://placehold.co/400x600" xr:uid="{DA14C2E4-99E6-4273-B1C6-88E4314A2B53}"/>
+    <hyperlink ref="E91" r:id="rId307" display="https://placehold.co/400x600" xr:uid="{CED33FAF-E705-4A0E-B5BA-28AC459A08F9}"/>
+    <hyperlink ref="E93" r:id="rId308" display="https://placehold.co/400x600" xr:uid="{69683834-3F44-4B9E-879F-17C7B3985064}"/>
+    <hyperlink ref="E95" r:id="rId309" display="https://placehold.co/400x600" xr:uid="{6706B29D-6B9E-414D-A766-C429245D96A7}"/>
+    <hyperlink ref="E97" r:id="rId310" display="https://placehold.co/400x600" xr:uid="{B8549196-6B30-41D5-B870-CDF1F6C0AE2B}"/>
+    <hyperlink ref="E99" r:id="rId311" display="https://placehold.co/400x600" xr:uid="{70722206-091E-437D-B026-345C8CDB5176}"/>
+    <hyperlink ref="E101" r:id="rId312" display="https://placehold.co/400x600" xr:uid="{EF057E02-0A38-4475-84BA-2BC1ED64BA7D}"/>
+    <hyperlink ref="E103" r:id="rId313" display="https://placehold.co/400x600" xr:uid="{F307B800-2CAD-4E08-A635-F4AD9976A897}"/>
+    <hyperlink ref="E105" r:id="rId314" display="https://placehold.co/400x600" xr:uid="{42F0B609-7315-4192-A377-FDEDE5FDDF8B}"/>
+    <hyperlink ref="E107" r:id="rId315" display="https://placehold.co/400x600" xr:uid="{0BBF4990-1413-476C-AFE7-EC34A9F113B0}"/>
+    <hyperlink ref="E109" r:id="rId316" display="https://placehold.co/400x600" xr:uid="{43D0B648-1D21-45A3-A6E9-CB546100DAA2}"/>
+    <hyperlink ref="E111" r:id="rId317" display="https://placehold.co/400x600" xr:uid="{3BF79D70-269C-4AB5-B83F-712DABFF4480}"/>
+    <hyperlink ref="E113" r:id="rId318" display="https://placehold.co/400x600" xr:uid="{622A2536-A959-42B4-B4F9-EE23F2A44517}"/>
+    <hyperlink ref="E115" r:id="rId319" display="https://placehold.co/400x600" xr:uid="{7690046C-47D4-4A7B-8DBE-6704DCCAE9C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4518248c6cd0c0d5/Desktop/CSPIT_NEW_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{248929BC-7291-4CA9-AAA2-270484AC0911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2724729-D828-4E65-ACCA-4FFA2B8D7350}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{248929BC-7291-4CA9-AAA2-270484AC0911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{824CD104-2C42-49F2-84A9-CFBAE0AE906F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,9 +347,6 @@
     <t>https://www.linkedin.com/in/bhargavshobhana/</t>
   </si>
   <si>
-    <t>www.linkedin.com/in/anandpatel010883</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/feed/</t>
   </si>
   <si>
@@ -2189,30 +2186,6 @@
     <t>https://placehold.co/400x714</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/drNAaayushiNAchaudhariNA512b49101/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/abhishekNAswarnkarNA2018/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/abhishekNApatelNA6035986a/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/drNAakashNAvyasNA85497444/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/akshitaNAkadam/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/drNAamitNAthakkarNA66b52622/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/drNAamitNAkumarNA559921270</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/aneriNApandyaNA550687141/</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/arpitajshah/</t>
   </si>
   <si>
@@ -3226,6 +3199,33 @@
   </si>
   <si>
     <t>Subjects</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/akshita-kadam/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-akash-vyas-85497444/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-aayushi-chaudhari-512b49101/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abhishek-swarnkar-2018/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/abhishek-patel-6035986a/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-amit-thakkar-66b52622/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/dr-amit-kumar-559921270/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/anandpatel010883/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/aneri-pandya-550687141/</t>
   </si>
 </sst>
 </file>
@@ -3727,8 +3727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="C68" workbookViewId="0">
+      <selection activeCell="J69" sqref="J69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3761,7 +3761,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>1008</v>
+        <v>999</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -3779,65 +3779,65 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>928</v>
+        <v>919</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>678</v>
+        <v>1002</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>816</v>
+        <v>807</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
@@ -3846,86 +3846,86 @@
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>679</v>
+        <v>1003</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>817</v>
+        <v>808</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>680</v>
+        <v>1004</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>818</v>
+        <v>809</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
@@ -3934,42 +3934,42 @@
         <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>681</v>
+        <v>1001</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>819</v>
+        <v>810</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
@@ -3978,174 +3978,174 @@
         <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>682</v>
+        <v>1000</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>820</v>
+        <v>811</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>683</v>
+        <v>1005</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>821</v>
+        <v>812</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>972</v>
+        <v>963</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>684</v>
+        <v>1006</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>822</v>
+        <v>813</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>104</v>
+        <v>1007</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>823</v>
+        <v>814</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>973</v>
+        <v>964</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
@@ -4154,86 +4154,86 @@
         <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>685</v>
+        <v>1008</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>824</v>
+        <v>815</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>936</v>
+        <v>927</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>825</v>
+        <v>816</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="198" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>5</v>
@@ -4242,42 +4242,42 @@
         <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>946</v>
+        <v>937</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>826</v>
+        <v>817</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>974</v>
+        <v>965</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>5</v>
@@ -4286,42 +4286,42 @@
         <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>808</v>
+        <v>799</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>827</v>
+        <v>818</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>975</v>
+        <v>966</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
@@ -4330,34 +4330,34 @@
         <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>947</v>
+        <v>938</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>828</v>
+        <v>819</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>976</v>
+        <v>967</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -4365,139 +4365,139 @@
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>937</v>
+        <v>928</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>948</v>
+        <v>939</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>103</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>830</v>
+        <v>821</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>977</v>
+        <v>968</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>5</v>
@@ -4506,42 +4506,42 @@
         <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>831</v>
+        <v>822</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>978</v>
+        <v>969</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>5</v>
@@ -4550,42 +4550,42 @@
         <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>832</v>
+        <v>823</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>979</v>
+        <v>970</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>5</v>
@@ -4594,42 +4594,42 @@
         <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>692</v>
+        <v>683</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>833</v>
+        <v>824</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
@@ -4638,42 +4638,42 @@
         <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>693</v>
+        <v>684</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>834</v>
+        <v>825</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
@@ -4682,42 +4682,42 @@
         <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>938</v>
+        <v>929</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>5</v>
@@ -4726,122 +4726,122 @@
         <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>836</v>
+        <v>827</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>980</v>
+        <v>971</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>837</v>
+        <v>828</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>838</v>
+        <v>829</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>981</v>
+        <v>972</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -4849,7 +4849,7 @@
         <v>13</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>5</v>
@@ -4858,86 +4858,86 @@
         <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>949</v>
+        <v>940</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>777</v>
+        <v>768</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>839</v>
+        <v>830</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>778</v>
+        <v>769</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>840</v>
+        <v>831</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>982</v>
+        <v>973</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
@@ -4946,174 +4946,174 @@
         <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>842</v>
+        <v>833</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>843</v>
+        <v>834</v>
       </c>
       <c r="M30" s="17">
         <v>583944</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="237.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>950</v>
+        <v>941</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>702</v>
+        <v>693</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>844</v>
+        <v>835</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="264" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>5</v>
@@ -5122,86 +5122,86 @@
         <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>703</v>
+        <v>694</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>925</v>
+        <v>916</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="198" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>704</v>
+        <v>695</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>846</v>
+        <v>837</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>926</v>
+        <v>917</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>984</v>
+        <v>975</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
@@ -5210,42 +5210,42 @@
         <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>951</v>
+        <v>942</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>705</v>
+        <v>696</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
@@ -5254,86 +5254,86 @@
         <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>929</v>
+        <v>920</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>707</v>
+        <v>698</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>985</v>
+        <v>976</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
@@ -5342,130 +5342,130 @@
         <v>98</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>708</v>
+        <v>699</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>850</v>
+        <v>841</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
@@ -5474,86 +5474,86 @@
         <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>952</v>
+        <v>943</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
@@ -5562,78 +5562,78 @@
         <v>52</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>713</v>
+        <v>704</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>854</v>
+        <v>845</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>714</v>
+        <v>705</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>855</v>
+        <v>846</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>986</v>
+        <v>977</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
@@ -5641,7 +5641,7 @@
         <v>15</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
@@ -5650,42 +5650,42 @@
         <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>715</v>
+        <v>706</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>856</v>
+        <v>847</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="N44" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>5</v>
@@ -5694,86 +5694,86 @@
         <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>716</v>
+        <v>707</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>779</v>
+        <v>770</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>857</v>
+        <v>848</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="N45" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="290.39999999999998" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>858</v>
+        <v>849</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>4</v>
@@ -5782,42 +5782,42 @@
         <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>717</v>
+        <v>708</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>859</v>
+        <v>850</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>5</v>
@@ -5826,42 +5826,42 @@
         <v>66</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>860</v>
+        <v>851</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>5</v>
@@ -5870,34 +5870,34 @@
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>812</v>
+        <v>803</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>780</v>
+        <v>771</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>861</v>
+        <v>852</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>987</v>
+        <v>978</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
@@ -5905,7 +5905,7 @@
         <v>12</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>5</v>
@@ -5914,86 +5914,86 @@
         <v>26</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>953</v>
+        <v>944</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>862</v>
+        <v>853</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>988</v>
+        <v>979</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>930</v>
+        <v>921</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>954</v>
+        <v>945</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>863</v>
+        <v>854</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>4</v>
@@ -6002,42 +6002,42 @@
         <v>30</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>864</v>
+        <v>855</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N52" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>5</v>
@@ -6046,42 +6046,42 @@
         <v>58</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>865</v>
+        <v>856</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>4</v>
@@ -6090,306 +6090,306 @@
         <v>62</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>955</v>
+        <v>946</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>722</v>
+        <v>713</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>866</v>
+        <v>857</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>867</v>
+        <v>858</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>989</v>
+        <v>980</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>940</v>
+        <v>931</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>931</v>
+        <v>922</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>723</v>
+        <v>714</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>958</v>
+        <v>949</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>724</v>
+        <v>715</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N58" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="356.4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>959</v>
+        <v>950</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>725</v>
+        <v>716</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>781</v>
+        <v>772</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>991</v>
+        <v>982</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>5</v>
@@ -6398,130 +6398,130 @@
         <v>68</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>960</v>
+        <v>951</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>727</v>
+        <v>718</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N62" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>932</v>
+        <v>923</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>728</v>
+        <v>719</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="N63" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>5</v>
@@ -6530,86 +6530,86 @@
         <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>729</v>
+        <v>720</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>782</v>
+        <v>773</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>983</v>
+        <v>974</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>801</v>
+        <v>792</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>961</v>
+        <v>952</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>730</v>
+        <v>721</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N65" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>4</v>
@@ -6618,42 +6618,42 @@
         <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>992</v>
+        <v>983</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="277.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>5</v>
@@ -6662,42 +6662,42 @@
         <v>38</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>962</v>
+        <v>953</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>732</v>
+        <v>723</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>5</v>
@@ -6706,174 +6706,174 @@
         <v>23</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>733</v>
+        <v>724</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N68" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>734</v>
+        <v>725</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N69" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>942</v>
+        <v>933</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>735</v>
+        <v>726</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>993</v>
+        <v>984</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>933</v>
+        <v>924</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>736</v>
+        <v>727</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="N71" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>5</v>
@@ -6882,86 +6882,86 @@
         <v>16</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>963</v>
+        <v>954</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>737</v>
+        <v>728</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>784</v>
+        <v>775</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N72" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>964</v>
+        <v>955</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>738</v>
+        <v>729</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>994</v>
+        <v>985</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>4</v>
@@ -6970,42 +6970,42 @@
         <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>739</v>
+        <v>730</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>4</v>
@@ -7014,86 +7014,86 @@
         <v>71</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>887</v>
+        <v>878</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>995</v>
+        <v>986</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
@@ -7102,130 +7102,130 @@
         <v>37</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>742</v>
+        <v>733</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N77" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>743</v>
+        <v>734</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="N78" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>934</v>
+        <v>925</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>785</v>
+        <v>776</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>888</v>
+        <v>879</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="N79" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>4</v>
@@ -7234,130 +7234,130 @@
         <v>33</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J80" s="9" t="s">
         <v>102</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="N80" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>944</v>
+        <v>935</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>889</v>
+        <v>880</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>996</v>
+        <v>987</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>802</v>
+        <v>793</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="N82" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>5</v>
@@ -7366,130 +7366,130 @@
         <v>18</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>745</v>
+        <v>736</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>891</v>
+        <v>882</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="N83" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>746</v>
+        <v>737</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>892</v>
+        <v>883</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="N84" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>747</v>
+        <v>738</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>893</v>
+        <v>884</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N85" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="330" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>4</v>
@@ -7498,42 +7498,42 @@
         <v>31</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J86" s="9" t="s">
         <v>101</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>786</v>
+        <v>777</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>894</v>
+        <v>885</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>997</v>
+        <v>988</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>5</v>
@@ -7542,86 +7542,86 @@
         <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>965</v>
+        <v>956</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>748</v>
+        <v>739</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>895</v>
+        <v>886</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>927</v>
+        <v>918</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>998</v>
+        <v>989</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>896</v>
+        <v>887</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>5</v>
@@ -7630,42 +7630,42 @@
         <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>749</v>
+        <v>740</v>
       </c>
       <c r="K89" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>897</v>
+        <v>888</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N89" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="290.39999999999998" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>4</v>
@@ -7674,42 +7674,42 @@
         <v>56</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>813</v>
+        <v>804</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>750</v>
+        <v>741</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>788</v>
+        <v>779</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>898</v>
+        <v>889</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>999</v>
+        <v>990</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>4</v>
@@ -7718,42 +7718,42 @@
         <v>24</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>966</v>
+        <v>957</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>751</v>
+        <v>742</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>899</v>
+        <v>890</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="N91" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>4</v>
@@ -7762,86 +7762,86 @@
         <v>21</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>752</v>
+        <v>743</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>789</v>
+        <v>780</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>900</v>
+        <v>891</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="N92" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="250.8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>967</v>
+        <v>958</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>753</v>
+        <v>744</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>790</v>
+        <v>781</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>901</v>
+        <v>892</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>1000</v>
+        <v>991</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>4</v>
@@ -7850,42 +7850,42 @@
         <v>89</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>791</v>
+        <v>782</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>902</v>
+        <v>893</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>4</v>
@@ -7894,42 +7894,42 @@
         <v>25</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>754</v>
+        <v>745</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>903</v>
+        <v>894</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>1001</v>
+        <v>992</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>5</v>
@@ -7938,42 +7938,42 @@
         <v>79</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>968</v>
+        <v>959</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>755</v>
+        <v>746</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>904</v>
+        <v>895</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>1002</v>
+        <v>993</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>5</v>
@@ -7982,42 +7982,42 @@
         <v>47</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>969</v>
+        <v>960</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>756</v>
+        <v>747</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>905</v>
+        <v>896</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>990</v>
+        <v>981</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>5</v>
@@ -8026,130 +8026,130 @@
         <v>57</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>757</v>
+        <v>748</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>792</v>
+        <v>783</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>906</v>
+        <v>897</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>1003</v>
+        <v>994</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="N99" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>758</v>
+        <v>749</v>
       </c>
       <c r="K100" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>5</v>
@@ -8158,86 +8158,86 @@
         <v>43</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>759</v>
+        <v>750</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N101" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>803</v>
+        <v>794</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
       <c r="K102" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>910</v>
+        <v>901</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N102" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>4</v>
@@ -8246,130 +8246,130 @@
         <v>88</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>761</v>
+        <v>752</v>
       </c>
       <c r="K103" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>911</v>
+        <v>902</v>
       </c>
       <c r="M103" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N103" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>804</v>
+        <v>795</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>762</v>
+        <v>753</v>
       </c>
       <c r="K104" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>912</v>
+        <v>903</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="N104" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>87</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>763</v>
+        <v>754</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>793</v>
+        <v>784</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>913</v>
+        <v>904</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="N105" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>5</v>
@@ -8378,130 +8378,130 @@
         <v>22</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H106" s="18" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J106" s="9" t="s">
         <v>100</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>794</v>
+        <v>785</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>914</v>
+        <v>905</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="N106" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>915</v>
+        <v>906</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N107" s="10" t="s">
-        <v>1004</v>
+        <v>995</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="K108" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>916</v>
+        <v>907</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="N108" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>4</v>
@@ -8510,130 +8510,130 @@
         <v>75</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>75</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="K109" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>917</v>
+        <v>908</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N109" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>805</v>
+        <v>796</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>795</v>
+        <v>786</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>918</v>
+        <v>909</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="N110" s="10" t="s">
-        <v>1005</v>
+        <v>996</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>797</v>
+        <v>788</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="K111" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>919</v>
+        <v>910</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N111" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>5</v>
@@ -8642,42 +8642,42 @@
         <v>64</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>970</v>
+        <v>961</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="K112" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>920</v>
+        <v>911</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N112" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>5</v>
@@ -8686,204 +8686,204 @@
         <v>77</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="K113" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>921</v>
+        <v>912</v>
       </c>
       <c r="M113" s="17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>1006</v>
+        <v>997</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="K114" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>922</v>
+        <v>913</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="N114" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>945</v>
+        <v>936</v>
       </c>
       <c r="G115" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="H115" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="H115" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="I115" s="4" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>923</v>
+        <v>914</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="N115" s="10" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="B116" s="4" t="s">
-        <v>224</v>
-      </c>
       <c r="C116" s="4" t="s">
-        <v>798</v>
+        <v>789</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="K116" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>924</v>
+        <v>915</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="N116" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="117" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="s">
-        <v>796</v>
+        <v>787</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>806</v>
+        <v>797</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>935</v>
+        <v>926</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>814</v>
+        <v>805</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K117" s="15" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L117" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M117" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N117" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -9005,353 +9005,343 @@
     <hyperlink ref="E113" r:id="rId114" display="https://placehold.co/400x600" xr:uid="{622A2536-A959-42B4-B4F9-EE23F2A44517}"/>
     <hyperlink ref="E115" r:id="rId115" display="https://placehold.co/400x600" xr:uid="{7690046C-47D4-4A7B-8DBE-6704DCCAE9C8}"/>
     <hyperlink ref="J72" r:id="rId116" display="https://www.linkedin.com/in/dr-nilay-patel-106bab14/" xr:uid="{B2E17E23-9358-429B-BBF9-5EE4C8E363CB}"/>
-    <hyperlink ref="J3" r:id="rId117" display="https://www.linkedin.com/in/abhishek-swarnkar-2018/" xr:uid="{8572AA87-385B-4F00-A23F-5C2EC0459072}"/>
-    <hyperlink ref="J83" r:id="rId118" display="https://www.linkedin.com/in/poonam-thanki-b112a6a2/" xr:uid="{BB16F397-78CE-4DBD-8BE4-13D65525672B}"/>
-    <hyperlink ref="J57" r:id="rId119" display="https://www.linkedin.com/in/dr-manthan-s-manavadaria-2a222219/" xr:uid="{4954A101-EA09-4BF1-8202-A72F86653038}"/>
-    <hyperlink ref="J18" r:id="rId120" display="https://www.linkedin.com/in/bhavin-mehta-86b47795/" xr:uid="{DB7D7CE8-51EF-48EE-BFBF-A021321BDC5F}"/>
-    <hyperlink ref="J49" r:id="rId121" display="https://www.linkedin.com/in/dr-kanwar-preet-kaur-bamrah-64a3a221/" xr:uid="{53166117-8C5A-4AB4-89B7-C2E8B83BC5A5}"/>
-    <hyperlink ref="J92" r:id="rId122" display="https://www.linkedin.com/in/rikita-chokshi-44bb65263/" xr:uid="{184885D3-531C-43E9-853D-5C2EAF6E7696}"/>
-    <hyperlink ref="J106" r:id="rId123" xr:uid="{FBE16C58-F91B-4934-8550-681C7F68CFE1}"/>
-    <hyperlink ref="J68" r:id="rId124" display="https://www.linkedin.com/in/mrugendrasinh-rahevar/" xr:uid="{F0663F50-387A-4315-8A34-03206888175F}"/>
-    <hyperlink ref="J91" r:id="rId125" display="https://www.linkedin.com/in/ravi-patel-13686b19/" xr:uid="{FC6DE30F-2E95-4AA2-B879-8CEAD23CEEC4}"/>
-    <hyperlink ref="J95" r:id="rId126" display="https://www.linkedin.com/in/ronak-patel-63663613a/" xr:uid="{EB8CC283-1781-41D5-BE2D-3C04AED15B01}"/>
-    <hyperlink ref="J50" r:id="rId127" display="https://www.linkedin.com/in/dr-kawaljitsingh-randhawa-96816064/" xr:uid="{4AE0FF76-EF4F-45C3-A542-A7D876A7DA2C}"/>
-    <hyperlink ref="J19" r:id="rId128" display="http://linkedin.com/in/bimal-patel-b7504849" xr:uid="{B02CE38D-7D41-45E6-8D0A-5F0FCF595503}"/>
-    <hyperlink ref="J71" r:id="rId129" display="https://www.linkedin.com/in/nikita-bhatt-ce/?originalSubdomain=in" xr:uid="{9EC6AE06-F884-4149-B7FC-88140006B7F4}"/>
-    <hyperlink ref="J23" r:id="rId130" display="https://www.linkedin.com/in/deep-kothadiya-phd-70983a86/" xr:uid="{8691FEB4-6E3B-4049-9588-FC79EAF0F2EC}"/>
-    <hyperlink ref="J78" r:id="rId131" display="https://www.linkedin.com/in/parmanand-patel-1269016b/" xr:uid="{53EDE3BB-D85D-4DAD-A587-55DA1C805D27}"/>
-    <hyperlink ref="J52" r:id="rId132" display="https://www.linkedin.com/in/krunal-maheriya-aba5681a1/" xr:uid="{9D29078E-A414-4A64-86B1-F77733FF0F8A}"/>
-    <hyperlink ref="J86" r:id="rId133" xr:uid="{21E8E151-1B01-486F-A7D7-4BE4F0BC0B27}"/>
-    <hyperlink ref="J36" r:id="rId134" display="https://www.linkedin.com/in/dr-hardik-modi-181035b/" xr:uid="{F7F908AF-23C0-42F7-8AFE-DF52AF52580B}"/>
-    <hyperlink ref="J14" r:id="rId135" display="http://hlinkedin.com/in/dr-ashwin-makwana-9a6688112" xr:uid="{3D2F3A09-18C9-4E22-B6FA-494330FEF01E}"/>
-    <hyperlink ref="J80" r:id="rId136" xr:uid="{4DA1EB91-0A15-4D6C-9213-F6D1EE675204}"/>
-    <hyperlink ref="J17" r:id="rId137" xr:uid="{8E63BCC9-6C05-45B8-8789-EBB4905292F2}"/>
-    <hyperlink ref="J35" r:id="rId138" display="https://www.linkedin.com/in/gaurav-kumar1582/" xr:uid="{BF49CFFA-7535-44BB-8F9A-67BEFFD957B6}"/>
-    <hyperlink ref="J29" r:id="rId139" display="https://www.linkedin.com/in/dhaval-patel-481b0885/" xr:uid="{5704F17D-173C-4E5E-89CF-B8F7987D86F5}"/>
-    <hyperlink ref="J77" r:id="rId140" display="https://www.linkedin.com/me?trk=p_mwlite_profile_self-secondary_nav" xr:uid="{6148FF48-4942-4818-844D-79919D56DB98}"/>
-    <hyperlink ref="J67" r:id="rId141" display="https://www.linkedin.com/in/dr-miral-desai-245448a2/" xr:uid="{D2BE1269-3E17-415C-B581-A936373A624C}"/>
-    <hyperlink ref="J32" r:id="rId142" display="https://www.linkedin.com/in/gajanan-patange-05ba2219/overlay/about-this-profile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BEvV8mS8jTpy2mGfBhro1og%3D%3D" xr:uid="{CDEEC399-875E-4DDA-A567-6EFC42A0F87E}"/>
-    <hyperlink ref="J9" r:id="rId143" display="http://www.linkedin.com/in/anandpatel010883" xr:uid="{E9B00DE2-EE87-44F1-8BE0-1328BC974745}"/>
-    <hyperlink ref="J114" r:id="rId144" display="https://www.linkedin.com/in/vikas-panchal-873277251/" xr:uid="{A3606037-07FB-4104-B411-BA37A6E2F3CA}"/>
-    <hyperlink ref="J4" r:id="rId145" display="https://www.linkedin.com/in/abhishek-patel-6035986a/" xr:uid="{9CB1AAFD-D1D4-489C-8C90-C9ECF9652648}"/>
-    <hyperlink ref="J12" r:id="rId146" xr:uid="{D67A4955-8A25-4866-B6FA-F5256EB986CE}"/>
-    <hyperlink ref="J101" r:id="rId147" display="https://www.linkedin.com/in/sneha-padhiar-4aaa17146/" xr:uid="{8CF4272D-E96D-4E1C-80AD-5D3F2F554C53}"/>
-    <hyperlink ref="J38" r:id="rId148" display="https://www.linkedin.com/in/harshul-yagnik-81a6a022/" xr:uid="{683E4E91-B763-4226-99B6-F3E30837AD4B}"/>
-    <hyperlink ref="J21" r:id="rId149" display="https://www.linkedin.com/in/brinda-patel-652073252" xr:uid="{791133CF-E0A2-4B6D-8618-AC19B4D3A9FA}"/>
-    <hyperlink ref="J28" r:id="rId150" xr:uid="{F8104DB3-2B23-47B7-B622-17690E08D84A}"/>
-    <hyperlink ref="J97" r:id="rId151" display="https://www.linkedin.com/in/sagarkumar-patel-0bb94bb5/" xr:uid="{B357E631-0C5E-406B-9B45-A421DE003AD4}"/>
-    <hyperlink ref="J6" r:id="rId152" display="https://www.linkedin.com/in/akshita-kadam/" xr:uid="{A6299A9A-C122-4C3B-93E2-D150A461DD38}"/>
-    <hyperlink ref="J70" r:id="rId153" display="http://www.linkedin.com/in/neha-chauhan22" xr:uid="{E7A9417A-8B16-4D59-A23C-B258564D85D5}"/>
-    <hyperlink ref="J22" r:id="rId154" xr:uid="{895691E5-0B23-47DD-9A36-18923B4FD652}"/>
-    <hyperlink ref="J39" r:id="rId155" display="https://www.linkedin.com/public-profile/settings?trk=d_flagship3_profile_self_view_public_profile" xr:uid="{E4C32594-CCCB-41B2-AE51-AE67F83944BE}"/>
-    <hyperlink ref="J42" r:id="rId156" display="https://www.linkedin.com/in/jalpa-ardeshana-381496b7/" xr:uid="{67C7A4AD-28FD-4291-92FB-A9C4AA0671B4}"/>
-    <hyperlink ref="J102" r:id="rId157" display="https://www.linkedin.com/in/dr-spoorthy-v-10ab3813a/" xr:uid="{EDA5921D-C45B-4D8B-B9FA-3205F4F396D6}"/>
-    <hyperlink ref="J24" r:id="rId158" display="https://www.linkedin.com/in/dhara-patel-839488138" xr:uid="{27C9FC8C-0A44-49AE-8688-8690C8579833}"/>
-    <hyperlink ref="J26" r:id="rId159" display="https://www.linkedin.com/in/dharmendrasinh-chauhan-073a491a4/" xr:uid="{D50E69C7-4F51-4D1B-90EC-FE9F9A44906E}"/>
-    <hyperlink ref="J90" r:id="rId160" display="https://www.linkedin.com/in/rajnik-katriya/" xr:uid="{3AEC1C40-35D9-4AE3-A7E8-9E58FA2C8E43}"/>
-    <hyperlink ref="J98" r:id="rId161" display="https://www.linkedin.com/in/sanket-suthar-544a69210/" xr:uid="{6137F2DC-1F93-4037-B861-A959BDB6DCE6}"/>
-    <hyperlink ref="J53" r:id="rId162" display="http://www.linkedin.com/in/kundan-patel-b9508b27b" xr:uid="{D4BB537A-7CA1-4F2B-9985-F5921034561E}"/>
-    <hyperlink ref="J81" r:id="rId163" xr:uid="{BFFCC995-B6DF-474C-93AA-BDF180E05422}"/>
-    <hyperlink ref="J111" r:id="rId164" display="https://www.linkedin.com/in/vidisha-pradhan-733a1b63/" xr:uid="{06E43119-E5BC-45C4-9126-F192D3006C5B}"/>
-    <hyperlink ref="J27" r:id="rId165" display="https://www.linkedin.com/in/dharmendrasinh-rathod-4482a2a4/" xr:uid="{3BDD0888-FF6F-403B-8A93-FD5176D0DA38}"/>
-    <hyperlink ref="J54" r:id="rId166" display="http://www.linkedin.com/in/madhav-oza-60bb5650" xr:uid="{24641904-0D92-4561-9EC0-14DC5197E375}"/>
-    <hyperlink ref="J41" r:id="rId167" xr:uid="{10BD029B-F728-4FEF-934E-F502C3B3ECDD}"/>
-    <hyperlink ref="J112" r:id="rId168" display="https://www.linkedin.com/in/dr-vijay-chaudhary-12769b311/" xr:uid="{B15A7FAF-9082-4A84-BAA5-265E44F10859}"/>
-    <hyperlink ref="J62" r:id="rId169" display="http://inkedin.com/in/mjdesai/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=in" xr:uid="{58387078-A78B-4059-8DB7-2DA181BAC97F}"/>
-    <hyperlink ref="J48" r:id="rId170" xr:uid="{F61EBA1D-096B-4367-83C7-464D0E0332DE}"/>
-    <hyperlink ref="J10" r:id="rId171" display="https://www.linkedin.com/in/aneri-pandya-550687141/" xr:uid="{6296FCE4-45F0-43A4-9992-4D9AC467426F}"/>
-    <hyperlink ref="J51" r:id="rId172" xr:uid="{A7C5CA17-C1E0-4B34-9F67-339F0FC32426}"/>
-    <hyperlink ref="J65" r:id="rId173" display="https://www.linkedin.com/in/mihirmehta-educational-project-and-placements/" xr:uid="{1EF2631D-C319-4F6C-9AF3-9E886A6E863A}"/>
-    <hyperlink ref="J34" r:id="rId174" display="https://www.linkedin.com/in/gaurang-patel-a99266119/" xr:uid="{4A4B2655-5B11-4CEB-8516-A9D046224C31}"/>
-    <hyperlink ref="J75" r:id="rId175" display="http://www.linkedin.com/in/nishant-koshti-52b68b8b" xr:uid="{2E5CF16C-0D7F-4454-B4F7-592A3EC43855}"/>
-    <hyperlink ref="J5" r:id="rId176" display="https://www.linkedin.com/in/dr-akash-vyas-85497444/" xr:uid="{9A218BBC-E860-4F86-BFCA-B10A468C8281}"/>
-    <hyperlink ref="J20" r:id="rId177" display="https://www.linkedin.com/in/brijesh-kundaliya-552b7722/" xr:uid="{FC5C15E0-2AD1-4E2F-8F1E-F2F96829A7A6}"/>
-    <hyperlink ref="J43" r:id="rId178" display="https://www.linkedin.com/in/jalpesh-vasa/" xr:uid="{6768F239-6E23-4A84-8C3E-45670A76F700}"/>
-    <hyperlink ref="J109" r:id="rId179" display="https://www.linkedin.com/in/vaishali-mewada-7a619053/" xr:uid="{DEFB6E16-7F29-44C5-ACAD-D6B1E16E6C24}"/>
-    <hyperlink ref="J46" r:id="rId180" xr:uid="{CCF872D9-BD3F-4521-9093-8C3148DBAC43}"/>
-    <hyperlink ref="J113" r:id="rId181" display="http://www.linkedin.com/in/vijaykumar-panchal-631852280" xr:uid="{2810BDF3-4A14-413D-B157-AF8059E92C49}"/>
-    <hyperlink ref="J64" r:id="rId182" display="https://www.linkedin.com/in/dr-mihir-bhatt-806a85aa/" xr:uid="{AA93D706-7CF6-45C4-B768-B797EB6775B7}"/>
-    <hyperlink ref="J96" r:id="rId183" display="https://www.linkedin.com/in/dr-sagar-chokshi-8646601a/" xr:uid="{35109E28-E96A-4139-B689-0AB43FF55E92}"/>
-    <hyperlink ref="J84" r:id="rId184" display="http://www.linkedin.com/in/pratik-panchal-a35b325a" xr:uid="{6FB924B7-EDB2-44F0-B0D7-E78551105315}"/>
-    <hyperlink ref="J40" r:id="rId185" display="https://www.linkedin.com/in/hemangi-oza-60a189190/" xr:uid="{AC43F6B8-459E-4FF0-82E4-75F8CDE25269}"/>
-    <hyperlink ref="J110" r:id="rId186" display="http://linkedin.com/in/vibha-parmar-81b3045b" xr:uid="{9792CDE9-6059-48ED-AD46-8BECFEF07152}"/>
-    <hyperlink ref="J59" r:id="rId187" display="http://www.linkedin.com/in/maulik-shah-30b483119" xr:uid="{E23FB3E1-55AD-4659-9463-2B3E19FC5E7D}"/>
-    <hyperlink ref="J99" r:id="rId188" display="http://www.linkedin.com/in/saritavisavalia" xr:uid="{3504F31F-4BD3-4D8B-B727-C2FF9DDFF1EA}"/>
-    <hyperlink ref="J13" r:id="rId189" xr:uid="{ACF63811-234F-442B-91D8-C6863212F92A}"/>
-    <hyperlink ref="J45" r:id="rId190" display="https://www.linkedin.com/in/dr-jigar-sarda-00384414/" xr:uid="{0EFC12BA-8B5C-4E86-968D-797B0D43FD98}"/>
-    <hyperlink ref="J105" r:id="rId191" display="https://www.linkedin.com/in/trusha-patel-gajjar" xr:uid="{98AA2D43-F8B2-4B29-93BA-7A9CCA8109B2}"/>
-    <hyperlink ref="J103" r:id="rId192" display="https://www.linkedin.com/in/srushti-gajjar-92b829142?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{544D82DB-5386-42AC-B979-94C259CA9E97}"/>
-    <hyperlink ref="J94" r:id="rId193" xr:uid="{F1631FCD-D701-415F-89D8-AB6A7D513AC5}"/>
-    <hyperlink ref="J15" r:id="rId194" display="https://www.linkedin.com/in/asifiqbal-thakor-56949b237/" xr:uid="{3A40B3CD-F1BE-4530-B451-07DF410D1272}"/>
-    <hyperlink ref="J56" r:id="rId195" xr:uid="{99110411-88B4-4B0C-9258-D7E7320C877C}"/>
-    <hyperlink ref="J47" r:id="rId196" display="https://www.linkedin.com/in/jivanadhar-joshi-a76a12ab/" xr:uid="{ED0C7354-C517-49E0-BDF5-C6BF1EC0A53C}"/>
-    <hyperlink ref="J104" r:id="rId197" display="https://in.linkedin.com/in/dr-tigmanshu-patel-b3252639" xr:uid="{8223C32D-E35E-4436-B593-C54F5FEED7DB}"/>
-    <hyperlink ref="J44" r:id="rId198" display="http://linkedin.com/in/jay-bhavsar-a4a9646a" xr:uid="{A3106519-72EE-423E-976E-09F1FD98B248}"/>
-    <hyperlink ref="J89" r:id="rId199" display="http://www.linkedin.com/in/purvi-prajapati-37ba6651" xr:uid="{7A2661BA-3D20-4DF8-8332-CC5726684DD1}"/>
-    <hyperlink ref="J74" r:id="rId200" display="https://www.linkedin.com/in/nirpex-patel-508956119/" xr:uid="{8BF234A3-EF12-4093-8EAF-09B2432506EF}"/>
-    <hyperlink ref="J87" r:id="rId201" display="https://www.linkedin.com/in/priyanka-patel-ph-d-00403393/" xr:uid="{8D6AEC45-7FD5-4128-9D12-F2A6CBB1E864}"/>
-    <hyperlink ref="J63" r:id="rId202" display="https://www.linkedin.com/in/mehulkumar-katakiya-029357b8/" xr:uid="{D058A74D-8E61-413C-9B75-7FF7917660C9}"/>
-    <hyperlink ref="J37" r:id="rId203" display="https://www.linkedin.com/in/harmish-bhatt-88581510a/" xr:uid="{7CC36C27-9781-439B-A945-9C1160C69911}"/>
-    <hyperlink ref="J66" r:id="rId204" display="https://www.linkedin.com/in/mikin-patel-24191386/" xr:uid="{3AEB0F01-575C-4799-B7A0-11A1F0947768}"/>
-    <hyperlink ref="J107" r:id="rId205" display="https://www.linkedin.com/in/dr-upesh-patel-875878138/" xr:uid="{5D7DA379-79C5-410F-9398-20936275BC46}"/>
-    <hyperlink ref="J58" r:id="rId206" xr:uid="{509B130C-6A0C-4944-BFE2-75F1FDF097C4}"/>
-    <hyperlink ref="J69" r:id="rId207" display="https://www.linkedin.com/in/muskan-dave-023197162/" xr:uid="{C8C7BB25-838D-4DFF-B4BD-F8943C06375E}"/>
-    <hyperlink ref="J73" r:id="rId208" display="https://www.linkedin.com/in/dr-nirav-bhatt/" xr:uid="{3F4736BB-5DB7-48E0-ABC4-5DBB591E1122}"/>
-    <hyperlink ref="J2" r:id="rId209" display="https://www.linkedin.com/in/dr-aayushi-chaudhari-512b49101/" xr:uid="{56F5CA15-B85B-4D06-B755-078F7D9186D7}"/>
-    <hyperlink ref="J11" r:id="rId210" xr:uid="{714022ED-2EC9-40BB-978A-F936135E18E1}"/>
-    <hyperlink ref="J93" r:id="rId211" display="https://www.linkedin.com/in/ritesh-patel-462b0b11" xr:uid="{F4558EEF-FFB0-474A-8E3E-CEBF9566FCDB}"/>
-    <hyperlink ref="J116" r:id="rId212" display="http://www.linkedin.com/in/viral-panara-773877201" xr:uid="{4FB52C9B-4BDB-4971-A78B-1CD2EE789E52}"/>
-    <hyperlink ref="J79" r:id="rId213" display="https://www.linkedin.com/in/shah-parth-d/" xr:uid="{A61E294E-BDA5-4C2E-BA18-BA2B9C98C973}"/>
-    <hyperlink ref="J33" r:id="rId214" display="https://www.linkedin.com/in/gargi-ray-983a8522/" xr:uid="{0C76E47F-7D1B-4E1C-A88F-86156C9D1D6E}"/>
-    <hyperlink ref="J100" r:id="rId215" display="http://www.linkedin.com/in/satayu-travadi-9aab0919" xr:uid="{A79F3F36-387F-427F-848C-3BB8A221E707}"/>
-    <hyperlink ref="J88" r:id="rId216" xr:uid="{A7A467B8-5468-4830-9ADC-34F28E8899B5}"/>
-    <hyperlink ref="J30" r:id="rId217" display="https://www.linkedin.com/in/dheeraj-kumar-shringi-030586107?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{D1B60D12-635A-4E71-93D8-B47244D1EF44}"/>
-    <hyperlink ref="J85" r:id="rId218" display="https://in.linkedin.com/in/pratik-mochi-09764b102?original_referer=https%3A%2F%2Fwww.google.com%2F" xr:uid="{CD8066BB-0BA9-4FA9-88DB-0C291F6209A7}"/>
-    <hyperlink ref="J108" r:id="rId219" display="https://www.linkedin.com/in/vaibhavi-patel-67b035224/" xr:uid="{51D509E7-546B-4519-845F-AF5DC77392B9}"/>
-    <hyperlink ref="J60" r:id="rId220" display="http://www.linkedin.com/in/mayuri-popat-213852b1" xr:uid="{336D4B2F-0BBF-4ADA-8647-F20659482547}"/>
-    <hyperlink ref="J55" r:id="rId221" display="http://www.linkedin.com/in/madhavajwalia" xr:uid="{8DE9B663-AD20-42DB-A7F0-4FD167AD95E8}"/>
-    <hyperlink ref="J115" r:id="rId222" display="https://www.linkedin.com/in/vipul-vyas-19214bab/" xr:uid="{00F74D28-7144-4D8C-9870-393AE49126D5}"/>
-    <hyperlink ref="J7" r:id="rId223" display="https://www.linkedin.com/in/dr-amit-thakkar-66b52622/" xr:uid="{116DDAED-898A-4A5D-92DB-D8101A98C02B}"/>
-    <hyperlink ref="J31" r:id="rId224" display="http://www.linkedin.com/in/dipalkumar-patel-4b97997" xr:uid="{CFB485EB-93AC-436E-BD76-13F13D42FA00}"/>
-    <hyperlink ref="J76" r:id="rId225" display="https://www.linkedin.com/in/nishat-shaikh-b7446019a/" xr:uid="{45535606-CAE7-44BB-B1C5-622D742D5E66}"/>
-    <hyperlink ref="J16" r:id="rId226" display="https://www.linkedin.com/in/avani-khokhariya/" xr:uid="{F2664F6A-73CC-4DAD-982B-E296BD77DF0A}"/>
-    <hyperlink ref="J82" r:id="rId227" xr:uid="{2C60818F-B78B-4EC2-9BA4-C7D88C933280}"/>
-    <hyperlink ref="J25" r:id="rId228" display="https://www.linkedin.com/in/dhara-s-032a6a24/" xr:uid="{4FE7FF63-A73E-4E09-94C4-E2CD5FE6F81D}"/>
-    <hyperlink ref="J8" r:id="rId229" display="https://www.linkedin.com/in/dr-amit-kumar-559921270" xr:uid="{73EB2E16-AF5A-41C2-ACF7-2A7507FD4B3F}"/>
-    <hyperlink ref="K72" r:id="rId230" xr:uid="{E7CCB95C-4D9A-474B-9296-0EE719EC4AB3}"/>
-    <hyperlink ref="K92" r:id="rId231" xr:uid="{92D21BA9-793A-4610-9A6A-641322C6CC28}"/>
-    <hyperlink ref="K106" r:id="rId232" xr:uid="{2E05A515-7245-4DDB-9E9C-D041E881E2BF}"/>
-    <hyperlink ref="K86" r:id="rId233" xr:uid="{8C1C3B99-0196-4695-95EB-EEFEEA76042B}"/>
-    <hyperlink ref="K67" r:id="rId234" xr:uid="{4C2AA447-E23D-4BD3-8516-CF8A69E7C676}"/>
-    <hyperlink ref="K90" r:id="rId235" xr:uid="{68D88C01-9035-44B0-9EAE-4AE7236572CC}"/>
-    <hyperlink ref="K98" r:id="rId236" xr:uid="{B89BB500-5F1B-4985-B0B7-D69D9B22538C}"/>
-    <hyperlink ref="K27" r:id="rId237" xr:uid="{461288D1-54CE-41D7-ACBC-4EB753D35618}"/>
-    <hyperlink ref="K64" r:id="rId238" display="https://sites.google.com/a/charusat.ac.in/mihir-bhatt-ee/home/about-me?pli=1" xr:uid="{DD66FE1D-24F8-42A6-8DDC-651F08933CB6}"/>
-    <hyperlink ref="K45" r:id="rId239" xr:uid="{185428FC-1CEB-406E-A327-B537B63CC062}"/>
-    <hyperlink ref="K105" r:id="rId240" xr:uid="{6E3402FB-A293-4394-A12F-C9CE90A43581}"/>
-    <hyperlink ref="K94" r:id="rId241" display="https://sites.google.com/view/ronak-patel/" xr:uid="{30BB4B45-BE3C-4B51-8751-F1166793B9D8}"/>
-    <hyperlink ref="K87" r:id="rId242" display="https://sites.google.com/a/charusat.ac.in/priyanka-patel/about-me" xr:uid="{2F80CF65-0198-4866-9245-0932E2D2E991}"/>
-    <hyperlink ref="K11" r:id="rId243" xr:uid="{B7911887-1D4E-4149-9255-34290DE15C67}"/>
-    <hyperlink ref="K93" r:id="rId244" xr:uid="{CC19190B-EF5A-4030-970E-47B4649A66EC}"/>
-    <hyperlink ref="K79" r:id="rId245" display="http://learnwithparth.in/" xr:uid="{0D098BA1-951E-49B0-BA34-5489DFACFB69}"/>
-    <hyperlink ref="K60" r:id="rId246" display="https://sites.google.com/charusat.ac.in/mayuri-popat/home/academic-experience?authuser=0" xr:uid="{CD111632-8632-4F99-808E-7B0BA423BCF0}"/>
-    <hyperlink ref="K25" r:id="rId247" display="http://https/www.simpldhara.github.io" xr:uid="{1B0FEF49-7DD4-45B9-B1E6-577EDB068225}"/>
-    <hyperlink ref="K4" r:id="rId248" xr:uid="{A55ED677-5A40-43B5-A2E0-3934032012FA}"/>
-    <hyperlink ref="I12" r:id="rId249" xr:uid="{559F5BE6-A98D-4918-9ADE-3B5DB2AC1B24}"/>
-    <hyperlink ref="I13" r:id="rId250" xr:uid="{B5B2A2F7-DD9E-4163-AECE-07D5742E906D}"/>
-    <hyperlink ref="I49" r:id="rId251" xr:uid="{2DF8A589-77D3-487D-9871-F11C086009D1}"/>
-    <hyperlink ref="I82" r:id="rId252" xr:uid="{4F6BB86B-ECFA-4396-9D2B-715AF4C8A22C}"/>
-    <hyperlink ref="I50" r:id="rId253" xr:uid="{C80EDEE3-BA73-444F-89E4-2007846DC254}"/>
-    <hyperlink ref="I90" r:id="rId254" xr:uid="{E27523F8-498C-4ABD-8999-7C5FE36E5CA5}"/>
-    <hyperlink ref="L72" r:id="rId255" xr:uid="{948CADBD-38FA-4A43-B789-35C5FE176C3F}"/>
-    <hyperlink ref="L3" r:id="rId256" xr:uid="{F46A9101-D683-4CCF-9110-8584476B2BA9}"/>
-    <hyperlink ref="L83" r:id="rId257" xr:uid="{6E19F5D8-BA05-4C24-BFED-0131679AE1A3}"/>
-    <hyperlink ref="L57" r:id="rId258" xr:uid="{15D92DD2-9C84-4024-BCB0-89C6EAD615FB}"/>
-    <hyperlink ref="L18" r:id="rId259" xr:uid="{E24865B7-0C5D-46C6-8B52-CB38271DBD7E}"/>
-    <hyperlink ref="L49" r:id="rId260" xr:uid="{4D2C143E-EFF2-43ED-8C1B-94D7326ABF76}"/>
-    <hyperlink ref="L92" r:id="rId261" xr:uid="{22687922-AA0C-441B-A3FA-FB8732C6A78E}"/>
-    <hyperlink ref="L106" r:id="rId262" display="https://scholar.google.com/citations?user=Gzsxo-oAAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{FF9B096B-7991-46C3-B06A-152491BA6C90}"/>
-    <hyperlink ref="L68" r:id="rId263" xr:uid="{690AB285-269F-47C4-BA46-90F767A79CC1}"/>
-    <hyperlink ref="L91" r:id="rId264" xr:uid="{9AF26C9F-30B4-4DAE-A809-C138362FFD00}"/>
-    <hyperlink ref="L95" r:id="rId265" xr:uid="{8D4A0E6E-AA77-4CD4-AA54-DEC95D5CF09E}"/>
-    <hyperlink ref="L50" r:id="rId266" xr:uid="{A64FDC24-6D97-4969-AC20-BF200CE32B3A}"/>
-    <hyperlink ref="L19" r:id="rId267" xr:uid="{2DF7625D-5BDC-4383-BFF5-27331B9E27C1}"/>
-    <hyperlink ref="L71" r:id="rId268" display="https://scholar.google.co.in/citations?user=9PPA-6oAAAAJ&amp;hl=en" xr:uid="{38968AA0-46FD-46B0-84CD-C755BCC30A99}"/>
-    <hyperlink ref="L23" r:id="rId269" xr:uid="{4FF8802A-1D76-4C6B-91B4-17C781B102D6}"/>
-    <hyperlink ref="L52" r:id="rId270" xr:uid="{8365015A-789A-4D2C-9684-352B6CC70A5E}"/>
-    <hyperlink ref="L86" r:id="rId271" xr:uid="{BD03203D-E2A2-453C-8DB9-B1F0B5A13124}"/>
-    <hyperlink ref="L36" r:id="rId272" display="https://scholar.google.com/citations?user=ay8-QY0AAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{CEA8B045-C60C-4ADA-9F10-8B980373388F}"/>
-    <hyperlink ref="L14" r:id="rId273" display="https://scholar.google.com/citations?user=TCsNw-YAAAAJ&amp;hl=en" xr:uid="{D0B58B70-976E-4FD0-A498-4FE5480744DA}"/>
-    <hyperlink ref="L17" r:id="rId274" xr:uid="{19EAA634-8BE7-4A2F-8B30-8A424E254965}"/>
-    <hyperlink ref="L29" r:id="rId275" xr:uid="{3D65CD0F-C15B-4E98-9324-C36FAB47EBC4}"/>
-    <hyperlink ref="L67" r:id="rId276" xr:uid="{264FF3AA-8D89-41E4-9DA6-521BD58711A9}"/>
-    <hyperlink ref="L32" r:id="rId277" display="https://www.bing.com/ck/a?!&amp;&amp;p=6a7ac5a017a1300aJmltdHM9MTcyOTQ2ODgwMCZpZ3VpZD0wMDExMmIyNS1kMzQ5LTY3MTItMmE4My0zZTA1ZDI1NjY2MWEmaW5zaWQ9NTE5NQ&amp;ptn=3&amp;ver=2&amp;hsh=3&amp;fclid=00112b25-d349-6712-2a83-3e05d256661a&amp;psq=google+scholer+gajanan+patange&amp;u=a1aHR0cHM6Ly9zY2hvbGFyLmdvb2dsZS5wbC9jaXRhdGlvbnM_dXNlcj1fRDRISUhjQUFBQUomaGw9ZW4&amp;ntb=1" xr:uid="{275A790E-9657-41D9-B9F2-78D3822C4310}"/>
-    <hyperlink ref="L9" r:id="rId278" xr:uid="{758E6349-E050-42DF-B5C3-FBA97B821030}"/>
-    <hyperlink ref="L114" r:id="rId279" xr:uid="{9ACD46AD-FE8F-41CE-9823-5DC65F691D5B}"/>
-    <hyperlink ref="L4" r:id="rId280" xr:uid="{9B291D90-C0E1-493C-9E5E-17CAF2B7D2F2}"/>
-    <hyperlink ref="L12" r:id="rId281" xr:uid="{8C6729CD-380A-483D-A997-7DBCBA390939}"/>
-    <hyperlink ref="L101" r:id="rId282" xr:uid="{C07AED6D-34B0-40AA-B65E-C9BFB9F1574D}"/>
-    <hyperlink ref="L38" r:id="rId283" display="https://scholar.google.com/citations?user=6d-aVTEAAAAJ&amp;hl=en" xr:uid="{EBC010F8-7D12-4DC1-9FDA-49EFC51EFF71}"/>
-    <hyperlink ref="L21" r:id="rId284" xr:uid="{0DDB7A07-865A-4AD7-986A-DE5D031FFBD0}"/>
-    <hyperlink ref="L28" r:id="rId285" xr:uid="{E6ABE8A4-4EFC-489A-B104-3BCC2E998A7B}"/>
-    <hyperlink ref="L97" r:id="rId286" xr:uid="{ABDCFD31-BA21-4022-B6C1-EDDD441956ED}"/>
-    <hyperlink ref="L6" r:id="rId287" xr:uid="{591DF322-16B2-4785-A83C-3147BF3D09D2}"/>
-    <hyperlink ref="L70" r:id="rId288" xr:uid="{BB403419-C3FE-440B-B0A2-AF35C3C2E8E3}"/>
-    <hyperlink ref="L22" r:id="rId289" xr:uid="{A227399F-9975-4976-9597-2D3E6151DCB8}"/>
-    <hyperlink ref="L39" r:id="rId290" xr:uid="{535A1FEE-65AB-4486-BF0D-ADD9A3382AFB}"/>
-    <hyperlink ref="L42" r:id="rId291" display="https://scholar.google.com/citations?hl=en&amp;user=geQ-r_QAAAAJ" xr:uid="{36509863-135E-43CA-B732-4C0DEFDDC2FC}"/>
-    <hyperlink ref="L102" r:id="rId292" xr:uid="{7F8D3F89-D92D-4081-B489-E387250A10BD}"/>
-    <hyperlink ref="L24" r:id="rId293" xr:uid="{B4A03D8A-649C-469B-B24A-E9F9B481D48B}"/>
-    <hyperlink ref="L26" r:id="rId294" xr:uid="{D3034C74-7237-42E2-A6B8-CD4BA8BBBF41}"/>
-    <hyperlink ref="L90" r:id="rId295" xr:uid="{53AE3D77-EDB3-413A-8D8F-16969CBE8103}"/>
-    <hyperlink ref="L98" r:id="rId296" xr:uid="{76D99C50-072C-40D7-BDEB-328FCCB109D9}"/>
-    <hyperlink ref="L53" r:id="rId297" xr:uid="{CD634DA2-F1A0-45FA-A86C-61D935383D2E}"/>
-    <hyperlink ref="L81" r:id="rId298" xr:uid="{F6874B5E-545B-4745-A546-56B6FD5105E9}"/>
-    <hyperlink ref="L111" r:id="rId299" xr:uid="{C22F05F4-D13D-45A5-A5B0-3237064F3209}"/>
-    <hyperlink ref="L27" r:id="rId300" xr:uid="{32CD251C-92CC-42C2-865F-89BE3026727C}"/>
-    <hyperlink ref="L54" r:id="rId301" xr:uid="{287D782E-D3CC-498E-B117-EBE696C4D447}"/>
-    <hyperlink ref="L41" r:id="rId302" xr:uid="{B241D450-267C-40BF-9C45-8957239BDD86}"/>
-    <hyperlink ref="L62" r:id="rId303" xr:uid="{AA7AD692-35BE-48A4-AF46-1B6413916E3B}"/>
-    <hyperlink ref="L48" r:id="rId304" display="https://scholar.google.co.in/citations?user=EdcH-Y0AAAAJ&amp;hl=en" xr:uid="{CE335172-93AC-45C2-9068-7C9C19F220C4}"/>
-    <hyperlink ref="L10" r:id="rId305" xr:uid="{A33E4A1F-E63E-4F7D-9DC5-3C5AB6E82811}"/>
-    <hyperlink ref="L51" r:id="rId306" xr:uid="{027764B5-CA65-453C-BFB6-EE555AA7BF1B}"/>
-    <hyperlink ref="L61" r:id="rId307" xr:uid="{E2F70942-EACF-4A90-B18A-A80CB466AAE7}"/>
-    <hyperlink ref="L65" r:id="rId308" xr:uid="{5645BFE0-C2D6-4EED-AFCB-0EF806CC91E9}"/>
-    <hyperlink ref="L34" r:id="rId309" xr:uid="{EE598F68-E624-44F6-B4DD-8299C007487F}"/>
-    <hyperlink ref="L75" r:id="rId310" display="https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=-9-RhBoAAAAJ" xr:uid="{E935D410-8781-42B6-B609-E835354DEBBB}"/>
-    <hyperlink ref="L5" r:id="rId311" display="https://scholar.google.co.in/citations?user=cVv-kdYAAAAJ&amp;hl=en" xr:uid="{746C1EFC-2FA9-49B1-AFB8-1C7FCA47096B}"/>
-    <hyperlink ref="L20" r:id="rId312" display="https://scholar.google.com/citations?user=dHkQ5D4AAAAJ&amp;hl=en" xr:uid="{25860FE4-2E75-42A8-BFFE-3AA02DEED40F}"/>
-    <hyperlink ref="L43" r:id="rId313" xr:uid="{5A9FF0C8-1A53-40E2-BF07-8AE47CB6B984}"/>
-    <hyperlink ref="L109" r:id="rId314" xr:uid="{5C89C29F-A386-4BBA-9788-4CB223E1744F}"/>
-    <hyperlink ref="L46" r:id="rId315" xr:uid="{63EFEA34-4397-48CB-B385-33D61D726E20}"/>
-    <hyperlink ref="L64" r:id="rId316" xr:uid="{0A4BFD56-8B2D-444E-8903-49F5DC5883A4}"/>
-    <hyperlink ref="L96" r:id="rId317" display="https://scholar.google.com/citations?hl=en&amp;user=utk-ZT0AAAAJ" xr:uid="{501E8FB4-1DC4-4EBD-A3BE-50F19352C1F0}"/>
-    <hyperlink ref="L84" r:id="rId318" xr:uid="{37E9CEEB-DC2C-46A2-BCF4-5A9521147A39}"/>
-    <hyperlink ref="L40" r:id="rId319" xr:uid="{EEF5DC34-1243-4468-B6B1-D9059ADE8AB0}"/>
-    <hyperlink ref="L110" r:id="rId320" display="https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;hl=en&amp;user=HDdsZFsAAAAJ&amp;scilu=&amp;scisig=AJY4_hMAAAAAZxidz75RZUbVraeNHOVGYgbAfP0&amp;gmla=ALUCkoUwv9xfR7EENoQtBn_aiKaqTyzZ1X2kORl9--L4aBw5WcKwjoDCVXVaogYeCbraaig0PTa5IzrpT_DyD12Vlt-ODcDk1Nt3fM0&amp;sciund=7577126703303180020" xr:uid="{197DCE6B-BB53-49E3-9D84-78838F524694}"/>
-    <hyperlink ref="L59" r:id="rId321" xr:uid="{B559F61A-BA8D-4A15-AF94-270FD8E6EE0D}"/>
-    <hyperlink ref="L99" r:id="rId322" xr:uid="{BDF263A7-4F8B-46B8-BBE8-705BBF9DE738}"/>
-    <hyperlink ref="L13" r:id="rId323" xr:uid="{7649604F-C033-4670-9F95-0C2C5AC47C84}"/>
-    <hyperlink ref="L45" r:id="rId324" xr:uid="{035221F3-6BA9-41F1-A09D-0FD648704591}"/>
-    <hyperlink ref="L105" r:id="rId325" xr:uid="{1CDECF45-D107-4A0E-A561-5D783437E97C}"/>
-    <hyperlink ref="L103" r:id="rId326" xr:uid="{B653EAA6-C485-435F-854D-438BD267A19D}"/>
-    <hyperlink ref="L94" r:id="rId327" xr:uid="{BAF6ABB2-16F7-4B7A-8AC8-F52F94951E56}"/>
-    <hyperlink ref="L15" r:id="rId328" xr:uid="{F38927F1-EEEB-453A-8636-E6644582D973}"/>
-    <hyperlink ref="L56" r:id="rId329" xr:uid="{9E4C99F0-F427-4B73-88C1-9DDF17D8ABDE}"/>
-    <hyperlink ref="L47" r:id="rId330" xr:uid="{4048416A-0F5D-4582-8A3D-08AFC13874F9}"/>
-    <hyperlink ref="L104" r:id="rId331" xr:uid="{8400FD3C-B4D9-436A-8179-88B2F74CE3F2}"/>
-    <hyperlink ref="L44" r:id="rId332" xr:uid="{201F5259-DE23-43B6-A300-CE6428FFA5ED}"/>
-    <hyperlink ref="L89" r:id="rId333" xr:uid="{31420B66-56AB-4794-90CA-5F5AFEE32FDC}"/>
-    <hyperlink ref="L87" r:id="rId334" xr:uid="{C4F50DBC-0BFE-4509-9E86-8433559B0E5F}"/>
-    <hyperlink ref="L63" r:id="rId335" xr:uid="{90FCCA59-114D-4A5C-9409-D7A92B5C554D}"/>
-    <hyperlink ref="L37" r:id="rId336" xr:uid="{86700D43-54F6-409C-AA74-11A10CF95742}"/>
-    <hyperlink ref="L66" r:id="rId337" xr:uid="{C018FF9B-EED7-4A65-95FA-780ACBBA2D7E}"/>
-    <hyperlink ref="L107" r:id="rId338" xr:uid="{60A89811-803F-44C1-9C4C-03400FFC3370}"/>
-    <hyperlink ref="L58" r:id="rId339" display="https://scholar.google.com/citations?user=D-wd8QgAAAAJ&amp;hl=en" xr:uid="{FEE2843B-8463-42EA-93D3-8C0055A27E1B}"/>
-    <hyperlink ref="L73" r:id="rId340" xr:uid="{D89F1643-F631-4232-BD92-A17AB43537BB}"/>
-    <hyperlink ref="L2" r:id="rId341" xr:uid="{FA588FCD-5B5F-455C-A8F1-363E48BF4B34}"/>
-    <hyperlink ref="L11" r:id="rId342" xr:uid="{75F0D2F4-DBF8-4BC0-81C8-E510EB404F91}"/>
-    <hyperlink ref="L93" r:id="rId343" xr:uid="{4B1641D3-9830-41C6-9804-FD4F1CAA246E}"/>
-    <hyperlink ref="L116" r:id="rId344" xr:uid="{187B270B-DD03-4B4E-A0EC-FA089BBBF941}"/>
-    <hyperlink ref="L79" r:id="rId345" xr:uid="{09000797-9862-4D17-81A3-8BF615CB0D28}"/>
-    <hyperlink ref="L33" r:id="rId346" xr:uid="{30E40F4D-0941-4C35-B988-415178726C05}"/>
-    <hyperlink ref="L100" r:id="rId347" xr:uid="{2A5203BE-43E1-47B8-B2C4-1CC37588A5AB}"/>
-    <hyperlink ref="L88" r:id="rId348" xr:uid="{570C26B0-6EF3-40AB-BBA0-06474B8C9E9F}"/>
-    <hyperlink ref="L30" r:id="rId349" xr:uid="{8315B941-53AD-4CC4-8A93-715BF028D5D6}"/>
-    <hyperlink ref="L85" r:id="rId350" xr:uid="{A11BA51D-FBB4-444E-9239-AD5CA8BDA6AA}"/>
-    <hyperlink ref="L108" r:id="rId351" xr:uid="{BD6653EC-2D4F-4519-B739-A572013209E8}"/>
-    <hyperlink ref="L60" r:id="rId352" xr:uid="{FCDEB08A-0CA4-4598-B598-28FC8001225C}"/>
-    <hyperlink ref="L55" r:id="rId353" xr:uid="{21317881-56A9-411E-B0E0-953DFEB53FB5}"/>
-    <hyperlink ref="L115" r:id="rId354" xr:uid="{2C2ECFF6-DA6C-4C65-B48D-83C8B953A10F}"/>
-    <hyperlink ref="L7" r:id="rId355" xr:uid="{AC52BE48-B1BC-4E71-B6C1-88AF068D6F7B}"/>
-    <hyperlink ref="L31" r:id="rId356" xr:uid="{7701D08D-592D-4F08-8A1D-722D9125A481}"/>
-    <hyperlink ref="L76" r:id="rId357" xr:uid="{08A9DD36-F049-430E-ACEE-0254B9EB019D}"/>
-    <hyperlink ref="L82" r:id="rId358" xr:uid="{69BD5E03-494B-42BC-B711-BD56B50C14BD}"/>
-    <hyperlink ref="L8" r:id="rId359" display="https://scholar.google.com/citations?user=49QO52oAAAAJ&amp;hl=en&amp;citsig=ADIE8snLeq6YPks1Pa9NqbNhY8-8" xr:uid="{597E11F7-5E1F-4746-9B2D-F0B3CE2DAADD}"/>
-    <hyperlink ref="M72" r:id="rId360" display="https://vidwan.inflibnet.ac.in/profile/161243/MTYxMjQz" xr:uid="{377E489A-5F66-4D39-9D16-5A09C06888BF}"/>
-    <hyperlink ref="M3" r:id="rId361" xr:uid="{969CA3F3-003E-45D0-B448-786C1B45A99B}"/>
-    <hyperlink ref="M83" r:id="rId362" xr:uid="{FCF270CA-7E29-44DE-9B34-531A560121D2}"/>
-    <hyperlink ref="M57" r:id="rId363" xr:uid="{27A56F3E-3B7A-497C-B419-6D4EB0B36DFE}"/>
-    <hyperlink ref="M18" r:id="rId364" xr:uid="{A8B03D72-4F58-488B-AA71-6FE545C4F974}"/>
-    <hyperlink ref="M49" r:id="rId365" xr:uid="{46B27430-2CB4-4571-B683-C90BDB1A869A}"/>
-    <hyperlink ref="M92" r:id="rId366" xr:uid="{B3372949-44D6-47D3-93F5-F231A1194C2D}"/>
-    <hyperlink ref="M106" r:id="rId367" xr:uid="{BD564D33-09CC-4E3F-8665-C7CC006586D4}"/>
-    <hyperlink ref="M68" r:id="rId368" xr:uid="{46D7BE4E-C50A-4838-A0D5-A66608E30FB1}"/>
-    <hyperlink ref="M91" r:id="rId369" xr:uid="{49346F82-88CD-458B-9055-E1D237495067}"/>
-    <hyperlink ref="M95" r:id="rId370" xr:uid="{275EA512-D486-4AA6-B9C6-EDFD8EB5E681}"/>
-    <hyperlink ref="M50" r:id="rId371" xr:uid="{F1370FFD-2A24-4E0D-842E-D15A59048874}"/>
-    <hyperlink ref="M19" r:id="rId372" xr:uid="{B079BDCE-9644-48D8-ADB9-55246D89BB3B}"/>
-    <hyperlink ref="M71" r:id="rId373" xr:uid="{21DA9F6E-42F2-4C08-8BCC-45E0F47AC02F}"/>
-    <hyperlink ref="M23" r:id="rId374" display="https://vidwan.inflibnet.ac.in/profile/162290/MTYyMjkw" xr:uid="{C5101B56-8150-4439-9561-ADE65CCB8626}"/>
-    <hyperlink ref="M78" r:id="rId375" xr:uid="{FA23B353-3F9D-46B1-82DA-820AA4FBE86D}"/>
-    <hyperlink ref="M86" r:id="rId376" xr:uid="{680496D4-6792-4688-B37B-3D2836A2CBB1}"/>
-    <hyperlink ref="M36" r:id="rId377" xr:uid="{C295F105-2491-4119-851F-B09A35F5D83B}"/>
-    <hyperlink ref="M14" r:id="rId378" xr:uid="{C6A42F1F-C70B-482C-BAF5-08E29835556D}"/>
-    <hyperlink ref="M80" r:id="rId379" xr:uid="{D12744D8-8D17-44EF-A69E-A1A202FA6698}"/>
-    <hyperlink ref="M17" r:id="rId380" xr:uid="{026E65A7-E47E-491B-A07D-37EBD353FD4E}"/>
-    <hyperlink ref="M35" r:id="rId381" xr:uid="{5D0B8227-026E-47C4-897D-D449D1EA7349}"/>
-    <hyperlink ref="M29" r:id="rId382" xr:uid="{02E7C489-97EB-4764-B304-885B559F8C0E}"/>
-    <hyperlink ref="M67" r:id="rId383" xr:uid="{7BCC998C-8FF9-4866-BDE0-4E618132491D}"/>
-    <hyperlink ref="M9" r:id="rId384" xr:uid="{91B9619A-0474-417B-A83E-F1ACC0AF0CEC}"/>
-    <hyperlink ref="M114" r:id="rId385" xr:uid="{9DC7345F-59EF-46AB-AFF8-A485034FCFB5}"/>
-    <hyperlink ref="M4" r:id="rId386" xr:uid="{C24F8B1B-E131-406E-8B92-980981B7F2F8}"/>
-    <hyperlink ref="M12" r:id="rId387" xr:uid="{BBE0AFF3-0C87-45BA-B244-2EBD516259AE}"/>
-    <hyperlink ref="M101" r:id="rId388" xr:uid="{36A3294C-FBE9-4AE5-B367-A4F7EB299507}"/>
-    <hyperlink ref="M38" r:id="rId389" xr:uid="{CC9655FE-1EDD-46F8-BE5B-9E92C5013680}"/>
-    <hyperlink ref="M21" r:id="rId390" xr:uid="{47BBD086-2D33-4012-A8B6-B4A4E0F676C3}"/>
-    <hyperlink ref="M28" r:id="rId391" xr:uid="{D9812B9F-31E0-4DAD-8A1E-6460EF4BE795}"/>
-    <hyperlink ref="M97" r:id="rId392" xr:uid="{194FE3FD-0EF9-46C4-B769-B4AAF95E0018}"/>
-    <hyperlink ref="M6" r:id="rId393" xr:uid="{3C597F50-A6C7-4686-85A0-F6E6694F57E3}"/>
-    <hyperlink ref="M70" r:id="rId394" xr:uid="{A87D811B-910D-45F2-BF34-A478CD7D8B09}"/>
-    <hyperlink ref="M22" r:id="rId395" xr:uid="{686F19E9-9FDF-4E88-8243-D809ABB3FE79}"/>
-    <hyperlink ref="M42" r:id="rId396" xr:uid="{FB2FC638-1D01-4122-BA7D-9717BC8B2EF3}"/>
-    <hyperlink ref="M102" r:id="rId397" xr:uid="{F0E56AD7-3828-45B1-A3E4-95B4E7B7495F}"/>
-    <hyperlink ref="M24" r:id="rId398" xr:uid="{5E6A27FA-6F1B-4920-AF3A-0018DC331E36}"/>
-    <hyperlink ref="M26" r:id="rId399" xr:uid="{758E2E1D-BBB4-4F0B-A1FA-EB3E5DE2D156}"/>
-    <hyperlink ref="M90" r:id="rId400" xr:uid="{1C320BD2-5251-44A7-81C2-D89E208736CC}"/>
-    <hyperlink ref="M98" r:id="rId401" xr:uid="{4BF3D2D2-9743-494B-A7D1-9EEF7423F2B3}"/>
-    <hyperlink ref="M53" r:id="rId402" xr:uid="{642FC8EF-95E5-4804-8108-73A9ADB45FBB}"/>
-    <hyperlink ref="M81" r:id="rId403" xr:uid="{6069906B-85A1-4520-B697-E8420F4D518A}"/>
-    <hyperlink ref="M111" r:id="rId404" xr:uid="{45C10A27-1AD3-4A6F-966C-946B5F9ECB83}"/>
-    <hyperlink ref="M27" r:id="rId405" xr:uid="{F2CE36A5-3E73-43DE-A91D-5D1E2781384A}"/>
-    <hyperlink ref="M54" r:id="rId406" xr:uid="{6815F862-B01A-4FF2-B310-DDE65D78FBDB}"/>
-    <hyperlink ref="M41" r:id="rId407" xr:uid="{2167CAC5-42F7-48BE-A140-282801D50406}"/>
-    <hyperlink ref="M112" r:id="rId408" xr:uid="{2D0BE123-EDFD-4091-BCF0-204188FF3B30}"/>
-    <hyperlink ref="M62" r:id="rId409" xr:uid="{7A45E352-1CCC-4E30-B5C0-2C2507845C07}"/>
-    <hyperlink ref="M48" r:id="rId410" xr:uid="{D69AB844-8B39-4156-9897-B02CB20CA4D5}"/>
-    <hyperlink ref="M10" r:id="rId411" xr:uid="{04F1C981-8348-4D72-8A69-A692D3062D64}"/>
-    <hyperlink ref="M51" r:id="rId412" xr:uid="{65DE02F5-B84D-45D0-9DC1-F7808BDFD38D}"/>
-    <hyperlink ref="M61" r:id="rId413" xr:uid="{C49314E6-1B8D-41D3-8824-C6AE59F00DDA}"/>
-    <hyperlink ref="M65" r:id="rId414" xr:uid="{22CCAF6F-639B-4091-91C4-0D9E09A79A31}"/>
-    <hyperlink ref="M34" r:id="rId415" xr:uid="{9E6DCF4C-EA31-4D9D-AE0D-50C83C0347DE}"/>
-    <hyperlink ref="M75" r:id="rId416" xr:uid="{D71D3644-6845-46C5-83D7-DA2B52AF5733}"/>
-    <hyperlink ref="M5" r:id="rId417" xr:uid="{7687E521-D8FB-41F5-A5E6-AE953D92E830}"/>
-    <hyperlink ref="M20" r:id="rId418" xr:uid="{4DDDF623-882B-481C-A6D6-41041F349837}"/>
-    <hyperlink ref="M43" r:id="rId419" xr:uid="{52C3C99B-42C3-444C-A194-78CDBDAFC9CB}"/>
-    <hyperlink ref="M109" r:id="rId420" display="https://vidwan.inflibnet.ac.in/profile/161344" xr:uid="{FE2BA8E6-DD6C-4A10-91F1-326AA51E88D5}"/>
-    <hyperlink ref="M46" r:id="rId421" xr:uid="{2FFD071F-CF1A-4200-989A-978DBA72FD44}"/>
-    <hyperlink ref="M64" r:id="rId422" xr:uid="{E4C6C757-CD64-47C7-8F12-6CE6B9FFD60C}"/>
-    <hyperlink ref="M96" r:id="rId423" xr:uid="{722D10A1-25FB-4CE7-9F0B-C75508E442CE}"/>
-    <hyperlink ref="M84" r:id="rId424" xr:uid="{32A836FB-CB40-470F-B02E-7B6392FD539D}"/>
-    <hyperlink ref="M40" r:id="rId425" location="other_information_panel" display="https://vidwan.inflibnet.ac.in/myprofile - other_information_panel" xr:uid="{FE644920-561A-44DA-A700-34ED8EB7963F}"/>
-    <hyperlink ref="M110" r:id="rId426" xr:uid="{2C076003-CA45-4492-A114-A44CC1E60BF2}"/>
-    <hyperlink ref="M59" r:id="rId427" xr:uid="{BC2FF260-09A4-4D46-81FB-823835AD57DA}"/>
-    <hyperlink ref="M99" r:id="rId428" xr:uid="{B2860DA1-1C8E-403D-9E1C-CE3896F91BFD}"/>
-    <hyperlink ref="M13" r:id="rId429" xr:uid="{2DE04985-AB3C-4D4B-BCEE-EF8C728199F4}"/>
-    <hyperlink ref="M45" r:id="rId430" xr:uid="{546046AA-45E7-4EDD-81FB-A6648B9BB595}"/>
-    <hyperlink ref="M105" r:id="rId431" xr:uid="{7330EFFC-2F12-4EFE-BF25-3D30861E8775}"/>
-    <hyperlink ref="M94" r:id="rId432" xr:uid="{4F8D1CF8-D215-443F-8914-E091AFB2DBAE}"/>
-    <hyperlink ref="M15" r:id="rId433" xr:uid="{4CD74FA1-A139-4BCD-9CB7-1D7091E614B9}"/>
-    <hyperlink ref="M56" r:id="rId434" xr:uid="{EAABDC46-8B1B-482C-B7D7-E6E7C16FB647}"/>
-    <hyperlink ref="M104" r:id="rId435" xr:uid="{ACDF2E56-83C7-477F-A573-2B4112936AD3}"/>
-    <hyperlink ref="M44" r:id="rId436" xr:uid="{B502A1CE-A61F-4999-A855-F6ECA908B905}"/>
-    <hyperlink ref="M89" r:id="rId437" xr:uid="{EF82DFB8-BEB4-47BB-B28B-AF5A4CDD6891}"/>
-    <hyperlink ref="M74" r:id="rId438" xr:uid="{6D71EE52-86C9-4EE0-A55D-7B9652B864FF}"/>
-    <hyperlink ref="M87" r:id="rId439" xr:uid="{C073950A-A28A-4ED8-B9C1-BD3B160FAEF3}"/>
-    <hyperlink ref="M63" r:id="rId440" xr:uid="{958C1C19-9C17-41E8-ADC4-BAB91255F382}"/>
-    <hyperlink ref="M37" r:id="rId441" xr:uid="{0CC98B27-C0DC-4F81-A868-5BC7C0784B50}"/>
-    <hyperlink ref="M66" r:id="rId442" xr:uid="{B86191A1-65D6-4540-845F-518E32A64FBF}"/>
-    <hyperlink ref="M107" r:id="rId443" xr:uid="{47889514-AB9C-4B04-95A5-1CCA3A0DFCA8}"/>
-    <hyperlink ref="M58" r:id="rId444" xr:uid="{36AE2A42-0E80-4A5F-8FB0-4EAB2AEA8C36}"/>
-    <hyperlink ref="M69" r:id="rId445" xr:uid="{7FE7C886-2B29-491F-8C86-5526A33F7121}"/>
-    <hyperlink ref="M73" r:id="rId446" xr:uid="{FDFB0EA9-AD4D-43E9-BEF9-C60B9531C82F}"/>
-    <hyperlink ref="M2" r:id="rId447" xr:uid="{251C34E0-B509-4755-B850-FDEB3B770405}"/>
-    <hyperlink ref="M11" r:id="rId448" xr:uid="{3203A1D8-1572-4E08-ADEF-54F74525E87A}"/>
-    <hyperlink ref="M93" r:id="rId449" xr:uid="{28CD01ED-234C-4911-A047-12722FE76C1F}"/>
-    <hyperlink ref="M116" r:id="rId450" xr:uid="{82D93DAC-CF9F-4D41-B8C8-5AE08EA58BAA}"/>
-    <hyperlink ref="M79" r:id="rId451" xr:uid="{68120C28-52E3-4EC9-9F3E-EB5A3578A3BD}"/>
-    <hyperlink ref="M33" r:id="rId452" display="https://vidwan.inflibnet.ac.in/profile/161755-" xr:uid="{B87FE430-1CFA-4F98-A7E4-77FBF96BA37F}"/>
-    <hyperlink ref="M100" r:id="rId453" xr:uid="{649E7EFF-CC71-476F-9A81-1581EC34CD48}"/>
-    <hyperlink ref="M88" r:id="rId454" xr:uid="{1C9375D7-8EF5-40A1-914C-C5A7CD3188FB}"/>
-    <hyperlink ref="M85" r:id="rId455" xr:uid="{66509B53-066F-4635-85A6-6E99D5FE0B3E}"/>
-    <hyperlink ref="M108" r:id="rId456" xr:uid="{775D1521-4736-4C73-BB71-31FD5AD1E561}"/>
-    <hyperlink ref="M60" r:id="rId457" xr:uid="{A128A132-518A-476D-BCF8-6D3638CE18D6}"/>
-    <hyperlink ref="M55" r:id="rId458" xr:uid="{A1AFE28A-9643-4A4A-95E8-53E1C4380AAE}"/>
-    <hyperlink ref="M115" r:id="rId459" xr:uid="{6A1A9D4D-97FF-42A2-B2EA-85F3F7E515C2}"/>
-    <hyperlink ref="M7" r:id="rId460" xr:uid="{BA494279-5FA7-4467-ACAA-FFA1824DB9F7}"/>
-    <hyperlink ref="M31" r:id="rId461" xr:uid="{43BBD922-4BE8-457C-9F25-7684B0D6F35B}"/>
-    <hyperlink ref="M76" r:id="rId462" xr:uid="{C2281EE1-00E4-42D3-875C-3C9C699518DB}"/>
-    <hyperlink ref="M82" r:id="rId463" xr:uid="{3C1D1058-7762-4D63-9FB9-41A44D4AB1F3}"/>
+    <hyperlink ref="J83" r:id="rId117" display="https://www.linkedin.com/in/poonam-thanki-b112a6a2/" xr:uid="{BB16F397-78CE-4DBD-8BE4-13D65525672B}"/>
+    <hyperlink ref="J57" r:id="rId118" display="https://www.linkedin.com/in/dr-manthan-s-manavadaria-2a222219/" xr:uid="{4954A101-EA09-4BF1-8202-A72F86653038}"/>
+    <hyperlink ref="J18" r:id="rId119" display="https://www.linkedin.com/in/bhavin-mehta-86b47795/" xr:uid="{DB7D7CE8-51EF-48EE-BFBF-A021321BDC5F}"/>
+    <hyperlink ref="J49" r:id="rId120" display="https://www.linkedin.com/in/dr-kanwar-preet-kaur-bamrah-64a3a221/" xr:uid="{53166117-8C5A-4AB4-89B7-C2E8B83BC5A5}"/>
+    <hyperlink ref="J92" r:id="rId121" display="https://www.linkedin.com/in/rikita-chokshi-44bb65263/" xr:uid="{184885D3-531C-43E9-853D-5C2EAF6E7696}"/>
+    <hyperlink ref="J106" r:id="rId122" xr:uid="{FBE16C58-F91B-4934-8550-681C7F68CFE1}"/>
+    <hyperlink ref="J68" r:id="rId123" display="https://www.linkedin.com/in/mrugendrasinh-rahevar/" xr:uid="{F0663F50-387A-4315-8A34-03206888175F}"/>
+    <hyperlink ref="J91" r:id="rId124" display="https://www.linkedin.com/in/ravi-patel-13686b19/" xr:uid="{FC6DE30F-2E95-4AA2-B879-8CEAD23CEEC4}"/>
+    <hyperlink ref="J95" r:id="rId125" display="https://www.linkedin.com/in/ronak-patel-63663613a/" xr:uid="{EB8CC283-1781-41D5-BE2D-3C04AED15B01}"/>
+    <hyperlink ref="J50" r:id="rId126" display="https://www.linkedin.com/in/dr-kawaljitsingh-randhawa-96816064/" xr:uid="{4AE0FF76-EF4F-45C3-A542-A7D876A7DA2C}"/>
+    <hyperlink ref="J19" r:id="rId127" display="http://linkedin.com/in/bimal-patel-b7504849" xr:uid="{B02CE38D-7D41-45E6-8D0A-5F0FCF595503}"/>
+    <hyperlink ref="J71" r:id="rId128" display="https://www.linkedin.com/in/nikita-bhatt-ce/?originalSubdomain=in" xr:uid="{9EC6AE06-F884-4149-B7FC-88140006B7F4}"/>
+    <hyperlink ref="J23" r:id="rId129" display="https://www.linkedin.com/in/deep-kothadiya-phd-70983a86/" xr:uid="{8691FEB4-6E3B-4049-9588-FC79EAF0F2EC}"/>
+    <hyperlink ref="J78" r:id="rId130" display="https://www.linkedin.com/in/parmanand-patel-1269016b/" xr:uid="{53EDE3BB-D85D-4DAD-A587-55DA1C805D27}"/>
+    <hyperlink ref="J52" r:id="rId131" display="https://www.linkedin.com/in/krunal-maheriya-aba5681a1/" xr:uid="{9D29078E-A414-4A64-86B1-F77733FF0F8A}"/>
+    <hyperlink ref="J86" r:id="rId132" xr:uid="{21E8E151-1B01-486F-A7D7-4BE4F0BC0B27}"/>
+    <hyperlink ref="J36" r:id="rId133" display="https://www.linkedin.com/in/dr-hardik-modi-181035b/" xr:uid="{F7F908AF-23C0-42F7-8AFE-DF52AF52580B}"/>
+    <hyperlink ref="J14" r:id="rId134" display="http://hlinkedin.com/in/dr-ashwin-makwana-9a6688112" xr:uid="{3D2F3A09-18C9-4E22-B6FA-494330FEF01E}"/>
+    <hyperlink ref="J80" r:id="rId135" xr:uid="{4DA1EB91-0A15-4D6C-9213-F6D1EE675204}"/>
+    <hyperlink ref="J17" r:id="rId136" xr:uid="{8E63BCC9-6C05-45B8-8789-EBB4905292F2}"/>
+    <hyperlink ref="J35" r:id="rId137" display="https://www.linkedin.com/in/gaurav-kumar1582/" xr:uid="{BF49CFFA-7535-44BB-8F9A-67BEFFD957B6}"/>
+    <hyperlink ref="J29" r:id="rId138" display="https://www.linkedin.com/in/dhaval-patel-481b0885/" xr:uid="{5704F17D-173C-4E5E-89CF-B8F7987D86F5}"/>
+    <hyperlink ref="J77" r:id="rId139" display="https://www.linkedin.com/me?trk=p_mwlite_profile_self-secondary_nav" xr:uid="{6148FF48-4942-4818-844D-79919D56DB98}"/>
+    <hyperlink ref="J67" r:id="rId140" display="https://www.linkedin.com/in/dr-miral-desai-245448a2/" xr:uid="{D2BE1269-3E17-415C-B581-A936373A624C}"/>
+    <hyperlink ref="J32" r:id="rId141" display="https://www.linkedin.com/in/gajanan-patange-05ba2219/overlay/about-this-profile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BEvV8mS8jTpy2mGfBhro1og%3D%3D" xr:uid="{CDEEC399-875E-4DDA-A567-6EFC42A0F87E}"/>
+    <hyperlink ref="J114" r:id="rId142" display="https://www.linkedin.com/in/vikas-panchal-873277251/" xr:uid="{A3606037-07FB-4104-B411-BA37A6E2F3CA}"/>
+    <hyperlink ref="J101" r:id="rId143" display="https://www.linkedin.com/in/sneha-padhiar-4aaa17146/" xr:uid="{8CF4272D-E96D-4E1C-80AD-5D3F2F554C53}"/>
+    <hyperlink ref="J38" r:id="rId144" display="https://www.linkedin.com/in/harshul-yagnik-81a6a022/" xr:uid="{683E4E91-B763-4226-99B6-F3E30837AD4B}"/>
+    <hyperlink ref="J21" r:id="rId145" display="https://www.linkedin.com/in/brinda-patel-652073252" xr:uid="{791133CF-E0A2-4B6D-8618-AC19B4D3A9FA}"/>
+    <hyperlink ref="J28" r:id="rId146" xr:uid="{F8104DB3-2B23-47B7-B622-17690E08D84A}"/>
+    <hyperlink ref="J97" r:id="rId147" display="https://www.linkedin.com/in/sagarkumar-patel-0bb94bb5/" xr:uid="{B357E631-0C5E-406B-9B45-A421DE003AD4}"/>
+    <hyperlink ref="J70" r:id="rId148" display="http://www.linkedin.com/in/neha-chauhan22" xr:uid="{E7A9417A-8B16-4D59-A23C-B258564D85D5}"/>
+    <hyperlink ref="J22" r:id="rId149" xr:uid="{895691E5-0B23-47DD-9A36-18923B4FD652}"/>
+    <hyperlink ref="J39" r:id="rId150" display="https://www.linkedin.com/public-profile/settings?trk=d_flagship3_profile_self_view_public_profile" xr:uid="{E4C32594-CCCB-41B2-AE51-AE67F83944BE}"/>
+    <hyperlink ref="J42" r:id="rId151" display="https://www.linkedin.com/in/jalpa-ardeshana-381496b7/" xr:uid="{67C7A4AD-28FD-4291-92FB-A9C4AA0671B4}"/>
+    <hyperlink ref="J102" r:id="rId152" display="https://www.linkedin.com/in/dr-spoorthy-v-10ab3813a/" xr:uid="{EDA5921D-C45B-4D8B-B9FA-3205F4F396D6}"/>
+    <hyperlink ref="J24" r:id="rId153" display="https://www.linkedin.com/in/dhara-patel-839488138" xr:uid="{27C9FC8C-0A44-49AE-8688-8690C8579833}"/>
+    <hyperlink ref="J26" r:id="rId154" display="https://www.linkedin.com/in/dharmendrasinh-chauhan-073a491a4/" xr:uid="{D50E69C7-4F51-4D1B-90EC-FE9F9A44906E}"/>
+    <hyperlink ref="J90" r:id="rId155" display="https://www.linkedin.com/in/rajnik-katriya/" xr:uid="{3AEC1C40-35D9-4AE3-A7E8-9E58FA2C8E43}"/>
+    <hyperlink ref="J98" r:id="rId156" display="https://www.linkedin.com/in/sanket-suthar-544a69210/" xr:uid="{6137F2DC-1F93-4037-B861-A959BDB6DCE6}"/>
+    <hyperlink ref="J53" r:id="rId157" display="http://www.linkedin.com/in/kundan-patel-b9508b27b" xr:uid="{D4BB537A-7CA1-4F2B-9985-F5921034561E}"/>
+    <hyperlink ref="J81" r:id="rId158" xr:uid="{BFFCC995-B6DF-474C-93AA-BDF180E05422}"/>
+    <hyperlink ref="J111" r:id="rId159" display="https://www.linkedin.com/in/vidisha-pradhan-733a1b63/" xr:uid="{06E43119-E5BC-45C4-9126-F192D3006C5B}"/>
+    <hyperlink ref="J27" r:id="rId160" display="https://www.linkedin.com/in/dharmendrasinh-rathod-4482a2a4/" xr:uid="{3BDD0888-FF6F-403B-8A93-FD5176D0DA38}"/>
+    <hyperlink ref="J54" r:id="rId161" display="http://www.linkedin.com/in/madhav-oza-60bb5650" xr:uid="{24641904-0D92-4561-9EC0-14DC5197E375}"/>
+    <hyperlink ref="J41" r:id="rId162" xr:uid="{10BD029B-F728-4FEF-934E-F502C3B3ECDD}"/>
+    <hyperlink ref="J112" r:id="rId163" display="https://www.linkedin.com/in/dr-vijay-chaudhary-12769b311/" xr:uid="{B15A7FAF-9082-4A84-BAA5-265E44F10859}"/>
+    <hyperlink ref="J62" r:id="rId164" display="http://inkedin.com/in/mjdesai/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=in" xr:uid="{58387078-A78B-4059-8DB7-2DA181BAC97F}"/>
+    <hyperlink ref="J48" r:id="rId165" xr:uid="{F61EBA1D-096B-4367-83C7-464D0E0332DE}"/>
+    <hyperlink ref="J51" r:id="rId166" xr:uid="{A7C5CA17-C1E0-4B34-9F67-339F0FC32426}"/>
+    <hyperlink ref="J65" r:id="rId167" display="https://www.linkedin.com/in/mihirmehta-educational-project-and-placements/" xr:uid="{1EF2631D-C319-4F6C-9AF3-9E886A6E863A}"/>
+    <hyperlink ref="J34" r:id="rId168" display="https://www.linkedin.com/in/gaurang-patel-a99266119/" xr:uid="{4A4B2655-5B11-4CEB-8516-A9D046224C31}"/>
+    <hyperlink ref="J75" r:id="rId169" display="http://www.linkedin.com/in/nishant-koshti-52b68b8b" xr:uid="{2E5CF16C-0D7F-4454-B4F7-592A3EC43855}"/>
+    <hyperlink ref="J20" r:id="rId170" display="https://www.linkedin.com/in/brijesh-kundaliya-552b7722/" xr:uid="{FC5C15E0-2AD1-4E2F-8F1E-F2F96829A7A6}"/>
+    <hyperlink ref="J43" r:id="rId171" display="https://www.linkedin.com/in/jalpesh-vasa/" xr:uid="{6768F239-6E23-4A84-8C3E-45670A76F700}"/>
+    <hyperlink ref="J109" r:id="rId172" display="https://www.linkedin.com/in/vaishali-mewada-7a619053/" xr:uid="{DEFB6E16-7F29-44C5-ACAD-D6B1E16E6C24}"/>
+    <hyperlink ref="J46" r:id="rId173" xr:uid="{CCF872D9-BD3F-4521-9093-8C3148DBAC43}"/>
+    <hyperlink ref="J113" r:id="rId174" display="http://www.linkedin.com/in/vijaykumar-panchal-631852280" xr:uid="{2810BDF3-4A14-413D-B157-AF8059E92C49}"/>
+    <hyperlink ref="J64" r:id="rId175" display="https://www.linkedin.com/in/dr-mihir-bhatt-806a85aa/" xr:uid="{AA93D706-7CF6-45C4-B768-B797EB6775B7}"/>
+    <hyperlink ref="J96" r:id="rId176" display="https://www.linkedin.com/in/dr-sagar-chokshi-8646601a/" xr:uid="{35109E28-E96A-4139-B689-0AB43FF55E92}"/>
+    <hyperlink ref="J84" r:id="rId177" display="http://www.linkedin.com/in/pratik-panchal-a35b325a" xr:uid="{6FB924B7-EDB2-44F0-B0D7-E78551105315}"/>
+    <hyperlink ref="J40" r:id="rId178" display="https://www.linkedin.com/in/hemangi-oza-60a189190/" xr:uid="{AC43F6B8-459E-4FF0-82E4-75F8CDE25269}"/>
+    <hyperlink ref="J110" r:id="rId179" display="http://linkedin.com/in/vibha-parmar-81b3045b" xr:uid="{9792CDE9-6059-48ED-AD46-8BECFEF07152}"/>
+    <hyperlink ref="J59" r:id="rId180" display="http://www.linkedin.com/in/maulik-shah-30b483119" xr:uid="{E23FB3E1-55AD-4659-9463-2B3E19FC5E7D}"/>
+    <hyperlink ref="J99" r:id="rId181" display="http://www.linkedin.com/in/saritavisavalia" xr:uid="{3504F31F-4BD3-4D8B-B727-C2FF9DDFF1EA}"/>
+    <hyperlink ref="J13" r:id="rId182" xr:uid="{ACF63811-234F-442B-91D8-C6863212F92A}"/>
+    <hyperlink ref="J45" r:id="rId183" display="https://www.linkedin.com/in/dr-jigar-sarda-00384414/" xr:uid="{0EFC12BA-8B5C-4E86-968D-797B0D43FD98}"/>
+    <hyperlink ref="J105" r:id="rId184" display="https://www.linkedin.com/in/trusha-patel-gajjar" xr:uid="{98AA2D43-F8B2-4B29-93BA-7A9CCA8109B2}"/>
+    <hyperlink ref="J103" r:id="rId185" display="https://www.linkedin.com/in/srushti-gajjar-92b829142?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{544D82DB-5386-42AC-B979-94C259CA9E97}"/>
+    <hyperlink ref="J94" r:id="rId186" xr:uid="{F1631FCD-D701-415F-89D8-AB6A7D513AC5}"/>
+    <hyperlink ref="J15" r:id="rId187" display="https://www.linkedin.com/in/asifiqbal-thakor-56949b237/" xr:uid="{3A40B3CD-F1BE-4530-B451-07DF410D1272}"/>
+    <hyperlink ref="J56" r:id="rId188" xr:uid="{99110411-88B4-4B0C-9258-D7E7320C877C}"/>
+    <hyperlink ref="J47" r:id="rId189" display="https://www.linkedin.com/in/jivanadhar-joshi-a76a12ab/" xr:uid="{ED0C7354-C517-49E0-BDF5-C6BF1EC0A53C}"/>
+    <hyperlink ref="J104" r:id="rId190" display="https://in.linkedin.com/in/dr-tigmanshu-patel-b3252639" xr:uid="{8223C32D-E35E-4436-B593-C54F5FEED7DB}"/>
+    <hyperlink ref="J44" r:id="rId191" display="http://linkedin.com/in/jay-bhavsar-a4a9646a" xr:uid="{A3106519-72EE-423E-976E-09F1FD98B248}"/>
+    <hyperlink ref="J89" r:id="rId192" display="http://www.linkedin.com/in/purvi-prajapati-37ba6651" xr:uid="{7A2661BA-3D20-4DF8-8332-CC5726684DD1}"/>
+    <hyperlink ref="J74" r:id="rId193" display="https://www.linkedin.com/in/nirpex-patel-508956119/" xr:uid="{8BF234A3-EF12-4093-8EAF-09B2432506EF}"/>
+    <hyperlink ref="J87" r:id="rId194" display="https://www.linkedin.com/in/priyanka-patel-ph-d-00403393/" xr:uid="{8D6AEC45-7FD5-4128-9D12-F2A6CBB1E864}"/>
+    <hyperlink ref="J63" r:id="rId195" display="https://www.linkedin.com/in/mehulkumar-katakiya-029357b8/" xr:uid="{D058A74D-8E61-413C-9B75-7FF7917660C9}"/>
+    <hyperlink ref="J37" r:id="rId196" display="https://www.linkedin.com/in/harmish-bhatt-88581510a/" xr:uid="{7CC36C27-9781-439B-A945-9C1160C69911}"/>
+    <hyperlink ref="J66" r:id="rId197" display="https://www.linkedin.com/in/mikin-patel-24191386/" xr:uid="{3AEB0F01-575C-4799-B7A0-11A1F0947768}"/>
+    <hyperlink ref="J107" r:id="rId198" display="https://www.linkedin.com/in/dr-upesh-patel-875878138/" xr:uid="{5D7DA379-79C5-410F-9398-20936275BC46}"/>
+    <hyperlink ref="J58" r:id="rId199" xr:uid="{509B130C-6A0C-4944-BFE2-75F1FDF097C4}"/>
+    <hyperlink ref="J69" r:id="rId200" display="https://www.linkedin.com/in/muskan-dave-023197162/" xr:uid="{C8C7BB25-838D-4DFF-B4BD-F8943C06375E}"/>
+    <hyperlink ref="J73" r:id="rId201" display="https://www.linkedin.com/in/dr-nirav-bhatt/" xr:uid="{3F4736BB-5DB7-48E0-ABC4-5DBB591E1122}"/>
+    <hyperlink ref="J11" r:id="rId202" xr:uid="{714022ED-2EC9-40BB-978A-F936135E18E1}"/>
+    <hyperlink ref="J93" r:id="rId203" display="https://www.linkedin.com/in/ritesh-patel-462b0b11" xr:uid="{F4558EEF-FFB0-474A-8E3E-CEBF9566FCDB}"/>
+    <hyperlink ref="J116" r:id="rId204" display="http://www.linkedin.com/in/viral-panara-773877201" xr:uid="{4FB52C9B-4BDB-4971-A78B-1CD2EE789E52}"/>
+    <hyperlink ref="J79" r:id="rId205" display="https://www.linkedin.com/in/shah-parth-d/" xr:uid="{A61E294E-BDA5-4C2E-BA18-BA2B9C98C973}"/>
+    <hyperlink ref="J33" r:id="rId206" display="https://www.linkedin.com/in/gargi-ray-983a8522/" xr:uid="{0C76E47F-7D1B-4E1C-A88F-86156C9D1D6E}"/>
+    <hyperlink ref="J100" r:id="rId207" display="http://www.linkedin.com/in/satayu-travadi-9aab0919" xr:uid="{A79F3F36-387F-427F-848C-3BB8A221E707}"/>
+    <hyperlink ref="J88" r:id="rId208" xr:uid="{A7A467B8-5468-4830-9ADC-34F28E8899B5}"/>
+    <hyperlink ref="J30" r:id="rId209" display="https://www.linkedin.com/in/dheeraj-kumar-shringi-030586107?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{D1B60D12-635A-4E71-93D8-B47244D1EF44}"/>
+    <hyperlink ref="J85" r:id="rId210" display="https://in.linkedin.com/in/pratik-mochi-09764b102?original_referer=https%3A%2F%2Fwww.google.com%2F" xr:uid="{CD8066BB-0BA9-4FA9-88DB-0C291F6209A7}"/>
+    <hyperlink ref="J108" r:id="rId211" display="https://www.linkedin.com/in/vaibhavi-patel-67b035224/" xr:uid="{51D509E7-546B-4519-845F-AF5DC77392B9}"/>
+    <hyperlink ref="J60" r:id="rId212" display="http://www.linkedin.com/in/mayuri-popat-213852b1" xr:uid="{336D4B2F-0BBF-4ADA-8647-F20659482547}"/>
+    <hyperlink ref="J55" r:id="rId213" display="http://www.linkedin.com/in/madhavajwalia" xr:uid="{8DE9B663-AD20-42DB-A7F0-4FD167AD95E8}"/>
+    <hyperlink ref="J115" r:id="rId214" display="https://www.linkedin.com/in/vipul-vyas-19214bab/" xr:uid="{00F74D28-7144-4D8C-9870-393AE49126D5}"/>
+    <hyperlink ref="J31" r:id="rId215" display="http://www.linkedin.com/in/dipalkumar-patel-4b97997" xr:uid="{CFB485EB-93AC-436E-BD76-13F13D42FA00}"/>
+    <hyperlink ref="J76" r:id="rId216" display="https://www.linkedin.com/in/nishat-shaikh-b7446019a/" xr:uid="{45535606-CAE7-44BB-B1C5-622D742D5E66}"/>
+    <hyperlink ref="J16" r:id="rId217" display="https://www.linkedin.com/in/avani-khokhariya/" xr:uid="{F2664F6A-73CC-4DAD-982B-E296BD77DF0A}"/>
+    <hyperlink ref="J82" r:id="rId218" xr:uid="{2C60818F-B78B-4EC2-9BA4-C7D88C933280}"/>
+    <hyperlink ref="J25" r:id="rId219" display="https://www.linkedin.com/in/dhara-s-032a6a24/" xr:uid="{4FE7FF63-A73E-4E09-94C4-E2CD5FE6F81D}"/>
+    <hyperlink ref="K72" r:id="rId220" xr:uid="{E7CCB95C-4D9A-474B-9296-0EE719EC4AB3}"/>
+    <hyperlink ref="K92" r:id="rId221" xr:uid="{92D21BA9-793A-4610-9A6A-641322C6CC28}"/>
+    <hyperlink ref="K106" r:id="rId222" xr:uid="{2E05A515-7245-4DDB-9E9C-D041E881E2BF}"/>
+    <hyperlink ref="K86" r:id="rId223" xr:uid="{8C1C3B99-0196-4695-95EB-EEFEEA76042B}"/>
+    <hyperlink ref="K67" r:id="rId224" xr:uid="{4C2AA447-E23D-4BD3-8516-CF8A69E7C676}"/>
+    <hyperlink ref="K90" r:id="rId225" xr:uid="{68D88C01-9035-44B0-9EAE-4AE7236572CC}"/>
+    <hyperlink ref="K98" r:id="rId226" xr:uid="{B89BB500-5F1B-4985-B0B7-D69D9B22538C}"/>
+    <hyperlink ref="K27" r:id="rId227" xr:uid="{461288D1-54CE-41D7-ACBC-4EB753D35618}"/>
+    <hyperlink ref="K64" r:id="rId228" display="https://sites.google.com/a/charusat.ac.in/mihir-bhatt-ee/home/about-me?pli=1" xr:uid="{DD66FE1D-24F8-42A6-8DDC-651F08933CB6}"/>
+    <hyperlink ref="K45" r:id="rId229" xr:uid="{185428FC-1CEB-406E-A327-B537B63CC062}"/>
+    <hyperlink ref="K105" r:id="rId230" xr:uid="{6E3402FB-A293-4394-A12F-C9CE90A43581}"/>
+    <hyperlink ref="K94" r:id="rId231" display="https://sites.google.com/view/ronak-patel/" xr:uid="{30BB4B45-BE3C-4B51-8751-F1166793B9D8}"/>
+    <hyperlink ref="K87" r:id="rId232" display="https://sites.google.com/a/charusat.ac.in/priyanka-patel/about-me" xr:uid="{2F80CF65-0198-4866-9245-0932E2D2E991}"/>
+    <hyperlink ref="K11" r:id="rId233" xr:uid="{B7911887-1D4E-4149-9255-34290DE15C67}"/>
+    <hyperlink ref="K93" r:id="rId234" xr:uid="{CC19190B-EF5A-4030-970E-47B4649A66EC}"/>
+    <hyperlink ref="K79" r:id="rId235" display="http://learnwithparth.in/" xr:uid="{0D098BA1-951E-49B0-BA34-5489DFACFB69}"/>
+    <hyperlink ref="K60" r:id="rId236" display="https://sites.google.com/charusat.ac.in/mayuri-popat/home/academic-experience?authuser=0" xr:uid="{CD111632-8632-4F99-808E-7B0BA423BCF0}"/>
+    <hyperlink ref="K25" r:id="rId237" display="http://https/www.simpldhara.github.io" xr:uid="{1B0FEF49-7DD4-45B9-B1E6-577EDB068225}"/>
+    <hyperlink ref="K4" r:id="rId238" xr:uid="{A55ED677-5A40-43B5-A2E0-3934032012FA}"/>
+    <hyperlink ref="I12" r:id="rId239" xr:uid="{559F5BE6-A98D-4918-9ADE-3B5DB2AC1B24}"/>
+    <hyperlink ref="I13" r:id="rId240" xr:uid="{B5B2A2F7-DD9E-4163-AECE-07D5742E906D}"/>
+    <hyperlink ref="I49" r:id="rId241" xr:uid="{2DF8A589-77D3-487D-9871-F11C086009D1}"/>
+    <hyperlink ref="I82" r:id="rId242" xr:uid="{4F6BB86B-ECFA-4396-9D2B-715AF4C8A22C}"/>
+    <hyperlink ref="I50" r:id="rId243" xr:uid="{C80EDEE3-BA73-444F-89E4-2007846DC254}"/>
+    <hyperlink ref="I90" r:id="rId244" xr:uid="{E27523F8-498C-4ABD-8999-7C5FE36E5CA5}"/>
+    <hyperlink ref="L72" r:id="rId245" xr:uid="{948CADBD-38FA-4A43-B789-35C5FE176C3F}"/>
+    <hyperlink ref="L3" r:id="rId246" xr:uid="{F46A9101-D683-4CCF-9110-8584476B2BA9}"/>
+    <hyperlink ref="L83" r:id="rId247" xr:uid="{6E19F5D8-BA05-4C24-BFED-0131679AE1A3}"/>
+    <hyperlink ref="L57" r:id="rId248" xr:uid="{15D92DD2-9C84-4024-BCB0-89C6EAD615FB}"/>
+    <hyperlink ref="L18" r:id="rId249" xr:uid="{E24865B7-0C5D-46C6-8B52-CB38271DBD7E}"/>
+    <hyperlink ref="L49" r:id="rId250" xr:uid="{4D2C143E-EFF2-43ED-8C1B-94D7326ABF76}"/>
+    <hyperlink ref="L92" r:id="rId251" xr:uid="{22687922-AA0C-441B-A3FA-FB8732C6A78E}"/>
+    <hyperlink ref="L106" r:id="rId252" display="https://scholar.google.com/citations?user=Gzsxo-oAAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{FF9B096B-7991-46C3-B06A-152491BA6C90}"/>
+    <hyperlink ref="L68" r:id="rId253" xr:uid="{690AB285-269F-47C4-BA46-90F767A79CC1}"/>
+    <hyperlink ref="L91" r:id="rId254" xr:uid="{9AF26C9F-30B4-4DAE-A809-C138362FFD00}"/>
+    <hyperlink ref="L95" r:id="rId255" xr:uid="{8D4A0E6E-AA77-4CD4-AA54-DEC95D5CF09E}"/>
+    <hyperlink ref="L50" r:id="rId256" xr:uid="{A64FDC24-6D97-4969-AC20-BF200CE32B3A}"/>
+    <hyperlink ref="L19" r:id="rId257" xr:uid="{2DF7625D-5BDC-4383-BFF5-27331B9E27C1}"/>
+    <hyperlink ref="L71" r:id="rId258" display="https://scholar.google.co.in/citations?user=9PPA-6oAAAAJ&amp;hl=en" xr:uid="{38968AA0-46FD-46B0-84CD-C755BCC30A99}"/>
+    <hyperlink ref="L23" r:id="rId259" xr:uid="{4FF8802A-1D76-4C6B-91B4-17C781B102D6}"/>
+    <hyperlink ref="L52" r:id="rId260" xr:uid="{8365015A-789A-4D2C-9684-352B6CC70A5E}"/>
+    <hyperlink ref="L86" r:id="rId261" xr:uid="{BD03203D-E2A2-453C-8DB9-B1F0B5A13124}"/>
+    <hyperlink ref="L36" r:id="rId262" display="https://scholar.google.com/citations?user=ay8-QY0AAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{CEA8B045-C60C-4ADA-9F10-8B980373388F}"/>
+    <hyperlink ref="L14" r:id="rId263" display="https://scholar.google.com/citations?user=TCsNw-YAAAAJ&amp;hl=en" xr:uid="{D0B58B70-976E-4FD0-A498-4FE5480744DA}"/>
+    <hyperlink ref="L17" r:id="rId264" xr:uid="{19EAA634-8BE7-4A2F-8B30-8A424E254965}"/>
+    <hyperlink ref="L29" r:id="rId265" xr:uid="{3D65CD0F-C15B-4E98-9324-C36FAB47EBC4}"/>
+    <hyperlink ref="L67" r:id="rId266" xr:uid="{264FF3AA-8D89-41E4-9DA6-521BD58711A9}"/>
+    <hyperlink ref="L32" r:id="rId267" display="https://www.bing.com/ck/a?!&amp;&amp;p=6a7ac5a017a1300aJmltdHM9MTcyOTQ2ODgwMCZpZ3VpZD0wMDExMmIyNS1kMzQ5LTY3MTItMmE4My0zZTA1ZDI1NjY2MWEmaW5zaWQ9NTE5NQ&amp;ptn=3&amp;ver=2&amp;hsh=3&amp;fclid=00112b25-d349-6712-2a83-3e05d256661a&amp;psq=google+scholer+gajanan+patange&amp;u=a1aHR0cHM6Ly9zY2hvbGFyLmdvb2dsZS5wbC9jaXRhdGlvbnM_dXNlcj1fRDRISUhjQUFBQUomaGw9ZW4&amp;ntb=1" xr:uid="{275A790E-9657-41D9-B9F2-78D3822C4310}"/>
+    <hyperlink ref="L9" r:id="rId268" xr:uid="{758E6349-E050-42DF-B5C3-FBA97B821030}"/>
+    <hyperlink ref="L114" r:id="rId269" xr:uid="{9ACD46AD-FE8F-41CE-9823-5DC65F691D5B}"/>
+    <hyperlink ref="L4" r:id="rId270" xr:uid="{9B291D90-C0E1-493C-9E5E-17CAF2B7D2F2}"/>
+    <hyperlink ref="L12" r:id="rId271" xr:uid="{8C6729CD-380A-483D-A997-7DBCBA390939}"/>
+    <hyperlink ref="L101" r:id="rId272" xr:uid="{C07AED6D-34B0-40AA-B65E-C9BFB9F1574D}"/>
+    <hyperlink ref="L38" r:id="rId273" display="https://scholar.google.com/citations?user=6d-aVTEAAAAJ&amp;hl=en" xr:uid="{EBC010F8-7D12-4DC1-9FDA-49EFC51EFF71}"/>
+    <hyperlink ref="L21" r:id="rId274" xr:uid="{0DDB7A07-865A-4AD7-986A-DE5D031FFBD0}"/>
+    <hyperlink ref="L28" r:id="rId275" xr:uid="{E6ABE8A4-4EFC-489A-B104-3BCC2E998A7B}"/>
+    <hyperlink ref="L97" r:id="rId276" xr:uid="{ABDCFD31-BA21-4022-B6C1-EDDD441956ED}"/>
+    <hyperlink ref="L6" r:id="rId277" xr:uid="{591DF322-16B2-4785-A83C-3147BF3D09D2}"/>
+    <hyperlink ref="L70" r:id="rId278" xr:uid="{BB403419-C3FE-440B-B0A2-AF35C3C2E8E3}"/>
+    <hyperlink ref="L22" r:id="rId279" xr:uid="{A227399F-9975-4976-9597-2D3E6151DCB8}"/>
+    <hyperlink ref="L39" r:id="rId280" xr:uid="{535A1FEE-65AB-4486-BF0D-ADD9A3382AFB}"/>
+    <hyperlink ref="L42" r:id="rId281" display="https://scholar.google.com/citations?hl=en&amp;user=geQ-r_QAAAAJ" xr:uid="{36509863-135E-43CA-B732-4C0DEFDDC2FC}"/>
+    <hyperlink ref="L102" r:id="rId282" xr:uid="{7F8D3F89-D92D-4081-B489-E387250A10BD}"/>
+    <hyperlink ref="L24" r:id="rId283" xr:uid="{B4A03D8A-649C-469B-B24A-E9F9B481D48B}"/>
+    <hyperlink ref="L26" r:id="rId284" xr:uid="{D3034C74-7237-42E2-A6B8-CD4BA8BBBF41}"/>
+    <hyperlink ref="L90" r:id="rId285" xr:uid="{53AE3D77-EDB3-413A-8D8F-16969CBE8103}"/>
+    <hyperlink ref="L98" r:id="rId286" xr:uid="{76D99C50-072C-40D7-BDEB-328FCCB109D9}"/>
+    <hyperlink ref="L53" r:id="rId287" xr:uid="{CD634DA2-F1A0-45FA-A86C-61D935383D2E}"/>
+    <hyperlink ref="L81" r:id="rId288" xr:uid="{F6874B5E-545B-4745-A546-56B6FD5105E9}"/>
+    <hyperlink ref="L111" r:id="rId289" xr:uid="{C22F05F4-D13D-45A5-A5B0-3237064F3209}"/>
+    <hyperlink ref="L27" r:id="rId290" xr:uid="{32CD251C-92CC-42C2-865F-89BE3026727C}"/>
+    <hyperlink ref="L54" r:id="rId291" xr:uid="{287D782E-D3CC-498E-B117-EBE696C4D447}"/>
+    <hyperlink ref="L41" r:id="rId292" xr:uid="{B241D450-267C-40BF-9C45-8957239BDD86}"/>
+    <hyperlink ref="L62" r:id="rId293" xr:uid="{AA7AD692-35BE-48A4-AF46-1B6413916E3B}"/>
+    <hyperlink ref="L48" r:id="rId294" display="https://scholar.google.co.in/citations?user=EdcH-Y0AAAAJ&amp;hl=en" xr:uid="{CE335172-93AC-45C2-9068-7C9C19F220C4}"/>
+    <hyperlink ref="L10" r:id="rId295" xr:uid="{A33E4A1F-E63E-4F7D-9DC5-3C5AB6E82811}"/>
+    <hyperlink ref="L51" r:id="rId296" xr:uid="{027764B5-CA65-453C-BFB6-EE555AA7BF1B}"/>
+    <hyperlink ref="L61" r:id="rId297" xr:uid="{E2F70942-EACF-4A90-B18A-A80CB466AAE7}"/>
+    <hyperlink ref="L65" r:id="rId298" xr:uid="{5645BFE0-C2D6-4EED-AFCB-0EF806CC91E9}"/>
+    <hyperlink ref="L34" r:id="rId299" xr:uid="{EE598F68-E624-44F6-B4DD-8299C007487F}"/>
+    <hyperlink ref="L75" r:id="rId300" display="https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=-9-RhBoAAAAJ" xr:uid="{E935D410-8781-42B6-B609-E835354DEBBB}"/>
+    <hyperlink ref="L5" r:id="rId301" display="https://scholar.google.co.in/citations?user=cVv-kdYAAAAJ&amp;hl=en" xr:uid="{746C1EFC-2FA9-49B1-AFB8-1C7FCA47096B}"/>
+    <hyperlink ref="L20" r:id="rId302" display="https://scholar.google.com/citations?user=dHkQ5D4AAAAJ&amp;hl=en" xr:uid="{25860FE4-2E75-42A8-BFFE-3AA02DEED40F}"/>
+    <hyperlink ref="L43" r:id="rId303" xr:uid="{5A9FF0C8-1A53-40E2-BF07-8AE47CB6B984}"/>
+    <hyperlink ref="L109" r:id="rId304" xr:uid="{5C89C29F-A386-4BBA-9788-4CB223E1744F}"/>
+    <hyperlink ref="L46" r:id="rId305" xr:uid="{63EFEA34-4397-48CB-B385-33D61D726E20}"/>
+    <hyperlink ref="L64" r:id="rId306" xr:uid="{0A4BFD56-8B2D-444E-8903-49F5DC5883A4}"/>
+    <hyperlink ref="L96" r:id="rId307" display="https://scholar.google.com/citations?hl=en&amp;user=utk-ZT0AAAAJ" xr:uid="{501E8FB4-1DC4-4EBD-A3BE-50F19352C1F0}"/>
+    <hyperlink ref="L84" r:id="rId308" xr:uid="{37E9CEEB-DC2C-46A2-BCF4-5A9521147A39}"/>
+    <hyperlink ref="L40" r:id="rId309" xr:uid="{EEF5DC34-1243-4468-B6B1-D9059ADE8AB0}"/>
+    <hyperlink ref="L110" r:id="rId310" display="https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;hl=en&amp;user=HDdsZFsAAAAJ&amp;scilu=&amp;scisig=AJY4_hMAAAAAZxidz75RZUbVraeNHOVGYgbAfP0&amp;gmla=ALUCkoUwv9xfR7EENoQtBn_aiKaqTyzZ1X2kORl9--L4aBw5WcKwjoDCVXVaogYeCbraaig0PTa5IzrpT_DyD12Vlt-ODcDk1Nt3fM0&amp;sciund=7577126703303180020" xr:uid="{197DCE6B-BB53-49E3-9D84-78838F524694}"/>
+    <hyperlink ref="L59" r:id="rId311" xr:uid="{B559F61A-BA8D-4A15-AF94-270FD8E6EE0D}"/>
+    <hyperlink ref="L99" r:id="rId312" xr:uid="{BDF263A7-4F8B-46B8-BBE8-705BBF9DE738}"/>
+    <hyperlink ref="L13" r:id="rId313" xr:uid="{7649604F-C033-4670-9F95-0C2C5AC47C84}"/>
+    <hyperlink ref="L45" r:id="rId314" xr:uid="{035221F3-6BA9-41F1-A09D-0FD648704591}"/>
+    <hyperlink ref="L105" r:id="rId315" xr:uid="{1CDECF45-D107-4A0E-A561-5D783437E97C}"/>
+    <hyperlink ref="L103" r:id="rId316" xr:uid="{B653EAA6-C485-435F-854D-438BD267A19D}"/>
+    <hyperlink ref="L94" r:id="rId317" xr:uid="{BAF6ABB2-16F7-4B7A-8AC8-F52F94951E56}"/>
+    <hyperlink ref="L15" r:id="rId318" xr:uid="{F38927F1-EEEB-453A-8636-E6644582D973}"/>
+    <hyperlink ref="L56" r:id="rId319" xr:uid="{9E4C99F0-F427-4B73-88C1-9DDF17D8ABDE}"/>
+    <hyperlink ref="L47" r:id="rId320" xr:uid="{4048416A-0F5D-4582-8A3D-08AFC13874F9}"/>
+    <hyperlink ref="L104" r:id="rId321" xr:uid="{8400FD3C-B4D9-436A-8179-88B2F74CE3F2}"/>
+    <hyperlink ref="L44" r:id="rId322" xr:uid="{201F5259-DE23-43B6-A300-CE6428FFA5ED}"/>
+    <hyperlink ref="L89" r:id="rId323" xr:uid="{31420B66-56AB-4794-90CA-5F5AFEE32FDC}"/>
+    <hyperlink ref="L87" r:id="rId324" xr:uid="{C4F50DBC-0BFE-4509-9E86-8433559B0E5F}"/>
+    <hyperlink ref="L63" r:id="rId325" xr:uid="{90FCCA59-114D-4A5C-9409-D7A92B5C554D}"/>
+    <hyperlink ref="L37" r:id="rId326" xr:uid="{86700D43-54F6-409C-AA74-11A10CF95742}"/>
+    <hyperlink ref="L66" r:id="rId327" xr:uid="{C018FF9B-EED7-4A65-95FA-780ACBBA2D7E}"/>
+    <hyperlink ref="L107" r:id="rId328" xr:uid="{60A89811-803F-44C1-9C4C-03400FFC3370}"/>
+    <hyperlink ref="L58" r:id="rId329" display="https://scholar.google.com/citations?user=D-wd8QgAAAAJ&amp;hl=en" xr:uid="{FEE2843B-8463-42EA-93D3-8C0055A27E1B}"/>
+    <hyperlink ref="L73" r:id="rId330" xr:uid="{D89F1643-F631-4232-BD92-A17AB43537BB}"/>
+    <hyperlink ref="L2" r:id="rId331" xr:uid="{FA588FCD-5B5F-455C-A8F1-363E48BF4B34}"/>
+    <hyperlink ref="L11" r:id="rId332" xr:uid="{75F0D2F4-DBF8-4BC0-81C8-E510EB404F91}"/>
+    <hyperlink ref="L93" r:id="rId333" xr:uid="{4B1641D3-9830-41C6-9804-FD4F1CAA246E}"/>
+    <hyperlink ref="L116" r:id="rId334" xr:uid="{187B270B-DD03-4B4E-A0EC-FA089BBBF941}"/>
+    <hyperlink ref="L79" r:id="rId335" xr:uid="{09000797-9862-4D17-81A3-8BF615CB0D28}"/>
+    <hyperlink ref="L33" r:id="rId336" xr:uid="{30E40F4D-0941-4C35-B988-415178726C05}"/>
+    <hyperlink ref="L100" r:id="rId337" xr:uid="{2A5203BE-43E1-47B8-B2C4-1CC37588A5AB}"/>
+    <hyperlink ref="L88" r:id="rId338" xr:uid="{570C26B0-6EF3-40AB-BBA0-06474B8C9E9F}"/>
+    <hyperlink ref="L30" r:id="rId339" xr:uid="{8315B941-53AD-4CC4-8A93-715BF028D5D6}"/>
+    <hyperlink ref="L85" r:id="rId340" xr:uid="{A11BA51D-FBB4-444E-9239-AD5CA8BDA6AA}"/>
+    <hyperlink ref="L108" r:id="rId341" xr:uid="{BD6653EC-2D4F-4519-B739-A572013209E8}"/>
+    <hyperlink ref="L60" r:id="rId342" xr:uid="{FCDEB08A-0CA4-4598-B598-28FC8001225C}"/>
+    <hyperlink ref="L55" r:id="rId343" xr:uid="{21317881-56A9-411E-B0E0-953DFEB53FB5}"/>
+    <hyperlink ref="L115" r:id="rId344" xr:uid="{2C2ECFF6-DA6C-4C65-B48D-83C8B953A10F}"/>
+    <hyperlink ref="L7" r:id="rId345" xr:uid="{AC52BE48-B1BC-4E71-B6C1-88AF068D6F7B}"/>
+    <hyperlink ref="L31" r:id="rId346" xr:uid="{7701D08D-592D-4F08-8A1D-722D9125A481}"/>
+    <hyperlink ref="L76" r:id="rId347" xr:uid="{08A9DD36-F049-430E-ACEE-0254B9EB019D}"/>
+    <hyperlink ref="L82" r:id="rId348" xr:uid="{69BD5E03-494B-42BC-B711-BD56B50C14BD}"/>
+    <hyperlink ref="L8" r:id="rId349" display="https://scholar.google.com/citations?user=49QO52oAAAAJ&amp;hl=en&amp;citsig=ADIE8snLeq6YPks1Pa9NqbNhY8-8" xr:uid="{597E11F7-5E1F-4746-9B2D-F0B3CE2DAADD}"/>
+    <hyperlink ref="M72" r:id="rId350" display="https://vidwan.inflibnet.ac.in/profile/161243/MTYxMjQz" xr:uid="{377E489A-5F66-4D39-9D16-5A09C06888BF}"/>
+    <hyperlink ref="M3" r:id="rId351" xr:uid="{969CA3F3-003E-45D0-B448-786C1B45A99B}"/>
+    <hyperlink ref="M83" r:id="rId352" xr:uid="{FCF270CA-7E29-44DE-9B34-531A560121D2}"/>
+    <hyperlink ref="M57" r:id="rId353" xr:uid="{27A56F3E-3B7A-497C-B419-6D4EB0B36DFE}"/>
+    <hyperlink ref="M18" r:id="rId354" xr:uid="{A8B03D72-4F58-488B-AA71-6FE545C4F974}"/>
+    <hyperlink ref="M49" r:id="rId355" xr:uid="{46B27430-2CB4-4571-B683-C90BDB1A869A}"/>
+    <hyperlink ref="M92" r:id="rId356" xr:uid="{B3372949-44D6-47D3-93F5-F231A1194C2D}"/>
+    <hyperlink ref="M106" r:id="rId357" xr:uid="{BD564D33-09CC-4E3F-8665-C7CC006586D4}"/>
+    <hyperlink ref="M68" r:id="rId358" xr:uid="{46D7BE4E-C50A-4838-A0D5-A66608E30FB1}"/>
+    <hyperlink ref="M91" r:id="rId359" xr:uid="{49346F82-88CD-458B-9055-E1D237495067}"/>
+    <hyperlink ref="M95" r:id="rId360" xr:uid="{275EA512-D486-4AA6-B9C6-EDFD8EB5E681}"/>
+    <hyperlink ref="M50" r:id="rId361" xr:uid="{F1370FFD-2A24-4E0D-842E-D15A59048874}"/>
+    <hyperlink ref="M19" r:id="rId362" xr:uid="{B079BDCE-9644-48D8-ADB9-55246D89BB3B}"/>
+    <hyperlink ref="M71" r:id="rId363" xr:uid="{21DA9F6E-42F2-4C08-8BCC-45E0F47AC02F}"/>
+    <hyperlink ref="M23" r:id="rId364" display="https://vidwan.inflibnet.ac.in/profile/162290/MTYyMjkw" xr:uid="{C5101B56-8150-4439-9561-ADE65CCB8626}"/>
+    <hyperlink ref="M78" r:id="rId365" xr:uid="{FA23B353-3F9D-46B1-82DA-820AA4FBE86D}"/>
+    <hyperlink ref="M86" r:id="rId366" xr:uid="{680496D4-6792-4688-B37B-3D2836A2CBB1}"/>
+    <hyperlink ref="M36" r:id="rId367" xr:uid="{C295F105-2491-4119-851F-B09A35F5D83B}"/>
+    <hyperlink ref="M14" r:id="rId368" xr:uid="{C6A42F1F-C70B-482C-BAF5-08E29835556D}"/>
+    <hyperlink ref="M80" r:id="rId369" xr:uid="{D12744D8-8D17-44EF-A69E-A1A202FA6698}"/>
+    <hyperlink ref="M17" r:id="rId370" xr:uid="{026E65A7-E47E-491B-A07D-37EBD353FD4E}"/>
+    <hyperlink ref="M35" r:id="rId371" xr:uid="{5D0B8227-026E-47C4-897D-D449D1EA7349}"/>
+    <hyperlink ref="M29" r:id="rId372" xr:uid="{02E7C489-97EB-4764-B304-885B559F8C0E}"/>
+    <hyperlink ref="M67" r:id="rId373" xr:uid="{7BCC998C-8FF9-4866-BDE0-4E618132491D}"/>
+    <hyperlink ref="M9" r:id="rId374" xr:uid="{91B9619A-0474-417B-A83E-F1ACC0AF0CEC}"/>
+    <hyperlink ref="M114" r:id="rId375" xr:uid="{9DC7345F-59EF-46AB-AFF8-A485034FCFB5}"/>
+    <hyperlink ref="M4" r:id="rId376" xr:uid="{C24F8B1B-E131-406E-8B92-980981B7F2F8}"/>
+    <hyperlink ref="M12" r:id="rId377" xr:uid="{BBE0AFF3-0C87-45BA-B244-2EBD516259AE}"/>
+    <hyperlink ref="M101" r:id="rId378" xr:uid="{36A3294C-FBE9-4AE5-B367-A4F7EB299507}"/>
+    <hyperlink ref="M38" r:id="rId379" xr:uid="{CC9655FE-1EDD-46F8-BE5B-9E92C5013680}"/>
+    <hyperlink ref="M21" r:id="rId380" xr:uid="{47BBD086-2D33-4012-A8B6-B4A4E0F676C3}"/>
+    <hyperlink ref="M28" r:id="rId381" xr:uid="{D9812B9F-31E0-4DAD-8A1E-6460EF4BE795}"/>
+    <hyperlink ref="M97" r:id="rId382" xr:uid="{194FE3FD-0EF9-46C4-B769-B4AAF95E0018}"/>
+    <hyperlink ref="M6" r:id="rId383" xr:uid="{3C597F50-A6C7-4686-85A0-F6E6694F57E3}"/>
+    <hyperlink ref="M70" r:id="rId384" xr:uid="{A87D811B-910D-45F2-BF34-A478CD7D8B09}"/>
+    <hyperlink ref="M22" r:id="rId385" xr:uid="{686F19E9-9FDF-4E88-8243-D809ABB3FE79}"/>
+    <hyperlink ref="M42" r:id="rId386" xr:uid="{FB2FC638-1D01-4122-BA7D-9717BC8B2EF3}"/>
+    <hyperlink ref="M102" r:id="rId387" xr:uid="{F0E56AD7-3828-45B1-A3E4-95B4E7B7495F}"/>
+    <hyperlink ref="M24" r:id="rId388" xr:uid="{5E6A27FA-6F1B-4920-AF3A-0018DC331E36}"/>
+    <hyperlink ref="M26" r:id="rId389" xr:uid="{758E2E1D-BBB4-4F0B-A1FA-EB3E5DE2D156}"/>
+    <hyperlink ref="M90" r:id="rId390" xr:uid="{1C320BD2-5251-44A7-81C2-D89E208736CC}"/>
+    <hyperlink ref="M98" r:id="rId391" xr:uid="{4BF3D2D2-9743-494B-A7D1-9EEF7423F2B3}"/>
+    <hyperlink ref="M53" r:id="rId392" xr:uid="{642FC8EF-95E5-4804-8108-73A9ADB45FBB}"/>
+    <hyperlink ref="M81" r:id="rId393" xr:uid="{6069906B-85A1-4520-B697-E8420F4D518A}"/>
+    <hyperlink ref="M111" r:id="rId394" xr:uid="{45C10A27-1AD3-4A6F-966C-946B5F9ECB83}"/>
+    <hyperlink ref="M27" r:id="rId395" xr:uid="{F2CE36A5-3E73-43DE-A91D-5D1E2781384A}"/>
+    <hyperlink ref="M54" r:id="rId396" xr:uid="{6815F862-B01A-4FF2-B310-DDE65D78FBDB}"/>
+    <hyperlink ref="M41" r:id="rId397" xr:uid="{2167CAC5-42F7-48BE-A140-282801D50406}"/>
+    <hyperlink ref="M112" r:id="rId398" xr:uid="{2D0BE123-EDFD-4091-BCF0-204188FF3B30}"/>
+    <hyperlink ref="M62" r:id="rId399" xr:uid="{7A45E352-1CCC-4E30-B5C0-2C2507845C07}"/>
+    <hyperlink ref="M48" r:id="rId400" xr:uid="{D69AB844-8B39-4156-9897-B02CB20CA4D5}"/>
+    <hyperlink ref="M10" r:id="rId401" xr:uid="{04F1C981-8348-4D72-8A69-A692D3062D64}"/>
+    <hyperlink ref="M51" r:id="rId402" xr:uid="{65DE02F5-B84D-45D0-9DC1-F7808BDFD38D}"/>
+    <hyperlink ref="M61" r:id="rId403" xr:uid="{C49314E6-1B8D-41D3-8824-C6AE59F00DDA}"/>
+    <hyperlink ref="M65" r:id="rId404" xr:uid="{22CCAF6F-639B-4091-91C4-0D9E09A79A31}"/>
+    <hyperlink ref="M34" r:id="rId405" xr:uid="{9E6DCF4C-EA31-4D9D-AE0D-50C83C0347DE}"/>
+    <hyperlink ref="M75" r:id="rId406" xr:uid="{D71D3644-6845-46C5-83D7-DA2B52AF5733}"/>
+    <hyperlink ref="M5" r:id="rId407" xr:uid="{7687E521-D8FB-41F5-A5E6-AE953D92E830}"/>
+    <hyperlink ref="M20" r:id="rId408" xr:uid="{4DDDF623-882B-481C-A6D6-41041F349837}"/>
+    <hyperlink ref="M43" r:id="rId409" xr:uid="{52C3C99B-42C3-444C-A194-78CDBDAFC9CB}"/>
+    <hyperlink ref="M109" r:id="rId410" display="https://vidwan.inflibnet.ac.in/profile/161344" xr:uid="{FE2BA8E6-DD6C-4A10-91F1-326AA51E88D5}"/>
+    <hyperlink ref="M46" r:id="rId411" xr:uid="{2FFD071F-CF1A-4200-989A-978DBA72FD44}"/>
+    <hyperlink ref="M64" r:id="rId412" xr:uid="{E4C6C757-CD64-47C7-8F12-6CE6B9FFD60C}"/>
+    <hyperlink ref="M96" r:id="rId413" xr:uid="{722D10A1-25FB-4CE7-9F0B-C75508E442CE}"/>
+    <hyperlink ref="M84" r:id="rId414" xr:uid="{32A836FB-CB40-470F-B02E-7B6392FD539D}"/>
+    <hyperlink ref="M40" r:id="rId415" location="other_information_panel" display="https://vidwan.inflibnet.ac.in/myprofile - other_information_panel" xr:uid="{FE644920-561A-44DA-A700-34ED8EB7963F}"/>
+    <hyperlink ref="M110" r:id="rId416" xr:uid="{2C076003-CA45-4492-A114-A44CC1E60BF2}"/>
+    <hyperlink ref="M59" r:id="rId417" xr:uid="{BC2FF260-09A4-4D46-81FB-823835AD57DA}"/>
+    <hyperlink ref="M99" r:id="rId418" xr:uid="{B2860DA1-1C8E-403D-9E1C-CE3896F91BFD}"/>
+    <hyperlink ref="M13" r:id="rId419" xr:uid="{2DE04985-AB3C-4D4B-BCEE-EF8C728199F4}"/>
+    <hyperlink ref="M45" r:id="rId420" xr:uid="{546046AA-45E7-4EDD-81FB-A6648B9BB595}"/>
+    <hyperlink ref="M105" r:id="rId421" xr:uid="{7330EFFC-2F12-4EFE-BF25-3D30861E8775}"/>
+    <hyperlink ref="M94" r:id="rId422" xr:uid="{4F8D1CF8-D215-443F-8914-E091AFB2DBAE}"/>
+    <hyperlink ref="M15" r:id="rId423" xr:uid="{4CD74FA1-A139-4BCD-9CB7-1D7091E614B9}"/>
+    <hyperlink ref="M56" r:id="rId424" xr:uid="{EAABDC46-8B1B-482C-B7D7-E6E7C16FB647}"/>
+    <hyperlink ref="M104" r:id="rId425" xr:uid="{ACDF2E56-83C7-477F-A573-2B4112936AD3}"/>
+    <hyperlink ref="M44" r:id="rId426" xr:uid="{B502A1CE-A61F-4999-A855-F6ECA908B905}"/>
+    <hyperlink ref="M89" r:id="rId427" xr:uid="{EF82DFB8-BEB4-47BB-B28B-AF5A4CDD6891}"/>
+    <hyperlink ref="M74" r:id="rId428" xr:uid="{6D71EE52-86C9-4EE0-A55D-7B9652B864FF}"/>
+    <hyperlink ref="M87" r:id="rId429" xr:uid="{C073950A-A28A-4ED8-B9C1-BD3B160FAEF3}"/>
+    <hyperlink ref="M63" r:id="rId430" xr:uid="{958C1C19-9C17-41E8-ADC4-BAB91255F382}"/>
+    <hyperlink ref="M37" r:id="rId431" xr:uid="{0CC98B27-C0DC-4F81-A868-5BC7C0784B50}"/>
+    <hyperlink ref="M66" r:id="rId432" xr:uid="{B86191A1-65D6-4540-845F-518E32A64FBF}"/>
+    <hyperlink ref="M107" r:id="rId433" xr:uid="{47889514-AB9C-4B04-95A5-1CCA3A0DFCA8}"/>
+    <hyperlink ref="M58" r:id="rId434" xr:uid="{36AE2A42-0E80-4A5F-8FB0-4EAB2AEA8C36}"/>
+    <hyperlink ref="M69" r:id="rId435" xr:uid="{7FE7C886-2B29-491F-8C86-5526A33F7121}"/>
+    <hyperlink ref="M73" r:id="rId436" xr:uid="{FDFB0EA9-AD4D-43E9-BEF9-C60B9531C82F}"/>
+    <hyperlink ref="M2" r:id="rId437" xr:uid="{251C34E0-B509-4755-B850-FDEB3B770405}"/>
+    <hyperlink ref="M11" r:id="rId438" xr:uid="{3203A1D8-1572-4E08-ADEF-54F74525E87A}"/>
+    <hyperlink ref="M93" r:id="rId439" xr:uid="{28CD01ED-234C-4911-A047-12722FE76C1F}"/>
+    <hyperlink ref="M116" r:id="rId440" xr:uid="{82D93DAC-CF9F-4D41-B8C8-5AE08EA58BAA}"/>
+    <hyperlink ref="M79" r:id="rId441" xr:uid="{68120C28-52E3-4EC9-9F3E-EB5A3578A3BD}"/>
+    <hyperlink ref="M33" r:id="rId442" display="https://vidwan.inflibnet.ac.in/profile/161755-" xr:uid="{B87FE430-1CFA-4F98-A7E4-77FBF96BA37F}"/>
+    <hyperlink ref="M100" r:id="rId443" xr:uid="{649E7EFF-CC71-476F-9A81-1581EC34CD48}"/>
+    <hyperlink ref="M88" r:id="rId444" xr:uid="{1C9375D7-8EF5-40A1-914C-C5A7CD3188FB}"/>
+    <hyperlink ref="M85" r:id="rId445" xr:uid="{66509B53-066F-4635-85A6-6E99D5FE0B3E}"/>
+    <hyperlink ref="M108" r:id="rId446" xr:uid="{775D1521-4736-4C73-BB71-31FD5AD1E561}"/>
+    <hyperlink ref="M60" r:id="rId447" xr:uid="{A128A132-518A-476D-BCF8-6D3638CE18D6}"/>
+    <hyperlink ref="M55" r:id="rId448" xr:uid="{A1AFE28A-9643-4A4A-95E8-53E1C4380AAE}"/>
+    <hyperlink ref="M115" r:id="rId449" xr:uid="{6A1A9D4D-97FF-42A2-B2EA-85F3F7E515C2}"/>
+    <hyperlink ref="M7" r:id="rId450" xr:uid="{BA494279-5FA7-4467-ACAA-FFA1824DB9F7}"/>
+    <hyperlink ref="M31" r:id="rId451" xr:uid="{43BBD922-4BE8-457C-9F25-7684B0D6F35B}"/>
+    <hyperlink ref="M76" r:id="rId452" xr:uid="{C2281EE1-00E4-42D3-875C-3C9C699518DB}"/>
+    <hyperlink ref="M82" r:id="rId453" xr:uid="{3C1D1058-7762-4D63-9FB9-41A44D4AB1F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4518248c6cd0c0d5/Desktop/CSPIT_NEW_2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motat\OneDrive\Desktop\CSPIT_NEW_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{248929BC-7291-4CA9-AAA2-270484AC0911}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{824CD104-2C42-49F2-84A9-CFBAE0AE906F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA929819-038D-47B9-A817-034C94EAE295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1008">
   <si>
     <t>Name</t>
   </si>
@@ -1841,54 +1841,27 @@
     <t>https://vidwan.inflibnet.ac.in/profile/161331</t>
   </si>
   <si>
-    <t>https://placehold.co/400x600</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x601</t>
   </si>
   <si>
-    <t>https://placehold.co/400x602</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x603</t>
   </si>
   <si>
-    <t>https://placehold.co/400x604</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x605</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x606</t>
   </si>
   <si>
     <t>https://placehold.co/400x607</t>
   </si>
   <si>
-    <t>https://placehold.co/400x608</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x609</t>
   </si>
   <si>
-    <t>https://placehold.co/400x610</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x611</t>
   </si>
   <si>
-    <t>https://placehold.co/400x612</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x613</t>
   </si>
   <si>
-    <t>https://placehold.co/400x614</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x615</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x616</t>
   </si>
   <si>
@@ -1898,81 +1871,30 @@
     <t>https://placehold.co/400x618</t>
   </si>
   <si>
-    <t>https://placehold.co/400x619</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x620</t>
   </si>
   <si>
-    <t>https://placehold.co/400x621</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x622</t>
   </si>
   <si>
-    <t>https://placehold.co/400x623</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x624</t>
   </si>
   <si>
-    <t>https://placehold.co/400x625</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x626</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x627</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x628</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x629</t>
   </si>
   <si>
     <t>https://placehold.co/400x630</t>
   </si>
   <si>
-    <t>https://placehold.co/400x631</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x632</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x633</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x634</t>
   </si>
   <si>
     <t>https://placehold.co/400x635</t>
   </si>
   <si>
-    <t>https://placehold.co/400x636</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x637</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x638</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x639</t>
   </si>
   <si>
-    <t>https://placehold.co/400x640</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x641</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x642</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x643</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x644</t>
   </si>
   <si>
@@ -1991,9 +1913,6 @@
     <t>https://placehold.co/400x649</t>
   </si>
   <si>
-    <t>https://placehold.co/400x650</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x651</t>
   </si>
   <si>
@@ -2009,24 +1928,9 @@
     <t>https://placehold.co/400x655</t>
   </si>
   <si>
-    <t>https://placehold.co/400x656</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x657</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x658</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x659</t>
   </si>
   <si>
-    <t>https://placehold.co/400x660</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x661</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x662</t>
   </si>
   <si>
@@ -2039,48 +1943,15 @@
     <t>https://placehold.co/400x665</t>
   </si>
   <si>
-    <t>https://placehold.co/400x666</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x667</t>
   </si>
   <si>
-    <t>https://placehold.co/400x668</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x669</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x670</t>
   </si>
   <si>
-    <t>https://placehold.co/400x671</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x672</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x673</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x674</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x675</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x676</t>
   </si>
   <si>
-    <t>https://placehold.co/400x677</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x678</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x679</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x680</t>
   </si>
   <si>
@@ -2096,9 +1967,6 @@
     <t>https://placehold.co/400x684</t>
   </si>
   <si>
-    <t>https://placehold.co/400x685</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x686</t>
   </si>
   <si>
@@ -2111,18 +1979,9 @@
     <t>https://placehold.co/400x689</t>
   </si>
   <si>
-    <t>https://placehold.co/400x690</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x691</t>
   </si>
   <si>
-    <t>https://placehold.co/400x692</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x693</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x694</t>
   </si>
   <si>
@@ -2138,15 +1997,6 @@
     <t>https://placehold.co/400x698</t>
   </si>
   <si>
-    <t>https://placehold.co/400x699</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x700</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x701</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x702</t>
   </si>
   <si>
@@ -2159,28 +2009,13 @@
     <t>https://placehold.co/400x705</t>
   </si>
   <si>
-    <t>https://placehold.co/400x706</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x707</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x708</t>
   </si>
   <si>
-    <t>https://placehold.co/400x709</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x710</t>
   </si>
   <si>
-    <t>https://placehold.co/400x711</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x712</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x713</t>
   </si>
   <si>
     <t>https://placehold.co/400x714</t>
@@ -3226,6 +3061,168 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/aneri-pandya-550687141/</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\AIML\BHARGAV.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\AIML\DHEERAJ.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\AIML\GAURANG.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\AIML\GAURAV.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\AIML\JALPA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\AIML\MAULIK.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\AIML\NIRAV.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\AIML\NISHANT.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\AIML\NIYATI.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\IT\NISHAT.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\IT\PARTH.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\IT\PAVITRA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\IT\PRIYANKA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\AIML\SPOORTHY.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\AAYUSHI.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\IT\ANERI.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\ARPITA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\ASHWINKUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\DEEPKUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\DHAVALKUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\IT\DHAVALKUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\KRUNALKUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\MARTIN.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\MRUGENDRASINH.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\NIKITABEN.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\RIKITA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\RONAKKUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\RONAKKUMAR_ RAJNIKANT.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\SNEHA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\VAISHALI.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Civil\GARGI.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Civil\HEMANGI.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Civil\JAY.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\IT\JALPESH.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Civil\MEGHA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Civil\MEHULKUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Civil\NEHA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Civil\NIRPEX.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Civil\PINAL.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Civil\VIJAYKUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Civil\VIPUL.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CSE\ABHISHEK.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CSE\AKSHITA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CSE\AMIT.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CSE\AVANI.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CSE\BRINDA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CSE\DHARA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CSE\DHARMENDRASINH.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CSE\HARSHUL.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CSE\HEMANG.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CSE\JIGAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CSE\SRUSHTI.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CSE\VAIBHAVI.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CSE\VIDISHA.webp</t>
   </si>
 </sst>
 </file>
@@ -3456,10 +3453,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3727,8 +3720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C68" workbookViewId="0">
-      <selection activeCell="J69" sqref="J69"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3761,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>999</v>
+        <v>944</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -3779,16 +3772,16 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>806</v>
+        <v>751</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>919</v>
+        <v>864</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>112</v>
       </c>
@@ -3802,7 +3795,7 @@
         <v>229</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>562</v>
+        <v>968</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>357</v>
@@ -3817,13 +3810,13 @@
         <v>253</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>1002</v>
+        <v>947</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>807</v>
+        <v>752</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>470</v>
@@ -3846,7 +3839,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>358</v>
@@ -3861,19 +3854,19 @@
         <v>255</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>1003</v>
+        <v>948</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>808</v>
+        <v>753</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>471</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>962</v>
+        <v>907</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -3884,13 +3877,13 @@
         <v>223</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>788</v>
+        <v>733</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>564</v>
+        <v>995</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>359</v>
@@ -3905,13 +3898,13 @@
         <v>254</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>1004</v>
+        <v>949</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>765</v>
+        <v>710</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>809</v>
+        <v>754</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>472</v>
@@ -3934,7 +3927,7 @@
         <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>360</v>
@@ -3949,13 +3942,13 @@
         <v>256</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>1001</v>
+        <v>946</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>810</v>
+        <v>755</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>473</v>
@@ -3978,7 +3971,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>566</v>
+        <v>996</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>361</v>
@@ -3993,13 +3986,13 @@
         <v>257</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>1000</v>
+        <v>945</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>811</v>
+        <v>756</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>474</v>
@@ -4022,7 +4015,7 @@
         <v>230</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>567</v>
+        <v>997</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>362</v>
@@ -4037,19 +4030,19 @@
         <v>259</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>1005</v>
+        <v>950</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>812</v>
+        <v>757</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>475</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>963</v>
+        <v>908</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -4066,7 +4059,7 @@
         <v>231</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>363</v>
@@ -4081,13 +4074,13 @@
         <v>258</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>1006</v>
+        <v>951</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>813</v>
+        <v>758</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>110</v>
@@ -4104,13 +4097,13 @@
         <v>223</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>789</v>
+        <v>734</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>364</v>
@@ -4125,19 +4118,19 @@
         <v>260</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>1007</v>
+        <v>952</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>814</v>
+        <v>759</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>476</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>964</v>
+        <v>909</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -4154,7 +4147,7 @@
         <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>570</v>
+        <v>969</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>365</v>
@@ -4169,13 +4162,13 @@
         <v>261</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>1008</v>
+        <v>953</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>815</v>
+        <v>760</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>477</v>
@@ -4192,16 +4185,16 @@
         <v>223</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>788</v>
+        <v>733</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>232</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>927</v>
+        <v>872</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>110</v>
@@ -4216,10 +4209,10 @@
         <v>104</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>766</v>
+        <v>711</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>816</v>
+        <v>761</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>477</v>
@@ -4242,7 +4235,7 @@
         <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>572</v>
+        <v>970</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>366</v>
@@ -4251,25 +4244,25 @@
         <v>110</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>937</v>
+        <v>882</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>798</v>
+        <v>743</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>677</v>
+        <v>622</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>817</v>
+        <v>762</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>478</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>965</v>
+        <v>910</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
@@ -4286,7 +4279,7 @@
         <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>367</v>
@@ -4298,7 +4291,7 @@
         <v>462</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>799</v>
+        <v>744</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>104</v>
@@ -4307,13 +4300,13 @@
         <v>110</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>818</v>
+        <v>763</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>477</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>966</v>
+        <v>911</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
@@ -4330,7 +4323,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>574</v>
+        <v>971</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>368</v>
@@ -4339,25 +4332,25 @@
         <v>110</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>938</v>
+        <v>883</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>263</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>678</v>
+        <v>623</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>819</v>
+        <v>764</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>479</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>967</v>
+        <v>912</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -4368,13 +4361,13 @@
         <v>223</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>369</v>
@@ -4389,13 +4382,13 @@
         <v>264</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>679</v>
+        <v>624</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>820</v>
+        <v>765</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>480</v>
@@ -4418,7 +4411,7 @@
         <v>233</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>576</v>
+        <v>998</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>370</v>
@@ -4433,7 +4426,7 @@
         <v>265</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>680</v>
+        <v>625</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>110</v>
@@ -4456,22 +4449,22 @@
         <v>223</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>577</v>
+        <v>954</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>928</v>
+        <v>873</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>110</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>939</v>
+        <v>884</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>110</v>
@@ -4483,13 +4476,13 @@
         <v>110</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>821</v>
+        <v>766</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>481</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>968</v>
+        <v>913</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
@@ -4506,7 +4499,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>371</v>
@@ -4521,19 +4514,19 @@
         <v>266</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>681</v>
+        <v>626</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>822</v>
+        <v>767</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>482</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>969</v>
+        <v>914</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -4550,7 +4543,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>579</v>
+        <v>570</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>372</v>
@@ -4565,19 +4558,19 @@
         <v>267</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>682</v>
+        <v>627</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>823</v>
+        <v>768</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>483</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>970</v>
+        <v>915</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -4594,7 +4587,7 @@
         <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>373</v>
@@ -4609,13 +4602,13 @@
         <v>268</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>683</v>
+        <v>628</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>824</v>
+        <v>769</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>477</v>
@@ -4638,7 +4631,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>581</v>
+        <v>999</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>374</v>
@@ -4653,13 +4646,13 @@
         <v>269</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>684</v>
+        <v>629</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>825</v>
+        <v>770</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>484</v>
@@ -4682,10 +4675,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>929</v>
+        <v>874</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>110</v>
@@ -4703,7 +4696,7 @@
         <v>110</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>826</v>
+        <v>771</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>485</v>
@@ -4726,7 +4719,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>583</v>
+        <v>972</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>375</v>
@@ -4741,19 +4734,19 @@
         <v>271</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>685</v>
+        <v>630</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>827</v>
+        <v>772</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>486</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>971</v>
+        <v>916</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="211.2" x14ac:dyDescent="0.3">
@@ -4764,13 +4757,13 @@
         <v>223</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>376</v>
@@ -4785,13 +4778,13 @@
         <v>272</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>686</v>
+        <v>631</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>828</v>
+        <v>773</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>487</v>
@@ -4814,7 +4807,7 @@
         <v>234</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>585</v>
+        <v>1000</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>377</v>
@@ -4826,22 +4819,22 @@
         <v>110</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>800</v>
+        <v>745</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>687</v>
+        <v>632</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>767</v>
+        <v>712</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>829</v>
+        <v>774</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>110</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>972</v>
+        <v>917</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -4858,7 +4851,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>378</v>
@@ -4867,19 +4860,19 @@
         <v>110</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>940</v>
+        <v>885</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>273</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>688</v>
+        <v>633</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>768</v>
+        <v>713</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>830</v>
+        <v>775</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>488</v>
@@ -4896,13 +4889,13 @@
         <v>223</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>788</v>
+        <v>733</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>587</v>
+        <v>1001</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>379</v>
@@ -4917,19 +4910,19 @@
         <v>274</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>689</v>
+        <v>634</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>769</v>
+        <v>714</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>831</v>
+        <v>776</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>489</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>973</v>
+        <v>918</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -4946,7 +4939,7 @@
         <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>588</v>
+        <v>973</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>380</v>
@@ -4958,22 +4951,22 @@
         <v>110</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>801</v>
+        <v>746</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>690</v>
+        <v>635</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>832</v>
+        <v>777</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>478</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>974</v>
+        <v>919</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
@@ -4984,13 +4977,13 @@
         <v>223</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>589</v>
+        <v>974</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>381</v>
@@ -5002,16 +4995,16 @@
         <v>110</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>802</v>
+        <v>747</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>691</v>
+        <v>636</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>833</v>
+        <v>778</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>490</v>
@@ -5034,7 +5027,7 @@
         <v>235</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>590</v>
+        <v>955</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>382</v>
@@ -5049,13 +5042,13 @@
         <v>275</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>692</v>
+        <v>637</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>834</v>
+        <v>779</v>
       </c>
       <c r="M30" s="17">
         <v>583944</v>
@@ -5078,7 +5071,7 @@
         <v>236</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>591</v>
+        <v>575</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>383</v>
@@ -5087,19 +5080,19 @@
         <v>110</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>941</v>
+        <v>886</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>276</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>693</v>
+        <v>638</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>835</v>
+        <v>780</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>491</v>
@@ -5122,7 +5115,7 @@
         <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>384</v>
@@ -5137,16 +5130,16 @@
         <v>277</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>694</v>
+        <v>639</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>836</v>
+        <v>781</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>916</v>
+        <v>861</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>110</v>
@@ -5166,7 +5159,7 @@
         <v>237</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>593</v>
+        <v>984</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>385</v>
@@ -5181,19 +5174,19 @@
         <v>278</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>695</v>
+        <v>640</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>837</v>
+        <v>782</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>917</v>
+        <v>862</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>975</v>
+        <v>920</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -5210,7 +5203,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>594</v>
+        <v>956</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>386</v>
@@ -5219,19 +5212,19 @@
         <v>110</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>942</v>
+        <v>887</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>279</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>696</v>
+        <v>641</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>838</v>
+        <v>783</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>492</v>
@@ -5254,7 +5247,7 @@
         <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>595</v>
+        <v>957</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>387</v>
@@ -5269,7 +5262,7 @@
         <v>280</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>697</v>
+        <v>642</v>
       </c>
       <c r="K35" s="14" t="s">
         <v>110</v>
@@ -5295,10 +5288,10 @@
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>920</v>
+        <v>865</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>596</v>
+        <v>577</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>388</v>
@@ -5313,19 +5306,19 @@
         <v>281</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>698</v>
+        <v>643</v>
       </c>
       <c r="K36" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>839</v>
+        <v>784</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>494</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>976</v>
+        <v>921</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -5342,7 +5335,7 @@
         <v>98</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>597</v>
+        <v>578</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>389</v>
@@ -5357,13 +5350,13 @@
         <v>282</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>699</v>
+        <v>644</v>
       </c>
       <c r="K37" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>840</v>
+        <v>785</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>495</v>
@@ -5380,16 +5373,16 @@
         <v>223</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>788</v>
+        <v>733</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>598</v>
+        <v>1002</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>930</v>
+        <v>875</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>110</v>
@@ -5401,13 +5394,13 @@
         <v>283</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>700</v>
+        <v>645</v>
       </c>
       <c r="K38" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>841</v>
+        <v>786</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>496</v>
@@ -5424,13 +5417,13 @@
         <v>223</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>788</v>
+        <v>733</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>599</v>
+        <v>1003</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>390</v>
@@ -5445,13 +5438,13 @@
         <v>284</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>701</v>
+        <v>646</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>842</v>
+        <v>787</v>
       </c>
       <c r="M39" s="10" t="s">
         <v>110</v>
@@ -5474,7 +5467,7 @@
         <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>600</v>
+        <v>985</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>391</v>
@@ -5489,13 +5482,13 @@
         <v>110</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>702</v>
+        <v>647</v>
       </c>
       <c r="K40" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>843</v>
+        <v>788</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>497</v>
@@ -5512,13 +5505,13 @@
         <v>223</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>788</v>
+        <v>733</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>601</v>
+        <v>579</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>392</v>
@@ -5527,19 +5520,19 @@
         <v>110</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>943</v>
+        <v>888</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>285</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>703</v>
+        <v>648</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>844</v>
+        <v>789</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>498</v>
@@ -5562,7 +5555,7 @@
         <v>52</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>602</v>
+        <v>958</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>393</v>
@@ -5577,13 +5570,13 @@
         <v>286</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>704</v>
+        <v>649</v>
       </c>
       <c r="K42" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>845</v>
+        <v>790</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>499</v>
@@ -5600,13 +5593,13 @@
         <v>223</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>788</v>
+        <v>733</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>603</v>
+        <v>987</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>394</v>
@@ -5621,19 +5614,19 @@
         <v>287</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>705</v>
+        <v>650</v>
       </c>
       <c r="K43" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>846</v>
+        <v>791</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>500</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>977</v>
+        <v>922</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
@@ -5650,7 +5643,7 @@
         <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>604</v>
+        <v>986</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>395</v>
@@ -5665,13 +5658,13 @@
         <v>288</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>706</v>
+        <v>651</v>
       </c>
       <c r="K44" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>847</v>
+        <v>792</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>501</v>
@@ -5694,7 +5687,7 @@
         <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>605</v>
+        <v>1004</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>396</v>
@@ -5709,13 +5702,13 @@
         <v>289</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>707</v>
+        <v>652</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>770</v>
+        <v>715</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>848</v>
+        <v>793</v>
       </c>
       <c r="M45" s="9" t="s">
         <v>502</v>
@@ -5732,13 +5725,13 @@
         <v>223</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>791</v>
+        <v>736</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>606</v>
+        <v>580</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>397</v>
@@ -5759,7 +5752,7 @@
         <v>110</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>849</v>
+        <v>794</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>503</v>
@@ -5782,7 +5775,7 @@
         <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>607</v>
+        <v>581</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>398</v>
@@ -5797,13 +5790,13 @@
         <v>291</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>708</v>
+        <v>653</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>850</v>
+        <v>795</v>
       </c>
       <c r="M47" s="10" t="s">
         <v>110</v>
@@ -5826,7 +5819,7 @@
         <v>66</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>608</v>
+        <v>582</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>399</v>
@@ -5847,7 +5840,7 @@
         <v>110</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>851</v>
+        <v>796</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>477</v>
@@ -5870,7 +5863,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>609</v>
+        <v>583</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>400</v>
@@ -5882,22 +5875,22 @@
         <v>110</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>803</v>
+        <v>748</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>709</v>
+        <v>654</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>771</v>
+        <v>716</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>852</v>
+        <v>797</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>504</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>978</v>
+        <v>923</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
@@ -5914,7 +5907,7 @@
         <v>26</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>401</v>
@@ -5923,25 +5916,25 @@
         <v>110</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>944</v>
+        <v>889</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>293</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>710</v>
+        <v>655</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>853</v>
+        <v>798</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>505</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>979</v>
+        <v>924</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
@@ -5955,10 +5948,10 @@
         <v>5</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>921</v>
+        <v>866</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>611</v>
+        <v>585</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>402</v>
@@ -5967,7 +5960,7 @@
         <v>110</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>945</v>
+        <v>890</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>294</v>
@@ -5979,7 +5972,7 @@
         <v>110</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>854</v>
+        <v>799</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>477</v>
@@ -6002,7 +5995,7 @@
         <v>30</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>612</v>
+        <v>975</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>403</v>
@@ -6017,13 +6010,13 @@
         <v>295</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>711</v>
+        <v>656</v>
       </c>
       <c r="K52" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>855</v>
+        <v>800</v>
       </c>
       <c r="M52" s="10" t="s">
         <v>110</v>
@@ -6046,7 +6039,7 @@
         <v>58</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>613</v>
+        <v>586</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>404</v>
@@ -6061,13 +6054,13 @@
         <v>296</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>712</v>
+        <v>657</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>856</v>
+        <v>801</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>506</v>
@@ -6090,7 +6083,7 @@
         <v>62</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>614</v>
+        <v>587</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>405</v>
@@ -6099,19 +6092,19 @@
         <v>110</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>946</v>
+        <v>891</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>298</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>713</v>
+        <v>658</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>857</v>
+        <v>802</v>
       </c>
       <c r="M54" s="9" t="s">
         <v>507</v>
@@ -6128,13 +6121,13 @@
         <v>223</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>238</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>615</v>
+        <v>588</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>406</v>
@@ -6143,7 +6136,7 @@
         <v>110</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>947</v>
+        <v>892</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>297</v>
@@ -6155,13 +6148,13 @@
         <v>110</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>858</v>
+        <v>803</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>508</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>980</v>
+        <v>925</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
@@ -6172,16 +6165,16 @@
         <v>223</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>791</v>
+        <v>736</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>616</v>
+        <v>589</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>931</v>
+        <v>876</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>110</v>
@@ -6199,7 +6192,7 @@
         <v>110</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>859</v>
+        <v>804</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>509</v>
@@ -6219,10 +6212,10 @@
         <v>5</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>922</v>
+        <v>867</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>617</v>
+        <v>590</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>407</v>
@@ -6231,25 +6224,25 @@
         <v>110</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>948</v>
+        <v>893</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>300</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>714</v>
+        <v>659</v>
       </c>
       <c r="K57" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>860</v>
+        <v>805</v>
       </c>
       <c r="M57" s="9" t="s">
         <v>510</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>981</v>
+        <v>926</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -6266,7 +6259,7 @@
         <v>239</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>618</v>
+        <v>976</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>408</v>
@@ -6275,19 +6268,19 @@
         <v>110</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>949</v>
+        <v>894</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>301</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>715</v>
+        <v>660</v>
       </c>
       <c r="K58" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>861</v>
+        <v>806</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>511</v>
@@ -6304,13 +6297,13 @@
         <v>223</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>789</v>
+        <v>734</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>619</v>
+        <v>959</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>409</v>
@@ -6319,19 +6312,19 @@
         <v>110</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>950</v>
+        <v>895</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>302</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>716</v>
+        <v>661</v>
       </c>
       <c r="K59" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>862</v>
+        <v>807</v>
       </c>
       <c r="M59" s="9" t="s">
         <v>512</v>
@@ -6354,7 +6347,7 @@
         <v>240</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>620</v>
+        <v>959</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>410</v>
@@ -6369,19 +6362,19 @@
         <v>303</v>
       </c>
       <c r="J60" s="9" t="s">
+        <v>662</v>
+      </c>
+      <c r="K60" s="9" t="s">
         <v>717</v>
       </c>
-      <c r="K60" s="9" t="s">
-        <v>772</v>
-      </c>
       <c r="L60" s="9" t="s">
-        <v>863</v>
+        <v>808</v>
       </c>
       <c r="M60" s="9" t="s">
         <v>513</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>982</v>
+        <v>927</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
@@ -6398,28 +6391,28 @@
         <v>68</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>621</v>
+        <v>591</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>932</v>
+        <v>877</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>110</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>951</v>
+        <v>896</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>304</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>718</v>
+        <v>663</v>
       </c>
       <c r="K61" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>864</v>
+        <v>809</v>
       </c>
       <c r="M61" s="9" t="s">
         <v>514</v>
@@ -6436,13 +6429,13 @@
         <v>223</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>622</v>
+        <v>988</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>411</v>
@@ -6463,7 +6456,7 @@
         <v>110</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>865</v>
+        <v>810</v>
       </c>
       <c r="M62" s="9" t="s">
         <v>515</v>
@@ -6483,10 +6476,10 @@
         <v>4</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>923</v>
+        <v>868</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>623</v>
+        <v>989</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>412</v>
@@ -6501,13 +6494,13 @@
         <v>306</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>719</v>
+        <v>664</v>
       </c>
       <c r="K63" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>866</v>
+        <v>811</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>516</v>
@@ -6530,7 +6523,7 @@
         <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>413</v>
@@ -6545,19 +6538,19 @@
         <v>307</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>720</v>
+        <v>665</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>773</v>
+        <v>718</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>867</v>
+        <v>812</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>477</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>974</v>
+        <v>919</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
@@ -6568,13 +6561,13 @@
         <v>223</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>792</v>
+        <v>737</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>414</v>
@@ -6583,19 +6576,19 @@
         <v>110</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>952</v>
+        <v>897</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>308</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>721</v>
+        <v>666</v>
       </c>
       <c r="K65" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>868</v>
+        <v>813</v>
       </c>
       <c r="M65" s="9" t="s">
         <v>517</v>
@@ -6618,7 +6611,7 @@
         <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>415</v>
@@ -6633,19 +6626,19 @@
         <v>309</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>722</v>
+        <v>667</v>
       </c>
       <c r="K66" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>869</v>
+        <v>814</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>518</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>983</v>
+        <v>928</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="277.2" x14ac:dyDescent="0.3">
@@ -6662,7 +6655,7 @@
         <v>38</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>416</v>
@@ -6671,19 +6664,19 @@
         <v>110</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>953</v>
+        <v>898</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>310</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>723</v>
+        <v>668</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>774</v>
+        <v>719</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>870</v>
+        <v>815</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>519</v>
@@ -6706,7 +6699,7 @@
         <v>23</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>628</v>
+        <v>977</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>417</v>
@@ -6721,13 +6714,13 @@
         <v>311</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>724</v>
+        <v>669</v>
       </c>
       <c r="K68" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>871</v>
+        <v>816</v>
       </c>
       <c r="M68" s="9" t="s">
         <v>520</v>
@@ -6750,7 +6743,7 @@
         <v>241</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>629</v>
+        <v>596</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>418</v>
@@ -6765,7 +6758,7 @@
         <v>312</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>725</v>
+        <v>670</v>
       </c>
       <c r="K69" s="14" t="s">
         <v>110</v>
@@ -6794,10 +6787,10 @@
         <v>49</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>630</v>
+        <v>990</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>933</v>
+        <v>878</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>110</v>
@@ -6809,19 +6802,19 @@
         <v>313</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>726</v>
+        <v>671</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>872</v>
+        <v>817</v>
       </c>
       <c r="M70" s="9" t="s">
         <v>521</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>984</v>
+        <v>929</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -6835,10 +6828,10 @@
         <v>5</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>924</v>
+        <v>869</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>631</v>
+        <v>978</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>419</v>
@@ -6853,13 +6846,13 @@
         <v>314</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>727</v>
+        <v>672</v>
       </c>
       <c r="K71" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>873</v>
+        <v>818</v>
       </c>
       <c r="M71" s="9" t="s">
         <v>522</v>
@@ -6882,7 +6875,7 @@
         <v>16</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>632</v>
+        <v>597</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>420</v>
@@ -6891,19 +6884,19 @@
         <v>110</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>954</v>
+        <v>899</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>315</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>728</v>
+        <v>673</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>775</v>
+        <v>720</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>874</v>
+        <v>819</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>523</v>
@@ -6926,7 +6919,7 @@
         <v>242</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>633</v>
+        <v>960</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>421</v>
@@ -6935,25 +6928,25 @@
         <v>110</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>955</v>
+        <v>900</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>316</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>729</v>
+        <v>674</v>
       </c>
       <c r="K73" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>875</v>
+        <v>820</v>
       </c>
       <c r="M73" s="9" t="s">
         <v>524</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>985</v>
+        <v>930</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
@@ -6970,10 +6963,10 @@
         <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>634</v>
+        <v>991</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>934</v>
+        <v>879</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>110</v>
@@ -6985,19 +6978,19 @@
         <v>317</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>730</v>
+        <v>675</v>
       </c>
       <c r="K74" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>876</v>
+        <v>821</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>525</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>981</v>
+        <v>926</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -7014,7 +7007,7 @@
         <v>71</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>635</v>
+        <v>961</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>422</v>
@@ -7029,13 +7022,13 @@
         <v>318</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>731</v>
+        <v>676</v>
       </c>
       <c r="K75" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>877</v>
+        <v>822</v>
       </c>
       <c r="M75" s="9" t="s">
         <v>477</v>
@@ -7058,7 +7051,7 @@
         <v>243</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>636</v>
+        <v>963</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>423</v>
@@ -7073,19 +7066,19 @@
         <v>319</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>732</v>
+        <v>677</v>
       </c>
       <c r="K76" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>878</v>
+        <v>823</v>
       </c>
       <c r="M76" s="9" t="s">
         <v>526</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>986</v>
+        <v>931</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -7102,7 +7095,7 @@
         <v>37</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>637</v>
+        <v>962</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>424</v>
@@ -7117,7 +7110,7 @@
         <v>320</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>733</v>
+        <v>678</v>
       </c>
       <c r="K77" s="14" t="s">
         <v>110</v>
@@ -7140,13 +7133,13 @@
         <v>223</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>638</v>
+        <v>598</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>425</v>
@@ -7161,7 +7154,7 @@
         <v>321</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>734</v>
+        <v>679</v>
       </c>
       <c r="K78" s="10" t="s">
         <v>110</v>
@@ -7187,10 +7180,10 @@
         <v>5</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>925</v>
+        <v>870</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>639</v>
+        <v>964</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>426</v>
@@ -7205,13 +7198,13 @@
         <v>322</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>735</v>
+        <v>680</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>776</v>
+        <v>721</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>879</v>
+        <v>824</v>
       </c>
       <c r="M79" s="9" t="s">
         <v>528</v>
@@ -7234,7 +7227,7 @@
         <v>33</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>640</v>
+        <v>965</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>427</v>
@@ -7272,16 +7265,16 @@
         <v>223</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>641</v>
+        <v>992</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>935</v>
+        <v>880</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>110</v>
@@ -7299,13 +7292,13 @@
         <v>110</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>880</v>
+        <v>825</v>
       </c>
       <c r="M81" s="9" t="s">
         <v>530</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>987</v>
+        <v>932</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -7316,13 +7309,13 @@
         <v>223</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>793</v>
+        <v>738</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>244</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>642</v>
+        <v>599</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>428</v>
@@ -7343,7 +7336,7 @@
         <v>110</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>881</v>
+        <v>826</v>
       </c>
       <c r="M82" s="9" t="s">
         <v>531</v>
@@ -7366,7 +7359,7 @@
         <v>18</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>643</v>
+        <v>600</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>429</v>
@@ -7381,13 +7374,13 @@
         <v>326</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>736</v>
+        <v>681</v>
       </c>
       <c r="K83" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>882</v>
+        <v>827</v>
       </c>
       <c r="M83" s="9" t="s">
         <v>532</v>
@@ -7404,13 +7397,13 @@
         <v>223</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>644</v>
+        <v>601</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>430</v>
@@ -7425,13 +7418,13 @@
         <v>327</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>737</v>
+        <v>682</v>
       </c>
       <c r="K84" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>883</v>
+        <v>828</v>
       </c>
       <c r="M84" s="9" t="s">
         <v>533</v>
@@ -7454,7 +7447,7 @@
         <v>245</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>645</v>
+        <v>602</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>431</v>
@@ -7469,13 +7462,13 @@
         <v>110</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>738</v>
+        <v>683</v>
       </c>
       <c r="K85" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>884</v>
+        <v>829</v>
       </c>
       <c r="M85" s="9" t="s">
         <v>534</v>
@@ -7498,7 +7491,7 @@
         <v>31</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>646</v>
+        <v>603</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>432</v>
@@ -7516,16 +7509,16 @@
         <v>101</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>777</v>
+        <v>722</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>885</v>
+        <v>830</v>
       </c>
       <c r="M86" s="9" t="s">
         <v>535</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>988</v>
+        <v>933</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -7542,7 +7535,7 @@
         <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>647</v>
+        <v>966</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>433</v>
@@ -7551,25 +7544,25 @@
         <v>110</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>956</v>
+        <v>901</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>329</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>739</v>
+        <v>684</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>778</v>
+        <v>723</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>886</v>
+        <v>831</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>918</v>
+        <v>863</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>989</v>
+        <v>934</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -7580,13 +7573,13 @@
         <v>223</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>246</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>648</v>
+        <v>604</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>434</v>
@@ -7607,7 +7600,7 @@
         <v>110</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>887</v>
+        <v>832</v>
       </c>
       <c r="M88" s="9" t="s">
         <v>536</v>
@@ -7630,7 +7623,7 @@
         <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>649</v>
+        <v>605</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>435</v>
@@ -7645,13 +7638,13 @@
         <v>331</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>740</v>
+        <v>685</v>
       </c>
       <c r="K89" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>888</v>
+        <v>833</v>
       </c>
       <c r="M89" s="9" t="s">
         <v>537</v>
@@ -7674,7 +7667,7 @@
         <v>56</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>650</v>
+        <v>606</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>436</v>
@@ -7686,22 +7679,22 @@
         <v>110</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>804</v>
+        <v>749</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>741</v>
+        <v>686</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>779</v>
+        <v>724</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>889</v>
+        <v>834</v>
       </c>
       <c r="M90" s="9" t="s">
         <v>538</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>990</v>
+        <v>935</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -7718,7 +7711,7 @@
         <v>24</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>651</v>
+        <v>607</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>437</v>
@@ -7727,19 +7720,19 @@
         <v>110</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>957</v>
+        <v>902</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>332</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>742</v>
+        <v>687</v>
       </c>
       <c r="K91" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>890</v>
+        <v>835</v>
       </c>
       <c r="M91" s="9" t="s">
         <v>539</v>
@@ -7762,7 +7755,7 @@
         <v>21</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>652</v>
+        <v>979</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>438</v>
@@ -7777,13 +7770,13 @@
         <v>333</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>743</v>
+        <v>688</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>780</v>
+        <v>725</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>891</v>
+        <v>836</v>
       </c>
       <c r="M92" s="9" t="s">
         <v>540</v>
@@ -7806,7 +7799,7 @@
         <v>247</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>653</v>
+        <v>608</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>439</v>
@@ -7815,25 +7808,25 @@
         <v>110</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>958</v>
+        <v>903</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>334</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>744</v>
+        <v>689</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>781</v>
+        <v>726</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>892</v>
+        <v>837</v>
       </c>
       <c r="M93" s="9" t="s">
         <v>541</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>991</v>
+        <v>936</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
@@ -7850,7 +7843,7 @@
         <v>89</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>654</v>
+        <v>980</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>440</v>
@@ -7868,10 +7861,10 @@
         <v>108</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>782</v>
+        <v>727</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>893</v>
+        <v>838</v>
       </c>
       <c r="M94" s="9" t="s">
         <v>542</v>
@@ -7894,7 +7887,7 @@
         <v>25</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>655</v>
+        <v>981</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>441</v>
@@ -7909,19 +7902,19 @@
         <v>336</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>745</v>
+        <v>690</v>
       </c>
       <c r="K95" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>894</v>
+        <v>839</v>
       </c>
       <c r="M95" s="9" t="s">
         <v>543</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>992</v>
+        <v>937</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -7938,7 +7931,7 @@
         <v>79</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>656</v>
+        <v>609</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>442</v>
@@ -7947,25 +7940,25 @@
         <v>110</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>959</v>
+        <v>904</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>337</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>746</v>
+        <v>691</v>
       </c>
       <c r="K96" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>895</v>
+        <v>840</v>
       </c>
       <c r="M96" s="9" t="s">
         <v>544</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>993</v>
+        <v>938</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -7982,7 +7975,7 @@
         <v>47</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>657</v>
+        <v>610</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>443</v>
@@ -7991,25 +7984,25 @@
         <v>110</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>960</v>
+        <v>905</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>338</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>747</v>
+        <v>692</v>
       </c>
       <c r="K97" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>896</v>
+        <v>841</v>
       </c>
       <c r="M97" s="9" t="s">
         <v>545</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>981</v>
+        <v>926</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -8026,7 +8019,7 @@
         <v>57</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>658</v>
+        <v>611</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>444</v>
@@ -8041,19 +8034,19 @@
         <v>339</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>748</v>
+        <v>693</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>783</v>
+        <v>728</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>897</v>
+        <v>842</v>
       </c>
       <c r="M98" s="9" t="s">
         <v>546</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>994</v>
+        <v>939</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -8064,13 +8057,13 @@
         <v>223</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>659</v>
+        <v>612</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>445</v>
@@ -8091,7 +8084,7 @@
         <v>110</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>898</v>
+        <v>843</v>
       </c>
       <c r="M99" s="9" t="s">
         <v>547</v>
@@ -8108,13 +8101,13 @@
         <v>223</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>248</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>660</v>
+        <v>613</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>446</v>
@@ -8129,13 +8122,13 @@
         <v>341</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>749</v>
+        <v>694</v>
       </c>
       <c r="K100" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>899</v>
+        <v>844</v>
       </c>
       <c r="M100" s="9" t="s">
         <v>548</v>
@@ -8158,7 +8151,7 @@
         <v>43</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>661</v>
+        <v>982</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>447</v>
@@ -8173,13 +8166,13 @@
         <v>342</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>750</v>
+        <v>695</v>
       </c>
       <c r="K101" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>900</v>
+        <v>845</v>
       </c>
       <c r="M101" s="9" t="s">
         <v>549</v>
@@ -8196,13 +8189,13 @@
         <v>223</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>794</v>
+        <v>739</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>662</v>
+        <v>967</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>448</v>
@@ -8217,13 +8210,13 @@
         <v>343</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>751</v>
+        <v>696</v>
       </c>
       <c r="K102" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>901</v>
+        <v>846</v>
       </c>
       <c r="M102" s="9" t="s">
         <v>550</v>
@@ -8246,7 +8239,7 @@
         <v>88</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>663</v>
+        <v>1005</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>449</v>
@@ -8261,13 +8254,13 @@
         <v>344</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>752</v>
+        <v>697</v>
       </c>
       <c r="K103" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>902</v>
+        <v>847</v>
       </c>
       <c r="M103" s="10" t="s">
         <v>110</v>
@@ -8284,13 +8277,13 @@
         <v>223</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>795</v>
+        <v>740</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>664</v>
+        <v>614</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>450</v>
@@ -8305,13 +8298,13 @@
         <v>110</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>753</v>
+        <v>698</v>
       </c>
       <c r="K104" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>903</v>
+        <v>848</v>
       </c>
       <c r="M104" s="9" t="s">
         <v>551</v>
@@ -8328,13 +8321,13 @@
         <v>223</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>87</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>665</v>
+        <v>615</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>451</v>
@@ -8349,13 +8342,13 @@
         <v>345</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>754</v>
+        <v>699</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>784</v>
+        <v>729</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>904</v>
+        <v>849</v>
       </c>
       <c r="M105" s="9" t="s">
         <v>552</v>
@@ -8378,7 +8371,7 @@
         <v>22</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>666</v>
+        <v>616</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>452</v>
@@ -8396,10 +8389,10 @@
         <v>100</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>785</v>
+        <v>730</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>905</v>
+        <v>850</v>
       </c>
       <c r="M106" s="9" t="s">
         <v>553</v>
@@ -8422,7 +8415,7 @@
         <v>249</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>667</v>
+        <v>617</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>453</v>
@@ -8437,19 +8430,19 @@
         <v>347</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>755</v>
+        <v>700</v>
       </c>
       <c r="K107" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>906</v>
+        <v>851</v>
       </c>
       <c r="M107" s="9" t="s">
         <v>554</v>
       </c>
       <c r="N107" s="10" t="s">
-        <v>995</v>
+        <v>940</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -8466,7 +8459,7 @@
         <v>250</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>668</v>
+        <v>1006</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>454</v>
@@ -8481,13 +8474,13 @@
         <v>348</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>756</v>
+        <v>701</v>
       </c>
       <c r="K108" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>907</v>
+        <v>852</v>
       </c>
       <c r="M108" s="9" t="s">
         <v>555</v>
@@ -8510,7 +8503,7 @@
         <v>75</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>669</v>
+        <v>983</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>75</v>
@@ -8525,13 +8518,13 @@
         <v>349</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>757</v>
+        <v>702</v>
       </c>
       <c r="K109" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>908</v>
+        <v>853</v>
       </c>
       <c r="M109" s="9" t="s">
         <v>556</v>
@@ -8548,13 +8541,13 @@
         <v>223</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>796</v>
+        <v>741</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>670</v>
+        <v>618</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>455</v>
@@ -8569,19 +8562,19 @@
         <v>350</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>758</v>
+        <v>703</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>786</v>
+        <v>731</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>909</v>
+        <v>854</v>
       </c>
       <c r="M110" s="9" t="s">
         <v>557</v>
       </c>
       <c r="N110" s="10" t="s">
-        <v>996</v>
+        <v>941</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -8592,13 +8585,13 @@
         <v>223</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>788</v>
+        <v>733</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>671</v>
+        <v>1007</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>456</v>
@@ -8613,13 +8606,13 @@
         <v>351</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>759</v>
+        <v>704</v>
       </c>
       <c r="K111" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>910</v>
+        <v>855</v>
       </c>
       <c r="M111" s="9" t="s">
         <v>558</v>
@@ -8642,7 +8635,7 @@
         <v>64</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>672</v>
+        <v>619</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>457</v>
@@ -8651,19 +8644,19 @@
         <v>110</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>961</v>
+        <v>906</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>760</v>
+        <v>705</v>
       </c>
       <c r="K112" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>911</v>
+        <v>856</v>
       </c>
       <c r="M112" s="9" t="s">
         <v>559</v>
@@ -8686,7 +8679,7 @@
         <v>77</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>673</v>
+        <v>993</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>458</v>
@@ -8701,19 +8694,19 @@
         <v>353</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>761</v>
+        <v>706</v>
       </c>
       <c r="K113" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>912</v>
+        <v>857</v>
       </c>
       <c r="M113" s="17" t="s">
         <v>559</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>997</v>
+        <v>942</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
@@ -8724,13 +8717,13 @@
         <v>223</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>674</v>
+        <v>620</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>459</v>
@@ -8745,13 +8738,13 @@
         <v>354</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>762</v>
+        <v>707</v>
       </c>
       <c r="K114" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>913</v>
+        <v>858</v>
       </c>
       <c r="M114" s="9" t="s">
         <v>560</v>
@@ -8768,16 +8761,16 @@
         <v>223</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>790</v>
+        <v>735</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>251</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>675</v>
+        <v>994</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>936</v>
+        <v>881</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>110</v>
@@ -8789,13 +8782,13 @@
         <v>355</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>763</v>
+        <v>708</v>
       </c>
       <c r="K115" s="10" t="s">
         <v>111</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>914</v>
+        <v>859</v>
       </c>
       <c r="M115" s="9" t="s">
         <v>477</v>
@@ -8812,13 +8805,13 @@
         <v>223</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>789</v>
+        <v>734</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>676</v>
+        <v>621</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>460</v>
@@ -8833,13 +8826,13 @@
         <v>356</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>764</v>
+        <v>709</v>
       </c>
       <c r="K116" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>915</v>
+        <v>860</v>
       </c>
       <c r="M116" s="9" t="s">
         <v>561</v>
@@ -8850,16 +8843,16 @@
     </row>
     <row r="117" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="s">
-        <v>787</v>
+        <v>732</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>797</v>
+        <v>742</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>926</v>
+        <v>871</v>
       </c>
       <c r="F117" s="16" t="s">
         <v>110</v>
@@ -8868,7 +8861,7 @@
         <v>110</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>805</v>
+        <v>750</v>
       </c>
       <c r="J117" s="11" t="s">
         <v>110</v>
@@ -8891,457 +8884,458 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{A62FB5FE-12B7-435E-B3DF-DE702ECD1D4C}"/>
     <hyperlink ref="E3" r:id="rId2" display="https://placehold.co/400x600" xr:uid="{B0FAAFEF-605D-4098-8F11-6FC6A0E9E0D6}"/>
-    <hyperlink ref="E4" r:id="rId3" display="https://placehold.co/400x600" xr:uid="{AB4A22E1-9601-4D07-8888-34F1D29BD46A}"/>
-    <hyperlink ref="E6" r:id="rId4" display="https://placehold.co/400x600" xr:uid="{D5047CB0-F6D4-4475-9DBF-0B83B4DAEAB4}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{AB4A22E1-9601-4D07-8888-34F1D29BD46A}"/>
+    <hyperlink ref="E6" r:id="rId4" xr:uid="{D5047CB0-F6D4-4475-9DBF-0B83B4DAEAB4}"/>
     <hyperlink ref="E8" r:id="rId5" display="https://placehold.co/400x600" xr:uid="{341347BE-FDF4-47C3-A9AA-7BF0532F61DB}"/>
-    <hyperlink ref="E10" r:id="rId6" display="https://placehold.co/400x600" xr:uid="{CE30ABE6-4735-49AC-9E38-986CD096C5BF}"/>
-    <hyperlink ref="E12" r:id="rId7" display="https://placehold.co/400x600" xr:uid="{17D5C088-BD3A-4E75-8035-22B027942A64}"/>
-    <hyperlink ref="E14" r:id="rId8" display="https://placehold.co/400x600" xr:uid="{6815D31E-1624-40E4-AD43-8FB5276A3E13}"/>
-    <hyperlink ref="E16" r:id="rId9" display="https://placehold.co/400x600" xr:uid="{E4649D49-9071-4A49-9859-62D1EA6127A5}"/>
-    <hyperlink ref="E18" r:id="rId10" display="https://placehold.co/400x600" xr:uid="{D37B5237-F7AD-4C72-A4B8-18846345A20A}"/>
-    <hyperlink ref="E20" r:id="rId11" display="https://placehold.co/400x600" xr:uid="{455E2F96-6FCE-4ED2-9C3B-2E6E7249AE44}"/>
-    <hyperlink ref="E22" r:id="rId12" display="https://placehold.co/400x600" xr:uid="{77807312-4DCC-424A-9227-0205668D168B}"/>
-    <hyperlink ref="E24" r:id="rId13" display="https://placehold.co/400x600" xr:uid="{8AAD6443-2520-4082-8EC0-C46B0A509927}"/>
-    <hyperlink ref="E26" r:id="rId14" display="https://placehold.co/400x600" xr:uid="{5B8C9469-79CD-4130-A71A-FB9845883315}"/>
-    <hyperlink ref="E28" r:id="rId15" display="https://placehold.co/400x600" xr:uid="{C6FD206E-083A-424A-BEB2-E5FA5EA1028A}"/>
-    <hyperlink ref="E30" r:id="rId16" display="https://placehold.co/400x600" xr:uid="{3C06105A-95B0-486E-B562-804FA49B279E}"/>
-    <hyperlink ref="E32" r:id="rId17" display="https://placehold.co/400x600" xr:uid="{445C6875-08FB-4A0D-945E-88ACC5B3E36F}"/>
-    <hyperlink ref="E34" r:id="rId18" display="https://placehold.co/400x600" xr:uid="{65D66EC6-EE19-4700-A25B-1483B78EB1EF}"/>
-    <hyperlink ref="E36" r:id="rId19" display="https://placehold.co/400x600" xr:uid="{2E844F72-E0A3-4D15-89E8-4C62C40B0097}"/>
-    <hyperlink ref="E38" r:id="rId20" display="https://placehold.co/400x600" xr:uid="{15AC029B-EF8F-4E8F-BB97-C5EC917FD18C}"/>
-    <hyperlink ref="E40" r:id="rId21" display="https://placehold.co/400x600" xr:uid="{5FE82AD6-8780-451F-B565-3C9E2036135F}"/>
-    <hyperlink ref="E42" r:id="rId22" display="https://placehold.co/400x600" xr:uid="{F7983BF9-576C-4FA2-B35A-DFA749ACF1B5}"/>
-    <hyperlink ref="E44" r:id="rId23" display="https://placehold.co/400x600" xr:uid="{DF66767C-72DE-4D71-B54F-89D37A2B3207}"/>
-    <hyperlink ref="E46" r:id="rId24" display="https://placehold.co/400x600" xr:uid="{E6907F0E-8A63-42E5-881D-83BE98378391}"/>
-    <hyperlink ref="E48" r:id="rId25" display="https://placehold.co/400x600" xr:uid="{BF819DDD-F33C-4323-B234-FA5AEFEBF540}"/>
-    <hyperlink ref="E50" r:id="rId26" display="https://placehold.co/400x600" xr:uid="{B4631102-EF86-443A-975E-E151B867331C}"/>
-    <hyperlink ref="E52" r:id="rId27" display="https://placehold.co/400x600" xr:uid="{D0C8995E-2389-436D-96F9-0ECFED635D2D}"/>
-    <hyperlink ref="E54" r:id="rId28" display="https://placehold.co/400x600" xr:uid="{41208DE8-410A-4988-814F-34D6808B3973}"/>
-    <hyperlink ref="E56" r:id="rId29" display="https://placehold.co/400x600" xr:uid="{D60F983F-3A4A-4B45-A5A9-1CBD13CCBAB1}"/>
-    <hyperlink ref="E58" r:id="rId30" display="https://placehold.co/400x600" xr:uid="{DDB2A0FD-936A-490E-BE1E-1762A651B20C}"/>
-    <hyperlink ref="E60" r:id="rId31" display="https://placehold.co/400x600" xr:uid="{DC2E2CDF-295E-4080-9F0C-4EBEAF3FB8EA}"/>
-    <hyperlink ref="E62" r:id="rId32" display="https://placehold.co/400x600" xr:uid="{5E732335-693B-490D-844A-64351A2B11C7}"/>
-    <hyperlink ref="E64" r:id="rId33" display="https://placehold.co/400x600" xr:uid="{B032BBB6-4D16-4E33-A3F0-D7039E10D767}"/>
-    <hyperlink ref="E66" r:id="rId34" display="https://placehold.co/400x600" xr:uid="{C71F9231-ACA2-46E1-BE2F-462475789CDA}"/>
-    <hyperlink ref="E68" r:id="rId35" display="https://placehold.co/400x600" xr:uid="{6DAF2527-3F52-4351-90EE-F788A7836287}"/>
-    <hyperlink ref="E70" r:id="rId36" display="https://placehold.co/400x600" xr:uid="{C213B07F-FB90-4578-BA40-CB5277C5E9F8}"/>
-    <hyperlink ref="E72" r:id="rId37" display="https://placehold.co/400x600" xr:uid="{B6B3C0BC-449F-4D5F-8991-2960BC1E1B95}"/>
-    <hyperlink ref="E74" r:id="rId38" display="https://placehold.co/400x600" xr:uid="{12F3E568-1027-43BC-89EA-C5D4D2C3F3B1}"/>
-    <hyperlink ref="E76" r:id="rId39" display="https://placehold.co/400x600" xr:uid="{9BCFDA15-C8D8-41F6-B5C1-8DB9E3F54F38}"/>
-    <hyperlink ref="E78" r:id="rId40" display="https://placehold.co/400x600" xr:uid="{5074351A-0735-4679-AE99-F1F491EAD66F}"/>
-    <hyperlink ref="E80" r:id="rId41" display="https://placehold.co/400x600" xr:uid="{797A27FB-9286-43BA-A3D3-06E0B7DF57C7}"/>
-    <hyperlink ref="E82" r:id="rId42" display="https://placehold.co/400x600" xr:uid="{E22D4C78-609C-4F6C-902E-67DDEA2AEC08}"/>
-    <hyperlink ref="E84" r:id="rId43" display="https://placehold.co/400x600" xr:uid="{689543FA-D772-478F-B75B-353A8D5F5A0F}"/>
-    <hyperlink ref="E86" r:id="rId44" display="https://placehold.co/400x600" xr:uid="{6F1B4F40-1347-45F9-B0B9-89687F77E0B0}"/>
-    <hyperlink ref="E88" r:id="rId45" display="https://placehold.co/400x600" xr:uid="{269A95A2-A318-4245-8364-07E925D041A6}"/>
-    <hyperlink ref="E90" r:id="rId46" display="https://placehold.co/400x600" xr:uid="{BC5C79FD-42B9-4F63-B259-53ADA917C149}"/>
-    <hyperlink ref="E92" r:id="rId47" display="https://placehold.co/400x600" xr:uid="{F219C840-96AC-40EA-9D7B-C09CBA360D2A}"/>
-    <hyperlink ref="E94" r:id="rId48" display="https://placehold.co/400x600" xr:uid="{E85B62E0-66A6-4BDE-AB82-B3F3885FF25D}"/>
-    <hyperlink ref="E96" r:id="rId49" display="https://placehold.co/400x600" xr:uid="{F685C903-F46A-4AEA-A4B6-30F5F5C38E02}"/>
-    <hyperlink ref="E98" r:id="rId50" display="https://placehold.co/400x600" xr:uid="{34A32507-5178-4AE2-8923-C76F8834EAC3}"/>
-    <hyperlink ref="E100" r:id="rId51" display="https://placehold.co/400x600" xr:uid="{316F114E-DC59-4C12-AAE4-7C561A6A4A37}"/>
-    <hyperlink ref="E102" r:id="rId52" display="https://placehold.co/400x600" xr:uid="{E6C4E1E9-ADFC-463C-BA35-72BF5470C0FC}"/>
-    <hyperlink ref="E104" r:id="rId53" display="https://placehold.co/400x600" xr:uid="{5C2E1F62-17AE-4C61-86CF-CFAADD48E3DA}"/>
-    <hyperlink ref="E106" r:id="rId54" display="https://placehold.co/400x600" xr:uid="{EB2D28AA-5611-4D14-B6D8-65655568052B}"/>
-    <hyperlink ref="E108" r:id="rId55" display="https://placehold.co/400x600" xr:uid="{1A1FF6C3-6CA4-4205-87F4-FFA4C505FE05}"/>
-    <hyperlink ref="E110" r:id="rId56" display="https://placehold.co/400x600" xr:uid="{D5F8DE7D-9A2E-4EB2-AD3E-1B6347BBB03A}"/>
-    <hyperlink ref="E112" r:id="rId57" display="https://placehold.co/400x600" xr:uid="{72604405-579A-4D04-AD70-2F433C2E73DD}"/>
-    <hyperlink ref="E114" r:id="rId58" display="https://placehold.co/400x600" xr:uid="{F52A7ADE-923C-4FC0-835C-C78BE5475FD1}"/>
-    <hyperlink ref="E116" r:id="rId59" display="https://placehold.co/400x600" xr:uid="{88BB9B9A-193B-430A-8A94-9996D9F8B858}"/>
-    <hyperlink ref="E5" r:id="rId60" display="https://placehold.co/400x600" xr:uid="{673B2D9E-5CEE-40DD-A0A2-66025584E8C2}"/>
-    <hyperlink ref="E7" r:id="rId61" display="https://placehold.co/400x600" xr:uid="{20202916-CECB-497F-BB8D-D7E09DCEC193}"/>
-    <hyperlink ref="E9" r:id="rId62" display="https://placehold.co/400x600" xr:uid="{E7773CE7-BD5F-4624-B940-0E795B4A4E30}"/>
-    <hyperlink ref="E11" r:id="rId63" display="https://placehold.co/400x600" xr:uid="{93DA058C-7CEC-4BA2-9D33-5FB8B5E88910}"/>
-    <hyperlink ref="E13" r:id="rId64" display="https://placehold.co/400x600" xr:uid="{8F788626-64E7-4F1D-A12D-F2E9D916467C}"/>
-    <hyperlink ref="E15" r:id="rId65" display="https://placehold.co/400x600" xr:uid="{8AD2972F-0CB2-4DCE-8821-C56F9057AD5B}"/>
-    <hyperlink ref="E17" r:id="rId66" display="https://placehold.co/400x600" xr:uid="{6BB1EE3F-7C68-4024-B0F7-6091F2E03670}"/>
-    <hyperlink ref="E19" r:id="rId67" display="https://placehold.co/400x600" xr:uid="{D4698768-8DC5-407A-B6F4-C1C875BFB78D}"/>
-    <hyperlink ref="E21" r:id="rId68" display="https://placehold.co/400x600" xr:uid="{13DD67BA-1FCB-43E0-A39C-FFE32E5D3954}"/>
-    <hyperlink ref="E23" r:id="rId69" display="https://placehold.co/400x600" xr:uid="{90D0F56C-C7DB-4632-B91C-EF74541F5FEA}"/>
-    <hyperlink ref="E25" r:id="rId70" display="https://placehold.co/400x600" xr:uid="{F6A0C9FE-D2B9-4181-8F81-93868F3E313C}"/>
-    <hyperlink ref="E27" r:id="rId71" display="https://placehold.co/400x600" xr:uid="{848B184F-1DE9-469A-9D63-F5CDEBF10D7A}"/>
-    <hyperlink ref="E29" r:id="rId72" display="https://placehold.co/400x600" xr:uid="{1AF17D20-76D5-4714-B7E2-2D8B8CB9ADC3}"/>
-    <hyperlink ref="E31" r:id="rId73" display="https://placehold.co/400x600" xr:uid="{22DD1D25-8288-4AC9-A5FC-D9B7B89B515C}"/>
-    <hyperlink ref="E33" r:id="rId74" display="https://placehold.co/400x600" xr:uid="{01F92761-8D63-4A2C-8713-25D41165DB40}"/>
-    <hyperlink ref="E35" r:id="rId75" display="https://placehold.co/400x600" xr:uid="{FFD57A2F-B179-4903-B296-F8069D1F1332}"/>
-    <hyperlink ref="E37" r:id="rId76" display="https://placehold.co/400x600" xr:uid="{291A37C6-A686-4CDE-9352-CAE725E23B11}"/>
-    <hyperlink ref="E39" r:id="rId77" display="https://placehold.co/400x600" xr:uid="{6ECECF25-2624-4D12-A089-9B4C4DBCF38B}"/>
-    <hyperlink ref="E41" r:id="rId78" display="https://placehold.co/400x600" xr:uid="{B8267D85-A691-4187-91DB-27E364616A8C}"/>
-    <hyperlink ref="E43" r:id="rId79" display="https://placehold.co/400x600" xr:uid="{AA69E1F0-E88A-495C-A844-C33C82F6CE26}"/>
-    <hyperlink ref="E45" r:id="rId80" display="https://placehold.co/400x600" xr:uid="{269F03E1-526C-4849-A6D5-8276665E4485}"/>
-    <hyperlink ref="E47" r:id="rId81" display="https://placehold.co/400x600" xr:uid="{D722AC52-912D-4A3F-8560-FAA4DCA60A56}"/>
-    <hyperlink ref="E49" r:id="rId82" display="https://placehold.co/400x600" xr:uid="{6ED9D463-8E32-4780-942A-C1EC9D07542B}"/>
-    <hyperlink ref="E51" r:id="rId83" display="https://placehold.co/400x600" xr:uid="{FAAE2569-D069-46B3-A7AA-6969338A4AFF}"/>
-    <hyperlink ref="E53" r:id="rId84" display="https://placehold.co/400x600" xr:uid="{919767C3-0A6A-4A63-9549-0F7B3A7EE7DF}"/>
-    <hyperlink ref="E55" r:id="rId85" display="https://placehold.co/400x600" xr:uid="{BD76B93C-ACC1-4CF1-A623-39E4FAFED853}"/>
-    <hyperlink ref="E57" r:id="rId86" display="https://placehold.co/400x600" xr:uid="{7964589D-7453-4997-AC7B-F98F5B5B7029}"/>
-    <hyperlink ref="E59" r:id="rId87" display="https://placehold.co/400x600" xr:uid="{F72D2D0A-AD07-45DC-AA3D-223C36C995AB}"/>
-    <hyperlink ref="E61" r:id="rId88" display="https://placehold.co/400x600" xr:uid="{D79CAE5D-C5B6-4B75-8261-008B5374EBDB}"/>
-    <hyperlink ref="E63" r:id="rId89" display="https://placehold.co/400x600" xr:uid="{75C81E45-FAA6-4175-A2FE-BA7C7F71F6F3}"/>
-    <hyperlink ref="E65" r:id="rId90" display="https://placehold.co/400x600" xr:uid="{2A43A7D2-0D9B-42A8-8E87-E447ECDB9951}"/>
-    <hyperlink ref="E67" r:id="rId91" display="https://placehold.co/400x600" xr:uid="{F199289C-0CB7-41CD-95E9-D9C97B86A7E7}"/>
-    <hyperlink ref="E69" r:id="rId92" display="https://placehold.co/400x600" xr:uid="{E4715AC6-7D6D-4434-A585-79B8F25233F6}"/>
-    <hyperlink ref="E71" r:id="rId93" display="https://placehold.co/400x600" xr:uid="{CFD1BDC4-A848-4998-9430-C29DB079EED4}"/>
-    <hyperlink ref="E73" r:id="rId94" display="https://placehold.co/400x600" xr:uid="{DEC62E70-AB7A-4365-B90A-11A1D549F375}"/>
-    <hyperlink ref="E75" r:id="rId95" display="https://placehold.co/400x600" xr:uid="{A925F566-676A-47EA-9068-3A8AC9C78A71}"/>
-    <hyperlink ref="E77" r:id="rId96" display="https://placehold.co/400x600" xr:uid="{826BB4FF-EF4E-4C68-AE45-B4C9CEE10FB5}"/>
-    <hyperlink ref="E79" r:id="rId97" display="https://placehold.co/400x600" xr:uid="{D55B186E-0A96-4185-9D34-01F9C47E843E}"/>
-    <hyperlink ref="E81" r:id="rId98" display="https://placehold.co/400x600" xr:uid="{AC60663B-FB99-47D2-A9DA-11C43648559B}"/>
-    <hyperlink ref="E83" r:id="rId99" display="https://placehold.co/400x600" xr:uid="{F83899A5-222C-48AC-9ABC-BC254C3600A8}"/>
-    <hyperlink ref="E85" r:id="rId100" display="https://placehold.co/400x600" xr:uid="{2EE015AD-95D3-42D3-9727-0C2D20C22B2D}"/>
-    <hyperlink ref="E87" r:id="rId101" display="https://placehold.co/400x600" xr:uid="{1E9351A5-5685-4A61-91E2-9C72A14FBA45}"/>
-    <hyperlink ref="E89" r:id="rId102" display="https://placehold.co/400x600" xr:uid="{DA14C2E4-99E6-4273-B1C6-88E4314A2B53}"/>
-    <hyperlink ref="E91" r:id="rId103" display="https://placehold.co/400x600" xr:uid="{CED33FAF-E705-4A0E-B5BA-28AC459A08F9}"/>
-    <hyperlink ref="E93" r:id="rId104" display="https://placehold.co/400x600" xr:uid="{69683834-3F44-4B9E-879F-17C7B3985064}"/>
-    <hyperlink ref="E95" r:id="rId105" display="https://placehold.co/400x600" xr:uid="{6706B29D-6B9E-414D-A766-C429245D96A7}"/>
-    <hyperlink ref="E97" r:id="rId106" display="https://placehold.co/400x600" xr:uid="{B8549196-6B30-41D5-B870-CDF1F6C0AE2B}"/>
-    <hyperlink ref="E99" r:id="rId107" display="https://placehold.co/400x600" xr:uid="{70722206-091E-437D-B026-345C8CDB5176}"/>
-    <hyperlink ref="E101" r:id="rId108" display="https://placehold.co/400x600" xr:uid="{EF057E02-0A38-4475-84BA-2BC1ED64BA7D}"/>
-    <hyperlink ref="E103" r:id="rId109" display="https://placehold.co/400x600" xr:uid="{F307B800-2CAD-4E08-A635-F4AD9976A897}"/>
-    <hyperlink ref="E105" r:id="rId110" display="https://placehold.co/400x600" xr:uid="{42F0B609-7315-4192-A377-FDEDE5FDDF8B}"/>
-    <hyperlink ref="E107" r:id="rId111" display="https://placehold.co/400x600" xr:uid="{0BBF4990-1413-476C-AFE7-EC34A9F113B0}"/>
-    <hyperlink ref="E109" r:id="rId112" display="https://placehold.co/400x600" xr:uid="{43D0B648-1D21-45A3-A6E9-CB546100DAA2}"/>
-    <hyperlink ref="E111" r:id="rId113" display="https://placehold.co/400x600" xr:uid="{3BF79D70-269C-4AB5-B83F-712DABFF4480}"/>
-    <hyperlink ref="E113" r:id="rId114" display="https://placehold.co/400x600" xr:uid="{622A2536-A959-42B4-B4F9-EE23F2A44517}"/>
-    <hyperlink ref="E115" r:id="rId115" display="https://placehold.co/400x600" xr:uid="{7690046C-47D4-4A7B-8DBE-6704DCCAE9C8}"/>
-    <hyperlink ref="J72" r:id="rId116" display="https://www.linkedin.com/in/dr-nilay-patel-106bab14/" xr:uid="{B2E17E23-9358-429B-BBF9-5EE4C8E363CB}"/>
-    <hyperlink ref="J83" r:id="rId117" display="https://www.linkedin.com/in/poonam-thanki-b112a6a2/" xr:uid="{BB16F397-78CE-4DBD-8BE4-13D65525672B}"/>
-    <hyperlink ref="J57" r:id="rId118" display="https://www.linkedin.com/in/dr-manthan-s-manavadaria-2a222219/" xr:uid="{4954A101-EA09-4BF1-8202-A72F86653038}"/>
-    <hyperlink ref="J18" r:id="rId119" display="https://www.linkedin.com/in/bhavin-mehta-86b47795/" xr:uid="{DB7D7CE8-51EF-48EE-BFBF-A021321BDC5F}"/>
-    <hyperlink ref="J49" r:id="rId120" display="https://www.linkedin.com/in/dr-kanwar-preet-kaur-bamrah-64a3a221/" xr:uid="{53166117-8C5A-4AB4-89B7-C2E8B83BC5A5}"/>
-    <hyperlink ref="J92" r:id="rId121" display="https://www.linkedin.com/in/rikita-chokshi-44bb65263/" xr:uid="{184885D3-531C-43E9-853D-5C2EAF6E7696}"/>
-    <hyperlink ref="J106" r:id="rId122" xr:uid="{FBE16C58-F91B-4934-8550-681C7F68CFE1}"/>
-    <hyperlink ref="J68" r:id="rId123" display="https://www.linkedin.com/in/mrugendrasinh-rahevar/" xr:uid="{F0663F50-387A-4315-8A34-03206888175F}"/>
-    <hyperlink ref="J91" r:id="rId124" display="https://www.linkedin.com/in/ravi-patel-13686b19/" xr:uid="{FC6DE30F-2E95-4AA2-B879-8CEAD23CEEC4}"/>
-    <hyperlink ref="J95" r:id="rId125" display="https://www.linkedin.com/in/ronak-patel-63663613a/" xr:uid="{EB8CC283-1781-41D5-BE2D-3C04AED15B01}"/>
-    <hyperlink ref="J50" r:id="rId126" display="https://www.linkedin.com/in/dr-kawaljitsingh-randhawa-96816064/" xr:uid="{4AE0FF76-EF4F-45C3-A542-A7D876A7DA2C}"/>
-    <hyperlink ref="J19" r:id="rId127" display="http://linkedin.com/in/bimal-patel-b7504849" xr:uid="{B02CE38D-7D41-45E6-8D0A-5F0FCF595503}"/>
-    <hyperlink ref="J71" r:id="rId128" display="https://www.linkedin.com/in/nikita-bhatt-ce/?originalSubdomain=in" xr:uid="{9EC6AE06-F884-4149-B7FC-88140006B7F4}"/>
-    <hyperlink ref="J23" r:id="rId129" display="https://www.linkedin.com/in/deep-kothadiya-phd-70983a86/" xr:uid="{8691FEB4-6E3B-4049-9588-FC79EAF0F2EC}"/>
-    <hyperlink ref="J78" r:id="rId130" display="https://www.linkedin.com/in/parmanand-patel-1269016b/" xr:uid="{53EDE3BB-D85D-4DAD-A587-55DA1C805D27}"/>
-    <hyperlink ref="J52" r:id="rId131" display="https://www.linkedin.com/in/krunal-maheriya-aba5681a1/" xr:uid="{9D29078E-A414-4A64-86B1-F77733FF0F8A}"/>
-    <hyperlink ref="J86" r:id="rId132" xr:uid="{21E8E151-1B01-486F-A7D7-4BE4F0BC0B27}"/>
-    <hyperlink ref="J36" r:id="rId133" display="https://www.linkedin.com/in/dr-hardik-modi-181035b/" xr:uid="{F7F908AF-23C0-42F7-8AFE-DF52AF52580B}"/>
-    <hyperlink ref="J14" r:id="rId134" display="http://hlinkedin.com/in/dr-ashwin-makwana-9a6688112" xr:uid="{3D2F3A09-18C9-4E22-B6FA-494330FEF01E}"/>
-    <hyperlink ref="J80" r:id="rId135" xr:uid="{4DA1EB91-0A15-4D6C-9213-F6D1EE675204}"/>
-    <hyperlink ref="J17" r:id="rId136" xr:uid="{8E63BCC9-6C05-45B8-8789-EBB4905292F2}"/>
-    <hyperlink ref="J35" r:id="rId137" display="https://www.linkedin.com/in/gaurav-kumar1582/" xr:uid="{BF49CFFA-7535-44BB-8F9A-67BEFFD957B6}"/>
-    <hyperlink ref="J29" r:id="rId138" display="https://www.linkedin.com/in/dhaval-patel-481b0885/" xr:uid="{5704F17D-173C-4E5E-89CF-B8F7987D86F5}"/>
-    <hyperlink ref="J77" r:id="rId139" display="https://www.linkedin.com/me?trk=p_mwlite_profile_self-secondary_nav" xr:uid="{6148FF48-4942-4818-844D-79919D56DB98}"/>
-    <hyperlink ref="J67" r:id="rId140" display="https://www.linkedin.com/in/dr-miral-desai-245448a2/" xr:uid="{D2BE1269-3E17-415C-B581-A936373A624C}"/>
-    <hyperlink ref="J32" r:id="rId141" display="https://www.linkedin.com/in/gajanan-patange-05ba2219/overlay/about-this-profile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BEvV8mS8jTpy2mGfBhro1og%3D%3D" xr:uid="{CDEEC399-875E-4DDA-A567-6EFC42A0F87E}"/>
-    <hyperlink ref="J114" r:id="rId142" display="https://www.linkedin.com/in/vikas-panchal-873277251/" xr:uid="{A3606037-07FB-4104-B411-BA37A6E2F3CA}"/>
-    <hyperlink ref="J101" r:id="rId143" display="https://www.linkedin.com/in/sneha-padhiar-4aaa17146/" xr:uid="{8CF4272D-E96D-4E1C-80AD-5D3F2F554C53}"/>
-    <hyperlink ref="J38" r:id="rId144" display="https://www.linkedin.com/in/harshul-yagnik-81a6a022/" xr:uid="{683E4E91-B763-4226-99B6-F3E30837AD4B}"/>
-    <hyperlink ref="J21" r:id="rId145" display="https://www.linkedin.com/in/brinda-patel-652073252" xr:uid="{791133CF-E0A2-4B6D-8618-AC19B4D3A9FA}"/>
-    <hyperlink ref="J28" r:id="rId146" xr:uid="{F8104DB3-2B23-47B7-B622-17690E08D84A}"/>
-    <hyperlink ref="J97" r:id="rId147" display="https://www.linkedin.com/in/sagarkumar-patel-0bb94bb5/" xr:uid="{B357E631-0C5E-406B-9B45-A421DE003AD4}"/>
-    <hyperlink ref="J70" r:id="rId148" display="http://www.linkedin.com/in/neha-chauhan22" xr:uid="{E7A9417A-8B16-4D59-A23C-B258564D85D5}"/>
-    <hyperlink ref="J22" r:id="rId149" xr:uid="{895691E5-0B23-47DD-9A36-18923B4FD652}"/>
-    <hyperlink ref="J39" r:id="rId150" display="https://www.linkedin.com/public-profile/settings?trk=d_flagship3_profile_self_view_public_profile" xr:uid="{E4C32594-CCCB-41B2-AE51-AE67F83944BE}"/>
-    <hyperlink ref="J42" r:id="rId151" display="https://www.linkedin.com/in/jalpa-ardeshana-381496b7/" xr:uid="{67C7A4AD-28FD-4291-92FB-A9C4AA0671B4}"/>
-    <hyperlink ref="J102" r:id="rId152" display="https://www.linkedin.com/in/dr-spoorthy-v-10ab3813a/" xr:uid="{EDA5921D-C45B-4D8B-B9FA-3205F4F396D6}"/>
-    <hyperlink ref="J24" r:id="rId153" display="https://www.linkedin.com/in/dhara-patel-839488138" xr:uid="{27C9FC8C-0A44-49AE-8688-8690C8579833}"/>
-    <hyperlink ref="J26" r:id="rId154" display="https://www.linkedin.com/in/dharmendrasinh-chauhan-073a491a4/" xr:uid="{D50E69C7-4F51-4D1B-90EC-FE9F9A44906E}"/>
-    <hyperlink ref="J90" r:id="rId155" display="https://www.linkedin.com/in/rajnik-katriya/" xr:uid="{3AEC1C40-35D9-4AE3-A7E8-9E58FA2C8E43}"/>
-    <hyperlink ref="J98" r:id="rId156" display="https://www.linkedin.com/in/sanket-suthar-544a69210/" xr:uid="{6137F2DC-1F93-4037-B861-A959BDB6DCE6}"/>
-    <hyperlink ref="J53" r:id="rId157" display="http://www.linkedin.com/in/kundan-patel-b9508b27b" xr:uid="{D4BB537A-7CA1-4F2B-9985-F5921034561E}"/>
-    <hyperlink ref="J81" r:id="rId158" xr:uid="{BFFCC995-B6DF-474C-93AA-BDF180E05422}"/>
-    <hyperlink ref="J111" r:id="rId159" display="https://www.linkedin.com/in/vidisha-pradhan-733a1b63/" xr:uid="{06E43119-E5BC-45C4-9126-F192D3006C5B}"/>
-    <hyperlink ref="J27" r:id="rId160" display="https://www.linkedin.com/in/dharmendrasinh-rathod-4482a2a4/" xr:uid="{3BDD0888-FF6F-403B-8A93-FD5176D0DA38}"/>
-    <hyperlink ref="J54" r:id="rId161" display="http://www.linkedin.com/in/madhav-oza-60bb5650" xr:uid="{24641904-0D92-4561-9EC0-14DC5197E375}"/>
-    <hyperlink ref="J41" r:id="rId162" xr:uid="{10BD029B-F728-4FEF-934E-F502C3B3ECDD}"/>
-    <hyperlink ref="J112" r:id="rId163" display="https://www.linkedin.com/in/dr-vijay-chaudhary-12769b311/" xr:uid="{B15A7FAF-9082-4A84-BAA5-265E44F10859}"/>
-    <hyperlink ref="J62" r:id="rId164" display="http://inkedin.com/in/mjdesai/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=in" xr:uid="{58387078-A78B-4059-8DB7-2DA181BAC97F}"/>
-    <hyperlink ref="J48" r:id="rId165" xr:uid="{F61EBA1D-096B-4367-83C7-464D0E0332DE}"/>
-    <hyperlink ref="J51" r:id="rId166" xr:uid="{A7C5CA17-C1E0-4B34-9F67-339F0FC32426}"/>
-    <hyperlink ref="J65" r:id="rId167" display="https://www.linkedin.com/in/mihirmehta-educational-project-and-placements/" xr:uid="{1EF2631D-C319-4F6C-9AF3-9E886A6E863A}"/>
-    <hyperlink ref="J34" r:id="rId168" display="https://www.linkedin.com/in/gaurang-patel-a99266119/" xr:uid="{4A4B2655-5B11-4CEB-8516-A9D046224C31}"/>
-    <hyperlink ref="J75" r:id="rId169" display="http://www.linkedin.com/in/nishant-koshti-52b68b8b" xr:uid="{2E5CF16C-0D7F-4454-B4F7-592A3EC43855}"/>
-    <hyperlink ref="J20" r:id="rId170" display="https://www.linkedin.com/in/brijesh-kundaliya-552b7722/" xr:uid="{FC5C15E0-2AD1-4E2F-8F1E-F2F96829A7A6}"/>
-    <hyperlink ref="J43" r:id="rId171" display="https://www.linkedin.com/in/jalpesh-vasa/" xr:uid="{6768F239-6E23-4A84-8C3E-45670A76F700}"/>
-    <hyperlink ref="J109" r:id="rId172" display="https://www.linkedin.com/in/vaishali-mewada-7a619053/" xr:uid="{DEFB6E16-7F29-44C5-ACAD-D6B1E16E6C24}"/>
-    <hyperlink ref="J46" r:id="rId173" xr:uid="{CCF872D9-BD3F-4521-9093-8C3148DBAC43}"/>
-    <hyperlink ref="J113" r:id="rId174" display="http://www.linkedin.com/in/vijaykumar-panchal-631852280" xr:uid="{2810BDF3-4A14-413D-B157-AF8059E92C49}"/>
-    <hyperlink ref="J64" r:id="rId175" display="https://www.linkedin.com/in/dr-mihir-bhatt-806a85aa/" xr:uid="{AA93D706-7CF6-45C4-B768-B797EB6775B7}"/>
-    <hyperlink ref="J96" r:id="rId176" display="https://www.linkedin.com/in/dr-sagar-chokshi-8646601a/" xr:uid="{35109E28-E96A-4139-B689-0AB43FF55E92}"/>
-    <hyperlink ref="J84" r:id="rId177" display="http://www.linkedin.com/in/pratik-panchal-a35b325a" xr:uid="{6FB924B7-EDB2-44F0-B0D7-E78551105315}"/>
-    <hyperlink ref="J40" r:id="rId178" display="https://www.linkedin.com/in/hemangi-oza-60a189190/" xr:uid="{AC43F6B8-459E-4FF0-82E4-75F8CDE25269}"/>
-    <hyperlink ref="J110" r:id="rId179" display="http://linkedin.com/in/vibha-parmar-81b3045b" xr:uid="{9792CDE9-6059-48ED-AD46-8BECFEF07152}"/>
-    <hyperlink ref="J59" r:id="rId180" display="http://www.linkedin.com/in/maulik-shah-30b483119" xr:uid="{E23FB3E1-55AD-4659-9463-2B3E19FC5E7D}"/>
-    <hyperlink ref="J99" r:id="rId181" display="http://www.linkedin.com/in/saritavisavalia" xr:uid="{3504F31F-4BD3-4D8B-B727-C2FF9DDFF1EA}"/>
-    <hyperlink ref="J13" r:id="rId182" xr:uid="{ACF63811-234F-442B-91D8-C6863212F92A}"/>
-    <hyperlink ref="J45" r:id="rId183" display="https://www.linkedin.com/in/dr-jigar-sarda-00384414/" xr:uid="{0EFC12BA-8B5C-4E86-968D-797B0D43FD98}"/>
-    <hyperlink ref="J105" r:id="rId184" display="https://www.linkedin.com/in/trusha-patel-gajjar" xr:uid="{98AA2D43-F8B2-4B29-93BA-7A9CCA8109B2}"/>
-    <hyperlink ref="J103" r:id="rId185" display="https://www.linkedin.com/in/srushti-gajjar-92b829142?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{544D82DB-5386-42AC-B979-94C259CA9E97}"/>
-    <hyperlink ref="J94" r:id="rId186" xr:uid="{F1631FCD-D701-415F-89D8-AB6A7D513AC5}"/>
-    <hyperlink ref="J15" r:id="rId187" display="https://www.linkedin.com/in/asifiqbal-thakor-56949b237/" xr:uid="{3A40B3CD-F1BE-4530-B451-07DF410D1272}"/>
-    <hyperlink ref="J56" r:id="rId188" xr:uid="{99110411-88B4-4B0C-9258-D7E7320C877C}"/>
-    <hyperlink ref="J47" r:id="rId189" display="https://www.linkedin.com/in/jivanadhar-joshi-a76a12ab/" xr:uid="{ED0C7354-C517-49E0-BDF5-C6BF1EC0A53C}"/>
-    <hyperlink ref="J104" r:id="rId190" display="https://in.linkedin.com/in/dr-tigmanshu-patel-b3252639" xr:uid="{8223C32D-E35E-4436-B593-C54F5FEED7DB}"/>
-    <hyperlink ref="J44" r:id="rId191" display="http://linkedin.com/in/jay-bhavsar-a4a9646a" xr:uid="{A3106519-72EE-423E-976E-09F1FD98B248}"/>
-    <hyperlink ref="J89" r:id="rId192" display="http://www.linkedin.com/in/purvi-prajapati-37ba6651" xr:uid="{7A2661BA-3D20-4DF8-8332-CC5726684DD1}"/>
-    <hyperlink ref="J74" r:id="rId193" display="https://www.linkedin.com/in/nirpex-patel-508956119/" xr:uid="{8BF234A3-EF12-4093-8EAF-09B2432506EF}"/>
-    <hyperlink ref="J87" r:id="rId194" display="https://www.linkedin.com/in/priyanka-patel-ph-d-00403393/" xr:uid="{8D6AEC45-7FD5-4128-9D12-F2A6CBB1E864}"/>
-    <hyperlink ref="J63" r:id="rId195" display="https://www.linkedin.com/in/mehulkumar-katakiya-029357b8/" xr:uid="{D058A74D-8E61-413C-9B75-7FF7917660C9}"/>
-    <hyperlink ref="J37" r:id="rId196" display="https://www.linkedin.com/in/harmish-bhatt-88581510a/" xr:uid="{7CC36C27-9781-439B-A945-9C1160C69911}"/>
-    <hyperlink ref="J66" r:id="rId197" display="https://www.linkedin.com/in/mikin-patel-24191386/" xr:uid="{3AEB0F01-575C-4799-B7A0-11A1F0947768}"/>
-    <hyperlink ref="J107" r:id="rId198" display="https://www.linkedin.com/in/dr-upesh-patel-875878138/" xr:uid="{5D7DA379-79C5-410F-9398-20936275BC46}"/>
-    <hyperlink ref="J58" r:id="rId199" xr:uid="{509B130C-6A0C-4944-BFE2-75F1FDF097C4}"/>
-    <hyperlink ref="J69" r:id="rId200" display="https://www.linkedin.com/in/muskan-dave-023197162/" xr:uid="{C8C7BB25-838D-4DFF-B4BD-F8943C06375E}"/>
-    <hyperlink ref="J73" r:id="rId201" display="https://www.linkedin.com/in/dr-nirav-bhatt/" xr:uid="{3F4736BB-5DB7-48E0-ABC4-5DBB591E1122}"/>
-    <hyperlink ref="J11" r:id="rId202" xr:uid="{714022ED-2EC9-40BB-978A-F936135E18E1}"/>
-    <hyperlink ref="J93" r:id="rId203" display="https://www.linkedin.com/in/ritesh-patel-462b0b11" xr:uid="{F4558EEF-FFB0-474A-8E3E-CEBF9566FCDB}"/>
-    <hyperlink ref="J116" r:id="rId204" display="http://www.linkedin.com/in/viral-panara-773877201" xr:uid="{4FB52C9B-4BDB-4971-A78B-1CD2EE789E52}"/>
-    <hyperlink ref="J79" r:id="rId205" display="https://www.linkedin.com/in/shah-parth-d/" xr:uid="{A61E294E-BDA5-4C2E-BA18-BA2B9C98C973}"/>
-    <hyperlink ref="J33" r:id="rId206" display="https://www.linkedin.com/in/gargi-ray-983a8522/" xr:uid="{0C76E47F-7D1B-4E1C-A88F-86156C9D1D6E}"/>
-    <hyperlink ref="J100" r:id="rId207" display="http://www.linkedin.com/in/satayu-travadi-9aab0919" xr:uid="{A79F3F36-387F-427F-848C-3BB8A221E707}"/>
-    <hyperlink ref="J88" r:id="rId208" xr:uid="{A7A467B8-5468-4830-9ADC-34F28E8899B5}"/>
-    <hyperlink ref="J30" r:id="rId209" display="https://www.linkedin.com/in/dheeraj-kumar-shringi-030586107?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{D1B60D12-635A-4E71-93D8-B47244D1EF44}"/>
-    <hyperlink ref="J85" r:id="rId210" display="https://in.linkedin.com/in/pratik-mochi-09764b102?original_referer=https%3A%2F%2Fwww.google.com%2F" xr:uid="{CD8066BB-0BA9-4FA9-88DB-0C291F6209A7}"/>
-    <hyperlink ref="J108" r:id="rId211" display="https://www.linkedin.com/in/vaibhavi-patel-67b035224/" xr:uid="{51D509E7-546B-4519-845F-AF5DC77392B9}"/>
-    <hyperlink ref="J60" r:id="rId212" display="http://www.linkedin.com/in/mayuri-popat-213852b1" xr:uid="{336D4B2F-0BBF-4ADA-8647-F20659482547}"/>
-    <hyperlink ref="J55" r:id="rId213" display="http://www.linkedin.com/in/madhavajwalia" xr:uid="{8DE9B663-AD20-42DB-A7F0-4FD167AD95E8}"/>
-    <hyperlink ref="J115" r:id="rId214" display="https://www.linkedin.com/in/vipul-vyas-19214bab/" xr:uid="{00F74D28-7144-4D8C-9870-393AE49126D5}"/>
-    <hyperlink ref="J31" r:id="rId215" display="http://www.linkedin.com/in/dipalkumar-patel-4b97997" xr:uid="{CFB485EB-93AC-436E-BD76-13F13D42FA00}"/>
-    <hyperlink ref="J76" r:id="rId216" display="https://www.linkedin.com/in/nishat-shaikh-b7446019a/" xr:uid="{45535606-CAE7-44BB-B1C5-622D742D5E66}"/>
-    <hyperlink ref="J16" r:id="rId217" display="https://www.linkedin.com/in/avani-khokhariya/" xr:uid="{F2664F6A-73CC-4DAD-982B-E296BD77DF0A}"/>
-    <hyperlink ref="J82" r:id="rId218" xr:uid="{2C60818F-B78B-4EC2-9BA4-C7D88C933280}"/>
-    <hyperlink ref="J25" r:id="rId219" display="https://www.linkedin.com/in/dhara-s-032a6a24/" xr:uid="{4FE7FF63-A73E-4E09-94C4-E2CD5FE6F81D}"/>
-    <hyperlink ref="K72" r:id="rId220" xr:uid="{E7CCB95C-4D9A-474B-9296-0EE719EC4AB3}"/>
-    <hyperlink ref="K92" r:id="rId221" xr:uid="{92D21BA9-793A-4610-9A6A-641322C6CC28}"/>
-    <hyperlink ref="K106" r:id="rId222" xr:uid="{2E05A515-7245-4DDB-9E9C-D041E881E2BF}"/>
-    <hyperlink ref="K86" r:id="rId223" xr:uid="{8C1C3B99-0196-4695-95EB-EEFEEA76042B}"/>
-    <hyperlink ref="K67" r:id="rId224" xr:uid="{4C2AA447-E23D-4BD3-8516-CF8A69E7C676}"/>
-    <hyperlink ref="K90" r:id="rId225" xr:uid="{68D88C01-9035-44B0-9EAE-4AE7236572CC}"/>
-    <hyperlink ref="K98" r:id="rId226" xr:uid="{B89BB500-5F1B-4985-B0B7-D69D9B22538C}"/>
-    <hyperlink ref="K27" r:id="rId227" xr:uid="{461288D1-54CE-41D7-ACBC-4EB753D35618}"/>
-    <hyperlink ref="K64" r:id="rId228" display="https://sites.google.com/a/charusat.ac.in/mihir-bhatt-ee/home/about-me?pli=1" xr:uid="{DD66FE1D-24F8-42A6-8DDC-651F08933CB6}"/>
-    <hyperlink ref="K45" r:id="rId229" xr:uid="{185428FC-1CEB-406E-A327-B537B63CC062}"/>
-    <hyperlink ref="K105" r:id="rId230" xr:uid="{6E3402FB-A293-4394-A12F-C9CE90A43581}"/>
-    <hyperlink ref="K94" r:id="rId231" display="https://sites.google.com/view/ronak-patel/" xr:uid="{30BB4B45-BE3C-4B51-8751-F1166793B9D8}"/>
-    <hyperlink ref="K87" r:id="rId232" display="https://sites.google.com/a/charusat.ac.in/priyanka-patel/about-me" xr:uid="{2F80CF65-0198-4866-9245-0932E2D2E991}"/>
-    <hyperlink ref="K11" r:id="rId233" xr:uid="{B7911887-1D4E-4149-9255-34290DE15C67}"/>
-    <hyperlink ref="K93" r:id="rId234" xr:uid="{CC19190B-EF5A-4030-970E-47B4649A66EC}"/>
-    <hyperlink ref="K79" r:id="rId235" display="http://learnwithparth.in/" xr:uid="{0D098BA1-951E-49B0-BA34-5489DFACFB69}"/>
-    <hyperlink ref="K60" r:id="rId236" display="https://sites.google.com/charusat.ac.in/mayuri-popat/home/academic-experience?authuser=0" xr:uid="{CD111632-8632-4F99-808E-7B0BA423BCF0}"/>
-    <hyperlink ref="K25" r:id="rId237" display="http://https/www.simpldhara.github.io" xr:uid="{1B0FEF49-7DD4-45B9-B1E6-577EDB068225}"/>
-    <hyperlink ref="K4" r:id="rId238" xr:uid="{A55ED677-5A40-43B5-A2E0-3934032012FA}"/>
-    <hyperlink ref="I12" r:id="rId239" xr:uid="{559F5BE6-A98D-4918-9ADE-3B5DB2AC1B24}"/>
-    <hyperlink ref="I13" r:id="rId240" xr:uid="{B5B2A2F7-DD9E-4163-AECE-07D5742E906D}"/>
-    <hyperlink ref="I49" r:id="rId241" xr:uid="{2DF8A589-77D3-487D-9871-F11C086009D1}"/>
-    <hyperlink ref="I82" r:id="rId242" xr:uid="{4F6BB86B-ECFA-4396-9D2B-715AF4C8A22C}"/>
-    <hyperlink ref="I50" r:id="rId243" xr:uid="{C80EDEE3-BA73-444F-89E4-2007846DC254}"/>
-    <hyperlink ref="I90" r:id="rId244" xr:uid="{E27523F8-498C-4ABD-8999-7C5FE36E5CA5}"/>
-    <hyperlink ref="L72" r:id="rId245" xr:uid="{948CADBD-38FA-4A43-B789-35C5FE176C3F}"/>
-    <hyperlink ref="L3" r:id="rId246" xr:uid="{F46A9101-D683-4CCF-9110-8584476B2BA9}"/>
-    <hyperlink ref="L83" r:id="rId247" xr:uid="{6E19F5D8-BA05-4C24-BFED-0131679AE1A3}"/>
-    <hyperlink ref="L57" r:id="rId248" xr:uid="{15D92DD2-9C84-4024-BCB0-89C6EAD615FB}"/>
-    <hyperlink ref="L18" r:id="rId249" xr:uid="{E24865B7-0C5D-46C6-8B52-CB38271DBD7E}"/>
-    <hyperlink ref="L49" r:id="rId250" xr:uid="{4D2C143E-EFF2-43ED-8C1B-94D7326ABF76}"/>
-    <hyperlink ref="L92" r:id="rId251" xr:uid="{22687922-AA0C-441B-A3FA-FB8732C6A78E}"/>
-    <hyperlink ref="L106" r:id="rId252" display="https://scholar.google.com/citations?user=Gzsxo-oAAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{FF9B096B-7991-46C3-B06A-152491BA6C90}"/>
-    <hyperlink ref="L68" r:id="rId253" xr:uid="{690AB285-269F-47C4-BA46-90F767A79CC1}"/>
-    <hyperlink ref="L91" r:id="rId254" xr:uid="{9AF26C9F-30B4-4DAE-A809-C138362FFD00}"/>
-    <hyperlink ref="L95" r:id="rId255" xr:uid="{8D4A0E6E-AA77-4CD4-AA54-DEC95D5CF09E}"/>
-    <hyperlink ref="L50" r:id="rId256" xr:uid="{A64FDC24-6D97-4969-AC20-BF200CE32B3A}"/>
-    <hyperlink ref="L19" r:id="rId257" xr:uid="{2DF7625D-5BDC-4383-BFF5-27331B9E27C1}"/>
-    <hyperlink ref="L71" r:id="rId258" display="https://scholar.google.co.in/citations?user=9PPA-6oAAAAJ&amp;hl=en" xr:uid="{38968AA0-46FD-46B0-84CD-C755BCC30A99}"/>
-    <hyperlink ref="L23" r:id="rId259" xr:uid="{4FF8802A-1D76-4C6B-91B4-17C781B102D6}"/>
-    <hyperlink ref="L52" r:id="rId260" xr:uid="{8365015A-789A-4D2C-9684-352B6CC70A5E}"/>
-    <hyperlink ref="L86" r:id="rId261" xr:uid="{BD03203D-E2A2-453C-8DB9-B1F0B5A13124}"/>
-    <hyperlink ref="L36" r:id="rId262" display="https://scholar.google.com/citations?user=ay8-QY0AAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{CEA8B045-C60C-4ADA-9F10-8B980373388F}"/>
-    <hyperlink ref="L14" r:id="rId263" display="https://scholar.google.com/citations?user=TCsNw-YAAAAJ&amp;hl=en" xr:uid="{D0B58B70-976E-4FD0-A498-4FE5480744DA}"/>
-    <hyperlink ref="L17" r:id="rId264" xr:uid="{19EAA634-8BE7-4A2F-8B30-8A424E254965}"/>
-    <hyperlink ref="L29" r:id="rId265" xr:uid="{3D65CD0F-C15B-4E98-9324-C36FAB47EBC4}"/>
-    <hyperlink ref="L67" r:id="rId266" xr:uid="{264FF3AA-8D89-41E4-9DA6-521BD58711A9}"/>
-    <hyperlink ref="L32" r:id="rId267" display="https://www.bing.com/ck/a?!&amp;&amp;p=6a7ac5a017a1300aJmltdHM9MTcyOTQ2ODgwMCZpZ3VpZD0wMDExMmIyNS1kMzQ5LTY3MTItMmE4My0zZTA1ZDI1NjY2MWEmaW5zaWQ9NTE5NQ&amp;ptn=3&amp;ver=2&amp;hsh=3&amp;fclid=00112b25-d349-6712-2a83-3e05d256661a&amp;psq=google+scholer+gajanan+patange&amp;u=a1aHR0cHM6Ly9zY2hvbGFyLmdvb2dsZS5wbC9jaXRhdGlvbnM_dXNlcj1fRDRISUhjQUFBQUomaGw9ZW4&amp;ntb=1" xr:uid="{275A790E-9657-41D9-B9F2-78D3822C4310}"/>
-    <hyperlink ref="L9" r:id="rId268" xr:uid="{758E6349-E050-42DF-B5C3-FBA97B821030}"/>
-    <hyperlink ref="L114" r:id="rId269" xr:uid="{9ACD46AD-FE8F-41CE-9823-5DC65F691D5B}"/>
-    <hyperlink ref="L4" r:id="rId270" xr:uid="{9B291D90-C0E1-493C-9E5E-17CAF2B7D2F2}"/>
-    <hyperlink ref="L12" r:id="rId271" xr:uid="{8C6729CD-380A-483D-A997-7DBCBA390939}"/>
-    <hyperlink ref="L101" r:id="rId272" xr:uid="{C07AED6D-34B0-40AA-B65E-C9BFB9F1574D}"/>
-    <hyperlink ref="L38" r:id="rId273" display="https://scholar.google.com/citations?user=6d-aVTEAAAAJ&amp;hl=en" xr:uid="{EBC010F8-7D12-4DC1-9FDA-49EFC51EFF71}"/>
-    <hyperlink ref="L21" r:id="rId274" xr:uid="{0DDB7A07-865A-4AD7-986A-DE5D031FFBD0}"/>
-    <hyperlink ref="L28" r:id="rId275" xr:uid="{E6ABE8A4-4EFC-489A-B104-3BCC2E998A7B}"/>
-    <hyperlink ref="L97" r:id="rId276" xr:uid="{ABDCFD31-BA21-4022-B6C1-EDDD441956ED}"/>
-    <hyperlink ref="L6" r:id="rId277" xr:uid="{591DF322-16B2-4785-A83C-3147BF3D09D2}"/>
-    <hyperlink ref="L70" r:id="rId278" xr:uid="{BB403419-C3FE-440B-B0A2-AF35C3C2E8E3}"/>
-    <hyperlink ref="L22" r:id="rId279" xr:uid="{A227399F-9975-4976-9597-2D3E6151DCB8}"/>
-    <hyperlink ref="L39" r:id="rId280" xr:uid="{535A1FEE-65AB-4486-BF0D-ADD9A3382AFB}"/>
-    <hyperlink ref="L42" r:id="rId281" display="https://scholar.google.com/citations?hl=en&amp;user=geQ-r_QAAAAJ" xr:uid="{36509863-135E-43CA-B732-4C0DEFDDC2FC}"/>
-    <hyperlink ref="L102" r:id="rId282" xr:uid="{7F8D3F89-D92D-4081-B489-E387250A10BD}"/>
-    <hyperlink ref="L24" r:id="rId283" xr:uid="{B4A03D8A-649C-469B-B24A-E9F9B481D48B}"/>
-    <hyperlink ref="L26" r:id="rId284" xr:uid="{D3034C74-7237-42E2-A6B8-CD4BA8BBBF41}"/>
-    <hyperlink ref="L90" r:id="rId285" xr:uid="{53AE3D77-EDB3-413A-8D8F-16969CBE8103}"/>
-    <hyperlink ref="L98" r:id="rId286" xr:uid="{76D99C50-072C-40D7-BDEB-328FCCB109D9}"/>
-    <hyperlink ref="L53" r:id="rId287" xr:uid="{CD634DA2-F1A0-45FA-A86C-61D935383D2E}"/>
-    <hyperlink ref="L81" r:id="rId288" xr:uid="{F6874B5E-545B-4745-A546-56B6FD5105E9}"/>
-    <hyperlink ref="L111" r:id="rId289" xr:uid="{C22F05F4-D13D-45A5-A5B0-3237064F3209}"/>
-    <hyperlink ref="L27" r:id="rId290" xr:uid="{32CD251C-92CC-42C2-865F-89BE3026727C}"/>
-    <hyperlink ref="L54" r:id="rId291" xr:uid="{287D782E-D3CC-498E-B117-EBE696C4D447}"/>
-    <hyperlink ref="L41" r:id="rId292" xr:uid="{B241D450-267C-40BF-9C45-8957239BDD86}"/>
-    <hyperlink ref="L62" r:id="rId293" xr:uid="{AA7AD692-35BE-48A4-AF46-1B6413916E3B}"/>
-    <hyperlink ref="L48" r:id="rId294" display="https://scholar.google.co.in/citations?user=EdcH-Y0AAAAJ&amp;hl=en" xr:uid="{CE335172-93AC-45C2-9068-7C9C19F220C4}"/>
-    <hyperlink ref="L10" r:id="rId295" xr:uid="{A33E4A1F-E63E-4F7D-9DC5-3C5AB6E82811}"/>
-    <hyperlink ref="L51" r:id="rId296" xr:uid="{027764B5-CA65-453C-BFB6-EE555AA7BF1B}"/>
-    <hyperlink ref="L61" r:id="rId297" xr:uid="{E2F70942-EACF-4A90-B18A-A80CB466AAE7}"/>
-    <hyperlink ref="L65" r:id="rId298" xr:uid="{5645BFE0-C2D6-4EED-AFCB-0EF806CC91E9}"/>
-    <hyperlink ref="L34" r:id="rId299" xr:uid="{EE598F68-E624-44F6-B4DD-8299C007487F}"/>
-    <hyperlink ref="L75" r:id="rId300" display="https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=-9-RhBoAAAAJ" xr:uid="{E935D410-8781-42B6-B609-E835354DEBBB}"/>
-    <hyperlink ref="L5" r:id="rId301" display="https://scholar.google.co.in/citations?user=cVv-kdYAAAAJ&amp;hl=en" xr:uid="{746C1EFC-2FA9-49B1-AFB8-1C7FCA47096B}"/>
-    <hyperlink ref="L20" r:id="rId302" display="https://scholar.google.com/citations?user=dHkQ5D4AAAAJ&amp;hl=en" xr:uid="{25860FE4-2E75-42A8-BFFE-3AA02DEED40F}"/>
-    <hyperlink ref="L43" r:id="rId303" xr:uid="{5A9FF0C8-1A53-40E2-BF07-8AE47CB6B984}"/>
-    <hyperlink ref="L109" r:id="rId304" xr:uid="{5C89C29F-A386-4BBA-9788-4CB223E1744F}"/>
-    <hyperlink ref="L46" r:id="rId305" xr:uid="{63EFEA34-4397-48CB-B385-33D61D726E20}"/>
-    <hyperlink ref="L64" r:id="rId306" xr:uid="{0A4BFD56-8B2D-444E-8903-49F5DC5883A4}"/>
-    <hyperlink ref="L96" r:id="rId307" display="https://scholar.google.com/citations?hl=en&amp;user=utk-ZT0AAAAJ" xr:uid="{501E8FB4-1DC4-4EBD-A3BE-50F19352C1F0}"/>
-    <hyperlink ref="L84" r:id="rId308" xr:uid="{37E9CEEB-DC2C-46A2-BCF4-5A9521147A39}"/>
-    <hyperlink ref="L40" r:id="rId309" xr:uid="{EEF5DC34-1243-4468-B6B1-D9059ADE8AB0}"/>
-    <hyperlink ref="L110" r:id="rId310" display="https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;hl=en&amp;user=HDdsZFsAAAAJ&amp;scilu=&amp;scisig=AJY4_hMAAAAAZxidz75RZUbVraeNHOVGYgbAfP0&amp;gmla=ALUCkoUwv9xfR7EENoQtBn_aiKaqTyzZ1X2kORl9--L4aBw5WcKwjoDCVXVaogYeCbraaig0PTa5IzrpT_DyD12Vlt-ODcDk1Nt3fM0&amp;sciund=7577126703303180020" xr:uid="{197DCE6B-BB53-49E3-9D84-78838F524694}"/>
-    <hyperlink ref="L59" r:id="rId311" xr:uid="{B559F61A-BA8D-4A15-AF94-270FD8E6EE0D}"/>
-    <hyperlink ref="L99" r:id="rId312" xr:uid="{BDF263A7-4F8B-46B8-BBE8-705BBF9DE738}"/>
-    <hyperlink ref="L13" r:id="rId313" xr:uid="{7649604F-C033-4670-9F95-0C2C5AC47C84}"/>
-    <hyperlink ref="L45" r:id="rId314" xr:uid="{035221F3-6BA9-41F1-A09D-0FD648704591}"/>
-    <hyperlink ref="L105" r:id="rId315" xr:uid="{1CDECF45-D107-4A0E-A561-5D783437E97C}"/>
-    <hyperlink ref="L103" r:id="rId316" xr:uid="{B653EAA6-C485-435F-854D-438BD267A19D}"/>
-    <hyperlink ref="L94" r:id="rId317" xr:uid="{BAF6ABB2-16F7-4B7A-8AC8-F52F94951E56}"/>
-    <hyperlink ref="L15" r:id="rId318" xr:uid="{F38927F1-EEEB-453A-8636-E6644582D973}"/>
-    <hyperlink ref="L56" r:id="rId319" xr:uid="{9E4C99F0-F427-4B73-88C1-9DDF17D8ABDE}"/>
-    <hyperlink ref="L47" r:id="rId320" xr:uid="{4048416A-0F5D-4582-8A3D-08AFC13874F9}"/>
-    <hyperlink ref="L104" r:id="rId321" xr:uid="{8400FD3C-B4D9-436A-8179-88B2F74CE3F2}"/>
-    <hyperlink ref="L44" r:id="rId322" xr:uid="{201F5259-DE23-43B6-A300-CE6428FFA5ED}"/>
-    <hyperlink ref="L89" r:id="rId323" xr:uid="{31420B66-56AB-4794-90CA-5F5AFEE32FDC}"/>
-    <hyperlink ref="L87" r:id="rId324" xr:uid="{C4F50DBC-0BFE-4509-9E86-8433559B0E5F}"/>
-    <hyperlink ref="L63" r:id="rId325" xr:uid="{90FCCA59-114D-4A5C-9409-D7A92B5C554D}"/>
-    <hyperlink ref="L37" r:id="rId326" xr:uid="{86700D43-54F6-409C-AA74-11A10CF95742}"/>
-    <hyperlink ref="L66" r:id="rId327" xr:uid="{C018FF9B-EED7-4A65-95FA-780ACBBA2D7E}"/>
-    <hyperlink ref="L107" r:id="rId328" xr:uid="{60A89811-803F-44C1-9C4C-03400FFC3370}"/>
-    <hyperlink ref="L58" r:id="rId329" display="https://scholar.google.com/citations?user=D-wd8QgAAAAJ&amp;hl=en" xr:uid="{FEE2843B-8463-42EA-93D3-8C0055A27E1B}"/>
-    <hyperlink ref="L73" r:id="rId330" xr:uid="{D89F1643-F631-4232-BD92-A17AB43537BB}"/>
-    <hyperlink ref="L2" r:id="rId331" xr:uid="{FA588FCD-5B5F-455C-A8F1-363E48BF4B34}"/>
-    <hyperlink ref="L11" r:id="rId332" xr:uid="{75F0D2F4-DBF8-4BC0-81C8-E510EB404F91}"/>
-    <hyperlink ref="L93" r:id="rId333" xr:uid="{4B1641D3-9830-41C6-9804-FD4F1CAA246E}"/>
-    <hyperlink ref="L116" r:id="rId334" xr:uid="{187B270B-DD03-4B4E-A0EC-FA089BBBF941}"/>
-    <hyperlink ref="L79" r:id="rId335" xr:uid="{09000797-9862-4D17-81A3-8BF615CB0D28}"/>
-    <hyperlink ref="L33" r:id="rId336" xr:uid="{30E40F4D-0941-4C35-B988-415178726C05}"/>
-    <hyperlink ref="L100" r:id="rId337" xr:uid="{2A5203BE-43E1-47B8-B2C4-1CC37588A5AB}"/>
-    <hyperlink ref="L88" r:id="rId338" xr:uid="{570C26B0-6EF3-40AB-BBA0-06474B8C9E9F}"/>
-    <hyperlink ref="L30" r:id="rId339" xr:uid="{8315B941-53AD-4CC4-8A93-715BF028D5D6}"/>
-    <hyperlink ref="L85" r:id="rId340" xr:uid="{A11BA51D-FBB4-444E-9239-AD5CA8BDA6AA}"/>
-    <hyperlink ref="L108" r:id="rId341" xr:uid="{BD6653EC-2D4F-4519-B739-A572013209E8}"/>
-    <hyperlink ref="L60" r:id="rId342" xr:uid="{FCDEB08A-0CA4-4598-B598-28FC8001225C}"/>
-    <hyperlink ref="L55" r:id="rId343" xr:uid="{21317881-56A9-411E-B0E0-953DFEB53FB5}"/>
-    <hyperlink ref="L115" r:id="rId344" xr:uid="{2C2ECFF6-DA6C-4C65-B48D-83C8B953A10F}"/>
-    <hyperlink ref="L7" r:id="rId345" xr:uid="{AC52BE48-B1BC-4E71-B6C1-88AF068D6F7B}"/>
-    <hyperlink ref="L31" r:id="rId346" xr:uid="{7701D08D-592D-4F08-8A1D-722D9125A481}"/>
-    <hyperlink ref="L76" r:id="rId347" xr:uid="{08A9DD36-F049-430E-ACEE-0254B9EB019D}"/>
-    <hyperlink ref="L82" r:id="rId348" xr:uid="{69BD5E03-494B-42BC-B711-BD56B50C14BD}"/>
-    <hyperlink ref="L8" r:id="rId349" display="https://scholar.google.com/citations?user=49QO52oAAAAJ&amp;hl=en&amp;citsig=ADIE8snLeq6YPks1Pa9NqbNhY8-8" xr:uid="{597E11F7-5E1F-4746-9B2D-F0B3CE2DAADD}"/>
-    <hyperlink ref="M72" r:id="rId350" display="https://vidwan.inflibnet.ac.in/profile/161243/MTYxMjQz" xr:uid="{377E489A-5F66-4D39-9D16-5A09C06888BF}"/>
-    <hyperlink ref="M3" r:id="rId351" xr:uid="{969CA3F3-003E-45D0-B448-786C1B45A99B}"/>
-    <hyperlink ref="M83" r:id="rId352" xr:uid="{FCF270CA-7E29-44DE-9B34-531A560121D2}"/>
-    <hyperlink ref="M57" r:id="rId353" xr:uid="{27A56F3E-3B7A-497C-B419-6D4EB0B36DFE}"/>
-    <hyperlink ref="M18" r:id="rId354" xr:uid="{A8B03D72-4F58-488B-AA71-6FE545C4F974}"/>
-    <hyperlink ref="M49" r:id="rId355" xr:uid="{46B27430-2CB4-4571-B683-C90BDB1A869A}"/>
-    <hyperlink ref="M92" r:id="rId356" xr:uid="{B3372949-44D6-47D3-93F5-F231A1194C2D}"/>
-    <hyperlink ref="M106" r:id="rId357" xr:uid="{BD564D33-09CC-4E3F-8665-C7CC006586D4}"/>
-    <hyperlink ref="M68" r:id="rId358" xr:uid="{46D7BE4E-C50A-4838-A0D5-A66608E30FB1}"/>
-    <hyperlink ref="M91" r:id="rId359" xr:uid="{49346F82-88CD-458B-9055-E1D237495067}"/>
-    <hyperlink ref="M95" r:id="rId360" xr:uid="{275EA512-D486-4AA6-B9C6-EDFD8EB5E681}"/>
-    <hyperlink ref="M50" r:id="rId361" xr:uid="{F1370FFD-2A24-4E0D-842E-D15A59048874}"/>
-    <hyperlink ref="M19" r:id="rId362" xr:uid="{B079BDCE-9644-48D8-ADB9-55246D89BB3B}"/>
-    <hyperlink ref="M71" r:id="rId363" xr:uid="{21DA9F6E-42F2-4C08-8BCC-45E0F47AC02F}"/>
-    <hyperlink ref="M23" r:id="rId364" display="https://vidwan.inflibnet.ac.in/profile/162290/MTYyMjkw" xr:uid="{C5101B56-8150-4439-9561-ADE65CCB8626}"/>
-    <hyperlink ref="M78" r:id="rId365" xr:uid="{FA23B353-3F9D-46B1-82DA-820AA4FBE86D}"/>
-    <hyperlink ref="M86" r:id="rId366" xr:uid="{680496D4-6792-4688-B37B-3D2836A2CBB1}"/>
-    <hyperlink ref="M36" r:id="rId367" xr:uid="{C295F105-2491-4119-851F-B09A35F5D83B}"/>
-    <hyperlink ref="M14" r:id="rId368" xr:uid="{C6A42F1F-C70B-482C-BAF5-08E29835556D}"/>
-    <hyperlink ref="M80" r:id="rId369" xr:uid="{D12744D8-8D17-44EF-A69E-A1A202FA6698}"/>
-    <hyperlink ref="M17" r:id="rId370" xr:uid="{026E65A7-E47E-491B-A07D-37EBD353FD4E}"/>
-    <hyperlink ref="M35" r:id="rId371" xr:uid="{5D0B8227-026E-47C4-897D-D449D1EA7349}"/>
-    <hyperlink ref="M29" r:id="rId372" xr:uid="{02E7C489-97EB-4764-B304-885B559F8C0E}"/>
-    <hyperlink ref="M67" r:id="rId373" xr:uid="{7BCC998C-8FF9-4866-BDE0-4E618132491D}"/>
-    <hyperlink ref="M9" r:id="rId374" xr:uid="{91B9619A-0474-417B-A83E-F1ACC0AF0CEC}"/>
-    <hyperlink ref="M114" r:id="rId375" xr:uid="{9DC7345F-59EF-46AB-AFF8-A485034FCFB5}"/>
-    <hyperlink ref="M4" r:id="rId376" xr:uid="{C24F8B1B-E131-406E-8B92-980981B7F2F8}"/>
-    <hyperlink ref="M12" r:id="rId377" xr:uid="{BBE0AFF3-0C87-45BA-B244-2EBD516259AE}"/>
-    <hyperlink ref="M101" r:id="rId378" xr:uid="{36A3294C-FBE9-4AE5-B367-A4F7EB299507}"/>
-    <hyperlink ref="M38" r:id="rId379" xr:uid="{CC9655FE-1EDD-46F8-BE5B-9E92C5013680}"/>
-    <hyperlink ref="M21" r:id="rId380" xr:uid="{47BBD086-2D33-4012-A8B6-B4A4E0F676C3}"/>
-    <hyperlink ref="M28" r:id="rId381" xr:uid="{D9812B9F-31E0-4DAD-8A1E-6460EF4BE795}"/>
-    <hyperlink ref="M97" r:id="rId382" xr:uid="{194FE3FD-0EF9-46C4-B769-B4AAF95E0018}"/>
-    <hyperlink ref="M6" r:id="rId383" xr:uid="{3C597F50-A6C7-4686-85A0-F6E6694F57E3}"/>
-    <hyperlink ref="M70" r:id="rId384" xr:uid="{A87D811B-910D-45F2-BF34-A478CD7D8B09}"/>
-    <hyperlink ref="M22" r:id="rId385" xr:uid="{686F19E9-9FDF-4E88-8243-D809ABB3FE79}"/>
-    <hyperlink ref="M42" r:id="rId386" xr:uid="{FB2FC638-1D01-4122-BA7D-9717BC8B2EF3}"/>
-    <hyperlink ref="M102" r:id="rId387" xr:uid="{F0E56AD7-3828-45B1-A3E4-95B4E7B7495F}"/>
-    <hyperlink ref="M24" r:id="rId388" xr:uid="{5E6A27FA-6F1B-4920-AF3A-0018DC331E36}"/>
-    <hyperlink ref="M26" r:id="rId389" xr:uid="{758E2E1D-BBB4-4F0B-A1FA-EB3E5DE2D156}"/>
-    <hyperlink ref="M90" r:id="rId390" xr:uid="{1C320BD2-5251-44A7-81C2-D89E208736CC}"/>
-    <hyperlink ref="M98" r:id="rId391" xr:uid="{4BF3D2D2-9743-494B-A7D1-9EEF7423F2B3}"/>
-    <hyperlink ref="M53" r:id="rId392" xr:uid="{642FC8EF-95E5-4804-8108-73A9ADB45FBB}"/>
-    <hyperlink ref="M81" r:id="rId393" xr:uid="{6069906B-85A1-4520-B697-E8420F4D518A}"/>
-    <hyperlink ref="M111" r:id="rId394" xr:uid="{45C10A27-1AD3-4A6F-966C-946B5F9ECB83}"/>
-    <hyperlink ref="M27" r:id="rId395" xr:uid="{F2CE36A5-3E73-43DE-A91D-5D1E2781384A}"/>
-    <hyperlink ref="M54" r:id="rId396" xr:uid="{6815F862-B01A-4FF2-B310-DDE65D78FBDB}"/>
-    <hyperlink ref="M41" r:id="rId397" xr:uid="{2167CAC5-42F7-48BE-A140-282801D50406}"/>
-    <hyperlink ref="M112" r:id="rId398" xr:uid="{2D0BE123-EDFD-4091-BCF0-204188FF3B30}"/>
-    <hyperlink ref="M62" r:id="rId399" xr:uid="{7A45E352-1CCC-4E30-B5C0-2C2507845C07}"/>
-    <hyperlink ref="M48" r:id="rId400" xr:uid="{D69AB844-8B39-4156-9897-B02CB20CA4D5}"/>
-    <hyperlink ref="M10" r:id="rId401" xr:uid="{04F1C981-8348-4D72-8A69-A692D3062D64}"/>
-    <hyperlink ref="M51" r:id="rId402" xr:uid="{65DE02F5-B84D-45D0-9DC1-F7808BDFD38D}"/>
-    <hyperlink ref="M61" r:id="rId403" xr:uid="{C49314E6-1B8D-41D3-8824-C6AE59F00DDA}"/>
-    <hyperlink ref="M65" r:id="rId404" xr:uid="{22CCAF6F-639B-4091-91C4-0D9E09A79A31}"/>
-    <hyperlink ref="M34" r:id="rId405" xr:uid="{9E6DCF4C-EA31-4D9D-AE0D-50C83C0347DE}"/>
-    <hyperlink ref="M75" r:id="rId406" xr:uid="{D71D3644-6845-46C5-83D7-DA2B52AF5733}"/>
-    <hyperlink ref="M5" r:id="rId407" xr:uid="{7687E521-D8FB-41F5-A5E6-AE953D92E830}"/>
-    <hyperlink ref="M20" r:id="rId408" xr:uid="{4DDDF623-882B-481C-A6D6-41041F349837}"/>
-    <hyperlink ref="M43" r:id="rId409" xr:uid="{52C3C99B-42C3-444C-A194-78CDBDAFC9CB}"/>
-    <hyperlink ref="M109" r:id="rId410" display="https://vidwan.inflibnet.ac.in/profile/161344" xr:uid="{FE2BA8E6-DD6C-4A10-91F1-326AA51E88D5}"/>
-    <hyperlink ref="M46" r:id="rId411" xr:uid="{2FFD071F-CF1A-4200-989A-978DBA72FD44}"/>
-    <hyperlink ref="M64" r:id="rId412" xr:uid="{E4C6C757-CD64-47C7-8F12-6CE6B9FFD60C}"/>
-    <hyperlink ref="M96" r:id="rId413" xr:uid="{722D10A1-25FB-4CE7-9F0B-C75508E442CE}"/>
-    <hyperlink ref="M84" r:id="rId414" xr:uid="{32A836FB-CB40-470F-B02E-7B6392FD539D}"/>
-    <hyperlink ref="M40" r:id="rId415" location="other_information_panel" display="https://vidwan.inflibnet.ac.in/myprofile - other_information_panel" xr:uid="{FE644920-561A-44DA-A700-34ED8EB7963F}"/>
-    <hyperlink ref="M110" r:id="rId416" xr:uid="{2C076003-CA45-4492-A114-A44CC1E60BF2}"/>
-    <hyperlink ref="M59" r:id="rId417" xr:uid="{BC2FF260-09A4-4D46-81FB-823835AD57DA}"/>
-    <hyperlink ref="M99" r:id="rId418" xr:uid="{B2860DA1-1C8E-403D-9E1C-CE3896F91BFD}"/>
-    <hyperlink ref="M13" r:id="rId419" xr:uid="{2DE04985-AB3C-4D4B-BCEE-EF8C728199F4}"/>
-    <hyperlink ref="M45" r:id="rId420" xr:uid="{546046AA-45E7-4EDD-81FB-A6648B9BB595}"/>
-    <hyperlink ref="M105" r:id="rId421" xr:uid="{7330EFFC-2F12-4EFE-BF25-3D30861E8775}"/>
-    <hyperlink ref="M94" r:id="rId422" xr:uid="{4F8D1CF8-D215-443F-8914-E091AFB2DBAE}"/>
-    <hyperlink ref="M15" r:id="rId423" xr:uid="{4CD74FA1-A139-4BCD-9CB7-1D7091E614B9}"/>
-    <hyperlink ref="M56" r:id="rId424" xr:uid="{EAABDC46-8B1B-482C-B7D7-E6E7C16FB647}"/>
-    <hyperlink ref="M104" r:id="rId425" xr:uid="{ACDF2E56-83C7-477F-A573-2B4112936AD3}"/>
-    <hyperlink ref="M44" r:id="rId426" xr:uid="{B502A1CE-A61F-4999-A855-F6ECA908B905}"/>
-    <hyperlink ref="M89" r:id="rId427" xr:uid="{EF82DFB8-BEB4-47BB-B28B-AF5A4CDD6891}"/>
-    <hyperlink ref="M74" r:id="rId428" xr:uid="{6D71EE52-86C9-4EE0-A55D-7B9652B864FF}"/>
-    <hyperlink ref="M87" r:id="rId429" xr:uid="{C073950A-A28A-4ED8-B9C1-BD3B160FAEF3}"/>
-    <hyperlink ref="M63" r:id="rId430" xr:uid="{958C1C19-9C17-41E8-ADC4-BAB91255F382}"/>
-    <hyperlink ref="M37" r:id="rId431" xr:uid="{0CC98B27-C0DC-4F81-A868-5BC7C0784B50}"/>
-    <hyperlink ref="M66" r:id="rId432" xr:uid="{B86191A1-65D6-4540-845F-518E32A64FBF}"/>
-    <hyperlink ref="M107" r:id="rId433" xr:uid="{47889514-AB9C-4B04-95A5-1CCA3A0DFCA8}"/>
-    <hyperlink ref="M58" r:id="rId434" xr:uid="{36AE2A42-0E80-4A5F-8FB0-4EAB2AEA8C36}"/>
-    <hyperlink ref="M69" r:id="rId435" xr:uid="{7FE7C886-2B29-491F-8C86-5526A33F7121}"/>
-    <hyperlink ref="M73" r:id="rId436" xr:uid="{FDFB0EA9-AD4D-43E9-BEF9-C60B9531C82F}"/>
-    <hyperlink ref="M2" r:id="rId437" xr:uid="{251C34E0-B509-4755-B850-FDEB3B770405}"/>
-    <hyperlink ref="M11" r:id="rId438" xr:uid="{3203A1D8-1572-4E08-ADEF-54F74525E87A}"/>
-    <hyperlink ref="M93" r:id="rId439" xr:uid="{28CD01ED-234C-4911-A047-12722FE76C1F}"/>
-    <hyperlink ref="M116" r:id="rId440" xr:uid="{82D93DAC-CF9F-4D41-B8C8-5AE08EA58BAA}"/>
-    <hyperlink ref="M79" r:id="rId441" xr:uid="{68120C28-52E3-4EC9-9F3E-EB5A3578A3BD}"/>
-    <hyperlink ref="M33" r:id="rId442" display="https://vidwan.inflibnet.ac.in/profile/161755-" xr:uid="{B87FE430-1CFA-4F98-A7E4-77FBF96BA37F}"/>
-    <hyperlink ref="M100" r:id="rId443" xr:uid="{649E7EFF-CC71-476F-9A81-1581EC34CD48}"/>
-    <hyperlink ref="M88" r:id="rId444" xr:uid="{1C9375D7-8EF5-40A1-914C-C5A7CD3188FB}"/>
-    <hyperlink ref="M85" r:id="rId445" xr:uid="{66509B53-066F-4635-85A6-6E99D5FE0B3E}"/>
-    <hyperlink ref="M108" r:id="rId446" xr:uid="{775D1521-4736-4C73-BB71-31FD5AD1E561}"/>
-    <hyperlink ref="M60" r:id="rId447" xr:uid="{A128A132-518A-476D-BCF8-6D3638CE18D6}"/>
-    <hyperlink ref="M55" r:id="rId448" xr:uid="{A1AFE28A-9643-4A4A-95E8-53E1C4380AAE}"/>
-    <hyperlink ref="M115" r:id="rId449" xr:uid="{6A1A9D4D-97FF-42A2-B2EA-85F3F7E515C2}"/>
-    <hyperlink ref="M7" r:id="rId450" xr:uid="{BA494279-5FA7-4467-ACAA-FFA1824DB9F7}"/>
-    <hyperlink ref="M31" r:id="rId451" xr:uid="{43BBD922-4BE8-457C-9F25-7684B0D6F35B}"/>
-    <hyperlink ref="M76" r:id="rId452" xr:uid="{C2281EE1-00E4-42D3-875C-3C9C699518DB}"/>
-    <hyperlink ref="M82" r:id="rId453" xr:uid="{3C1D1058-7762-4D63-9FB9-41A44D4AB1F3}"/>
+    <hyperlink ref="E10" r:id="rId6" xr:uid="{CE30ABE6-4735-49AC-9E38-986CD096C5BF}"/>
+    <hyperlink ref="E12" r:id="rId7" xr:uid="{17D5C088-BD3A-4E75-8035-22B027942A64}"/>
+    <hyperlink ref="E14" r:id="rId8" xr:uid="{6815D31E-1624-40E4-AD43-8FB5276A3E13}"/>
+    <hyperlink ref="E18" r:id="rId9" display="https://placehold.co/400x600" xr:uid="{D37B5237-F7AD-4C72-A4B8-18846345A20A}"/>
+    <hyperlink ref="E20" r:id="rId10" display="https://placehold.co/400x600" xr:uid="{455E2F96-6FCE-4ED2-9C3B-2E6E7249AE44}"/>
+    <hyperlink ref="E22" r:id="rId11" display="https://placehold.co/400x600" xr:uid="{77807312-4DCC-424A-9227-0205668D168B}"/>
+    <hyperlink ref="E24" r:id="rId12" display="https://placehold.co/400x600" xr:uid="{8AAD6443-2520-4082-8EC0-C46B0A509927}"/>
+    <hyperlink ref="E26" r:id="rId13" display="https://placehold.co/400x600" xr:uid="{5B8C9469-79CD-4130-A71A-FB9845883315}"/>
+    <hyperlink ref="E28" r:id="rId14" xr:uid="{C6FD206E-083A-424A-BEB2-E5FA5EA1028A}"/>
+    <hyperlink ref="E30" r:id="rId15" xr:uid="{3C06105A-95B0-486E-B562-804FA49B279E}"/>
+    <hyperlink ref="E32" r:id="rId16" display="https://placehold.co/400x600" xr:uid="{445C6875-08FB-4A0D-945E-88ACC5B3E36F}"/>
+    <hyperlink ref="E34" r:id="rId17" xr:uid="{65D66EC6-EE19-4700-A25B-1483B78EB1EF}"/>
+    <hyperlink ref="E36" r:id="rId18" display="https://placehold.co/400x600" xr:uid="{2E844F72-E0A3-4D15-89E8-4C62C40B0097}"/>
+    <hyperlink ref="E38" r:id="rId19" xr:uid="{15AC029B-EF8F-4E8F-BB97-C5EC917FD18C}"/>
+    <hyperlink ref="E40" r:id="rId20" xr:uid="{5FE82AD6-8780-451F-B565-3C9E2036135F}"/>
+    <hyperlink ref="E42" r:id="rId21" xr:uid="{F7983BF9-576C-4FA2-B35A-DFA749ACF1B5}"/>
+    <hyperlink ref="E44" r:id="rId22" xr:uid="{DF66767C-72DE-4D71-B54F-89D37A2B3207}"/>
+    <hyperlink ref="E46" r:id="rId23" display="https://placehold.co/400x600" xr:uid="{E6907F0E-8A63-42E5-881D-83BE98378391}"/>
+    <hyperlink ref="E48" r:id="rId24" display="https://placehold.co/400x600" xr:uid="{BF819DDD-F33C-4323-B234-FA5AEFEBF540}"/>
+    <hyperlink ref="E50" r:id="rId25" display="https://placehold.co/400x600" xr:uid="{B4631102-EF86-443A-975E-E151B867331C}"/>
+    <hyperlink ref="E52" r:id="rId26" xr:uid="{D0C8995E-2389-436D-96F9-0ECFED635D2D}"/>
+    <hyperlink ref="E54" r:id="rId27" display="https://placehold.co/400x600" xr:uid="{41208DE8-410A-4988-814F-34D6808B3973}"/>
+    <hyperlink ref="E56" r:id="rId28" display="https://placehold.co/400x600" xr:uid="{D60F983F-3A4A-4B45-A5A9-1CBD13CCBAB1}"/>
+    <hyperlink ref="E58" r:id="rId29" xr:uid="{DDB2A0FD-936A-490E-BE1E-1762A651B20C}"/>
+    <hyperlink ref="E62" r:id="rId30" xr:uid="{5E732335-693B-490D-844A-64351A2B11C7}"/>
+    <hyperlink ref="E64" r:id="rId31" display="https://placehold.co/400x600" xr:uid="{B032BBB6-4D16-4E33-A3F0-D7039E10D767}"/>
+    <hyperlink ref="E66" r:id="rId32" display="https://placehold.co/400x600" xr:uid="{C71F9231-ACA2-46E1-BE2F-462475789CDA}"/>
+    <hyperlink ref="E68" r:id="rId33" xr:uid="{6DAF2527-3F52-4351-90EE-F788A7836287}"/>
+    <hyperlink ref="E70" r:id="rId34" xr:uid="{C213B07F-FB90-4578-BA40-CB5277C5E9F8}"/>
+    <hyperlink ref="E72" r:id="rId35" display="https://placehold.co/400x600" xr:uid="{B6B3C0BC-449F-4D5F-8991-2960BC1E1B95}"/>
+    <hyperlink ref="E74" r:id="rId36" xr:uid="{12F3E568-1027-43BC-89EA-C5D4D2C3F3B1}"/>
+    <hyperlink ref="E76" r:id="rId37" xr:uid="{9BCFDA15-C8D8-41F6-B5C1-8DB9E3F54F38}"/>
+    <hyperlink ref="E78" r:id="rId38" display="https://placehold.co/400x600" xr:uid="{5074351A-0735-4679-AE99-F1F491EAD66F}"/>
+    <hyperlink ref="E80" r:id="rId39" xr:uid="{797A27FB-9286-43BA-A3D3-06E0B7DF57C7}"/>
+    <hyperlink ref="E82" r:id="rId40" display="https://placehold.co/400x600" xr:uid="{E22D4C78-609C-4F6C-902E-67DDEA2AEC08}"/>
+    <hyperlink ref="E84" r:id="rId41" display="https://placehold.co/400x600" xr:uid="{689543FA-D772-478F-B75B-353A8D5F5A0F}"/>
+    <hyperlink ref="E86" r:id="rId42" display="https://placehold.co/400x600" xr:uid="{6F1B4F40-1347-45F9-B0B9-89687F77E0B0}"/>
+    <hyperlink ref="E88" r:id="rId43" display="https://placehold.co/400x600" xr:uid="{269A95A2-A318-4245-8364-07E925D041A6}"/>
+    <hyperlink ref="E90" r:id="rId44" display="https://placehold.co/400x600" xr:uid="{BC5C79FD-42B9-4F63-B259-53ADA917C149}"/>
+    <hyperlink ref="E92" r:id="rId45" xr:uid="{F219C840-96AC-40EA-9D7B-C09CBA360D2A}"/>
+    <hyperlink ref="E94" r:id="rId46" xr:uid="{E85B62E0-66A6-4BDE-AB82-B3F3885FF25D}"/>
+    <hyperlink ref="E96" r:id="rId47" display="https://placehold.co/400x600" xr:uid="{F685C903-F46A-4AEA-A4B6-30F5F5C38E02}"/>
+    <hyperlink ref="E98" r:id="rId48" display="https://placehold.co/400x600" xr:uid="{34A32507-5178-4AE2-8923-C76F8834EAC3}"/>
+    <hyperlink ref="E100" r:id="rId49" display="https://placehold.co/400x600" xr:uid="{316F114E-DC59-4C12-AAE4-7C561A6A4A37}"/>
+    <hyperlink ref="E102" r:id="rId50" xr:uid="{E6C4E1E9-ADFC-463C-BA35-72BF5470C0FC}"/>
+    <hyperlink ref="E104" r:id="rId51" display="https://placehold.co/400x600" xr:uid="{5C2E1F62-17AE-4C61-86CF-CFAADD48E3DA}"/>
+    <hyperlink ref="E106" r:id="rId52" display="https://placehold.co/400x600" xr:uid="{EB2D28AA-5611-4D14-B6D8-65655568052B}"/>
+    <hyperlink ref="E108" r:id="rId53" xr:uid="{1A1FF6C3-6CA4-4205-87F4-FFA4C505FE05}"/>
+    <hyperlink ref="E110" r:id="rId54" display="https://placehold.co/400x600" xr:uid="{D5F8DE7D-9A2E-4EB2-AD3E-1B6347BBB03A}"/>
+    <hyperlink ref="E112" r:id="rId55" display="https://placehold.co/400x600" xr:uid="{72604405-579A-4D04-AD70-2F433C2E73DD}"/>
+    <hyperlink ref="E114" r:id="rId56" display="https://placehold.co/400x600" xr:uid="{F52A7ADE-923C-4FC0-835C-C78BE5475FD1}"/>
+    <hyperlink ref="E116" r:id="rId57" display="https://placehold.co/400x600" xr:uid="{88BB9B9A-193B-430A-8A94-9996D9F8B858}"/>
+    <hyperlink ref="E5" r:id="rId58" display="https://placehold.co/400x600" xr:uid="{673B2D9E-5CEE-40DD-A0A2-66025584E8C2}"/>
+    <hyperlink ref="E7" r:id="rId59" xr:uid="{20202916-CECB-497F-BB8D-D7E09DCEC193}"/>
+    <hyperlink ref="E9" r:id="rId60" display="https://placehold.co/400x600" xr:uid="{E7773CE7-BD5F-4624-B940-0E795B4A4E30}"/>
+    <hyperlink ref="E11" r:id="rId61" display="https://placehold.co/400x600" xr:uid="{93DA058C-7CEC-4BA2-9D33-5FB8B5E88910}"/>
+    <hyperlink ref="E13" r:id="rId62" display="https://placehold.co/400x600" xr:uid="{8F788626-64E7-4F1D-A12D-F2E9D916467C}"/>
+    <hyperlink ref="E15" r:id="rId63" display="https://placehold.co/400x600" xr:uid="{8AD2972F-0CB2-4DCE-8821-C56F9057AD5B}"/>
+    <hyperlink ref="E19" r:id="rId64" display="https://placehold.co/400x600" xr:uid="{D4698768-8DC5-407A-B6F4-C1C875BFB78D}"/>
+    <hyperlink ref="E21" r:id="rId65" xr:uid="{13DD67BA-1FCB-43E0-A39C-FFE32E5D3954}"/>
+    <hyperlink ref="E23" r:id="rId66" xr:uid="{90D0F56C-C7DB-4632-B91C-EF74541F5FEA}"/>
+    <hyperlink ref="E25" r:id="rId67" xr:uid="{F6A0C9FE-D2B9-4181-8F81-93868F3E313C}"/>
+    <hyperlink ref="E27" r:id="rId68" xr:uid="{848B184F-1DE9-469A-9D63-F5CDEBF10D7A}"/>
+    <hyperlink ref="E29" r:id="rId69" xr:uid="{1AF17D20-76D5-4714-B7E2-2D8B8CB9ADC3}"/>
+    <hyperlink ref="E31" r:id="rId70" display="https://placehold.co/400x600" xr:uid="{22DD1D25-8288-4AC9-A5FC-D9B7B89B515C}"/>
+    <hyperlink ref="E33" r:id="rId71" xr:uid="{01F92761-8D63-4A2C-8713-25D41165DB40}"/>
+    <hyperlink ref="E35" r:id="rId72" xr:uid="{FFD57A2F-B179-4903-B296-F8069D1F1332}"/>
+    <hyperlink ref="E37" r:id="rId73" display="https://placehold.co/400x600" xr:uid="{291A37C6-A686-4CDE-9352-CAE725E23B11}"/>
+    <hyperlink ref="E39" r:id="rId74" xr:uid="{6ECECF25-2624-4D12-A089-9B4C4DBCF38B}"/>
+    <hyperlink ref="E41" r:id="rId75" display="https://placehold.co/400x600" xr:uid="{B8267D85-A691-4187-91DB-27E364616A8C}"/>
+    <hyperlink ref="E43" r:id="rId76" xr:uid="{AA69E1F0-E88A-495C-A844-C33C82F6CE26}"/>
+    <hyperlink ref="E45" r:id="rId77" xr:uid="{269F03E1-526C-4849-A6D5-8276665E4485}"/>
+    <hyperlink ref="E47" r:id="rId78" display="https://placehold.co/400x600" xr:uid="{D722AC52-912D-4A3F-8560-FAA4DCA60A56}"/>
+    <hyperlink ref="E49" r:id="rId79" display="https://placehold.co/400x600" xr:uid="{6ED9D463-8E32-4780-942A-C1EC9D07542B}"/>
+    <hyperlink ref="E51" r:id="rId80" display="https://placehold.co/400x600" xr:uid="{FAAE2569-D069-46B3-A7AA-6969338A4AFF}"/>
+    <hyperlink ref="E53" r:id="rId81" display="https://placehold.co/400x600" xr:uid="{919767C3-0A6A-4A63-9549-0F7B3A7EE7DF}"/>
+    <hyperlink ref="E55" r:id="rId82" display="https://placehold.co/400x600" xr:uid="{BD76B93C-ACC1-4CF1-A623-39E4FAFED853}"/>
+    <hyperlink ref="E57" r:id="rId83" display="https://placehold.co/400x600" xr:uid="{7964589D-7453-4997-AC7B-F98F5B5B7029}"/>
+    <hyperlink ref="E59" r:id="rId84" xr:uid="{F72D2D0A-AD07-45DC-AA3D-223C36C995AB}"/>
+    <hyperlink ref="E61" r:id="rId85" display="https://placehold.co/400x600" xr:uid="{D79CAE5D-C5B6-4B75-8261-008B5374EBDB}"/>
+    <hyperlink ref="E63" r:id="rId86" xr:uid="{75C81E45-FAA6-4175-A2FE-BA7C7F71F6F3}"/>
+    <hyperlink ref="E65" r:id="rId87" display="https://placehold.co/400x600" xr:uid="{2A43A7D2-0D9B-42A8-8E87-E447ECDB9951}"/>
+    <hyperlink ref="E67" r:id="rId88" display="https://placehold.co/400x600" xr:uid="{F199289C-0CB7-41CD-95E9-D9C97B86A7E7}"/>
+    <hyperlink ref="E69" r:id="rId89" display="https://placehold.co/400x600" xr:uid="{E4715AC6-7D6D-4434-A585-79B8F25233F6}"/>
+    <hyperlink ref="E71" r:id="rId90" xr:uid="{CFD1BDC4-A848-4998-9430-C29DB079EED4}"/>
+    <hyperlink ref="E73" r:id="rId91" xr:uid="{DEC62E70-AB7A-4365-B90A-11A1D549F375}"/>
+    <hyperlink ref="E75" r:id="rId92" xr:uid="{A925F566-676A-47EA-9068-3A8AC9C78A71}"/>
+    <hyperlink ref="E77" r:id="rId93" xr:uid="{826BB4FF-EF4E-4C68-AE45-B4C9CEE10FB5}"/>
+    <hyperlink ref="E79" r:id="rId94" xr:uid="{D55B186E-0A96-4185-9D34-01F9C47E843E}"/>
+    <hyperlink ref="E81" r:id="rId95" xr:uid="{AC60663B-FB99-47D2-A9DA-11C43648559B}"/>
+    <hyperlink ref="E83" r:id="rId96" display="https://placehold.co/400x600" xr:uid="{F83899A5-222C-48AC-9ABC-BC254C3600A8}"/>
+    <hyperlink ref="E85" r:id="rId97" display="https://placehold.co/400x600" xr:uid="{2EE015AD-95D3-42D3-9727-0C2D20C22B2D}"/>
+    <hyperlink ref="E87" r:id="rId98" xr:uid="{1E9351A5-5685-4A61-91E2-9C72A14FBA45}"/>
+    <hyperlink ref="E89" r:id="rId99" display="https://placehold.co/400x600" xr:uid="{DA14C2E4-99E6-4273-B1C6-88E4314A2B53}"/>
+    <hyperlink ref="E91" r:id="rId100" display="https://placehold.co/400x600" xr:uid="{CED33FAF-E705-4A0E-B5BA-28AC459A08F9}"/>
+    <hyperlink ref="E93" r:id="rId101" display="https://placehold.co/400x600" xr:uid="{69683834-3F44-4B9E-879F-17C7B3985064}"/>
+    <hyperlink ref="E95" r:id="rId102" xr:uid="{6706B29D-6B9E-414D-A766-C429245D96A7}"/>
+    <hyperlink ref="E97" r:id="rId103" display="https://placehold.co/400x600" xr:uid="{B8549196-6B30-41D5-B870-CDF1F6C0AE2B}"/>
+    <hyperlink ref="E99" r:id="rId104" display="https://placehold.co/400x600" xr:uid="{70722206-091E-437D-B026-345C8CDB5176}"/>
+    <hyperlink ref="E101" r:id="rId105" xr:uid="{EF057E02-0A38-4475-84BA-2BC1ED64BA7D}"/>
+    <hyperlink ref="E103" r:id="rId106" xr:uid="{F307B800-2CAD-4E08-A635-F4AD9976A897}"/>
+    <hyperlink ref="E105" r:id="rId107" display="https://placehold.co/400x600" xr:uid="{42F0B609-7315-4192-A377-FDEDE5FDDF8B}"/>
+    <hyperlink ref="E107" r:id="rId108" display="https://placehold.co/400x600" xr:uid="{0BBF4990-1413-476C-AFE7-EC34A9F113B0}"/>
+    <hyperlink ref="E109" r:id="rId109" xr:uid="{43D0B648-1D21-45A3-A6E9-CB546100DAA2}"/>
+    <hyperlink ref="E111" r:id="rId110" xr:uid="{3BF79D70-269C-4AB5-B83F-712DABFF4480}"/>
+    <hyperlink ref="E113" r:id="rId111" xr:uid="{622A2536-A959-42B4-B4F9-EE23F2A44517}"/>
+    <hyperlink ref="E115" r:id="rId112" xr:uid="{7690046C-47D4-4A7B-8DBE-6704DCCAE9C8}"/>
+    <hyperlink ref="J72" r:id="rId113" display="https://www.linkedin.com/in/dr-nilay-patel-106bab14/" xr:uid="{B2E17E23-9358-429B-BBF9-5EE4C8E363CB}"/>
+    <hyperlink ref="J83" r:id="rId114" display="https://www.linkedin.com/in/poonam-thanki-b112a6a2/" xr:uid="{BB16F397-78CE-4DBD-8BE4-13D65525672B}"/>
+    <hyperlink ref="J57" r:id="rId115" display="https://www.linkedin.com/in/dr-manthan-s-manavadaria-2a222219/" xr:uid="{4954A101-EA09-4BF1-8202-A72F86653038}"/>
+    <hyperlink ref="J18" r:id="rId116" display="https://www.linkedin.com/in/bhavin-mehta-86b47795/" xr:uid="{DB7D7CE8-51EF-48EE-BFBF-A021321BDC5F}"/>
+    <hyperlink ref="J49" r:id="rId117" display="https://www.linkedin.com/in/dr-kanwar-preet-kaur-bamrah-64a3a221/" xr:uid="{53166117-8C5A-4AB4-89B7-C2E8B83BC5A5}"/>
+    <hyperlink ref="J92" r:id="rId118" display="https://www.linkedin.com/in/rikita-chokshi-44bb65263/" xr:uid="{184885D3-531C-43E9-853D-5C2EAF6E7696}"/>
+    <hyperlink ref="J106" r:id="rId119" xr:uid="{FBE16C58-F91B-4934-8550-681C7F68CFE1}"/>
+    <hyperlink ref="J68" r:id="rId120" display="https://www.linkedin.com/in/mrugendrasinh-rahevar/" xr:uid="{F0663F50-387A-4315-8A34-03206888175F}"/>
+    <hyperlink ref="J91" r:id="rId121" display="https://www.linkedin.com/in/ravi-patel-13686b19/" xr:uid="{FC6DE30F-2E95-4AA2-B879-8CEAD23CEEC4}"/>
+    <hyperlink ref="J95" r:id="rId122" display="https://www.linkedin.com/in/ronak-patel-63663613a/" xr:uid="{EB8CC283-1781-41D5-BE2D-3C04AED15B01}"/>
+    <hyperlink ref="J50" r:id="rId123" display="https://www.linkedin.com/in/dr-kawaljitsingh-randhawa-96816064/" xr:uid="{4AE0FF76-EF4F-45C3-A542-A7D876A7DA2C}"/>
+    <hyperlink ref="J19" r:id="rId124" display="http://linkedin.com/in/bimal-patel-b7504849" xr:uid="{B02CE38D-7D41-45E6-8D0A-5F0FCF595503}"/>
+    <hyperlink ref="J71" r:id="rId125" display="https://www.linkedin.com/in/nikita-bhatt-ce/?originalSubdomain=in" xr:uid="{9EC6AE06-F884-4149-B7FC-88140006B7F4}"/>
+    <hyperlink ref="J23" r:id="rId126" display="https://www.linkedin.com/in/deep-kothadiya-phd-70983a86/" xr:uid="{8691FEB4-6E3B-4049-9588-FC79EAF0F2EC}"/>
+    <hyperlink ref="J78" r:id="rId127" display="https://www.linkedin.com/in/parmanand-patel-1269016b/" xr:uid="{53EDE3BB-D85D-4DAD-A587-55DA1C805D27}"/>
+    <hyperlink ref="J52" r:id="rId128" display="https://www.linkedin.com/in/krunal-maheriya-aba5681a1/" xr:uid="{9D29078E-A414-4A64-86B1-F77733FF0F8A}"/>
+    <hyperlink ref="J86" r:id="rId129" xr:uid="{21E8E151-1B01-486F-A7D7-4BE4F0BC0B27}"/>
+    <hyperlink ref="J36" r:id="rId130" display="https://www.linkedin.com/in/dr-hardik-modi-181035b/" xr:uid="{F7F908AF-23C0-42F7-8AFE-DF52AF52580B}"/>
+    <hyperlink ref="J14" r:id="rId131" display="http://hlinkedin.com/in/dr-ashwin-makwana-9a6688112" xr:uid="{3D2F3A09-18C9-4E22-B6FA-494330FEF01E}"/>
+    <hyperlink ref="J80" r:id="rId132" xr:uid="{4DA1EB91-0A15-4D6C-9213-F6D1EE675204}"/>
+    <hyperlink ref="J17" r:id="rId133" xr:uid="{8E63BCC9-6C05-45B8-8789-EBB4905292F2}"/>
+    <hyperlink ref="J35" r:id="rId134" display="https://www.linkedin.com/in/gaurav-kumar1582/" xr:uid="{BF49CFFA-7535-44BB-8F9A-67BEFFD957B6}"/>
+    <hyperlink ref="J29" r:id="rId135" display="https://www.linkedin.com/in/dhaval-patel-481b0885/" xr:uid="{5704F17D-173C-4E5E-89CF-B8F7987D86F5}"/>
+    <hyperlink ref="J77" r:id="rId136" display="https://www.linkedin.com/me?trk=p_mwlite_profile_self-secondary_nav" xr:uid="{6148FF48-4942-4818-844D-79919D56DB98}"/>
+    <hyperlink ref="J67" r:id="rId137" display="https://www.linkedin.com/in/dr-miral-desai-245448a2/" xr:uid="{D2BE1269-3E17-415C-B581-A936373A624C}"/>
+    <hyperlink ref="J32" r:id="rId138" display="https://www.linkedin.com/in/gajanan-patange-05ba2219/overlay/about-this-profile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BEvV8mS8jTpy2mGfBhro1og%3D%3D" xr:uid="{CDEEC399-875E-4DDA-A567-6EFC42A0F87E}"/>
+    <hyperlink ref="J114" r:id="rId139" display="https://www.linkedin.com/in/vikas-panchal-873277251/" xr:uid="{A3606037-07FB-4104-B411-BA37A6E2F3CA}"/>
+    <hyperlink ref="J101" r:id="rId140" display="https://www.linkedin.com/in/sneha-padhiar-4aaa17146/" xr:uid="{8CF4272D-E96D-4E1C-80AD-5D3F2F554C53}"/>
+    <hyperlink ref="J38" r:id="rId141" display="https://www.linkedin.com/in/harshul-yagnik-81a6a022/" xr:uid="{683E4E91-B763-4226-99B6-F3E30837AD4B}"/>
+    <hyperlink ref="J21" r:id="rId142" display="https://www.linkedin.com/in/brinda-patel-652073252" xr:uid="{791133CF-E0A2-4B6D-8618-AC19B4D3A9FA}"/>
+    <hyperlink ref="J28" r:id="rId143" xr:uid="{F8104DB3-2B23-47B7-B622-17690E08D84A}"/>
+    <hyperlink ref="J97" r:id="rId144" display="https://www.linkedin.com/in/sagarkumar-patel-0bb94bb5/" xr:uid="{B357E631-0C5E-406B-9B45-A421DE003AD4}"/>
+    <hyperlink ref="J70" r:id="rId145" display="http://www.linkedin.com/in/neha-chauhan22" xr:uid="{E7A9417A-8B16-4D59-A23C-B258564D85D5}"/>
+    <hyperlink ref="J22" r:id="rId146" xr:uid="{895691E5-0B23-47DD-9A36-18923B4FD652}"/>
+    <hyperlink ref="J39" r:id="rId147" display="https://www.linkedin.com/public-profile/settings?trk=d_flagship3_profile_self_view_public_profile" xr:uid="{E4C32594-CCCB-41B2-AE51-AE67F83944BE}"/>
+    <hyperlink ref="J42" r:id="rId148" display="https://www.linkedin.com/in/jalpa-ardeshana-381496b7/" xr:uid="{67C7A4AD-28FD-4291-92FB-A9C4AA0671B4}"/>
+    <hyperlink ref="J102" r:id="rId149" display="https://www.linkedin.com/in/dr-spoorthy-v-10ab3813a/" xr:uid="{EDA5921D-C45B-4D8B-B9FA-3205F4F396D6}"/>
+    <hyperlink ref="J24" r:id="rId150" display="https://www.linkedin.com/in/dhara-patel-839488138" xr:uid="{27C9FC8C-0A44-49AE-8688-8690C8579833}"/>
+    <hyperlink ref="J26" r:id="rId151" display="https://www.linkedin.com/in/dharmendrasinh-chauhan-073a491a4/" xr:uid="{D50E69C7-4F51-4D1B-90EC-FE9F9A44906E}"/>
+    <hyperlink ref="J90" r:id="rId152" display="https://www.linkedin.com/in/rajnik-katriya/" xr:uid="{3AEC1C40-35D9-4AE3-A7E8-9E58FA2C8E43}"/>
+    <hyperlink ref="J98" r:id="rId153" display="https://www.linkedin.com/in/sanket-suthar-544a69210/" xr:uid="{6137F2DC-1F93-4037-B861-A959BDB6DCE6}"/>
+    <hyperlink ref="J53" r:id="rId154" display="http://www.linkedin.com/in/kundan-patel-b9508b27b" xr:uid="{D4BB537A-7CA1-4F2B-9985-F5921034561E}"/>
+    <hyperlink ref="J81" r:id="rId155" xr:uid="{BFFCC995-B6DF-474C-93AA-BDF180E05422}"/>
+    <hyperlink ref="J111" r:id="rId156" display="https://www.linkedin.com/in/vidisha-pradhan-733a1b63/" xr:uid="{06E43119-E5BC-45C4-9126-F192D3006C5B}"/>
+    <hyperlink ref="J27" r:id="rId157" display="https://www.linkedin.com/in/dharmendrasinh-rathod-4482a2a4/" xr:uid="{3BDD0888-FF6F-403B-8A93-FD5176D0DA38}"/>
+    <hyperlink ref="J54" r:id="rId158" display="http://www.linkedin.com/in/madhav-oza-60bb5650" xr:uid="{24641904-0D92-4561-9EC0-14DC5197E375}"/>
+    <hyperlink ref="J41" r:id="rId159" xr:uid="{10BD029B-F728-4FEF-934E-F502C3B3ECDD}"/>
+    <hyperlink ref="J112" r:id="rId160" display="https://www.linkedin.com/in/dr-vijay-chaudhary-12769b311/" xr:uid="{B15A7FAF-9082-4A84-BAA5-265E44F10859}"/>
+    <hyperlink ref="J62" r:id="rId161" display="http://inkedin.com/in/mjdesai/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=in" xr:uid="{58387078-A78B-4059-8DB7-2DA181BAC97F}"/>
+    <hyperlink ref="J48" r:id="rId162" xr:uid="{F61EBA1D-096B-4367-83C7-464D0E0332DE}"/>
+    <hyperlink ref="J51" r:id="rId163" xr:uid="{A7C5CA17-C1E0-4B34-9F67-339F0FC32426}"/>
+    <hyperlink ref="J65" r:id="rId164" display="https://www.linkedin.com/in/mihirmehta-educational-project-and-placements/" xr:uid="{1EF2631D-C319-4F6C-9AF3-9E886A6E863A}"/>
+    <hyperlink ref="J34" r:id="rId165" display="https://www.linkedin.com/in/gaurang-patel-a99266119/" xr:uid="{4A4B2655-5B11-4CEB-8516-A9D046224C31}"/>
+    <hyperlink ref="J75" r:id="rId166" display="http://www.linkedin.com/in/nishant-koshti-52b68b8b" xr:uid="{2E5CF16C-0D7F-4454-B4F7-592A3EC43855}"/>
+    <hyperlink ref="J20" r:id="rId167" display="https://www.linkedin.com/in/brijesh-kundaliya-552b7722/" xr:uid="{FC5C15E0-2AD1-4E2F-8F1E-F2F96829A7A6}"/>
+    <hyperlink ref="J43" r:id="rId168" display="https://www.linkedin.com/in/jalpesh-vasa/" xr:uid="{6768F239-6E23-4A84-8C3E-45670A76F700}"/>
+    <hyperlink ref="J109" r:id="rId169" display="https://www.linkedin.com/in/vaishali-mewada-7a619053/" xr:uid="{DEFB6E16-7F29-44C5-ACAD-D6B1E16E6C24}"/>
+    <hyperlink ref="J46" r:id="rId170" xr:uid="{CCF872D9-BD3F-4521-9093-8C3148DBAC43}"/>
+    <hyperlink ref="J113" r:id="rId171" display="http://www.linkedin.com/in/vijaykumar-panchal-631852280" xr:uid="{2810BDF3-4A14-413D-B157-AF8059E92C49}"/>
+    <hyperlink ref="J64" r:id="rId172" display="https://www.linkedin.com/in/dr-mihir-bhatt-806a85aa/" xr:uid="{AA93D706-7CF6-45C4-B768-B797EB6775B7}"/>
+    <hyperlink ref="J96" r:id="rId173" display="https://www.linkedin.com/in/dr-sagar-chokshi-8646601a/" xr:uid="{35109E28-E96A-4139-B689-0AB43FF55E92}"/>
+    <hyperlink ref="J84" r:id="rId174" display="http://www.linkedin.com/in/pratik-panchal-a35b325a" xr:uid="{6FB924B7-EDB2-44F0-B0D7-E78551105315}"/>
+    <hyperlink ref="J40" r:id="rId175" display="https://www.linkedin.com/in/hemangi-oza-60a189190/" xr:uid="{AC43F6B8-459E-4FF0-82E4-75F8CDE25269}"/>
+    <hyperlink ref="J110" r:id="rId176" display="http://linkedin.com/in/vibha-parmar-81b3045b" xr:uid="{9792CDE9-6059-48ED-AD46-8BECFEF07152}"/>
+    <hyperlink ref="J59" r:id="rId177" display="http://www.linkedin.com/in/maulik-shah-30b483119" xr:uid="{E23FB3E1-55AD-4659-9463-2B3E19FC5E7D}"/>
+    <hyperlink ref="J99" r:id="rId178" display="http://www.linkedin.com/in/saritavisavalia" xr:uid="{3504F31F-4BD3-4D8B-B727-C2FF9DDFF1EA}"/>
+    <hyperlink ref="J13" r:id="rId179" xr:uid="{ACF63811-234F-442B-91D8-C6863212F92A}"/>
+    <hyperlink ref="J45" r:id="rId180" display="https://www.linkedin.com/in/dr-jigar-sarda-00384414/" xr:uid="{0EFC12BA-8B5C-4E86-968D-797B0D43FD98}"/>
+    <hyperlink ref="J105" r:id="rId181" display="https://www.linkedin.com/in/trusha-patel-gajjar" xr:uid="{98AA2D43-F8B2-4B29-93BA-7A9CCA8109B2}"/>
+    <hyperlink ref="J103" r:id="rId182" display="https://www.linkedin.com/in/srushti-gajjar-92b829142?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{544D82DB-5386-42AC-B979-94C259CA9E97}"/>
+    <hyperlink ref="J94" r:id="rId183" xr:uid="{F1631FCD-D701-415F-89D8-AB6A7D513AC5}"/>
+    <hyperlink ref="J15" r:id="rId184" display="https://www.linkedin.com/in/asifiqbal-thakor-56949b237/" xr:uid="{3A40B3CD-F1BE-4530-B451-07DF410D1272}"/>
+    <hyperlink ref="J56" r:id="rId185" xr:uid="{99110411-88B4-4B0C-9258-D7E7320C877C}"/>
+    <hyperlink ref="J47" r:id="rId186" display="https://www.linkedin.com/in/jivanadhar-joshi-a76a12ab/" xr:uid="{ED0C7354-C517-49E0-BDF5-C6BF1EC0A53C}"/>
+    <hyperlink ref="J104" r:id="rId187" display="https://in.linkedin.com/in/dr-tigmanshu-patel-b3252639" xr:uid="{8223C32D-E35E-4436-B593-C54F5FEED7DB}"/>
+    <hyperlink ref="J44" r:id="rId188" display="http://linkedin.com/in/jay-bhavsar-a4a9646a" xr:uid="{A3106519-72EE-423E-976E-09F1FD98B248}"/>
+    <hyperlink ref="J89" r:id="rId189" display="http://www.linkedin.com/in/purvi-prajapati-37ba6651" xr:uid="{7A2661BA-3D20-4DF8-8332-CC5726684DD1}"/>
+    <hyperlink ref="J74" r:id="rId190" display="https://www.linkedin.com/in/nirpex-patel-508956119/" xr:uid="{8BF234A3-EF12-4093-8EAF-09B2432506EF}"/>
+    <hyperlink ref="J87" r:id="rId191" display="https://www.linkedin.com/in/priyanka-patel-ph-d-00403393/" xr:uid="{8D6AEC45-7FD5-4128-9D12-F2A6CBB1E864}"/>
+    <hyperlink ref="J63" r:id="rId192" display="https://www.linkedin.com/in/mehulkumar-katakiya-029357b8/" xr:uid="{D058A74D-8E61-413C-9B75-7FF7917660C9}"/>
+    <hyperlink ref="J37" r:id="rId193" display="https://www.linkedin.com/in/harmish-bhatt-88581510a/" xr:uid="{7CC36C27-9781-439B-A945-9C1160C69911}"/>
+    <hyperlink ref="J66" r:id="rId194" display="https://www.linkedin.com/in/mikin-patel-24191386/" xr:uid="{3AEB0F01-575C-4799-B7A0-11A1F0947768}"/>
+    <hyperlink ref="J107" r:id="rId195" display="https://www.linkedin.com/in/dr-upesh-patel-875878138/" xr:uid="{5D7DA379-79C5-410F-9398-20936275BC46}"/>
+    <hyperlink ref="J58" r:id="rId196" xr:uid="{509B130C-6A0C-4944-BFE2-75F1FDF097C4}"/>
+    <hyperlink ref="J69" r:id="rId197" display="https://www.linkedin.com/in/muskan-dave-023197162/" xr:uid="{C8C7BB25-838D-4DFF-B4BD-F8943C06375E}"/>
+    <hyperlink ref="J73" r:id="rId198" display="https://www.linkedin.com/in/dr-nirav-bhatt/" xr:uid="{3F4736BB-5DB7-48E0-ABC4-5DBB591E1122}"/>
+    <hyperlink ref="J11" r:id="rId199" xr:uid="{714022ED-2EC9-40BB-978A-F936135E18E1}"/>
+    <hyperlink ref="J93" r:id="rId200" display="https://www.linkedin.com/in/ritesh-patel-462b0b11" xr:uid="{F4558EEF-FFB0-474A-8E3E-CEBF9566FCDB}"/>
+    <hyperlink ref="J116" r:id="rId201" display="http://www.linkedin.com/in/viral-panara-773877201" xr:uid="{4FB52C9B-4BDB-4971-A78B-1CD2EE789E52}"/>
+    <hyperlink ref="J79" r:id="rId202" display="https://www.linkedin.com/in/shah-parth-d/" xr:uid="{A61E294E-BDA5-4C2E-BA18-BA2B9C98C973}"/>
+    <hyperlink ref="J33" r:id="rId203" display="https://www.linkedin.com/in/gargi-ray-983a8522/" xr:uid="{0C76E47F-7D1B-4E1C-A88F-86156C9D1D6E}"/>
+    <hyperlink ref="J100" r:id="rId204" display="http://www.linkedin.com/in/satayu-travadi-9aab0919" xr:uid="{A79F3F36-387F-427F-848C-3BB8A221E707}"/>
+    <hyperlink ref="J88" r:id="rId205" xr:uid="{A7A467B8-5468-4830-9ADC-34F28E8899B5}"/>
+    <hyperlink ref="J30" r:id="rId206" display="https://www.linkedin.com/in/dheeraj-kumar-shringi-030586107?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{D1B60D12-635A-4E71-93D8-B47244D1EF44}"/>
+    <hyperlink ref="J85" r:id="rId207" display="https://in.linkedin.com/in/pratik-mochi-09764b102?original_referer=https%3A%2F%2Fwww.google.com%2F" xr:uid="{CD8066BB-0BA9-4FA9-88DB-0C291F6209A7}"/>
+    <hyperlink ref="J108" r:id="rId208" display="https://www.linkedin.com/in/vaibhavi-patel-67b035224/" xr:uid="{51D509E7-546B-4519-845F-AF5DC77392B9}"/>
+    <hyperlink ref="J60" r:id="rId209" display="http://www.linkedin.com/in/mayuri-popat-213852b1" xr:uid="{336D4B2F-0BBF-4ADA-8647-F20659482547}"/>
+    <hyperlink ref="J55" r:id="rId210" display="http://www.linkedin.com/in/madhavajwalia" xr:uid="{8DE9B663-AD20-42DB-A7F0-4FD167AD95E8}"/>
+    <hyperlink ref="J115" r:id="rId211" display="https://www.linkedin.com/in/vipul-vyas-19214bab/" xr:uid="{00F74D28-7144-4D8C-9870-393AE49126D5}"/>
+    <hyperlink ref="J31" r:id="rId212" display="http://www.linkedin.com/in/dipalkumar-patel-4b97997" xr:uid="{CFB485EB-93AC-436E-BD76-13F13D42FA00}"/>
+    <hyperlink ref="J76" r:id="rId213" display="https://www.linkedin.com/in/nishat-shaikh-b7446019a/" xr:uid="{45535606-CAE7-44BB-B1C5-622D742D5E66}"/>
+    <hyperlink ref="J16" r:id="rId214" display="https://www.linkedin.com/in/avani-khokhariya/" xr:uid="{F2664F6A-73CC-4DAD-982B-E296BD77DF0A}"/>
+    <hyperlink ref="J82" r:id="rId215" xr:uid="{2C60818F-B78B-4EC2-9BA4-C7D88C933280}"/>
+    <hyperlink ref="J25" r:id="rId216" display="https://www.linkedin.com/in/dhara-s-032a6a24/" xr:uid="{4FE7FF63-A73E-4E09-94C4-E2CD5FE6F81D}"/>
+    <hyperlink ref="K72" r:id="rId217" xr:uid="{E7CCB95C-4D9A-474B-9296-0EE719EC4AB3}"/>
+    <hyperlink ref="K92" r:id="rId218" xr:uid="{92D21BA9-793A-4610-9A6A-641322C6CC28}"/>
+    <hyperlink ref="K106" r:id="rId219" xr:uid="{2E05A515-7245-4DDB-9E9C-D041E881E2BF}"/>
+    <hyperlink ref="K86" r:id="rId220" xr:uid="{8C1C3B99-0196-4695-95EB-EEFEEA76042B}"/>
+    <hyperlink ref="K67" r:id="rId221" xr:uid="{4C2AA447-E23D-4BD3-8516-CF8A69E7C676}"/>
+    <hyperlink ref="K90" r:id="rId222" xr:uid="{68D88C01-9035-44B0-9EAE-4AE7236572CC}"/>
+    <hyperlink ref="K98" r:id="rId223" xr:uid="{B89BB500-5F1B-4985-B0B7-D69D9B22538C}"/>
+    <hyperlink ref="K27" r:id="rId224" xr:uid="{461288D1-54CE-41D7-ACBC-4EB753D35618}"/>
+    <hyperlink ref="K64" r:id="rId225" display="https://sites.google.com/a/charusat.ac.in/mihir-bhatt-ee/home/about-me?pli=1" xr:uid="{DD66FE1D-24F8-42A6-8DDC-651F08933CB6}"/>
+    <hyperlink ref="K45" r:id="rId226" xr:uid="{185428FC-1CEB-406E-A327-B537B63CC062}"/>
+    <hyperlink ref="K105" r:id="rId227" xr:uid="{6E3402FB-A293-4394-A12F-C9CE90A43581}"/>
+    <hyperlink ref="K94" r:id="rId228" display="https://sites.google.com/view/ronak-patel/" xr:uid="{30BB4B45-BE3C-4B51-8751-F1166793B9D8}"/>
+    <hyperlink ref="K87" r:id="rId229" display="https://sites.google.com/a/charusat.ac.in/priyanka-patel/about-me" xr:uid="{2F80CF65-0198-4866-9245-0932E2D2E991}"/>
+    <hyperlink ref="K11" r:id="rId230" xr:uid="{B7911887-1D4E-4149-9255-34290DE15C67}"/>
+    <hyperlink ref="K93" r:id="rId231" xr:uid="{CC19190B-EF5A-4030-970E-47B4649A66EC}"/>
+    <hyperlink ref="K79" r:id="rId232" display="http://learnwithparth.in/" xr:uid="{0D098BA1-951E-49B0-BA34-5489DFACFB69}"/>
+    <hyperlink ref="K60" r:id="rId233" display="https://sites.google.com/charusat.ac.in/mayuri-popat/home/academic-experience?authuser=0" xr:uid="{CD111632-8632-4F99-808E-7B0BA423BCF0}"/>
+    <hyperlink ref="K25" r:id="rId234" display="http://https/www.simpldhara.github.io" xr:uid="{1B0FEF49-7DD4-45B9-B1E6-577EDB068225}"/>
+    <hyperlink ref="K4" r:id="rId235" xr:uid="{A55ED677-5A40-43B5-A2E0-3934032012FA}"/>
+    <hyperlink ref="I12" r:id="rId236" xr:uid="{559F5BE6-A98D-4918-9ADE-3B5DB2AC1B24}"/>
+    <hyperlink ref="I13" r:id="rId237" xr:uid="{B5B2A2F7-DD9E-4163-AECE-07D5742E906D}"/>
+    <hyperlink ref="I49" r:id="rId238" xr:uid="{2DF8A589-77D3-487D-9871-F11C086009D1}"/>
+    <hyperlink ref="I82" r:id="rId239" xr:uid="{4F6BB86B-ECFA-4396-9D2B-715AF4C8A22C}"/>
+    <hyperlink ref="I50" r:id="rId240" xr:uid="{C80EDEE3-BA73-444F-89E4-2007846DC254}"/>
+    <hyperlink ref="I90" r:id="rId241" xr:uid="{E27523F8-498C-4ABD-8999-7C5FE36E5CA5}"/>
+    <hyperlink ref="L72" r:id="rId242" xr:uid="{948CADBD-38FA-4A43-B789-35C5FE176C3F}"/>
+    <hyperlink ref="L3" r:id="rId243" xr:uid="{F46A9101-D683-4CCF-9110-8584476B2BA9}"/>
+    <hyperlink ref="L83" r:id="rId244" xr:uid="{6E19F5D8-BA05-4C24-BFED-0131679AE1A3}"/>
+    <hyperlink ref="L57" r:id="rId245" xr:uid="{15D92DD2-9C84-4024-BCB0-89C6EAD615FB}"/>
+    <hyperlink ref="L18" r:id="rId246" xr:uid="{E24865B7-0C5D-46C6-8B52-CB38271DBD7E}"/>
+    <hyperlink ref="L49" r:id="rId247" xr:uid="{4D2C143E-EFF2-43ED-8C1B-94D7326ABF76}"/>
+    <hyperlink ref="L92" r:id="rId248" xr:uid="{22687922-AA0C-441B-A3FA-FB8732C6A78E}"/>
+    <hyperlink ref="L106" r:id="rId249" display="https://scholar.google.com/citations?user=Gzsxo-oAAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{FF9B096B-7991-46C3-B06A-152491BA6C90}"/>
+    <hyperlink ref="L68" r:id="rId250" xr:uid="{690AB285-269F-47C4-BA46-90F767A79CC1}"/>
+    <hyperlink ref="L91" r:id="rId251" xr:uid="{9AF26C9F-30B4-4DAE-A809-C138362FFD00}"/>
+    <hyperlink ref="L95" r:id="rId252" xr:uid="{8D4A0E6E-AA77-4CD4-AA54-DEC95D5CF09E}"/>
+    <hyperlink ref="L50" r:id="rId253" xr:uid="{A64FDC24-6D97-4969-AC20-BF200CE32B3A}"/>
+    <hyperlink ref="L19" r:id="rId254" xr:uid="{2DF7625D-5BDC-4383-BFF5-27331B9E27C1}"/>
+    <hyperlink ref="L71" r:id="rId255" display="https://scholar.google.co.in/citations?user=9PPA-6oAAAAJ&amp;hl=en" xr:uid="{38968AA0-46FD-46B0-84CD-C755BCC30A99}"/>
+    <hyperlink ref="L23" r:id="rId256" xr:uid="{4FF8802A-1D76-4C6B-91B4-17C781B102D6}"/>
+    <hyperlink ref="L52" r:id="rId257" xr:uid="{8365015A-789A-4D2C-9684-352B6CC70A5E}"/>
+    <hyperlink ref="L86" r:id="rId258" xr:uid="{BD03203D-E2A2-453C-8DB9-B1F0B5A13124}"/>
+    <hyperlink ref="L36" r:id="rId259" display="https://scholar.google.com/citations?user=ay8-QY0AAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{CEA8B045-C60C-4ADA-9F10-8B980373388F}"/>
+    <hyperlink ref="L14" r:id="rId260" display="https://scholar.google.com/citations?user=TCsNw-YAAAAJ&amp;hl=en" xr:uid="{D0B58B70-976E-4FD0-A498-4FE5480744DA}"/>
+    <hyperlink ref="L17" r:id="rId261" xr:uid="{19EAA634-8BE7-4A2F-8B30-8A424E254965}"/>
+    <hyperlink ref="L29" r:id="rId262" xr:uid="{3D65CD0F-C15B-4E98-9324-C36FAB47EBC4}"/>
+    <hyperlink ref="L67" r:id="rId263" xr:uid="{264FF3AA-8D89-41E4-9DA6-521BD58711A9}"/>
+    <hyperlink ref="L32" r:id="rId264" display="https://www.bing.com/ck/a?!&amp;&amp;p=6a7ac5a017a1300aJmltdHM9MTcyOTQ2ODgwMCZpZ3VpZD0wMDExMmIyNS1kMzQ5LTY3MTItMmE4My0zZTA1ZDI1NjY2MWEmaW5zaWQ9NTE5NQ&amp;ptn=3&amp;ver=2&amp;hsh=3&amp;fclid=00112b25-d349-6712-2a83-3e05d256661a&amp;psq=google+scholer+gajanan+patange&amp;u=a1aHR0cHM6Ly9zY2hvbGFyLmdvb2dsZS5wbC9jaXRhdGlvbnM_dXNlcj1fRDRISUhjQUFBQUomaGw9ZW4&amp;ntb=1" xr:uid="{275A790E-9657-41D9-B9F2-78D3822C4310}"/>
+    <hyperlink ref="L9" r:id="rId265" xr:uid="{758E6349-E050-42DF-B5C3-FBA97B821030}"/>
+    <hyperlink ref="L114" r:id="rId266" xr:uid="{9ACD46AD-FE8F-41CE-9823-5DC65F691D5B}"/>
+    <hyperlink ref="L4" r:id="rId267" xr:uid="{9B291D90-C0E1-493C-9E5E-17CAF2B7D2F2}"/>
+    <hyperlink ref="L12" r:id="rId268" xr:uid="{8C6729CD-380A-483D-A997-7DBCBA390939}"/>
+    <hyperlink ref="L101" r:id="rId269" xr:uid="{C07AED6D-34B0-40AA-B65E-C9BFB9F1574D}"/>
+    <hyperlink ref="L38" r:id="rId270" display="https://scholar.google.com/citations?user=6d-aVTEAAAAJ&amp;hl=en" xr:uid="{EBC010F8-7D12-4DC1-9FDA-49EFC51EFF71}"/>
+    <hyperlink ref="L21" r:id="rId271" xr:uid="{0DDB7A07-865A-4AD7-986A-DE5D031FFBD0}"/>
+    <hyperlink ref="L28" r:id="rId272" xr:uid="{E6ABE8A4-4EFC-489A-B104-3BCC2E998A7B}"/>
+    <hyperlink ref="L97" r:id="rId273" xr:uid="{ABDCFD31-BA21-4022-B6C1-EDDD441956ED}"/>
+    <hyperlink ref="L6" r:id="rId274" xr:uid="{591DF322-16B2-4785-A83C-3147BF3D09D2}"/>
+    <hyperlink ref="L70" r:id="rId275" xr:uid="{BB403419-C3FE-440B-B0A2-AF35C3C2E8E3}"/>
+    <hyperlink ref="L22" r:id="rId276" xr:uid="{A227399F-9975-4976-9597-2D3E6151DCB8}"/>
+    <hyperlink ref="L39" r:id="rId277" xr:uid="{535A1FEE-65AB-4486-BF0D-ADD9A3382AFB}"/>
+    <hyperlink ref="L42" r:id="rId278" display="https://scholar.google.com/citations?hl=en&amp;user=geQ-r_QAAAAJ" xr:uid="{36509863-135E-43CA-B732-4C0DEFDDC2FC}"/>
+    <hyperlink ref="L102" r:id="rId279" xr:uid="{7F8D3F89-D92D-4081-B489-E387250A10BD}"/>
+    <hyperlink ref="L24" r:id="rId280" xr:uid="{B4A03D8A-649C-469B-B24A-E9F9B481D48B}"/>
+    <hyperlink ref="L26" r:id="rId281" xr:uid="{D3034C74-7237-42E2-A6B8-CD4BA8BBBF41}"/>
+    <hyperlink ref="L90" r:id="rId282" xr:uid="{53AE3D77-EDB3-413A-8D8F-16969CBE8103}"/>
+    <hyperlink ref="L98" r:id="rId283" xr:uid="{76D99C50-072C-40D7-BDEB-328FCCB109D9}"/>
+    <hyperlink ref="L53" r:id="rId284" xr:uid="{CD634DA2-F1A0-45FA-A86C-61D935383D2E}"/>
+    <hyperlink ref="L81" r:id="rId285" xr:uid="{F6874B5E-545B-4745-A546-56B6FD5105E9}"/>
+    <hyperlink ref="L111" r:id="rId286" xr:uid="{C22F05F4-D13D-45A5-A5B0-3237064F3209}"/>
+    <hyperlink ref="L27" r:id="rId287" xr:uid="{32CD251C-92CC-42C2-865F-89BE3026727C}"/>
+    <hyperlink ref="L54" r:id="rId288" xr:uid="{287D782E-D3CC-498E-B117-EBE696C4D447}"/>
+    <hyperlink ref="L41" r:id="rId289" xr:uid="{B241D450-267C-40BF-9C45-8957239BDD86}"/>
+    <hyperlink ref="L62" r:id="rId290" xr:uid="{AA7AD692-35BE-48A4-AF46-1B6413916E3B}"/>
+    <hyperlink ref="L48" r:id="rId291" display="https://scholar.google.co.in/citations?user=EdcH-Y0AAAAJ&amp;hl=en" xr:uid="{CE335172-93AC-45C2-9068-7C9C19F220C4}"/>
+    <hyperlink ref="L10" r:id="rId292" xr:uid="{A33E4A1F-E63E-4F7D-9DC5-3C5AB6E82811}"/>
+    <hyperlink ref="L51" r:id="rId293" xr:uid="{027764B5-CA65-453C-BFB6-EE555AA7BF1B}"/>
+    <hyperlink ref="L61" r:id="rId294" xr:uid="{E2F70942-EACF-4A90-B18A-A80CB466AAE7}"/>
+    <hyperlink ref="L65" r:id="rId295" xr:uid="{5645BFE0-C2D6-4EED-AFCB-0EF806CC91E9}"/>
+    <hyperlink ref="L34" r:id="rId296" xr:uid="{EE598F68-E624-44F6-B4DD-8299C007487F}"/>
+    <hyperlink ref="L75" r:id="rId297" display="https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=-9-RhBoAAAAJ" xr:uid="{E935D410-8781-42B6-B609-E835354DEBBB}"/>
+    <hyperlink ref="L5" r:id="rId298" display="https://scholar.google.co.in/citations?user=cVv-kdYAAAAJ&amp;hl=en" xr:uid="{746C1EFC-2FA9-49B1-AFB8-1C7FCA47096B}"/>
+    <hyperlink ref="L20" r:id="rId299" display="https://scholar.google.com/citations?user=dHkQ5D4AAAAJ&amp;hl=en" xr:uid="{25860FE4-2E75-42A8-BFFE-3AA02DEED40F}"/>
+    <hyperlink ref="L43" r:id="rId300" xr:uid="{5A9FF0C8-1A53-40E2-BF07-8AE47CB6B984}"/>
+    <hyperlink ref="L109" r:id="rId301" xr:uid="{5C89C29F-A386-4BBA-9788-4CB223E1744F}"/>
+    <hyperlink ref="L46" r:id="rId302" xr:uid="{63EFEA34-4397-48CB-B385-33D61D726E20}"/>
+    <hyperlink ref="L64" r:id="rId303" xr:uid="{0A4BFD56-8B2D-444E-8903-49F5DC5883A4}"/>
+    <hyperlink ref="L96" r:id="rId304" display="https://scholar.google.com/citations?hl=en&amp;user=utk-ZT0AAAAJ" xr:uid="{501E8FB4-1DC4-4EBD-A3BE-50F19352C1F0}"/>
+    <hyperlink ref="L84" r:id="rId305" xr:uid="{37E9CEEB-DC2C-46A2-BCF4-5A9521147A39}"/>
+    <hyperlink ref="L40" r:id="rId306" xr:uid="{EEF5DC34-1243-4468-B6B1-D9059ADE8AB0}"/>
+    <hyperlink ref="L110" r:id="rId307" display="https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;hl=en&amp;user=HDdsZFsAAAAJ&amp;scilu=&amp;scisig=AJY4_hMAAAAAZxidz75RZUbVraeNHOVGYgbAfP0&amp;gmla=ALUCkoUwv9xfR7EENoQtBn_aiKaqTyzZ1X2kORl9--L4aBw5WcKwjoDCVXVaogYeCbraaig0PTa5IzrpT_DyD12Vlt-ODcDk1Nt3fM0&amp;sciund=7577126703303180020" xr:uid="{197DCE6B-BB53-49E3-9D84-78838F524694}"/>
+    <hyperlink ref="L59" r:id="rId308" xr:uid="{B559F61A-BA8D-4A15-AF94-270FD8E6EE0D}"/>
+    <hyperlink ref="L99" r:id="rId309" xr:uid="{BDF263A7-4F8B-46B8-BBE8-705BBF9DE738}"/>
+    <hyperlink ref="L13" r:id="rId310" xr:uid="{7649604F-C033-4670-9F95-0C2C5AC47C84}"/>
+    <hyperlink ref="L45" r:id="rId311" xr:uid="{035221F3-6BA9-41F1-A09D-0FD648704591}"/>
+    <hyperlink ref="L105" r:id="rId312" xr:uid="{1CDECF45-D107-4A0E-A561-5D783437E97C}"/>
+    <hyperlink ref="L103" r:id="rId313" xr:uid="{B653EAA6-C485-435F-854D-438BD267A19D}"/>
+    <hyperlink ref="L94" r:id="rId314" xr:uid="{BAF6ABB2-16F7-4B7A-8AC8-F52F94951E56}"/>
+    <hyperlink ref="L15" r:id="rId315" xr:uid="{F38927F1-EEEB-453A-8636-E6644582D973}"/>
+    <hyperlink ref="L56" r:id="rId316" xr:uid="{9E4C99F0-F427-4B73-88C1-9DDF17D8ABDE}"/>
+    <hyperlink ref="L47" r:id="rId317" xr:uid="{4048416A-0F5D-4582-8A3D-08AFC13874F9}"/>
+    <hyperlink ref="L104" r:id="rId318" xr:uid="{8400FD3C-B4D9-436A-8179-88B2F74CE3F2}"/>
+    <hyperlink ref="L44" r:id="rId319" xr:uid="{201F5259-DE23-43B6-A300-CE6428FFA5ED}"/>
+    <hyperlink ref="L89" r:id="rId320" xr:uid="{31420B66-56AB-4794-90CA-5F5AFEE32FDC}"/>
+    <hyperlink ref="L87" r:id="rId321" xr:uid="{C4F50DBC-0BFE-4509-9E86-8433559B0E5F}"/>
+    <hyperlink ref="L63" r:id="rId322" xr:uid="{90FCCA59-114D-4A5C-9409-D7A92B5C554D}"/>
+    <hyperlink ref="L37" r:id="rId323" xr:uid="{86700D43-54F6-409C-AA74-11A10CF95742}"/>
+    <hyperlink ref="L66" r:id="rId324" xr:uid="{C018FF9B-EED7-4A65-95FA-780ACBBA2D7E}"/>
+    <hyperlink ref="L107" r:id="rId325" xr:uid="{60A89811-803F-44C1-9C4C-03400FFC3370}"/>
+    <hyperlink ref="L58" r:id="rId326" display="https://scholar.google.com/citations?user=D-wd8QgAAAAJ&amp;hl=en" xr:uid="{FEE2843B-8463-42EA-93D3-8C0055A27E1B}"/>
+    <hyperlink ref="L73" r:id="rId327" xr:uid="{D89F1643-F631-4232-BD92-A17AB43537BB}"/>
+    <hyperlink ref="L2" r:id="rId328" xr:uid="{FA588FCD-5B5F-455C-A8F1-363E48BF4B34}"/>
+    <hyperlink ref="L11" r:id="rId329" xr:uid="{75F0D2F4-DBF8-4BC0-81C8-E510EB404F91}"/>
+    <hyperlink ref="L93" r:id="rId330" xr:uid="{4B1641D3-9830-41C6-9804-FD4F1CAA246E}"/>
+    <hyperlink ref="L116" r:id="rId331" xr:uid="{187B270B-DD03-4B4E-A0EC-FA089BBBF941}"/>
+    <hyperlink ref="L79" r:id="rId332" xr:uid="{09000797-9862-4D17-81A3-8BF615CB0D28}"/>
+    <hyperlink ref="L33" r:id="rId333" xr:uid="{30E40F4D-0941-4C35-B988-415178726C05}"/>
+    <hyperlink ref="L100" r:id="rId334" xr:uid="{2A5203BE-43E1-47B8-B2C4-1CC37588A5AB}"/>
+    <hyperlink ref="L88" r:id="rId335" xr:uid="{570C26B0-6EF3-40AB-BBA0-06474B8C9E9F}"/>
+    <hyperlink ref="L30" r:id="rId336" xr:uid="{8315B941-53AD-4CC4-8A93-715BF028D5D6}"/>
+    <hyperlink ref="L85" r:id="rId337" xr:uid="{A11BA51D-FBB4-444E-9239-AD5CA8BDA6AA}"/>
+    <hyperlink ref="L108" r:id="rId338" xr:uid="{BD6653EC-2D4F-4519-B739-A572013209E8}"/>
+    <hyperlink ref="L60" r:id="rId339" xr:uid="{FCDEB08A-0CA4-4598-B598-28FC8001225C}"/>
+    <hyperlink ref="L55" r:id="rId340" xr:uid="{21317881-56A9-411E-B0E0-953DFEB53FB5}"/>
+    <hyperlink ref="L115" r:id="rId341" xr:uid="{2C2ECFF6-DA6C-4C65-B48D-83C8B953A10F}"/>
+    <hyperlink ref="L7" r:id="rId342" xr:uid="{AC52BE48-B1BC-4E71-B6C1-88AF068D6F7B}"/>
+    <hyperlink ref="L31" r:id="rId343" xr:uid="{7701D08D-592D-4F08-8A1D-722D9125A481}"/>
+    <hyperlink ref="L76" r:id="rId344" xr:uid="{08A9DD36-F049-430E-ACEE-0254B9EB019D}"/>
+    <hyperlink ref="L82" r:id="rId345" xr:uid="{69BD5E03-494B-42BC-B711-BD56B50C14BD}"/>
+    <hyperlink ref="L8" r:id="rId346" display="https://scholar.google.com/citations?user=49QO52oAAAAJ&amp;hl=en&amp;citsig=ADIE8snLeq6YPks1Pa9NqbNhY8-8" xr:uid="{597E11F7-5E1F-4746-9B2D-F0B3CE2DAADD}"/>
+    <hyperlink ref="M72" r:id="rId347" display="https://vidwan.inflibnet.ac.in/profile/161243/MTYxMjQz" xr:uid="{377E489A-5F66-4D39-9D16-5A09C06888BF}"/>
+    <hyperlink ref="M3" r:id="rId348" xr:uid="{969CA3F3-003E-45D0-B448-786C1B45A99B}"/>
+    <hyperlink ref="M83" r:id="rId349" xr:uid="{FCF270CA-7E29-44DE-9B34-531A560121D2}"/>
+    <hyperlink ref="M57" r:id="rId350" xr:uid="{27A56F3E-3B7A-497C-B419-6D4EB0B36DFE}"/>
+    <hyperlink ref="M18" r:id="rId351" xr:uid="{A8B03D72-4F58-488B-AA71-6FE545C4F974}"/>
+    <hyperlink ref="M49" r:id="rId352" xr:uid="{46B27430-2CB4-4571-B683-C90BDB1A869A}"/>
+    <hyperlink ref="M92" r:id="rId353" xr:uid="{B3372949-44D6-47D3-93F5-F231A1194C2D}"/>
+    <hyperlink ref="M106" r:id="rId354" xr:uid="{BD564D33-09CC-4E3F-8665-C7CC006586D4}"/>
+    <hyperlink ref="M68" r:id="rId355" xr:uid="{46D7BE4E-C50A-4838-A0D5-A66608E30FB1}"/>
+    <hyperlink ref="M91" r:id="rId356" xr:uid="{49346F82-88CD-458B-9055-E1D237495067}"/>
+    <hyperlink ref="M95" r:id="rId357" xr:uid="{275EA512-D486-4AA6-B9C6-EDFD8EB5E681}"/>
+    <hyperlink ref="M50" r:id="rId358" xr:uid="{F1370FFD-2A24-4E0D-842E-D15A59048874}"/>
+    <hyperlink ref="M19" r:id="rId359" xr:uid="{B079BDCE-9644-48D8-ADB9-55246D89BB3B}"/>
+    <hyperlink ref="M71" r:id="rId360" xr:uid="{21DA9F6E-42F2-4C08-8BCC-45E0F47AC02F}"/>
+    <hyperlink ref="M23" r:id="rId361" display="https://vidwan.inflibnet.ac.in/profile/162290/MTYyMjkw" xr:uid="{C5101B56-8150-4439-9561-ADE65CCB8626}"/>
+    <hyperlink ref="M78" r:id="rId362" xr:uid="{FA23B353-3F9D-46B1-82DA-820AA4FBE86D}"/>
+    <hyperlink ref="M86" r:id="rId363" xr:uid="{680496D4-6792-4688-B37B-3D2836A2CBB1}"/>
+    <hyperlink ref="M36" r:id="rId364" xr:uid="{C295F105-2491-4119-851F-B09A35F5D83B}"/>
+    <hyperlink ref="M14" r:id="rId365" xr:uid="{C6A42F1F-C70B-482C-BAF5-08E29835556D}"/>
+    <hyperlink ref="M80" r:id="rId366" xr:uid="{D12744D8-8D17-44EF-A69E-A1A202FA6698}"/>
+    <hyperlink ref="M17" r:id="rId367" xr:uid="{026E65A7-E47E-491B-A07D-37EBD353FD4E}"/>
+    <hyperlink ref="M35" r:id="rId368" xr:uid="{5D0B8227-026E-47C4-897D-D449D1EA7349}"/>
+    <hyperlink ref="M29" r:id="rId369" xr:uid="{02E7C489-97EB-4764-B304-885B559F8C0E}"/>
+    <hyperlink ref="M67" r:id="rId370" xr:uid="{7BCC998C-8FF9-4866-BDE0-4E618132491D}"/>
+    <hyperlink ref="M9" r:id="rId371" xr:uid="{91B9619A-0474-417B-A83E-F1ACC0AF0CEC}"/>
+    <hyperlink ref="M114" r:id="rId372" xr:uid="{9DC7345F-59EF-46AB-AFF8-A485034FCFB5}"/>
+    <hyperlink ref="M4" r:id="rId373" xr:uid="{C24F8B1B-E131-406E-8B92-980981B7F2F8}"/>
+    <hyperlink ref="M12" r:id="rId374" xr:uid="{BBE0AFF3-0C87-45BA-B244-2EBD516259AE}"/>
+    <hyperlink ref="M101" r:id="rId375" xr:uid="{36A3294C-FBE9-4AE5-B367-A4F7EB299507}"/>
+    <hyperlink ref="M38" r:id="rId376" xr:uid="{CC9655FE-1EDD-46F8-BE5B-9E92C5013680}"/>
+    <hyperlink ref="M21" r:id="rId377" xr:uid="{47BBD086-2D33-4012-A8B6-B4A4E0F676C3}"/>
+    <hyperlink ref="M28" r:id="rId378" xr:uid="{D9812B9F-31E0-4DAD-8A1E-6460EF4BE795}"/>
+    <hyperlink ref="M97" r:id="rId379" xr:uid="{194FE3FD-0EF9-46C4-B769-B4AAF95E0018}"/>
+    <hyperlink ref="M6" r:id="rId380" xr:uid="{3C597F50-A6C7-4686-85A0-F6E6694F57E3}"/>
+    <hyperlink ref="M70" r:id="rId381" xr:uid="{A87D811B-910D-45F2-BF34-A478CD7D8B09}"/>
+    <hyperlink ref="M22" r:id="rId382" xr:uid="{686F19E9-9FDF-4E88-8243-D809ABB3FE79}"/>
+    <hyperlink ref="M42" r:id="rId383" xr:uid="{FB2FC638-1D01-4122-BA7D-9717BC8B2EF3}"/>
+    <hyperlink ref="M102" r:id="rId384" xr:uid="{F0E56AD7-3828-45B1-A3E4-95B4E7B7495F}"/>
+    <hyperlink ref="M24" r:id="rId385" xr:uid="{5E6A27FA-6F1B-4920-AF3A-0018DC331E36}"/>
+    <hyperlink ref="M26" r:id="rId386" xr:uid="{758E2E1D-BBB4-4F0B-A1FA-EB3E5DE2D156}"/>
+    <hyperlink ref="M90" r:id="rId387" xr:uid="{1C320BD2-5251-44A7-81C2-D89E208736CC}"/>
+    <hyperlink ref="M98" r:id="rId388" xr:uid="{4BF3D2D2-9743-494B-A7D1-9EEF7423F2B3}"/>
+    <hyperlink ref="M53" r:id="rId389" xr:uid="{642FC8EF-95E5-4804-8108-73A9ADB45FBB}"/>
+    <hyperlink ref="M81" r:id="rId390" xr:uid="{6069906B-85A1-4520-B697-E8420F4D518A}"/>
+    <hyperlink ref="M111" r:id="rId391" xr:uid="{45C10A27-1AD3-4A6F-966C-946B5F9ECB83}"/>
+    <hyperlink ref="M27" r:id="rId392" xr:uid="{F2CE36A5-3E73-43DE-A91D-5D1E2781384A}"/>
+    <hyperlink ref="M54" r:id="rId393" xr:uid="{6815F862-B01A-4FF2-B310-DDE65D78FBDB}"/>
+    <hyperlink ref="M41" r:id="rId394" xr:uid="{2167CAC5-42F7-48BE-A140-282801D50406}"/>
+    <hyperlink ref="M112" r:id="rId395" xr:uid="{2D0BE123-EDFD-4091-BCF0-204188FF3B30}"/>
+    <hyperlink ref="M62" r:id="rId396" xr:uid="{7A45E352-1CCC-4E30-B5C0-2C2507845C07}"/>
+    <hyperlink ref="M48" r:id="rId397" xr:uid="{D69AB844-8B39-4156-9897-B02CB20CA4D5}"/>
+    <hyperlink ref="M10" r:id="rId398" xr:uid="{04F1C981-8348-4D72-8A69-A692D3062D64}"/>
+    <hyperlink ref="M51" r:id="rId399" xr:uid="{65DE02F5-B84D-45D0-9DC1-F7808BDFD38D}"/>
+    <hyperlink ref="M61" r:id="rId400" xr:uid="{C49314E6-1B8D-41D3-8824-C6AE59F00DDA}"/>
+    <hyperlink ref="M65" r:id="rId401" xr:uid="{22CCAF6F-639B-4091-91C4-0D9E09A79A31}"/>
+    <hyperlink ref="M34" r:id="rId402" xr:uid="{9E6DCF4C-EA31-4D9D-AE0D-50C83C0347DE}"/>
+    <hyperlink ref="M75" r:id="rId403" xr:uid="{D71D3644-6845-46C5-83D7-DA2B52AF5733}"/>
+    <hyperlink ref="M5" r:id="rId404" xr:uid="{7687E521-D8FB-41F5-A5E6-AE953D92E830}"/>
+    <hyperlink ref="M20" r:id="rId405" xr:uid="{4DDDF623-882B-481C-A6D6-41041F349837}"/>
+    <hyperlink ref="M43" r:id="rId406" xr:uid="{52C3C99B-42C3-444C-A194-78CDBDAFC9CB}"/>
+    <hyperlink ref="M109" r:id="rId407" display="https://vidwan.inflibnet.ac.in/profile/161344" xr:uid="{FE2BA8E6-DD6C-4A10-91F1-326AA51E88D5}"/>
+    <hyperlink ref="M46" r:id="rId408" xr:uid="{2FFD071F-CF1A-4200-989A-978DBA72FD44}"/>
+    <hyperlink ref="M64" r:id="rId409" xr:uid="{E4C6C757-CD64-47C7-8F12-6CE6B9FFD60C}"/>
+    <hyperlink ref="M96" r:id="rId410" xr:uid="{722D10A1-25FB-4CE7-9F0B-C75508E442CE}"/>
+    <hyperlink ref="M84" r:id="rId411" xr:uid="{32A836FB-CB40-470F-B02E-7B6392FD539D}"/>
+    <hyperlink ref="M40" r:id="rId412" location="other_information_panel" display="https://vidwan.inflibnet.ac.in/myprofile - other_information_panel" xr:uid="{FE644920-561A-44DA-A700-34ED8EB7963F}"/>
+    <hyperlink ref="M110" r:id="rId413" xr:uid="{2C076003-CA45-4492-A114-A44CC1E60BF2}"/>
+    <hyperlink ref="M59" r:id="rId414" xr:uid="{BC2FF260-09A4-4D46-81FB-823835AD57DA}"/>
+    <hyperlink ref="M99" r:id="rId415" xr:uid="{B2860DA1-1C8E-403D-9E1C-CE3896F91BFD}"/>
+    <hyperlink ref="M13" r:id="rId416" xr:uid="{2DE04985-AB3C-4D4B-BCEE-EF8C728199F4}"/>
+    <hyperlink ref="M45" r:id="rId417" xr:uid="{546046AA-45E7-4EDD-81FB-A6648B9BB595}"/>
+    <hyperlink ref="M105" r:id="rId418" xr:uid="{7330EFFC-2F12-4EFE-BF25-3D30861E8775}"/>
+    <hyperlink ref="M94" r:id="rId419" xr:uid="{4F8D1CF8-D215-443F-8914-E091AFB2DBAE}"/>
+    <hyperlink ref="M15" r:id="rId420" xr:uid="{4CD74FA1-A139-4BCD-9CB7-1D7091E614B9}"/>
+    <hyperlink ref="M56" r:id="rId421" xr:uid="{EAABDC46-8B1B-482C-B7D7-E6E7C16FB647}"/>
+    <hyperlink ref="M104" r:id="rId422" xr:uid="{ACDF2E56-83C7-477F-A573-2B4112936AD3}"/>
+    <hyperlink ref="M44" r:id="rId423" xr:uid="{B502A1CE-A61F-4999-A855-F6ECA908B905}"/>
+    <hyperlink ref="M89" r:id="rId424" xr:uid="{EF82DFB8-BEB4-47BB-B28B-AF5A4CDD6891}"/>
+    <hyperlink ref="M74" r:id="rId425" xr:uid="{6D71EE52-86C9-4EE0-A55D-7B9652B864FF}"/>
+    <hyperlink ref="M87" r:id="rId426" xr:uid="{C073950A-A28A-4ED8-B9C1-BD3B160FAEF3}"/>
+    <hyperlink ref="M63" r:id="rId427" xr:uid="{958C1C19-9C17-41E8-ADC4-BAB91255F382}"/>
+    <hyperlink ref="M37" r:id="rId428" xr:uid="{0CC98B27-C0DC-4F81-A868-5BC7C0784B50}"/>
+    <hyperlink ref="M66" r:id="rId429" xr:uid="{B86191A1-65D6-4540-845F-518E32A64FBF}"/>
+    <hyperlink ref="M107" r:id="rId430" xr:uid="{47889514-AB9C-4B04-95A5-1CCA3A0DFCA8}"/>
+    <hyperlink ref="M58" r:id="rId431" xr:uid="{36AE2A42-0E80-4A5F-8FB0-4EAB2AEA8C36}"/>
+    <hyperlink ref="M69" r:id="rId432" xr:uid="{7FE7C886-2B29-491F-8C86-5526A33F7121}"/>
+    <hyperlink ref="M73" r:id="rId433" xr:uid="{FDFB0EA9-AD4D-43E9-BEF9-C60B9531C82F}"/>
+    <hyperlink ref="M2" r:id="rId434" xr:uid="{251C34E0-B509-4755-B850-FDEB3B770405}"/>
+    <hyperlink ref="M11" r:id="rId435" xr:uid="{3203A1D8-1572-4E08-ADEF-54F74525E87A}"/>
+    <hyperlink ref="M93" r:id="rId436" xr:uid="{28CD01ED-234C-4911-A047-12722FE76C1F}"/>
+    <hyperlink ref="M116" r:id="rId437" xr:uid="{82D93DAC-CF9F-4D41-B8C8-5AE08EA58BAA}"/>
+    <hyperlink ref="M79" r:id="rId438" xr:uid="{68120C28-52E3-4EC9-9F3E-EB5A3578A3BD}"/>
+    <hyperlink ref="M33" r:id="rId439" display="https://vidwan.inflibnet.ac.in/profile/161755-" xr:uid="{B87FE430-1CFA-4F98-A7E4-77FBF96BA37F}"/>
+    <hyperlink ref="M100" r:id="rId440" xr:uid="{649E7EFF-CC71-476F-9A81-1581EC34CD48}"/>
+    <hyperlink ref="M88" r:id="rId441" xr:uid="{1C9375D7-8EF5-40A1-914C-C5A7CD3188FB}"/>
+    <hyperlink ref="M85" r:id="rId442" xr:uid="{66509B53-066F-4635-85A6-6E99D5FE0B3E}"/>
+    <hyperlink ref="M108" r:id="rId443" xr:uid="{775D1521-4736-4C73-BB71-31FD5AD1E561}"/>
+    <hyperlink ref="M60" r:id="rId444" xr:uid="{A128A132-518A-476D-BCF8-6D3638CE18D6}"/>
+    <hyperlink ref="M55" r:id="rId445" xr:uid="{A1AFE28A-9643-4A4A-95E8-53E1C4380AAE}"/>
+    <hyperlink ref="M115" r:id="rId446" xr:uid="{6A1A9D4D-97FF-42A2-B2EA-85F3F7E515C2}"/>
+    <hyperlink ref="M7" r:id="rId447" xr:uid="{BA494279-5FA7-4467-ACAA-FFA1824DB9F7}"/>
+    <hyperlink ref="M31" r:id="rId448" xr:uid="{43BBD922-4BE8-457C-9F25-7684B0D6F35B}"/>
+    <hyperlink ref="M76" r:id="rId449" xr:uid="{C2281EE1-00E4-42D3-875C-3C9C699518DB}"/>
+    <hyperlink ref="M82" r:id="rId450" xr:uid="{3C1D1058-7762-4D63-9FB9-41A44D4AB1F3}"/>
+    <hyperlink ref="E16:E17" r:id="rId451" display="https://placehold.co/400x600" xr:uid="{18BA32A8-6934-421F-9831-28D4907FFF98}"/>
+    <hyperlink ref="E17" r:id="rId452" xr:uid="{7510203D-B2F6-44B8-BB79-8C3F26D4C98A}"/>
+    <hyperlink ref="E60" r:id="rId453" xr:uid="{6FED2870-0657-4424-9493-C87C5558030E}"/>
+    <hyperlink ref="E16" r:id="rId454" xr:uid="{7C7925F6-A06D-4A2F-A60E-DE952DACBD81}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motat\OneDrive\Desktop\CSPIT_NEW_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CSPIT_Main\CSPIT_NEW_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA929819-038D-47B9-A817-034C94EAE295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB5BB14-BF3F-4385-A9FC-0F160BCD86BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1007">
   <si>
     <t>Name</t>
   </si>
@@ -1841,102 +1841,30 @@
     <t>https://vidwan.inflibnet.ac.in/profile/161331</t>
   </si>
   <si>
-    <t>https://placehold.co/400x601</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x603</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x606</t>
   </si>
   <si>
-    <t>https://placehold.co/400x607</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x609</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x611</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x613</t>
   </si>
   <si>
-    <t>https://placehold.co/400x616</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x617</t>
   </si>
   <si>
     <t>https://placehold.co/400x618</t>
   </si>
   <si>
-    <t>https://placehold.co/400x620</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x622</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x624</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x629</t>
   </si>
   <si>
-    <t>https://placehold.co/400x630</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x634</t>
   </si>
   <si>
-    <t>https://placehold.co/400x635</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x639</t>
   </si>
   <si>
-    <t>https://placehold.co/400x644</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x645</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x646</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x647</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x648</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x649</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x651</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x652</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x653</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x654</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x655</t>
   </si>
   <si>
-    <t>https://placehold.co/400x659</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x662</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x663</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x664</t>
   </si>
   <si>
@@ -1946,9 +1874,6 @@
     <t>https://placehold.co/400x667</t>
   </si>
   <si>
-    <t>https://placehold.co/400x670</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x676</t>
   </si>
   <si>
@@ -1958,36 +1883,21 @@
     <t>https://placehold.co/400x681</t>
   </si>
   <si>
-    <t>https://placehold.co/400x682</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x683</t>
   </si>
   <si>
     <t>https://placehold.co/400x684</t>
   </si>
   <si>
-    <t>https://placehold.co/400x686</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x687</t>
   </si>
   <si>
-    <t>https://placehold.co/400x688</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x689</t>
   </si>
   <si>
     <t>https://placehold.co/400x691</t>
   </si>
   <si>
-    <t>https://placehold.co/400x694</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x695</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x696</t>
   </si>
   <si>
@@ -2013,12 +1923,6 @@
   </si>
   <si>
     <t>https://placehold.co/400x710</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x712</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x714</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/arpitajshah/</t>
@@ -3223,6 +3127,99 @@
   </si>
   <si>
     <t>CSPIT_Faculty\CSE\VIDISHA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\ABHISHEK_s.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\AKASH.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\ANAND.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electrical\ANKURBHAI.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\BHAVIN.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\DATTATRAYA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\DHARA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\DHARMENDRASINH.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\GAJANAN.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\HARMISH.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electrical\JIGNESHKUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electrical\JIVANADHAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\KAMLESH.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\KANWAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\RANDHAWA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\KILLOL.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\KUNDAN.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\MADHAV.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\IT\MADHAV.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electrical\MAHAMMADSOAIB.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\MAYURI.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\MAYURKUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electrical\MIHIR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electrical\MIHIR_SIDDHARTH.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electrical\NILAYKUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electrical\PRATIK.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\PUNIT.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\IT\RAJNIK.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\SAGAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\VIKAS.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\VIRAL.webp</t>
   </si>
 </sst>
 </file>
@@ -3720,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="80" workbookViewId="0">
+      <selection activeCell="D116" sqref="D116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3754,7 +3751,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>944</v>
+        <v>912</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -3772,13 +3769,13 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>751</v>
+        <v>719</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>864</v>
+        <v>832</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>943</v>
+        <v>911</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -3795,7 +3792,7 @@
         <v>229</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>968</v>
+        <v>936</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>357</v>
@@ -3810,13 +3807,13 @@
         <v>253</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>947</v>
+        <v>915</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>752</v>
+        <v>720</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>470</v>
@@ -3839,7 +3836,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>562</v>
+        <v>976</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>358</v>
@@ -3854,19 +3851,19 @@
         <v>255</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>948</v>
+        <v>916</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>753</v>
+        <v>721</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>471</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>907</v>
+        <v>875</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -3877,13 +3874,13 @@
         <v>223</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>995</v>
+        <v>963</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>359</v>
@@ -3898,13 +3895,13 @@
         <v>254</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>949</v>
+        <v>917</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>710</v>
+        <v>678</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>754</v>
+        <v>722</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>472</v>
@@ -3927,7 +3924,7 @@
         <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>563</v>
+        <v>977</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>360</v>
@@ -3942,13 +3939,13 @@
         <v>256</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>946</v>
+        <v>914</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>473</v>
@@ -3971,7 +3968,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>996</v>
+        <v>964</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>361</v>
@@ -3986,13 +3983,13 @@
         <v>257</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>945</v>
+        <v>913</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>756</v>
+        <v>724</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>474</v>
@@ -4015,7 +4012,7 @@
         <v>230</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>997</v>
+        <v>965</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>362</v>
@@ -4030,19 +4027,19 @@
         <v>259</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>950</v>
+        <v>918</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>757</v>
+        <v>725</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>475</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>908</v>
+        <v>876</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -4059,7 +4056,7 @@
         <v>231</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>363</v>
@@ -4074,13 +4071,13 @@
         <v>258</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>951</v>
+        <v>919</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>758</v>
+        <v>726</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>110</v>
@@ -4097,13 +4094,13 @@
         <v>223</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>734</v>
+        <v>702</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>565</v>
+        <v>978</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>364</v>
@@ -4118,19 +4115,19 @@
         <v>260</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>952</v>
+        <v>920</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>759</v>
+        <v>727</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>476</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>909</v>
+        <v>877</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -4147,7 +4144,7 @@
         <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>969</v>
+        <v>937</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>365</v>
@@ -4162,13 +4159,13 @@
         <v>261</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>953</v>
+        <v>921</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>760</v>
+        <v>728</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>477</v>
@@ -4185,16 +4182,16 @@
         <v>223</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>232</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>566</v>
+        <v>979</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>872</v>
+        <v>840</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>110</v>
@@ -4209,10 +4206,10 @@
         <v>104</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>711</v>
+        <v>679</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>761</v>
+        <v>729</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>477</v>
@@ -4235,7 +4232,7 @@
         <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>970</v>
+        <v>938</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>366</v>
@@ -4244,25 +4241,25 @@
         <v>110</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>882</v>
+        <v>850</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>743</v>
+        <v>711</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>762</v>
+        <v>730</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>478</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>910</v>
+        <v>878</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
@@ -4279,7 +4276,7 @@
         <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>567</v>
+        <v>938</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>367</v>
@@ -4291,7 +4288,7 @@
         <v>462</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>744</v>
+        <v>712</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>104</v>
@@ -4300,13 +4297,13 @@
         <v>110</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>763</v>
+        <v>731</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>477</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>911</v>
+        <v>879</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
@@ -4323,7 +4320,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>971</v>
+        <v>939</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>368</v>
@@ -4332,25 +4329,25 @@
         <v>110</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>883</v>
+        <v>851</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>263</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>623</v>
+        <v>591</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>764</v>
+        <v>732</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>479</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>912</v>
+        <v>880</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -4361,13 +4358,13 @@
         <v>223</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>369</v>
@@ -4382,13 +4379,13 @@
         <v>264</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>624</v>
+        <v>592</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>765</v>
+        <v>733</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>480</v>
@@ -4411,7 +4408,7 @@
         <v>233</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>998</v>
+        <v>966</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>370</v>
@@ -4426,7 +4423,7 @@
         <v>265</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>625</v>
+        <v>593</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>110</v>
@@ -4449,22 +4446,22 @@
         <v>223</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>954</v>
+        <v>922</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>873</v>
+        <v>841</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>110</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>884</v>
+        <v>852</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>110</v>
@@ -4476,13 +4473,13 @@
         <v>110</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>766</v>
+        <v>734</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>481</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>913</v>
+        <v>881</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
@@ -4499,7 +4496,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>569</v>
+        <v>980</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>371</v>
@@ -4514,19 +4511,19 @@
         <v>266</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>626</v>
+        <v>594</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>482</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>914</v>
+        <v>882</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -4543,7 +4540,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>372</v>
@@ -4558,19 +4555,19 @@
         <v>267</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>627</v>
+        <v>595</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>768</v>
+        <v>736</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>483</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>915</v>
+        <v>883</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -4587,7 +4584,7 @@
         <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>373</v>
@@ -4602,13 +4599,13 @@
         <v>268</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>628</v>
+        <v>596</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>769</v>
+        <v>737</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>477</v>
@@ -4631,7 +4628,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>999</v>
+        <v>967</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>374</v>
@@ -4646,13 +4643,13 @@
         <v>269</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>629</v>
+        <v>597</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>770</v>
+        <v>738</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>484</v>
@@ -4675,10 +4672,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>572</v>
+        <v>981</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>874</v>
+        <v>842</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>110</v>
@@ -4696,7 +4693,7 @@
         <v>110</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>771</v>
+        <v>739</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>485</v>
@@ -4719,7 +4716,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>972</v>
+        <v>940</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>375</v>
@@ -4734,19 +4731,19 @@
         <v>271</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>630</v>
+        <v>598</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>772</v>
+        <v>740</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>486</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>916</v>
+        <v>884</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="211.2" x14ac:dyDescent="0.3">
@@ -4757,13 +4754,13 @@
         <v>223</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>573</v>
+        <v>982</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>376</v>
@@ -4778,13 +4775,13 @@
         <v>272</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>631</v>
+        <v>599</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>773</v>
+        <v>741</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>487</v>
@@ -4807,7 +4804,7 @@
         <v>234</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>1000</v>
+        <v>968</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>377</v>
@@ -4819,22 +4816,22 @@
         <v>110</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>745</v>
+        <v>713</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>632</v>
+        <v>600</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>712</v>
+        <v>680</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>774</v>
+        <v>742</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>110</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>917</v>
+        <v>885</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -4851,7 +4848,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>574</v>
+        <v>983</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>378</v>
@@ -4860,19 +4857,19 @@
         <v>110</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>885</v>
+        <v>853</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>273</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>633</v>
+        <v>601</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>713</v>
+        <v>681</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>775</v>
+        <v>743</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>488</v>
@@ -4889,13 +4886,13 @@
         <v>223</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>1001</v>
+        <v>969</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>379</v>
@@ -4910,19 +4907,19 @@
         <v>274</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>634</v>
+        <v>602</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>714</v>
+        <v>682</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>776</v>
+        <v>744</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>489</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>918</v>
+        <v>886</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -4939,7 +4936,7 @@
         <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>973</v>
+        <v>941</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>380</v>
@@ -4951,22 +4948,22 @@
         <v>110</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>746</v>
+        <v>714</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>635</v>
+        <v>603</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>777</v>
+        <v>745</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>478</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>919</v>
+        <v>887</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
@@ -4977,13 +4974,13 @@
         <v>223</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>974</v>
+        <v>942</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>381</v>
@@ -4995,16 +4992,16 @@
         <v>110</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>747</v>
+        <v>715</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>636</v>
+        <v>604</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>778</v>
+        <v>746</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>490</v>
@@ -5027,7 +5024,7 @@
         <v>235</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>955</v>
+        <v>923</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>382</v>
@@ -5042,13 +5039,13 @@
         <v>275</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>637</v>
+        <v>605</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>779</v>
+        <v>747</v>
       </c>
       <c r="M30" s="17">
         <v>583944</v>
@@ -5071,7 +5068,7 @@
         <v>236</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>383</v>
@@ -5080,19 +5077,19 @@
         <v>110</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>886</v>
+        <v>854</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>276</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>638</v>
+        <v>606</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>780</v>
+        <v>748</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>491</v>
@@ -5115,7 +5112,7 @@
         <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>576</v>
+        <v>984</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>384</v>
@@ -5130,16 +5127,16 @@
         <v>277</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>639</v>
+        <v>607</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>781</v>
+        <v>749</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>861</v>
+        <v>829</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>110</v>
@@ -5159,7 +5156,7 @@
         <v>237</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>984</v>
+        <v>952</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>385</v>
@@ -5174,19 +5171,19 @@
         <v>278</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>640</v>
+        <v>608</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>782</v>
+        <v>750</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>862</v>
+        <v>830</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>920</v>
+        <v>888</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -5203,7 +5200,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>956</v>
+        <v>924</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>386</v>
@@ -5212,19 +5209,19 @@
         <v>110</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>887</v>
+        <v>855</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>279</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>641</v>
+        <v>609</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>783</v>
+        <v>751</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>492</v>
@@ -5247,7 +5244,7 @@
         <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>957</v>
+        <v>925</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>387</v>
@@ -5262,7 +5259,7 @@
         <v>280</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>642</v>
+        <v>610</v>
       </c>
       <c r="K35" s="14" t="s">
         <v>110</v>
@@ -5288,10 +5285,10 @@
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>865</v>
+        <v>833</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>388</v>
@@ -5306,19 +5303,19 @@
         <v>281</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>643</v>
+        <v>611</v>
       </c>
       <c r="K36" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>784</v>
+        <v>752</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>494</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>921</v>
+        <v>889</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -5335,7 +5332,7 @@
         <v>98</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>578</v>
+        <v>985</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>389</v>
@@ -5350,13 +5347,13 @@
         <v>282</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>644</v>
+        <v>612</v>
       </c>
       <c r="K37" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>785</v>
+        <v>753</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>495</v>
@@ -5373,16 +5370,16 @@
         <v>223</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1002</v>
+        <v>970</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>875</v>
+        <v>843</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>110</v>
@@ -5394,13 +5391,13 @@
         <v>283</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>645</v>
+        <v>613</v>
       </c>
       <c r="K38" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>786</v>
+        <v>754</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>496</v>
@@ -5417,13 +5414,13 @@
         <v>223</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1003</v>
+        <v>971</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>390</v>
@@ -5438,13 +5435,13 @@
         <v>284</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>646</v>
+        <v>614</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>787</v>
+        <v>755</v>
       </c>
       <c r="M39" s="10" t="s">
         <v>110</v>
@@ -5467,7 +5464,7 @@
         <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>985</v>
+        <v>953</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>391</v>
@@ -5482,13 +5479,13 @@
         <v>110</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>647</v>
+        <v>615</v>
       </c>
       <c r="K40" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>788</v>
+        <v>756</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>497</v>
@@ -5505,13 +5502,13 @@
         <v>223</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>392</v>
@@ -5520,19 +5517,19 @@
         <v>110</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>888</v>
+        <v>856</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>285</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>648</v>
+        <v>616</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>789</v>
+        <v>757</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>498</v>
@@ -5555,7 +5552,7 @@
         <v>52</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>958</v>
+        <v>926</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>393</v>
@@ -5570,13 +5567,13 @@
         <v>286</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>649</v>
+        <v>617</v>
       </c>
       <c r="K42" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>790</v>
+        <v>758</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>499</v>
@@ -5593,13 +5590,13 @@
         <v>223</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>987</v>
+        <v>955</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>394</v>
@@ -5614,19 +5611,19 @@
         <v>287</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>650</v>
+        <v>618</v>
       </c>
       <c r="K43" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>791</v>
+        <v>759</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>500</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>922</v>
+        <v>890</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
@@ -5643,7 +5640,7 @@
         <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>986</v>
+        <v>954</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>395</v>
@@ -5658,13 +5655,13 @@
         <v>288</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>651</v>
+        <v>619</v>
       </c>
       <c r="K44" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>501</v>
@@ -5687,7 +5684,7 @@
         <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>1004</v>
+        <v>972</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>396</v>
@@ -5702,13 +5699,13 @@
         <v>289</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>652</v>
+        <v>620</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>715</v>
+        <v>683</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>793</v>
+        <v>761</v>
       </c>
       <c r="M45" s="9" t="s">
         <v>502</v>
@@ -5725,13 +5722,13 @@
         <v>223</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>580</v>
+        <v>986</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>397</v>
@@ -5752,7 +5749,7 @@
         <v>110</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>794</v>
+        <v>762</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>503</v>
@@ -5775,7 +5772,7 @@
         <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>581</v>
+        <v>987</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>398</v>
@@ -5790,13 +5787,13 @@
         <v>291</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>653</v>
+        <v>621</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>795</v>
+        <v>763</v>
       </c>
       <c r="M47" s="10" t="s">
         <v>110</v>
@@ -5819,7 +5816,7 @@
         <v>66</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>582</v>
+        <v>988</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>399</v>
@@ -5840,7 +5837,7 @@
         <v>110</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>477</v>
@@ -5863,7 +5860,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>583</v>
+        <v>989</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>400</v>
@@ -5875,22 +5872,22 @@
         <v>110</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>748</v>
+        <v>716</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>654</v>
+        <v>622</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>716</v>
+        <v>684</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>797</v>
+        <v>765</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>504</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>923</v>
+        <v>891</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
@@ -5907,7 +5904,7 @@
         <v>26</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>584</v>
+        <v>990</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>401</v>
@@ -5916,25 +5913,25 @@
         <v>110</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>889</v>
+        <v>857</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>293</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>655</v>
+        <v>623</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>798</v>
+        <v>766</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>505</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>924</v>
+        <v>892</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
@@ -5948,10 +5945,10 @@
         <v>5</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>866</v>
+        <v>834</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>585</v>
+        <v>991</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>402</v>
@@ -5960,7 +5957,7 @@
         <v>110</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>890</v>
+        <v>858</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>294</v>
@@ -5972,7 +5969,7 @@
         <v>110</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>799</v>
+        <v>767</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>477</v>
@@ -5995,7 +5992,7 @@
         <v>30</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>975</v>
+        <v>943</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>403</v>
@@ -6010,13 +6007,13 @@
         <v>295</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>656</v>
+        <v>624</v>
       </c>
       <c r="K52" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>800</v>
+        <v>768</v>
       </c>
       <c r="M52" s="10" t="s">
         <v>110</v>
@@ -6039,7 +6036,7 @@
         <v>58</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>586</v>
+        <v>992</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>404</v>
@@ -6054,13 +6051,13 @@
         <v>296</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>657</v>
+        <v>625</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>801</v>
+        <v>769</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>506</v>
@@ -6083,7 +6080,7 @@
         <v>62</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>587</v>
+        <v>993</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>405</v>
@@ -6092,19 +6089,19 @@
         <v>110</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>891</v>
+        <v>859</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>298</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>658</v>
+        <v>626</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>802</v>
+        <v>770</v>
       </c>
       <c r="M54" s="9" t="s">
         <v>507</v>
@@ -6121,13 +6118,13 @@
         <v>223</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>238</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>588</v>
+        <v>994</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>406</v>
@@ -6136,7 +6133,7 @@
         <v>110</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>892</v>
+        <v>860</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>297</v>
@@ -6148,13 +6145,13 @@
         <v>110</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>803</v>
+        <v>771</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>508</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>925</v>
+        <v>893</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
@@ -6165,16 +6162,16 @@
         <v>223</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>736</v>
+        <v>704</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>589</v>
+        <v>995</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>876</v>
+        <v>844</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>110</v>
@@ -6192,7 +6189,7 @@
         <v>110</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>804</v>
+        <v>772</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>509</v>
@@ -6212,10 +6209,10 @@
         <v>5</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>867</v>
+        <v>835</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>407</v>
@@ -6224,25 +6221,25 @@
         <v>110</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>893</v>
+        <v>861</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>300</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>659</v>
+        <v>627</v>
       </c>
       <c r="K57" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>805</v>
+        <v>773</v>
       </c>
       <c r="M57" s="9" t="s">
         <v>510</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>926</v>
+        <v>894</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -6259,7 +6256,7 @@
         <v>239</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>976</v>
+        <v>944</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>408</v>
@@ -6268,19 +6265,19 @@
         <v>110</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>894</v>
+        <v>862</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>301</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>660</v>
+        <v>628</v>
       </c>
       <c r="K58" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>806</v>
+        <v>774</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>511</v>
@@ -6297,13 +6294,13 @@
         <v>223</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>734</v>
+        <v>702</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>959</v>
+        <v>927</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>409</v>
@@ -6312,19 +6309,19 @@
         <v>110</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>895</v>
+        <v>863</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>302</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>661</v>
+        <v>629</v>
       </c>
       <c r="K59" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>807</v>
+        <v>775</v>
       </c>
       <c r="M59" s="9" t="s">
         <v>512</v>
@@ -6347,7 +6344,7 @@
         <v>240</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>959</v>
+        <v>996</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>410</v>
@@ -6362,19 +6359,19 @@
         <v>303</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>662</v>
+        <v>630</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>717</v>
+        <v>685</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>808</v>
+        <v>776</v>
       </c>
       <c r="M60" s="9" t="s">
         <v>513</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>927</v>
+        <v>895</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
@@ -6391,28 +6388,28 @@
         <v>68</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>591</v>
+        <v>997</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>877</v>
+        <v>845</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>110</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>896</v>
+        <v>864</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>304</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>663</v>
+        <v>631</v>
       </c>
       <c r="K61" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>809</v>
+        <v>777</v>
       </c>
       <c r="M61" s="9" t="s">
         <v>514</v>
@@ -6429,13 +6426,13 @@
         <v>223</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>988</v>
+        <v>956</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>411</v>
@@ -6456,7 +6453,7 @@
         <v>110</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>810</v>
+        <v>778</v>
       </c>
       <c r="M62" s="9" t="s">
         <v>515</v>
@@ -6476,10 +6473,10 @@
         <v>4</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>868</v>
+        <v>836</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>989</v>
+        <v>957</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>412</v>
@@ -6494,13 +6491,13 @@
         <v>306</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>664</v>
+        <v>632</v>
       </c>
       <c r="K63" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>811</v>
+        <v>779</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>516</v>
@@ -6523,7 +6520,7 @@
         <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>592</v>
+        <v>998</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>413</v>
@@ -6538,19 +6535,19 @@
         <v>307</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>665</v>
+        <v>633</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>718</v>
+        <v>686</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>812</v>
+        <v>780</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>477</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>919</v>
+        <v>887</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
@@ -6561,13 +6558,13 @@
         <v>223</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>593</v>
+        <v>999</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>414</v>
@@ -6576,19 +6573,19 @@
         <v>110</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>897</v>
+        <v>865</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>308</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>666</v>
+        <v>634</v>
       </c>
       <c r="K65" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>813</v>
+        <v>781</v>
       </c>
       <c r="M65" s="9" t="s">
         <v>517</v>
@@ -6611,7 +6608,7 @@
         <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>415</v>
@@ -6626,19 +6623,19 @@
         <v>309</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>667</v>
+        <v>635</v>
       </c>
       <c r="K66" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>814</v>
+        <v>782</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>518</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>928</v>
+        <v>896</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="277.2" x14ac:dyDescent="0.3">
@@ -6655,7 +6652,7 @@
         <v>38</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>416</v>
@@ -6664,19 +6661,19 @@
         <v>110</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>898</v>
+        <v>866</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>310</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>668</v>
+        <v>636</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>719</v>
+        <v>687</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>815</v>
+        <v>783</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>519</v>
@@ -6699,7 +6696,7 @@
         <v>23</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>977</v>
+        <v>945</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>417</v>
@@ -6714,13 +6711,13 @@
         <v>311</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>669</v>
+        <v>637</v>
       </c>
       <c r="K68" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>816</v>
+        <v>784</v>
       </c>
       <c r="M68" s="9" t="s">
         <v>520</v>
@@ -6743,7 +6740,7 @@
         <v>241</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>418</v>
@@ -6758,7 +6755,7 @@
         <v>312</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>670</v>
+        <v>638</v>
       </c>
       <c r="K69" s="14" t="s">
         <v>110</v>
@@ -6787,10 +6784,10 @@
         <v>49</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>990</v>
+        <v>958</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>878</v>
+        <v>846</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>110</v>
@@ -6802,19 +6799,19 @@
         <v>313</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>671</v>
+        <v>639</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>817</v>
+        <v>785</v>
       </c>
       <c r="M70" s="9" t="s">
         <v>521</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>929</v>
+        <v>897</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -6828,10 +6825,10 @@
         <v>5</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>869</v>
+        <v>837</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>978</v>
+        <v>946</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>419</v>
@@ -6846,13 +6843,13 @@
         <v>314</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>672</v>
+        <v>640</v>
       </c>
       <c r="K71" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>818</v>
+        <v>786</v>
       </c>
       <c r="M71" s="9" t="s">
         <v>522</v>
@@ -6875,7 +6872,7 @@
         <v>16</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>597</v>
+        <v>1000</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>420</v>
@@ -6884,19 +6881,19 @@
         <v>110</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>899</v>
+        <v>867</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>315</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>673</v>
+        <v>641</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>819</v>
+        <v>787</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>523</v>
@@ -6919,7 +6916,7 @@
         <v>242</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>960</v>
+        <v>928</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>421</v>
@@ -6928,25 +6925,25 @@
         <v>110</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>900</v>
+        <v>868</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>316</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>674</v>
+        <v>642</v>
       </c>
       <c r="K73" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>820</v>
+        <v>788</v>
       </c>
       <c r="M73" s="9" t="s">
         <v>524</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>930</v>
+        <v>898</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
@@ -6963,10 +6960,10 @@
         <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>991</v>
+        <v>959</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>879</v>
+        <v>847</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>110</v>
@@ -6978,19 +6975,19 @@
         <v>317</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>675</v>
+        <v>643</v>
       </c>
       <c r="K74" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>821</v>
+        <v>789</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>525</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>926</v>
+        <v>894</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -7007,7 +7004,7 @@
         <v>71</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>961</v>
+        <v>929</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>422</v>
@@ -7022,13 +7019,13 @@
         <v>318</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>676</v>
+        <v>644</v>
       </c>
       <c r="K75" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>822</v>
+        <v>790</v>
       </c>
       <c r="M75" s="9" t="s">
         <v>477</v>
@@ -7051,7 +7048,7 @@
         <v>243</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>963</v>
+        <v>931</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>423</v>
@@ -7066,19 +7063,19 @@
         <v>319</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>677</v>
+        <v>645</v>
       </c>
       <c r="K76" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>823</v>
+        <v>791</v>
       </c>
       <c r="M76" s="9" t="s">
         <v>526</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>931</v>
+        <v>899</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -7095,7 +7092,7 @@
         <v>37</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>962</v>
+        <v>930</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>424</v>
@@ -7110,7 +7107,7 @@
         <v>320</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>678</v>
+        <v>646</v>
       </c>
       <c r="K77" s="14" t="s">
         <v>110</v>
@@ -7133,13 +7130,13 @@
         <v>223</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>425</v>
@@ -7154,7 +7151,7 @@
         <v>321</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>679</v>
+        <v>647</v>
       </c>
       <c r="K78" s="10" t="s">
         <v>110</v>
@@ -7180,10 +7177,10 @@
         <v>5</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>870</v>
+        <v>838</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>964</v>
+        <v>932</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>426</v>
@@ -7198,13 +7195,13 @@
         <v>322</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>680</v>
+        <v>648</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>721</v>
+        <v>689</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>824</v>
+        <v>792</v>
       </c>
       <c r="M79" s="9" t="s">
         <v>528</v>
@@ -7227,7 +7224,7 @@
         <v>33</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>965</v>
+        <v>933</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>427</v>
@@ -7265,16 +7262,16 @@
         <v>223</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>992</v>
+        <v>960</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>880</v>
+        <v>848</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>110</v>
@@ -7292,13 +7289,13 @@
         <v>110</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>825</v>
+        <v>793</v>
       </c>
       <c r="M81" s="9" t="s">
         <v>530</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>932</v>
+        <v>900</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -7309,13 +7306,13 @@
         <v>223</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>738</v>
+        <v>706</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>244</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>428</v>
@@ -7336,7 +7333,7 @@
         <v>110</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>826</v>
+        <v>794</v>
       </c>
       <c r="M82" s="9" t="s">
         <v>531</v>
@@ -7359,7 +7356,7 @@
         <v>18</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>429</v>
@@ -7374,13 +7371,13 @@
         <v>326</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>681</v>
+        <v>649</v>
       </c>
       <c r="K83" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>827</v>
+        <v>795</v>
       </c>
       <c r="M83" s="9" t="s">
         <v>532</v>
@@ -7397,13 +7394,13 @@
         <v>223</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>601</v>
+        <v>1001</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>430</v>
@@ -7418,13 +7415,13 @@
         <v>327</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>682</v>
+        <v>650</v>
       </c>
       <c r="K84" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>828</v>
+        <v>796</v>
       </c>
       <c r="M84" s="9" t="s">
         <v>533</v>
@@ -7447,7 +7444,7 @@
         <v>245</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>602</v>
+        <v>576</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>431</v>
@@ -7462,13 +7459,13 @@
         <v>110</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>683</v>
+        <v>651</v>
       </c>
       <c r="K85" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>829</v>
+        <v>797</v>
       </c>
       <c r="M85" s="9" t="s">
         <v>534</v>
@@ -7477,7 +7474,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="330" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="343.2" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>192</v>
       </c>
@@ -7491,7 +7488,7 @@
         <v>31</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>603</v>
+        <v>577</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>432</v>
@@ -7509,16 +7506,16 @@
         <v>101</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>722</v>
+        <v>690</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>830</v>
+        <v>798</v>
       </c>
       <c r="M86" s="9" t="s">
         <v>535</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>933</v>
+        <v>901</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -7535,7 +7532,7 @@
         <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>966</v>
+        <v>934</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>433</v>
@@ -7544,25 +7541,25 @@
         <v>110</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>901</v>
+        <v>869</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>329</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>684</v>
+        <v>652</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>723</v>
+        <v>691</v>
       </c>
       <c r="L87" s="9" t="s">
+        <v>799</v>
+      </c>
+      <c r="M87" s="9" t="s">
         <v>831</v>
       </c>
-      <c r="M87" s="9" t="s">
-        <v>863</v>
-      </c>
       <c r="N87" s="10" t="s">
-        <v>934</v>
+        <v>902</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -7573,13 +7570,13 @@
         <v>223</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>246</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>604</v>
+        <v>1002</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>434</v>
@@ -7600,7 +7597,7 @@
         <v>110</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>832</v>
+        <v>800</v>
       </c>
       <c r="M88" s="9" t="s">
         <v>536</v>
@@ -7623,7 +7620,7 @@
         <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>435</v>
@@ -7638,13 +7635,13 @@
         <v>331</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>685</v>
+        <v>653</v>
       </c>
       <c r="K89" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>833</v>
+        <v>801</v>
       </c>
       <c r="M89" s="9" t="s">
         <v>537</v>
@@ -7667,7 +7664,7 @@
         <v>56</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>606</v>
+        <v>1003</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>436</v>
@@ -7679,22 +7676,22 @@
         <v>110</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>749</v>
+        <v>717</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>686</v>
+        <v>654</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>724</v>
+        <v>692</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>834</v>
+        <v>802</v>
       </c>
       <c r="M90" s="9" t="s">
         <v>538</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>935</v>
+        <v>903</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -7711,7 +7708,7 @@
         <v>24</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>437</v>
@@ -7720,19 +7717,19 @@
         <v>110</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>902</v>
+        <v>870</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>332</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>687</v>
+        <v>655</v>
       </c>
       <c r="K91" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>835</v>
+        <v>803</v>
       </c>
       <c r="M91" s="9" t="s">
         <v>539</v>
@@ -7755,7 +7752,7 @@
         <v>21</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>979</v>
+        <v>947</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>438</v>
@@ -7770,13 +7767,13 @@
         <v>333</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>688</v>
+        <v>656</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>725</v>
+        <v>693</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>836</v>
+        <v>804</v>
       </c>
       <c r="M92" s="9" t="s">
         <v>540</v>
@@ -7799,7 +7796,7 @@
         <v>247</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>608</v>
+        <v>580</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>439</v>
@@ -7808,25 +7805,25 @@
         <v>110</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>903</v>
+        <v>871</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>334</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>689</v>
+        <v>657</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>726</v>
+        <v>694</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>837</v>
+        <v>805</v>
       </c>
       <c r="M93" s="9" t="s">
         <v>541</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>936</v>
+        <v>904</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
@@ -7843,7 +7840,7 @@
         <v>89</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>980</v>
+        <v>948</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>440</v>
@@ -7861,10 +7858,10 @@
         <v>108</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>727</v>
+        <v>695</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>838</v>
+        <v>806</v>
       </c>
       <c r="M94" s="9" t="s">
         <v>542</v>
@@ -7887,7 +7884,7 @@
         <v>25</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>981</v>
+        <v>949</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>441</v>
@@ -7902,19 +7899,19 @@
         <v>336</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>690</v>
+        <v>658</v>
       </c>
       <c r="K95" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>839</v>
+        <v>807</v>
       </c>
       <c r="M95" s="9" t="s">
         <v>543</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>937</v>
+        <v>905</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -7931,7 +7928,7 @@
         <v>79</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>609</v>
+        <v>1004</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>442</v>
@@ -7940,25 +7937,25 @@
         <v>110</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>904</v>
+        <v>872</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>337</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>691</v>
+        <v>659</v>
       </c>
       <c r="K96" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>840</v>
+        <v>808</v>
       </c>
       <c r="M96" s="9" t="s">
         <v>544</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>938</v>
+        <v>906</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -7975,7 +7972,7 @@
         <v>47</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>610</v>
+        <v>1004</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>443</v>
@@ -7984,25 +7981,25 @@
         <v>110</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>905</v>
+        <v>873</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>338</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>692</v>
+        <v>660</v>
       </c>
       <c r="K97" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>841</v>
+        <v>809</v>
       </c>
       <c r="M97" s="9" t="s">
         <v>545</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>926</v>
+        <v>894</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -8019,7 +8016,7 @@
         <v>57</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>444</v>
@@ -8034,19 +8031,19 @@
         <v>339</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>693</v>
+        <v>661</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>728</v>
+        <v>696</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>842</v>
+        <v>810</v>
       </c>
       <c r="M98" s="9" t="s">
         <v>546</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>939</v>
+        <v>907</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -8057,13 +8054,13 @@
         <v>223</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>612</v>
+        <v>582</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>445</v>
@@ -8084,7 +8081,7 @@
         <v>110</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>843</v>
+        <v>811</v>
       </c>
       <c r="M99" s="9" t="s">
         <v>547</v>
@@ -8101,13 +8098,13 @@
         <v>223</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>248</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>613</v>
+        <v>583</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>446</v>
@@ -8122,13 +8119,13 @@
         <v>341</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>694</v>
+        <v>662</v>
       </c>
       <c r="K100" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>844</v>
+        <v>812</v>
       </c>
       <c r="M100" s="9" t="s">
         <v>548</v>
@@ -8151,7 +8148,7 @@
         <v>43</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>982</v>
+        <v>950</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>447</v>
@@ -8166,13 +8163,13 @@
         <v>342</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>695</v>
+        <v>663</v>
       </c>
       <c r="K101" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>845</v>
+        <v>813</v>
       </c>
       <c r="M101" s="9" t="s">
         <v>549</v>
@@ -8189,13 +8186,13 @@
         <v>223</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>739</v>
+        <v>707</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>967</v>
+        <v>935</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>448</v>
@@ -8210,13 +8207,13 @@
         <v>343</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>696</v>
+        <v>664</v>
       </c>
       <c r="K102" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>846</v>
+        <v>814</v>
       </c>
       <c r="M102" s="9" t="s">
         <v>550</v>
@@ -8239,7 +8236,7 @@
         <v>88</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>1005</v>
+        <v>973</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>449</v>
@@ -8254,13 +8251,13 @@
         <v>344</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>697</v>
+        <v>665</v>
       </c>
       <c r="K103" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>847</v>
+        <v>815</v>
       </c>
       <c r="M103" s="10" t="s">
         <v>110</v>
@@ -8277,13 +8274,13 @@
         <v>223</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>740</v>
+        <v>708</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>614</v>
+        <v>584</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>450</v>
@@ -8298,13 +8295,13 @@
         <v>110</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>698</v>
+        <v>666</v>
       </c>
       <c r="K104" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>848</v>
+        <v>816</v>
       </c>
       <c r="M104" s="9" t="s">
         <v>551</v>
@@ -8321,13 +8318,13 @@
         <v>223</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>87</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>615</v>
+        <v>585</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>451</v>
@@ -8342,13 +8339,13 @@
         <v>345</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>699</v>
+        <v>667</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>729</v>
+        <v>697</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>849</v>
+        <v>817</v>
       </c>
       <c r="M105" s="9" t="s">
         <v>552</v>
@@ -8371,7 +8368,7 @@
         <v>22</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>616</v>
+        <v>586</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>452</v>
@@ -8389,10 +8386,10 @@
         <v>100</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>730</v>
+        <v>698</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>850</v>
+        <v>818</v>
       </c>
       <c r="M106" s="9" t="s">
         <v>553</v>
@@ -8415,7 +8412,7 @@
         <v>249</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>617</v>
+        <v>587</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>453</v>
@@ -8430,19 +8427,19 @@
         <v>347</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>700</v>
+        <v>668</v>
       </c>
       <c r="K107" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>851</v>
+        <v>819</v>
       </c>
       <c r="M107" s="9" t="s">
         <v>554</v>
       </c>
       <c r="N107" s="10" t="s">
-        <v>940</v>
+        <v>908</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -8459,7 +8456,7 @@
         <v>250</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>1006</v>
+        <v>974</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>454</v>
@@ -8474,13 +8471,13 @@
         <v>348</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>701</v>
+        <v>669</v>
       </c>
       <c r="K108" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>852</v>
+        <v>820</v>
       </c>
       <c r="M108" s="9" t="s">
         <v>555</v>
@@ -8503,7 +8500,7 @@
         <v>75</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>983</v>
+        <v>951</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>75</v>
@@ -8518,13 +8515,13 @@
         <v>349</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>702</v>
+        <v>670</v>
       </c>
       <c r="K109" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>853</v>
+        <v>821</v>
       </c>
       <c r="M109" s="9" t="s">
         <v>556</v>
@@ -8541,13 +8538,13 @@
         <v>223</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>741</v>
+        <v>709</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>618</v>
+        <v>588</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>455</v>
@@ -8562,19 +8559,19 @@
         <v>350</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>703</v>
+        <v>671</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>731</v>
+        <v>699</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>854</v>
+        <v>822</v>
       </c>
       <c r="M110" s="9" t="s">
         <v>557</v>
       </c>
       <c r="N110" s="10" t="s">
-        <v>941</v>
+        <v>909</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -8585,13 +8582,13 @@
         <v>223</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>733</v>
+        <v>701</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>1007</v>
+        <v>975</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>456</v>
@@ -8606,13 +8603,13 @@
         <v>351</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>704</v>
+        <v>672</v>
       </c>
       <c r="K111" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
       <c r="M111" s="9" t="s">
         <v>558</v>
@@ -8635,7 +8632,7 @@
         <v>64</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>619</v>
+        <v>589</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>457</v>
@@ -8644,19 +8641,19 @@
         <v>110</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>906</v>
+        <v>874</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>705</v>
+        <v>673</v>
       </c>
       <c r="K112" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>856</v>
+        <v>824</v>
       </c>
       <c r="M112" s="9" t="s">
         <v>559</v>
@@ -8679,7 +8676,7 @@
         <v>77</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>993</v>
+        <v>961</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>458</v>
@@ -8694,19 +8691,19 @@
         <v>353</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>706</v>
+        <v>674</v>
       </c>
       <c r="K113" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>857</v>
+        <v>825</v>
       </c>
       <c r="M113" s="17" t="s">
         <v>559</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>942</v>
+        <v>910</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
@@ -8717,13 +8714,13 @@
         <v>223</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>620</v>
+        <v>1005</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>459</v>
@@ -8738,13 +8735,13 @@
         <v>354</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>707</v>
+        <v>675</v>
       </c>
       <c r="K114" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>858</v>
+        <v>826</v>
       </c>
       <c r="M114" s="9" t="s">
         <v>560</v>
@@ -8761,16 +8758,16 @@
         <v>223</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>735</v>
+        <v>703</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>251</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>994</v>
+        <v>962</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>881</v>
+        <v>849</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>110</v>
@@ -8782,13 +8779,13 @@
         <v>355</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>708</v>
+        <v>676</v>
       </c>
       <c r="K115" s="10" t="s">
         <v>111</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>859</v>
+        <v>827</v>
       </c>
       <c r="M115" s="9" t="s">
         <v>477</v>
@@ -8805,13 +8802,13 @@
         <v>223</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>734</v>
+        <v>702</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>621</v>
+        <v>1006</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>460</v>
@@ -8826,13 +8823,13 @@
         <v>356</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>709</v>
+        <v>677</v>
       </c>
       <c r="K116" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>860</v>
+        <v>828</v>
       </c>
       <c r="M116" s="9" t="s">
         <v>561</v>
@@ -8843,16 +8840,16 @@
     </row>
     <row r="117" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="s">
-        <v>732</v>
+        <v>700</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>742</v>
+        <v>710</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>871</v>
+        <v>839</v>
       </c>
       <c r="F117" s="16" t="s">
         <v>110</v>
@@ -8861,7 +8858,7 @@
         <v>110</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>750</v>
+        <v>718</v>
       </c>
       <c r="J117" s="11" t="s">
         <v>110</v>
@@ -8883,461 +8880,462 @@
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{A62FB5FE-12B7-435E-B3DF-DE702ECD1D4C}"/>
-    <hyperlink ref="E3" r:id="rId2" display="https://placehold.co/400x600" xr:uid="{B0FAAFEF-605D-4098-8F11-6FC6A0E9E0D6}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{B0FAAFEF-605D-4098-8F11-6FC6A0E9E0D6}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{AB4A22E1-9601-4D07-8888-34F1D29BD46A}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{D5047CB0-F6D4-4475-9DBF-0B83B4DAEAB4}"/>
     <hyperlink ref="E8" r:id="rId5" display="https://placehold.co/400x600" xr:uid="{341347BE-FDF4-47C3-A9AA-7BF0532F61DB}"/>
     <hyperlink ref="E10" r:id="rId6" xr:uid="{CE30ABE6-4735-49AC-9E38-986CD096C5BF}"/>
     <hyperlink ref="E12" r:id="rId7" xr:uid="{17D5C088-BD3A-4E75-8035-22B027942A64}"/>
     <hyperlink ref="E14" r:id="rId8" xr:uid="{6815D31E-1624-40E4-AD43-8FB5276A3E13}"/>
-    <hyperlink ref="E18" r:id="rId9" display="https://placehold.co/400x600" xr:uid="{D37B5237-F7AD-4C72-A4B8-18846345A20A}"/>
+    <hyperlink ref="E18" r:id="rId9" xr:uid="{D37B5237-F7AD-4C72-A4B8-18846345A20A}"/>
     <hyperlink ref="E20" r:id="rId10" display="https://placehold.co/400x600" xr:uid="{455E2F96-6FCE-4ED2-9C3B-2E6E7249AE44}"/>
-    <hyperlink ref="E22" r:id="rId11" display="https://placehold.co/400x600" xr:uid="{77807312-4DCC-424A-9227-0205668D168B}"/>
-    <hyperlink ref="E24" r:id="rId12" display="https://placehold.co/400x600" xr:uid="{8AAD6443-2520-4082-8EC0-C46B0A509927}"/>
-    <hyperlink ref="E26" r:id="rId13" display="https://placehold.co/400x600" xr:uid="{5B8C9469-79CD-4130-A71A-FB9845883315}"/>
+    <hyperlink ref="E22" r:id="rId11" xr:uid="{77807312-4DCC-424A-9227-0205668D168B}"/>
+    <hyperlink ref="E24" r:id="rId12" xr:uid="{8AAD6443-2520-4082-8EC0-C46B0A509927}"/>
+    <hyperlink ref="E26" r:id="rId13" xr:uid="{5B8C9469-79CD-4130-A71A-FB9845883315}"/>
     <hyperlink ref="E28" r:id="rId14" xr:uid="{C6FD206E-083A-424A-BEB2-E5FA5EA1028A}"/>
     <hyperlink ref="E30" r:id="rId15" xr:uid="{3C06105A-95B0-486E-B562-804FA49B279E}"/>
-    <hyperlink ref="E32" r:id="rId16" display="https://placehold.co/400x600" xr:uid="{445C6875-08FB-4A0D-945E-88ACC5B3E36F}"/>
+    <hyperlink ref="E32" r:id="rId16" xr:uid="{445C6875-08FB-4A0D-945E-88ACC5B3E36F}"/>
     <hyperlink ref="E34" r:id="rId17" xr:uid="{65D66EC6-EE19-4700-A25B-1483B78EB1EF}"/>
     <hyperlink ref="E36" r:id="rId18" display="https://placehold.co/400x600" xr:uid="{2E844F72-E0A3-4D15-89E8-4C62C40B0097}"/>
     <hyperlink ref="E38" r:id="rId19" xr:uid="{15AC029B-EF8F-4E8F-BB97-C5EC917FD18C}"/>
     <hyperlink ref="E40" r:id="rId20" xr:uid="{5FE82AD6-8780-451F-B565-3C9E2036135F}"/>
     <hyperlink ref="E42" r:id="rId21" xr:uid="{F7983BF9-576C-4FA2-B35A-DFA749ACF1B5}"/>
     <hyperlink ref="E44" r:id="rId22" xr:uid="{DF66767C-72DE-4D71-B54F-89D37A2B3207}"/>
-    <hyperlink ref="E46" r:id="rId23" display="https://placehold.co/400x600" xr:uid="{E6907F0E-8A63-42E5-881D-83BE98378391}"/>
-    <hyperlink ref="E48" r:id="rId24" display="https://placehold.co/400x600" xr:uid="{BF819DDD-F33C-4323-B234-FA5AEFEBF540}"/>
-    <hyperlink ref="E50" r:id="rId25" display="https://placehold.co/400x600" xr:uid="{B4631102-EF86-443A-975E-E151B867331C}"/>
+    <hyperlink ref="E46" r:id="rId23" xr:uid="{E6907F0E-8A63-42E5-881D-83BE98378391}"/>
+    <hyperlink ref="E48" r:id="rId24" xr:uid="{BF819DDD-F33C-4323-B234-FA5AEFEBF540}"/>
+    <hyperlink ref="E50" r:id="rId25" xr:uid="{B4631102-EF86-443A-975E-E151B867331C}"/>
     <hyperlink ref="E52" r:id="rId26" xr:uid="{D0C8995E-2389-436D-96F9-0ECFED635D2D}"/>
-    <hyperlink ref="E54" r:id="rId27" display="https://placehold.co/400x600" xr:uid="{41208DE8-410A-4988-814F-34D6808B3973}"/>
-    <hyperlink ref="E56" r:id="rId28" display="https://placehold.co/400x600" xr:uid="{D60F983F-3A4A-4B45-A5A9-1CBD13CCBAB1}"/>
-    <hyperlink ref="E58" r:id="rId29" xr:uid="{DDB2A0FD-936A-490E-BE1E-1762A651B20C}"/>
-    <hyperlink ref="E62" r:id="rId30" xr:uid="{5E732335-693B-490D-844A-64351A2B11C7}"/>
-    <hyperlink ref="E64" r:id="rId31" display="https://placehold.co/400x600" xr:uid="{B032BBB6-4D16-4E33-A3F0-D7039E10D767}"/>
-    <hyperlink ref="E66" r:id="rId32" display="https://placehold.co/400x600" xr:uid="{C71F9231-ACA2-46E1-BE2F-462475789CDA}"/>
-    <hyperlink ref="E68" r:id="rId33" xr:uid="{6DAF2527-3F52-4351-90EE-F788A7836287}"/>
-    <hyperlink ref="E70" r:id="rId34" xr:uid="{C213B07F-FB90-4578-BA40-CB5277C5E9F8}"/>
-    <hyperlink ref="E72" r:id="rId35" display="https://placehold.co/400x600" xr:uid="{B6B3C0BC-449F-4D5F-8991-2960BC1E1B95}"/>
-    <hyperlink ref="E74" r:id="rId36" xr:uid="{12F3E568-1027-43BC-89EA-C5D4D2C3F3B1}"/>
-    <hyperlink ref="E76" r:id="rId37" xr:uid="{9BCFDA15-C8D8-41F6-B5C1-8DB9E3F54F38}"/>
-    <hyperlink ref="E78" r:id="rId38" display="https://placehold.co/400x600" xr:uid="{5074351A-0735-4679-AE99-F1F491EAD66F}"/>
-    <hyperlink ref="E80" r:id="rId39" xr:uid="{797A27FB-9286-43BA-A3D3-06E0B7DF57C7}"/>
-    <hyperlink ref="E82" r:id="rId40" display="https://placehold.co/400x600" xr:uid="{E22D4C78-609C-4F6C-902E-67DDEA2AEC08}"/>
-    <hyperlink ref="E84" r:id="rId41" display="https://placehold.co/400x600" xr:uid="{689543FA-D772-478F-B75B-353A8D5F5A0F}"/>
-    <hyperlink ref="E86" r:id="rId42" display="https://placehold.co/400x600" xr:uid="{6F1B4F40-1347-45F9-B0B9-89687F77E0B0}"/>
-    <hyperlink ref="E88" r:id="rId43" display="https://placehold.co/400x600" xr:uid="{269A95A2-A318-4245-8364-07E925D041A6}"/>
-    <hyperlink ref="E90" r:id="rId44" display="https://placehold.co/400x600" xr:uid="{BC5C79FD-42B9-4F63-B259-53ADA917C149}"/>
-    <hyperlink ref="E92" r:id="rId45" xr:uid="{F219C840-96AC-40EA-9D7B-C09CBA360D2A}"/>
-    <hyperlink ref="E94" r:id="rId46" xr:uid="{E85B62E0-66A6-4BDE-AB82-B3F3885FF25D}"/>
-    <hyperlink ref="E96" r:id="rId47" display="https://placehold.co/400x600" xr:uid="{F685C903-F46A-4AEA-A4B6-30F5F5C38E02}"/>
-    <hyperlink ref="E98" r:id="rId48" display="https://placehold.co/400x600" xr:uid="{34A32507-5178-4AE2-8923-C76F8834EAC3}"/>
-    <hyperlink ref="E100" r:id="rId49" display="https://placehold.co/400x600" xr:uid="{316F114E-DC59-4C12-AAE4-7C561A6A4A37}"/>
-    <hyperlink ref="E102" r:id="rId50" xr:uid="{E6C4E1E9-ADFC-463C-BA35-72BF5470C0FC}"/>
-    <hyperlink ref="E104" r:id="rId51" display="https://placehold.co/400x600" xr:uid="{5C2E1F62-17AE-4C61-86CF-CFAADD48E3DA}"/>
-    <hyperlink ref="E106" r:id="rId52" display="https://placehold.co/400x600" xr:uid="{EB2D28AA-5611-4D14-B6D8-65655568052B}"/>
-    <hyperlink ref="E108" r:id="rId53" xr:uid="{1A1FF6C3-6CA4-4205-87F4-FFA4C505FE05}"/>
-    <hyperlink ref="E110" r:id="rId54" display="https://placehold.co/400x600" xr:uid="{D5F8DE7D-9A2E-4EB2-AD3E-1B6347BBB03A}"/>
-    <hyperlink ref="E112" r:id="rId55" display="https://placehold.co/400x600" xr:uid="{72604405-579A-4D04-AD70-2F433C2E73DD}"/>
-    <hyperlink ref="E114" r:id="rId56" display="https://placehold.co/400x600" xr:uid="{F52A7ADE-923C-4FC0-835C-C78BE5475FD1}"/>
-    <hyperlink ref="E116" r:id="rId57" display="https://placehold.co/400x600" xr:uid="{88BB9B9A-193B-430A-8A94-9996D9F8B858}"/>
-    <hyperlink ref="E5" r:id="rId58" display="https://placehold.co/400x600" xr:uid="{673B2D9E-5CEE-40DD-A0A2-66025584E8C2}"/>
-    <hyperlink ref="E7" r:id="rId59" xr:uid="{20202916-CECB-497F-BB8D-D7E09DCEC193}"/>
-    <hyperlink ref="E9" r:id="rId60" display="https://placehold.co/400x600" xr:uid="{E7773CE7-BD5F-4624-B940-0E795B4A4E30}"/>
-    <hyperlink ref="E11" r:id="rId61" display="https://placehold.co/400x600" xr:uid="{93DA058C-7CEC-4BA2-9D33-5FB8B5E88910}"/>
-    <hyperlink ref="E13" r:id="rId62" display="https://placehold.co/400x600" xr:uid="{8F788626-64E7-4F1D-A12D-F2E9D916467C}"/>
-    <hyperlink ref="E15" r:id="rId63" display="https://placehold.co/400x600" xr:uid="{8AD2972F-0CB2-4DCE-8821-C56F9057AD5B}"/>
-    <hyperlink ref="E19" r:id="rId64" display="https://placehold.co/400x600" xr:uid="{D4698768-8DC5-407A-B6F4-C1C875BFB78D}"/>
-    <hyperlink ref="E21" r:id="rId65" xr:uid="{13DD67BA-1FCB-43E0-A39C-FFE32E5D3954}"/>
-    <hyperlink ref="E23" r:id="rId66" xr:uid="{90D0F56C-C7DB-4632-B91C-EF74541F5FEA}"/>
-    <hyperlink ref="E25" r:id="rId67" xr:uid="{F6A0C9FE-D2B9-4181-8F81-93868F3E313C}"/>
-    <hyperlink ref="E27" r:id="rId68" xr:uid="{848B184F-1DE9-469A-9D63-F5CDEBF10D7A}"/>
-    <hyperlink ref="E29" r:id="rId69" xr:uid="{1AF17D20-76D5-4714-B7E2-2D8B8CB9ADC3}"/>
-    <hyperlink ref="E31" r:id="rId70" display="https://placehold.co/400x600" xr:uid="{22DD1D25-8288-4AC9-A5FC-D9B7B89B515C}"/>
-    <hyperlink ref="E33" r:id="rId71" xr:uid="{01F92761-8D63-4A2C-8713-25D41165DB40}"/>
-    <hyperlink ref="E35" r:id="rId72" xr:uid="{FFD57A2F-B179-4903-B296-F8069D1F1332}"/>
-    <hyperlink ref="E37" r:id="rId73" display="https://placehold.co/400x600" xr:uid="{291A37C6-A686-4CDE-9352-CAE725E23B11}"/>
-    <hyperlink ref="E39" r:id="rId74" xr:uid="{6ECECF25-2624-4D12-A089-9B4C4DBCF38B}"/>
-    <hyperlink ref="E41" r:id="rId75" display="https://placehold.co/400x600" xr:uid="{B8267D85-A691-4187-91DB-27E364616A8C}"/>
-    <hyperlink ref="E43" r:id="rId76" xr:uid="{AA69E1F0-E88A-495C-A844-C33C82F6CE26}"/>
-    <hyperlink ref="E45" r:id="rId77" xr:uid="{269F03E1-526C-4849-A6D5-8276665E4485}"/>
-    <hyperlink ref="E47" r:id="rId78" display="https://placehold.co/400x600" xr:uid="{D722AC52-912D-4A3F-8560-FAA4DCA60A56}"/>
-    <hyperlink ref="E49" r:id="rId79" display="https://placehold.co/400x600" xr:uid="{6ED9D463-8E32-4780-942A-C1EC9D07542B}"/>
-    <hyperlink ref="E51" r:id="rId80" display="https://placehold.co/400x600" xr:uid="{FAAE2569-D069-46B3-A7AA-6969338A4AFF}"/>
-    <hyperlink ref="E53" r:id="rId81" display="https://placehold.co/400x600" xr:uid="{919767C3-0A6A-4A63-9549-0F7B3A7EE7DF}"/>
-    <hyperlink ref="E55" r:id="rId82" display="https://placehold.co/400x600" xr:uid="{BD76B93C-ACC1-4CF1-A623-39E4FAFED853}"/>
-    <hyperlink ref="E57" r:id="rId83" display="https://placehold.co/400x600" xr:uid="{7964589D-7453-4997-AC7B-F98F5B5B7029}"/>
-    <hyperlink ref="E59" r:id="rId84" xr:uid="{F72D2D0A-AD07-45DC-AA3D-223C36C995AB}"/>
-    <hyperlink ref="E61" r:id="rId85" display="https://placehold.co/400x600" xr:uid="{D79CAE5D-C5B6-4B75-8261-008B5374EBDB}"/>
-    <hyperlink ref="E63" r:id="rId86" xr:uid="{75C81E45-FAA6-4175-A2FE-BA7C7F71F6F3}"/>
-    <hyperlink ref="E65" r:id="rId87" display="https://placehold.co/400x600" xr:uid="{2A43A7D2-0D9B-42A8-8E87-E447ECDB9951}"/>
-    <hyperlink ref="E67" r:id="rId88" display="https://placehold.co/400x600" xr:uid="{F199289C-0CB7-41CD-95E9-D9C97B86A7E7}"/>
-    <hyperlink ref="E69" r:id="rId89" display="https://placehold.co/400x600" xr:uid="{E4715AC6-7D6D-4434-A585-79B8F25233F6}"/>
-    <hyperlink ref="E71" r:id="rId90" xr:uid="{CFD1BDC4-A848-4998-9430-C29DB079EED4}"/>
-    <hyperlink ref="E73" r:id="rId91" xr:uid="{DEC62E70-AB7A-4365-B90A-11A1D549F375}"/>
-    <hyperlink ref="E75" r:id="rId92" xr:uid="{A925F566-676A-47EA-9068-3A8AC9C78A71}"/>
-    <hyperlink ref="E77" r:id="rId93" xr:uid="{826BB4FF-EF4E-4C68-AE45-B4C9CEE10FB5}"/>
-    <hyperlink ref="E79" r:id="rId94" xr:uid="{D55B186E-0A96-4185-9D34-01F9C47E843E}"/>
-    <hyperlink ref="E81" r:id="rId95" xr:uid="{AC60663B-FB99-47D2-A9DA-11C43648559B}"/>
-    <hyperlink ref="E83" r:id="rId96" display="https://placehold.co/400x600" xr:uid="{F83899A5-222C-48AC-9ABC-BC254C3600A8}"/>
-    <hyperlink ref="E85" r:id="rId97" display="https://placehold.co/400x600" xr:uid="{2EE015AD-95D3-42D3-9727-0C2D20C22B2D}"/>
-    <hyperlink ref="E87" r:id="rId98" xr:uid="{1E9351A5-5685-4A61-91E2-9C72A14FBA45}"/>
-    <hyperlink ref="E89" r:id="rId99" display="https://placehold.co/400x600" xr:uid="{DA14C2E4-99E6-4273-B1C6-88E4314A2B53}"/>
-    <hyperlink ref="E91" r:id="rId100" display="https://placehold.co/400x600" xr:uid="{CED33FAF-E705-4A0E-B5BA-28AC459A08F9}"/>
-    <hyperlink ref="E93" r:id="rId101" display="https://placehold.co/400x600" xr:uid="{69683834-3F44-4B9E-879F-17C7B3985064}"/>
-    <hyperlink ref="E95" r:id="rId102" xr:uid="{6706B29D-6B9E-414D-A766-C429245D96A7}"/>
-    <hyperlink ref="E97" r:id="rId103" display="https://placehold.co/400x600" xr:uid="{B8549196-6B30-41D5-B870-CDF1F6C0AE2B}"/>
-    <hyperlink ref="E99" r:id="rId104" display="https://placehold.co/400x600" xr:uid="{70722206-091E-437D-B026-345C8CDB5176}"/>
-    <hyperlink ref="E101" r:id="rId105" xr:uid="{EF057E02-0A38-4475-84BA-2BC1ED64BA7D}"/>
-    <hyperlink ref="E103" r:id="rId106" xr:uid="{F307B800-2CAD-4E08-A635-F4AD9976A897}"/>
-    <hyperlink ref="E105" r:id="rId107" display="https://placehold.co/400x600" xr:uid="{42F0B609-7315-4192-A377-FDEDE5FDDF8B}"/>
-    <hyperlink ref="E107" r:id="rId108" display="https://placehold.co/400x600" xr:uid="{0BBF4990-1413-476C-AFE7-EC34A9F113B0}"/>
-    <hyperlink ref="E109" r:id="rId109" xr:uid="{43D0B648-1D21-45A3-A6E9-CB546100DAA2}"/>
-    <hyperlink ref="E111" r:id="rId110" xr:uid="{3BF79D70-269C-4AB5-B83F-712DABFF4480}"/>
-    <hyperlink ref="E113" r:id="rId111" xr:uid="{622A2536-A959-42B4-B4F9-EE23F2A44517}"/>
-    <hyperlink ref="E115" r:id="rId112" xr:uid="{7690046C-47D4-4A7B-8DBE-6704DCCAE9C8}"/>
-    <hyperlink ref="J72" r:id="rId113" display="https://www.linkedin.com/in/dr-nilay-patel-106bab14/" xr:uid="{B2E17E23-9358-429B-BBF9-5EE4C8E363CB}"/>
-    <hyperlink ref="J83" r:id="rId114" display="https://www.linkedin.com/in/poonam-thanki-b112a6a2/" xr:uid="{BB16F397-78CE-4DBD-8BE4-13D65525672B}"/>
-    <hyperlink ref="J57" r:id="rId115" display="https://www.linkedin.com/in/dr-manthan-s-manavadaria-2a222219/" xr:uid="{4954A101-EA09-4BF1-8202-A72F86653038}"/>
-    <hyperlink ref="J18" r:id="rId116" display="https://www.linkedin.com/in/bhavin-mehta-86b47795/" xr:uid="{DB7D7CE8-51EF-48EE-BFBF-A021321BDC5F}"/>
-    <hyperlink ref="J49" r:id="rId117" display="https://www.linkedin.com/in/dr-kanwar-preet-kaur-bamrah-64a3a221/" xr:uid="{53166117-8C5A-4AB4-89B7-C2E8B83BC5A5}"/>
-    <hyperlink ref="J92" r:id="rId118" display="https://www.linkedin.com/in/rikita-chokshi-44bb65263/" xr:uid="{184885D3-531C-43E9-853D-5C2EAF6E7696}"/>
-    <hyperlink ref="J106" r:id="rId119" xr:uid="{FBE16C58-F91B-4934-8550-681C7F68CFE1}"/>
-    <hyperlink ref="J68" r:id="rId120" display="https://www.linkedin.com/in/mrugendrasinh-rahevar/" xr:uid="{F0663F50-387A-4315-8A34-03206888175F}"/>
-    <hyperlink ref="J91" r:id="rId121" display="https://www.linkedin.com/in/ravi-patel-13686b19/" xr:uid="{FC6DE30F-2E95-4AA2-B879-8CEAD23CEEC4}"/>
-    <hyperlink ref="J95" r:id="rId122" display="https://www.linkedin.com/in/ronak-patel-63663613a/" xr:uid="{EB8CC283-1781-41D5-BE2D-3C04AED15B01}"/>
-    <hyperlink ref="J50" r:id="rId123" display="https://www.linkedin.com/in/dr-kawaljitsingh-randhawa-96816064/" xr:uid="{4AE0FF76-EF4F-45C3-A542-A7D876A7DA2C}"/>
-    <hyperlink ref="J19" r:id="rId124" display="http://linkedin.com/in/bimal-patel-b7504849" xr:uid="{B02CE38D-7D41-45E6-8D0A-5F0FCF595503}"/>
-    <hyperlink ref="J71" r:id="rId125" display="https://www.linkedin.com/in/nikita-bhatt-ce/?originalSubdomain=in" xr:uid="{9EC6AE06-F884-4149-B7FC-88140006B7F4}"/>
-    <hyperlink ref="J23" r:id="rId126" display="https://www.linkedin.com/in/deep-kothadiya-phd-70983a86/" xr:uid="{8691FEB4-6E3B-4049-9588-FC79EAF0F2EC}"/>
-    <hyperlink ref="J78" r:id="rId127" display="https://www.linkedin.com/in/parmanand-patel-1269016b/" xr:uid="{53EDE3BB-D85D-4DAD-A587-55DA1C805D27}"/>
-    <hyperlink ref="J52" r:id="rId128" display="https://www.linkedin.com/in/krunal-maheriya-aba5681a1/" xr:uid="{9D29078E-A414-4A64-86B1-F77733FF0F8A}"/>
-    <hyperlink ref="J86" r:id="rId129" xr:uid="{21E8E151-1B01-486F-A7D7-4BE4F0BC0B27}"/>
-    <hyperlink ref="J36" r:id="rId130" display="https://www.linkedin.com/in/dr-hardik-modi-181035b/" xr:uid="{F7F908AF-23C0-42F7-8AFE-DF52AF52580B}"/>
-    <hyperlink ref="J14" r:id="rId131" display="http://hlinkedin.com/in/dr-ashwin-makwana-9a6688112" xr:uid="{3D2F3A09-18C9-4E22-B6FA-494330FEF01E}"/>
-    <hyperlink ref="J80" r:id="rId132" xr:uid="{4DA1EB91-0A15-4D6C-9213-F6D1EE675204}"/>
-    <hyperlink ref="J17" r:id="rId133" xr:uid="{8E63BCC9-6C05-45B8-8789-EBB4905292F2}"/>
-    <hyperlink ref="J35" r:id="rId134" display="https://www.linkedin.com/in/gaurav-kumar1582/" xr:uid="{BF49CFFA-7535-44BB-8F9A-67BEFFD957B6}"/>
-    <hyperlink ref="J29" r:id="rId135" display="https://www.linkedin.com/in/dhaval-patel-481b0885/" xr:uid="{5704F17D-173C-4E5E-89CF-B8F7987D86F5}"/>
-    <hyperlink ref="J77" r:id="rId136" display="https://www.linkedin.com/me?trk=p_mwlite_profile_self-secondary_nav" xr:uid="{6148FF48-4942-4818-844D-79919D56DB98}"/>
-    <hyperlink ref="J67" r:id="rId137" display="https://www.linkedin.com/in/dr-miral-desai-245448a2/" xr:uid="{D2BE1269-3E17-415C-B581-A936373A624C}"/>
-    <hyperlink ref="J32" r:id="rId138" display="https://www.linkedin.com/in/gajanan-patange-05ba2219/overlay/about-this-profile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BEvV8mS8jTpy2mGfBhro1og%3D%3D" xr:uid="{CDEEC399-875E-4DDA-A567-6EFC42A0F87E}"/>
-    <hyperlink ref="J114" r:id="rId139" display="https://www.linkedin.com/in/vikas-panchal-873277251/" xr:uid="{A3606037-07FB-4104-B411-BA37A6E2F3CA}"/>
-    <hyperlink ref="J101" r:id="rId140" display="https://www.linkedin.com/in/sneha-padhiar-4aaa17146/" xr:uid="{8CF4272D-E96D-4E1C-80AD-5D3F2F554C53}"/>
-    <hyperlink ref="J38" r:id="rId141" display="https://www.linkedin.com/in/harshul-yagnik-81a6a022/" xr:uid="{683E4E91-B763-4226-99B6-F3E30837AD4B}"/>
-    <hyperlink ref="J21" r:id="rId142" display="https://www.linkedin.com/in/brinda-patel-652073252" xr:uid="{791133CF-E0A2-4B6D-8618-AC19B4D3A9FA}"/>
-    <hyperlink ref="J28" r:id="rId143" xr:uid="{F8104DB3-2B23-47B7-B622-17690E08D84A}"/>
-    <hyperlink ref="J97" r:id="rId144" display="https://www.linkedin.com/in/sagarkumar-patel-0bb94bb5/" xr:uid="{B357E631-0C5E-406B-9B45-A421DE003AD4}"/>
-    <hyperlink ref="J70" r:id="rId145" display="http://www.linkedin.com/in/neha-chauhan22" xr:uid="{E7A9417A-8B16-4D59-A23C-B258564D85D5}"/>
-    <hyperlink ref="J22" r:id="rId146" xr:uid="{895691E5-0B23-47DD-9A36-18923B4FD652}"/>
-    <hyperlink ref="J39" r:id="rId147" display="https://www.linkedin.com/public-profile/settings?trk=d_flagship3_profile_self_view_public_profile" xr:uid="{E4C32594-CCCB-41B2-AE51-AE67F83944BE}"/>
-    <hyperlink ref="J42" r:id="rId148" display="https://www.linkedin.com/in/jalpa-ardeshana-381496b7/" xr:uid="{67C7A4AD-28FD-4291-92FB-A9C4AA0671B4}"/>
-    <hyperlink ref="J102" r:id="rId149" display="https://www.linkedin.com/in/dr-spoorthy-v-10ab3813a/" xr:uid="{EDA5921D-C45B-4D8B-B9FA-3205F4F396D6}"/>
-    <hyperlink ref="J24" r:id="rId150" display="https://www.linkedin.com/in/dhara-patel-839488138" xr:uid="{27C9FC8C-0A44-49AE-8688-8690C8579833}"/>
-    <hyperlink ref="J26" r:id="rId151" display="https://www.linkedin.com/in/dharmendrasinh-chauhan-073a491a4/" xr:uid="{D50E69C7-4F51-4D1B-90EC-FE9F9A44906E}"/>
-    <hyperlink ref="J90" r:id="rId152" display="https://www.linkedin.com/in/rajnik-katriya/" xr:uid="{3AEC1C40-35D9-4AE3-A7E8-9E58FA2C8E43}"/>
-    <hyperlink ref="J98" r:id="rId153" display="https://www.linkedin.com/in/sanket-suthar-544a69210/" xr:uid="{6137F2DC-1F93-4037-B861-A959BDB6DCE6}"/>
-    <hyperlink ref="J53" r:id="rId154" display="http://www.linkedin.com/in/kundan-patel-b9508b27b" xr:uid="{D4BB537A-7CA1-4F2B-9985-F5921034561E}"/>
-    <hyperlink ref="J81" r:id="rId155" xr:uid="{BFFCC995-B6DF-474C-93AA-BDF180E05422}"/>
-    <hyperlink ref="J111" r:id="rId156" display="https://www.linkedin.com/in/vidisha-pradhan-733a1b63/" xr:uid="{06E43119-E5BC-45C4-9126-F192D3006C5B}"/>
-    <hyperlink ref="J27" r:id="rId157" display="https://www.linkedin.com/in/dharmendrasinh-rathod-4482a2a4/" xr:uid="{3BDD0888-FF6F-403B-8A93-FD5176D0DA38}"/>
-    <hyperlink ref="J54" r:id="rId158" display="http://www.linkedin.com/in/madhav-oza-60bb5650" xr:uid="{24641904-0D92-4561-9EC0-14DC5197E375}"/>
-    <hyperlink ref="J41" r:id="rId159" xr:uid="{10BD029B-F728-4FEF-934E-F502C3B3ECDD}"/>
-    <hyperlink ref="J112" r:id="rId160" display="https://www.linkedin.com/in/dr-vijay-chaudhary-12769b311/" xr:uid="{B15A7FAF-9082-4A84-BAA5-265E44F10859}"/>
-    <hyperlink ref="J62" r:id="rId161" display="http://inkedin.com/in/mjdesai/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=in" xr:uid="{58387078-A78B-4059-8DB7-2DA181BAC97F}"/>
-    <hyperlink ref="J48" r:id="rId162" xr:uid="{F61EBA1D-096B-4367-83C7-464D0E0332DE}"/>
-    <hyperlink ref="J51" r:id="rId163" xr:uid="{A7C5CA17-C1E0-4B34-9F67-339F0FC32426}"/>
-    <hyperlink ref="J65" r:id="rId164" display="https://www.linkedin.com/in/mihirmehta-educational-project-and-placements/" xr:uid="{1EF2631D-C319-4F6C-9AF3-9E886A6E863A}"/>
-    <hyperlink ref="J34" r:id="rId165" display="https://www.linkedin.com/in/gaurang-patel-a99266119/" xr:uid="{4A4B2655-5B11-4CEB-8516-A9D046224C31}"/>
-    <hyperlink ref="J75" r:id="rId166" display="http://www.linkedin.com/in/nishant-koshti-52b68b8b" xr:uid="{2E5CF16C-0D7F-4454-B4F7-592A3EC43855}"/>
-    <hyperlink ref="J20" r:id="rId167" display="https://www.linkedin.com/in/brijesh-kundaliya-552b7722/" xr:uid="{FC5C15E0-2AD1-4E2F-8F1E-F2F96829A7A6}"/>
-    <hyperlink ref="J43" r:id="rId168" display="https://www.linkedin.com/in/jalpesh-vasa/" xr:uid="{6768F239-6E23-4A84-8C3E-45670A76F700}"/>
-    <hyperlink ref="J109" r:id="rId169" display="https://www.linkedin.com/in/vaishali-mewada-7a619053/" xr:uid="{DEFB6E16-7F29-44C5-ACAD-D6B1E16E6C24}"/>
-    <hyperlink ref="J46" r:id="rId170" xr:uid="{CCF872D9-BD3F-4521-9093-8C3148DBAC43}"/>
-    <hyperlink ref="J113" r:id="rId171" display="http://www.linkedin.com/in/vijaykumar-panchal-631852280" xr:uid="{2810BDF3-4A14-413D-B157-AF8059E92C49}"/>
-    <hyperlink ref="J64" r:id="rId172" display="https://www.linkedin.com/in/dr-mihir-bhatt-806a85aa/" xr:uid="{AA93D706-7CF6-45C4-B768-B797EB6775B7}"/>
-    <hyperlink ref="J96" r:id="rId173" display="https://www.linkedin.com/in/dr-sagar-chokshi-8646601a/" xr:uid="{35109E28-E96A-4139-B689-0AB43FF55E92}"/>
-    <hyperlink ref="J84" r:id="rId174" display="http://www.linkedin.com/in/pratik-panchal-a35b325a" xr:uid="{6FB924B7-EDB2-44F0-B0D7-E78551105315}"/>
-    <hyperlink ref="J40" r:id="rId175" display="https://www.linkedin.com/in/hemangi-oza-60a189190/" xr:uid="{AC43F6B8-459E-4FF0-82E4-75F8CDE25269}"/>
-    <hyperlink ref="J110" r:id="rId176" display="http://linkedin.com/in/vibha-parmar-81b3045b" xr:uid="{9792CDE9-6059-48ED-AD46-8BECFEF07152}"/>
-    <hyperlink ref="J59" r:id="rId177" display="http://www.linkedin.com/in/maulik-shah-30b483119" xr:uid="{E23FB3E1-55AD-4659-9463-2B3E19FC5E7D}"/>
-    <hyperlink ref="J99" r:id="rId178" display="http://www.linkedin.com/in/saritavisavalia" xr:uid="{3504F31F-4BD3-4D8B-B727-C2FF9DDFF1EA}"/>
-    <hyperlink ref="J13" r:id="rId179" xr:uid="{ACF63811-234F-442B-91D8-C6863212F92A}"/>
-    <hyperlink ref="J45" r:id="rId180" display="https://www.linkedin.com/in/dr-jigar-sarda-00384414/" xr:uid="{0EFC12BA-8B5C-4E86-968D-797B0D43FD98}"/>
-    <hyperlink ref="J105" r:id="rId181" display="https://www.linkedin.com/in/trusha-patel-gajjar" xr:uid="{98AA2D43-F8B2-4B29-93BA-7A9CCA8109B2}"/>
-    <hyperlink ref="J103" r:id="rId182" display="https://www.linkedin.com/in/srushti-gajjar-92b829142?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{544D82DB-5386-42AC-B979-94C259CA9E97}"/>
-    <hyperlink ref="J94" r:id="rId183" xr:uid="{F1631FCD-D701-415F-89D8-AB6A7D513AC5}"/>
-    <hyperlink ref="J15" r:id="rId184" display="https://www.linkedin.com/in/asifiqbal-thakor-56949b237/" xr:uid="{3A40B3CD-F1BE-4530-B451-07DF410D1272}"/>
-    <hyperlink ref="J56" r:id="rId185" xr:uid="{99110411-88B4-4B0C-9258-D7E7320C877C}"/>
-    <hyperlink ref="J47" r:id="rId186" display="https://www.linkedin.com/in/jivanadhar-joshi-a76a12ab/" xr:uid="{ED0C7354-C517-49E0-BDF5-C6BF1EC0A53C}"/>
-    <hyperlink ref="J104" r:id="rId187" display="https://in.linkedin.com/in/dr-tigmanshu-patel-b3252639" xr:uid="{8223C32D-E35E-4436-B593-C54F5FEED7DB}"/>
-    <hyperlink ref="J44" r:id="rId188" display="http://linkedin.com/in/jay-bhavsar-a4a9646a" xr:uid="{A3106519-72EE-423E-976E-09F1FD98B248}"/>
-    <hyperlink ref="J89" r:id="rId189" display="http://www.linkedin.com/in/purvi-prajapati-37ba6651" xr:uid="{7A2661BA-3D20-4DF8-8332-CC5726684DD1}"/>
-    <hyperlink ref="J74" r:id="rId190" display="https://www.linkedin.com/in/nirpex-patel-508956119/" xr:uid="{8BF234A3-EF12-4093-8EAF-09B2432506EF}"/>
-    <hyperlink ref="J87" r:id="rId191" display="https://www.linkedin.com/in/priyanka-patel-ph-d-00403393/" xr:uid="{8D6AEC45-7FD5-4128-9D12-F2A6CBB1E864}"/>
-    <hyperlink ref="J63" r:id="rId192" display="https://www.linkedin.com/in/mehulkumar-katakiya-029357b8/" xr:uid="{D058A74D-8E61-413C-9B75-7FF7917660C9}"/>
-    <hyperlink ref="J37" r:id="rId193" display="https://www.linkedin.com/in/harmish-bhatt-88581510a/" xr:uid="{7CC36C27-9781-439B-A945-9C1160C69911}"/>
-    <hyperlink ref="J66" r:id="rId194" display="https://www.linkedin.com/in/mikin-patel-24191386/" xr:uid="{3AEB0F01-575C-4799-B7A0-11A1F0947768}"/>
-    <hyperlink ref="J107" r:id="rId195" display="https://www.linkedin.com/in/dr-upesh-patel-875878138/" xr:uid="{5D7DA379-79C5-410F-9398-20936275BC46}"/>
-    <hyperlink ref="J58" r:id="rId196" xr:uid="{509B130C-6A0C-4944-BFE2-75F1FDF097C4}"/>
-    <hyperlink ref="J69" r:id="rId197" display="https://www.linkedin.com/in/muskan-dave-023197162/" xr:uid="{C8C7BB25-838D-4DFF-B4BD-F8943C06375E}"/>
-    <hyperlink ref="J73" r:id="rId198" display="https://www.linkedin.com/in/dr-nirav-bhatt/" xr:uid="{3F4736BB-5DB7-48E0-ABC4-5DBB591E1122}"/>
-    <hyperlink ref="J11" r:id="rId199" xr:uid="{714022ED-2EC9-40BB-978A-F936135E18E1}"/>
-    <hyperlink ref="J93" r:id="rId200" display="https://www.linkedin.com/in/ritesh-patel-462b0b11" xr:uid="{F4558EEF-FFB0-474A-8E3E-CEBF9566FCDB}"/>
-    <hyperlink ref="J116" r:id="rId201" display="http://www.linkedin.com/in/viral-panara-773877201" xr:uid="{4FB52C9B-4BDB-4971-A78B-1CD2EE789E52}"/>
-    <hyperlink ref="J79" r:id="rId202" display="https://www.linkedin.com/in/shah-parth-d/" xr:uid="{A61E294E-BDA5-4C2E-BA18-BA2B9C98C973}"/>
-    <hyperlink ref="J33" r:id="rId203" display="https://www.linkedin.com/in/gargi-ray-983a8522/" xr:uid="{0C76E47F-7D1B-4E1C-A88F-86156C9D1D6E}"/>
-    <hyperlink ref="J100" r:id="rId204" display="http://www.linkedin.com/in/satayu-travadi-9aab0919" xr:uid="{A79F3F36-387F-427F-848C-3BB8A221E707}"/>
-    <hyperlink ref="J88" r:id="rId205" xr:uid="{A7A467B8-5468-4830-9ADC-34F28E8899B5}"/>
-    <hyperlink ref="J30" r:id="rId206" display="https://www.linkedin.com/in/dheeraj-kumar-shringi-030586107?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{D1B60D12-635A-4E71-93D8-B47244D1EF44}"/>
-    <hyperlink ref="J85" r:id="rId207" display="https://in.linkedin.com/in/pratik-mochi-09764b102?original_referer=https%3A%2F%2Fwww.google.com%2F" xr:uid="{CD8066BB-0BA9-4FA9-88DB-0C291F6209A7}"/>
-    <hyperlink ref="J108" r:id="rId208" display="https://www.linkedin.com/in/vaibhavi-patel-67b035224/" xr:uid="{51D509E7-546B-4519-845F-AF5DC77392B9}"/>
-    <hyperlink ref="J60" r:id="rId209" display="http://www.linkedin.com/in/mayuri-popat-213852b1" xr:uid="{336D4B2F-0BBF-4ADA-8647-F20659482547}"/>
-    <hyperlink ref="J55" r:id="rId210" display="http://www.linkedin.com/in/madhavajwalia" xr:uid="{8DE9B663-AD20-42DB-A7F0-4FD167AD95E8}"/>
-    <hyperlink ref="J115" r:id="rId211" display="https://www.linkedin.com/in/vipul-vyas-19214bab/" xr:uid="{00F74D28-7144-4D8C-9870-393AE49126D5}"/>
-    <hyperlink ref="J31" r:id="rId212" display="http://www.linkedin.com/in/dipalkumar-patel-4b97997" xr:uid="{CFB485EB-93AC-436E-BD76-13F13D42FA00}"/>
-    <hyperlink ref="J76" r:id="rId213" display="https://www.linkedin.com/in/nishat-shaikh-b7446019a/" xr:uid="{45535606-CAE7-44BB-B1C5-622D742D5E66}"/>
-    <hyperlink ref="J16" r:id="rId214" display="https://www.linkedin.com/in/avani-khokhariya/" xr:uid="{F2664F6A-73CC-4DAD-982B-E296BD77DF0A}"/>
-    <hyperlink ref="J82" r:id="rId215" xr:uid="{2C60818F-B78B-4EC2-9BA4-C7D88C933280}"/>
-    <hyperlink ref="J25" r:id="rId216" display="https://www.linkedin.com/in/dhara-s-032a6a24/" xr:uid="{4FE7FF63-A73E-4E09-94C4-E2CD5FE6F81D}"/>
-    <hyperlink ref="K72" r:id="rId217" xr:uid="{E7CCB95C-4D9A-474B-9296-0EE719EC4AB3}"/>
-    <hyperlink ref="K92" r:id="rId218" xr:uid="{92D21BA9-793A-4610-9A6A-641322C6CC28}"/>
-    <hyperlink ref="K106" r:id="rId219" xr:uid="{2E05A515-7245-4DDB-9E9C-D041E881E2BF}"/>
-    <hyperlink ref="K86" r:id="rId220" xr:uid="{8C1C3B99-0196-4695-95EB-EEFEEA76042B}"/>
-    <hyperlink ref="K67" r:id="rId221" xr:uid="{4C2AA447-E23D-4BD3-8516-CF8A69E7C676}"/>
-    <hyperlink ref="K90" r:id="rId222" xr:uid="{68D88C01-9035-44B0-9EAE-4AE7236572CC}"/>
-    <hyperlink ref="K98" r:id="rId223" xr:uid="{B89BB500-5F1B-4985-B0B7-D69D9B22538C}"/>
-    <hyperlink ref="K27" r:id="rId224" xr:uid="{461288D1-54CE-41D7-ACBC-4EB753D35618}"/>
-    <hyperlink ref="K64" r:id="rId225" display="https://sites.google.com/a/charusat.ac.in/mihir-bhatt-ee/home/about-me?pli=1" xr:uid="{DD66FE1D-24F8-42A6-8DDC-651F08933CB6}"/>
-    <hyperlink ref="K45" r:id="rId226" xr:uid="{185428FC-1CEB-406E-A327-B537B63CC062}"/>
-    <hyperlink ref="K105" r:id="rId227" xr:uid="{6E3402FB-A293-4394-A12F-C9CE90A43581}"/>
-    <hyperlink ref="K94" r:id="rId228" display="https://sites.google.com/view/ronak-patel/" xr:uid="{30BB4B45-BE3C-4B51-8751-F1166793B9D8}"/>
-    <hyperlink ref="K87" r:id="rId229" display="https://sites.google.com/a/charusat.ac.in/priyanka-patel/about-me" xr:uid="{2F80CF65-0198-4866-9245-0932E2D2E991}"/>
-    <hyperlink ref="K11" r:id="rId230" xr:uid="{B7911887-1D4E-4149-9255-34290DE15C67}"/>
-    <hyperlink ref="K93" r:id="rId231" xr:uid="{CC19190B-EF5A-4030-970E-47B4649A66EC}"/>
-    <hyperlink ref="K79" r:id="rId232" display="http://learnwithparth.in/" xr:uid="{0D098BA1-951E-49B0-BA34-5489DFACFB69}"/>
-    <hyperlink ref="K60" r:id="rId233" display="https://sites.google.com/charusat.ac.in/mayuri-popat/home/academic-experience?authuser=0" xr:uid="{CD111632-8632-4F99-808E-7B0BA423BCF0}"/>
-    <hyperlink ref="K25" r:id="rId234" display="http://https/www.simpldhara.github.io" xr:uid="{1B0FEF49-7DD4-45B9-B1E6-577EDB068225}"/>
-    <hyperlink ref="K4" r:id="rId235" xr:uid="{A55ED677-5A40-43B5-A2E0-3934032012FA}"/>
-    <hyperlink ref="I12" r:id="rId236" xr:uid="{559F5BE6-A98D-4918-9ADE-3B5DB2AC1B24}"/>
-    <hyperlink ref="I13" r:id="rId237" xr:uid="{B5B2A2F7-DD9E-4163-AECE-07D5742E906D}"/>
-    <hyperlink ref="I49" r:id="rId238" xr:uid="{2DF8A589-77D3-487D-9871-F11C086009D1}"/>
-    <hyperlink ref="I82" r:id="rId239" xr:uid="{4F6BB86B-ECFA-4396-9D2B-715AF4C8A22C}"/>
-    <hyperlink ref="I50" r:id="rId240" xr:uid="{C80EDEE3-BA73-444F-89E4-2007846DC254}"/>
-    <hyperlink ref="I90" r:id="rId241" xr:uid="{E27523F8-498C-4ABD-8999-7C5FE36E5CA5}"/>
-    <hyperlink ref="L72" r:id="rId242" xr:uid="{948CADBD-38FA-4A43-B789-35C5FE176C3F}"/>
-    <hyperlink ref="L3" r:id="rId243" xr:uid="{F46A9101-D683-4CCF-9110-8584476B2BA9}"/>
-    <hyperlink ref="L83" r:id="rId244" xr:uid="{6E19F5D8-BA05-4C24-BFED-0131679AE1A3}"/>
-    <hyperlink ref="L57" r:id="rId245" xr:uid="{15D92DD2-9C84-4024-BCB0-89C6EAD615FB}"/>
-    <hyperlink ref="L18" r:id="rId246" xr:uid="{E24865B7-0C5D-46C6-8B52-CB38271DBD7E}"/>
-    <hyperlink ref="L49" r:id="rId247" xr:uid="{4D2C143E-EFF2-43ED-8C1B-94D7326ABF76}"/>
-    <hyperlink ref="L92" r:id="rId248" xr:uid="{22687922-AA0C-441B-A3FA-FB8732C6A78E}"/>
-    <hyperlink ref="L106" r:id="rId249" display="https://scholar.google.com/citations?user=Gzsxo-oAAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{FF9B096B-7991-46C3-B06A-152491BA6C90}"/>
-    <hyperlink ref="L68" r:id="rId250" xr:uid="{690AB285-269F-47C4-BA46-90F767A79CC1}"/>
-    <hyperlink ref="L91" r:id="rId251" xr:uid="{9AF26C9F-30B4-4DAE-A809-C138362FFD00}"/>
-    <hyperlink ref="L95" r:id="rId252" xr:uid="{8D4A0E6E-AA77-4CD4-AA54-DEC95D5CF09E}"/>
-    <hyperlink ref="L50" r:id="rId253" xr:uid="{A64FDC24-6D97-4969-AC20-BF200CE32B3A}"/>
-    <hyperlink ref="L19" r:id="rId254" xr:uid="{2DF7625D-5BDC-4383-BFF5-27331B9E27C1}"/>
-    <hyperlink ref="L71" r:id="rId255" display="https://scholar.google.co.in/citations?user=9PPA-6oAAAAJ&amp;hl=en" xr:uid="{38968AA0-46FD-46B0-84CD-C755BCC30A99}"/>
-    <hyperlink ref="L23" r:id="rId256" xr:uid="{4FF8802A-1D76-4C6B-91B4-17C781B102D6}"/>
-    <hyperlink ref="L52" r:id="rId257" xr:uid="{8365015A-789A-4D2C-9684-352B6CC70A5E}"/>
-    <hyperlink ref="L86" r:id="rId258" xr:uid="{BD03203D-E2A2-453C-8DB9-B1F0B5A13124}"/>
-    <hyperlink ref="L36" r:id="rId259" display="https://scholar.google.com/citations?user=ay8-QY0AAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{CEA8B045-C60C-4ADA-9F10-8B980373388F}"/>
-    <hyperlink ref="L14" r:id="rId260" display="https://scholar.google.com/citations?user=TCsNw-YAAAAJ&amp;hl=en" xr:uid="{D0B58B70-976E-4FD0-A498-4FE5480744DA}"/>
-    <hyperlink ref="L17" r:id="rId261" xr:uid="{19EAA634-8BE7-4A2F-8B30-8A424E254965}"/>
-    <hyperlink ref="L29" r:id="rId262" xr:uid="{3D65CD0F-C15B-4E98-9324-C36FAB47EBC4}"/>
-    <hyperlink ref="L67" r:id="rId263" xr:uid="{264FF3AA-8D89-41E4-9DA6-521BD58711A9}"/>
-    <hyperlink ref="L32" r:id="rId264" display="https://www.bing.com/ck/a?!&amp;&amp;p=6a7ac5a017a1300aJmltdHM9MTcyOTQ2ODgwMCZpZ3VpZD0wMDExMmIyNS1kMzQ5LTY3MTItMmE4My0zZTA1ZDI1NjY2MWEmaW5zaWQ9NTE5NQ&amp;ptn=3&amp;ver=2&amp;hsh=3&amp;fclid=00112b25-d349-6712-2a83-3e05d256661a&amp;psq=google+scholer+gajanan+patange&amp;u=a1aHR0cHM6Ly9zY2hvbGFyLmdvb2dsZS5wbC9jaXRhdGlvbnM_dXNlcj1fRDRISUhjQUFBQUomaGw9ZW4&amp;ntb=1" xr:uid="{275A790E-9657-41D9-B9F2-78D3822C4310}"/>
-    <hyperlink ref="L9" r:id="rId265" xr:uid="{758E6349-E050-42DF-B5C3-FBA97B821030}"/>
-    <hyperlink ref="L114" r:id="rId266" xr:uid="{9ACD46AD-FE8F-41CE-9823-5DC65F691D5B}"/>
-    <hyperlink ref="L4" r:id="rId267" xr:uid="{9B291D90-C0E1-493C-9E5E-17CAF2B7D2F2}"/>
-    <hyperlink ref="L12" r:id="rId268" xr:uid="{8C6729CD-380A-483D-A997-7DBCBA390939}"/>
-    <hyperlink ref="L101" r:id="rId269" xr:uid="{C07AED6D-34B0-40AA-B65E-C9BFB9F1574D}"/>
-    <hyperlink ref="L38" r:id="rId270" display="https://scholar.google.com/citations?user=6d-aVTEAAAAJ&amp;hl=en" xr:uid="{EBC010F8-7D12-4DC1-9FDA-49EFC51EFF71}"/>
-    <hyperlink ref="L21" r:id="rId271" xr:uid="{0DDB7A07-865A-4AD7-986A-DE5D031FFBD0}"/>
-    <hyperlink ref="L28" r:id="rId272" xr:uid="{E6ABE8A4-4EFC-489A-B104-3BCC2E998A7B}"/>
-    <hyperlink ref="L97" r:id="rId273" xr:uid="{ABDCFD31-BA21-4022-B6C1-EDDD441956ED}"/>
-    <hyperlink ref="L6" r:id="rId274" xr:uid="{591DF322-16B2-4785-A83C-3147BF3D09D2}"/>
-    <hyperlink ref="L70" r:id="rId275" xr:uid="{BB403419-C3FE-440B-B0A2-AF35C3C2E8E3}"/>
-    <hyperlink ref="L22" r:id="rId276" xr:uid="{A227399F-9975-4976-9597-2D3E6151DCB8}"/>
-    <hyperlink ref="L39" r:id="rId277" xr:uid="{535A1FEE-65AB-4486-BF0D-ADD9A3382AFB}"/>
-    <hyperlink ref="L42" r:id="rId278" display="https://scholar.google.com/citations?hl=en&amp;user=geQ-r_QAAAAJ" xr:uid="{36509863-135E-43CA-B732-4C0DEFDDC2FC}"/>
-    <hyperlink ref="L102" r:id="rId279" xr:uid="{7F8D3F89-D92D-4081-B489-E387250A10BD}"/>
-    <hyperlink ref="L24" r:id="rId280" xr:uid="{B4A03D8A-649C-469B-B24A-E9F9B481D48B}"/>
-    <hyperlink ref="L26" r:id="rId281" xr:uid="{D3034C74-7237-42E2-A6B8-CD4BA8BBBF41}"/>
-    <hyperlink ref="L90" r:id="rId282" xr:uid="{53AE3D77-EDB3-413A-8D8F-16969CBE8103}"/>
-    <hyperlink ref="L98" r:id="rId283" xr:uid="{76D99C50-072C-40D7-BDEB-328FCCB109D9}"/>
-    <hyperlink ref="L53" r:id="rId284" xr:uid="{CD634DA2-F1A0-45FA-A86C-61D935383D2E}"/>
-    <hyperlink ref="L81" r:id="rId285" xr:uid="{F6874B5E-545B-4745-A546-56B6FD5105E9}"/>
-    <hyperlink ref="L111" r:id="rId286" xr:uid="{C22F05F4-D13D-45A5-A5B0-3237064F3209}"/>
-    <hyperlink ref="L27" r:id="rId287" xr:uid="{32CD251C-92CC-42C2-865F-89BE3026727C}"/>
-    <hyperlink ref="L54" r:id="rId288" xr:uid="{287D782E-D3CC-498E-B117-EBE696C4D447}"/>
-    <hyperlink ref="L41" r:id="rId289" xr:uid="{B241D450-267C-40BF-9C45-8957239BDD86}"/>
-    <hyperlink ref="L62" r:id="rId290" xr:uid="{AA7AD692-35BE-48A4-AF46-1B6413916E3B}"/>
-    <hyperlink ref="L48" r:id="rId291" display="https://scholar.google.co.in/citations?user=EdcH-Y0AAAAJ&amp;hl=en" xr:uid="{CE335172-93AC-45C2-9068-7C9C19F220C4}"/>
-    <hyperlink ref="L10" r:id="rId292" xr:uid="{A33E4A1F-E63E-4F7D-9DC5-3C5AB6E82811}"/>
-    <hyperlink ref="L51" r:id="rId293" xr:uid="{027764B5-CA65-453C-BFB6-EE555AA7BF1B}"/>
-    <hyperlink ref="L61" r:id="rId294" xr:uid="{E2F70942-EACF-4A90-B18A-A80CB466AAE7}"/>
-    <hyperlink ref="L65" r:id="rId295" xr:uid="{5645BFE0-C2D6-4EED-AFCB-0EF806CC91E9}"/>
-    <hyperlink ref="L34" r:id="rId296" xr:uid="{EE598F68-E624-44F6-B4DD-8299C007487F}"/>
-    <hyperlink ref="L75" r:id="rId297" display="https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=-9-RhBoAAAAJ" xr:uid="{E935D410-8781-42B6-B609-E835354DEBBB}"/>
-    <hyperlink ref="L5" r:id="rId298" display="https://scholar.google.co.in/citations?user=cVv-kdYAAAAJ&amp;hl=en" xr:uid="{746C1EFC-2FA9-49B1-AFB8-1C7FCA47096B}"/>
-    <hyperlink ref="L20" r:id="rId299" display="https://scholar.google.com/citations?user=dHkQ5D4AAAAJ&amp;hl=en" xr:uid="{25860FE4-2E75-42A8-BFFE-3AA02DEED40F}"/>
-    <hyperlink ref="L43" r:id="rId300" xr:uid="{5A9FF0C8-1A53-40E2-BF07-8AE47CB6B984}"/>
-    <hyperlink ref="L109" r:id="rId301" xr:uid="{5C89C29F-A386-4BBA-9788-4CB223E1744F}"/>
-    <hyperlink ref="L46" r:id="rId302" xr:uid="{63EFEA34-4397-48CB-B385-33D61D726E20}"/>
-    <hyperlink ref="L64" r:id="rId303" xr:uid="{0A4BFD56-8B2D-444E-8903-49F5DC5883A4}"/>
-    <hyperlink ref="L96" r:id="rId304" display="https://scholar.google.com/citations?hl=en&amp;user=utk-ZT0AAAAJ" xr:uid="{501E8FB4-1DC4-4EBD-A3BE-50F19352C1F0}"/>
-    <hyperlink ref="L84" r:id="rId305" xr:uid="{37E9CEEB-DC2C-46A2-BCF4-5A9521147A39}"/>
-    <hyperlink ref="L40" r:id="rId306" xr:uid="{EEF5DC34-1243-4468-B6B1-D9059ADE8AB0}"/>
-    <hyperlink ref="L110" r:id="rId307" display="https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;hl=en&amp;user=HDdsZFsAAAAJ&amp;scilu=&amp;scisig=AJY4_hMAAAAAZxidz75RZUbVraeNHOVGYgbAfP0&amp;gmla=ALUCkoUwv9xfR7EENoQtBn_aiKaqTyzZ1X2kORl9--L4aBw5WcKwjoDCVXVaogYeCbraaig0PTa5IzrpT_DyD12Vlt-ODcDk1Nt3fM0&amp;sciund=7577126703303180020" xr:uid="{197DCE6B-BB53-49E3-9D84-78838F524694}"/>
-    <hyperlink ref="L59" r:id="rId308" xr:uid="{B559F61A-BA8D-4A15-AF94-270FD8E6EE0D}"/>
-    <hyperlink ref="L99" r:id="rId309" xr:uid="{BDF263A7-4F8B-46B8-BBE8-705BBF9DE738}"/>
-    <hyperlink ref="L13" r:id="rId310" xr:uid="{7649604F-C033-4670-9F95-0C2C5AC47C84}"/>
-    <hyperlink ref="L45" r:id="rId311" xr:uid="{035221F3-6BA9-41F1-A09D-0FD648704591}"/>
-    <hyperlink ref="L105" r:id="rId312" xr:uid="{1CDECF45-D107-4A0E-A561-5D783437E97C}"/>
-    <hyperlink ref="L103" r:id="rId313" xr:uid="{B653EAA6-C485-435F-854D-438BD267A19D}"/>
-    <hyperlink ref="L94" r:id="rId314" xr:uid="{BAF6ABB2-16F7-4B7A-8AC8-F52F94951E56}"/>
-    <hyperlink ref="L15" r:id="rId315" xr:uid="{F38927F1-EEEB-453A-8636-E6644582D973}"/>
-    <hyperlink ref="L56" r:id="rId316" xr:uid="{9E4C99F0-F427-4B73-88C1-9DDF17D8ABDE}"/>
-    <hyperlink ref="L47" r:id="rId317" xr:uid="{4048416A-0F5D-4582-8A3D-08AFC13874F9}"/>
-    <hyperlink ref="L104" r:id="rId318" xr:uid="{8400FD3C-B4D9-436A-8179-88B2F74CE3F2}"/>
-    <hyperlink ref="L44" r:id="rId319" xr:uid="{201F5259-DE23-43B6-A300-CE6428FFA5ED}"/>
-    <hyperlink ref="L89" r:id="rId320" xr:uid="{31420B66-56AB-4794-90CA-5F5AFEE32FDC}"/>
-    <hyperlink ref="L87" r:id="rId321" xr:uid="{C4F50DBC-0BFE-4509-9E86-8433559B0E5F}"/>
-    <hyperlink ref="L63" r:id="rId322" xr:uid="{90FCCA59-114D-4A5C-9409-D7A92B5C554D}"/>
-    <hyperlink ref="L37" r:id="rId323" xr:uid="{86700D43-54F6-409C-AA74-11A10CF95742}"/>
-    <hyperlink ref="L66" r:id="rId324" xr:uid="{C018FF9B-EED7-4A65-95FA-780ACBBA2D7E}"/>
-    <hyperlink ref="L107" r:id="rId325" xr:uid="{60A89811-803F-44C1-9C4C-03400FFC3370}"/>
-    <hyperlink ref="L58" r:id="rId326" display="https://scholar.google.com/citations?user=D-wd8QgAAAAJ&amp;hl=en" xr:uid="{FEE2843B-8463-42EA-93D3-8C0055A27E1B}"/>
-    <hyperlink ref="L73" r:id="rId327" xr:uid="{D89F1643-F631-4232-BD92-A17AB43537BB}"/>
-    <hyperlink ref="L2" r:id="rId328" xr:uid="{FA588FCD-5B5F-455C-A8F1-363E48BF4B34}"/>
-    <hyperlink ref="L11" r:id="rId329" xr:uid="{75F0D2F4-DBF8-4BC0-81C8-E510EB404F91}"/>
-    <hyperlink ref="L93" r:id="rId330" xr:uid="{4B1641D3-9830-41C6-9804-FD4F1CAA246E}"/>
-    <hyperlink ref="L116" r:id="rId331" xr:uid="{187B270B-DD03-4B4E-A0EC-FA089BBBF941}"/>
-    <hyperlink ref="L79" r:id="rId332" xr:uid="{09000797-9862-4D17-81A3-8BF615CB0D28}"/>
-    <hyperlink ref="L33" r:id="rId333" xr:uid="{30E40F4D-0941-4C35-B988-415178726C05}"/>
-    <hyperlink ref="L100" r:id="rId334" xr:uid="{2A5203BE-43E1-47B8-B2C4-1CC37588A5AB}"/>
-    <hyperlink ref="L88" r:id="rId335" xr:uid="{570C26B0-6EF3-40AB-BBA0-06474B8C9E9F}"/>
-    <hyperlink ref="L30" r:id="rId336" xr:uid="{8315B941-53AD-4CC4-8A93-715BF028D5D6}"/>
-    <hyperlink ref="L85" r:id="rId337" xr:uid="{A11BA51D-FBB4-444E-9239-AD5CA8BDA6AA}"/>
-    <hyperlink ref="L108" r:id="rId338" xr:uid="{BD6653EC-2D4F-4519-B739-A572013209E8}"/>
-    <hyperlink ref="L60" r:id="rId339" xr:uid="{FCDEB08A-0CA4-4598-B598-28FC8001225C}"/>
-    <hyperlink ref="L55" r:id="rId340" xr:uid="{21317881-56A9-411E-B0E0-953DFEB53FB5}"/>
-    <hyperlink ref="L115" r:id="rId341" xr:uid="{2C2ECFF6-DA6C-4C65-B48D-83C8B953A10F}"/>
-    <hyperlink ref="L7" r:id="rId342" xr:uid="{AC52BE48-B1BC-4E71-B6C1-88AF068D6F7B}"/>
-    <hyperlink ref="L31" r:id="rId343" xr:uid="{7701D08D-592D-4F08-8A1D-722D9125A481}"/>
-    <hyperlink ref="L76" r:id="rId344" xr:uid="{08A9DD36-F049-430E-ACEE-0254B9EB019D}"/>
-    <hyperlink ref="L82" r:id="rId345" xr:uid="{69BD5E03-494B-42BC-B711-BD56B50C14BD}"/>
-    <hyperlink ref="L8" r:id="rId346" display="https://scholar.google.com/citations?user=49QO52oAAAAJ&amp;hl=en&amp;citsig=ADIE8snLeq6YPks1Pa9NqbNhY8-8" xr:uid="{597E11F7-5E1F-4746-9B2D-F0B3CE2DAADD}"/>
-    <hyperlink ref="M72" r:id="rId347" display="https://vidwan.inflibnet.ac.in/profile/161243/MTYxMjQz" xr:uid="{377E489A-5F66-4D39-9D16-5A09C06888BF}"/>
-    <hyperlink ref="M3" r:id="rId348" xr:uid="{969CA3F3-003E-45D0-B448-786C1B45A99B}"/>
-    <hyperlink ref="M83" r:id="rId349" xr:uid="{FCF270CA-7E29-44DE-9B34-531A560121D2}"/>
-    <hyperlink ref="M57" r:id="rId350" xr:uid="{27A56F3E-3B7A-497C-B419-6D4EB0B36DFE}"/>
-    <hyperlink ref="M18" r:id="rId351" xr:uid="{A8B03D72-4F58-488B-AA71-6FE545C4F974}"/>
-    <hyperlink ref="M49" r:id="rId352" xr:uid="{46B27430-2CB4-4571-B683-C90BDB1A869A}"/>
-    <hyperlink ref="M92" r:id="rId353" xr:uid="{B3372949-44D6-47D3-93F5-F231A1194C2D}"/>
-    <hyperlink ref="M106" r:id="rId354" xr:uid="{BD564D33-09CC-4E3F-8665-C7CC006586D4}"/>
-    <hyperlink ref="M68" r:id="rId355" xr:uid="{46D7BE4E-C50A-4838-A0D5-A66608E30FB1}"/>
-    <hyperlink ref="M91" r:id="rId356" xr:uid="{49346F82-88CD-458B-9055-E1D237495067}"/>
-    <hyperlink ref="M95" r:id="rId357" xr:uid="{275EA512-D486-4AA6-B9C6-EDFD8EB5E681}"/>
-    <hyperlink ref="M50" r:id="rId358" xr:uid="{F1370FFD-2A24-4E0D-842E-D15A59048874}"/>
-    <hyperlink ref="M19" r:id="rId359" xr:uid="{B079BDCE-9644-48D8-ADB9-55246D89BB3B}"/>
-    <hyperlink ref="M71" r:id="rId360" xr:uid="{21DA9F6E-42F2-4C08-8BCC-45E0F47AC02F}"/>
-    <hyperlink ref="M23" r:id="rId361" display="https://vidwan.inflibnet.ac.in/profile/162290/MTYyMjkw" xr:uid="{C5101B56-8150-4439-9561-ADE65CCB8626}"/>
-    <hyperlink ref="M78" r:id="rId362" xr:uid="{FA23B353-3F9D-46B1-82DA-820AA4FBE86D}"/>
-    <hyperlink ref="M86" r:id="rId363" xr:uid="{680496D4-6792-4688-B37B-3D2836A2CBB1}"/>
-    <hyperlink ref="M36" r:id="rId364" xr:uid="{C295F105-2491-4119-851F-B09A35F5D83B}"/>
-    <hyperlink ref="M14" r:id="rId365" xr:uid="{C6A42F1F-C70B-482C-BAF5-08E29835556D}"/>
-    <hyperlink ref="M80" r:id="rId366" xr:uid="{D12744D8-8D17-44EF-A69E-A1A202FA6698}"/>
-    <hyperlink ref="M17" r:id="rId367" xr:uid="{026E65A7-E47E-491B-A07D-37EBD353FD4E}"/>
-    <hyperlink ref="M35" r:id="rId368" xr:uid="{5D0B8227-026E-47C4-897D-D449D1EA7349}"/>
-    <hyperlink ref="M29" r:id="rId369" xr:uid="{02E7C489-97EB-4764-B304-885B559F8C0E}"/>
-    <hyperlink ref="M67" r:id="rId370" xr:uid="{7BCC998C-8FF9-4866-BDE0-4E618132491D}"/>
-    <hyperlink ref="M9" r:id="rId371" xr:uid="{91B9619A-0474-417B-A83E-F1ACC0AF0CEC}"/>
-    <hyperlink ref="M114" r:id="rId372" xr:uid="{9DC7345F-59EF-46AB-AFF8-A485034FCFB5}"/>
-    <hyperlink ref="M4" r:id="rId373" xr:uid="{C24F8B1B-E131-406E-8B92-980981B7F2F8}"/>
-    <hyperlink ref="M12" r:id="rId374" xr:uid="{BBE0AFF3-0C87-45BA-B244-2EBD516259AE}"/>
-    <hyperlink ref="M101" r:id="rId375" xr:uid="{36A3294C-FBE9-4AE5-B367-A4F7EB299507}"/>
-    <hyperlink ref="M38" r:id="rId376" xr:uid="{CC9655FE-1EDD-46F8-BE5B-9E92C5013680}"/>
-    <hyperlink ref="M21" r:id="rId377" xr:uid="{47BBD086-2D33-4012-A8B6-B4A4E0F676C3}"/>
-    <hyperlink ref="M28" r:id="rId378" xr:uid="{D9812B9F-31E0-4DAD-8A1E-6460EF4BE795}"/>
-    <hyperlink ref="M97" r:id="rId379" xr:uid="{194FE3FD-0EF9-46C4-B769-B4AAF95E0018}"/>
-    <hyperlink ref="M6" r:id="rId380" xr:uid="{3C597F50-A6C7-4686-85A0-F6E6694F57E3}"/>
-    <hyperlink ref="M70" r:id="rId381" xr:uid="{A87D811B-910D-45F2-BF34-A478CD7D8B09}"/>
-    <hyperlink ref="M22" r:id="rId382" xr:uid="{686F19E9-9FDF-4E88-8243-D809ABB3FE79}"/>
-    <hyperlink ref="M42" r:id="rId383" xr:uid="{FB2FC638-1D01-4122-BA7D-9717BC8B2EF3}"/>
-    <hyperlink ref="M102" r:id="rId384" xr:uid="{F0E56AD7-3828-45B1-A3E4-95B4E7B7495F}"/>
-    <hyperlink ref="M24" r:id="rId385" xr:uid="{5E6A27FA-6F1B-4920-AF3A-0018DC331E36}"/>
-    <hyperlink ref="M26" r:id="rId386" xr:uid="{758E2E1D-BBB4-4F0B-A1FA-EB3E5DE2D156}"/>
-    <hyperlink ref="M90" r:id="rId387" xr:uid="{1C320BD2-5251-44A7-81C2-D89E208736CC}"/>
-    <hyperlink ref="M98" r:id="rId388" xr:uid="{4BF3D2D2-9743-494B-A7D1-9EEF7423F2B3}"/>
-    <hyperlink ref="M53" r:id="rId389" xr:uid="{642FC8EF-95E5-4804-8108-73A9ADB45FBB}"/>
-    <hyperlink ref="M81" r:id="rId390" xr:uid="{6069906B-85A1-4520-B697-E8420F4D518A}"/>
-    <hyperlink ref="M111" r:id="rId391" xr:uid="{45C10A27-1AD3-4A6F-966C-946B5F9ECB83}"/>
-    <hyperlink ref="M27" r:id="rId392" xr:uid="{F2CE36A5-3E73-43DE-A91D-5D1E2781384A}"/>
-    <hyperlink ref="M54" r:id="rId393" xr:uid="{6815F862-B01A-4FF2-B310-DDE65D78FBDB}"/>
-    <hyperlink ref="M41" r:id="rId394" xr:uid="{2167CAC5-42F7-48BE-A140-282801D50406}"/>
-    <hyperlink ref="M112" r:id="rId395" xr:uid="{2D0BE123-EDFD-4091-BCF0-204188FF3B30}"/>
-    <hyperlink ref="M62" r:id="rId396" xr:uid="{7A45E352-1CCC-4E30-B5C0-2C2507845C07}"/>
-    <hyperlink ref="M48" r:id="rId397" xr:uid="{D69AB844-8B39-4156-9897-B02CB20CA4D5}"/>
-    <hyperlink ref="M10" r:id="rId398" xr:uid="{04F1C981-8348-4D72-8A69-A692D3062D64}"/>
-    <hyperlink ref="M51" r:id="rId399" xr:uid="{65DE02F5-B84D-45D0-9DC1-F7808BDFD38D}"/>
-    <hyperlink ref="M61" r:id="rId400" xr:uid="{C49314E6-1B8D-41D3-8824-C6AE59F00DDA}"/>
-    <hyperlink ref="M65" r:id="rId401" xr:uid="{22CCAF6F-639B-4091-91C4-0D9E09A79A31}"/>
-    <hyperlink ref="M34" r:id="rId402" xr:uid="{9E6DCF4C-EA31-4D9D-AE0D-50C83C0347DE}"/>
-    <hyperlink ref="M75" r:id="rId403" xr:uid="{D71D3644-6845-46C5-83D7-DA2B52AF5733}"/>
-    <hyperlink ref="M5" r:id="rId404" xr:uid="{7687E521-D8FB-41F5-A5E6-AE953D92E830}"/>
-    <hyperlink ref="M20" r:id="rId405" xr:uid="{4DDDF623-882B-481C-A6D6-41041F349837}"/>
-    <hyperlink ref="M43" r:id="rId406" xr:uid="{52C3C99B-42C3-444C-A194-78CDBDAFC9CB}"/>
-    <hyperlink ref="M109" r:id="rId407" display="https://vidwan.inflibnet.ac.in/profile/161344" xr:uid="{FE2BA8E6-DD6C-4A10-91F1-326AA51E88D5}"/>
-    <hyperlink ref="M46" r:id="rId408" xr:uid="{2FFD071F-CF1A-4200-989A-978DBA72FD44}"/>
-    <hyperlink ref="M64" r:id="rId409" xr:uid="{E4C6C757-CD64-47C7-8F12-6CE6B9FFD60C}"/>
-    <hyperlink ref="M96" r:id="rId410" xr:uid="{722D10A1-25FB-4CE7-9F0B-C75508E442CE}"/>
-    <hyperlink ref="M84" r:id="rId411" xr:uid="{32A836FB-CB40-470F-B02E-7B6392FD539D}"/>
-    <hyperlink ref="M40" r:id="rId412" location="other_information_panel" display="https://vidwan.inflibnet.ac.in/myprofile - other_information_panel" xr:uid="{FE644920-561A-44DA-A700-34ED8EB7963F}"/>
-    <hyperlink ref="M110" r:id="rId413" xr:uid="{2C076003-CA45-4492-A114-A44CC1E60BF2}"/>
-    <hyperlink ref="M59" r:id="rId414" xr:uid="{BC2FF260-09A4-4D46-81FB-823835AD57DA}"/>
-    <hyperlink ref="M99" r:id="rId415" xr:uid="{B2860DA1-1C8E-403D-9E1C-CE3896F91BFD}"/>
-    <hyperlink ref="M13" r:id="rId416" xr:uid="{2DE04985-AB3C-4D4B-BCEE-EF8C728199F4}"/>
-    <hyperlink ref="M45" r:id="rId417" xr:uid="{546046AA-45E7-4EDD-81FB-A6648B9BB595}"/>
-    <hyperlink ref="M105" r:id="rId418" xr:uid="{7330EFFC-2F12-4EFE-BF25-3D30861E8775}"/>
-    <hyperlink ref="M94" r:id="rId419" xr:uid="{4F8D1CF8-D215-443F-8914-E091AFB2DBAE}"/>
-    <hyperlink ref="M15" r:id="rId420" xr:uid="{4CD74FA1-A139-4BCD-9CB7-1D7091E614B9}"/>
-    <hyperlink ref="M56" r:id="rId421" xr:uid="{EAABDC46-8B1B-482C-B7D7-E6E7C16FB647}"/>
-    <hyperlink ref="M104" r:id="rId422" xr:uid="{ACDF2E56-83C7-477F-A573-2B4112936AD3}"/>
-    <hyperlink ref="M44" r:id="rId423" xr:uid="{B502A1CE-A61F-4999-A855-F6ECA908B905}"/>
-    <hyperlink ref="M89" r:id="rId424" xr:uid="{EF82DFB8-BEB4-47BB-B28B-AF5A4CDD6891}"/>
-    <hyperlink ref="M74" r:id="rId425" xr:uid="{6D71EE52-86C9-4EE0-A55D-7B9652B864FF}"/>
-    <hyperlink ref="M87" r:id="rId426" xr:uid="{C073950A-A28A-4ED8-B9C1-BD3B160FAEF3}"/>
-    <hyperlink ref="M63" r:id="rId427" xr:uid="{958C1C19-9C17-41E8-ADC4-BAB91255F382}"/>
-    <hyperlink ref="M37" r:id="rId428" xr:uid="{0CC98B27-C0DC-4F81-A868-5BC7C0784B50}"/>
-    <hyperlink ref="M66" r:id="rId429" xr:uid="{B86191A1-65D6-4540-845F-518E32A64FBF}"/>
-    <hyperlink ref="M107" r:id="rId430" xr:uid="{47889514-AB9C-4B04-95A5-1CCA3A0DFCA8}"/>
-    <hyperlink ref="M58" r:id="rId431" xr:uid="{36AE2A42-0E80-4A5F-8FB0-4EAB2AEA8C36}"/>
-    <hyperlink ref="M69" r:id="rId432" xr:uid="{7FE7C886-2B29-491F-8C86-5526A33F7121}"/>
-    <hyperlink ref="M73" r:id="rId433" xr:uid="{FDFB0EA9-AD4D-43E9-BEF9-C60B9531C82F}"/>
-    <hyperlink ref="M2" r:id="rId434" xr:uid="{251C34E0-B509-4755-B850-FDEB3B770405}"/>
-    <hyperlink ref="M11" r:id="rId435" xr:uid="{3203A1D8-1572-4E08-ADEF-54F74525E87A}"/>
-    <hyperlink ref="M93" r:id="rId436" xr:uid="{28CD01ED-234C-4911-A047-12722FE76C1F}"/>
-    <hyperlink ref="M116" r:id="rId437" xr:uid="{82D93DAC-CF9F-4D41-B8C8-5AE08EA58BAA}"/>
-    <hyperlink ref="M79" r:id="rId438" xr:uid="{68120C28-52E3-4EC9-9F3E-EB5A3578A3BD}"/>
-    <hyperlink ref="M33" r:id="rId439" display="https://vidwan.inflibnet.ac.in/profile/161755-" xr:uid="{B87FE430-1CFA-4F98-A7E4-77FBF96BA37F}"/>
-    <hyperlink ref="M100" r:id="rId440" xr:uid="{649E7EFF-CC71-476F-9A81-1581EC34CD48}"/>
-    <hyperlink ref="M88" r:id="rId441" xr:uid="{1C9375D7-8EF5-40A1-914C-C5A7CD3188FB}"/>
-    <hyperlink ref="M85" r:id="rId442" xr:uid="{66509B53-066F-4635-85A6-6E99D5FE0B3E}"/>
-    <hyperlink ref="M108" r:id="rId443" xr:uid="{775D1521-4736-4C73-BB71-31FD5AD1E561}"/>
-    <hyperlink ref="M60" r:id="rId444" xr:uid="{A128A132-518A-476D-BCF8-6D3638CE18D6}"/>
-    <hyperlink ref="M55" r:id="rId445" xr:uid="{A1AFE28A-9643-4A4A-95E8-53E1C4380AAE}"/>
-    <hyperlink ref="M115" r:id="rId446" xr:uid="{6A1A9D4D-97FF-42A2-B2EA-85F3F7E515C2}"/>
-    <hyperlink ref="M7" r:id="rId447" xr:uid="{BA494279-5FA7-4467-ACAA-FFA1824DB9F7}"/>
-    <hyperlink ref="M31" r:id="rId448" xr:uid="{43BBD922-4BE8-457C-9F25-7684B0D6F35B}"/>
-    <hyperlink ref="M76" r:id="rId449" xr:uid="{C2281EE1-00E4-42D3-875C-3C9C699518DB}"/>
-    <hyperlink ref="M82" r:id="rId450" xr:uid="{3C1D1058-7762-4D63-9FB9-41A44D4AB1F3}"/>
-    <hyperlink ref="E16:E17" r:id="rId451" display="https://placehold.co/400x600" xr:uid="{18BA32A8-6934-421F-9831-28D4907FFF98}"/>
-    <hyperlink ref="E17" r:id="rId452" xr:uid="{7510203D-B2F6-44B8-BB79-8C3F26D4C98A}"/>
+    <hyperlink ref="E56" r:id="rId27" xr:uid="{D60F983F-3A4A-4B45-A5A9-1CBD13CCBAB1}"/>
+    <hyperlink ref="E58" r:id="rId28" xr:uid="{DDB2A0FD-936A-490E-BE1E-1762A651B20C}"/>
+    <hyperlink ref="E62" r:id="rId29" xr:uid="{5E732335-693B-490D-844A-64351A2B11C7}"/>
+    <hyperlink ref="E64" r:id="rId30" xr:uid="{B032BBB6-4D16-4E33-A3F0-D7039E10D767}"/>
+    <hyperlink ref="E66" r:id="rId31" display="https://placehold.co/400x600" xr:uid="{C71F9231-ACA2-46E1-BE2F-462475789CDA}"/>
+    <hyperlink ref="E68" r:id="rId32" xr:uid="{6DAF2527-3F52-4351-90EE-F788A7836287}"/>
+    <hyperlink ref="E70" r:id="rId33" xr:uid="{C213B07F-FB90-4578-BA40-CB5277C5E9F8}"/>
+    <hyperlink ref="E72" r:id="rId34" xr:uid="{B6B3C0BC-449F-4D5F-8991-2960BC1E1B95}"/>
+    <hyperlink ref="E74" r:id="rId35" xr:uid="{12F3E568-1027-43BC-89EA-C5D4D2C3F3B1}"/>
+    <hyperlink ref="E76" r:id="rId36" xr:uid="{9BCFDA15-C8D8-41F6-B5C1-8DB9E3F54F38}"/>
+    <hyperlink ref="E78" r:id="rId37" display="https://placehold.co/400x600" xr:uid="{5074351A-0735-4679-AE99-F1F491EAD66F}"/>
+    <hyperlink ref="E80" r:id="rId38" xr:uid="{797A27FB-9286-43BA-A3D3-06E0B7DF57C7}"/>
+    <hyperlink ref="E82" r:id="rId39" display="https://placehold.co/400x600" xr:uid="{E22D4C78-609C-4F6C-902E-67DDEA2AEC08}"/>
+    <hyperlink ref="E84" r:id="rId40" xr:uid="{689543FA-D772-478F-B75B-353A8D5F5A0F}"/>
+    <hyperlink ref="E86" r:id="rId41" display="https://placehold.co/400x600" xr:uid="{6F1B4F40-1347-45F9-B0B9-89687F77E0B0}"/>
+    <hyperlink ref="E88" r:id="rId42" xr:uid="{269A95A2-A318-4245-8364-07E925D041A6}"/>
+    <hyperlink ref="E90" r:id="rId43" xr:uid="{BC5C79FD-42B9-4F63-B259-53ADA917C149}"/>
+    <hyperlink ref="E92" r:id="rId44" xr:uid="{F219C840-96AC-40EA-9D7B-C09CBA360D2A}"/>
+    <hyperlink ref="E94" r:id="rId45" xr:uid="{E85B62E0-66A6-4BDE-AB82-B3F3885FF25D}"/>
+    <hyperlink ref="E96" r:id="rId46" xr:uid="{F685C903-F46A-4AEA-A4B6-30F5F5C38E02}"/>
+    <hyperlink ref="E98" r:id="rId47" display="https://placehold.co/400x600" xr:uid="{34A32507-5178-4AE2-8923-C76F8834EAC3}"/>
+    <hyperlink ref="E100" r:id="rId48" display="https://placehold.co/400x600" xr:uid="{316F114E-DC59-4C12-AAE4-7C561A6A4A37}"/>
+    <hyperlink ref="E102" r:id="rId49" xr:uid="{E6C4E1E9-ADFC-463C-BA35-72BF5470C0FC}"/>
+    <hyperlink ref="E104" r:id="rId50" display="https://placehold.co/400x600" xr:uid="{5C2E1F62-17AE-4C61-86CF-CFAADD48E3DA}"/>
+    <hyperlink ref="E106" r:id="rId51" display="https://placehold.co/400x600" xr:uid="{EB2D28AA-5611-4D14-B6D8-65655568052B}"/>
+    <hyperlink ref="E108" r:id="rId52" xr:uid="{1A1FF6C3-6CA4-4205-87F4-FFA4C505FE05}"/>
+    <hyperlink ref="E110" r:id="rId53" display="https://placehold.co/400x600" xr:uid="{D5F8DE7D-9A2E-4EB2-AD3E-1B6347BBB03A}"/>
+    <hyperlink ref="E114" r:id="rId54" xr:uid="{F52A7ADE-923C-4FC0-835C-C78BE5475FD1}"/>
+    <hyperlink ref="E116" r:id="rId55" xr:uid="{88BB9B9A-193B-430A-8A94-9996D9F8B858}"/>
+    <hyperlink ref="E5" r:id="rId56" xr:uid="{673B2D9E-5CEE-40DD-A0A2-66025584E8C2}"/>
+    <hyperlink ref="E7" r:id="rId57" xr:uid="{20202916-CECB-497F-BB8D-D7E09DCEC193}"/>
+    <hyperlink ref="E9" r:id="rId58" xr:uid="{E7773CE7-BD5F-4624-B940-0E795B4A4E30}"/>
+    <hyperlink ref="E11" r:id="rId59" xr:uid="{93DA058C-7CEC-4BA2-9D33-5FB8B5E88910}"/>
+    <hyperlink ref="E13" r:id="rId60" xr:uid="{8F788626-64E7-4F1D-A12D-F2E9D916467C}"/>
+    <hyperlink ref="E15" r:id="rId61" display="https://placehold.co/400x600" xr:uid="{8AD2972F-0CB2-4DCE-8821-C56F9057AD5B}"/>
+    <hyperlink ref="E19" r:id="rId62" display="https://placehold.co/400x600" xr:uid="{D4698768-8DC5-407A-B6F4-C1C875BFB78D}"/>
+    <hyperlink ref="E21" r:id="rId63" xr:uid="{13DD67BA-1FCB-43E0-A39C-FFE32E5D3954}"/>
+    <hyperlink ref="E23" r:id="rId64" xr:uid="{90D0F56C-C7DB-4632-B91C-EF74541F5FEA}"/>
+    <hyperlink ref="E25" r:id="rId65" xr:uid="{F6A0C9FE-D2B9-4181-8F81-93868F3E313C}"/>
+    <hyperlink ref="E27" r:id="rId66" xr:uid="{848B184F-1DE9-469A-9D63-F5CDEBF10D7A}"/>
+    <hyperlink ref="E29" r:id="rId67" xr:uid="{1AF17D20-76D5-4714-B7E2-2D8B8CB9ADC3}"/>
+    <hyperlink ref="E31" r:id="rId68" display="https://placehold.co/400x600" xr:uid="{22DD1D25-8288-4AC9-A5FC-D9B7B89B515C}"/>
+    <hyperlink ref="E33" r:id="rId69" xr:uid="{01F92761-8D63-4A2C-8713-25D41165DB40}"/>
+    <hyperlink ref="E35" r:id="rId70" xr:uid="{FFD57A2F-B179-4903-B296-F8069D1F1332}"/>
+    <hyperlink ref="E37" r:id="rId71" xr:uid="{291A37C6-A686-4CDE-9352-CAE725E23B11}"/>
+    <hyperlink ref="E39" r:id="rId72" xr:uid="{6ECECF25-2624-4D12-A089-9B4C4DBCF38B}"/>
+    <hyperlink ref="E41" r:id="rId73" display="https://placehold.co/400x600" xr:uid="{B8267D85-A691-4187-91DB-27E364616A8C}"/>
+    <hyperlink ref="E43" r:id="rId74" xr:uid="{AA69E1F0-E88A-495C-A844-C33C82F6CE26}"/>
+    <hyperlink ref="E45" r:id="rId75" xr:uid="{269F03E1-526C-4849-A6D5-8276665E4485}"/>
+    <hyperlink ref="E47" r:id="rId76" xr:uid="{D722AC52-912D-4A3F-8560-FAA4DCA60A56}"/>
+    <hyperlink ref="E49" r:id="rId77" xr:uid="{6ED9D463-8E32-4780-942A-C1EC9D07542B}"/>
+    <hyperlink ref="E51" r:id="rId78" xr:uid="{FAAE2569-D069-46B3-A7AA-6969338A4AFF}"/>
+    <hyperlink ref="E53" r:id="rId79" xr:uid="{919767C3-0A6A-4A63-9549-0F7B3A7EE7DF}"/>
+    <hyperlink ref="E55" r:id="rId80" xr:uid="{BD76B93C-ACC1-4CF1-A623-39E4FAFED853}"/>
+    <hyperlink ref="E57" r:id="rId81" display="https://placehold.co/400x600" xr:uid="{7964589D-7453-4997-AC7B-F98F5B5B7029}"/>
+    <hyperlink ref="E59" r:id="rId82" xr:uid="{F72D2D0A-AD07-45DC-AA3D-223C36C995AB}"/>
+    <hyperlink ref="E61" r:id="rId83" xr:uid="{D79CAE5D-C5B6-4B75-8261-008B5374EBDB}"/>
+    <hyperlink ref="E63" r:id="rId84" xr:uid="{75C81E45-FAA6-4175-A2FE-BA7C7F71F6F3}"/>
+    <hyperlink ref="E67" r:id="rId85" display="https://placehold.co/400x600" xr:uid="{F199289C-0CB7-41CD-95E9-D9C97B86A7E7}"/>
+    <hyperlink ref="E69" r:id="rId86" display="https://placehold.co/400x600" xr:uid="{E4715AC6-7D6D-4434-A585-79B8F25233F6}"/>
+    <hyperlink ref="E71" r:id="rId87" xr:uid="{CFD1BDC4-A848-4998-9430-C29DB079EED4}"/>
+    <hyperlink ref="E73" r:id="rId88" xr:uid="{DEC62E70-AB7A-4365-B90A-11A1D549F375}"/>
+    <hyperlink ref="E75" r:id="rId89" xr:uid="{A925F566-676A-47EA-9068-3A8AC9C78A71}"/>
+    <hyperlink ref="E77" r:id="rId90" xr:uid="{826BB4FF-EF4E-4C68-AE45-B4C9CEE10FB5}"/>
+    <hyperlink ref="E79" r:id="rId91" xr:uid="{D55B186E-0A96-4185-9D34-01F9C47E843E}"/>
+    <hyperlink ref="E81" r:id="rId92" xr:uid="{AC60663B-FB99-47D2-A9DA-11C43648559B}"/>
+    <hyperlink ref="E83" r:id="rId93" display="https://placehold.co/400x600" xr:uid="{F83899A5-222C-48AC-9ABC-BC254C3600A8}"/>
+    <hyperlink ref="E85" r:id="rId94" display="https://placehold.co/400x600" xr:uid="{2EE015AD-95D3-42D3-9727-0C2D20C22B2D}"/>
+    <hyperlink ref="E87" r:id="rId95" xr:uid="{1E9351A5-5685-4A61-91E2-9C72A14FBA45}"/>
+    <hyperlink ref="E89" r:id="rId96" display="https://placehold.co/400x600" xr:uid="{DA14C2E4-99E6-4273-B1C6-88E4314A2B53}"/>
+    <hyperlink ref="E91" r:id="rId97" display="https://placehold.co/400x600" xr:uid="{CED33FAF-E705-4A0E-B5BA-28AC459A08F9}"/>
+    <hyperlink ref="E93" r:id="rId98" display="https://placehold.co/400x600" xr:uid="{69683834-3F44-4B9E-879F-17C7B3985064}"/>
+    <hyperlink ref="E95" r:id="rId99" xr:uid="{6706B29D-6B9E-414D-A766-C429245D96A7}"/>
+    <hyperlink ref="E97" r:id="rId100" xr:uid="{B8549196-6B30-41D5-B870-CDF1F6C0AE2B}"/>
+    <hyperlink ref="E99" r:id="rId101" display="https://placehold.co/400x600" xr:uid="{70722206-091E-437D-B026-345C8CDB5176}"/>
+    <hyperlink ref="E101" r:id="rId102" xr:uid="{EF057E02-0A38-4475-84BA-2BC1ED64BA7D}"/>
+    <hyperlink ref="E103" r:id="rId103" xr:uid="{F307B800-2CAD-4E08-A635-F4AD9976A897}"/>
+    <hyperlink ref="E105" r:id="rId104" display="https://placehold.co/400x600" xr:uid="{42F0B609-7315-4192-A377-FDEDE5FDDF8B}"/>
+    <hyperlink ref="E107" r:id="rId105" display="https://placehold.co/400x600" xr:uid="{0BBF4990-1413-476C-AFE7-EC34A9F113B0}"/>
+    <hyperlink ref="E109" r:id="rId106" xr:uid="{43D0B648-1D21-45A3-A6E9-CB546100DAA2}"/>
+    <hyperlink ref="E111" r:id="rId107" xr:uid="{3BF79D70-269C-4AB5-B83F-712DABFF4480}"/>
+    <hyperlink ref="E113" r:id="rId108" xr:uid="{622A2536-A959-42B4-B4F9-EE23F2A44517}"/>
+    <hyperlink ref="E115" r:id="rId109" xr:uid="{7690046C-47D4-4A7B-8DBE-6704DCCAE9C8}"/>
+    <hyperlink ref="J72" r:id="rId110" display="https://www.linkedin.com/in/dr-nilay-patel-106bab14/" xr:uid="{B2E17E23-9358-429B-BBF9-5EE4C8E363CB}"/>
+    <hyperlink ref="J83" r:id="rId111" display="https://www.linkedin.com/in/poonam-thanki-b112a6a2/" xr:uid="{BB16F397-78CE-4DBD-8BE4-13D65525672B}"/>
+    <hyperlink ref="J57" r:id="rId112" display="https://www.linkedin.com/in/dr-manthan-s-manavadaria-2a222219/" xr:uid="{4954A101-EA09-4BF1-8202-A72F86653038}"/>
+    <hyperlink ref="J18" r:id="rId113" display="https://www.linkedin.com/in/bhavin-mehta-86b47795/" xr:uid="{DB7D7CE8-51EF-48EE-BFBF-A021321BDC5F}"/>
+    <hyperlink ref="J49" r:id="rId114" display="https://www.linkedin.com/in/dr-kanwar-preet-kaur-bamrah-64a3a221/" xr:uid="{53166117-8C5A-4AB4-89B7-C2E8B83BC5A5}"/>
+    <hyperlink ref="J92" r:id="rId115" display="https://www.linkedin.com/in/rikita-chokshi-44bb65263/" xr:uid="{184885D3-531C-43E9-853D-5C2EAF6E7696}"/>
+    <hyperlink ref="J106" r:id="rId116" xr:uid="{FBE16C58-F91B-4934-8550-681C7F68CFE1}"/>
+    <hyperlink ref="J68" r:id="rId117" display="https://www.linkedin.com/in/mrugendrasinh-rahevar/" xr:uid="{F0663F50-387A-4315-8A34-03206888175F}"/>
+    <hyperlink ref="J91" r:id="rId118" display="https://www.linkedin.com/in/ravi-patel-13686b19/" xr:uid="{FC6DE30F-2E95-4AA2-B879-8CEAD23CEEC4}"/>
+    <hyperlink ref="J95" r:id="rId119" display="https://www.linkedin.com/in/ronak-patel-63663613a/" xr:uid="{EB8CC283-1781-41D5-BE2D-3C04AED15B01}"/>
+    <hyperlink ref="J50" r:id="rId120" display="https://www.linkedin.com/in/dr-kawaljitsingh-randhawa-96816064/" xr:uid="{4AE0FF76-EF4F-45C3-A542-A7D876A7DA2C}"/>
+    <hyperlink ref="J19" r:id="rId121" display="http://linkedin.com/in/bimal-patel-b7504849" xr:uid="{B02CE38D-7D41-45E6-8D0A-5F0FCF595503}"/>
+    <hyperlink ref="J71" r:id="rId122" display="https://www.linkedin.com/in/nikita-bhatt-ce/?originalSubdomain=in" xr:uid="{9EC6AE06-F884-4149-B7FC-88140006B7F4}"/>
+    <hyperlink ref="J23" r:id="rId123" display="https://www.linkedin.com/in/deep-kothadiya-phd-70983a86/" xr:uid="{8691FEB4-6E3B-4049-9588-FC79EAF0F2EC}"/>
+    <hyperlink ref="J78" r:id="rId124" display="https://www.linkedin.com/in/parmanand-patel-1269016b/" xr:uid="{53EDE3BB-D85D-4DAD-A587-55DA1C805D27}"/>
+    <hyperlink ref="J52" r:id="rId125" display="https://www.linkedin.com/in/krunal-maheriya-aba5681a1/" xr:uid="{9D29078E-A414-4A64-86B1-F77733FF0F8A}"/>
+    <hyperlink ref="J86" r:id="rId126" xr:uid="{21E8E151-1B01-486F-A7D7-4BE4F0BC0B27}"/>
+    <hyperlink ref="J36" r:id="rId127" display="https://www.linkedin.com/in/dr-hardik-modi-181035b/" xr:uid="{F7F908AF-23C0-42F7-8AFE-DF52AF52580B}"/>
+    <hyperlink ref="J14" r:id="rId128" display="http://hlinkedin.com/in/dr-ashwin-makwana-9a6688112" xr:uid="{3D2F3A09-18C9-4E22-B6FA-494330FEF01E}"/>
+    <hyperlink ref="J80" r:id="rId129" xr:uid="{4DA1EB91-0A15-4D6C-9213-F6D1EE675204}"/>
+    <hyperlink ref="J17" r:id="rId130" xr:uid="{8E63BCC9-6C05-45B8-8789-EBB4905292F2}"/>
+    <hyperlink ref="J35" r:id="rId131" display="https://www.linkedin.com/in/gaurav-kumar1582/" xr:uid="{BF49CFFA-7535-44BB-8F9A-67BEFFD957B6}"/>
+    <hyperlink ref="J29" r:id="rId132" display="https://www.linkedin.com/in/dhaval-patel-481b0885/" xr:uid="{5704F17D-173C-4E5E-89CF-B8F7987D86F5}"/>
+    <hyperlink ref="J77" r:id="rId133" display="https://www.linkedin.com/me?trk=p_mwlite_profile_self-secondary_nav" xr:uid="{6148FF48-4942-4818-844D-79919D56DB98}"/>
+    <hyperlink ref="J67" r:id="rId134" display="https://www.linkedin.com/in/dr-miral-desai-245448a2/" xr:uid="{D2BE1269-3E17-415C-B581-A936373A624C}"/>
+    <hyperlink ref="J32" r:id="rId135" display="https://www.linkedin.com/in/gajanan-patange-05ba2219/overlay/about-this-profile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BEvV8mS8jTpy2mGfBhro1og%3D%3D" xr:uid="{CDEEC399-875E-4DDA-A567-6EFC42A0F87E}"/>
+    <hyperlink ref="J114" r:id="rId136" display="https://www.linkedin.com/in/vikas-panchal-873277251/" xr:uid="{A3606037-07FB-4104-B411-BA37A6E2F3CA}"/>
+    <hyperlink ref="J101" r:id="rId137" display="https://www.linkedin.com/in/sneha-padhiar-4aaa17146/" xr:uid="{8CF4272D-E96D-4E1C-80AD-5D3F2F554C53}"/>
+    <hyperlink ref="J38" r:id="rId138" display="https://www.linkedin.com/in/harshul-yagnik-81a6a022/" xr:uid="{683E4E91-B763-4226-99B6-F3E30837AD4B}"/>
+    <hyperlink ref="J21" r:id="rId139" display="https://www.linkedin.com/in/brinda-patel-652073252" xr:uid="{791133CF-E0A2-4B6D-8618-AC19B4D3A9FA}"/>
+    <hyperlink ref="J28" r:id="rId140" xr:uid="{F8104DB3-2B23-47B7-B622-17690E08D84A}"/>
+    <hyperlink ref="J97" r:id="rId141" display="https://www.linkedin.com/in/sagarkumar-patel-0bb94bb5/" xr:uid="{B357E631-0C5E-406B-9B45-A421DE003AD4}"/>
+    <hyperlink ref="J70" r:id="rId142" display="http://www.linkedin.com/in/neha-chauhan22" xr:uid="{E7A9417A-8B16-4D59-A23C-B258564D85D5}"/>
+    <hyperlink ref="J22" r:id="rId143" xr:uid="{895691E5-0B23-47DD-9A36-18923B4FD652}"/>
+    <hyperlink ref="J39" r:id="rId144" display="https://www.linkedin.com/public-profile/settings?trk=d_flagship3_profile_self_view_public_profile" xr:uid="{E4C32594-CCCB-41B2-AE51-AE67F83944BE}"/>
+    <hyperlink ref="J42" r:id="rId145" display="https://www.linkedin.com/in/jalpa-ardeshana-381496b7/" xr:uid="{67C7A4AD-28FD-4291-92FB-A9C4AA0671B4}"/>
+    <hyperlink ref="J102" r:id="rId146" display="https://www.linkedin.com/in/dr-spoorthy-v-10ab3813a/" xr:uid="{EDA5921D-C45B-4D8B-B9FA-3205F4F396D6}"/>
+    <hyperlink ref="J24" r:id="rId147" display="https://www.linkedin.com/in/dhara-patel-839488138" xr:uid="{27C9FC8C-0A44-49AE-8688-8690C8579833}"/>
+    <hyperlink ref="J26" r:id="rId148" display="https://www.linkedin.com/in/dharmendrasinh-chauhan-073a491a4/" xr:uid="{D50E69C7-4F51-4D1B-90EC-FE9F9A44906E}"/>
+    <hyperlink ref="J90" r:id="rId149" display="https://www.linkedin.com/in/rajnik-katriya/" xr:uid="{3AEC1C40-35D9-4AE3-A7E8-9E58FA2C8E43}"/>
+    <hyperlink ref="J98" r:id="rId150" display="https://www.linkedin.com/in/sanket-suthar-544a69210/" xr:uid="{6137F2DC-1F93-4037-B861-A959BDB6DCE6}"/>
+    <hyperlink ref="J53" r:id="rId151" display="http://www.linkedin.com/in/kundan-patel-b9508b27b" xr:uid="{D4BB537A-7CA1-4F2B-9985-F5921034561E}"/>
+    <hyperlink ref="J81" r:id="rId152" xr:uid="{BFFCC995-B6DF-474C-93AA-BDF180E05422}"/>
+    <hyperlink ref="J111" r:id="rId153" display="https://www.linkedin.com/in/vidisha-pradhan-733a1b63/" xr:uid="{06E43119-E5BC-45C4-9126-F192D3006C5B}"/>
+    <hyperlink ref="J27" r:id="rId154" display="https://www.linkedin.com/in/dharmendrasinh-rathod-4482a2a4/" xr:uid="{3BDD0888-FF6F-403B-8A93-FD5176D0DA38}"/>
+    <hyperlink ref="J54" r:id="rId155" display="http://www.linkedin.com/in/madhav-oza-60bb5650" xr:uid="{24641904-0D92-4561-9EC0-14DC5197E375}"/>
+    <hyperlink ref="J41" r:id="rId156" xr:uid="{10BD029B-F728-4FEF-934E-F502C3B3ECDD}"/>
+    <hyperlink ref="J112" r:id="rId157" display="https://www.linkedin.com/in/dr-vijay-chaudhary-12769b311/" xr:uid="{B15A7FAF-9082-4A84-BAA5-265E44F10859}"/>
+    <hyperlink ref="J62" r:id="rId158" display="http://inkedin.com/in/mjdesai/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=in" xr:uid="{58387078-A78B-4059-8DB7-2DA181BAC97F}"/>
+    <hyperlink ref="J48" r:id="rId159" xr:uid="{F61EBA1D-096B-4367-83C7-464D0E0332DE}"/>
+    <hyperlink ref="J51" r:id="rId160" xr:uid="{A7C5CA17-C1E0-4B34-9F67-339F0FC32426}"/>
+    <hyperlink ref="J65" r:id="rId161" display="https://www.linkedin.com/in/mihirmehta-educational-project-and-placements/" xr:uid="{1EF2631D-C319-4F6C-9AF3-9E886A6E863A}"/>
+    <hyperlink ref="J34" r:id="rId162" display="https://www.linkedin.com/in/gaurang-patel-a99266119/" xr:uid="{4A4B2655-5B11-4CEB-8516-A9D046224C31}"/>
+    <hyperlink ref="J75" r:id="rId163" display="http://www.linkedin.com/in/nishant-koshti-52b68b8b" xr:uid="{2E5CF16C-0D7F-4454-B4F7-592A3EC43855}"/>
+    <hyperlink ref="J20" r:id="rId164" display="https://www.linkedin.com/in/brijesh-kundaliya-552b7722/" xr:uid="{FC5C15E0-2AD1-4E2F-8F1E-F2F96829A7A6}"/>
+    <hyperlink ref="J43" r:id="rId165" display="https://www.linkedin.com/in/jalpesh-vasa/" xr:uid="{6768F239-6E23-4A84-8C3E-45670A76F700}"/>
+    <hyperlink ref="J109" r:id="rId166" display="https://www.linkedin.com/in/vaishali-mewada-7a619053/" xr:uid="{DEFB6E16-7F29-44C5-ACAD-D6B1E16E6C24}"/>
+    <hyperlink ref="J46" r:id="rId167" xr:uid="{CCF872D9-BD3F-4521-9093-8C3148DBAC43}"/>
+    <hyperlink ref="J113" r:id="rId168" display="http://www.linkedin.com/in/vijaykumar-panchal-631852280" xr:uid="{2810BDF3-4A14-413D-B157-AF8059E92C49}"/>
+    <hyperlink ref="J64" r:id="rId169" display="https://www.linkedin.com/in/dr-mihir-bhatt-806a85aa/" xr:uid="{AA93D706-7CF6-45C4-B768-B797EB6775B7}"/>
+    <hyperlink ref="J96" r:id="rId170" display="https://www.linkedin.com/in/dr-sagar-chokshi-8646601a/" xr:uid="{35109E28-E96A-4139-B689-0AB43FF55E92}"/>
+    <hyperlink ref="J84" r:id="rId171" display="http://www.linkedin.com/in/pratik-panchal-a35b325a" xr:uid="{6FB924B7-EDB2-44F0-B0D7-E78551105315}"/>
+    <hyperlink ref="J40" r:id="rId172" display="https://www.linkedin.com/in/hemangi-oza-60a189190/" xr:uid="{AC43F6B8-459E-4FF0-82E4-75F8CDE25269}"/>
+    <hyperlink ref="J110" r:id="rId173" display="http://linkedin.com/in/vibha-parmar-81b3045b" xr:uid="{9792CDE9-6059-48ED-AD46-8BECFEF07152}"/>
+    <hyperlink ref="J59" r:id="rId174" display="http://www.linkedin.com/in/maulik-shah-30b483119" xr:uid="{E23FB3E1-55AD-4659-9463-2B3E19FC5E7D}"/>
+    <hyperlink ref="J99" r:id="rId175" display="http://www.linkedin.com/in/saritavisavalia" xr:uid="{3504F31F-4BD3-4D8B-B727-C2FF9DDFF1EA}"/>
+    <hyperlink ref="J13" r:id="rId176" xr:uid="{ACF63811-234F-442B-91D8-C6863212F92A}"/>
+    <hyperlink ref="J45" r:id="rId177" display="https://www.linkedin.com/in/dr-jigar-sarda-00384414/" xr:uid="{0EFC12BA-8B5C-4E86-968D-797B0D43FD98}"/>
+    <hyperlink ref="J105" r:id="rId178" display="https://www.linkedin.com/in/trusha-patel-gajjar" xr:uid="{98AA2D43-F8B2-4B29-93BA-7A9CCA8109B2}"/>
+    <hyperlink ref="J103" r:id="rId179" display="https://www.linkedin.com/in/srushti-gajjar-92b829142?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{544D82DB-5386-42AC-B979-94C259CA9E97}"/>
+    <hyperlink ref="J94" r:id="rId180" xr:uid="{F1631FCD-D701-415F-89D8-AB6A7D513AC5}"/>
+    <hyperlink ref="J15" r:id="rId181" display="https://www.linkedin.com/in/asifiqbal-thakor-56949b237/" xr:uid="{3A40B3CD-F1BE-4530-B451-07DF410D1272}"/>
+    <hyperlink ref="J56" r:id="rId182" xr:uid="{99110411-88B4-4B0C-9258-D7E7320C877C}"/>
+    <hyperlink ref="J47" r:id="rId183" display="https://www.linkedin.com/in/jivanadhar-joshi-a76a12ab/" xr:uid="{ED0C7354-C517-49E0-BDF5-C6BF1EC0A53C}"/>
+    <hyperlink ref="J104" r:id="rId184" display="https://in.linkedin.com/in/dr-tigmanshu-patel-b3252639" xr:uid="{8223C32D-E35E-4436-B593-C54F5FEED7DB}"/>
+    <hyperlink ref="J44" r:id="rId185" display="http://linkedin.com/in/jay-bhavsar-a4a9646a" xr:uid="{A3106519-72EE-423E-976E-09F1FD98B248}"/>
+    <hyperlink ref="J89" r:id="rId186" display="http://www.linkedin.com/in/purvi-prajapati-37ba6651" xr:uid="{7A2661BA-3D20-4DF8-8332-CC5726684DD1}"/>
+    <hyperlink ref="J74" r:id="rId187" display="https://www.linkedin.com/in/nirpex-patel-508956119/" xr:uid="{8BF234A3-EF12-4093-8EAF-09B2432506EF}"/>
+    <hyperlink ref="J87" r:id="rId188" display="https://www.linkedin.com/in/priyanka-patel-ph-d-00403393/" xr:uid="{8D6AEC45-7FD5-4128-9D12-F2A6CBB1E864}"/>
+    <hyperlink ref="J63" r:id="rId189" display="https://www.linkedin.com/in/mehulkumar-katakiya-029357b8/" xr:uid="{D058A74D-8E61-413C-9B75-7FF7917660C9}"/>
+    <hyperlink ref="J37" r:id="rId190" display="https://www.linkedin.com/in/harmish-bhatt-88581510a/" xr:uid="{7CC36C27-9781-439B-A945-9C1160C69911}"/>
+    <hyperlink ref="J66" r:id="rId191" display="https://www.linkedin.com/in/mikin-patel-24191386/" xr:uid="{3AEB0F01-575C-4799-B7A0-11A1F0947768}"/>
+    <hyperlink ref="J107" r:id="rId192" display="https://www.linkedin.com/in/dr-upesh-patel-875878138/" xr:uid="{5D7DA379-79C5-410F-9398-20936275BC46}"/>
+    <hyperlink ref="J58" r:id="rId193" xr:uid="{509B130C-6A0C-4944-BFE2-75F1FDF097C4}"/>
+    <hyperlink ref="J69" r:id="rId194" display="https://www.linkedin.com/in/muskan-dave-023197162/" xr:uid="{C8C7BB25-838D-4DFF-B4BD-F8943C06375E}"/>
+    <hyperlink ref="J73" r:id="rId195" display="https://www.linkedin.com/in/dr-nirav-bhatt/" xr:uid="{3F4736BB-5DB7-48E0-ABC4-5DBB591E1122}"/>
+    <hyperlink ref="J11" r:id="rId196" xr:uid="{714022ED-2EC9-40BB-978A-F936135E18E1}"/>
+    <hyperlink ref="J93" r:id="rId197" display="https://www.linkedin.com/in/ritesh-patel-462b0b11" xr:uid="{F4558EEF-FFB0-474A-8E3E-CEBF9566FCDB}"/>
+    <hyperlink ref="J116" r:id="rId198" display="http://www.linkedin.com/in/viral-panara-773877201" xr:uid="{4FB52C9B-4BDB-4971-A78B-1CD2EE789E52}"/>
+    <hyperlink ref="J79" r:id="rId199" display="https://www.linkedin.com/in/shah-parth-d/" xr:uid="{A61E294E-BDA5-4C2E-BA18-BA2B9C98C973}"/>
+    <hyperlink ref="J33" r:id="rId200" display="https://www.linkedin.com/in/gargi-ray-983a8522/" xr:uid="{0C76E47F-7D1B-4E1C-A88F-86156C9D1D6E}"/>
+    <hyperlink ref="J100" r:id="rId201" display="http://www.linkedin.com/in/satayu-travadi-9aab0919" xr:uid="{A79F3F36-387F-427F-848C-3BB8A221E707}"/>
+    <hyperlink ref="J88" r:id="rId202" xr:uid="{A7A467B8-5468-4830-9ADC-34F28E8899B5}"/>
+    <hyperlink ref="J30" r:id="rId203" display="https://www.linkedin.com/in/dheeraj-kumar-shringi-030586107?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{D1B60D12-635A-4E71-93D8-B47244D1EF44}"/>
+    <hyperlink ref="J85" r:id="rId204" display="https://in.linkedin.com/in/pratik-mochi-09764b102?original_referer=https%3A%2F%2Fwww.google.com%2F" xr:uid="{CD8066BB-0BA9-4FA9-88DB-0C291F6209A7}"/>
+    <hyperlink ref="J108" r:id="rId205" display="https://www.linkedin.com/in/vaibhavi-patel-67b035224/" xr:uid="{51D509E7-546B-4519-845F-AF5DC77392B9}"/>
+    <hyperlink ref="J60" r:id="rId206" display="http://www.linkedin.com/in/mayuri-popat-213852b1" xr:uid="{336D4B2F-0BBF-4ADA-8647-F20659482547}"/>
+    <hyperlink ref="J55" r:id="rId207" display="http://www.linkedin.com/in/madhavajwalia" xr:uid="{8DE9B663-AD20-42DB-A7F0-4FD167AD95E8}"/>
+    <hyperlink ref="J115" r:id="rId208" display="https://www.linkedin.com/in/vipul-vyas-19214bab/" xr:uid="{00F74D28-7144-4D8C-9870-393AE49126D5}"/>
+    <hyperlink ref="J31" r:id="rId209" display="http://www.linkedin.com/in/dipalkumar-patel-4b97997" xr:uid="{CFB485EB-93AC-436E-BD76-13F13D42FA00}"/>
+    <hyperlink ref="J76" r:id="rId210" display="https://www.linkedin.com/in/nishat-shaikh-b7446019a/" xr:uid="{45535606-CAE7-44BB-B1C5-622D742D5E66}"/>
+    <hyperlink ref="J16" r:id="rId211" display="https://www.linkedin.com/in/avani-khokhariya/" xr:uid="{F2664F6A-73CC-4DAD-982B-E296BD77DF0A}"/>
+    <hyperlink ref="J82" r:id="rId212" xr:uid="{2C60818F-B78B-4EC2-9BA4-C7D88C933280}"/>
+    <hyperlink ref="J25" r:id="rId213" display="https://www.linkedin.com/in/dhara-s-032a6a24/" xr:uid="{4FE7FF63-A73E-4E09-94C4-E2CD5FE6F81D}"/>
+    <hyperlink ref="K72" r:id="rId214" xr:uid="{E7CCB95C-4D9A-474B-9296-0EE719EC4AB3}"/>
+    <hyperlink ref="K92" r:id="rId215" xr:uid="{92D21BA9-793A-4610-9A6A-641322C6CC28}"/>
+    <hyperlink ref="K106" r:id="rId216" xr:uid="{2E05A515-7245-4DDB-9E9C-D041E881E2BF}"/>
+    <hyperlink ref="K86" r:id="rId217" xr:uid="{8C1C3B99-0196-4695-95EB-EEFEEA76042B}"/>
+    <hyperlink ref="K67" r:id="rId218" xr:uid="{4C2AA447-E23D-4BD3-8516-CF8A69E7C676}"/>
+    <hyperlink ref="K90" r:id="rId219" xr:uid="{68D88C01-9035-44B0-9EAE-4AE7236572CC}"/>
+    <hyperlink ref="K98" r:id="rId220" xr:uid="{B89BB500-5F1B-4985-B0B7-D69D9B22538C}"/>
+    <hyperlink ref="K27" r:id="rId221" xr:uid="{461288D1-54CE-41D7-ACBC-4EB753D35618}"/>
+    <hyperlink ref="K64" r:id="rId222" display="https://sites.google.com/a/charusat.ac.in/mihir-bhatt-ee/home/about-me?pli=1" xr:uid="{DD66FE1D-24F8-42A6-8DDC-651F08933CB6}"/>
+    <hyperlink ref="K45" r:id="rId223" xr:uid="{185428FC-1CEB-406E-A327-B537B63CC062}"/>
+    <hyperlink ref="K105" r:id="rId224" xr:uid="{6E3402FB-A293-4394-A12F-C9CE90A43581}"/>
+    <hyperlink ref="K94" r:id="rId225" display="https://sites.google.com/view/ronak-patel/" xr:uid="{30BB4B45-BE3C-4B51-8751-F1166793B9D8}"/>
+    <hyperlink ref="K87" r:id="rId226" display="https://sites.google.com/a/charusat.ac.in/priyanka-patel/about-me" xr:uid="{2F80CF65-0198-4866-9245-0932E2D2E991}"/>
+    <hyperlink ref="K11" r:id="rId227" xr:uid="{B7911887-1D4E-4149-9255-34290DE15C67}"/>
+    <hyperlink ref="K93" r:id="rId228" xr:uid="{CC19190B-EF5A-4030-970E-47B4649A66EC}"/>
+    <hyperlink ref="K79" r:id="rId229" display="http://learnwithparth.in/" xr:uid="{0D098BA1-951E-49B0-BA34-5489DFACFB69}"/>
+    <hyperlink ref="K60" r:id="rId230" display="https://sites.google.com/charusat.ac.in/mayuri-popat/home/academic-experience?authuser=0" xr:uid="{CD111632-8632-4F99-808E-7B0BA423BCF0}"/>
+    <hyperlink ref="K25" r:id="rId231" display="http://https/www.simpldhara.github.io" xr:uid="{1B0FEF49-7DD4-45B9-B1E6-577EDB068225}"/>
+    <hyperlink ref="K4" r:id="rId232" xr:uid="{A55ED677-5A40-43B5-A2E0-3934032012FA}"/>
+    <hyperlink ref="I12" r:id="rId233" xr:uid="{559F5BE6-A98D-4918-9ADE-3B5DB2AC1B24}"/>
+    <hyperlink ref="I13" r:id="rId234" xr:uid="{B5B2A2F7-DD9E-4163-AECE-07D5742E906D}"/>
+    <hyperlink ref="I49" r:id="rId235" xr:uid="{2DF8A589-77D3-487D-9871-F11C086009D1}"/>
+    <hyperlink ref="I82" r:id="rId236" xr:uid="{4F6BB86B-ECFA-4396-9D2B-715AF4C8A22C}"/>
+    <hyperlink ref="I50" r:id="rId237" xr:uid="{C80EDEE3-BA73-444F-89E4-2007846DC254}"/>
+    <hyperlink ref="I90" r:id="rId238" xr:uid="{E27523F8-498C-4ABD-8999-7C5FE36E5CA5}"/>
+    <hyperlink ref="L72" r:id="rId239" xr:uid="{948CADBD-38FA-4A43-B789-35C5FE176C3F}"/>
+    <hyperlink ref="L3" r:id="rId240" xr:uid="{F46A9101-D683-4CCF-9110-8584476B2BA9}"/>
+    <hyperlink ref="L83" r:id="rId241" xr:uid="{6E19F5D8-BA05-4C24-BFED-0131679AE1A3}"/>
+    <hyperlink ref="L57" r:id="rId242" xr:uid="{15D92DD2-9C84-4024-BCB0-89C6EAD615FB}"/>
+    <hyperlink ref="L18" r:id="rId243" xr:uid="{E24865B7-0C5D-46C6-8B52-CB38271DBD7E}"/>
+    <hyperlink ref="L49" r:id="rId244" xr:uid="{4D2C143E-EFF2-43ED-8C1B-94D7326ABF76}"/>
+    <hyperlink ref="L92" r:id="rId245" xr:uid="{22687922-AA0C-441B-A3FA-FB8732C6A78E}"/>
+    <hyperlink ref="L106" r:id="rId246" display="https://scholar.google.com/citations?user=Gzsxo-oAAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{FF9B096B-7991-46C3-B06A-152491BA6C90}"/>
+    <hyperlink ref="L68" r:id="rId247" xr:uid="{690AB285-269F-47C4-BA46-90F767A79CC1}"/>
+    <hyperlink ref="L91" r:id="rId248" xr:uid="{9AF26C9F-30B4-4DAE-A809-C138362FFD00}"/>
+    <hyperlink ref="L95" r:id="rId249" xr:uid="{8D4A0E6E-AA77-4CD4-AA54-DEC95D5CF09E}"/>
+    <hyperlink ref="L50" r:id="rId250" xr:uid="{A64FDC24-6D97-4969-AC20-BF200CE32B3A}"/>
+    <hyperlink ref="L19" r:id="rId251" xr:uid="{2DF7625D-5BDC-4383-BFF5-27331B9E27C1}"/>
+    <hyperlink ref="L71" r:id="rId252" display="https://scholar.google.co.in/citations?user=9PPA-6oAAAAJ&amp;hl=en" xr:uid="{38968AA0-46FD-46B0-84CD-C755BCC30A99}"/>
+    <hyperlink ref="L23" r:id="rId253" xr:uid="{4FF8802A-1D76-4C6B-91B4-17C781B102D6}"/>
+    <hyperlink ref="L52" r:id="rId254" xr:uid="{8365015A-789A-4D2C-9684-352B6CC70A5E}"/>
+    <hyperlink ref="L86" r:id="rId255" xr:uid="{BD03203D-E2A2-453C-8DB9-B1F0B5A13124}"/>
+    <hyperlink ref="L36" r:id="rId256" display="https://scholar.google.com/citations?user=ay8-QY0AAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{CEA8B045-C60C-4ADA-9F10-8B980373388F}"/>
+    <hyperlink ref="L14" r:id="rId257" display="https://scholar.google.com/citations?user=TCsNw-YAAAAJ&amp;hl=en" xr:uid="{D0B58B70-976E-4FD0-A498-4FE5480744DA}"/>
+    <hyperlink ref="L17" r:id="rId258" xr:uid="{19EAA634-8BE7-4A2F-8B30-8A424E254965}"/>
+    <hyperlink ref="L29" r:id="rId259" xr:uid="{3D65CD0F-C15B-4E98-9324-C36FAB47EBC4}"/>
+    <hyperlink ref="L67" r:id="rId260" xr:uid="{264FF3AA-8D89-41E4-9DA6-521BD58711A9}"/>
+    <hyperlink ref="L32" r:id="rId261" display="https://www.bing.com/ck/a?!&amp;&amp;p=6a7ac5a017a1300aJmltdHM9MTcyOTQ2ODgwMCZpZ3VpZD0wMDExMmIyNS1kMzQ5LTY3MTItMmE4My0zZTA1ZDI1NjY2MWEmaW5zaWQ9NTE5NQ&amp;ptn=3&amp;ver=2&amp;hsh=3&amp;fclid=00112b25-d349-6712-2a83-3e05d256661a&amp;psq=google+scholer+gajanan+patange&amp;u=a1aHR0cHM6Ly9zY2hvbGFyLmdvb2dsZS5wbC9jaXRhdGlvbnM_dXNlcj1fRDRISUhjQUFBQUomaGw9ZW4&amp;ntb=1" xr:uid="{275A790E-9657-41D9-B9F2-78D3822C4310}"/>
+    <hyperlink ref="L9" r:id="rId262" xr:uid="{758E6349-E050-42DF-B5C3-FBA97B821030}"/>
+    <hyperlink ref="L114" r:id="rId263" xr:uid="{9ACD46AD-FE8F-41CE-9823-5DC65F691D5B}"/>
+    <hyperlink ref="L4" r:id="rId264" xr:uid="{9B291D90-C0E1-493C-9E5E-17CAF2B7D2F2}"/>
+    <hyperlink ref="L12" r:id="rId265" xr:uid="{8C6729CD-380A-483D-A997-7DBCBA390939}"/>
+    <hyperlink ref="L101" r:id="rId266" xr:uid="{C07AED6D-34B0-40AA-B65E-C9BFB9F1574D}"/>
+    <hyperlink ref="L38" r:id="rId267" display="https://scholar.google.com/citations?user=6d-aVTEAAAAJ&amp;hl=en" xr:uid="{EBC010F8-7D12-4DC1-9FDA-49EFC51EFF71}"/>
+    <hyperlink ref="L21" r:id="rId268" xr:uid="{0DDB7A07-865A-4AD7-986A-DE5D031FFBD0}"/>
+    <hyperlink ref="L28" r:id="rId269" xr:uid="{E6ABE8A4-4EFC-489A-B104-3BCC2E998A7B}"/>
+    <hyperlink ref="L97" r:id="rId270" xr:uid="{ABDCFD31-BA21-4022-B6C1-EDDD441956ED}"/>
+    <hyperlink ref="L6" r:id="rId271" xr:uid="{591DF322-16B2-4785-A83C-3147BF3D09D2}"/>
+    <hyperlink ref="L70" r:id="rId272" xr:uid="{BB403419-C3FE-440B-B0A2-AF35C3C2E8E3}"/>
+    <hyperlink ref="L22" r:id="rId273" xr:uid="{A227399F-9975-4976-9597-2D3E6151DCB8}"/>
+    <hyperlink ref="L39" r:id="rId274" xr:uid="{535A1FEE-65AB-4486-BF0D-ADD9A3382AFB}"/>
+    <hyperlink ref="L42" r:id="rId275" display="https://scholar.google.com/citations?hl=en&amp;user=geQ-r_QAAAAJ" xr:uid="{36509863-135E-43CA-B732-4C0DEFDDC2FC}"/>
+    <hyperlink ref="L102" r:id="rId276" xr:uid="{7F8D3F89-D92D-4081-B489-E387250A10BD}"/>
+    <hyperlink ref="L24" r:id="rId277" xr:uid="{B4A03D8A-649C-469B-B24A-E9F9B481D48B}"/>
+    <hyperlink ref="L26" r:id="rId278" xr:uid="{D3034C74-7237-42E2-A6B8-CD4BA8BBBF41}"/>
+    <hyperlink ref="L90" r:id="rId279" xr:uid="{53AE3D77-EDB3-413A-8D8F-16969CBE8103}"/>
+    <hyperlink ref="L98" r:id="rId280" xr:uid="{76D99C50-072C-40D7-BDEB-328FCCB109D9}"/>
+    <hyperlink ref="L53" r:id="rId281" xr:uid="{CD634DA2-F1A0-45FA-A86C-61D935383D2E}"/>
+    <hyperlink ref="L81" r:id="rId282" xr:uid="{F6874B5E-545B-4745-A546-56B6FD5105E9}"/>
+    <hyperlink ref="L111" r:id="rId283" xr:uid="{C22F05F4-D13D-45A5-A5B0-3237064F3209}"/>
+    <hyperlink ref="L27" r:id="rId284" xr:uid="{32CD251C-92CC-42C2-865F-89BE3026727C}"/>
+    <hyperlink ref="L54" r:id="rId285" xr:uid="{287D782E-D3CC-498E-B117-EBE696C4D447}"/>
+    <hyperlink ref="L41" r:id="rId286" xr:uid="{B241D450-267C-40BF-9C45-8957239BDD86}"/>
+    <hyperlink ref="L62" r:id="rId287" xr:uid="{AA7AD692-35BE-48A4-AF46-1B6413916E3B}"/>
+    <hyperlink ref="L48" r:id="rId288" display="https://scholar.google.co.in/citations?user=EdcH-Y0AAAAJ&amp;hl=en" xr:uid="{CE335172-93AC-45C2-9068-7C9C19F220C4}"/>
+    <hyperlink ref="L10" r:id="rId289" xr:uid="{A33E4A1F-E63E-4F7D-9DC5-3C5AB6E82811}"/>
+    <hyperlink ref="L51" r:id="rId290" xr:uid="{027764B5-CA65-453C-BFB6-EE555AA7BF1B}"/>
+    <hyperlink ref="L61" r:id="rId291" xr:uid="{E2F70942-EACF-4A90-B18A-A80CB466AAE7}"/>
+    <hyperlink ref="L65" r:id="rId292" xr:uid="{5645BFE0-C2D6-4EED-AFCB-0EF806CC91E9}"/>
+    <hyperlink ref="L34" r:id="rId293" xr:uid="{EE598F68-E624-44F6-B4DD-8299C007487F}"/>
+    <hyperlink ref="L75" r:id="rId294" display="https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=-9-RhBoAAAAJ" xr:uid="{E935D410-8781-42B6-B609-E835354DEBBB}"/>
+    <hyperlink ref="L5" r:id="rId295" display="https://scholar.google.co.in/citations?user=cVv-kdYAAAAJ&amp;hl=en" xr:uid="{746C1EFC-2FA9-49B1-AFB8-1C7FCA47096B}"/>
+    <hyperlink ref="L20" r:id="rId296" display="https://scholar.google.com/citations?user=dHkQ5D4AAAAJ&amp;hl=en" xr:uid="{25860FE4-2E75-42A8-BFFE-3AA02DEED40F}"/>
+    <hyperlink ref="L43" r:id="rId297" xr:uid="{5A9FF0C8-1A53-40E2-BF07-8AE47CB6B984}"/>
+    <hyperlink ref="L109" r:id="rId298" xr:uid="{5C89C29F-A386-4BBA-9788-4CB223E1744F}"/>
+    <hyperlink ref="L46" r:id="rId299" xr:uid="{63EFEA34-4397-48CB-B385-33D61D726E20}"/>
+    <hyperlink ref="L64" r:id="rId300" xr:uid="{0A4BFD56-8B2D-444E-8903-49F5DC5883A4}"/>
+    <hyperlink ref="L96" r:id="rId301" display="https://scholar.google.com/citations?hl=en&amp;user=utk-ZT0AAAAJ" xr:uid="{501E8FB4-1DC4-4EBD-A3BE-50F19352C1F0}"/>
+    <hyperlink ref="L84" r:id="rId302" xr:uid="{37E9CEEB-DC2C-46A2-BCF4-5A9521147A39}"/>
+    <hyperlink ref="L40" r:id="rId303" xr:uid="{EEF5DC34-1243-4468-B6B1-D9059ADE8AB0}"/>
+    <hyperlink ref="L110" r:id="rId304" display="https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;hl=en&amp;user=HDdsZFsAAAAJ&amp;scilu=&amp;scisig=AJY4_hMAAAAAZxidz75RZUbVraeNHOVGYgbAfP0&amp;gmla=ALUCkoUwv9xfR7EENoQtBn_aiKaqTyzZ1X2kORl9--L4aBw5WcKwjoDCVXVaogYeCbraaig0PTa5IzrpT_DyD12Vlt-ODcDk1Nt3fM0&amp;sciund=7577126703303180020" xr:uid="{197DCE6B-BB53-49E3-9D84-78838F524694}"/>
+    <hyperlink ref="L59" r:id="rId305" xr:uid="{B559F61A-BA8D-4A15-AF94-270FD8E6EE0D}"/>
+    <hyperlink ref="L99" r:id="rId306" xr:uid="{BDF263A7-4F8B-46B8-BBE8-705BBF9DE738}"/>
+    <hyperlink ref="L13" r:id="rId307" xr:uid="{7649604F-C033-4670-9F95-0C2C5AC47C84}"/>
+    <hyperlink ref="L45" r:id="rId308" xr:uid="{035221F3-6BA9-41F1-A09D-0FD648704591}"/>
+    <hyperlink ref="L105" r:id="rId309" xr:uid="{1CDECF45-D107-4A0E-A561-5D783437E97C}"/>
+    <hyperlink ref="L103" r:id="rId310" xr:uid="{B653EAA6-C485-435F-854D-438BD267A19D}"/>
+    <hyperlink ref="L94" r:id="rId311" xr:uid="{BAF6ABB2-16F7-4B7A-8AC8-F52F94951E56}"/>
+    <hyperlink ref="L15" r:id="rId312" xr:uid="{F38927F1-EEEB-453A-8636-E6644582D973}"/>
+    <hyperlink ref="L56" r:id="rId313" xr:uid="{9E4C99F0-F427-4B73-88C1-9DDF17D8ABDE}"/>
+    <hyperlink ref="L47" r:id="rId314" xr:uid="{4048416A-0F5D-4582-8A3D-08AFC13874F9}"/>
+    <hyperlink ref="L104" r:id="rId315" xr:uid="{8400FD3C-B4D9-436A-8179-88B2F74CE3F2}"/>
+    <hyperlink ref="L44" r:id="rId316" xr:uid="{201F5259-DE23-43B6-A300-CE6428FFA5ED}"/>
+    <hyperlink ref="L89" r:id="rId317" xr:uid="{31420B66-56AB-4794-90CA-5F5AFEE32FDC}"/>
+    <hyperlink ref="L87" r:id="rId318" xr:uid="{C4F50DBC-0BFE-4509-9E86-8433559B0E5F}"/>
+    <hyperlink ref="L63" r:id="rId319" xr:uid="{90FCCA59-114D-4A5C-9409-D7A92B5C554D}"/>
+    <hyperlink ref="L37" r:id="rId320" xr:uid="{86700D43-54F6-409C-AA74-11A10CF95742}"/>
+    <hyperlink ref="L66" r:id="rId321" xr:uid="{C018FF9B-EED7-4A65-95FA-780ACBBA2D7E}"/>
+    <hyperlink ref="L107" r:id="rId322" xr:uid="{60A89811-803F-44C1-9C4C-03400FFC3370}"/>
+    <hyperlink ref="L58" r:id="rId323" display="https://scholar.google.com/citations?user=D-wd8QgAAAAJ&amp;hl=en" xr:uid="{FEE2843B-8463-42EA-93D3-8C0055A27E1B}"/>
+    <hyperlink ref="L73" r:id="rId324" xr:uid="{D89F1643-F631-4232-BD92-A17AB43537BB}"/>
+    <hyperlink ref="L2" r:id="rId325" xr:uid="{FA588FCD-5B5F-455C-A8F1-363E48BF4B34}"/>
+    <hyperlink ref="L11" r:id="rId326" xr:uid="{75F0D2F4-DBF8-4BC0-81C8-E510EB404F91}"/>
+    <hyperlink ref="L93" r:id="rId327" xr:uid="{4B1641D3-9830-41C6-9804-FD4F1CAA246E}"/>
+    <hyperlink ref="L116" r:id="rId328" xr:uid="{187B270B-DD03-4B4E-A0EC-FA089BBBF941}"/>
+    <hyperlink ref="L79" r:id="rId329" xr:uid="{09000797-9862-4D17-81A3-8BF615CB0D28}"/>
+    <hyperlink ref="L33" r:id="rId330" xr:uid="{30E40F4D-0941-4C35-B988-415178726C05}"/>
+    <hyperlink ref="L100" r:id="rId331" xr:uid="{2A5203BE-43E1-47B8-B2C4-1CC37588A5AB}"/>
+    <hyperlink ref="L88" r:id="rId332" xr:uid="{570C26B0-6EF3-40AB-BBA0-06474B8C9E9F}"/>
+    <hyperlink ref="L30" r:id="rId333" xr:uid="{8315B941-53AD-4CC4-8A93-715BF028D5D6}"/>
+    <hyperlink ref="L85" r:id="rId334" xr:uid="{A11BA51D-FBB4-444E-9239-AD5CA8BDA6AA}"/>
+    <hyperlink ref="L108" r:id="rId335" xr:uid="{BD6653EC-2D4F-4519-B739-A572013209E8}"/>
+    <hyperlink ref="L60" r:id="rId336" xr:uid="{FCDEB08A-0CA4-4598-B598-28FC8001225C}"/>
+    <hyperlink ref="L55" r:id="rId337" xr:uid="{21317881-56A9-411E-B0E0-953DFEB53FB5}"/>
+    <hyperlink ref="L115" r:id="rId338" xr:uid="{2C2ECFF6-DA6C-4C65-B48D-83C8B953A10F}"/>
+    <hyperlink ref="L7" r:id="rId339" xr:uid="{AC52BE48-B1BC-4E71-B6C1-88AF068D6F7B}"/>
+    <hyperlink ref="L31" r:id="rId340" xr:uid="{7701D08D-592D-4F08-8A1D-722D9125A481}"/>
+    <hyperlink ref="L76" r:id="rId341" xr:uid="{08A9DD36-F049-430E-ACEE-0254B9EB019D}"/>
+    <hyperlink ref="L82" r:id="rId342" xr:uid="{69BD5E03-494B-42BC-B711-BD56B50C14BD}"/>
+    <hyperlink ref="L8" r:id="rId343" display="https://scholar.google.com/citations?user=49QO52oAAAAJ&amp;hl=en&amp;citsig=ADIE8snLeq6YPks1Pa9NqbNhY8-8" xr:uid="{597E11F7-5E1F-4746-9B2D-F0B3CE2DAADD}"/>
+    <hyperlink ref="M72" r:id="rId344" display="https://vidwan.inflibnet.ac.in/profile/161243/MTYxMjQz" xr:uid="{377E489A-5F66-4D39-9D16-5A09C06888BF}"/>
+    <hyperlink ref="M3" r:id="rId345" xr:uid="{969CA3F3-003E-45D0-B448-786C1B45A99B}"/>
+    <hyperlink ref="M83" r:id="rId346" xr:uid="{FCF270CA-7E29-44DE-9B34-531A560121D2}"/>
+    <hyperlink ref="M57" r:id="rId347" xr:uid="{27A56F3E-3B7A-497C-B419-6D4EB0B36DFE}"/>
+    <hyperlink ref="M18" r:id="rId348" xr:uid="{A8B03D72-4F58-488B-AA71-6FE545C4F974}"/>
+    <hyperlink ref="M49" r:id="rId349" xr:uid="{46B27430-2CB4-4571-B683-C90BDB1A869A}"/>
+    <hyperlink ref="M92" r:id="rId350" xr:uid="{B3372949-44D6-47D3-93F5-F231A1194C2D}"/>
+    <hyperlink ref="M106" r:id="rId351" xr:uid="{BD564D33-09CC-4E3F-8665-C7CC006586D4}"/>
+    <hyperlink ref="M68" r:id="rId352" xr:uid="{46D7BE4E-C50A-4838-A0D5-A66608E30FB1}"/>
+    <hyperlink ref="M91" r:id="rId353" xr:uid="{49346F82-88CD-458B-9055-E1D237495067}"/>
+    <hyperlink ref="M95" r:id="rId354" xr:uid="{275EA512-D486-4AA6-B9C6-EDFD8EB5E681}"/>
+    <hyperlink ref="M50" r:id="rId355" xr:uid="{F1370FFD-2A24-4E0D-842E-D15A59048874}"/>
+    <hyperlink ref="M19" r:id="rId356" xr:uid="{B079BDCE-9644-48D8-ADB9-55246D89BB3B}"/>
+    <hyperlink ref="M71" r:id="rId357" xr:uid="{21DA9F6E-42F2-4C08-8BCC-45E0F47AC02F}"/>
+    <hyperlink ref="M23" r:id="rId358" display="https://vidwan.inflibnet.ac.in/profile/162290/MTYyMjkw" xr:uid="{C5101B56-8150-4439-9561-ADE65CCB8626}"/>
+    <hyperlink ref="M78" r:id="rId359" xr:uid="{FA23B353-3F9D-46B1-82DA-820AA4FBE86D}"/>
+    <hyperlink ref="M86" r:id="rId360" xr:uid="{680496D4-6792-4688-B37B-3D2836A2CBB1}"/>
+    <hyperlink ref="M36" r:id="rId361" xr:uid="{C295F105-2491-4119-851F-B09A35F5D83B}"/>
+    <hyperlink ref="M14" r:id="rId362" xr:uid="{C6A42F1F-C70B-482C-BAF5-08E29835556D}"/>
+    <hyperlink ref="M80" r:id="rId363" xr:uid="{D12744D8-8D17-44EF-A69E-A1A202FA6698}"/>
+    <hyperlink ref="M17" r:id="rId364" xr:uid="{026E65A7-E47E-491B-A07D-37EBD353FD4E}"/>
+    <hyperlink ref="M35" r:id="rId365" xr:uid="{5D0B8227-026E-47C4-897D-D449D1EA7349}"/>
+    <hyperlink ref="M29" r:id="rId366" xr:uid="{02E7C489-97EB-4764-B304-885B559F8C0E}"/>
+    <hyperlink ref="M67" r:id="rId367" xr:uid="{7BCC998C-8FF9-4866-BDE0-4E618132491D}"/>
+    <hyperlink ref="M9" r:id="rId368" xr:uid="{91B9619A-0474-417B-A83E-F1ACC0AF0CEC}"/>
+    <hyperlink ref="M114" r:id="rId369" xr:uid="{9DC7345F-59EF-46AB-AFF8-A485034FCFB5}"/>
+    <hyperlink ref="M4" r:id="rId370" xr:uid="{C24F8B1B-E131-406E-8B92-980981B7F2F8}"/>
+    <hyperlink ref="M12" r:id="rId371" xr:uid="{BBE0AFF3-0C87-45BA-B244-2EBD516259AE}"/>
+    <hyperlink ref="M101" r:id="rId372" xr:uid="{36A3294C-FBE9-4AE5-B367-A4F7EB299507}"/>
+    <hyperlink ref="M38" r:id="rId373" xr:uid="{CC9655FE-1EDD-46F8-BE5B-9E92C5013680}"/>
+    <hyperlink ref="M21" r:id="rId374" xr:uid="{47BBD086-2D33-4012-A8B6-B4A4E0F676C3}"/>
+    <hyperlink ref="M28" r:id="rId375" xr:uid="{D9812B9F-31E0-4DAD-8A1E-6460EF4BE795}"/>
+    <hyperlink ref="M97" r:id="rId376" xr:uid="{194FE3FD-0EF9-46C4-B769-B4AAF95E0018}"/>
+    <hyperlink ref="M6" r:id="rId377" xr:uid="{3C597F50-A6C7-4686-85A0-F6E6694F57E3}"/>
+    <hyperlink ref="M70" r:id="rId378" xr:uid="{A87D811B-910D-45F2-BF34-A478CD7D8B09}"/>
+    <hyperlink ref="M22" r:id="rId379" xr:uid="{686F19E9-9FDF-4E88-8243-D809ABB3FE79}"/>
+    <hyperlink ref="M42" r:id="rId380" xr:uid="{FB2FC638-1D01-4122-BA7D-9717BC8B2EF3}"/>
+    <hyperlink ref="M102" r:id="rId381" xr:uid="{F0E56AD7-3828-45B1-A3E4-95B4E7B7495F}"/>
+    <hyperlink ref="M24" r:id="rId382" xr:uid="{5E6A27FA-6F1B-4920-AF3A-0018DC331E36}"/>
+    <hyperlink ref="M26" r:id="rId383" xr:uid="{758E2E1D-BBB4-4F0B-A1FA-EB3E5DE2D156}"/>
+    <hyperlink ref="M90" r:id="rId384" xr:uid="{1C320BD2-5251-44A7-81C2-D89E208736CC}"/>
+    <hyperlink ref="M98" r:id="rId385" xr:uid="{4BF3D2D2-9743-494B-A7D1-9EEF7423F2B3}"/>
+    <hyperlink ref="M53" r:id="rId386" xr:uid="{642FC8EF-95E5-4804-8108-73A9ADB45FBB}"/>
+    <hyperlink ref="M81" r:id="rId387" xr:uid="{6069906B-85A1-4520-B697-E8420F4D518A}"/>
+    <hyperlink ref="M111" r:id="rId388" xr:uid="{45C10A27-1AD3-4A6F-966C-946B5F9ECB83}"/>
+    <hyperlink ref="M27" r:id="rId389" xr:uid="{F2CE36A5-3E73-43DE-A91D-5D1E2781384A}"/>
+    <hyperlink ref="M54" r:id="rId390" xr:uid="{6815F862-B01A-4FF2-B310-DDE65D78FBDB}"/>
+    <hyperlink ref="M41" r:id="rId391" xr:uid="{2167CAC5-42F7-48BE-A140-282801D50406}"/>
+    <hyperlink ref="M112" r:id="rId392" xr:uid="{2D0BE123-EDFD-4091-BCF0-204188FF3B30}"/>
+    <hyperlink ref="M62" r:id="rId393" xr:uid="{7A45E352-1CCC-4E30-B5C0-2C2507845C07}"/>
+    <hyperlink ref="M48" r:id="rId394" xr:uid="{D69AB844-8B39-4156-9897-B02CB20CA4D5}"/>
+    <hyperlink ref="M10" r:id="rId395" xr:uid="{04F1C981-8348-4D72-8A69-A692D3062D64}"/>
+    <hyperlink ref="M51" r:id="rId396" xr:uid="{65DE02F5-B84D-45D0-9DC1-F7808BDFD38D}"/>
+    <hyperlink ref="M61" r:id="rId397" xr:uid="{C49314E6-1B8D-41D3-8824-C6AE59F00DDA}"/>
+    <hyperlink ref="M65" r:id="rId398" xr:uid="{22CCAF6F-639B-4091-91C4-0D9E09A79A31}"/>
+    <hyperlink ref="M34" r:id="rId399" xr:uid="{9E6DCF4C-EA31-4D9D-AE0D-50C83C0347DE}"/>
+    <hyperlink ref="M75" r:id="rId400" xr:uid="{D71D3644-6845-46C5-83D7-DA2B52AF5733}"/>
+    <hyperlink ref="M5" r:id="rId401" xr:uid="{7687E521-D8FB-41F5-A5E6-AE953D92E830}"/>
+    <hyperlink ref="M20" r:id="rId402" xr:uid="{4DDDF623-882B-481C-A6D6-41041F349837}"/>
+    <hyperlink ref="M43" r:id="rId403" xr:uid="{52C3C99B-42C3-444C-A194-78CDBDAFC9CB}"/>
+    <hyperlink ref="M109" r:id="rId404" display="https://vidwan.inflibnet.ac.in/profile/161344" xr:uid="{FE2BA8E6-DD6C-4A10-91F1-326AA51E88D5}"/>
+    <hyperlink ref="M46" r:id="rId405" xr:uid="{2FFD071F-CF1A-4200-989A-978DBA72FD44}"/>
+    <hyperlink ref="M64" r:id="rId406" xr:uid="{E4C6C757-CD64-47C7-8F12-6CE6B9FFD60C}"/>
+    <hyperlink ref="M96" r:id="rId407" xr:uid="{722D10A1-25FB-4CE7-9F0B-C75508E442CE}"/>
+    <hyperlink ref="M84" r:id="rId408" xr:uid="{32A836FB-CB40-470F-B02E-7B6392FD539D}"/>
+    <hyperlink ref="M40" r:id="rId409" location="other_information_panel" display="https://vidwan.inflibnet.ac.in/myprofile - other_information_panel" xr:uid="{FE644920-561A-44DA-A700-34ED8EB7963F}"/>
+    <hyperlink ref="M110" r:id="rId410" xr:uid="{2C076003-CA45-4492-A114-A44CC1E60BF2}"/>
+    <hyperlink ref="M59" r:id="rId411" xr:uid="{BC2FF260-09A4-4D46-81FB-823835AD57DA}"/>
+    <hyperlink ref="M99" r:id="rId412" xr:uid="{B2860DA1-1C8E-403D-9E1C-CE3896F91BFD}"/>
+    <hyperlink ref="M13" r:id="rId413" xr:uid="{2DE04985-AB3C-4D4B-BCEE-EF8C728199F4}"/>
+    <hyperlink ref="M45" r:id="rId414" xr:uid="{546046AA-45E7-4EDD-81FB-A6648B9BB595}"/>
+    <hyperlink ref="M105" r:id="rId415" xr:uid="{7330EFFC-2F12-4EFE-BF25-3D30861E8775}"/>
+    <hyperlink ref="M94" r:id="rId416" xr:uid="{4F8D1CF8-D215-443F-8914-E091AFB2DBAE}"/>
+    <hyperlink ref="M15" r:id="rId417" xr:uid="{4CD74FA1-A139-4BCD-9CB7-1D7091E614B9}"/>
+    <hyperlink ref="M56" r:id="rId418" xr:uid="{EAABDC46-8B1B-482C-B7D7-E6E7C16FB647}"/>
+    <hyperlink ref="M104" r:id="rId419" xr:uid="{ACDF2E56-83C7-477F-A573-2B4112936AD3}"/>
+    <hyperlink ref="M44" r:id="rId420" xr:uid="{B502A1CE-A61F-4999-A855-F6ECA908B905}"/>
+    <hyperlink ref="M89" r:id="rId421" xr:uid="{EF82DFB8-BEB4-47BB-B28B-AF5A4CDD6891}"/>
+    <hyperlink ref="M74" r:id="rId422" xr:uid="{6D71EE52-86C9-4EE0-A55D-7B9652B864FF}"/>
+    <hyperlink ref="M87" r:id="rId423" xr:uid="{C073950A-A28A-4ED8-B9C1-BD3B160FAEF3}"/>
+    <hyperlink ref="M63" r:id="rId424" xr:uid="{958C1C19-9C17-41E8-ADC4-BAB91255F382}"/>
+    <hyperlink ref="M37" r:id="rId425" xr:uid="{0CC98B27-C0DC-4F81-A868-5BC7C0784B50}"/>
+    <hyperlink ref="M66" r:id="rId426" xr:uid="{B86191A1-65D6-4540-845F-518E32A64FBF}"/>
+    <hyperlink ref="M107" r:id="rId427" xr:uid="{47889514-AB9C-4B04-95A5-1CCA3A0DFCA8}"/>
+    <hyperlink ref="M58" r:id="rId428" xr:uid="{36AE2A42-0E80-4A5F-8FB0-4EAB2AEA8C36}"/>
+    <hyperlink ref="M69" r:id="rId429" xr:uid="{7FE7C886-2B29-491F-8C86-5526A33F7121}"/>
+    <hyperlink ref="M73" r:id="rId430" xr:uid="{FDFB0EA9-AD4D-43E9-BEF9-C60B9531C82F}"/>
+    <hyperlink ref="M2" r:id="rId431" xr:uid="{251C34E0-B509-4755-B850-FDEB3B770405}"/>
+    <hyperlink ref="M11" r:id="rId432" xr:uid="{3203A1D8-1572-4E08-ADEF-54F74525E87A}"/>
+    <hyperlink ref="M93" r:id="rId433" xr:uid="{28CD01ED-234C-4911-A047-12722FE76C1F}"/>
+    <hyperlink ref="M116" r:id="rId434" xr:uid="{82D93DAC-CF9F-4D41-B8C8-5AE08EA58BAA}"/>
+    <hyperlink ref="M79" r:id="rId435" xr:uid="{68120C28-52E3-4EC9-9F3E-EB5A3578A3BD}"/>
+    <hyperlink ref="M33" r:id="rId436" display="https://vidwan.inflibnet.ac.in/profile/161755-" xr:uid="{B87FE430-1CFA-4F98-A7E4-77FBF96BA37F}"/>
+    <hyperlink ref="M100" r:id="rId437" xr:uid="{649E7EFF-CC71-476F-9A81-1581EC34CD48}"/>
+    <hyperlink ref="M88" r:id="rId438" xr:uid="{1C9375D7-8EF5-40A1-914C-C5A7CD3188FB}"/>
+    <hyperlink ref="M85" r:id="rId439" xr:uid="{66509B53-066F-4635-85A6-6E99D5FE0B3E}"/>
+    <hyperlink ref="M108" r:id="rId440" xr:uid="{775D1521-4736-4C73-BB71-31FD5AD1E561}"/>
+    <hyperlink ref="M60" r:id="rId441" xr:uid="{A128A132-518A-476D-BCF8-6D3638CE18D6}"/>
+    <hyperlink ref="M55" r:id="rId442" xr:uid="{A1AFE28A-9643-4A4A-95E8-53E1C4380AAE}"/>
+    <hyperlink ref="M115" r:id="rId443" xr:uid="{6A1A9D4D-97FF-42A2-B2EA-85F3F7E515C2}"/>
+    <hyperlink ref="M7" r:id="rId444" xr:uid="{BA494279-5FA7-4467-ACAA-FFA1824DB9F7}"/>
+    <hyperlink ref="M31" r:id="rId445" xr:uid="{43BBD922-4BE8-457C-9F25-7684B0D6F35B}"/>
+    <hyperlink ref="M76" r:id="rId446" xr:uid="{C2281EE1-00E4-42D3-875C-3C9C699518DB}"/>
+    <hyperlink ref="M82" r:id="rId447" xr:uid="{3C1D1058-7762-4D63-9FB9-41A44D4AB1F3}"/>
+    <hyperlink ref="E16:E17" r:id="rId448" display="https://placehold.co/400x600" xr:uid="{18BA32A8-6934-421F-9831-28D4907FFF98}"/>
+    <hyperlink ref="E17" r:id="rId449" xr:uid="{7510203D-B2F6-44B8-BB79-8C3F26D4C98A}"/>
+    <hyperlink ref="E16" r:id="rId450" xr:uid="{7C7925F6-A06D-4A2F-A60E-DE952DACBD81}"/>
+    <hyperlink ref="E54" r:id="rId451" xr:uid="{41208DE8-410A-4988-814F-34D6808B3973}"/>
+    <hyperlink ref="E65" r:id="rId452" xr:uid="{2A43A7D2-0D9B-42A8-8E87-E447ECDB9951}"/>
     <hyperlink ref="E60" r:id="rId453" xr:uid="{6FED2870-0657-4424-9493-C87C5558030E}"/>
-    <hyperlink ref="E16" r:id="rId454" xr:uid="{7C7925F6-A06D-4A2F-A60E-DE952DACBD81}"/>
+    <hyperlink ref="E112" r:id="rId454" display="https://placehold.co/400x600" xr:uid="{72604405-579A-4D04-AD70-2F433C2E73DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId455"/>
 </worksheet>
 </file>
 

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CSPIT_Main\CSPIT_NEW_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB5BB14-BF3F-4385-A9FC-0F160BCD86BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11040E03-D95F-42DF-8913-CF8A97CA1F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1008">
   <si>
     <t>Name</t>
   </si>
@@ -3220,6 +3220,9 @@
   </si>
   <si>
     <t>CSPIT_Faculty\Mechanical\VIRAL.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\ARPITA.webp</t>
   </si>
 </sst>
 </file>
@@ -3717,8 +3720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A113" zoomScale="80" workbookViewId="0">
-      <selection activeCell="D116" sqref="D116"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4276,7 +4279,7 @@
         <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>938</v>
+        <v>1007</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>367</v>
@@ -7474,7 +7477,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="343.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="330" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>192</v>
       </c>

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CSPIT_Main\CSPIT_NEW_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11040E03-D95F-42DF-8913-CF8A97CA1F18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEFFBE3-4932-4796-B960-524E7FDE92F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1007">
   <si>
     <t>Name</t>
   </si>
@@ -1844,85 +1844,16 @@
     <t>https://placehold.co/400x606</t>
   </si>
   <si>
-    <t>https://placehold.co/400x613</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x617</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x618</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x629</t>
   </si>
   <si>
-    <t>https://placehold.co/400x634</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x639</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x655</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x664</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x665</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x667</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x676</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x680</t>
   </si>
   <si>
-    <t>https://placehold.co/400x681</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x683</t>
   </si>
   <si>
-    <t>https://placehold.co/400x684</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x687</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x689</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x691</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x696</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x697</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x698</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x702</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x703</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x704</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x705</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x708</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x710</t>
   </si>
   <si>
     <t>https://www.linkedin.com/in/arpitajshah/</t>
@@ -3223,6 +3154,72 @@
   </si>
   <si>
     <t>CSPIT_Faculty\Electronics\ARPITA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\ASIFIQBAL YAVARMIYA THAKOR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\IT\BIMAL HARIVADAN PATEL.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\BRIJESH LAXMANBHAI KUNDALIYA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\HARDIK P MODI.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\MANTHAN SUDHIRBHAI MANAVADARIA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\IT\MIKINKBHAI RAKESHBHAI PATEL.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\MIRAL MUKESHBHAI DESAI.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\MUSKAN CHANDRAKANT DAVE.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\IT\HEMANT NANDLALBHAI YADAV.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\PARMANANDKUMAR SAHDEVBHAI PATEL.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\POONAM.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\IT\PRITESHKUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\IT\PURVI.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\RITESH.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\IT\SANKETKUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\SARITA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\SATAYU.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\TIGMANSHU.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CE\TRUSHA.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\TRUSHIT.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\UPESH.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electrical\VIBHABEN.webp</t>
   </si>
 </sst>
 </file>
@@ -3720,8 +3717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="80" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="80" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3754,7 +3751,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>912</v>
+        <v>889</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -3772,13 +3769,13 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>719</v>
+        <v>696</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>832</v>
+        <v>809</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>911</v>
+        <v>888</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -3795,7 +3792,7 @@
         <v>229</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>936</v>
+        <v>913</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>357</v>
@@ -3810,13 +3807,13 @@
         <v>253</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>915</v>
+        <v>892</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>720</v>
+        <v>697</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>470</v>
@@ -3839,7 +3836,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>976</v>
+        <v>953</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>358</v>
@@ -3854,19 +3851,19 @@
         <v>255</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>916</v>
+        <v>893</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>721</v>
+        <v>698</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>471</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>875</v>
+        <v>852</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -3877,13 +3874,13 @@
         <v>223</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>963</v>
+        <v>940</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>359</v>
@@ -3898,13 +3895,13 @@
         <v>254</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>917</v>
+        <v>894</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>678</v>
+        <v>655</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>722</v>
+        <v>699</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>472</v>
@@ -3927,7 +3924,7 @@
         <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>977</v>
+        <v>954</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>360</v>
@@ -3942,13 +3939,13 @@
         <v>256</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>914</v>
+        <v>891</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>723</v>
+        <v>700</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>473</v>
@@ -3971,7 +3968,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>964</v>
+        <v>941</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>361</v>
@@ -3986,13 +3983,13 @@
         <v>257</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>913</v>
+        <v>890</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>724</v>
+        <v>701</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>474</v>
@@ -4015,7 +4012,7 @@
         <v>230</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>965</v>
+        <v>942</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>362</v>
@@ -4030,19 +4027,19 @@
         <v>259</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>918</v>
+        <v>895</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>725</v>
+        <v>702</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>475</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>876</v>
+        <v>853</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -4074,13 +4071,13 @@
         <v>258</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>919</v>
+        <v>896</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>726</v>
+        <v>703</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>110</v>
@@ -4097,13 +4094,13 @@
         <v>223</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>978</v>
+        <v>955</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>364</v>
@@ -4118,19 +4115,19 @@
         <v>260</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>920</v>
+        <v>897</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>727</v>
+        <v>704</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>476</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>877</v>
+        <v>854</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -4147,7 +4144,7 @@
         <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>937</v>
+        <v>914</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>365</v>
@@ -4162,13 +4159,13 @@
         <v>261</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>921</v>
+        <v>898</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>728</v>
+        <v>705</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>477</v>
@@ -4185,16 +4182,16 @@
         <v>223</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>232</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>979</v>
+        <v>956</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>840</v>
+        <v>817</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>110</v>
@@ -4209,10 +4206,10 @@
         <v>104</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>679</v>
+        <v>656</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>729</v>
+        <v>706</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>477</v>
@@ -4235,7 +4232,7 @@
         <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>938</v>
+        <v>915</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>366</v>
@@ -4244,25 +4241,25 @@
         <v>110</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>850</v>
+        <v>827</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>711</v>
+        <v>688</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>590</v>
+        <v>567</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>730</v>
+        <v>707</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>478</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>878</v>
+        <v>855</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
@@ -4279,7 +4276,7 @@
         <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>1007</v>
+        <v>984</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>367</v>
@@ -4291,7 +4288,7 @@
         <v>462</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>712</v>
+        <v>689</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>104</v>
@@ -4300,13 +4297,13 @@
         <v>110</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>731</v>
+        <v>708</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>477</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>879</v>
+        <v>856</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
@@ -4323,7 +4320,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>939</v>
+        <v>916</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>368</v>
@@ -4332,25 +4329,25 @@
         <v>110</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>851</v>
+        <v>828</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>263</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>591</v>
+        <v>568</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>732</v>
+        <v>709</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>479</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>880</v>
+        <v>857</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -4361,13 +4358,13 @@
         <v>223</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>563</v>
+        <v>985</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>369</v>
@@ -4382,13 +4379,13 @@
         <v>264</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>592</v>
+        <v>569</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>733</v>
+        <v>710</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>480</v>
@@ -4411,7 +4408,7 @@
         <v>233</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>966</v>
+        <v>943</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>370</v>
@@ -4426,7 +4423,7 @@
         <v>265</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>110</v>
@@ -4449,22 +4446,22 @@
         <v>223</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>922</v>
+        <v>899</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>841</v>
+        <v>818</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>110</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>852</v>
+        <v>829</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>110</v>
@@ -4476,13 +4473,13 @@
         <v>110</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>734</v>
+        <v>711</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>481</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>881</v>
+        <v>858</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
@@ -4499,7 +4496,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>980</v>
+        <v>957</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>371</v>
@@ -4514,19 +4511,19 @@
         <v>266</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>594</v>
+        <v>571</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>735</v>
+        <v>712</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>482</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>882</v>
+        <v>859</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -4543,7 +4540,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>564</v>
+        <v>986</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>372</v>
@@ -4558,19 +4555,19 @@
         <v>267</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>595</v>
+        <v>572</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>736</v>
+        <v>713</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>483</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>883</v>
+        <v>860</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -4587,7 +4584,7 @@
         <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>565</v>
+        <v>987</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>373</v>
@@ -4602,13 +4599,13 @@
         <v>268</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>596</v>
+        <v>573</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>737</v>
+        <v>714</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>477</v>
@@ -4631,7 +4628,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>967</v>
+        <v>944</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>374</v>
@@ -4646,13 +4643,13 @@
         <v>269</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>597</v>
+        <v>574</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>738</v>
+        <v>715</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>484</v>
@@ -4675,10 +4672,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>981</v>
+        <v>958</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>842</v>
+        <v>819</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>110</v>
@@ -4696,7 +4693,7 @@
         <v>110</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>739</v>
+        <v>716</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>485</v>
@@ -4719,7 +4716,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>940</v>
+        <v>917</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>375</v>
@@ -4734,19 +4731,19 @@
         <v>271</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>740</v>
+        <v>717</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>486</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>884</v>
+        <v>861</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="211.2" x14ac:dyDescent="0.3">
@@ -4757,13 +4754,13 @@
         <v>223</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>982</v>
+        <v>959</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>376</v>
@@ -4778,13 +4775,13 @@
         <v>272</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>741</v>
+        <v>718</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>487</v>
@@ -4807,7 +4804,7 @@
         <v>234</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>968</v>
+        <v>945</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>377</v>
@@ -4819,22 +4816,22 @@
         <v>110</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>713</v>
+        <v>690</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>600</v>
+        <v>577</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>680</v>
+        <v>657</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>742</v>
+        <v>719</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>110</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>885</v>
+        <v>862</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -4851,7 +4848,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>983</v>
+        <v>960</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>378</v>
@@ -4860,19 +4857,19 @@
         <v>110</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>853</v>
+        <v>830</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>273</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>601</v>
+        <v>578</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>681</v>
+        <v>658</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>743</v>
+        <v>720</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>488</v>
@@ -4889,13 +4886,13 @@
         <v>223</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>969</v>
+        <v>946</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>379</v>
@@ -4910,19 +4907,19 @@
         <v>274</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>602</v>
+        <v>579</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>682</v>
+        <v>659</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>744</v>
+        <v>721</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>489</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>886</v>
+        <v>863</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -4939,7 +4936,7 @@
         <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>941</v>
+        <v>918</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>380</v>
@@ -4951,22 +4948,22 @@
         <v>110</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>714</v>
+        <v>691</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>603</v>
+        <v>580</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>745</v>
+        <v>722</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>478</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
@@ -4977,13 +4974,13 @@
         <v>223</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>942</v>
+        <v>919</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>381</v>
@@ -4995,16 +4992,16 @@
         <v>110</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>715</v>
+        <v>692</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>604</v>
+        <v>581</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>746</v>
+        <v>723</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>490</v>
@@ -5027,7 +5024,7 @@
         <v>235</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>923</v>
+        <v>900</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>382</v>
@@ -5042,13 +5039,13 @@
         <v>275</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>605</v>
+        <v>582</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>747</v>
+        <v>724</v>
       </c>
       <c r="M30" s="17">
         <v>583944</v>
@@ -5071,7 +5068,7 @@
         <v>236</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>383</v>
@@ -5080,19 +5077,19 @@
         <v>110</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>854</v>
+        <v>831</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>276</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>606</v>
+        <v>583</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>748</v>
+        <v>725</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>491</v>
@@ -5115,7 +5112,7 @@
         <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>984</v>
+        <v>961</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>384</v>
@@ -5130,16 +5127,16 @@
         <v>277</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>607</v>
+        <v>584</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>829</v>
+        <v>806</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>110</v>
@@ -5159,7 +5156,7 @@
         <v>237</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>952</v>
+        <v>929</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>385</v>
@@ -5174,19 +5171,19 @@
         <v>278</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>608</v>
+        <v>585</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>750</v>
+        <v>727</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>830</v>
+        <v>807</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>888</v>
+        <v>865</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -5203,7 +5200,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>924</v>
+        <v>901</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>386</v>
@@ -5212,19 +5209,19 @@
         <v>110</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>855</v>
+        <v>832</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>279</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>609</v>
+        <v>586</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>751</v>
+        <v>728</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>492</v>
@@ -5247,7 +5244,7 @@
         <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>925</v>
+        <v>902</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>387</v>
@@ -5262,7 +5259,7 @@
         <v>280</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
       <c r="K35" s="14" t="s">
         <v>110</v>
@@ -5288,10 +5285,10 @@
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>833</v>
+        <v>810</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>567</v>
+        <v>988</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>388</v>
@@ -5306,19 +5303,19 @@
         <v>281</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>611</v>
+        <v>588</v>
       </c>
       <c r="K36" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>752</v>
+        <v>729</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>494</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>889</v>
+        <v>866</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -5335,7 +5332,7 @@
         <v>98</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>985</v>
+        <v>962</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>389</v>
@@ -5350,13 +5347,13 @@
         <v>282</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="K37" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>753</v>
+        <v>730</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>495</v>
@@ -5373,16 +5370,16 @@
         <v>223</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>970</v>
+        <v>947</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>843</v>
+        <v>820</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>110</v>
@@ -5394,13 +5391,13 @@
         <v>283</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>613</v>
+        <v>590</v>
       </c>
       <c r="K38" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>754</v>
+        <v>731</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>496</v>
@@ -5417,13 +5414,13 @@
         <v>223</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>971</v>
+        <v>948</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>390</v>
@@ -5438,13 +5435,13 @@
         <v>284</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>614</v>
+        <v>591</v>
       </c>
       <c r="K39" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>755</v>
+        <v>732</v>
       </c>
       <c r="M39" s="10" t="s">
         <v>110</v>
@@ -5467,7 +5464,7 @@
         <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>953</v>
+        <v>930</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>391</v>
@@ -5482,13 +5479,13 @@
         <v>110</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>615</v>
+        <v>592</v>
       </c>
       <c r="K40" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>756</v>
+        <v>733</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>497</v>
@@ -5505,13 +5502,13 @@
         <v>223</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>568</v>
+        <v>993</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>392</v>
@@ -5520,19 +5517,19 @@
         <v>110</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>856</v>
+        <v>833</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>285</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>616</v>
+        <v>593</v>
       </c>
       <c r="K41" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>757</v>
+        <v>734</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>498</v>
@@ -5555,7 +5552,7 @@
         <v>52</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>926</v>
+        <v>903</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>393</v>
@@ -5570,13 +5567,13 @@
         <v>286</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>617</v>
+        <v>594</v>
       </c>
       <c r="K42" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>758</v>
+        <v>735</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>499</v>
@@ -5593,13 +5590,13 @@
         <v>223</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>955</v>
+        <v>932</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>394</v>
@@ -5614,19 +5611,19 @@
         <v>287</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>618</v>
+        <v>595</v>
       </c>
       <c r="K43" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>759</v>
+        <v>736</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>500</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>890</v>
+        <v>867</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
@@ -5643,7 +5640,7 @@
         <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>954</v>
+        <v>931</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>395</v>
@@ -5658,13 +5655,13 @@
         <v>288</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>619</v>
+        <v>596</v>
       </c>
       <c r="K44" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>760</v>
+        <v>737</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>501</v>
@@ -5687,7 +5684,7 @@
         <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>972</v>
+        <v>949</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>396</v>
@@ -5702,13 +5699,13 @@
         <v>289</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>620</v>
+        <v>597</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>683</v>
+        <v>660</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>761</v>
+        <v>738</v>
       </c>
       <c r="M45" s="9" t="s">
         <v>502</v>
@@ -5725,13 +5722,13 @@
         <v>223</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>704</v>
+        <v>681</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>986</v>
+        <v>963</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>397</v>
@@ -5752,7 +5749,7 @@
         <v>110</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>762</v>
+        <v>739</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>503</v>
@@ -5775,7 +5772,7 @@
         <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>987</v>
+        <v>964</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>398</v>
@@ -5790,13 +5787,13 @@
         <v>291</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>621</v>
+        <v>598</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>763</v>
+        <v>740</v>
       </c>
       <c r="M47" s="10" t="s">
         <v>110</v>
@@ -5819,7 +5816,7 @@
         <v>66</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>988</v>
+        <v>965</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>399</v>
@@ -5840,7 +5837,7 @@
         <v>110</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>764</v>
+        <v>741</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>477</v>
@@ -5863,7 +5860,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>989</v>
+        <v>966</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>400</v>
@@ -5875,22 +5872,22 @@
         <v>110</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>716</v>
+        <v>693</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>622</v>
+        <v>599</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>684</v>
+        <v>661</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>765</v>
+        <v>742</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>504</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>891</v>
+        <v>868</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
@@ -5907,7 +5904,7 @@
         <v>26</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>990</v>
+        <v>967</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>401</v>
@@ -5916,25 +5913,25 @@
         <v>110</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>857</v>
+        <v>834</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>293</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>623</v>
+        <v>600</v>
       </c>
       <c r="K50" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>766</v>
+        <v>743</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>505</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>892</v>
+        <v>869</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
@@ -5948,10 +5945,10 @@
         <v>5</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>834</v>
+        <v>811</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>991</v>
+        <v>968</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>402</v>
@@ -5960,7 +5957,7 @@
         <v>110</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>858</v>
+        <v>835</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>294</v>
@@ -5972,7 +5969,7 @@
         <v>110</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>767</v>
+        <v>744</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>477</v>
@@ -5995,7 +5992,7 @@
         <v>30</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>943</v>
+        <v>920</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>403</v>
@@ -6010,13 +6007,13 @@
         <v>295</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>624</v>
+        <v>601</v>
       </c>
       <c r="K52" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>768</v>
+        <v>745</v>
       </c>
       <c r="M52" s="10" t="s">
         <v>110</v>
@@ -6039,7 +6036,7 @@
         <v>58</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>992</v>
+        <v>969</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>404</v>
@@ -6054,13 +6051,13 @@
         <v>296</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>769</v>
+        <v>746</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>506</v>
@@ -6083,7 +6080,7 @@
         <v>62</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>993</v>
+        <v>970</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>405</v>
@@ -6092,19 +6089,19 @@
         <v>110</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>859</v>
+        <v>836</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>298</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>626</v>
+        <v>603</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>770</v>
+        <v>747</v>
       </c>
       <c r="M54" s="9" t="s">
         <v>507</v>
@@ -6121,13 +6118,13 @@
         <v>223</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>238</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>994</v>
+        <v>971</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>406</v>
@@ -6136,7 +6133,7 @@
         <v>110</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>860</v>
+        <v>837</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>297</v>
@@ -6148,13 +6145,13 @@
         <v>110</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>771</v>
+        <v>748</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>508</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>893</v>
+        <v>870</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
@@ -6165,16 +6162,16 @@
         <v>223</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>704</v>
+        <v>681</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>995</v>
+        <v>972</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>844</v>
+        <v>821</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>110</v>
@@ -6192,7 +6189,7 @@
         <v>110</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>772</v>
+        <v>749</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>509</v>
@@ -6212,10 +6209,10 @@
         <v>5</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>835</v>
+        <v>812</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>569</v>
+        <v>989</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>407</v>
@@ -6224,25 +6221,25 @@
         <v>110</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>861</v>
+        <v>838</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>300</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>627</v>
+        <v>604</v>
       </c>
       <c r="K57" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>773</v>
+        <v>750</v>
       </c>
       <c r="M57" s="9" t="s">
         <v>510</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>894</v>
+        <v>871</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -6259,7 +6256,7 @@
         <v>239</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>944</v>
+        <v>921</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>408</v>
@@ -6268,19 +6265,19 @@
         <v>110</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>862</v>
+        <v>839</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>301</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>628</v>
+        <v>605</v>
       </c>
       <c r="K58" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>774</v>
+        <v>751</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>511</v>
@@ -6297,13 +6294,13 @@
         <v>223</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>927</v>
+        <v>904</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>409</v>
@@ -6312,19 +6309,19 @@
         <v>110</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>863</v>
+        <v>840</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>302</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>629</v>
+        <v>606</v>
       </c>
       <c r="K59" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>775</v>
+        <v>752</v>
       </c>
       <c r="M59" s="9" t="s">
         <v>512</v>
@@ -6347,7 +6344,7 @@
         <v>240</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>996</v>
+        <v>973</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>410</v>
@@ -6362,19 +6359,19 @@
         <v>303</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>630</v>
+        <v>607</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>685</v>
+        <v>662</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>776</v>
+        <v>753</v>
       </c>
       <c r="M60" s="9" t="s">
         <v>513</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>895</v>
+        <v>872</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
@@ -6391,28 +6388,28 @@
         <v>68</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>997</v>
+        <v>974</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>845</v>
+        <v>822</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>110</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>864</v>
+        <v>841</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>304</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>631</v>
+        <v>608</v>
       </c>
       <c r="K61" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>777</v>
+        <v>754</v>
       </c>
       <c r="M61" s="9" t="s">
         <v>514</v>
@@ -6429,13 +6426,13 @@
         <v>223</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>956</v>
+        <v>933</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>411</v>
@@ -6456,7 +6453,7 @@
         <v>110</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>778</v>
+        <v>755</v>
       </c>
       <c r="M62" s="9" t="s">
         <v>515</v>
@@ -6476,10 +6473,10 @@
         <v>4</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>836</v>
+        <v>813</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>957</v>
+        <v>934</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>412</v>
@@ -6494,13 +6491,13 @@
         <v>306</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>632</v>
+        <v>609</v>
       </c>
       <c r="K63" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>779</v>
+        <v>756</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>516</v>
@@ -6523,7 +6520,7 @@
         <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>998</v>
+        <v>975</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>413</v>
@@ -6538,19 +6535,19 @@
         <v>307</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>633</v>
+        <v>610</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>686</v>
+        <v>663</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>780</v>
+        <v>757</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>477</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>887</v>
+        <v>864</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
@@ -6561,13 +6558,13 @@
         <v>223</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>705</v>
+        <v>682</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>999</v>
+        <v>976</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>414</v>
@@ -6576,19 +6573,19 @@
         <v>110</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>865</v>
+        <v>842</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>308</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>634</v>
+        <v>611</v>
       </c>
       <c r="K65" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>781</v>
+        <v>758</v>
       </c>
       <c r="M65" s="9" t="s">
         <v>517</v>
@@ -6611,7 +6608,7 @@
         <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>570</v>
+        <v>990</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>415</v>
@@ -6626,19 +6623,19 @@
         <v>309</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>635</v>
+        <v>612</v>
       </c>
       <c r="K66" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>782</v>
+        <v>759</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>518</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>896</v>
+        <v>873</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="277.2" x14ac:dyDescent="0.3">
@@ -6655,7 +6652,7 @@
         <v>38</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>571</v>
+        <v>991</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>416</v>
@@ -6664,19 +6661,19 @@
         <v>110</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>866</v>
+        <v>843</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>310</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>636</v>
+        <v>613</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>687</v>
+        <v>664</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>783</v>
+        <v>760</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>519</v>
@@ -6699,7 +6696,7 @@
         <v>23</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>945</v>
+        <v>922</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>417</v>
@@ -6714,13 +6711,13 @@
         <v>311</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>637</v>
+        <v>614</v>
       </c>
       <c r="K68" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>784</v>
+        <v>761</v>
       </c>
       <c r="M68" s="9" t="s">
         <v>520</v>
@@ -6743,7 +6740,7 @@
         <v>241</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>572</v>
+        <v>992</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>418</v>
@@ -6758,7 +6755,7 @@
         <v>312</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>638</v>
+        <v>615</v>
       </c>
       <c r="K69" s="14" t="s">
         <v>110</v>
@@ -6787,10 +6784,10 @@
         <v>49</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>958</v>
+        <v>935</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>846</v>
+        <v>823</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>110</v>
@@ -6802,19 +6799,19 @@
         <v>313</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>639</v>
+        <v>616</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>785</v>
+        <v>762</v>
       </c>
       <c r="M70" s="9" t="s">
         <v>521</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>897</v>
+        <v>874</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -6828,10 +6825,10 @@
         <v>5</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>837</v>
+        <v>814</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>946</v>
+        <v>923</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>419</v>
@@ -6846,13 +6843,13 @@
         <v>314</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>640</v>
+        <v>617</v>
       </c>
       <c r="K71" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>786</v>
+        <v>763</v>
       </c>
       <c r="M71" s="9" t="s">
         <v>522</v>
@@ -6875,7 +6872,7 @@
         <v>16</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>1000</v>
+        <v>977</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>420</v>
@@ -6884,19 +6881,19 @@
         <v>110</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>867</v>
+        <v>844</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>315</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>641</v>
+        <v>618</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>688</v>
+        <v>665</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>787</v>
+        <v>764</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>523</v>
@@ -6919,7 +6916,7 @@
         <v>242</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>928</v>
+        <v>905</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>421</v>
@@ -6928,25 +6925,25 @@
         <v>110</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>868</v>
+        <v>845</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>316</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>642</v>
+        <v>619</v>
       </c>
       <c r="K73" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>788</v>
+        <v>765</v>
       </c>
       <c r="M73" s="9" t="s">
         <v>524</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>898</v>
+        <v>875</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
@@ -6963,10 +6960,10 @@
         <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>959</v>
+        <v>936</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>847</v>
+        <v>824</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>110</v>
@@ -6978,19 +6975,19 @@
         <v>317</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>643</v>
+        <v>620</v>
       </c>
       <c r="K74" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>789</v>
+        <v>766</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>525</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>894</v>
+        <v>871</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -7007,7 +7004,7 @@
         <v>71</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>929</v>
+        <v>906</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>422</v>
@@ -7022,13 +7019,13 @@
         <v>318</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>644</v>
+        <v>621</v>
       </c>
       <c r="K75" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>790</v>
+        <v>767</v>
       </c>
       <c r="M75" s="9" t="s">
         <v>477</v>
@@ -7051,7 +7048,7 @@
         <v>243</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>931</v>
+        <v>908</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>423</v>
@@ -7066,19 +7063,19 @@
         <v>319</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>645</v>
+        <v>622</v>
       </c>
       <c r="K76" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>791</v>
+        <v>768</v>
       </c>
       <c r="M76" s="9" t="s">
         <v>526</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>899</v>
+        <v>876</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -7095,7 +7092,7 @@
         <v>37</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>930</v>
+        <v>907</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>424</v>
@@ -7110,7 +7107,7 @@
         <v>320</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>646</v>
+        <v>623</v>
       </c>
       <c r="K77" s="14" t="s">
         <v>110</v>
@@ -7133,13 +7130,13 @@
         <v>223</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>573</v>
+        <v>994</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>425</v>
@@ -7154,7 +7151,7 @@
         <v>321</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>647</v>
+        <v>624</v>
       </c>
       <c r="K78" s="10" t="s">
         <v>110</v>
@@ -7180,10 +7177,10 @@
         <v>5</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>838</v>
+        <v>815</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>932</v>
+        <v>909</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>426</v>
@@ -7198,13 +7195,13 @@
         <v>322</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>648</v>
+        <v>625</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>689</v>
+        <v>666</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>792</v>
+        <v>769</v>
       </c>
       <c r="M79" s="9" t="s">
         <v>528</v>
@@ -7227,7 +7224,7 @@
         <v>33</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>933</v>
+        <v>910</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>427</v>
@@ -7265,16 +7262,16 @@
         <v>223</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>960</v>
+        <v>937</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>848</v>
+        <v>825</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>110</v>
@@ -7292,13 +7289,13 @@
         <v>110</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>793</v>
+        <v>770</v>
       </c>
       <c r="M81" s="9" t="s">
         <v>530</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>900</v>
+        <v>877</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -7309,13 +7306,13 @@
         <v>223</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>706</v>
+        <v>683</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>244</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="F82" s="6" t="s">
         <v>428</v>
@@ -7336,7 +7333,7 @@
         <v>110</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>794</v>
+        <v>771</v>
       </c>
       <c r="M82" s="9" t="s">
         <v>531</v>
@@ -7359,7 +7356,7 @@
         <v>18</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>575</v>
+        <v>995</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>429</v>
@@ -7374,13 +7371,13 @@
         <v>326</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>649</v>
+        <v>626</v>
       </c>
       <c r="K83" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>795</v>
+        <v>772</v>
       </c>
       <c r="M83" s="9" t="s">
         <v>532</v>
@@ -7397,13 +7394,13 @@
         <v>223</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>1001</v>
+        <v>978</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>430</v>
@@ -7418,13 +7415,13 @@
         <v>327</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>650</v>
+        <v>627</v>
       </c>
       <c r="K84" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>796</v>
+        <v>773</v>
       </c>
       <c r="M84" s="9" t="s">
         <v>533</v>
@@ -7447,7 +7444,7 @@
         <v>245</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="F85" s="6" t="s">
         <v>431</v>
@@ -7462,13 +7459,13 @@
         <v>110</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>651</v>
+        <v>628</v>
       </c>
       <c r="K85" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>797</v>
+        <v>774</v>
       </c>
       <c r="M85" s="9" t="s">
         <v>534</v>
@@ -7477,7 +7474,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="330" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="343.2" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>192</v>
       </c>
@@ -7491,7 +7488,7 @@
         <v>31</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>577</v>
+        <v>996</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>432</v>
@@ -7509,16 +7506,16 @@
         <v>101</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>690</v>
+        <v>667</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>798</v>
+        <v>775</v>
       </c>
       <c r="M86" s="9" t="s">
         <v>535</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>901</v>
+        <v>878</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -7535,7 +7532,7 @@
         <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>934</v>
+        <v>911</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>433</v>
@@ -7544,25 +7541,25 @@
         <v>110</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>869</v>
+        <v>846</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>329</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>652</v>
+        <v>629</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>691</v>
+        <v>668</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>799</v>
+        <v>776</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>902</v>
+        <v>879</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -7573,13 +7570,13 @@
         <v>223</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>246</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>1002</v>
+        <v>979</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>434</v>
@@ -7600,7 +7597,7 @@
         <v>110</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>800</v>
+        <v>777</v>
       </c>
       <c r="M88" s="9" t="s">
         <v>536</v>
@@ -7623,7 +7620,7 @@
         <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>578</v>
+        <v>997</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>435</v>
@@ -7638,13 +7635,13 @@
         <v>331</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="K89" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>801</v>
+        <v>778</v>
       </c>
       <c r="M89" s="9" t="s">
         <v>537</v>
@@ -7667,7 +7664,7 @@
         <v>56</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>1003</v>
+        <v>980</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>436</v>
@@ -7679,22 +7676,22 @@
         <v>110</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>717</v>
+        <v>694</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>654</v>
+        <v>631</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>692</v>
+        <v>669</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>802</v>
+        <v>779</v>
       </c>
       <c r="M90" s="9" t="s">
         <v>538</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>903</v>
+        <v>880</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -7711,7 +7708,7 @@
         <v>24</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="F91" s="6" t="s">
         <v>437</v>
@@ -7720,19 +7717,19 @@
         <v>110</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>870</v>
+        <v>847</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>332</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>655</v>
+        <v>632</v>
       </c>
       <c r="K91" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>803</v>
+        <v>780</v>
       </c>
       <c r="M91" s="9" t="s">
         <v>539</v>
@@ -7755,7 +7752,7 @@
         <v>21</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>947</v>
+        <v>924</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>438</v>
@@ -7770,13 +7767,13 @@
         <v>333</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>656</v>
+        <v>633</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>693</v>
+        <v>670</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>804</v>
+        <v>781</v>
       </c>
       <c r="M92" s="9" t="s">
         <v>540</v>
@@ -7799,7 +7796,7 @@
         <v>247</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>580</v>
+        <v>998</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>439</v>
@@ -7808,25 +7805,25 @@
         <v>110</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>871</v>
+        <v>848</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>334</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>657</v>
+        <v>634</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>694</v>
+        <v>671</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>805</v>
+        <v>782</v>
       </c>
       <c r="M93" s="9" t="s">
         <v>541</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>904</v>
+        <v>881</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
@@ -7843,7 +7840,7 @@
         <v>89</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>948</v>
+        <v>925</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>440</v>
@@ -7861,10 +7858,10 @@
         <v>108</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>695</v>
+        <v>672</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>806</v>
+        <v>783</v>
       </c>
       <c r="M94" s="9" t="s">
         <v>542</v>
@@ -7887,7 +7884,7 @@
         <v>25</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>949</v>
+        <v>926</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>441</v>
@@ -7902,19 +7899,19 @@
         <v>336</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>658</v>
+        <v>635</v>
       </c>
       <c r="K95" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>807</v>
+        <v>784</v>
       </c>
       <c r="M95" s="9" t="s">
         <v>543</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>905</v>
+        <v>882</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -7931,7 +7928,7 @@
         <v>79</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>1004</v>
+        <v>981</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>442</v>
@@ -7940,25 +7937,25 @@
         <v>110</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>872</v>
+        <v>849</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>337</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>659</v>
+        <v>636</v>
       </c>
       <c r="K96" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>808</v>
+        <v>785</v>
       </c>
       <c r="M96" s="9" t="s">
         <v>544</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>906</v>
+        <v>883</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -7975,7 +7972,7 @@
         <v>47</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>1004</v>
+        <v>981</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>443</v>
@@ -7984,25 +7981,25 @@
         <v>110</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>873</v>
+        <v>850</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>338</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>660</v>
+        <v>637</v>
       </c>
       <c r="K97" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>809</v>
+        <v>786</v>
       </c>
       <c r="M97" s="9" t="s">
         <v>545</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>894</v>
+        <v>871</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -8019,7 +8016,7 @@
         <v>57</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>581</v>
+        <v>999</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>444</v>
@@ -8034,19 +8031,19 @@
         <v>339</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>661</v>
+        <v>638</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>696</v>
+        <v>673</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>810</v>
+        <v>787</v>
       </c>
       <c r="M98" s="9" t="s">
         <v>546</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>907</v>
+        <v>884</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -8057,13 +8054,13 @@
         <v>223</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>582</v>
+        <v>1000</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>445</v>
@@ -8084,7 +8081,7 @@
         <v>110</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="M99" s="9" t="s">
         <v>547</v>
@@ -8101,13 +8098,13 @@
         <v>223</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>248</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>583</v>
+        <v>1001</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>446</v>
@@ -8122,13 +8119,13 @@
         <v>341</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>662</v>
+        <v>639</v>
       </c>
       <c r="K100" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>812</v>
+        <v>789</v>
       </c>
       <c r="M100" s="9" t="s">
         <v>548</v>
@@ -8151,7 +8148,7 @@
         <v>43</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>950</v>
+        <v>927</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>447</v>
@@ -8166,13 +8163,13 @@
         <v>342</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>663</v>
+        <v>640</v>
       </c>
       <c r="K101" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>813</v>
+        <v>790</v>
       </c>
       <c r="M101" s="9" t="s">
         <v>549</v>
@@ -8189,13 +8186,13 @@
         <v>223</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>707</v>
+        <v>684</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>935</v>
+        <v>912</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>448</v>
@@ -8210,13 +8207,13 @@
         <v>343</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>664</v>
+        <v>641</v>
       </c>
       <c r="K102" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>814</v>
+        <v>791</v>
       </c>
       <c r="M102" s="9" t="s">
         <v>550</v>
@@ -8239,7 +8236,7 @@
         <v>88</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>973</v>
+        <v>950</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>449</v>
@@ -8254,13 +8251,13 @@
         <v>344</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>665</v>
+        <v>642</v>
       </c>
       <c r="K103" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>815</v>
+        <v>792</v>
       </c>
       <c r="M103" s="10" t="s">
         <v>110</v>
@@ -8277,13 +8274,13 @@
         <v>223</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>708</v>
+        <v>685</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>584</v>
+        <v>1002</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>450</v>
@@ -8298,13 +8295,13 @@
         <v>110</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>666</v>
+        <v>643</v>
       </c>
       <c r="K104" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>816</v>
+        <v>793</v>
       </c>
       <c r="M104" s="9" t="s">
         <v>551</v>
@@ -8321,13 +8318,13 @@
         <v>223</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>87</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>585</v>
+        <v>1003</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>451</v>
@@ -8342,13 +8339,13 @@
         <v>345</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>667</v>
+        <v>644</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>697</v>
+        <v>674</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>817</v>
+        <v>794</v>
       </c>
       <c r="M105" s="9" t="s">
         <v>552</v>
@@ -8371,7 +8368,7 @@
         <v>22</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>586</v>
+        <v>1004</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>452</v>
@@ -8389,10 +8386,10 @@
         <v>100</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>698</v>
+        <v>675</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>818</v>
+        <v>795</v>
       </c>
       <c r="M106" s="9" t="s">
         <v>553</v>
@@ -8415,7 +8412,7 @@
         <v>249</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>587</v>
+        <v>1005</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>453</v>
@@ -8430,19 +8427,19 @@
         <v>347</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>668</v>
+        <v>645</v>
       </c>
       <c r="K107" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>819</v>
+        <v>796</v>
       </c>
       <c r="M107" s="9" t="s">
         <v>554</v>
       </c>
       <c r="N107" s="10" t="s">
-        <v>908</v>
+        <v>885</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -8459,7 +8456,7 @@
         <v>250</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>974</v>
+        <v>951</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>454</v>
@@ -8474,13 +8471,13 @@
         <v>348</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>669</v>
+        <v>646</v>
       </c>
       <c r="K108" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>820</v>
+        <v>797</v>
       </c>
       <c r="M108" s="9" t="s">
         <v>555</v>
@@ -8503,7 +8500,7 @@
         <v>75</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>951</v>
+        <v>928</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>75</v>
@@ -8518,13 +8515,13 @@
         <v>349</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>670</v>
+        <v>647</v>
       </c>
       <c r="K109" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>821</v>
+        <v>798</v>
       </c>
       <c r="M109" s="9" t="s">
         <v>556</v>
@@ -8541,13 +8538,13 @@
         <v>223</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>709</v>
+        <v>686</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>588</v>
+        <v>1006</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>455</v>
@@ -8562,19 +8559,19 @@
         <v>350</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>671</v>
+        <v>648</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>699</v>
+        <v>676</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>822</v>
+        <v>799</v>
       </c>
       <c r="M110" s="9" t="s">
         <v>557</v>
       </c>
       <c r="N110" s="10" t="s">
-        <v>909</v>
+        <v>886</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -8585,13 +8582,13 @@
         <v>223</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>701</v>
+        <v>678</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>975</v>
+        <v>952</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>456</v>
@@ -8606,13 +8603,13 @@
         <v>351</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>672</v>
+        <v>649</v>
       </c>
       <c r="K111" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>823</v>
+        <v>800</v>
       </c>
       <c r="M111" s="9" t="s">
         <v>558</v>
@@ -8635,7 +8632,7 @@
         <v>64</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>589</v>
+        <v>938</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>457</v>
@@ -8644,19 +8641,19 @@
         <v>110</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>874</v>
+        <v>851</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>673</v>
+        <v>650</v>
       </c>
       <c r="K112" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>824</v>
+        <v>801</v>
       </c>
       <c r="M112" s="9" t="s">
         <v>559</v>
@@ -8679,7 +8676,7 @@
         <v>77</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>961</v>
+        <v>938</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>458</v>
@@ -8694,19 +8691,19 @@
         <v>353</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>674</v>
+        <v>651</v>
       </c>
       <c r="K113" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>825</v>
+        <v>802</v>
       </c>
       <c r="M113" s="17" t="s">
         <v>559</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>910</v>
+        <v>887</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
@@ -8717,13 +8714,13 @@
         <v>223</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>1005</v>
+        <v>982</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>459</v>
@@ -8738,13 +8735,13 @@
         <v>354</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>675</v>
+        <v>652</v>
       </c>
       <c r="K114" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>826</v>
+        <v>803</v>
       </c>
       <c r="M114" s="9" t="s">
         <v>560</v>
@@ -8761,16 +8758,16 @@
         <v>223</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>703</v>
+        <v>680</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>251</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>962</v>
+        <v>939</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>849</v>
+        <v>826</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>110</v>
@@ -8782,13 +8779,13 @@
         <v>355</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>676</v>
+        <v>653</v>
       </c>
       <c r="K115" s="10" t="s">
         <v>111</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>827</v>
+        <v>804</v>
       </c>
       <c r="M115" s="9" t="s">
         <v>477</v>
@@ -8805,13 +8802,13 @@
         <v>223</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>702</v>
+        <v>679</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>1006</v>
+        <v>983</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>460</v>
@@ -8826,13 +8823,13 @@
         <v>356</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>677</v>
+        <v>654</v>
       </c>
       <c r="K116" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>828</v>
+        <v>805</v>
       </c>
       <c r="M116" s="9" t="s">
         <v>561</v>
@@ -8843,16 +8840,16 @@
     </row>
     <row r="117" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="s">
-        <v>700</v>
+        <v>677</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>710</v>
+        <v>687</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>839</v>
+        <v>816</v>
       </c>
       <c r="F117" s="16" t="s">
         <v>110</v>
@@ -8861,7 +8858,7 @@
         <v>110</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>718</v>
+        <v>695</v>
       </c>
       <c r="J117" s="11" t="s">
         <v>110</v>
@@ -8891,7 +8888,7 @@
     <hyperlink ref="E12" r:id="rId7" xr:uid="{17D5C088-BD3A-4E75-8035-22B027942A64}"/>
     <hyperlink ref="E14" r:id="rId8" xr:uid="{6815D31E-1624-40E4-AD43-8FB5276A3E13}"/>
     <hyperlink ref="E18" r:id="rId9" xr:uid="{D37B5237-F7AD-4C72-A4B8-18846345A20A}"/>
-    <hyperlink ref="E20" r:id="rId10" display="https://placehold.co/400x600" xr:uid="{455E2F96-6FCE-4ED2-9C3B-2E6E7249AE44}"/>
+    <hyperlink ref="E20" r:id="rId10" xr:uid="{455E2F96-6FCE-4ED2-9C3B-2E6E7249AE44}"/>
     <hyperlink ref="E22" r:id="rId11" xr:uid="{77807312-4DCC-424A-9227-0205668D168B}"/>
     <hyperlink ref="E24" r:id="rId12" xr:uid="{8AAD6443-2520-4082-8EC0-C46B0A509927}"/>
     <hyperlink ref="E26" r:id="rId13" xr:uid="{5B8C9469-79CD-4130-A71A-FB9845883315}"/>
@@ -8899,7 +8896,7 @@
     <hyperlink ref="E30" r:id="rId15" xr:uid="{3C06105A-95B0-486E-B562-804FA49B279E}"/>
     <hyperlink ref="E32" r:id="rId16" xr:uid="{445C6875-08FB-4A0D-945E-88ACC5B3E36F}"/>
     <hyperlink ref="E34" r:id="rId17" xr:uid="{65D66EC6-EE19-4700-A25B-1483B78EB1EF}"/>
-    <hyperlink ref="E36" r:id="rId18" display="https://placehold.co/400x600" xr:uid="{2E844F72-E0A3-4D15-89E8-4C62C40B0097}"/>
+    <hyperlink ref="E36" r:id="rId18" xr:uid="{2E844F72-E0A3-4D15-89E8-4C62C40B0097}"/>
     <hyperlink ref="E38" r:id="rId19" xr:uid="{15AC029B-EF8F-4E8F-BB97-C5EC917FD18C}"/>
     <hyperlink ref="E40" r:id="rId20" xr:uid="{5FE82AD6-8780-451F-B565-3C9E2036135F}"/>
     <hyperlink ref="E42" r:id="rId21" xr:uid="{F7983BF9-576C-4FA2-B35A-DFA749ACF1B5}"/>
@@ -8912,29 +8909,29 @@
     <hyperlink ref="E58" r:id="rId28" xr:uid="{DDB2A0FD-936A-490E-BE1E-1762A651B20C}"/>
     <hyperlink ref="E62" r:id="rId29" xr:uid="{5E732335-693B-490D-844A-64351A2B11C7}"/>
     <hyperlink ref="E64" r:id="rId30" xr:uid="{B032BBB6-4D16-4E33-A3F0-D7039E10D767}"/>
-    <hyperlink ref="E66" r:id="rId31" display="https://placehold.co/400x600" xr:uid="{C71F9231-ACA2-46E1-BE2F-462475789CDA}"/>
+    <hyperlink ref="E66" r:id="rId31" xr:uid="{C71F9231-ACA2-46E1-BE2F-462475789CDA}"/>
     <hyperlink ref="E68" r:id="rId32" xr:uid="{6DAF2527-3F52-4351-90EE-F788A7836287}"/>
     <hyperlink ref="E70" r:id="rId33" xr:uid="{C213B07F-FB90-4578-BA40-CB5277C5E9F8}"/>
     <hyperlink ref="E72" r:id="rId34" xr:uid="{B6B3C0BC-449F-4D5F-8991-2960BC1E1B95}"/>
     <hyperlink ref="E74" r:id="rId35" xr:uid="{12F3E568-1027-43BC-89EA-C5D4D2C3F3B1}"/>
     <hyperlink ref="E76" r:id="rId36" xr:uid="{9BCFDA15-C8D8-41F6-B5C1-8DB9E3F54F38}"/>
-    <hyperlink ref="E78" r:id="rId37" display="https://placehold.co/400x600" xr:uid="{5074351A-0735-4679-AE99-F1F491EAD66F}"/>
+    <hyperlink ref="E78" r:id="rId37" xr:uid="{5074351A-0735-4679-AE99-F1F491EAD66F}"/>
     <hyperlink ref="E80" r:id="rId38" xr:uid="{797A27FB-9286-43BA-A3D3-06E0B7DF57C7}"/>
     <hyperlink ref="E82" r:id="rId39" display="https://placehold.co/400x600" xr:uid="{E22D4C78-609C-4F6C-902E-67DDEA2AEC08}"/>
     <hyperlink ref="E84" r:id="rId40" xr:uid="{689543FA-D772-478F-B75B-353A8D5F5A0F}"/>
-    <hyperlink ref="E86" r:id="rId41" display="https://placehold.co/400x600" xr:uid="{6F1B4F40-1347-45F9-B0B9-89687F77E0B0}"/>
+    <hyperlink ref="E86" r:id="rId41" xr:uid="{6F1B4F40-1347-45F9-B0B9-89687F77E0B0}"/>
     <hyperlink ref="E88" r:id="rId42" xr:uid="{269A95A2-A318-4245-8364-07E925D041A6}"/>
     <hyperlink ref="E90" r:id="rId43" xr:uid="{BC5C79FD-42B9-4F63-B259-53ADA917C149}"/>
     <hyperlink ref="E92" r:id="rId44" xr:uid="{F219C840-96AC-40EA-9D7B-C09CBA360D2A}"/>
     <hyperlink ref="E94" r:id="rId45" xr:uid="{E85B62E0-66A6-4BDE-AB82-B3F3885FF25D}"/>
     <hyperlink ref="E96" r:id="rId46" xr:uid="{F685C903-F46A-4AEA-A4B6-30F5F5C38E02}"/>
-    <hyperlink ref="E98" r:id="rId47" display="https://placehold.co/400x600" xr:uid="{34A32507-5178-4AE2-8923-C76F8834EAC3}"/>
-    <hyperlink ref="E100" r:id="rId48" display="https://placehold.co/400x600" xr:uid="{316F114E-DC59-4C12-AAE4-7C561A6A4A37}"/>
+    <hyperlink ref="E98" r:id="rId47" xr:uid="{34A32507-5178-4AE2-8923-C76F8834EAC3}"/>
+    <hyperlink ref="E100" r:id="rId48" xr:uid="{316F114E-DC59-4C12-AAE4-7C561A6A4A37}"/>
     <hyperlink ref="E102" r:id="rId49" xr:uid="{E6C4E1E9-ADFC-463C-BA35-72BF5470C0FC}"/>
-    <hyperlink ref="E104" r:id="rId50" display="https://placehold.co/400x600" xr:uid="{5C2E1F62-17AE-4C61-86CF-CFAADD48E3DA}"/>
-    <hyperlink ref="E106" r:id="rId51" display="https://placehold.co/400x600" xr:uid="{EB2D28AA-5611-4D14-B6D8-65655568052B}"/>
+    <hyperlink ref="E104" r:id="rId50" xr:uid="{5C2E1F62-17AE-4C61-86CF-CFAADD48E3DA}"/>
+    <hyperlink ref="E106" r:id="rId51" xr:uid="{EB2D28AA-5611-4D14-B6D8-65655568052B}"/>
     <hyperlink ref="E108" r:id="rId52" xr:uid="{1A1FF6C3-6CA4-4205-87F4-FFA4C505FE05}"/>
-    <hyperlink ref="E110" r:id="rId53" display="https://placehold.co/400x600" xr:uid="{D5F8DE7D-9A2E-4EB2-AD3E-1B6347BBB03A}"/>
+    <hyperlink ref="E110" r:id="rId53" xr:uid="{D5F8DE7D-9A2E-4EB2-AD3E-1B6347BBB03A}"/>
     <hyperlink ref="E114" r:id="rId54" xr:uid="{F52A7ADE-923C-4FC0-835C-C78BE5475FD1}"/>
     <hyperlink ref="E116" r:id="rId55" xr:uid="{88BB9B9A-193B-430A-8A94-9996D9F8B858}"/>
     <hyperlink ref="E5" r:id="rId56" xr:uid="{673B2D9E-5CEE-40DD-A0A2-66025584E8C2}"/>
@@ -8942,8 +8939,8 @@
     <hyperlink ref="E9" r:id="rId58" xr:uid="{E7773CE7-BD5F-4624-B940-0E795B4A4E30}"/>
     <hyperlink ref="E11" r:id="rId59" xr:uid="{93DA058C-7CEC-4BA2-9D33-5FB8B5E88910}"/>
     <hyperlink ref="E13" r:id="rId60" xr:uid="{8F788626-64E7-4F1D-A12D-F2E9D916467C}"/>
-    <hyperlink ref="E15" r:id="rId61" display="https://placehold.co/400x600" xr:uid="{8AD2972F-0CB2-4DCE-8821-C56F9057AD5B}"/>
-    <hyperlink ref="E19" r:id="rId62" display="https://placehold.co/400x600" xr:uid="{D4698768-8DC5-407A-B6F4-C1C875BFB78D}"/>
+    <hyperlink ref="E15" r:id="rId61" xr:uid="{8AD2972F-0CB2-4DCE-8821-C56F9057AD5B}"/>
+    <hyperlink ref="E19" r:id="rId62" xr:uid="{D4698768-8DC5-407A-B6F4-C1C875BFB78D}"/>
     <hyperlink ref="E21" r:id="rId63" xr:uid="{13DD67BA-1FCB-43E0-A39C-FFE32E5D3954}"/>
     <hyperlink ref="E23" r:id="rId64" xr:uid="{90D0F56C-C7DB-4632-B91C-EF74541F5FEA}"/>
     <hyperlink ref="E25" r:id="rId65" xr:uid="{F6A0C9FE-D2B9-4181-8F81-93868F3E313C}"/>
@@ -8954,7 +8951,7 @@
     <hyperlink ref="E35" r:id="rId70" xr:uid="{FFD57A2F-B179-4903-B296-F8069D1F1332}"/>
     <hyperlink ref="E37" r:id="rId71" xr:uid="{291A37C6-A686-4CDE-9352-CAE725E23B11}"/>
     <hyperlink ref="E39" r:id="rId72" xr:uid="{6ECECF25-2624-4D12-A089-9B4C4DBCF38B}"/>
-    <hyperlink ref="E41" r:id="rId73" display="https://placehold.co/400x600" xr:uid="{B8267D85-A691-4187-91DB-27E364616A8C}"/>
+    <hyperlink ref="E41" r:id="rId73" xr:uid="{B8267D85-A691-4187-91DB-27E364616A8C}"/>
     <hyperlink ref="E43" r:id="rId74" xr:uid="{AA69E1F0-E88A-495C-A844-C33C82F6CE26}"/>
     <hyperlink ref="E45" r:id="rId75" xr:uid="{269F03E1-526C-4849-A6D5-8276665E4485}"/>
     <hyperlink ref="E47" r:id="rId76" xr:uid="{D722AC52-912D-4A3F-8560-FAA4DCA60A56}"/>
@@ -8962,31 +8959,31 @@
     <hyperlink ref="E51" r:id="rId78" xr:uid="{FAAE2569-D069-46B3-A7AA-6969338A4AFF}"/>
     <hyperlink ref="E53" r:id="rId79" xr:uid="{919767C3-0A6A-4A63-9549-0F7B3A7EE7DF}"/>
     <hyperlink ref="E55" r:id="rId80" xr:uid="{BD76B93C-ACC1-4CF1-A623-39E4FAFED853}"/>
-    <hyperlink ref="E57" r:id="rId81" display="https://placehold.co/400x600" xr:uid="{7964589D-7453-4997-AC7B-F98F5B5B7029}"/>
+    <hyperlink ref="E57" r:id="rId81" xr:uid="{7964589D-7453-4997-AC7B-F98F5B5B7029}"/>
     <hyperlink ref="E59" r:id="rId82" xr:uid="{F72D2D0A-AD07-45DC-AA3D-223C36C995AB}"/>
     <hyperlink ref="E61" r:id="rId83" xr:uid="{D79CAE5D-C5B6-4B75-8261-008B5374EBDB}"/>
     <hyperlink ref="E63" r:id="rId84" xr:uid="{75C81E45-FAA6-4175-A2FE-BA7C7F71F6F3}"/>
-    <hyperlink ref="E67" r:id="rId85" display="https://placehold.co/400x600" xr:uid="{F199289C-0CB7-41CD-95E9-D9C97B86A7E7}"/>
-    <hyperlink ref="E69" r:id="rId86" display="https://placehold.co/400x600" xr:uid="{E4715AC6-7D6D-4434-A585-79B8F25233F6}"/>
+    <hyperlink ref="E67" r:id="rId85" xr:uid="{F199289C-0CB7-41CD-95E9-D9C97B86A7E7}"/>
+    <hyperlink ref="E69" r:id="rId86" xr:uid="{E4715AC6-7D6D-4434-A585-79B8F25233F6}"/>
     <hyperlink ref="E71" r:id="rId87" xr:uid="{CFD1BDC4-A848-4998-9430-C29DB079EED4}"/>
     <hyperlink ref="E73" r:id="rId88" xr:uid="{DEC62E70-AB7A-4365-B90A-11A1D549F375}"/>
     <hyperlink ref="E75" r:id="rId89" xr:uid="{A925F566-676A-47EA-9068-3A8AC9C78A71}"/>
     <hyperlink ref="E77" r:id="rId90" xr:uid="{826BB4FF-EF4E-4C68-AE45-B4C9CEE10FB5}"/>
     <hyperlink ref="E79" r:id="rId91" xr:uid="{D55B186E-0A96-4185-9D34-01F9C47E843E}"/>
     <hyperlink ref="E81" r:id="rId92" xr:uid="{AC60663B-FB99-47D2-A9DA-11C43648559B}"/>
-    <hyperlink ref="E83" r:id="rId93" display="https://placehold.co/400x600" xr:uid="{F83899A5-222C-48AC-9ABC-BC254C3600A8}"/>
+    <hyperlink ref="E83" r:id="rId93" xr:uid="{F83899A5-222C-48AC-9ABC-BC254C3600A8}"/>
     <hyperlink ref="E85" r:id="rId94" display="https://placehold.co/400x600" xr:uid="{2EE015AD-95D3-42D3-9727-0C2D20C22B2D}"/>
     <hyperlink ref="E87" r:id="rId95" xr:uid="{1E9351A5-5685-4A61-91E2-9C72A14FBA45}"/>
-    <hyperlink ref="E89" r:id="rId96" display="https://placehold.co/400x600" xr:uid="{DA14C2E4-99E6-4273-B1C6-88E4314A2B53}"/>
+    <hyperlink ref="E89" r:id="rId96" xr:uid="{DA14C2E4-99E6-4273-B1C6-88E4314A2B53}"/>
     <hyperlink ref="E91" r:id="rId97" display="https://placehold.co/400x600" xr:uid="{CED33FAF-E705-4A0E-B5BA-28AC459A08F9}"/>
-    <hyperlink ref="E93" r:id="rId98" display="https://placehold.co/400x600" xr:uid="{69683834-3F44-4B9E-879F-17C7B3985064}"/>
+    <hyperlink ref="E93" r:id="rId98" xr:uid="{69683834-3F44-4B9E-879F-17C7B3985064}"/>
     <hyperlink ref="E95" r:id="rId99" xr:uid="{6706B29D-6B9E-414D-A766-C429245D96A7}"/>
     <hyperlink ref="E97" r:id="rId100" xr:uid="{B8549196-6B30-41D5-B870-CDF1F6C0AE2B}"/>
-    <hyperlink ref="E99" r:id="rId101" display="https://placehold.co/400x600" xr:uid="{70722206-091E-437D-B026-345C8CDB5176}"/>
+    <hyperlink ref="E99" r:id="rId101" xr:uid="{70722206-091E-437D-B026-345C8CDB5176}"/>
     <hyperlink ref="E101" r:id="rId102" xr:uid="{EF057E02-0A38-4475-84BA-2BC1ED64BA7D}"/>
     <hyperlink ref="E103" r:id="rId103" xr:uid="{F307B800-2CAD-4E08-A635-F4AD9976A897}"/>
-    <hyperlink ref="E105" r:id="rId104" display="https://placehold.co/400x600" xr:uid="{42F0B609-7315-4192-A377-FDEDE5FDDF8B}"/>
-    <hyperlink ref="E107" r:id="rId105" display="https://placehold.co/400x600" xr:uid="{0BBF4990-1413-476C-AFE7-EC34A9F113B0}"/>
+    <hyperlink ref="E105" r:id="rId104" xr:uid="{42F0B609-7315-4192-A377-FDEDE5FDDF8B}"/>
+    <hyperlink ref="E107" r:id="rId105" xr:uid="{0BBF4990-1413-476C-AFE7-EC34A9F113B0}"/>
     <hyperlink ref="E109" r:id="rId106" xr:uid="{43D0B648-1D21-45A3-A6E9-CB546100DAA2}"/>
     <hyperlink ref="E111" r:id="rId107" xr:uid="{3BF79D70-269C-4AB5-B83F-712DABFF4480}"/>
     <hyperlink ref="E113" r:id="rId108" xr:uid="{622A2536-A959-42B4-B4F9-EE23F2A44517}"/>
@@ -9335,7 +9332,7 @@
     <hyperlink ref="E54" r:id="rId451" xr:uid="{41208DE8-410A-4988-814F-34D6808B3973}"/>
     <hyperlink ref="E65" r:id="rId452" xr:uid="{2A43A7D2-0D9B-42A8-8E87-E447ECDB9951}"/>
     <hyperlink ref="E60" r:id="rId453" xr:uid="{6FED2870-0657-4424-9493-C87C5558030E}"/>
-    <hyperlink ref="E112" r:id="rId454" display="https://placehold.co/400x600" xr:uid="{72604405-579A-4D04-AD70-2F433C2E73DD}"/>
+    <hyperlink ref="E112" r:id="rId454" xr:uid="{72604405-579A-4D04-AD70-2F433C2E73DD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId455"/>

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CSPIT_Main\CSPIT_NEW_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEFFBE3-4932-4796-B960-524E7FDE92F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4EE2A1-F28D-40DE-AF83-F000130A09F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1009">
   <si>
     <t>Name</t>
   </si>
@@ -3220,6 +3220,12 @@
   </si>
   <si>
     <t>CSPIT_Faculty\Electrical\VIBHABEN.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\SAGARKUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Mechanical\VIJAYKUMAR.webp</t>
   </si>
 </sst>
 </file>
@@ -3717,7 +3723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A114" zoomScale="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="115" workbookViewId="0">
       <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
@@ -7474,7 +7480,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="86" spans="1:14" ht="343.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:14" ht="330" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>192</v>
       </c>
@@ -7972,7 +7978,7 @@
         <v>47</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>981</v>
+        <v>1007</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>443</v>
@@ -8632,7 +8638,7 @@
         <v>64</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>938</v>
+        <v>1008</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>457</v>

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CSPIT_Main\CSPIT_NEW_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4518248c6cd0c0d5/Desktop/CSPIT_NEW_2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB4EE2A1-F28D-40DE-AF83-F000130A09F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="6_{42F40C5C-83DD-423A-A0F7-83E3ED73F5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7114F75-8C6F-4D5D-8825-CB85622AF32D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2066,12 +2066,6 @@
     <t>https://www.linkedin.com/in/drNAsagarNAchokshiNA8646601a/</t>
   </si>
   <si>
-    <t>https://www.linkedin.com/in/sagarkumarNApatelNA0bb94bb5/</t>
-  </si>
-  <si>
-    <t>https://www.linkedin.com/in/sanketNAsutharNA544a69210/</t>
-  </si>
-  <si>
     <t>www.linkedin.com/in/satayuNAtravadiNA9aab0919</t>
   </si>
   <si>
@@ -3226,6 +3220,12 @@
   </si>
   <si>
     <t>CSPIT_Faculty\Mechanical\VIJAYKUMAR.webp</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sagarkumar-patel-0bb94bb5/</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/sanket-suthar-544a69210/</t>
   </si>
 </sst>
 </file>
@@ -3723,8 +3723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" zoomScale="115" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="E97" zoomScale="115" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3757,7 +3757,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -3775,13 +3775,13 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -3798,7 +3798,7 @@
         <v>229</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>357</v>
@@ -3813,13 +3813,13 @@
         <v>253</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>470</v>
@@ -3842,7 +3842,7 @@
         <v>17</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>358</v>
@@ -3857,19 +3857,19 @@
         <v>255</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>471</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -3880,13 +3880,13 @@
         <v>223</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>359</v>
@@ -3901,13 +3901,13 @@
         <v>254</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>472</v>
@@ -3930,7 +3930,7 @@
         <v>72</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>360</v>
@@ -3945,13 +3945,13 @@
         <v>256</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>473</v>
@@ -3974,7 +3974,7 @@
         <v>48</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>361</v>
@@ -3989,13 +3989,13 @@
         <v>257</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>474</v>
@@ -4018,7 +4018,7 @@
         <v>230</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>362</v>
@@ -4033,19 +4033,19 @@
         <v>259</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>475</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -4077,13 +4077,13 @@
         <v>258</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>110</v>
@@ -4100,13 +4100,13 @@
         <v>223</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>364</v>
@@ -4121,19 +4121,19 @@
         <v>260</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>476</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -4150,7 +4150,7 @@
         <v>67</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>365</v>
@@ -4165,13 +4165,13 @@
         <v>261</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>477</v>
@@ -4188,16 +4188,16 @@
         <v>223</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>232</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>110</v>
@@ -4212,10 +4212,10 @@
         <v>104</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>477</v>
@@ -4238,7 +4238,7 @@
         <v>42</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>366</v>
@@ -4247,10 +4247,10 @@
         <v>110</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>567</v>
@@ -4259,13 +4259,13 @@
         <v>110</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>478</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
@@ -4282,7 +4282,7 @@
         <v>85</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>367</v>
@@ -4294,7 +4294,7 @@
         <v>462</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>104</v>
@@ -4303,13 +4303,13 @@
         <v>110</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>477</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
@@ -4326,7 +4326,7 @@
         <v>32</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>368</v>
@@ -4335,7 +4335,7 @@
         <v>110</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>263</v>
@@ -4347,13 +4347,13 @@
         <v>110</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>479</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -4364,13 +4364,13 @@
         <v>223</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>90</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>369</v>
@@ -4391,7 +4391,7 @@
         <v>110</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>480</v>
@@ -4414,7 +4414,7 @@
         <v>233</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>370</v>
@@ -4452,22 +4452,22 @@
         <v>223</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>110</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>110</v>
@@ -4479,13 +4479,13 @@
         <v>110</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>481</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
@@ -4502,7 +4502,7 @@
         <v>19</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>371</v>
@@ -4523,13 +4523,13 @@
         <v>110</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>482</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -4546,7 +4546,7 @@
         <v>27</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>372</v>
@@ -4567,13 +4567,13 @@
         <v>110</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>483</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -4590,7 +4590,7 @@
         <v>73</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>373</v>
@@ -4611,7 +4611,7 @@
         <v>110</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>477</v>
@@ -4634,7 +4634,7 @@
         <v>45</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>374</v>
@@ -4655,7 +4655,7 @@
         <v>110</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>484</v>
@@ -4678,10 +4678,10 @@
         <v>50</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>110</v>
@@ -4699,7 +4699,7 @@
         <v>110</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>485</v>
@@ -4722,7 +4722,7 @@
         <v>28</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>375</v>
@@ -4743,13 +4743,13 @@
         <v>110</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>486</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="211.2" x14ac:dyDescent="0.3">
@@ -4760,13 +4760,13 @@
         <v>223</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>54</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>376</v>
@@ -4787,7 +4787,7 @@
         <v>110</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>487</v>
@@ -4810,7 +4810,7 @@
         <v>234</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>377</v>
@@ -4822,22 +4822,22 @@
         <v>110</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J25" s="9" t="s">
         <v>577</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>110</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>378</v>
@@ -4863,7 +4863,7 @@
         <v>110</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>273</v>
@@ -4872,10 +4872,10 @@
         <v>578</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>488</v>
@@ -4892,13 +4892,13 @@
         <v>223</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>61</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>379</v>
@@ -4916,16 +4916,16 @@
         <v>579</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>489</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -4942,7 +4942,7 @@
         <v>46</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>380</v>
@@ -4954,7 +4954,7 @@
         <v>110</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>580</v>
@@ -4963,13 +4963,13 @@
         <v>110</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>478</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
@@ -4980,13 +4980,13 @@
         <v>223</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>381</v>
@@ -4998,7 +4998,7 @@
         <v>110</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J29" s="9" t="s">
         <v>581</v>
@@ -5007,7 +5007,7 @@
         <v>110</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>490</v>
@@ -5030,7 +5030,7 @@
         <v>235</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>382</v>
@@ -5051,7 +5051,7 @@
         <v>110</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="M30" s="17">
         <v>583944</v>
@@ -5083,7 +5083,7 @@
         <v>110</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>276</v>
@@ -5095,7 +5095,7 @@
         <v>110</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="M31" s="9" t="s">
         <v>491</v>
@@ -5118,7 +5118,7 @@
         <v>39</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>384</v>
@@ -5139,10 +5139,10 @@
         <v>110</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="N32" s="10" t="s">
         <v>110</v>
@@ -5162,7 +5162,7 @@
         <v>237</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>385</v>
@@ -5183,13 +5183,13 @@
         <v>110</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -5206,7 +5206,7 @@
         <v>70</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>386</v>
@@ -5215,7 +5215,7 @@
         <v>110</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="I34" s="4" t="s">
         <v>279</v>
@@ -5227,7 +5227,7 @@
         <v>110</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="M34" s="9" t="s">
         <v>492</v>
@@ -5250,7 +5250,7 @@
         <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>387</v>
@@ -5291,10 +5291,10 @@
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>388</v>
@@ -5315,13 +5315,13 @@
         <v>110</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>494</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -5338,7 +5338,7 @@
         <v>98</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="F37" s="6" t="s">
         <v>389</v>
@@ -5359,7 +5359,7 @@
         <v>110</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>495</v>
@@ -5376,16 +5376,16 @@
         <v>223</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>44</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>110</v>
@@ -5403,7 +5403,7 @@
         <v>110</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="M38" s="9" t="s">
         <v>496</v>
@@ -5420,13 +5420,13 @@
         <v>223</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>51</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>390</v>
@@ -5447,7 +5447,7 @@
         <v>110</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="M39" s="10" t="s">
         <v>110</v>
@@ -5470,7 +5470,7 @@
         <v>81</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>391</v>
@@ -5491,7 +5491,7 @@
         <v>110</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>497</v>
@@ -5508,13 +5508,13 @@
         <v>223</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D41" s="6" t="s">
         <v>63</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>392</v>
@@ -5523,7 +5523,7 @@
         <v>110</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>285</v>
@@ -5535,7 +5535,7 @@
         <v>110</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>498</v>
@@ -5558,7 +5558,7 @@
         <v>52</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>393</v>
@@ -5579,7 +5579,7 @@
         <v>110</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>499</v>
@@ -5596,13 +5596,13 @@
         <v>223</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D43" s="6" t="s">
         <v>74</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>394</v>
@@ -5623,13 +5623,13 @@
         <v>110</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>500</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
@@ -5646,7 +5646,7 @@
         <v>94</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>395</v>
@@ -5667,7 +5667,7 @@
         <v>110</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>501</v>
@@ -5690,7 +5690,7 @@
         <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>396</v>
@@ -5708,10 +5708,10 @@
         <v>597</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="M45" s="9" t="s">
         <v>502</v>
@@ -5728,13 +5728,13 @@
         <v>223</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D46" s="6" t="s">
         <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>397</v>
@@ -5755,7 +5755,7 @@
         <v>110</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="M46" s="9" t="s">
         <v>503</v>
@@ -5778,7 +5778,7 @@
         <v>92</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>398</v>
@@ -5799,7 +5799,7 @@
         <v>110</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="M47" s="10" t="s">
         <v>110</v>
@@ -5822,7 +5822,7 @@
         <v>66</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>399</v>
@@ -5843,7 +5843,7 @@
         <v>110</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>477</v>
@@ -5866,7 +5866,7 @@
         <v>20</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>400</v>
@@ -5878,22 +5878,22 @@
         <v>110</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="J49" s="9" t="s">
         <v>599</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>504</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
@@ -5910,7 +5910,7 @@
         <v>26</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>401</v>
@@ -5919,7 +5919,7 @@
         <v>110</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>293</v>
@@ -5931,13 +5931,13 @@
         <v>110</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>505</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
@@ -5951,10 +5951,10 @@
         <v>5</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="F51" s="6" t="s">
         <v>402</v>
@@ -5963,7 +5963,7 @@
         <v>110</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="I51" s="4" t="s">
         <v>294</v>
@@ -5975,7 +5975,7 @@
         <v>110</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="M51" s="9" t="s">
         <v>477</v>
@@ -5998,7 +5998,7 @@
         <v>30</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F52" s="6" t="s">
         <v>403</v>
@@ -6019,7 +6019,7 @@
         <v>110</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="M52" s="10" t="s">
         <v>110</v>
@@ -6042,7 +6042,7 @@
         <v>58</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="F53" s="6" t="s">
         <v>404</v>
@@ -6063,7 +6063,7 @@
         <v>110</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="M53" s="9" t="s">
         <v>506</v>
@@ -6086,7 +6086,7 @@
         <v>62</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="F54" s="6" t="s">
         <v>405</v>
@@ -6095,7 +6095,7 @@
         <v>110</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="I54" s="4" t="s">
         <v>298</v>
@@ -6107,7 +6107,7 @@
         <v>110</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="M54" s="9" t="s">
         <v>507</v>
@@ -6124,13 +6124,13 @@
         <v>223</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>238</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="F55" s="6" t="s">
         <v>406</v>
@@ -6139,7 +6139,7 @@
         <v>110</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>297</v>
@@ -6151,13 +6151,13 @@
         <v>110</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="M55" s="9" t="s">
         <v>508</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
@@ -6168,16 +6168,16 @@
         <v>223</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D56" s="6" t="s">
         <v>91</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>110</v>
@@ -6195,7 +6195,7 @@
         <v>110</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="M56" s="9" t="s">
         <v>509</v>
@@ -6215,10 +6215,10 @@
         <v>5</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="F57" s="6" t="s">
         <v>407</v>
@@ -6227,7 +6227,7 @@
         <v>110</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="I57" s="4" t="s">
         <v>300</v>
@@ -6239,13 +6239,13 @@
         <v>110</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="M57" s="9" t="s">
         <v>510</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -6262,7 +6262,7 @@
         <v>239</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F58" s="6" t="s">
         <v>408</v>
@@ -6271,7 +6271,7 @@
         <v>110</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>301</v>
@@ -6283,7 +6283,7 @@
         <v>110</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="M58" s="9" t="s">
         <v>511</v>
@@ -6300,13 +6300,13 @@
         <v>223</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D59" s="6" t="s">
         <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F59" s="6" t="s">
         <v>409</v>
@@ -6315,7 +6315,7 @@
         <v>110</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>302</v>
@@ -6327,7 +6327,7 @@
         <v>110</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="M59" s="9" t="s">
         <v>512</v>
@@ -6350,7 +6350,7 @@
         <v>240</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="F60" s="6" t="s">
         <v>410</v>
@@ -6368,16 +6368,16 @@
         <v>607</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="M60" s="9" t="s">
         <v>513</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
@@ -6394,16 +6394,16 @@
         <v>68</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="G61" s="4" t="s">
         <v>110</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="I61" s="4" t="s">
         <v>304</v>
@@ -6415,7 +6415,7 @@
         <v>110</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="M61" s="9" t="s">
         <v>514</v>
@@ -6432,13 +6432,13 @@
         <v>223</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>65</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F62" s="6" t="s">
         <v>411</v>
@@ -6459,7 +6459,7 @@
         <v>110</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="M62" s="9" t="s">
         <v>515</v>
@@ -6479,10 +6479,10 @@
         <v>4</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F63" s="6" t="s">
         <v>412</v>
@@ -6503,7 +6503,7 @@
         <v>110</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="M63" s="9" t="s">
         <v>516</v>
@@ -6526,7 +6526,7 @@
         <v>78</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="F64" s="6" t="s">
         <v>413</v>
@@ -6544,16 +6544,16 @@
         <v>610</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="M64" s="9" t="s">
         <v>477</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
@@ -6564,13 +6564,13 @@
         <v>223</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D65" s="6" t="s">
         <v>69</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="F65" s="6" t="s">
         <v>414</v>
@@ -6579,7 +6579,7 @@
         <v>110</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>308</v>
@@ -6591,7 +6591,7 @@
         <v>110</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="M65" s="9" t="s">
         <v>517</v>
@@ -6614,7 +6614,7 @@
         <v>99</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="F66" s="6" t="s">
         <v>415</v>
@@ -6635,13 +6635,13 @@
         <v>110</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="M66" s="9" t="s">
         <v>518</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="277.2" x14ac:dyDescent="0.3">
@@ -6658,7 +6658,7 @@
         <v>38</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F67" s="6" t="s">
         <v>416</v>
@@ -6667,7 +6667,7 @@
         <v>110</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="I67" s="4" t="s">
         <v>310</v>
@@ -6676,10 +6676,10 @@
         <v>613</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="M67" s="9" t="s">
         <v>519</v>
@@ -6702,7 +6702,7 @@
         <v>23</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F68" s="6" t="s">
         <v>417</v>
@@ -6723,7 +6723,7 @@
         <v>110</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="M68" s="9" t="s">
         <v>520</v>
@@ -6746,7 +6746,7 @@
         <v>241</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F69" s="6" t="s">
         <v>418</v>
@@ -6790,10 +6790,10 @@
         <v>49</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="G70" s="4" t="s">
         <v>110</v>
@@ -6811,13 +6811,13 @@
         <v>110</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="M70" s="9" t="s">
         <v>521</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -6831,10 +6831,10 @@
         <v>5</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F71" s="6" t="s">
         <v>419</v>
@@ -6855,7 +6855,7 @@
         <v>110</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="M71" s="9" t="s">
         <v>522</v>
@@ -6878,7 +6878,7 @@
         <v>16</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="F72" s="6" t="s">
         <v>420</v>
@@ -6887,7 +6887,7 @@
         <v>110</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="I72" s="4" t="s">
         <v>315</v>
@@ -6896,10 +6896,10 @@
         <v>618</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="M72" s="9" t="s">
         <v>523</v>
@@ -6922,7 +6922,7 @@
         <v>242</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F73" s="6" t="s">
         <v>421</v>
@@ -6931,7 +6931,7 @@
         <v>110</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="I73" s="4" t="s">
         <v>316</v>
@@ -6943,13 +6943,13 @@
         <v>110</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="M73" s="9" t="s">
         <v>524</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
@@ -6966,10 +6966,10 @@
         <v>96</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>110</v>
@@ -6987,13 +6987,13 @@
         <v>110</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="M74" s="9" t="s">
         <v>525</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -7010,7 +7010,7 @@
         <v>71</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F75" s="6" t="s">
         <v>422</v>
@@ -7031,7 +7031,7 @@
         <v>110</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="M75" s="9" t="s">
         <v>477</v>
@@ -7054,7 +7054,7 @@
         <v>243</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F76" s="6" t="s">
         <v>423</v>
@@ -7075,13 +7075,13 @@
         <v>110</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="M76" s="9" t="s">
         <v>526</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
@@ -7098,7 +7098,7 @@
         <v>37</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F77" s="6" t="s">
         <v>424</v>
@@ -7136,13 +7136,13 @@
         <v>223</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D78" s="6" t="s">
         <v>29</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F78" s="6" t="s">
         <v>425</v>
@@ -7183,10 +7183,10 @@
         <v>5</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F79" s="6" t="s">
         <v>426</v>
@@ -7204,10 +7204,10 @@
         <v>625</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="M79" s="9" t="s">
         <v>528</v>
@@ -7230,7 +7230,7 @@
         <v>33</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F80" s="6" t="s">
         <v>427</v>
@@ -7268,16 +7268,16 @@
         <v>223</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D81" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>110</v>
@@ -7295,13 +7295,13 @@
         <v>110</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="M81" s="9" t="s">
         <v>530</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -7312,7 +7312,7 @@
         <v>223</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D82" s="6" t="s">
         <v>244</v>
@@ -7339,7 +7339,7 @@
         <v>110</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="M82" s="9" t="s">
         <v>531</v>
@@ -7362,7 +7362,7 @@
         <v>18</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F83" s="6" t="s">
         <v>429</v>
@@ -7383,7 +7383,7 @@
         <v>110</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="M83" s="9" t="s">
         <v>532</v>
@@ -7400,13 +7400,13 @@
         <v>223</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D84" s="6" t="s">
         <v>80</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="F84" s="6" t="s">
         <v>430</v>
@@ -7427,7 +7427,7 @@
         <v>110</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="M84" s="9" t="s">
         <v>533</v>
@@ -7471,7 +7471,7 @@
         <v>110</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="M85" s="9" t="s">
         <v>534</v>
@@ -7494,7 +7494,7 @@
         <v>31</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F86" s="6" t="s">
         <v>432</v>
@@ -7512,16 +7512,16 @@
         <v>101</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="M86" s="9" t="s">
         <v>535</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -7538,7 +7538,7 @@
         <v>97</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F87" s="6" t="s">
         <v>433</v>
@@ -7547,7 +7547,7 @@
         <v>110</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="I87" s="4" t="s">
         <v>329</v>
@@ -7556,16 +7556,16 @@
         <v>629</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
@@ -7576,13 +7576,13 @@
         <v>223</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D88" s="6" t="s">
         <v>246</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F88" s="6" t="s">
         <v>434</v>
@@ -7603,7 +7603,7 @@
         <v>110</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="M88" s="9" t="s">
         <v>536</v>
@@ -7626,7 +7626,7 @@
         <v>95</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F89" s="6" t="s">
         <v>435</v>
@@ -7647,7 +7647,7 @@
         <v>110</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="M89" s="9" t="s">
         <v>537</v>
@@ -7670,7 +7670,7 @@
         <v>56</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F90" s="6" t="s">
         <v>436</v>
@@ -7682,22 +7682,22 @@
         <v>110</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="J90" s="9" t="s">
         <v>631</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="M90" s="9" t="s">
         <v>538</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
@@ -7723,7 +7723,7 @@
         <v>110</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>332</v>
@@ -7735,7 +7735,7 @@
         <v>110</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="M91" s="9" t="s">
         <v>539</v>
@@ -7758,7 +7758,7 @@
         <v>21</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F92" s="6" t="s">
         <v>438</v>
@@ -7776,10 +7776,10 @@
         <v>633</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="M92" s="9" t="s">
         <v>540</v>
@@ -7802,7 +7802,7 @@
         <v>247</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F93" s="6" t="s">
         <v>439</v>
@@ -7811,7 +7811,7 @@
         <v>110</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>334</v>
@@ -7820,16 +7820,16 @@
         <v>634</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="M93" s="9" t="s">
         <v>541</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
@@ -7846,7 +7846,7 @@
         <v>89</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F94" s="6" t="s">
         <v>440</v>
@@ -7864,10 +7864,10 @@
         <v>108</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="M94" s="9" t="s">
         <v>542</v>
@@ -7890,7 +7890,7 @@
         <v>25</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F95" s="6" t="s">
         <v>441</v>
@@ -7911,13 +7911,13 @@
         <v>110</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="M95" s="9" t="s">
         <v>543</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -7934,7 +7934,7 @@
         <v>79</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F96" s="6" t="s">
         <v>442</v>
@@ -7943,7 +7943,7 @@
         <v>110</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>337</v>
@@ -7955,13 +7955,13 @@
         <v>110</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="M96" s="9" t="s">
         <v>544</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="132" x14ac:dyDescent="0.3">
@@ -7978,7 +7978,7 @@
         <v>47</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F97" s="6" t="s">
         <v>443</v>
@@ -7987,25 +7987,25 @@
         <v>110</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="I97" s="4" t="s">
         <v>338</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>637</v>
+        <v>1007</v>
       </c>
       <c r="K97" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="M97" s="9" t="s">
         <v>545</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -8022,7 +8022,7 @@
         <v>57</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F98" s="6" t="s">
         <v>444</v>
@@ -8037,19 +8037,19 @@
         <v>339</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>638</v>
+        <v>1008</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="M98" s="9" t="s">
         <v>546</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="66" x14ac:dyDescent="0.3">
@@ -8060,13 +8060,13 @@
         <v>223</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D99" s="6" t="s">
         <v>84</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F99" s="6" t="s">
         <v>445</v>
@@ -8087,7 +8087,7 @@
         <v>110</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="M99" s="9" t="s">
         <v>547</v>
@@ -8104,13 +8104,13 @@
         <v>223</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D100" s="6" t="s">
         <v>248</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F100" s="6" t="s">
         <v>446</v>
@@ -8125,13 +8125,13 @@
         <v>341</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="K100" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="M100" s="9" t="s">
         <v>548</v>
@@ -8154,7 +8154,7 @@
         <v>43</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F101" s="6" t="s">
         <v>447</v>
@@ -8169,13 +8169,13 @@
         <v>342</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="K101" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="M101" s="9" t="s">
         <v>549</v>
@@ -8192,13 +8192,13 @@
         <v>223</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D102" s="6" t="s">
         <v>53</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F102" s="6" t="s">
         <v>448</v>
@@ -8213,13 +8213,13 @@
         <v>343</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="K102" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="M102" s="9" t="s">
         <v>550</v>
@@ -8242,7 +8242,7 @@
         <v>88</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F103" s="6" t="s">
         <v>449</v>
@@ -8257,13 +8257,13 @@
         <v>344</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="K103" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="M103" s="10" t="s">
         <v>110</v>
@@ -8280,13 +8280,13 @@
         <v>223</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D104" s="6" t="s">
         <v>93</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F104" s="6" t="s">
         <v>450</v>
@@ -8301,13 +8301,13 @@
         <v>110</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="K104" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="M104" s="9" t="s">
         <v>551</v>
@@ -8324,13 +8324,13 @@
         <v>223</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D105" s="6" t="s">
         <v>87</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F105" s="6" t="s">
         <v>451</v>
@@ -8345,13 +8345,13 @@
         <v>345</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="M105" s="9" t="s">
         <v>552</v>
@@ -8374,7 +8374,7 @@
         <v>22</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F106" s="6" t="s">
         <v>452</v>
@@ -8392,10 +8392,10 @@
         <v>100</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="M106" s="9" t="s">
         <v>553</v>
@@ -8418,7 +8418,7 @@
         <v>249</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="F107" s="6" t="s">
         <v>453</v>
@@ -8433,19 +8433,19 @@
         <v>347</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="K107" s="10" t="s">
         <v>110</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="M107" s="9" t="s">
         <v>554</v>
       </c>
       <c r="N107" s="10" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
@@ -8462,7 +8462,7 @@
         <v>250</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="F108" s="6" t="s">
         <v>454</v>
@@ -8477,13 +8477,13 @@
         <v>348</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="K108" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="M108" s="9" t="s">
         <v>555</v>
@@ -8506,7 +8506,7 @@
         <v>75</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F109" s="6" t="s">
         <v>75</v>
@@ -8521,13 +8521,13 @@
         <v>349</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="K109" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="M109" s="9" t="s">
         <v>556</v>
@@ -8544,13 +8544,13 @@
         <v>223</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D110" s="6" t="s">
         <v>82</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F110" s="6" t="s">
         <v>455</v>
@@ -8565,19 +8565,19 @@
         <v>350</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="M110" s="9" t="s">
         <v>557</v>
       </c>
       <c r="N110" s="10" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
@@ -8588,13 +8588,13 @@
         <v>223</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D111" s="6" t="s">
         <v>60</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="F111" s="6" t="s">
         <v>456</v>
@@ -8609,13 +8609,13 @@
         <v>351</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="K111" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="M111" s="9" t="s">
         <v>558</v>
@@ -8638,7 +8638,7 @@
         <v>64</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F112" s="6" t="s">
         <v>457</v>
@@ -8647,19 +8647,19 @@
         <v>110</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>352</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="K112" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="M112" s="9" t="s">
         <v>559</v>
@@ -8682,7 +8682,7 @@
         <v>77</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F113" s="6" t="s">
         <v>458</v>
@@ -8697,19 +8697,19 @@
         <v>353</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="K113" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="M113" s="17" t="s">
         <v>559</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
@@ -8720,13 +8720,13 @@
         <v>223</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D114" s="6" t="s">
         <v>41</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F114" s="6" t="s">
         <v>459</v>
@@ -8741,13 +8741,13 @@
         <v>354</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="K114" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="M114" s="9" t="s">
         <v>560</v>
@@ -8764,16 +8764,16 @@
         <v>223</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>251</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>110</v>
@@ -8785,13 +8785,13 @@
         <v>355</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="K115" s="10" t="s">
         <v>111</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="M115" s="9" t="s">
         <v>477</v>
@@ -8808,13 +8808,13 @@
         <v>223</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D116" s="6" t="s">
         <v>252</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F116" s="6" t="s">
         <v>460</v>
@@ -8829,13 +8829,13 @@
         <v>356</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="K116" s="14" t="s">
         <v>110</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="M116" s="9" t="s">
         <v>561</v>
@@ -8846,16 +8846,16 @@
     </row>
     <row r="117" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B117" s="4" t="s">
         <v>223</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="F117" s="16" t="s">
         <v>110</v>
@@ -8864,7 +8864,7 @@
         <v>110</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="J117" s="11" t="s">
         <v>110</v>
@@ -9025,7 +9025,7 @@
     <hyperlink ref="J38" r:id="rId138" display="https://www.linkedin.com/in/harshul-yagnik-81a6a022/" xr:uid="{683E4E91-B763-4226-99B6-F3E30837AD4B}"/>
     <hyperlink ref="J21" r:id="rId139" display="https://www.linkedin.com/in/brinda-patel-652073252" xr:uid="{791133CF-E0A2-4B6D-8618-AC19B4D3A9FA}"/>
     <hyperlink ref="J28" r:id="rId140" xr:uid="{F8104DB3-2B23-47B7-B622-17690E08D84A}"/>
-    <hyperlink ref="J97" r:id="rId141" display="https://www.linkedin.com/in/sagarkumar-patel-0bb94bb5/" xr:uid="{B357E631-0C5E-406B-9B45-A421DE003AD4}"/>
+    <hyperlink ref="J97" r:id="rId141" xr:uid="{B357E631-0C5E-406B-9B45-A421DE003AD4}"/>
     <hyperlink ref="J70" r:id="rId142" display="http://www.linkedin.com/in/neha-chauhan22" xr:uid="{E7A9417A-8B16-4D59-A23C-B258564D85D5}"/>
     <hyperlink ref="J22" r:id="rId143" xr:uid="{895691E5-0B23-47DD-9A36-18923B4FD652}"/>
     <hyperlink ref="J39" r:id="rId144" display="https://www.linkedin.com/public-profile/settings?trk=d_flagship3_profile_self_view_public_profile" xr:uid="{E4C32594-CCCB-41B2-AE51-AE67F83944BE}"/>
@@ -9034,7 +9034,7 @@
     <hyperlink ref="J24" r:id="rId147" display="https://www.linkedin.com/in/dhara-patel-839488138" xr:uid="{27C9FC8C-0A44-49AE-8688-8690C8579833}"/>
     <hyperlink ref="J26" r:id="rId148" display="https://www.linkedin.com/in/dharmendrasinh-chauhan-073a491a4/" xr:uid="{D50E69C7-4F51-4D1B-90EC-FE9F9A44906E}"/>
     <hyperlink ref="J90" r:id="rId149" display="https://www.linkedin.com/in/rajnik-katriya/" xr:uid="{3AEC1C40-35D9-4AE3-A7E8-9E58FA2C8E43}"/>
-    <hyperlink ref="J98" r:id="rId150" display="https://www.linkedin.com/in/sanket-suthar-544a69210/" xr:uid="{6137F2DC-1F93-4037-B861-A959BDB6DCE6}"/>
+    <hyperlink ref="J98" r:id="rId150" xr:uid="{6137F2DC-1F93-4037-B861-A959BDB6DCE6}"/>
     <hyperlink ref="J53" r:id="rId151" display="http://www.linkedin.com/in/kundan-patel-b9508b27b" xr:uid="{D4BB537A-7CA1-4F2B-9985-F5921034561E}"/>
     <hyperlink ref="J81" r:id="rId152" xr:uid="{BFFCC995-B6DF-474C-93AA-BDF180E05422}"/>
     <hyperlink ref="J111" r:id="rId153" display="https://www.linkedin.com/in/vidisha-pradhan-733a1b63/" xr:uid="{06E43119-E5BC-45C4-9126-F192D3006C5B}"/>

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4518248c6cd0c0d5/Desktop/CSPIT_NEW_2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motat\OneDrive\Desktop\CSPIT_NEW_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="6_{42F40C5C-83DD-423A-A0F7-83E3ED73F5A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A7114F75-8C6F-4D5D-8825-CB85622AF32D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1998F46-14D8-44A1-808C-90E3F11C55C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1635" uniqueCount="1009">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="1008">
   <si>
     <t>Name</t>
   </si>
@@ -63,18 +63,6 @@
   </si>
   <si>
     <t>Website</t>
-  </si>
-  <si>
-    <t>RANDHAWA KAWALJITSINGH MANSINGH</t>
-  </si>
-  <si>
-    <t>DHARMENDRASINH VIRENDRASINH CHAUHAN</t>
-  </si>
-  <si>
-    <t>ASIFIQBAL YAVARMIYA THAKOR</t>
-  </si>
-  <si>
-    <t>JAY KIRITKUMAR BHAVSAR</t>
   </si>
   <si>
     <t>Electrical Power system, Power system Dynamics, Power system Protection</t>
@@ -369,339 +357,6 @@
   </si>
   <si>
     <t>N.A</t>
-  </si>
-  <si>
-    <t>AAYUSHI PUSHPAKANT CHAUDHARI</t>
-  </si>
-  <si>
-    <t>ABHISHEK SWARNKAR</t>
-  </si>
-  <si>
-    <t>ABHISHEK DEVENDRAKUMAR PATEL</t>
-  </si>
-  <si>
-    <t>AKASH VISHNUPRASAD VYAS</t>
-  </si>
-  <si>
-    <t>AKSHITA DASHARATH KADAM</t>
-  </si>
-  <si>
-    <t>AMIT RAMANLAL THAKKAR</t>
-  </si>
-  <si>
-    <t>AMIT KUMAR</t>
-  </si>
-  <si>
-    <t>ANAND PURSHOTAMBHAI PATEL</t>
-  </si>
-  <si>
-    <t>ANERI KILLOL PANDYA</t>
-  </si>
-  <si>
-    <t>ANKURBHAI HARSHADBHAI PATEL</t>
-  </si>
-  <si>
-    <t>ARPITA JIGNESHKUMAR SHAH</t>
-  </si>
-  <si>
-    <t>ARPITA PINALKUMAR PATEL</t>
-  </si>
-  <si>
-    <t>ASHWINKUMAR BHANUPRASAD MAKWANA</t>
-  </si>
-  <si>
-    <t>AVANI KHOKHARIYA</t>
-  </si>
-  <si>
-    <t>BHARGAV BHARATBHAI SHOBHANA</t>
-  </si>
-  <si>
-    <t>BHAVIN HARESHKUMAR MEHTA</t>
-  </si>
-  <si>
-    <t>BIMAL HARIVADAN PATEL</t>
-  </si>
-  <si>
-    <t>BRIJESH LAXMANBHAI KUNDALIYA</t>
-  </si>
-  <si>
-    <t>BRINDA PANKAJBHAI PATEL</t>
-  </si>
-  <si>
-    <t>DATTATRAYA GANPATRAO SUBHEDAR</t>
-  </si>
-  <si>
-    <t>DEEPKUMAR RAMESHBHAI KOTHADIYA</t>
-  </si>
-  <si>
-    <t>DHARA MILAN PATEL</t>
-  </si>
-  <si>
-    <t>DHARA DINESHKUMAR SOLANKI</t>
-  </si>
-  <si>
-    <t>DHARMENDRASINH GAJENDRASINH RATHOD</t>
-  </si>
-  <si>
-    <t>DHAVALKUMAR AMBALAL BHOI</t>
-  </si>
-  <si>
-    <t>DHAVALKUMAR SUNILBHAI PATEL</t>
-  </si>
-  <si>
-    <t>DHEERAJ KUMAR SHRINGI</t>
-  </si>
-  <si>
-    <t>DIPALKUMAR M PATEL</t>
-  </si>
-  <si>
-    <t>GAJANAN S PATANGE</t>
-  </si>
-  <si>
-    <t>GARGI KETUL RAY</t>
-  </si>
-  <si>
-    <t>GAURANG ARVINDBHAI PATEL</t>
-  </si>
-  <si>
-    <t>GAURAV KUMAR RAJ KUMAR GAUTAM</t>
-  </si>
-  <si>
-    <t>HARDIK P MODI</t>
-  </si>
-  <si>
-    <t>HARMISH GOPALBHAI BHATT</t>
-  </si>
-  <si>
-    <t>HARSHUL YAGNESHBHAI YAGNIK</t>
-  </si>
-  <si>
-    <t>HEMANG ANILKUMAR THAKAR</t>
-  </si>
-  <si>
-    <t>HEMANGI GAURANGBHAI OZA</t>
-  </si>
-  <si>
-    <t>HEMANT NANDLALBHAI YADAV</t>
-  </si>
-  <si>
-    <t>JALPA BHAVIK ARDESHANA</t>
-  </si>
-  <si>
-    <t>JALPESH HARKISHANBHAI VASA</t>
-  </si>
-  <si>
-    <t>JIGAR SUBODHCHANDRA SARDA</t>
-  </si>
-  <si>
-    <t>JIGNESHKUMAR SUBHASHBHAI PATEL</t>
-  </si>
-  <si>
-    <t>JIVANADHAR ASHOKKUMAR JOSHI</t>
-  </si>
-  <si>
-    <t>KAMLESH V CHAUHAN</t>
-  </si>
-  <si>
-    <t>KANWAR PREET KAUR</t>
-  </si>
-  <si>
-    <t>KILLOL VISHNUPRASAD PANDYA</t>
-  </si>
-  <si>
-    <t>KRUNALKUMAR JASHVANTBHAI MAHERIYA</t>
-  </si>
-  <si>
-    <t>KUNDAN MOHANBHAI PATEL</t>
-  </si>
-  <si>
-    <t>MADHAV NITINBHAI OZA</t>
-  </si>
-  <si>
-    <t>MADHAV MUKUNDBHAI AJWALIA</t>
-  </si>
-  <si>
-    <t>MAHAMMADSOAIB MAHEBOOBMIYA SAIYAD</t>
-  </si>
-  <si>
-    <t>MANTHAN SUDHIRBHAI MANAVADARIA</t>
-  </si>
-  <si>
-    <t>MARTIN KANTILAL PARMAR</t>
-  </si>
-  <si>
-    <t>MAULIK V SHAH</t>
-  </si>
-  <si>
-    <t>MAYURI JAMANADAS POPAT</t>
-  </si>
-  <si>
-    <t>MAYURKUMAR PRAVINCHANDRA SUTARIA</t>
-  </si>
-  <si>
-    <t>MEGHA JEMIN DESAI</t>
-  </si>
-  <si>
-    <t>MEHULKUMAR PRAVINBHAI KATAKIYA</t>
-  </si>
-  <si>
-    <t>MIHIR A BHATT</t>
-  </si>
-  <si>
-    <t>MIHIR SIDDHARTH MEHTA</t>
-  </si>
-  <si>
-    <t>MIKINKBHAI RAKESHBHAI PATEL</t>
-  </si>
-  <si>
-    <t>MIRAL MUKESHBHAI DESAI</t>
-  </si>
-  <si>
-    <t>MRUGENDRASINH Laxmansinh RAHEVAR</t>
-  </si>
-  <si>
-    <t>MUSKAN CHANDRAKANT DAVE</t>
-  </si>
-  <si>
-    <t>NEHA HIRENSINH RAJPUT</t>
-  </si>
-  <si>
-    <t>NIKITABEN NIRAV BHATT</t>
-  </si>
-  <si>
-    <t>NILAYKUMAR ARVINDBHAI PATEL</t>
-  </si>
-  <si>
-    <t>NIRAV HASMUKHRAI BHATT</t>
-  </si>
-  <si>
-    <t>NIRPEX AMRUTLAL PATEL</t>
-  </si>
-  <si>
-    <t>NISHANT PUSHPAK KOSHTI</t>
-  </si>
-  <si>
-    <t>NISHAT ANVARHUSEAN SHAIKH</t>
-  </si>
-  <si>
-    <t>NIYATI VIJAYBHAI PATEL</t>
-  </si>
-  <si>
-    <t>PARMANANDKUMAR SAHDEVBHAI PATEL</t>
-  </si>
-  <si>
-    <t>PARTH DILIPKUMAR SHAH</t>
-  </si>
-  <si>
-    <t>PAVITRA DILIPBHAI MODI</t>
-  </si>
-  <si>
-    <t>PINAL CHIRAG PATEL</t>
-  </si>
-  <si>
-    <t>PINAL MUKESHBHAI HANSORA</t>
-  </si>
-  <si>
-    <t>POONAM JAYANTIBHAI THANKI</t>
-  </si>
-  <si>
-    <t>PRATIK BHANUBHAI PANCHAL</t>
-  </si>
-  <si>
-    <t>MOCHI PRATIK KANTILAL</t>
-  </si>
-  <si>
-    <t>PRITESHKUMAR NATAVARLAL PRAJAPATI</t>
-  </si>
-  <si>
-    <t>PRIYANKA PRANAV PATEL</t>
-  </si>
-  <si>
-    <t>PUNIT BABUBHAI PATEL</t>
-  </si>
-  <si>
-    <t>PURVI HARISHKUMAR PRAJAPATI</t>
-  </si>
-  <si>
-    <t>RAJNIK SAVAJBHAI KATRIYA</t>
-  </si>
-  <si>
-    <t>RAVIKUMAR VIJAYBHAI PATEL</t>
-  </si>
-  <si>
-    <t>RIKITA JITENDRAKUMAR CHOKSHI</t>
-  </si>
-  <si>
-    <t>RITESH PRAVINBHAI PATEL</t>
-  </si>
-  <si>
-    <t>RONAKKUMAR NATAVARLAL PATEL</t>
-  </si>
-  <si>
-    <t>RONAKKUMAR RAJNIKANT PATEL</t>
-  </si>
-  <si>
-    <t>SAGAR RAMCHANDRA CHOKSHI</t>
-  </si>
-  <si>
-    <t>SAGARKUMAR BALDEVBHAI PATEL</t>
-  </si>
-  <si>
-    <t>SANKETKUMAR BHARATBHAI SUTHAR</t>
-  </si>
-  <si>
-    <t>SARITA SANDIPKUMAR THUMMAR</t>
-  </si>
-  <si>
-    <t>SATAYU CHANDRASHEKHAR TRAVADI</t>
-  </si>
-  <si>
-    <t>SNEHA ASHVINKUMAR PADHIAR</t>
-  </si>
-  <si>
-    <t>SPOORTHY V</t>
-  </si>
-  <si>
-    <t>SRUSHTI RAKESHKUMAR GAJJAR</t>
-  </si>
-  <si>
-    <t>TIGMANSHU JAYESHBHAI PATEL</t>
-  </si>
-  <si>
-    <t>TRUSHA RONAKKUMAR PATEL</t>
-  </si>
-  <si>
-    <t>TRUSHIT KIRTIKUMAR UPADHYAYA</t>
-  </si>
-  <si>
-    <t>UPESH PARBHUBHAI PATEL</t>
-  </si>
-  <si>
-    <t>VAIBHAVI YASHWANTBHAI PATEL</t>
-  </si>
-  <si>
-    <t>VAISHALI HARDIK KORIA</t>
-  </si>
-  <si>
-    <t>VIBHABEN NARENDRABHAI PARMAR</t>
-  </si>
-  <si>
-    <t>VIDISHA MUKUNDBHAI PRADHAN</t>
-  </si>
-  <si>
-    <t>VIJAYKUMAR PREMJIBHAI CHAUDHARY</t>
-  </si>
-  <si>
-    <t>VIJAYKUMAR RAMANLAL PANCHAL</t>
-  </si>
-  <si>
-    <t>VIKAS HASMUKHBHAI PANCHAL</t>
-  </si>
-  <si>
-    <t>VIPUL HARSHADBHAI VYAS</t>
-  </si>
-  <si>
-    <t>VIRAL DHIRAJLAL PANARA</t>
   </si>
   <si>
     <t>ASSISTANT PROFESSOR</t>
@@ -2180,9 +1835,6 @@
     <t>ttps://sites.google.com/d/1xJdh9zyy2j_6Kqqo0EhVO3vXa0K7NAosJ/p/1bp6QPxndoLp5nt6i8NIFWq2z3rJJ1i2i/edit</t>
   </si>
   <si>
-    <t>VISHAL KANAIYALAL SHAH</t>
-  </si>
-  <si>
     <t>M. Tech., Ph. D. (Pursuing)</t>
   </si>
   <si>
@@ -3226,6 +2878,351 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/sanket-suthar-544a69210/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Aayushi Chaudhari  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Abhishek Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Akash Vyas  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Akshita Kadam  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Amit Thakkar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Amit Kumar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Anand Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Aneri Pandya  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ankurbhai Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Arpita Shah  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Arpita Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Ashwinkumar Makwana  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Asifiqbal Thakor  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Avani Khokhariya  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Bhargav Shobhana  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Bhavin Mehta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Bimal Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Brijesh Kundaliya  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Brinda Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Dattatraya Subhedar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Deepkumar Kothadiya  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Dhara Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. Dhara Solanki  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Dharmendrasinh Rathod  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Dhavalkumar Bhoi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Dhavalkumar Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Dheeraj Shringi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Dipalkumar Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Gajanan Patange  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Gargi Ray  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gaurang Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Gaurav Gautam  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Harmish Bhatt  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Harshul Yagnik  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Hemang Thakar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Hemangi Oza  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Hemant Yadav  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Jalpa Ardeshana  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Jalpesh Vasa  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Jay Bhavsar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Jigar Sarda  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Jigneshkumar Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Jivanadhar Joshi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Kamlesh Chauhan  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Kanwar Kaur  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Kawaljitsingh Randhawa  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Killol Pandya  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Krunalkumar Maheriya  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Kundan Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Madhav Oza  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Madhav Ajwalia  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Mahammadsoaib Saiyad  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Manthan Manavadaria  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Martin Parmar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Maulik Shah  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Mayuri Popat  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Mayurkumar Sutaria  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Megha Desai  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Mehulkumar Katakiya  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Mihir Bhatt  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Mihir Mehta  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Mikinkbhai Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Miral Desai  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Mrugendrasinh Rahevar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Muskan Dave  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Neha Rajput  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Nilaykumar Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Nirav Bhatt  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Nirpex Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Nishant Koshti  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Nishat Shaikh  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Niyati Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Parmanandkumar Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Pavitra Modi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. Pinal Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Pinal Hansora  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Pratik Panchal  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Pratik Mochi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Priteshkumar Prajapati  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Priyanka Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Punit Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Rajnik Katriya  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ravikumar Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Rikita Chokshi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Ritesh Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Ronakkumar Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Sagar Chokshi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Sagarkumar Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Sanketkumar Suthar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Sarita Thummar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Satayu Travadi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Sneha Padhiar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Spoorthy V  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Srushti Gajjar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Tigmanshu Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Trusha Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Trushit Upadhyaya  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Upesh Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Vaibhavi Patel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mrs. Vaishali Koria  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Vibhaben Parmar  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms. Vidisha Pradhan  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Vijaykumar Panchal  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vikas Panchal  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vipul Vyas  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Viral Panara  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr. Vishal Shah  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Vijaykumar Chaudhary  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Purvi Prajapati  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Poonam Thanki  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Parth Shah  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Nikitaben Bhatt  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Hardik Modi  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Dharmendrasinh Chauhan  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Abhishek Swarnkar  </t>
   </si>
 </sst>
 </file>
@@ -3723,8 +3720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E97" zoomScale="115" workbookViewId="0">
-      <selection activeCell="J98" sqref="J98"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3757,7 +3754,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>887</v>
+        <v>771</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -3775,5111 +3772,5114 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>694</v>
+        <v>578</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>807</v>
+        <v>691</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>886</v>
+        <v>770</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>112</v>
+        <v>893</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>229</v>
+        <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>911</v>
+        <v>795</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>357</v>
+        <v>242</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>253</v>
+        <v>138</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>890</v>
+        <v>774</v>
       </c>
       <c r="K2" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>695</v>
+        <v>579</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>470</v>
+        <v>355</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>113</v>
+        <v>1007</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>951</v>
+        <v>835</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>358</v>
+        <v>243</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>255</v>
+        <v>140</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>891</v>
+        <v>775</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>696</v>
+        <v>580</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>471</v>
+        <v>356</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>850</v>
+        <v>734</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>114</v>
+        <v>894</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>676</v>
+        <v>560</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>938</v>
+        <v>822</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>359</v>
+        <v>244</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>254</v>
+        <v>139</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>892</v>
+        <v>776</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>653</v>
+        <v>538</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>697</v>
+        <v>581</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>472</v>
+        <v>357</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>115</v>
+        <v>895</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>952</v>
+        <v>836</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>360</v>
+        <v>245</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>256</v>
+        <v>141</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>889</v>
+        <v>773</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>698</v>
+        <v>582</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>473</v>
+        <v>358</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>116</v>
+        <v>896</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>939</v>
+        <v>823</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>361</v>
+        <v>246</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>257</v>
+        <v>142</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>888</v>
+        <v>772</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>699</v>
+        <v>583</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>474</v>
+        <v>359</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>117</v>
+        <v>897</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>230</v>
+        <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>940</v>
+        <v>824</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>362</v>
+        <v>247</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>461</v>
+        <v>346</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>259</v>
+        <v>144</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>893</v>
+        <v>777</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>700</v>
+        <v>584</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>475</v>
+        <v>360</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>851</v>
+        <v>735</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>118</v>
+        <v>898</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>562</v>
+        <v>447</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>363</v>
+        <v>248</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>258</v>
+        <v>143</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>894</v>
+        <v>778</v>
       </c>
       <c r="K8" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>701</v>
+        <v>585</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N8" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>119</v>
+        <v>899</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>677</v>
+        <v>561</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>953</v>
+        <v>837</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>364</v>
+        <v>249</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>260</v>
+        <v>145</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>895</v>
+        <v>779</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>702</v>
+        <v>586</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>476</v>
+        <v>361</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>852</v>
+        <v>736</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>120</v>
+        <v>900</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>912</v>
+        <v>796</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>365</v>
+        <v>250</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>261</v>
+        <v>146</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>896</v>
+        <v>780</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>703</v>
+        <v>587</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>477</v>
+        <v>362</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>121</v>
+        <v>901</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>676</v>
+        <v>560</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>232</v>
+        <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>954</v>
+        <v>838</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>815</v>
+        <v>699</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>262</v>
+        <v>147</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>654</v>
+        <v>539</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>704</v>
+        <v>588</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>477</v>
+        <v>362</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="198" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>122</v>
+        <v>902</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>913</v>
+        <v>797</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>366</v>
+        <v>251</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>825</v>
+        <v>709</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>686</v>
+        <v>570</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>567</v>
+        <v>452</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>705</v>
+        <v>589</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>478</v>
+        <v>363</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>853</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>123</v>
+        <v>903</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>982</v>
+        <v>866</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>367</v>
+        <v>252</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>462</v>
+        <v>347</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>687</v>
+        <v>571</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>706</v>
+        <v>590</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>477</v>
+        <v>362</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>854</v>
+        <v>738</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>124</v>
+        <v>904</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>914</v>
+        <v>798</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>368</v>
+        <v>253</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>826</v>
+        <v>710</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>263</v>
+        <v>148</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>568</v>
+        <v>453</v>
       </c>
       <c r="K14" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>707</v>
+        <v>591</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>479</v>
+        <v>364</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>855</v>
+        <v>739</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>14</v>
+        <v>905</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>983</v>
+        <v>867</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>369</v>
+        <v>254</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>264</v>
+        <v>149</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>569</v>
+        <v>454</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>708</v>
+        <v>592</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>480</v>
+        <v>365</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>125</v>
+        <v>906</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>941</v>
+        <v>825</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>370</v>
+        <v>255</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>265</v>
+        <v>150</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>570</v>
+        <v>455</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:14" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>126</v>
+        <v>907</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>897</v>
+        <v>781</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>816</v>
+        <v>700</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>827</v>
+        <v>711</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="K17" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>709</v>
+        <v>593</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>481</v>
+        <v>366</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>856</v>
+        <v>740</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>127</v>
+        <v>908</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>955</v>
+        <v>839</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>371</v>
+        <v>256</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>266</v>
+        <v>151</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>571</v>
+        <v>456</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>710</v>
+        <v>594</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>482</v>
+        <v>367</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>857</v>
+        <v>741</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>128</v>
+        <v>909</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>984</v>
+        <v>868</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>372</v>
+        <v>257</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>463</v>
+        <v>348</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>267</v>
+        <v>152</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>572</v>
+        <v>457</v>
       </c>
       <c r="K19" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>711</v>
+        <v>595</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>483</v>
+        <v>368</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>858</v>
+        <v>742</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>129</v>
+        <v>910</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>985</v>
+        <v>869</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>373</v>
+        <v>258</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>268</v>
+        <v>153</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>573</v>
+        <v>458</v>
       </c>
       <c r="K20" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>712</v>
+        <v>596</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>477</v>
+        <v>362</v>
       </c>
       <c r="N20" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>130</v>
+        <v>911</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>942</v>
+        <v>826</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>374</v>
+        <v>259</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>269</v>
+        <v>154</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>574</v>
+        <v>459</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>713</v>
+        <v>597</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>484</v>
+        <v>369</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>131</v>
+        <v>912</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>956</v>
+        <v>840</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>817</v>
+        <v>701</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>464</v>
+        <v>349</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>270</v>
+        <v>155</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K22" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>714</v>
+        <v>598</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>485</v>
+        <v>370</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>132</v>
+        <v>913</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>915</v>
+        <v>799</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>375</v>
+        <v>260</v>
       </c>
       <c r="G23" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>271</v>
+        <v>156</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>575</v>
+        <v>460</v>
       </c>
       <c r="K23" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>715</v>
+        <v>599</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>486</v>
+        <v>371</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>859</v>
+        <v>743</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>133</v>
+        <v>914</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>957</v>
+        <v>841</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>376</v>
+        <v>261</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>272</v>
+        <v>157</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>576</v>
+        <v>461</v>
       </c>
       <c r="K24" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>716</v>
+        <v>600</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>487</v>
+        <v>372</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>134</v>
+        <v>915</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>234</v>
+        <v>119</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>943</v>
+        <v>827</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>377</v>
+        <v>262</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>688</v>
+        <v>572</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>577</v>
+        <v>462</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>655</v>
+        <v>540</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>717</v>
+        <v>601</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>860</v>
+        <v>744</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>13</v>
+        <v>1006</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>958</v>
+        <v>842</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>378</v>
+        <v>263</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>828</v>
+        <v>712</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>273</v>
+        <v>158</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>578</v>
+        <v>463</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>656</v>
+        <v>541</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>718</v>
+        <v>602</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>488</v>
+        <v>373</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>135</v>
+        <v>916</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>676</v>
+        <v>560</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>944</v>
+        <v>828</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>379</v>
+        <v>264</v>
       </c>
       <c r="G27" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>274</v>
+        <v>159</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>579</v>
+        <v>464</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>657</v>
+        <v>542</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>719</v>
+        <v>603</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>489</v>
+        <v>374</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>861</v>
+        <v>745</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>136</v>
+        <v>917</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>916</v>
+        <v>800</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>380</v>
+        <v>265</v>
       </c>
       <c r="G28" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>689</v>
+        <v>573</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>580</v>
+        <v>465</v>
       </c>
       <c r="K28" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>720</v>
+        <v>604</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>478</v>
+        <v>363</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>862</v>
+        <v>746</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>137</v>
+        <v>918</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>917</v>
+        <v>801</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>381</v>
+        <v>266</v>
       </c>
       <c r="G29" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>690</v>
+        <v>574</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>581</v>
+        <v>466</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>721</v>
+        <v>605</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>490</v>
+        <v>375</v>
       </c>
       <c r="N29" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>138</v>
+        <v>919</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>235</v>
+        <v>120</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>898</v>
+        <v>782</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>382</v>
+        <v>267</v>
       </c>
       <c r="G30" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>275</v>
+        <v>160</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>582</v>
+        <v>467</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>722</v>
+        <v>606</v>
       </c>
       <c r="M30" s="17">
         <v>583944</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="31" spans="1:14" ht="237.6" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>139</v>
+        <v>920</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>236</v>
+        <v>121</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>563</v>
+        <v>448</v>
       </c>
       <c r="F31" s="6" t="s">
-        <v>383</v>
+        <v>268</v>
       </c>
       <c r="G31" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>829</v>
+        <v>713</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>276</v>
+        <v>161</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>583</v>
+        <v>468</v>
       </c>
       <c r="K31" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>723</v>
+        <v>607</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>491</v>
+        <v>376</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:14" ht="264" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>140</v>
+        <v>921</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>959</v>
+        <v>843</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>384</v>
+        <v>269</v>
       </c>
       <c r="G32" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>277</v>
+        <v>162</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>584</v>
+        <v>469</v>
       </c>
       <c r="K32" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>724</v>
+        <v>608</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>804</v>
+        <v>688</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="198" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>141</v>
+        <v>922</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>237</v>
+        <v>122</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>927</v>
+        <v>811</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>385</v>
+        <v>270</v>
       </c>
       <c r="G33" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>278</v>
+        <v>163</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>585</v>
+        <v>470</v>
       </c>
       <c r="K33" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>725</v>
+        <v>609</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>805</v>
+        <v>689</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>863</v>
+        <v>747</v>
       </c>
     </row>
     <row r="34" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>142</v>
+        <v>923</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>899</v>
+        <v>783</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>386</v>
+        <v>271</v>
       </c>
       <c r="G34" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>830</v>
+        <v>714</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>279</v>
+        <v>164</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>586</v>
+        <v>471</v>
       </c>
       <c r="K34" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L34" s="9" t="s">
-        <v>726</v>
+        <v>610</v>
       </c>
       <c r="M34" s="9" t="s">
-        <v>492</v>
+        <v>377</v>
       </c>
       <c r="N34" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>143</v>
+        <v>924</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>900</v>
+        <v>784</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>387</v>
+        <v>272</v>
       </c>
       <c r="G35" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>280</v>
+        <v>165</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>587</v>
+        <v>472</v>
       </c>
       <c r="K35" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M35" s="9" t="s">
-        <v>493</v>
+        <v>378</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>144</v>
+        <v>1005</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C36" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>808</v>
+        <v>692</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>986</v>
+        <v>870</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>388</v>
+        <v>273</v>
       </c>
       <c r="G36" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>281</v>
+        <v>166</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>588</v>
+        <v>473</v>
       </c>
       <c r="K36" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>727</v>
+        <v>611</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>494</v>
+        <v>379</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>864</v>
+        <v>748</v>
       </c>
     </row>
     <row r="37" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>145</v>
+        <v>925</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C37" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>960</v>
+        <v>844</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>389</v>
+        <v>274</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>282</v>
+        <v>167</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>589</v>
+        <v>474</v>
       </c>
       <c r="K37" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>728</v>
+        <v>612</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>495</v>
+        <v>380</v>
       </c>
       <c r="N37" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>146</v>
+        <v>926</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>676</v>
+        <v>560</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>945</v>
+        <v>829</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>818</v>
+        <v>702</v>
       </c>
       <c r="G38" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>283</v>
+        <v>168</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>590</v>
+        <v>475</v>
       </c>
       <c r="K38" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>729</v>
+        <v>613</v>
       </c>
       <c r="M38" s="9" t="s">
-        <v>496</v>
+        <v>381</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>147</v>
+        <v>927</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>676</v>
+        <v>560</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>946</v>
+        <v>830</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>390</v>
+        <v>275</v>
       </c>
       <c r="G39" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>284</v>
+        <v>169</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>591</v>
+        <v>476</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>730</v>
+        <v>614</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N39" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>148</v>
+        <v>928</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>928</v>
+        <v>812</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>391</v>
+        <v>276</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>592</v>
+        <v>477</v>
       </c>
       <c r="K40" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>731</v>
+        <v>615</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>497</v>
+        <v>382</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>149</v>
+        <v>929</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>676</v>
+        <v>560</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>991</v>
+        <v>875</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>392</v>
+        <v>277</v>
       </c>
       <c r="G41" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>831</v>
+        <v>715</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>285</v>
+        <v>170</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>593</v>
+        <v>478</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>732</v>
+        <v>616</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>498</v>
+        <v>383</v>
       </c>
       <c r="N41" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>150</v>
+        <v>930</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>901</v>
+        <v>785</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>393</v>
+        <v>278</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>286</v>
+        <v>171</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>594</v>
+        <v>479</v>
       </c>
       <c r="K42" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>733</v>
+        <v>617</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>499</v>
+        <v>384</v>
       </c>
       <c r="N42" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>151</v>
+        <v>931</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>676</v>
+        <v>560</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>930</v>
+        <v>814</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>394</v>
+        <v>279</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>287</v>
+        <v>172</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>595</v>
+        <v>480</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>734</v>
+        <v>618</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>500</v>
+        <v>385</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>865</v>
+        <v>749</v>
       </c>
     </row>
     <row r="44" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>15</v>
+        <v>932</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>929</v>
+        <v>813</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>395</v>
+        <v>280</v>
       </c>
       <c r="G44" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>288</v>
+        <v>173</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>596</v>
+        <v>481</v>
       </c>
       <c r="K44" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>735</v>
+        <v>619</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>501</v>
+        <v>386</v>
       </c>
       <c r="N44" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="45" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>152</v>
+        <v>933</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C45" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>947</v>
+        <v>831</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>396</v>
+        <v>281</v>
       </c>
       <c r="G45" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>289</v>
+        <v>174</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>597</v>
+        <v>482</v>
       </c>
       <c r="K45" s="9" t="s">
-        <v>658</v>
+        <v>543</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>736</v>
+        <v>620</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>502</v>
+        <v>387</v>
       </c>
       <c r="N45" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:14" ht="290.39999999999998" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>153</v>
+        <v>934</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>679</v>
+        <v>563</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>961</v>
+        <v>845</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>397</v>
+        <v>282</v>
       </c>
       <c r="G46" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>290</v>
+        <v>175</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K46" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>737</v>
+        <v>621</v>
       </c>
       <c r="M46" s="9" t="s">
-        <v>503</v>
+        <v>388</v>
       </c>
       <c r="N46" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="47" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>154</v>
+        <v>935</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>962</v>
+        <v>846</v>
       </c>
       <c r="F47" s="6" t="s">
-        <v>398</v>
+        <v>283</v>
       </c>
       <c r="G47" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>465</v>
+        <v>350</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>291</v>
+        <v>176</v>
       </c>
       <c r="J47" s="9" t="s">
-        <v>598</v>
+        <v>483</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>738</v>
+        <v>622</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="48" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>155</v>
+        <v>936</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>963</v>
+        <v>847</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>399</v>
+        <v>284</v>
       </c>
       <c r="G48" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K48" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>739</v>
+        <v>623</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>477</v>
+        <v>362</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>156</v>
+        <v>937</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C49" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>964</v>
+        <v>848</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>400</v>
+        <v>285</v>
       </c>
       <c r="G49" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>691</v>
+        <v>575</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>599</v>
+        <v>484</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>659</v>
+        <v>544</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>740</v>
+        <v>624</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>504</v>
+        <v>389</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>866</v>
+        <v>750</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>12</v>
+        <v>938</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>965</v>
+        <v>849</v>
       </c>
       <c r="F50" s="6" t="s">
-        <v>401</v>
+        <v>286</v>
       </c>
       <c r="G50" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>832</v>
+        <v>716</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>293</v>
+        <v>178</v>
       </c>
       <c r="J50" s="9" t="s">
-        <v>600</v>
+        <v>485</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>741</v>
+        <v>625</v>
       </c>
       <c r="M50" s="9" t="s">
-        <v>505</v>
+        <v>390</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>867</v>
+        <v>751</v>
       </c>
     </row>
     <row r="51" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>157</v>
+        <v>939</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C51" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>809</v>
+        <v>693</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>966</v>
+        <v>850</v>
       </c>
       <c r="F51" s="6" t="s">
-        <v>402</v>
+        <v>287</v>
       </c>
       <c r="G51" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>833</v>
+        <v>717</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>294</v>
+        <v>179</v>
       </c>
       <c r="J51" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L51" s="9" t="s">
-        <v>742</v>
+        <v>626</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>477</v>
+        <v>362</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
-        <v>158</v>
+        <v>940</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>918</v>
+        <v>802</v>
       </c>
       <c r="F52" s="6" t="s">
-        <v>403</v>
+        <v>288</v>
       </c>
       <c r="G52" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H52" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>295</v>
+        <v>180</v>
       </c>
       <c r="J52" s="9" t="s">
-        <v>601</v>
+        <v>486</v>
       </c>
       <c r="K52" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>743</v>
+        <v>627</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N52" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>159</v>
+        <v>941</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>967</v>
+        <v>851</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>404</v>
+        <v>289</v>
       </c>
       <c r="G53" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>296</v>
+        <v>181</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>602</v>
+        <v>487</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>744</v>
+        <v>628</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>506</v>
+        <v>391</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="54" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>160</v>
+        <v>942</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C54" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>968</v>
+        <v>852</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>405</v>
+        <v>290</v>
       </c>
       <c r="G54" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>834</v>
+        <v>718</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>298</v>
+        <v>183</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>603</v>
+        <v>488</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>745</v>
+        <v>629</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>507</v>
+        <v>392</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>161</v>
+        <v>943</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>238</v>
+        <v>123</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>969</v>
+        <v>853</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>406</v>
+        <v>291</v>
       </c>
       <c r="G55" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>835</v>
+        <v>719</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>297</v>
+        <v>182</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>228</v>
+        <v>113</v>
       </c>
       <c r="K55" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>746</v>
+        <v>630</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>508</v>
+        <v>393</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>868</v>
+        <v>752</v>
       </c>
     </row>
     <row r="56" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>162</v>
+        <v>944</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>679</v>
+        <v>563</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>970</v>
+        <v>854</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>819</v>
+        <v>703</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>299</v>
+        <v>184</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="K56" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>747</v>
+        <v>631</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>509</v>
+        <v>394</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>163</v>
+        <v>945</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C57" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>810</v>
+        <v>694</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>987</v>
+        <v>871</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>407</v>
+        <v>292</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>836</v>
+        <v>720</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>300</v>
+        <v>185</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>604</v>
+        <v>489</v>
       </c>
       <c r="K57" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>748</v>
+        <v>632</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>510</v>
+        <v>395</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>869</v>
+        <v>753</v>
       </c>
     </row>
     <row r="58" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>164</v>
+        <v>946</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C58" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>239</v>
+        <v>124</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>919</v>
+        <v>803</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>408</v>
+        <v>293</v>
       </c>
       <c r="G58" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>837</v>
+        <v>721</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>605</v>
+        <v>490</v>
       </c>
       <c r="K58" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>749</v>
+        <v>633</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>511</v>
+        <v>396</v>
       </c>
       <c r="N58" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="356.4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>165</v>
+        <v>947</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>677</v>
+        <v>561</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>902</v>
+        <v>786</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>409</v>
+        <v>294</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H59" s="6" t="s">
-        <v>838</v>
+        <v>722</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>302</v>
+        <v>187</v>
       </c>
       <c r="J59" s="9" t="s">
-        <v>606</v>
+        <v>491</v>
       </c>
       <c r="K59" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L59" s="9" t="s">
-        <v>750</v>
+        <v>634</v>
       </c>
       <c r="M59" s="9" t="s">
-        <v>512</v>
+        <v>397</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="60" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
-        <v>166</v>
+        <v>948</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>240</v>
+        <v>125</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>971</v>
+        <v>855</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>410</v>
+        <v>295</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="J60" s="9" t="s">
-        <v>607</v>
+        <v>492</v>
       </c>
       <c r="K60" s="9" t="s">
-        <v>660</v>
+        <v>545</v>
       </c>
       <c r="L60" s="9" t="s">
-        <v>751</v>
+        <v>635</v>
       </c>
       <c r="M60" s="9" t="s">
-        <v>513</v>
+        <v>398</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>870</v>
+        <v>754</v>
       </c>
     </row>
     <row r="61" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
-        <v>167</v>
+        <v>949</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="C61" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>972</v>
+        <v>856</v>
       </c>
       <c r="F61" s="6" t="s">
-        <v>820</v>
+        <v>704</v>
       </c>
       <c r="G61" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H61" s="6" t="s">
-        <v>839</v>
+        <v>723</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>608</v>
+        <v>493</v>
       </c>
       <c r="K61" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>752</v>
+        <v>636</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>514</v>
+        <v>399</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>168</v>
+        <v>950</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>931</v>
+        <v>815</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>411</v>
+        <v>296</v>
       </c>
       <c r="G62" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>305</v>
+        <v>190</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="K62" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>753</v>
+        <v>637</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>515</v>
+        <v>400</v>
       </c>
       <c r="N62" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>169</v>
+        <v>951</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>811</v>
+        <v>695</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>932</v>
+        <v>816</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>412</v>
+        <v>297</v>
       </c>
       <c r="G63" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H63" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>306</v>
+        <v>191</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>609</v>
+        <v>494</v>
       </c>
       <c r="K63" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>754</v>
+        <v>638</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>516</v>
+        <v>401</v>
       </c>
       <c r="N63" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>170</v>
+        <v>952</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>973</v>
+        <v>857</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>413</v>
+        <v>298</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>307</v>
+        <v>192</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>610</v>
+        <v>495</v>
       </c>
       <c r="K64" s="9" t="s">
-        <v>661</v>
+        <v>546</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>755</v>
+        <v>639</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>477</v>
+        <v>362</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>862</v>
+        <v>746</v>
       </c>
     </row>
     <row r="65" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>171</v>
+        <v>953</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>680</v>
+        <v>564</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>974</v>
+        <v>858</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>414</v>
+        <v>299</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>840</v>
+        <v>724</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>308</v>
+        <v>193</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>611</v>
+        <v>496</v>
       </c>
       <c r="K65" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>756</v>
+        <v>640</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>517</v>
+        <v>402</v>
       </c>
       <c r="N65" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="66" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>172</v>
+        <v>954</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C66" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>988</v>
+        <v>872</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>415</v>
+        <v>300</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>466</v>
+        <v>351</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>309</v>
+        <v>194</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>612</v>
+        <v>497</v>
       </c>
       <c r="K66" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>757</v>
+        <v>641</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>518</v>
+        <v>403</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>871</v>
+        <v>755</v>
       </c>
     </row>
     <row r="67" spans="1:14" ht="277.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>173</v>
+        <v>955</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>989</v>
+        <v>873</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>416</v>
+        <v>301</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>841</v>
+        <v>725</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>310</v>
+        <v>195</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>613</v>
+        <v>498</v>
       </c>
       <c r="K67" s="9" t="s">
-        <v>662</v>
+        <v>547</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>758</v>
+        <v>642</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>519</v>
+        <v>404</v>
       </c>
       <c r="N67" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>174</v>
+        <v>956</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C68" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>920</v>
+        <v>804</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>417</v>
+        <v>302</v>
       </c>
       <c r="G68" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H68" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>311</v>
+        <v>196</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>614</v>
+        <v>499</v>
       </c>
       <c r="K68" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L68" s="9" t="s">
-        <v>759</v>
+        <v>643</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>520</v>
+        <v>405</v>
       </c>
       <c r="N68" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="69" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>175</v>
+        <v>957</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C69" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>241</v>
+        <v>126</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>990</v>
+        <v>874</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>418</v>
+        <v>303</v>
       </c>
       <c r="G69" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H69" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>312</v>
+        <v>197</v>
       </c>
       <c r="J69" s="9" t="s">
-        <v>615</v>
+        <v>500</v>
       </c>
       <c r="K69" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M69" s="9" t="s">
-        <v>477</v>
+        <v>362</v>
       </c>
       <c r="N69" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
-        <v>176</v>
+        <v>958</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D70" s="6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>933</v>
+        <v>817</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>821</v>
+        <v>705</v>
       </c>
       <c r="G70" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>313</v>
+        <v>198</v>
       </c>
       <c r="J70" s="9" t="s">
-        <v>616</v>
+        <v>501</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>760</v>
+        <v>644</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>521</v>
+        <v>406</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>872</v>
+        <v>756</v>
       </c>
     </row>
     <row r="71" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>177</v>
+        <v>1004</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C71" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>812</v>
+        <v>696</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>921</v>
+        <v>805</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>419</v>
+        <v>304</v>
       </c>
       <c r="G71" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>314</v>
+        <v>199</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>617</v>
+        <v>502</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>761</v>
+        <v>645</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>522</v>
+        <v>407</v>
       </c>
       <c r="N71" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="72" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>178</v>
+        <v>959</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C72" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>975</v>
+        <v>859</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>420</v>
+        <v>305</v>
       </c>
       <c r="G72" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>842</v>
+        <v>726</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>315</v>
+        <v>200</v>
       </c>
       <c r="J72" s="9" t="s">
-        <v>618</v>
+        <v>503</v>
       </c>
       <c r="K72" s="9" t="s">
-        <v>663</v>
+        <v>548</v>
       </c>
       <c r="L72" s="9" t="s">
-        <v>762</v>
+        <v>646</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>523</v>
+        <v>408</v>
       </c>
       <c r="N72" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="73" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A73" s="4" t="s">
-        <v>179</v>
+        <v>960</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C73" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>242</v>
+        <v>127</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>903</v>
+        <v>787</v>
       </c>
       <c r="F73" s="6" t="s">
-        <v>421</v>
+        <v>306</v>
       </c>
       <c r="G73" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H73" s="6" t="s">
-        <v>843</v>
+        <v>727</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>316</v>
+        <v>201</v>
       </c>
       <c r="J73" s="9" t="s">
-        <v>619</v>
+        <v>504</v>
       </c>
       <c r="K73" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L73" s="9" t="s">
-        <v>763</v>
+        <v>647</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>524</v>
+        <v>409</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>873</v>
+        <v>757</v>
       </c>
     </row>
     <row r="74" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>180</v>
+        <v>961</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C74" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>934</v>
+        <v>818</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>822</v>
+        <v>706</v>
       </c>
       <c r="G74" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H74" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>317</v>
+        <v>202</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>620</v>
+        <v>505</v>
       </c>
       <c r="K74" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L74" s="10" t="s">
-        <v>764</v>
+        <v>648</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>525</v>
+        <v>410</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>869</v>
+        <v>753</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>181</v>
+        <v>962</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C75" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>904</v>
+        <v>788</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>422</v>
+        <v>307</v>
       </c>
       <c r="G75" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H75" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>318</v>
+        <v>203</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>621</v>
+        <v>506</v>
       </c>
       <c r="K75" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>765</v>
+        <v>649</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>477</v>
+        <v>362</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>182</v>
+        <v>963</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C76" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>243</v>
+        <v>128</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>906</v>
+        <v>790</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>423</v>
+        <v>308</v>
       </c>
       <c r="G76" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H76" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>319</v>
+        <v>204</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>622</v>
+        <v>507</v>
       </c>
       <c r="K76" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L76" s="9" t="s">
-        <v>766</v>
+        <v>650</v>
       </c>
       <c r="M76" s="9" t="s">
-        <v>526</v>
+        <v>411</v>
       </c>
       <c r="N76" s="10" t="s">
-        <v>874</v>
+        <v>758</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>183</v>
+        <v>964</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>905</v>
+        <v>789</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>424</v>
+        <v>309</v>
       </c>
       <c r="G77" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H77" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>320</v>
+        <v>205</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>623</v>
+        <v>508</v>
       </c>
       <c r="K77" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M77" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N77" s="19" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>184</v>
+        <v>965</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>992</v>
+        <v>876</v>
       </c>
       <c r="F78" s="6" t="s">
-        <v>425</v>
+        <v>310</v>
       </c>
       <c r="G78" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H78" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>321</v>
+        <v>206</v>
       </c>
       <c r="J78" s="9" t="s">
-        <v>624</v>
+        <v>509</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L78" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>527</v>
+        <v>412</v>
       </c>
       <c r="N78" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="79" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A79" s="4" t="s">
-        <v>185</v>
+        <v>1003</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="C79" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>813</v>
+        <v>697</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>907</v>
+        <v>791</v>
       </c>
       <c r="F79" s="6" t="s">
-        <v>426</v>
+        <v>311</v>
       </c>
       <c r="G79" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H79" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>322</v>
+        <v>207</v>
       </c>
       <c r="J79" s="9" t="s">
-        <v>625</v>
+        <v>510</v>
       </c>
       <c r="K79" s="9" t="s">
-        <v>664</v>
+        <v>549</v>
       </c>
       <c r="L79" s="9" t="s">
-        <v>767</v>
+        <v>651</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>528</v>
+        <v>413</v>
       </c>
       <c r="N79" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="80" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>186</v>
+        <v>966</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C80" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>908</v>
+        <v>792</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>427</v>
+        <v>312</v>
       </c>
       <c r="G80" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>323</v>
+        <v>208</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="K80" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L80" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>529</v>
+        <v>414</v>
       </c>
       <c r="N80" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="81" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>187</v>
+        <v>967</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>935</v>
+        <v>819</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>823</v>
+        <v>707</v>
       </c>
       <c r="G81" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>325</v>
+        <v>210</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K81" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>768</v>
+        <v>652</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>530</v>
+        <v>415</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>875</v>
+        <v>759</v>
       </c>
     </row>
     <row r="82" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>188</v>
+        <v>968</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>681</v>
+        <v>565</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>244</v>
+        <v>129</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>564</v>
+        <v>449</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>428</v>
+        <v>313</v>
       </c>
       <c r="G82" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H82" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I82" s="11" t="s">
-        <v>324</v>
+        <v>209</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>226</v>
+        <v>111</v>
       </c>
       <c r="K82" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>769</v>
+        <v>653</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>531</v>
+        <v>416</v>
       </c>
       <c r="N82" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="83" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>189</v>
+        <v>1002</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C83" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>993</v>
+        <v>877</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>429</v>
+        <v>314</v>
       </c>
       <c r="G83" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>626</v>
+        <v>511</v>
       </c>
       <c r="K83" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>770</v>
+        <v>654</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>532</v>
+        <v>417</v>
       </c>
       <c r="N83" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="84" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>190</v>
+        <v>969</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>976</v>
+        <v>860</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>430</v>
+        <v>315</v>
       </c>
       <c r="G84" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>327</v>
+        <v>212</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>627</v>
+        <v>512</v>
       </c>
       <c r="K84" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>771</v>
+        <v>655</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>533</v>
+        <v>418</v>
       </c>
       <c r="N84" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>191</v>
+        <v>970</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C85" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>245</v>
+        <v>130</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>565</v>
+        <v>450</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>431</v>
+        <v>316</v>
       </c>
       <c r="G85" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H85" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>628</v>
+        <v>513</v>
       </c>
       <c r="K85" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>772</v>
+        <v>656</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>534</v>
+        <v>419</v>
       </c>
       <c r="N85" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="86" spans="1:14" ht="330" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>192</v>
+        <v>971</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C86" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>994</v>
+        <v>878</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>432</v>
+        <v>317</v>
       </c>
       <c r="G86" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>328</v>
+        <v>213</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>665</v>
+        <v>550</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>773</v>
+        <v>657</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>535</v>
+        <v>420</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>876</v>
+        <v>760</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>193</v>
+        <v>972</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C87" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>909</v>
+        <v>793</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>433</v>
+        <v>318</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H87" s="6" t="s">
-        <v>844</v>
+        <v>728</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>329</v>
+        <v>214</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>629</v>
+        <v>514</v>
       </c>
       <c r="K87" s="9" t="s">
-        <v>666</v>
+        <v>551</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>774</v>
+        <v>658</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>806</v>
+        <v>690</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>877</v>
+        <v>761</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>194</v>
+        <v>973</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>977</v>
+        <v>861</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>434</v>
+        <v>319</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>330</v>
+        <v>215</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>227</v>
+        <v>112</v>
       </c>
       <c r="K88" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>775</v>
+        <v>659</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>536</v>
+        <v>421</v>
       </c>
       <c r="N88" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>195</v>
+        <v>1001</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>995</v>
+        <v>879</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>435</v>
+        <v>320</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H89" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>331</v>
+        <v>216</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>630</v>
+        <v>515</v>
       </c>
       <c r="K89" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>776</v>
+        <v>660</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>537</v>
+        <v>422</v>
       </c>
       <c r="N89" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="90" spans="1:14" ht="290.39999999999998" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>196</v>
+        <v>974</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>978</v>
+        <v>862</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>436</v>
+        <v>321</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>692</v>
+        <v>576</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>631</v>
+        <v>516</v>
       </c>
       <c r="K90" s="9" t="s">
-        <v>667</v>
+        <v>552</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>777</v>
+        <v>661</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>538</v>
+        <v>423</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>878</v>
+        <v>762</v>
       </c>
     </row>
     <row r="91" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>197</v>
+        <v>975</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>566</v>
+        <v>451</v>
       </c>
       <c r="F91" s="6" t="s">
-        <v>437</v>
+        <v>322</v>
       </c>
       <c r="G91" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H91" s="6" t="s">
-        <v>845</v>
+        <v>729</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>332</v>
+        <v>217</v>
       </c>
       <c r="J91" s="9" t="s">
-        <v>632</v>
+        <v>517</v>
       </c>
       <c r="K91" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L91" s="9" t="s">
-        <v>778</v>
+        <v>662</v>
       </c>
       <c r="M91" s="9" t="s">
-        <v>539</v>
+        <v>424</v>
       </c>
       <c r="N91" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="92" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
-        <v>198</v>
+        <v>976</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>922</v>
+        <v>806</v>
       </c>
       <c r="F92" s="6" t="s">
-        <v>438</v>
+        <v>323</v>
       </c>
       <c r="G92" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H92" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>333</v>
+        <v>218</v>
       </c>
       <c r="J92" s="9" t="s">
-        <v>633</v>
+        <v>518</v>
       </c>
       <c r="K92" s="9" t="s">
-        <v>668</v>
+        <v>553</v>
       </c>
       <c r="L92" s="9" t="s">
-        <v>779</v>
+        <v>663</v>
       </c>
       <c r="M92" s="9" t="s">
-        <v>540</v>
+        <v>425</v>
       </c>
       <c r="N92" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:14" ht="250.8" x14ac:dyDescent="0.3">
       <c r="A93" s="4" t="s">
-        <v>199</v>
+        <v>977</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>996</v>
+        <v>880</v>
       </c>
       <c r="F93" s="6" t="s">
-        <v>439</v>
+        <v>324</v>
       </c>
       <c r="G93" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H93" s="6" t="s">
-        <v>846</v>
+        <v>730</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>334</v>
+        <v>219</v>
       </c>
       <c r="J93" s="9" t="s">
-        <v>634</v>
+        <v>519</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>669</v>
+        <v>554</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>780</v>
+        <v>664</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>541</v>
+        <v>426</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>879</v>
+        <v>763</v>
       </c>
     </row>
     <row r="94" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>200</v>
+        <v>978</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C94" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>923</v>
+        <v>807</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>440</v>
+        <v>325</v>
       </c>
       <c r="G94" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="J94" s="9" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="K94" s="9" t="s">
-        <v>670</v>
+        <v>555</v>
       </c>
       <c r="L94" s="9" t="s">
-        <v>781</v>
+        <v>665</v>
       </c>
       <c r="M94" s="9" t="s">
-        <v>542</v>
+        <v>427</v>
       </c>
       <c r="N94" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A95" s="4" t="s">
-        <v>201</v>
+        <v>978</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C95" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>924</v>
+        <v>808</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>441</v>
+        <v>326</v>
       </c>
       <c r="G95" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H95" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>336</v>
+        <v>221</v>
       </c>
       <c r="J95" s="9" t="s">
-        <v>635</v>
+        <v>520</v>
       </c>
       <c r="K95" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>782</v>
+        <v>666</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>543</v>
+        <v>428</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>880</v>
+        <v>764</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>202</v>
+        <v>979</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>979</v>
+        <v>863</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>442</v>
+        <v>327</v>
       </c>
       <c r="G96" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>847</v>
+        <v>731</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>337</v>
+        <v>222</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>636</v>
+        <v>521</v>
       </c>
       <c r="K96" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>783</v>
+        <v>667</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>544</v>
+        <v>429</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>881</v>
+        <v>765</v>
       </c>
     </row>
     <row r="97" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>203</v>
+        <v>980</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>1005</v>
+        <v>889</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>443</v>
+        <v>328</v>
       </c>
       <c r="G97" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>848</v>
+        <v>732</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>338</v>
+        <v>223</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>1007</v>
+        <v>891</v>
       </c>
       <c r="K97" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>784</v>
+        <v>668</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>545</v>
+        <v>430</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>869</v>
+        <v>753</v>
       </c>
     </row>
     <row r="98" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>204</v>
+        <v>981</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C98" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>997</v>
+        <v>881</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>444</v>
+        <v>329</v>
       </c>
       <c r="G98" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>467</v>
+        <v>352</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>339</v>
+        <v>224</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>1008</v>
+        <v>892</v>
       </c>
       <c r="K98" s="9" t="s">
-        <v>671</v>
+        <v>556</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>785</v>
+        <v>669</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>546</v>
+        <v>431</v>
       </c>
       <c r="N98" s="10" t="s">
-        <v>882</v>
+        <v>766</v>
       </c>
     </row>
     <row r="99" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>205</v>
+        <v>982</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>998</v>
+        <v>882</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>445</v>
+        <v>330</v>
       </c>
       <c r="G99" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H99" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>340</v>
+        <v>225</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K99" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>786</v>
+        <v>670</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>547</v>
+        <v>432</v>
       </c>
       <c r="N99" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>206</v>
+        <v>983</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>999</v>
+        <v>883</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>446</v>
+        <v>331</v>
       </c>
       <c r="G100" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H100" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>341</v>
+        <v>226</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>637</v>
+        <v>522</v>
       </c>
       <c r="K100" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>787</v>
+        <v>671</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>548</v>
+        <v>433</v>
       </c>
       <c r="N100" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="101" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>207</v>
+        <v>984</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C101" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>925</v>
+        <v>809</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>447</v>
+        <v>332</v>
       </c>
       <c r="G101" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>342</v>
+        <v>227</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>638</v>
+        <v>523</v>
       </c>
       <c r="K101" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>788</v>
+        <v>672</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>549</v>
+        <v>434</v>
       </c>
       <c r="N101" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>208</v>
+        <v>985</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>682</v>
+        <v>566</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>910</v>
+        <v>794</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>448</v>
+        <v>333</v>
       </c>
       <c r="G102" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>343</v>
+        <v>228</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>639</v>
+        <v>524</v>
       </c>
       <c r="K102" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>789</v>
+        <v>673</v>
       </c>
       <c r="M102" s="9" t="s">
-        <v>550</v>
+        <v>435</v>
       </c>
       <c r="N102" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="103" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>209</v>
+        <v>986</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C103" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>948</v>
+        <v>832</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>449</v>
+        <v>334</v>
       </c>
       <c r="G103" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>344</v>
+        <v>229</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>640</v>
+        <v>525</v>
       </c>
       <c r="K103" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>790</v>
+        <v>674</v>
       </c>
       <c r="M103" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N103" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="104" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>210</v>
+        <v>987</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>683</v>
+        <v>567</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>1000</v>
+        <v>884</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>450</v>
+        <v>335</v>
       </c>
       <c r="G104" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H104" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>641</v>
+        <v>526</v>
       </c>
       <c r="K104" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>791</v>
+        <v>675</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>551</v>
+        <v>436</v>
       </c>
       <c r="N104" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>211</v>
+        <v>988</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>1001</v>
+        <v>885</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>451</v>
+        <v>336</v>
       </c>
       <c r="G105" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H105" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>345</v>
+        <v>230</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>642</v>
+        <v>527</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>672</v>
+        <v>557</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>792</v>
+        <v>676</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>552</v>
+        <v>437</v>
       </c>
       <c r="N105" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="106" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>212</v>
+        <v>989</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>1002</v>
+        <v>886</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>452</v>
+        <v>337</v>
       </c>
       <c r="G106" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H106" s="18" t="s">
-        <v>468</v>
+        <v>353</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>346</v>
+        <v>231</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K106" s="9" t="s">
-        <v>673</v>
+        <v>558</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>793</v>
+        <v>677</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>553</v>
+        <v>438</v>
       </c>
       <c r="N106" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>213</v>
+        <v>990</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>225</v>
+        <v>110</v>
       </c>
       <c r="C107" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D107" s="6" t="s">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>1003</v>
+        <v>887</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>453</v>
+        <v>338</v>
       </c>
       <c r="G107" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>469</v>
+        <v>354</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>347</v>
+        <v>232</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>643</v>
+        <v>528</v>
       </c>
       <c r="K107" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>794</v>
+        <v>678</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>554</v>
+        <v>439</v>
       </c>
       <c r="N107" s="10" t="s">
-        <v>883</v>
+        <v>767</v>
       </c>
     </row>
     <row r="108" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>214</v>
+        <v>991</v>
       </c>
       <c r="B108" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C108" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>949</v>
+        <v>833</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>454</v>
+        <v>339</v>
       </c>
       <c r="G108" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>348</v>
+        <v>233</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>644</v>
+        <v>529</v>
       </c>
       <c r="K108" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>795</v>
+        <v>679</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>555</v>
+        <v>440</v>
       </c>
       <c r="N108" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="109" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>215</v>
+        <v>992</v>
       </c>
       <c r="B109" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C109" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>926</v>
+        <v>810</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G109" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>349</v>
+        <v>234</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>645</v>
+        <v>530</v>
       </c>
       <c r="K109" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>796</v>
+        <v>680</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>556</v>
+        <v>441</v>
       </c>
       <c r="N109" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>216</v>
+        <v>993</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>684</v>
+        <v>568</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>1004</v>
+        <v>888</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>455</v>
+        <v>340</v>
       </c>
       <c r="G110" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>350</v>
+        <v>235</v>
       </c>
       <c r="J110" s="9" t="s">
-        <v>646</v>
+        <v>531</v>
       </c>
       <c r="K110" s="10" t="s">
-        <v>674</v>
+        <v>559</v>
       </c>
       <c r="L110" s="9" t="s">
-        <v>797</v>
+        <v>681</v>
       </c>
       <c r="M110" s="9" t="s">
-        <v>557</v>
+        <v>442</v>
       </c>
       <c r="N110" s="10" t="s">
-        <v>884</v>
+        <v>768</v>
       </c>
     </row>
     <row r="111" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A111" s="4" t="s">
-        <v>217</v>
+        <v>994</v>
       </c>
       <c r="B111" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C111" s="4" t="s">
-        <v>676</v>
+        <v>560</v>
       </c>
       <c r="D111" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>950</v>
+        <v>834</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>456</v>
+        <v>341</v>
       </c>
       <c r="G111" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H111" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>351</v>
+        <v>236</v>
       </c>
       <c r="J111" s="9" t="s">
-        <v>647</v>
+        <v>532</v>
       </c>
       <c r="K111" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L111" s="9" t="s">
-        <v>798</v>
+        <v>682</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>558</v>
+        <v>443</v>
       </c>
       <c r="N111" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="112" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>218</v>
+        <v>1000</v>
       </c>
       <c r="B112" s="4" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="C112" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>1006</v>
+        <v>890</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>457</v>
+        <v>342</v>
       </c>
       <c r="G112" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H112" s="6" t="s">
-        <v>849</v>
+        <v>733</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>352</v>
+        <v>237</v>
       </c>
       <c r="J112" s="9" t="s">
-        <v>648</v>
+        <v>533</v>
       </c>
       <c r="K112" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L112" s="10" t="s">
-        <v>799</v>
+        <v>683</v>
       </c>
       <c r="M112" s="9" t="s">
-        <v>559</v>
+        <v>444</v>
       </c>
       <c r="N112" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="113" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A113" s="4" t="s">
-        <v>219</v>
+        <v>995</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>224</v>
+        <v>109</v>
       </c>
       <c r="C113" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>936</v>
+        <v>820</v>
       </c>
       <c r="F113" s="6" t="s">
-        <v>458</v>
+        <v>343</v>
       </c>
       <c r="G113" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>353</v>
+        <v>238</v>
       </c>
       <c r="J113" s="9" t="s">
-        <v>649</v>
+        <v>534</v>
       </c>
       <c r="K113" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L113" s="10" t="s">
-        <v>800</v>
+        <v>684</v>
       </c>
       <c r="M113" s="17" t="s">
-        <v>559</v>
+        <v>444</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>885</v>
+        <v>769</v>
       </c>
     </row>
     <row r="114" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>220</v>
+        <v>996</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>980</v>
+        <v>864</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>459</v>
+        <v>344</v>
       </c>
       <c r="G114" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>354</v>
+        <v>239</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>650</v>
+        <v>535</v>
       </c>
       <c r="K114" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>801</v>
+        <v>685</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>560</v>
+        <v>445</v>
       </c>
       <c r="N114" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="115" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>221</v>
+        <v>997</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>678</v>
+        <v>562</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>937</v>
+        <v>821</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>824</v>
+        <v>708</v>
       </c>
       <c r="G115" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H115" s="6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>355</v>
+        <v>240</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>651</v>
+        <v>536</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>802</v>
+        <v>686</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>477</v>
+        <v>362</v>
       </c>
       <c r="N115" s="10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="116" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
-        <v>222</v>
+        <v>998</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>677</v>
+        <v>561</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>252</v>
+        <v>137</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>981</v>
+        <v>865</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>460</v>
+        <v>345</v>
       </c>
       <c r="G116" s="4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H116" s="8" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>356</v>
+        <v>241</v>
       </c>
       <c r="J116" s="9" t="s">
-        <v>652</v>
+        <v>537</v>
       </c>
       <c r="K116" s="14" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L116" s="9" t="s">
-        <v>803</v>
+        <v>687</v>
       </c>
       <c r="M116" s="9" t="s">
-        <v>561</v>
+        <v>446</v>
       </c>
       <c r="N116" s="14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="16" t="s">
-        <v>675</v>
+        <v>999</v>
       </c>
       <c r="B117" s="4" t="s">
-        <v>223</v>
+        <v>108</v>
       </c>
       <c r="C117" s="4" t="s">
-        <v>685</v>
+        <v>569</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>814</v>
+        <v>698</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>447</v>
       </c>
       <c r="F117" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="H117" s="16" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I117" s="16" t="s">
-        <v>693</v>
+        <v>577</v>
       </c>
       <c r="J117" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="K117" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="L117" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="M117" s="11" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="N117" s="20" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -9339,9 +9339,10 @@
     <hyperlink ref="E65" r:id="rId452" xr:uid="{2A43A7D2-0D9B-42A8-8E87-E447ECDB9951}"/>
     <hyperlink ref="E60" r:id="rId453" xr:uid="{6FED2870-0657-4424-9493-C87C5558030E}"/>
     <hyperlink ref="E112" r:id="rId454" xr:uid="{72604405-579A-4D04-AD70-2F433C2E73DD}"/>
+    <hyperlink ref="E117" r:id="rId455" display="https://placehold.co/400x600" xr:uid="{6297514C-C37E-424D-8BB6-2D18272D027F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId455"/>
+  <pageSetup orientation="portrait" r:id="rId456"/>
 </worksheet>
 </file>
 

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motat\OneDrive\Desktop\CSPIT_NEW_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1998F46-14D8-44A1-808C-90E3F11C55C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288D246C-5389-4BEA-88FB-7A6CE5B04688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1000">
   <si>
     <t>Name</t>
   </si>
@@ -398,9 +398,6 @@
     <t xml:space="preserve">Data Structure and Design &amp; Analysis of Algorithms, Theory of Computation, and Compiler Construction. </t>
   </si>
   <si>
-    <t>Vibration, Smart Materials and Robotics</t>
-  </si>
-  <si>
     <t>Construction Project Management</t>
   </si>
   <si>
@@ -516,9 +513,6 @@
   </si>
   <si>
     <t>dheerajshringi.aiml@charusat.ac.in</t>
-  </si>
-  <si>
-    <t>dipalpatel.me@charusat.ac.in</t>
   </si>
   <si>
     <t>gajananpatange.me@charusat.ac.in</t>
@@ -859,22 +853,6 @@
   </si>
   <si>
     <t>Data structure &amp; algorithm, Design and analysis of algorithm, Theory of computation, Compiler Construction, C and C++ Programming, Computer Network, Operating System</t>
-  </si>
-  <si>
-    <t>1. Engineering Graphics
-2. Elements of Engineering 
-3.Theory of Machines
-4.Mechanism and Machines.
-5. Dynamics of Machines
-6.Mechanical Vibrations
-7. Design concept and machine drawing
-8. Computer Aided Design
-9. Hydraulic and Pneumatic 
-10. Instrumentation and control
-11.Industrial Automation and Robotics
-12.Finite element analysis
-13.Software practice.
-14.Major Project.</t>
   </si>
   <si>
     <t xml:space="preserve">1.	Production and Operation management.
@@ -1283,9 +1261,6 @@
     <t>https://vidwan.inflibnet.ac.in/profile/405962</t>
   </si>
   <si>
-    <t>https://vidwan.inflibnet.ac.in/profile/63735</t>
-  </si>
-  <si>
     <t>https://vidwan.inflibnet.ac.in/profile/164076</t>
   </si>
   <si>
@@ -1496,15 +1471,6 @@
     <t>https://vidwan.inflibnet.ac.in/profile/161331</t>
   </si>
   <si>
-    <t>https://placehold.co/400x606</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x629</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x680</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x683</t>
   </si>
   <si>
@@ -1559,9 +1525,6 @@
     <t>https://www.linkedin.com/in/dheerajNAkumarNAshringiNA030586107?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
   </si>
   <si>
-    <t>www.linkedin.com/in/dipalkumarNApatelNA4b97997</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/gajananNApatangeNA05ba2219/overlay/aboutNAthisNAprofile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BEvV8mS8jTpy2mGfBhro1og%3D%3D</t>
   </si>
   <si>
@@ -1974,9 +1937,6 @@
   </si>
   <si>
     <t>https://scholar.google.com/citations?view_op=new_profile&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=U39HxloAAAAJ&amp;hl=en</t>
   </si>
   <si>
     <t>https://www.bing.com/ck/a?!&amp;&amp;p=6a7ac5a017a1300aJmltdHM9MTcyOTQ2ODgwMCZpZ3VpZD0wMDExMmIyNS1kMzQ5LTY3MTItMmE4My0zZTA1ZDI1NjY2MWEmaW5zaWQ9NTE5NQ&amp;ptn=3&amp;ver=2&amp;hsh=3&amp;fclid=00112b25NAd349NA6712NA2a83NA3e05d256661a&amp;psq=google+scholer+gajanan+patange&amp;u=a1aHR0cHM6Ly9zY2hvbGFyLmdvb2dsZS5wbC9jaXRhdGlvbnM_dXNlcj1fRDRISUhjQUFBQUomaGw9ZW4&amp;ntb=1</t>
@@ -2328,9 +2288,6 @@
     <t>Implementation and Performance Analysis of Novel spatial Modulation aided wireless communication in heterogeneous condition NA CHARUSAT</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Experimental investigations on thrust force and delamination factor in drilling of hybrid matrix composites using magnetorheological damper” sanctioned by CHARUSAT as a Principal Investigator. 2. Design and development of prototype shock absorber/Isolator using magnetorheological Dampers” sanctioned by SACNAISRO, Ahmedabad as a CoNA Principal Investigator. 3.Electrical Vehicle (ANSYS static and vibration analysis) assigned by Ev Meta, Ahmedabad. </t>
-  </si>
-  <si>
     <t>AI Enabled Smart Bin NA Student Startup &amp; Innovation Policy (SSIP 2.0), GOG</t>
   </si>
   <si>
@@ -2772,9 +2729,6 @@
     <t>CSPIT_Faculty\Mechanical\MAYURKUMAR.webp</t>
   </si>
   <si>
-    <t>CSPIT_Faculty\Electrical\MIHIR.webp</t>
-  </si>
-  <si>
     <t>CSPIT_Faculty\Electrical\MIHIR_SIDDHARTH.webp</t>
   </si>
   <si>
@@ -2961,9 +2915,6 @@
     <t xml:space="preserve">Mr. Dheeraj Shringi  </t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. Dipalkumar Patel  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Dr. Gajanan Patange  </t>
   </si>
   <si>
@@ -3223,6 +3174,18 @@
   </si>
   <si>
     <t xml:space="preserve">Dr. Abhishek Swarnkar  </t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\VISHAL.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CSE\pinal.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Civil\AMIT_KUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electrical\MIHIR_BHATT.webp</t>
   </si>
 </sst>
 </file>
@@ -3718,10 +3681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" zoomScale="95" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3754,7 +3717,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -3772,18 +3735,18 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>108</v>
@@ -3795,10 +3758,10 @@
         <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>106</v>
@@ -3807,19 +3770,19 @@
         <v>106</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>106</v>
@@ -3827,7 +3790,7 @@
     </row>
     <row r="3" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>108</v>
@@ -3839,10 +3802,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>106</v>
@@ -3851,42 +3814,42 @@
         <v>106</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>106</v>
@@ -3895,19 +3858,19 @@
         <v>106</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>106</v>
@@ -3915,7 +3878,7 @@
     </row>
     <row r="5" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>108</v>
@@ -3927,10 +3890,10 @@
         <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>106</v>
@@ -3939,19 +3902,19 @@
         <v>106</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>106</v>
@@ -3959,7 +3922,7 @@
     </row>
     <row r="6" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>108</v>
@@ -3971,10 +3934,10 @@
         <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>106</v>
@@ -3983,19 +3946,19 @@
         <v>106</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>106</v>
@@ -4003,7 +3966,7 @@
     </row>
     <row r="7" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>109</v>
@@ -4015,39 +3978,39 @@
         <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>108</v>
@@ -4059,10 +4022,10 @@
         <v>116</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>447</v>
+        <v>998</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>106</v>
@@ -4071,16 +4034,16 @@
         <v>106</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>106</v>
@@ -4091,22 +4054,22 @@
     </row>
     <row r="9" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>106</v>
@@ -4115,27 +4078,27 @@
         <v>106</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>108</v>
@@ -4147,10 +4110,10 @@
         <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>106</v>
@@ -4159,19 +4122,19 @@
         <v>106</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>106</v>
@@ -4179,22 +4142,22 @@
     </row>
     <row r="11" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>106</v>
@@ -4203,19 +4166,19 @@
         <v>106</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>100</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>106</v>
@@ -4223,7 +4186,7 @@
     </row>
     <row r="12" spans="1:14" ht="198" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>108</v>
@@ -4235,39 +4198,39 @@
         <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>110</v>
@@ -4279,19 +4242,19 @@
         <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>100</v>
@@ -4300,18 +4263,18 @@
         <v>106</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>109</v>
@@ -4323,54 +4286,54 @@
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>106</v>
@@ -4379,19 +4342,19 @@
         <v>106</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>106</v>
@@ -4399,7 +4362,7 @@
     </row>
     <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>108</v>
@@ -4411,10 +4374,10 @@
         <v>118</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>106</v>
@@ -4423,10 +4386,10 @@
         <v>106</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>106</v>
@@ -4443,28 +4406,28 @@
     </row>
     <row r="17" spans="1:14" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>106</v>
@@ -4476,18 +4439,18 @@
         <v>106</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>108</v>
@@ -4499,10 +4462,10 @@
         <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>106</v>
@@ -4511,27 +4474,27 @@
         <v>106</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>110</v>
@@ -4543,39 +4506,39 @@
         <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>108</v>
@@ -4587,10 +4550,10 @@
         <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>106</v>
@@ -4599,19 +4562,19 @@
         <v>106</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="N20" s="14" t="s">
         <v>106</v>
@@ -4619,7 +4582,7 @@
     </row>
     <row r="21" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>108</v>
@@ -4631,10 +4594,10 @@
         <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>106</v>
@@ -4643,19 +4606,19 @@
         <v>106</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>106</v>
@@ -4663,7 +4626,7 @@
     </row>
     <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>110</v>
@@ -4675,19 +4638,19 @@
         <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>100</v>
@@ -4696,10 +4659,10 @@
         <v>106</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>106</v>
@@ -4707,7 +4670,7 @@
     </row>
     <row r="23" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>108</v>
@@ -4719,10 +4682,10 @@
         <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>106</v>
@@ -4731,42 +4694,42 @@
         <v>106</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>106</v>
@@ -4775,19 +4738,19 @@
         <v>106</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>106</v>
@@ -4795,7 +4758,7 @@
     </row>
     <row r="25" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>108</v>
@@ -4807,10 +4770,10 @@
         <v>119</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>106</v>
@@ -4819,27 +4782,27 @@
         <v>106</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>106</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>110</v>
@@ -4851,31 +4814,31 @@
         <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>106</v>
@@ -4883,22 +4846,22 @@
     </row>
     <row r="27" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>106</v>
@@ -4907,27 +4870,27 @@
         <v>106</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>108</v>
@@ -4939,10 +4902,10 @@
         <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>106</v>
@@ -4951,42 +4914,42 @@
         <v>106</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>106</v>
@@ -4995,19 +4958,19 @@
         <v>106</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N29" s="14" t="s">
         <v>106</v>
@@ -5015,7 +4978,7 @@
     </row>
     <row r="30" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>108</v>
@@ -5027,10 +4990,10 @@
         <v>120</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>106</v>
@@ -5039,16 +5002,16 @@
         <v>106</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="M30" s="17">
         <v>583944</v>
@@ -5057,9 +5020,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="237.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="264" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>110</v>
@@ -5068,86 +5031,86 @@
         <v>5</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="198" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="E32" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="264" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="J32" s="9" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="198" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>108</v>
@@ -5156,42 +5119,42 @@
         <v>4</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>811</v>
+        <v>773</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>106</v>
+      <c r="H33" s="6" t="s">
+        <v>704</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>108</v>
@@ -5200,365 +5163,365 @@
         <v>4</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="G36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="J36" s="9" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="K36" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>4</v>
+        <v>552</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>274</v>
+        <v>693</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K37" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>702</v>
+        <v>272</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="K38" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="K38" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="N38" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>560</v>
+        <v>4</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>830</v>
+        <v>802</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="K39" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="K39" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>4</v>
+        <v>552</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>812</v>
+        <v>864</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>106</v>
+      <c r="H40" s="6" t="s">
+        <v>705</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="K40" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="K40" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>560</v>
+        <v>4</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>715</v>
+        <v>106</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="K41" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K41" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="N41" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>4</v>
+        <v>552</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>106</v>
@@ -5567,42 +5530,42 @@
         <v>106</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="K42" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K42" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="N42" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>560</v>
+        <v>4</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>106</v>
@@ -5611,42 +5574,42 @@
         <v>106</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="K43" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="K43" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="N43" s="10" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>106</v>
@@ -5655,42 +5618,42 @@
         <v>106</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>106</v>
+        <v>474</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>535</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N44" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="290.39999999999998" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>5</v>
+        <v>555</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>106</v>
@@ -5699,130 +5662,130 @@
         <v>106</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>543</v>
+        <v>102</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N45" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="290.39999999999998" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>106</v>
+        <v>347</v>
       </c>
       <c r="I46" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="N46" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="J47" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="M47" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N47" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>106</v>
@@ -5830,28 +5793,28 @@
       <c r="H48" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>177</v>
+      <c r="I48" s="11" t="s">
+        <v>567</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>106</v>
+        <v>476</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>108</v>
@@ -5860,350 +5823,350 @@
         <v>5</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>106</v>
+      <c r="H49" s="6" t="s">
+        <v>706</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>575</v>
+        <v>176</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>544</v>
+        <v>106</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>22</v>
+        <v>684</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="N50" s="10" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="I51" s="4" t="s">
+      <c r="G52" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="J52" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="K52" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="K52" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N52" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="N52" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>106</v>
+      <c r="H53" s="6" t="s">
+        <v>708</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>181</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N53" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>4</v>
+        <v>554</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="K54" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K54" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>291</v>
+        <v>694</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>719</v>
+        <v>106</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>182</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K55" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>87</v>
+        <v>685</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>703</v>
+        <v>289</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>106</v>
+        <v>710</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>105</v>
+        <v>481</v>
       </c>
       <c r="K56" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>108</v>
@@ -6212,277 +6175,277 @@
         <v>5</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>694</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>871</v>
+        <v>793</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="K57" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="356.4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>5</v>
+        <v>553</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="K58" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="356.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>786</v>
+        <v>845</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H59" s="6" t="s">
-        <v>722</v>
+      <c r="H59" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="I59" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J59" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="K59" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="N59" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="J60" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I60" s="4" t="s">
+      <c r="C61" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J60" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="N60" s="10" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>493</v>
+      <c r="J61" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="K61" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>61</v>
+        <v>686</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>101</v>
+        <v>486</v>
       </c>
       <c r="K62" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="N62" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+      <c r="N62" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>695</v>
+        <v>74</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>816</v>
+        <v>999</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>106</v>
@@ -6491,159 +6454,159 @@
         <v>106</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="K63" s="14" t="s">
-        <v>106</v>
+        <v>487</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>538</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="N63" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>5</v>
+        <v>556</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>106</v>
+        <v>714</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>546</v>
+        <v>488</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="N64" s="10" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+      <c r="N64" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>564</v>
+        <v>4</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>724</v>
+        <v>348</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="K65" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="N65" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="277.2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>351</v>
+        <v>715</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>106</v>
+        <v>490</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>539</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="277.2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>108</v>
@@ -6652,174 +6615,174 @@
         <v>5</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>873</v>
+        <v>794</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>725</v>
+        <v>106</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>547</v>
+        <v>491</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="N67" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>804</v>
+        <v>863</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" s="8" t="s">
         <v>106</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="K68" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L68" s="9" t="s">
-        <v>643</v>
+      <c r="L68" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="N68" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>874</v>
+        <v>807</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>303</v>
+        <v>696</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="H69" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I69" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="J69" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="K69" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L69" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="N69" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="J70" s="9" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>1004</v>
+        <v>947</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>110</v>
@@ -6828,42 +6791,42 @@
         <v>5</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>696</v>
+        <v>12</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>805</v>
+        <v>848</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>106</v>
+      <c r="H71" s="6" t="s">
+        <v>716</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>106</v>
+        <v>495</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="N71" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="N71" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>110</v>
@@ -6872,86 +6835,86 @@
         <v>5</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>859</v>
+        <v>777</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="I72" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I73" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="J72" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="L72" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="N72" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="J73" s="9" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K73" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L73" s="9" t="s">
-        <v>647</v>
+      <c r="L73" s="10" t="s">
+        <v>639</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>108</v>
@@ -6960,13 +6923,13 @@
         <v>4</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>818</v>
+        <v>778</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>706</v>
+        <v>304</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>106</v>
@@ -6975,27 +6938,27 @@
         <v>106</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="K74" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L74" s="10" t="s">
-        <v>648</v>
+      <c r="L74" s="9" t="s">
+        <v>640</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>753</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>108</v>
@@ -7004,42 +6967,42 @@
         <v>4</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" s="8" t="s">
         <v>106</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="K75" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>106</v>
+        <v>748</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>108</v>
@@ -7048,57 +7011,57 @@
         <v>4</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K76" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L76" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="N76" s="10" t="s">
-        <v>758</v>
+      <c r="L76" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M76" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N76" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>4</v>
+        <v>554</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>789</v>
+        <v>865</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>106</v>
@@ -7107,262 +7070,262 @@
         <v>106</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="K77" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="K77" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L77" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="M77" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N77" s="19" t="s">
+      <c r="M77" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="N77" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>965</v>
+        <v>991</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="N78" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I78" s="4" t="s">
+      <c r="C79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="J78" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L78" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M78" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="N78" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="J79" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="K79" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="L79" s="9" t="s">
-        <v>651</v>
+        <v>98</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N79" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>4</v>
+        <v>554</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>312</v>
+        <v>698</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>208</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K80" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L80" s="10" t="s">
-        <v>106</v>
+      <c r="L80" s="9" t="s">
+        <v>643</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N80" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+      <c r="N80" s="10" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>819</v>
+        <v>997</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>707</v>
+        <v>310</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>210</v>
+      <c r="H81" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="K81" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>968</v>
+        <v>990</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>565</v>
+        <v>5</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>449</v>
+        <v>866</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H82" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I82" s="11" t="s">
+      <c r="H82" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I82" s="4" t="s">
         <v>209</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K82" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="K82" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="N82" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>1002</v>
+        <v>957</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>5</v>
+        <v>554</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>877</v>
+        <v>849</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>106</v>
@@ -7371,262 +7334,262 @@
         <v>106</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="K83" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="N83" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>860</v>
+        <v>443</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="8" t="s">
         <v>106</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="K84" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="K84" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="N84" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+      <c r="N84" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="330" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>450</v>
+        <v>867</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H85" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="K85" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>542</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="N85" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="330" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+      <c r="N85" s="10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>878</v>
+        <v>783</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>106</v>
+        <v>718</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>97</v>
+        <v>506</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>420</v>
+        <v>681</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>5</v>
+        <v>554</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>793</v>
+        <v>850</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H87" s="6" t="s">
-        <v>728</v>
+      <c r="H87" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="K87" s="9" t="s">
-        <v>551</v>
+        <v>112</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>690</v>
+        <v>417</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>761</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H88" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>112</v>
+        <v>507</v>
       </c>
       <c r="K88" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="N88" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+      <c r="N88" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="290.39999999999998" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>1001</v>
+        <v>962</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>879</v>
+        <v>851</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>106</v>
@@ -7634,28 +7597,28 @@
       <c r="H89" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I89" s="4" t="s">
-        <v>216</v>
+      <c r="I89" s="11" t="s">
+        <v>568</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="K89" s="14" t="s">
-        <v>106</v>
+        <v>508</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>544</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="N89" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="290.39999999999998" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+      <c r="N89" s="10" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>108</v>
@@ -7664,42 +7627,42 @@
         <v>4</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>862</v>
+        <v>444</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>576</v>
+        <v>719</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="K90" s="9" t="s">
-        <v>552</v>
+        <v>509</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>108</v>
@@ -7708,130 +7671,130 @@
         <v>4</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>451</v>
+        <v>796</v>
       </c>
       <c r="F91" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="N91" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="250.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="N92" s="10" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="F93" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="J91" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="K91" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L91" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="M91" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="N91" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I92" s="4" t="s">
+      <c r="G93" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I93" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="J92" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="K92" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="L92" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="M92" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="N92" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="250.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="J93" s="9" t="s">
-        <v>519</v>
+        <v>104</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>108</v>
@@ -7840,86 +7803,86 @@
         <v>4</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="H94" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I94" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="N94" s="10" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="I95" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J94" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K94" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="L94" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="M94" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="N94" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>978</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="J95" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="K95" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="K95" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>110</v>
@@ -7928,145 +7891,145 @@
         <v>5</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="K96" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="K96" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>732</v>
+        <v>349</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="K97" s="14" t="s">
-        <v>106</v>
+        <v>881</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>548</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>5</v>
+        <v>554</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>352</v>
+        <v>106</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="K98" s="9" t="s">
-        <v>556</v>
+        <v>103</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="N98" s="10" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="N98" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>106</v>
@@ -8075,86 +8038,86 @@
         <v>106</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K99" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="K99" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="N99" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="N99" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>883</v>
+        <v>799</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="H100" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="K100" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="K100" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N100" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>5</v>
+        <v>558</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>106</v>
@@ -8163,86 +8126,86 @@
         <v>106</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="K101" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="K101" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N101" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>566</v>
+        <v>4</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>794</v>
+        <v>822</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="H102" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="K102" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="M102" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="N102" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+      <c r="M102" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N102" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>559</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>832</v>
+        <v>873</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>106</v>
@@ -8251,19 +8214,19 @@
         <v>106</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>229</v>
+        <v>106</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="K103" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="M103" s="10" t="s">
-        <v>106</v>
+        <v>666</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>432</v>
       </c>
       <c r="N103" s="14" t="s">
         <v>106</v>
@@ -8271,22 +8234,22 @@
     </row>
     <row r="104" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>106</v>
@@ -8295,159 +8258,159 @@
         <v>106</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="K104" s="14" t="s">
-        <v>106</v>
+        <v>519</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>549</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="N104" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="N104" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H105" s="6" t="s">
-        <v>106</v>
+      <c r="H105" s="18" t="s">
+        <v>350</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>527</v>
+        <v>96</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="N105" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+      <c r="N105" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H106" s="18" t="s">
-        <v>353</v>
+      <c r="H106" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K106" s="9" t="s">
-        <v>558</v>
+        <v>520</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="N106" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="N106" s="10" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>887</v>
+        <v>823</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H107" s="6" t="s">
-        <v>354</v>
+      <c r="H107" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="K107" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="K107" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="N107" s="10" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+      <c r="N107" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>108</v>
@@ -8456,57 +8419,57 @@
         <v>4</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H108" s="8" t="s">
+      <c r="H108" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="K108" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="N108" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+      <c r="N108" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>4</v>
+        <v>560</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>810</v>
+        <v>877</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>71</v>
+        <v>337</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>106</v>
@@ -8515,115 +8478,115 @@
         <v>106</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="K109" s="14" t="s">
-        <v>106</v>
+        <v>523</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>551</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N109" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>888</v>
+        <v>824</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H110" s="4" t="s">
+      <c r="H110" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I110" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="K110" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="N110" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="I111" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="J110" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="K110" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="L110" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="M110" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="N110" s="10" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="J111" s="9" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="K111" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L111" s="9" t="s">
-        <v>682</v>
+      <c r="L111" s="10" t="s">
+        <v>674</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N111" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>109</v>
@@ -8632,174 +8595,174 @@
         <v>5</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>890</v>
+        <v>810</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H112" s="6" t="s">
-        <v>733</v>
+      <c r="H112" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="I112" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="K112" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L112" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="M112" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="N112" s="10" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I113" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="J112" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="K112" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L112" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="M112" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="N112" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="J113" s="9" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="K113" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L113" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="M113" s="17" t="s">
-        <v>444</v>
+      <c r="L113" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>864</v>
+        <v>811</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>344</v>
+        <v>699</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="K114" s="14" t="s">
-        <v>106</v>
+        <v>528</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>445</v>
+        <v>359</v>
       </c>
       <c r="N114" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>136</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>708</v>
+        <v>342</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H115" s="6" t="s">
-        <v>107</v>
+      <c r="H115" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="K115" s="10" t="s">
-        <v>107</v>
+        <v>529</v>
+      </c>
+      <c r="K115" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="N115" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
-        <v>998</v>
+        <v>442</v>
+      </c>
+      <c r="N115" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="16" t="s">
+        <v>987</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>108</v>
@@ -8807,78 +8770,34 @@
       <c r="C116" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="D116" s="6" t="s">
-        <v>137</v>
+      <c r="D116" s="15" t="s">
+        <v>689</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="J116" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="K116" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L116" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="M116" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="N116" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C117" s="4" t="s">
+        <v>996</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H116" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I116" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="D117" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F117" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H117" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I117" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="J117" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K117" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="L117" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M117" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="N117" s="20" t="s">
+      <c r="J116" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K116" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M116" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N116" s="20" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8889,7 +8808,7 @@
     <hyperlink ref="E3" r:id="rId2" xr:uid="{B0FAAFEF-605D-4098-8F11-6FC6A0E9E0D6}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{AB4A22E1-9601-4D07-8888-34F1D29BD46A}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{D5047CB0-F6D4-4475-9DBF-0B83B4DAEAB4}"/>
-    <hyperlink ref="E8" r:id="rId5" display="https://placehold.co/400x600" xr:uid="{341347BE-FDF4-47C3-A9AA-7BF0532F61DB}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{341347BE-FDF4-47C3-A9AA-7BF0532F61DB}"/>
     <hyperlink ref="E10" r:id="rId6" xr:uid="{CE30ABE6-4735-49AC-9E38-986CD096C5BF}"/>
     <hyperlink ref="E12" r:id="rId7" xr:uid="{17D5C088-BD3A-4E75-8035-22B027942A64}"/>
     <hyperlink ref="E14" r:id="rId8" xr:uid="{6815D31E-1624-40E4-AD43-8FB5276A3E13}"/>
@@ -8900,46 +8819,46 @@
     <hyperlink ref="E26" r:id="rId13" xr:uid="{5B8C9469-79CD-4130-A71A-FB9845883315}"/>
     <hyperlink ref="E28" r:id="rId14" xr:uid="{C6FD206E-083A-424A-BEB2-E5FA5EA1028A}"/>
     <hyperlink ref="E30" r:id="rId15" xr:uid="{3C06105A-95B0-486E-B562-804FA49B279E}"/>
-    <hyperlink ref="E32" r:id="rId16" xr:uid="{445C6875-08FB-4A0D-945E-88ACC5B3E36F}"/>
-    <hyperlink ref="E34" r:id="rId17" xr:uid="{65D66EC6-EE19-4700-A25B-1483B78EB1EF}"/>
-    <hyperlink ref="E36" r:id="rId18" xr:uid="{2E844F72-E0A3-4D15-89E8-4C62C40B0097}"/>
-    <hyperlink ref="E38" r:id="rId19" xr:uid="{15AC029B-EF8F-4E8F-BB97-C5EC917FD18C}"/>
-    <hyperlink ref="E40" r:id="rId20" xr:uid="{5FE82AD6-8780-451F-B565-3C9E2036135F}"/>
-    <hyperlink ref="E42" r:id="rId21" xr:uid="{F7983BF9-576C-4FA2-B35A-DFA749ACF1B5}"/>
-    <hyperlink ref="E44" r:id="rId22" xr:uid="{DF66767C-72DE-4D71-B54F-89D37A2B3207}"/>
-    <hyperlink ref="E46" r:id="rId23" xr:uid="{E6907F0E-8A63-42E5-881D-83BE98378391}"/>
-    <hyperlink ref="E48" r:id="rId24" xr:uid="{BF819DDD-F33C-4323-B234-FA5AEFEBF540}"/>
-    <hyperlink ref="E50" r:id="rId25" xr:uid="{B4631102-EF86-443A-975E-E151B867331C}"/>
-    <hyperlink ref="E52" r:id="rId26" xr:uid="{D0C8995E-2389-436D-96F9-0ECFED635D2D}"/>
-    <hyperlink ref="E56" r:id="rId27" xr:uid="{D60F983F-3A4A-4B45-A5A9-1CBD13CCBAB1}"/>
-    <hyperlink ref="E58" r:id="rId28" xr:uid="{DDB2A0FD-936A-490E-BE1E-1762A651B20C}"/>
-    <hyperlink ref="E62" r:id="rId29" xr:uid="{5E732335-693B-490D-844A-64351A2B11C7}"/>
-    <hyperlink ref="E64" r:id="rId30" xr:uid="{B032BBB6-4D16-4E33-A3F0-D7039E10D767}"/>
-    <hyperlink ref="E66" r:id="rId31" xr:uid="{C71F9231-ACA2-46E1-BE2F-462475789CDA}"/>
-    <hyperlink ref="E68" r:id="rId32" xr:uid="{6DAF2527-3F52-4351-90EE-F788A7836287}"/>
-    <hyperlink ref="E70" r:id="rId33" xr:uid="{C213B07F-FB90-4578-BA40-CB5277C5E9F8}"/>
-    <hyperlink ref="E72" r:id="rId34" xr:uid="{B6B3C0BC-449F-4D5F-8991-2960BC1E1B95}"/>
-    <hyperlink ref="E74" r:id="rId35" xr:uid="{12F3E568-1027-43BC-89EA-C5D4D2C3F3B1}"/>
-    <hyperlink ref="E76" r:id="rId36" xr:uid="{9BCFDA15-C8D8-41F6-B5C1-8DB9E3F54F38}"/>
-    <hyperlink ref="E78" r:id="rId37" xr:uid="{5074351A-0735-4679-AE99-F1F491EAD66F}"/>
-    <hyperlink ref="E80" r:id="rId38" xr:uid="{797A27FB-9286-43BA-A3D3-06E0B7DF57C7}"/>
-    <hyperlink ref="E82" r:id="rId39" display="https://placehold.co/400x600" xr:uid="{E22D4C78-609C-4F6C-902E-67DDEA2AEC08}"/>
-    <hyperlink ref="E84" r:id="rId40" xr:uid="{689543FA-D772-478F-B75B-353A8D5F5A0F}"/>
-    <hyperlink ref="E86" r:id="rId41" xr:uid="{6F1B4F40-1347-45F9-B0B9-89687F77E0B0}"/>
-    <hyperlink ref="E88" r:id="rId42" xr:uid="{269A95A2-A318-4245-8364-07E925D041A6}"/>
-    <hyperlink ref="E90" r:id="rId43" xr:uid="{BC5C79FD-42B9-4F63-B259-53ADA917C149}"/>
-    <hyperlink ref="E92" r:id="rId44" xr:uid="{F219C840-96AC-40EA-9D7B-C09CBA360D2A}"/>
-    <hyperlink ref="E94" r:id="rId45" xr:uid="{E85B62E0-66A6-4BDE-AB82-B3F3885FF25D}"/>
-    <hyperlink ref="E96" r:id="rId46" xr:uid="{F685C903-F46A-4AEA-A4B6-30F5F5C38E02}"/>
-    <hyperlink ref="E98" r:id="rId47" xr:uid="{34A32507-5178-4AE2-8923-C76F8834EAC3}"/>
-    <hyperlink ref="E100" r:id="rId48" xr:uid="{316F114E-DC59-4C12-AAE4-7C561A6A4A37}"/>
-    <hyperlink ref="E102" r:id="rId49" xr:uid="{E6C4E1E9-ADFC-463C-BA35-72BF5470C0FC}"/>
-    <hyperlink ref="E104" r:id="rId50" xr:uid="{5C2E1F62-17AE-4C61-86CF-CFAADD48E3DA}"/>
-    <hyperlink ref="E106" r:id="rId51" xr:uid="{EB2D28AA-5611-4D14-B6D8-65655568052B}"/>
-    <hyperlink ref="E108" r:id="rId52" xr:uid="{1A1FF6C3-6CA4-4205-87F4-FFA4C505FE05}"/>
-    <hyperlink ref="E110" r:id="rId53" xr:uid="{D5F8DE7D-9A2E-4EB2-AD3E-1B6347BBB03A}"/>
-    <hyperlink ref="E114" r:id="rId54" xr:uid="{F52A7ADE-923C-4FC0-835C-C78BE5475FD1}"/>
-    <hyperlink ref="E116" r:id="rId55" xr:uid="{88BB9B9A-193B-430A-8A94-9996D9F8B858}"/>
+    <hyperlink ref="E31" r:id="rId16" xr:uid="{445C6875-08FB-4A0D-945E-88ACC5B3E36F}"/>
+    <hyperlink ref="E33" r:id="rId17" xr:uid="{65D66EC6-EE19-4700-A25B-1483B78EB1EF}"/>
+    <hyperlink ref="E35" r:id="rId18" xr:uid="{2E844F72-E0A3-4D15-89E8-4C62C40B0097}"/>
+    <hyperlink ref="E37" r:id="rId19" xr:uid="{15AC029B-EF8F-4E8F-BB97-C5EC917FD18C}"/>
+    <hyperlink ref="E39" r:id="rId20" xr:uid="{5FE82AD6-8780-451F-B565-3C9E2036135F}"/>
+    <hyperlink ref="E41" r:id="rId21" xr:uid="{F7983BF9-576C-4FA2-B35A-DFA749ACF1B5}"/>
+    <hyperlink ref="E43" r:id="rId22" xr:uid="{DF66767C-72DE-4D71-B54F-89D37A2B3207}"/>
+    <hyperlink ref="E45" r:id="rId23" xr:uid="{E6907F0E-8A63-42E5-881D-83BE98378391}"/>
+    <hyperlink ref="E47" r:id="rId24" xr:uid="{BF819DDD-F33C-4323-B234-FA5AEFEBF540}"/>
+    <hyperlink ref="E49" r:id="rId25" xr:uid="{B4631102-EF86-443A-975E-E151B867331C}"/>
+    <hyperlink ref="E51" r:id="rId26" xr:uid="{D0C8995E-2389-436D-96F9-0ECFED635D2D}"/>
+    <hyperlink ref="E55" r:id="rId27" xr:uid="{D60F983F-3A4A-4B45-A5A9-1CBD13CCBAB1}"/>
+    <hyperlink ref="E57" r:id="rId28" xr:uid="{DDB2A0FD-936A-490E-BE1E-1762A651B20C}"/>
+    <hyperlink ref="E61" r:id="rId29" xr:uid="{5E732335-693B-490D-844A-64351A2B11C7}"/>
+    <hyperlink ref="E63" r:id="rId30" xr:uid="{B032BBB6-4D16-4E33-A3F0-D7039E10D767}"/>
+    <hyperlink ref="E65" r:id="rId31" xr:uid="{C71F9231-ACA2-46E1-BE2F-462475789CDA}"/>
+    <hyperlink ref="E67" r:id="rId32" xr:uid="{6DAF2527-3F52-4351-90EE-F788A7836287}"/>
+    <hyperlink ref="E69" r:id="rId33" xr:uid="{C213B07F-FB90-4578-BA40-CB5277C5E9F8}"/>
+    <hyperlink ref="E71" r:id="rId34" xr:uid="{B6B3C0BC-449F-4D5F-8991-2960BC1E1B95}"/>
+    <hyperlink ref="E73" r:id="rId35" xr:uid="{12F3E568-1027-43BC-89EA-C5D4D2C3F3B1}"/>
+    <hyperlink ref="E75" r:id="rId36" xr:uid="{9BCFDA15-C8D8-41F6-B5C1-8DB9E3F54F38}"/>
+    <hyperlink ref="E77" r:id="rId37" xr:uid="{5074351A-0735-4679-AE99-F1F491EAD66F}"/>
+    <hyperlink ref="E79" r:id="rId38" xr:uid="{797A27FB-9286-43BA-A3D3-06E0B7DF57C7}"/>
+    <hyperlink ref="E81" r:id="rId39" xr:uid="{E22D4C78-609C-4F6C-902E-67DDEA2AEC08}"/>
+    <hyperlink ref="E83" r:id="rId40" xr:uid="{689543FA-D772-478F-B75B-353A8D5F5A0F}"/>
+    <hyperlink ref="E85" r:id="rId41" xr:uid="{6F1B4F40-1347-45F9-B0B9-89687F77E0B0}"/>
+    <hyperlink ref="E87" r:id="rId42" xr:uid="{269A95A2-A318-4245-8364-07E925D041A6}"/>
+    <hyperlink ref="E89" r:id="rId43" xr:uid="{BC5C79FD-42B9-4F63-B259-53ADA917C149}"/>
+    <hyperlink ref="E91" r:id="rId44" xr:uid="{F219C840-96AC-40EA-9D7B-C09CBA360D2A}"/>
+    <hyperlink ref="E93" r:id="rId45" xr:uid="{E85B62E0-66A6-4BDE-AB82-B3F3885FF25D}"/>
+    <hyperlink ref="E95" r:id="rId46" xr:uid="{F685C903-F46A-4AEA-A4B6-30F5F5C38E02}"/>
+    <hyperlink ref="E97" r:id="rId47" xr:uid="{34A32507-5178-4AE2-8923-C76F8834EAC3}"/>
+    <hyperlink ref="E99" r:id="rId48" xr:uid="{316F114E-DC59-4C12-AAE4-7C561A6A4A37}"/>
+    <hyperlink ref="E101" r:id="rId49" xr:uid="{E6C4E1E9-ADFC-463C-BA35-72BF5470C0FC}"/>
+    <hyperlink ref="E103" r:id="rId50" xr:uid="{5C2E1F62-17AE-4C61-86CF-CFAADD48E3DA}"/>
+    <hyperlink ref="E105" r:id="rId51" xr:uid="{EB2D28AA-5611-4D14-B6D8-65655568052B}"/>
+    <hyperlink ref="E107" r:id="rId52" xr:uid="{1A1FF6C3-6CA4-4205-87F4-FFA4C505FE05}"/>
+    <hyperlink ref="E109" r:id="rId53" xr:uid="{D5F8DE7D-9A2E-4EB2-AD3E-1B6347BBB03A}"/>
+    <hyperlink ref="E113" r:id="rId54" xr:uid="{F52A7ADE-923C-4FC0-835C-C78BE5475FD1}"/>
+    <hyperlink ref="E115" r:id="rId55" xr:uid="{88BB9B9A-193B-430A-8A94-9996D9F8B858}"/>
     <hyperlink ref="E5" r:id="rId56" xr:uid="{673B2D9E-5CEE-40DD-A0A2-66025584E8C2}"/>
     <hyperlink ref="E7" r:id="rId57" xr:uid="{20202916-CECB-497F-BB8D-D7E09DCEC193}"/>
     <hyperlink ref="E9" r:id="rId58" xr:uid="{E7773CE7-BD5F-4624-B940-0E795B4A4E30}"/>
@@ -8952,397 +8871,393 @@
     <hyperlink ref="E25" r:id="rId65" xr:uid="{F6A0C9FE-D2B9-4181-8F81-93868F3E313C}"/>
     <hyperlink ref="E27" r:id="rId66" xr:uid="{848B184F-1DE9-469A-9D63-F5CDEBF10D7A}"/>
     <hyperlink ref="E29" r:id="rId67" xr:uid="{1AF17D20-76D5-4714-B7E2-2D8B8CB9ADC3}"/>
-    <hyperlink ref="E31" r:id="rId68" display="https://placehold.co/400x600" xr:uid="{22DD1D25-8288-4AC9-A5FC-D9B7B89B515C}"/>
-    <hyperlink ref="E33" r:id="rId69" xr:uid="{01F92761-8D63-4A2C-8713-25D41165DB40}"/>
-    <hyperlink ref="E35" r:id="rId70" xr:uid="{FFD57A2F-B179-4903-B296-F8069D1F1332}"/>
-    <hyperlink ref="E37" r:id="rId71" xr:uid="{291A37C6-A686-4CDE-9352-CAE725E23B11}"/>
-    <hyperlink ref="E39" r:id="rId72" xr:uid="{6ECECF25-2624-4D12-A089-9B4C4DBCF38B}"/>
-    <hyperlink ref="E41" r:id="rId73" xr:uid="{B8267D85-A691-4187-91DB-27E364616A8C}"/>
-    <hyperlink ref="E43" r:id="rId74" xr:uid="{AA69E1F0-E88A-495C-A844-C33C82F6CE26}"/>
-    <hyperlink ref="E45" r:id="rId75" xr:uid="{269F03E1-526C-4849-A6D5-8276665E4485}"/>
-    <hyperlink ref="E47" r:id="rId76" xr:uid="{D722AC52-912D-4A3F-8560-FAA4DCA60A56}"/>
-    <hyperlink ref="E49" r:id="rId77" xr:uid="{6ED9D463-8E32-4780-942A-C1EC9D07542B}"/>
-    <hyperlink ref="E51" r:id="rId78" xr:uid="{FAAE2569-D069-46B3-A7AA-6969338A4AFF}"/>
-    <hyperlink ref="E53" r:id="rId79" xr:uid="{919767C3-0A6A-4A63-9549-0F7B3A7EE7DF}"/>
-    <hyperlink ref="E55" r:id="rId80" xr:uid="{BD76B93C-ACC1-4CF1-A623-39E4FAFED853}"/>
-    <hyperlink ref="E57" r:id="rId81" xr:uid="{7964589D-7453-4997-AC7B-F98F5B5B7029}"/>
-    <hyperlink ref="E59" r:id="rId82" xr:uid="{F72D2D0A-AD07-45DC-AA3D-223C36C995AB}"/>
-    <hyperlink ref="E61" r:id="rId83" xr:uid="{D79CAE5D-C5B6-4B75-8261-008B5374EBDB}"/>
-    <hyperlink ref="E63" r:id="rId84" xr:uid="{75C81E45-FAA6-4175-A2FE-BA7C7F71F6F3}"/>
-    <hyperlink ref="E67" r:id="rId85" xr:uid="{F199289C-0CB7-41CD-95E9-D9C97B86A7E7}"/>
-    <hyperlink ref="E69" r:id="rId86" xr:uid="{E4715AC6-7D6D-4434-A585-79B8F25233F6}"/>
-    <hyperlink ref="E71" r:id="rId87" xr:uid="{CFD1BDC4-A848-4998-9430-C29DB079EED4}"/>
-    <hyperlink ref="E73" r:id="rId88" xr:uid="{DEC62E70-AB7A-4365-B90A-11A1D549F375}"/>
-    <hyperlink ref="E75" r:id="rId89" xr:uid="{A925F566-676A-47EA-9068-3A8AC9C78A71}"/>
-    <hyperlink ref="E77" r:id="rId90" xr:uid="{826BB4FF-EF4E-4C68-AE45-B4C9CEE10FB5}"/>
-    <hyperlink ref="E79" r:id="rId91" xr:uid="{D55B186E-0A96-4185-9D34-01F9C47E843E}"/>
-    <hyperlink ref="E81" r:id="rId92" xr:uid="{AC60663B-FB99-47D2-A9DA-11C43648559B}"/>
-    <hyperlink ref="E83" r:id="rId93" xr:uid="{F83899A5-222C-48AC-9ABC-BC254C3600A8}"/>
-    <hyperlink ref="E85" r:id="rId94" display="https://placehold.co/400x600" xr:uid="{2EE015AD-95D3-42D3-9727-0C2D20C22B2D}"/>
-    <hyperlink ref="E87" r:id="rId95" xr:uid="{1E9351A5-5685-4A61-91E2-9C72A14FBA45}"/>
-    <hyperlink ref="E89" r:id="rId96" xr:uid="{DA14C2E4-99E6-4273-B1C6-88E4314A2B53}"/>
-    <hyperlink ref="E91" r:id="rId97" display="https://placehold.co/400x600" xr:uid="{CED33FAF-E705-4A0E-B5BA-28AC459A08F9}"/>
-    <hyperlink ref="E93" r:id="rId98" xr:uid="{69683834-3F44-4B9E-879F-17C7B3985064}"/>
-    <hyperlink ref="E95" r:id="rId99" xr:uid="{6706B29D-6B9E-414D-A766-C429245D96A7}"/>
-    <hyperlink ref="E97" r:id="rId100" xr:uid="{B8549196-6B30-41D5-B870-CDF1F6C0AE2B}"/>
-    <hyperlink ref="E99" r:id="rId101" xr:uid="{70722206-091E-437D-B026-345C8CDB5176}"/>
-    <hyperlink ref="E101" r:id="rId102" xr:uid="{EF057E02-0A38-4475-84BA-2BC1ED64BA7D}"/>
-    <hyperlink ref="E103" r:id="rId103" xr:uid="{F307B800-2CAD-4E08-A635-F4AD9976A897}"/>
-    <hyperlink ref="E105" r:id="rId104" xr:uid="{42F0B609-7315-4192-A377-FDEDE5FDDF8B}"/>
-    <hyperlink ref="E107" r:id="rId105" xr:uid="{0BBF4990-1413-476C-AFE7-EC34A9F113B0}"/>
-    <hyperlink ref="E109" r:id="rId106" xr:uid="{43D0B648-1D21-45A3-A6E9-CB546100DAA2}"/>
-    <hyperlink ref="E111" r:id="rId107" xr:uid="{3BF79D70-269C-4AB5-B83F-712DABFF4480}"/>
-    <hyperlink ref="E113" r:id="rId108" xr:uid="{622A2536-A959-42B4-B4F9-EE23F2A44517}"/>
-    <hyperlink ref="E115" r:id="rId109" xr:uid="{7690046C-47D4-4A7B-8DBE-6704DCCAE9C8}"/>
-    <hyperlink ref="J72" r:id="rId110" display="https://www.linkedin.com/in/dr-nilay-patel-106bab14/" xr:uid="{B2E17E23-9358-429B-BBF9-5EE4C8E363CB}"/>
-    <hyperlink ref="J83" r:id="rId111" display="https://www.linkedin.com/in/poonam-thanki-b112a6a2/" xr:uid="{BB16F397-78CE-4DBD-8BE4-13D65525672B}"/>
-    <hyperlink ref="J57" r:id="rId112" display="https://www.linkedin.com/in/dr-manthan-s-manavadaria-2a222219/" xr:uid="{4954A101-EA09-4BF1-8202-A72F86653038}"/>
-    <hyperlink ref="J18" r:id="rId113" display="https://www.linkedin.com/in/bhavin-mehta-86b47795/" xr:uid="{DB7D7CE8-51EF-48EE-BFBF-A021321BDC5F}"/>
-    <hyperlink ref="J49" r:id="rId114" display="https://www.linkedin.com/in/dr-kanwar-preet-kaur-bamrah-64a3a221/" xr:uid="{53166117-8C5A-4AB4-89B7-C2E8B83BC5A5}"/>
-    <hyperlink ref="J92" r:id="rId115" display="https://www.linkedin.com/in/rikita-chokshi-44bb65263/" xr:uid="{184885D3-531C-43E9-853D-5C2EAF6E7696}"/>
-    <hyperlink ref="J106" r:id="rId116" xr:uid="{FBE16C58-F91B-4934-8550-681C7F68CFE1}"/>
-    <hyperlink ref="J68" r:id="rId117" display="https://www.linkedin.com/in/mrugendrasinh-rahevar/" xr:uid="{F0663F50-387A-4315-8A34-03206888175F}"/>
-    <hyperlink ref="J91" r:id="rId118" display="https://www.linkedin.com/in/ravi-patel-13686b19/" xr:uid="{FC6DE30F-2E95-4AA2-B879-8CEAD23CEEC4}"/>
-    <hyperlink ref="J95" r:id="rId119" display="https://www.linkedin.com/in/ronak-patel-63663613a/" xr:uid="{EB8CC283-1781-41D5-BE2D-3C04AED15B01}"/>
-    <hyperlink ref="J50" r:id="rId120" display="https://www.linkedin.com/in/dr-kawaljitsingh-randhawa-96816064/" xr:uid="{4AE0FF76-EF4F-45C3-A542-A7D876A7DA2C}"/>
-    <hyperlink ref="J19" r:id="rId121" display="http://linkedin.com/in/bimal-patel-b7504849" xr:uid="{B02CE38D-7D41-45E6-8D0A-5F0FCF595503}"/>
-    <hyperlink ref="J71" r:id="rId122" display="https://www.linkedin.com/in/nikita-bhatt-ce/?originalSubdomain=in" xr:uid="{9EC6AE06-F884-4149-B7FC-88140006B7F4}"/>
-    <hyperlink ref="J23" r:id="rId123" display="https://www.linkedin.com/in/deep-kothadiya-phd-70983a86/" xr:uid="{8691FEB4-6E3B-4049-9588-FC79EAF0F2EC}"/>
-    <hyperlink ref="J78" r:id="rId124" display="https://www.linkedin.com/in/parmanand-patel-1269016b/" xr:uid="{53EDE3BB-D85D-4DAD-A587-55DA1C805D27}"/>
-    <hyperlink ref="J52" r:id="rId125" display="https://www.linkedin.com/in/krunal-maheriya-aba5681a1/" xr:uid="{9D29078E-A414-4A64-86B1-F77733FF0F8A}"/>
-    <hyperlink ref="J86" r:id="rId126" xr:uid="{21E8E151-1B01-486F-A7D7-4BE4F0BC0B27}"/>
-    <hyperlink ref="J36" r:id="rId127" display="https://www.linkedin.com/in/dr-hardik-modi-181035b/" xr:uid="{F7F908AF-23C0-42F7-8AFE-DF52AF52580B}"/>
-    <hyperlink ref="J14" r:id="rId128" display="http://hlinkedin.com/in/dr-ashwin-makwana-9a6688112" xr:uid="{3D2F3A09-18C9-4E22-B6FA-494330FEF01E}"/>
-    <hyperlink ref="J80" r:id="rId129" xr:uid="{4DA1EB91-0A15-4D6C-9213-F6D1EE675204}"/>
-    <hyperlink ref="J17" r:id="rId130" xr:uid="{8E63BCC9-6C05-45B8-8789-EBB4905292F2}"/>
-    <hyperlink ref="J35" r:id="rId131" display="https://www.linkedin.com/in/gaurav-kumar1582/" xr:uid="{BF49CFFA-7535-44BB-8F9A-67BEFFD957B6}"/>
-    <hyperlink ref="J29" r:id="rId132" display="https://www.linkedin.com/in/dhaval-patel-481b0885/" xr:uid="{5704F17D-173C-4E5E-89CF-B8F7987D86F5}"/>
-    <hyperlink ref="J77" r:id="rId133" display="https://www.linkedin.com/me?trk=p_mwlite_profile_self-secondary_nav" xr:uid="{6148FF48-4942-4818-844D-79919D56DB98}"/>
-    <hyperlink ref="J67" r:id="rId134" display="https://www.linkedin.com/in/dr-miral-desai-245448a2/" xr:uid="{D2BE1269-3E17-415C-B581-A936373A624C}"/>
-    <hyperlink ref="J32" r:id="rId135" display="https://www.linkedin.com/in/gajanan-patange-05ba2219/overlay/about-this-profile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BEvV8mS8jTpy2mGfBhro1og%3D%3D" xr:uid="{CDEEC399-875E-4DDA-A567-6EFC42A0F87E}"/>
-    <hyperlink ref="J114" r:id="rId136" display="https://www.linkedin.com/in/vikas-panchal-873277251/" xr:uid="{A3606037-07FB-4104-B411-BA37A6E2F3CA}"/>
-    <hyperlink ref="J101" r:id="rId137" display="https://www.linkedin.com/in/sneha-padhiar-4aaa17146/" xr:uid="{8CF4272D-E96D-4E1C-80AD-5D3F2F554C53}"/>
-    <hyperlink ref="J38" r:id="rId138" display="https://www.linkedin.com/in/harshul-yagnik-81a6a022/" xr:uid="{683E4E91-B763-4226-99B6-F3E30837AD4B}"/>
-    <hyperlink ref="J21" r:id="rId139" display="https://www.linkedin.com/in/brinda-patel-652073252" xr:uid="{791133CF-E0A2-4B6D-8618-AC19B4D3A9FA}"/>
-    <hyperlink ref="J28" r:id="rId140" xr:uid="{F8104DB3-2B23-47B7-B622-17690E08D84A}"/>
-    <hyperlink ref="J97" r:id="rId141" xr:uid="{B357E631-0C5E-406B-9B45-A421DE003AD4}"/>
-    <hyperlink ref="J70" r:id="rId142" display="http://www.linkedin.com/in/neha-chauhan22" xr:uid="{E7A9417A-8B16-4D59-A23C-B258564D85D5}"/>
-    <hyperlink ref="J22" r:id="rId143" xr:uid="{895691E5-0B23-47DD-9A36-18923B4FD652}"/>
-    <hyperlink ref="J39" r:id="rId144" display="https://www.linkedin.com/public-profile/settings?trk=d_flagship3_profile_self_view_public_profile" xr:uid="{E4C32594-CCCB-41B2-AE51-AE67F83944BE}"/>
-    <hyperlink ref="J42" r:id="rId145" display="https://www.linkedin.com/in/jalpa-ardeshana-381496b7/" xr:uid="{67C7A4AD-28FD-4291-92FB-A9C4AA0671B4}"/>
-    <hyperlink ref="J102" r:id="rId146" display="https://www.linkedin.com/in/dr-spoorthy-v-10ab3813a/" xr:uid="{EDA5921D-C45B-4D8B-B9FA-3205F4F396D6}"/>
-    <hyperlink ref="J24" r:id="rId147" display="https://www.linkedin.com/in/dhara-patel-839488138" xr:uid="{27C9FC8C-0A44-49AE-8688-8690C8579833}"/>
-    <hyperlink ref="J26" r:id="rId148" display="https://www.linkedin.com/in/dharmendrasinh-chauhan-073a491a4/" xr:uid="{D50E69C7-4F51-4D1B-90EC-FE9F9A44906E}"/>
-    <hyperlink ref="J90" r:id="rId149" display="https://www.linkedin.com/in/rajnik-katriya/" xr:uid="{3AEC1C40-35D9-4AE3-A7E8-9E58FA2C8E43}"/>
-    <hyperlink ref="J98" r:id="rId150" xr:uid="{6137F2DC-1F93-4037-B861-A959BDB6DCE6}"/>
-    <hyperlink ref="J53" r:id="rId151" display="http://www.linkedin.com/in/kundan-patel-b9508b27b" xr:uid="{D4BB537A-7CA1-4F2B-9985-F5921034561E}"/>
-    <hyperlink ref="J81" r:id="rId152" xr:uid="{BFFCC995-B6DF-474C-93AA-BDF180E05422}"/>
-    <hyperlink ref="J111" r:id="rId153" display="https://www.linkedin.com/in/vidisha-pradhan-733a1b63/" xr:uid="{06E43119-E5BC-45C4-9126-F192D3006C5B}"/>
-    <hyperlink ref="J27" r:id="rId154" display="https://www.linkedin.com/in/dharmendrasinh-rathod-4482a2a4/" xr:uid="{3BDD0888-FF6F-403B-8A93-FD5176D0DA38}"/>
-    <hyperlink ref="J54" r:id="rId155" display="http://www.linkedin.com/in/madhav-oza-60bb5650" xr:uid="{24641904-0D92-4561-9EC0-14DC5197E375}"/>
-    <hyperlink ref="J41" r:id="rId156" xr:uid="{10BD029B-F728-4FEF-934E-F502C3B3ECDD}"/>
-    <hyperlink ref="J112" r:id="rId157" display="https://www.linkedin.com/in/dr-vijay-chaudhary-12769b311/" xr:uid="{B15A7FAF-9082-4A84-BAA5-265E44F10859}"/>
-    <hyperlink ref="J62" r:id="rId158" display="http://inkedin.com/in/mjdesai/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=in" xr:uid="{58387078-A78B-4059-8DB7-2DA181BAC97F}"/>
-    <hyperlink ref="J48" r:id="rId159" xr:uid="{F61EBA1D-096B-4367-83C7-464D0E0332DE}"/>
-    <hyperlink ref="J51" r:id="rId160" xr:uid="{A7C5CA17-C1E0-4B34-9F67-339F0FC32426}"/>
-    <hyperlink ref="J65" r:id="rId161" display="https://www.linkedin.com/in/mihirmehta-educational-project-and-placements/" xr:uid="{1EF2631D-C319-4F6C-9AF3-9E886A6E863A}"/>
-    <hyperlink ref="J34" r:id="rId162" display="https://www.linkedin.com/in/gaurang-patel-a99266119/" xr:uid="{4A4B2655-5B11-4CEB-8516-A9D046224C31}"/>
-    <hyperlink ref="J75" r:id="rId163" display="http://www.linkedin.com/in/nishant-koshti-52b68b8b" xr:uid="{2E5CF16C-0D7F-4454-B4F7-592A3EC43855}"/>
-    <hyperlink ref="J20" r:id="rId164" display="https://www.linkedin.com/in/brijesh-kundaliya-552b7722/" xr:uid="{FC5C15E0-2AD1-4E2F-8F1E-F2F96829A7A6}"/>
-    <hyperlink ref="J43" r:id="rId165" display="https://www.linkedin.com/in/jalpesh-vasa/" xr:uid="{6768F239-6E23-4A84-8C3E-45670A76F700}"/>
-    <hyperlink ref="J109" r:id="rId166" display="https://www.linkedin.com/in/vaishali-mewada-7a619053/" xr:uid="{DEFB6E16-7F29-44C5-ACAD-D6B1E16E6C24}"/>
-    <hyperlink ref="J46" r:id="rId167" xr:uid="{CCF872D9-BD3F-4521-9093-8C3148DBAC43}"/>
-    <hyperlink ref="J113" r:id="rId168" display="http://www.linkedin.com/in/vijaykumar-panchal-631852280" xr:uid="{2810BDF3-4A14-413D-B157-AF8059E92C49}"/>
-    <hyperlink ref="J64" r:id="rId169" display="https://www.linkedin.com/in/dr-mihir-bhatt-806a85aa/" xr:uid="{AA93D706-7CF6-45C4-B768-B797EB6775B7}"/>
-    <hyperlink ref="J96" r:id="rId170" display="https://www.linkedin.com/in/dr-sagar-chokshi-8646601a/" xr:uid="{35109E28-E96A-4139-B689-0AB43FF55E92}"/>
-    <hyperlink ref="J84" r:id="rId171" display="http://www.linkedin.com/in/pratik-panchal-a35b325a" xr:uid="{6FB924B7-EDB2-44F0-B0D7-E78551105315}"/>
-    <hyperlink ref="J40" r:id="rId172" display="https://www.linkedin.com/in/hemangi-oza-60a189190/" xr:uid="{AC43F6B8-459E-4FF0-82E4-75F8CDE25269}"/>
-    <hyperlink ref="J110" r:id="rId173" display="http://linkedin.com/in/vibha-parmar-81b3045b" xr:uid="{9792CDE9-6059-48ED-AD46-8BECFEF07152}"/>
-    <hyperlink ref="J59" r:id="rId174" display="http://www.linkedin.com/in/maulik-shah-30b483119" xr:uid="{E23FB3E1-55AD-4659-9463-2B3E19FC5E7D}"/>
-    <hyperlink ref="J99" r:id="rId175" display="http://www.linkedin.com/in/saritavisavalia" xr:uid="{3504F31F-4BD3-4D8B-B727-C2FF9DDFF1EA}"/>
-    <hyperlink ref="J13" r:id="rId176" xr:uid="{ACF63811-234F-442B-91D8-C6863212F92A}"/>
-    <hyperlink ref="J45" r:id="rId177" display="https://www.linkedin.com/in/dr-jigar-sarda-00384414/" xr:uid="{0EFC12BA-8B5C-4E86-968D-797B0D43FD98}"/>
-    <hyperlink ref="J105" r:id="rId178" display="https://www.linkedin.com/in/trusha-patel-gajjar" xr:uid="{98AA2D43-F8B2-4B29-93BA-7A9CCA8109B2}"/>
-    <hyperlink ref="J103" r:id="rId179" display="https://www.linkedin.com/in/srushti-gajjar-92b829142?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{544D82DB-5386-42AC-B979-94C259CA9E97}"/>
-    <hyperlink ref="J94" r:id="rId180" xr:uid="{F1631FCD-D701-415F-89D8-AB6A7D513AC5}"/>
-    <hyperlink ref="J15" r:id="rId181" display="https://www.linkedin.com/in/asifiqbal-thakor-56949b237/" xr:uid="{3A40B3CD-F1BE-4530-B451-07DF410D1272}"/>
-    <hyperlink ref="J56" r:id="rId182" xr:uid="{99110411-88B4-4B0C-9258-D7E7320C877C}"/>
-    <hyperlink ref="J47" r:id="rId183" display="https://www.linkedin.com/in/jivanadhar-joshi-a76a12ab/" xr:uid="{ED0C7354-C517-49E0-BDF5-C6BF1EC0A53C}"/>
-    <hyperlink ref="J104" r:id="rId184" display="https://in.linkedin.com/in/dr-tigmanshu-patel-b3252639" xr:uid="{8223C32D-E35E-4436-B593-C54F5FEED7DB}"/>
-    <hyperlink ref="J44" r:id="rId185" display="http://linkedin.com/in/jay-bhavsar-a4a9646a" xr:uid="{A3106519-72EE-423E-976E-09F1FD98B248}"/>
-    <hyperlink ref="J89" r:id="rId186" display="http://www.linkedin.com/in/purvi-prajapati-37ba6651" xr:uid="{7A2661BA-3D20-4DF8-8332-CC5726684DD1}"/>
-    <hyperlink ref="J74" r:id="rId187" display="https://www.linkedin.com/in/nirpex-patel-508956119/" xr:uid="{8BF234A3-EF12-4093-8EAF-09B2432506EF}"/>
-    <hyperlink ref="J87" r:id="rId188" display="https://www.linkedin.com/in/priyanka-patel-ph-d-00403393/" xr:uid="{8D6AEC45-7FD5-4128-9D12-F2A6CBB1E864}"/>
-    <hyperlink ref="J63" r:id="rId189" display="https://www.linkedin.com/in/mehulkumar-katakiya-029357b8/" xr:uid="{D058A74D-8E61-413C-9B75-7FF7917660C9}"/>
-    <hyperlink ref="J37" r:id="rId190" display="https://www.linkedin.com/in/harmish-bhatt-88581510a/" xr:uid="{7CC36C27-9781-439B-A945-9C1160C69911}"/>
-    <hyperlink ref="J66" r:id="rId191" display="https://www.linkedin.com/in/mikin-patel-24191386/" xr:uid="{3AEB0F01-575C-4799-B7A0-11A1F0947768}"/>
-    <hyperlink ref="J107" r:id="rId192" display="https://www.linkedin.com/in/dr-upesh-patel-875878138/" xr:uid="{5D7DA379-79C5-410F-9398-20936275BC46}"/>
-    <hyperlink ref="J58" r:id="rId193" xr:uid="{509B130C-6A0C-4944-BFE2-75F1FDF097C4}"/>
-    <hyperlink ref="J69" r:id="rId194" display="https://www.linkedin.com/in/muskan-dave-023197162/" xr:uid="{C8C7BB25-838D-4DFF-B4BD-F8943C06375E}"/>
-    <hyperlink ref="J73" r:id="rId195" display="https://www.linkedin.com/in/dr-nirav-bhatt/" xr:uid="{3F4736BB-5DB7-48E0-ABC4-5DBB591E1122}"/>
-    <hyperlink ref="J11" r:id="rId196" xr:uid="{714022ED-2EC9-40BB-978A-F936135E18E1}"/>
-    <hyperlink ref="J93" r:id="rId197" display="https://www.linkedin.com/in/ritesh-patel-462b0b11" xr:uid="{F4558EEF-FFB0-474A-8E3E-CEBF9566FCDB}"/>
-    <hyperlink ref="J116" r:id="rId198" display="http://www.linkedin.com/in/viral-panara-773877201" xr:uid="{4FB52C9B-4BDB-4971-A78B-1CD2EE789E52}"/>
-    <hyperlink ref="J79" r:id="rId199" display="https://www.linkedin.com/in/shah-parth-d/" xr:uid="{A61E294E-BDA5-4C2E-BA18-BA2B9C98C973}"/>
-    <hyperlink ref="J33" r:id="rId200" display="https://www.linkedin.com/in/gargi-ray-983a8522/" xr:uid="{0C76E47F-7D1B-4E1C-A88F-86156C9D1D6E}"/>
-    <hyperlink ref="J100" r:id="rId201" display="http://www.linkedin.com/in/satayu-travadi-9aab0919" xr:uid="{A79F3F36-387F-427F-848C-3BB8A221E707}"/>
-    <hyperlink ref="J88" r:id="rId202" xr:uid="{A7A467B8-5468-4830-9ADC-34F28E8899B5}"/>
-    <hyperlink ref="J30" r:id="rId203" display="https://www.linkedin.com/in/dheeraj-kumar-shringi-030586107?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{D1B60D12-635A-4E71-93D8-B47244D1EF44}"/>
-    <hyperlink ref="J85" r:id="rId204" display="https://in.linkedin.com/in/pratik-mochi-09764b102?original_referer=https%3A%2F%2Fwww.google.com%2F" xr:uid="{CD8066BB-0BA9-4FA9-88DB-0C291F6209A7}"/>
-    <hyperlink ref="J108" r:id="rId205" display="https://www.linkedin.com/in/vaibhavi-patel-67b035224/" xr:uid="{51D509E7-546B-4519-845F-AF5DC77392B9}"/>
-    <hyperlink ref="J60" r:id="rId206" display="http://www.linkedin.com/in/mayuri-popat-213852b1" xr:uid="{336D4B2F-0BBF-4ADA-8647-F20659482547}"/>
-    <hyperlink ref="J55" r:id="rId207" display="http://www.linkedin.com/in/madhavajwalia" xr:uid="{8DE9B663-AD20-42DB-A7F0-4FD167AD95E8}"/>
-    <hyperlink ref="J115" r:id="rId208" display="https://www.linkedin.com/in/vipul-vyas-19214bab/" xr:uid="{00F74D28-7144-4D8C-9870-393AE49126D5}"/>
-    <hyperlink ref="J31" r:id="rId209" display="http://www.linkedin.com/in/dipalkumar-patel-4b97997" xr:uid="{CFB485EB-93AC-436E-BD76-13F13D42FA00}"/>
-    <hyperlink ref="J76" r:id="rId210" display="https://www.linkedin.com/in/nishat-shaikh-b7446019a/" xr:uid="{45535606-CAE7-44BB-B1C5-622D742D5E66}"/>
-    <hyperlink ref="J16" r:id="rId211" display="https://www.linkedin.com/in/avani-khokhariya/" xr:uid="{F2664F6A-73CC-4DAD-982B-E296BD77DF0A}"/>
-    <hyperlink ref="J82" r:id="rId212" xr:uid="{2C60818F-B78B-4EC2-9BA4-C7D88C933280}"/>
-    <hyperlink ref="J25" r:id="rId213" display="https://www.linkedin.com/in/dhara-s-032a6a24/" xr:uid="{4FE7FF63-A73E-4E09-94C4-E2CD5FE6F81D}"/>
-    <hyperlink ref="K72" r:id="rId214" xr:uid="{E7CCB95C-4D9A-474B-9296-0EE719EC4AB3}"/>
-    <hyperlink ref="K92" r:id="rId215" xr:uid="{92D21BA9-793A-4610-9A6A-641322C6CC28}"/>
-    <hyperlink ref="K106" r:id="rId216" xr:uid="{2E05A515-7245-4DDB-9E9C-D041E881E2BF}"/>
-    <hyperlink ref="K86" r:id="rId217" xr:uid="{8C1C3B99-0196-4695-95EB-EEFEEA76042B}"/>
-    <hyperlink ref="K67" r:id="rId218" xr:uid="{4C2AA447-E23D-4BD3-8516-CF8A69E7C676}"/>
-    <hyperlink ref="K90" r:id="rId219" xr:uid="{68D88C01-9035-44B0-9EAE-4AE7236572CC}"/>
-    <hyperlink ref="K98" r:id="rId220" xr:uid="{B89BB500-5F1B-4985-B0B7-D69D9B22538C}"/>
-    <hyperlink ref="K27" r:id="rId221" xr:uid="{461288D1-54CE-41D7-ACBC-4EB753D35618}"/>
-    <hyperlink ref="K64" r:id="rId222" display="https://sites.google.com/a/charusat.ac.in/mihir-bhatt-ee/home/about-me?pli=1" xr:uid="{DD66FE1D-24F8-42A6-8DDC-651F08933CB6}"/>
-    <hyperlink ref="K45" r:id="rId223" xr:uid="{185428FC-1CEB-406E-A327-B537B63CC062}"/>
-    <hyperlink ref="K105" r:id="rId224" xr:uid="{6E3402FB-A293-4394-A12F-C9CE90A43581}"/>
-    <hyperlink ref="K94" r:id="rId225" display="https://sites.google.com/view/ronak-patel/" xr:uid="{30BB4B45-BE3C-4B51-8751-F1166793B9D8}"/>
-    <hyperlink ref="K87" r:id="rId226" display="https://sites.google.com/a/charusat.ac.in/priyanka-patel/about-me" xr:uid="{2F80CF65-0198-4866-9245-0932E2D2E991}"/>
-    <hyperlink ref="K11" r:id="rId227" xr:uid="{B7911887-1D4E-4149-9255-34290DE15C67}"/>
-    <hyperlink ref="K93" r:id="rId228" xr:uid="{CC19190B-EF5A-4030-970E-47B4649A66EC}"/>
-    <hyperlink ref="K79" r:id="rId229" display="http://learnwithparth.in/" xr:uid="{0D098BA1-951E-49B0-BA34-5489DFACFB69}"/>
-    <hyperlink ref="K60" r:id="rId230" display="https://sites.google.com/charusat.ac.in/mayuri-popat/home/academic-experience?authuser=0" xr:uid="{CD111632-8632-4F99-808E-7B0BA423BCF0}"/>
-    <hyperlink ref="K25" r:id="rId231" display="http://https/www.simpldhara.github.io" xr:uid="{1B0FEF49-7DD4-45B9-B1E6-577EDB068225}"/>
-    <hyperlink ref="K4" r:id="rId232" xr:uid="{A55ED677-5A40-43B5-A2E0-3934032012FA}"/>
-    <hyperlink ref="I12" r:id="rId233" xr:uid="{559F5BE6-A98D-4918-9ADE-3B5DB2AC1B24}"/>
-    <hyperlink ref="I13" r:id="rId234" xr:uid="{B5B2A2F7-DD9E-4163-AECE-07D5742E906D}"/>
-    <hyperlink ref="I49" r:id="rId235" xr:uid="{2DF8A589-77D3-487D-9871-F11C086009D1}"/>
-    <hyperlink ref="I82" r:id="rId236" xr:uid="{4F6BB86B-ECFA-4396-9D2B-715AF4C8A22C}"/>
-    <hyperlink ref="I50" r:id="rId237" xr:uid="{C80EDEE3-BA73-444F-89E4-2007846DC254}"/>
-    <hyperlink ref="I90" r:id="rId238" xr:uid="{E27523F8-498C-4ABD-8999-7C5FE36E5CA5}"/>
-    <hyperlink ref="L72" r:id="rId239" xr:uid="{948CADBD-38FA-4A43-B789-35C5FE176C3F}"/>
-    <hyperlink ref="L3" r:id="rId240" xr:uid="{F46A9101-D683-4CCF-9110-8584476B2BA9}"/>
-    <hyperlink ref="L83" r:id="rId241" xr:uid="{6E19F5D8-BA05-4C24-BFED-0131679AE1A3}"/>
-    <hyperlink ref="L57" r:id="rId242" xr:uid="{15D92DD2-9C84-4024-BCB0-89C6EAD615FB}"/>
-    <hyperlink ref="L18" r:id="rId243" xr:uid="{E24865B7-0C5D-46C6-8B52-CB38271DBD7E}"/>
-    <hyperlink ref="L49" r:id="rId244" xr:uid="{4D2C143E-EFF2-43ED-8C1B-94D7326ABF76}"/>
-    <hyperlink ref="L92" r:id="rId245" xr:uid="{22687922-AA0C-441B-A3FA-FB8732C6A78E}"/>
-    <hyperlink ref="L106" r:id="rId246" display="https://scholar.google.com/citations?user=Gzsxo-oAAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{FF9B096B-7991-46C3-B06A-152491BA6C90}"/>
-    <hyperlink ref="L68" r:id="rId247" xr:uid="{690AB285-269F-47C4-BA46-90F767A79CC1}"/>
-    <hyperlink ref="L91" r:id="rId248" xr:uid="{9AF26C9F-30B4-4DAE-A809-C138362FFD00}"/>
-    <hyperlink ref="L95" r:id="rId249" xr:uid="{8D4A0E6E-AA77-4CD4-AA54-DEC95D5CF09E}"/>
-    <hyperlink ref="L50" r:id="rId250" xr:uid="{A64FDC24-6D97-4969-AC20-BF200CE32B3A}"/>
-    <hyperlink ref="L19" r:id="rId251" xr:uid="{2DF7625D-5BDC-4383-BFF5-27331B9E27C1}"/>
-    <hyperlink ref="L71" r:id="rId252" display="https://scholar.google.co.in/citations?user=9PPA-6oAAAAJ&amp;hl=en" xr:uid="{38968AA0-46FD-46B0-84CD-C755BCC30A99}"/>
-    <hyperlink ref="L23" r:id="rId253" xr:uid="{4FF8802A-1D76-4C6B-91B4-17C781B102D6}"/>
-    <hyperlink ref="L52" r:id="rId254" xr:uid="{8365015A-789A-4D2C-9684-352B6CC70A5E}"/>
-    <hyperlink ref="L86" r:id="rId255" xr:uid="{BD03203D-E2A2-453C-8DB9-B1F0B5A13124}"/>
-    <hyperlink ref="L36" r:id="rId256" display="https://scholar.google.com/citations?user=ay8-QY0AAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{CEA8B045-C60C-4ADA-9F10-8B980373388F}"/>
-    <hyperlink ref="L14" r:id="rId257" display="https://scholar.google.com/citations?user=TCsNw-YAAAAJ&amp;hl=en" xr:uid="{D0B58B70-976E-4FD0-A498-4FE5480744DA}"/>
-    <hyperlink ref="L17" r:id="rId258" xr:uid="{19EAA634-8BE7-4A2F-8B30-8A424E254965}"/>
-    <hyperlink ref="L29" r:id="rId259" xr:uid="{3D65CD0F-C15B-4E98-9324-C36FAB47EBC4}"/>
-    <hyperlink ref="L67" r:id="rId260" xr:uid="{264FF3AA-8D89-41E4-9DA6-521BD58711A9}"/>
-    <hyperlink ref="L32" r:id="rId261" display="https://www.bing.com/ck/a?!&amp;&amp;p=6a7ac5a017a1300aJmltdHM9MTcyOTQ2ODgwMCZpZ3VpZD0wMDExMmIyNS1kMzQ5LTY3MTItMmE4My0zZTA1ZDI1NjY2MWEmaW5zaWQ9NTE5NQ&amp;ptn=3&amp;ver=2&amp;hsh=3&amp;fclid=00112b25-d349-6712-2a83-3e05d256661a&amp;psq=google+scholer+gajanan+patange&amp;u=a1aHR0cHM6Ly9zY2hvbGFyLmdvb2dsZS5wbC9jaXRhdGlvbnM_dXNlcj1fRDRISUhjQUFBQUomaGw9ZW4&amp;ntb=1" xr:uid="{275A790E-9657-41D9-B9F2-78D3822C4310}"/>
-    <hyperlink ref="L9" r:id="rId262" xr:uid="{758E6349-E050-42DF-B5C3-FBA97B821030}"/>
-    <hyperlink ref="L114" r:id="rId263" xr:uid="{9ACD46AD-FE8F-41CE-9823-5DC65F691D5B}"/>
-    <hyperlink ref="L4" r:id="rId264" xr:uid="{9B291D90-C0E1-493C-9E5E-17CAF2B7D2F2}"/>
-    <hyperlink ref="L12" r:id="rId265" xr:uid="{8C6729CD-380A-483D-A997-7DBCBA390939}"/>
-    <hyperlink ref="L101" r:id="rId266" xr:uid="{C07AED6D-34B0-40AA-B65E-C9BFB9F1574D}"/>
-    <hyperlink ref="L38" r:id="rId267" display="https://scholar.google.com/citations?user=6d-aVTEAAAAJ&amp;hl=en" xr:uid="{EBC010F8-7D12-4DC1-9FDA-49EFC51EFF71}"/>
-    <hyperlink ref="L21" r:id="rId268" xr:uid="{0DDB7A07-865A-4AD7-986A-DE5D031FFBD0}"/>
-    <hyperlink ref="L28" r:id="rId269" xr:uid="{E6ABE8A4-4EFC-489A-B104-3BCC2E998A7B}"/>
-    <hyperlink ref="L97" r:id="rId270" xr:uid="{ABDCFD31-BA21-4022-B6C1-EDDD441956ED}"/>
-    <hyperlink ref="L6" r:id="rId271" xr:uid="{591DF322-16B2-4785-A83C-3147BF3D09D2}"/>
-    <hyperlink ref="L70" r:id="rId272" xr:uid="{BB403419-C3FE-440B-B0A2-AF35C3C2E8E3}"/>
-    <hyperlink ref="L22" r:id="rId273" xr:uid="{A227399F-9975-4976-9597-2D3E6151DCB8}"/>
-    <hyperlink ref="L39" r:id="rId274" xr:uid="{535A1FEE-65AB-4486-BF0D-ADD9A3382AFB}"/>
-    <hyperlink ref="L42" r:id="rId275" display="https://scholar.google.com/citations?hl=en&amp;user=geQ-r_QAAAAJ" xr:uid="{36509863-135E-43CA-B732-4C0DEFDDC2FC}"/>
-    <hyperlink ref="L102" r:id="rId276" xr:uid="{7F8D3F89-D92D-4081-B489-E387250A10BD}"/>
-    <hyperlink ref="L24" r:id="rId277" xr:uid="{B4A03D8A-649C-469B-B24A-E9F9B481D48B}"/>
-    <hyperlink ref="L26" r:id="rId278" xr:uid="{D3034C74-7237-42E2-A6B8-CD4BA8BBBF41}"/>
-    <hyperlink ref="L90" r:id="rId279" xr:uid="{53AE3D77-EDB3-413A-8D8F-16969CBE8103}"/>
-    <hyperlink ref="L98" r:id="rId280" xr:uid="{76D99C50-072C-40D7-BDEB-328FCCB109D9}"/>
-    <hyperlink ref="L53" r:id="rId281" xr:uid="{CD634DA2-F1A0-45FA-A86C-61D935383D2E}"/>
-    <hyperlink ref="L81" r:id="rId282" xr:uid="{F6874B5E-545B-4745-A546-56B6FD5105E9}"/>
-    <hyperlink ref="L111" r:id="rId283" xr:uid="{C22F05F4-D13D-45A5-A5B0-3237064F3209}"/>
-    <hyperlink ref="L27" r:id="rId284" xr:uid="{32CD251C-92CC-42C2-865F-89BE3026727C}"/>
-    <hyperlink ref="L54" r:id="rId285" xr:uid="{287D782E-D3CC-498E-B117-EBE696C4D447}"/>
-    <hyperlink ref="L41" r:id="rId286" xr:uid="{B241D450-267C-40BF-9C45-8957239BDD86}"/>
-    <hyperlink ref="L62" r:id="rId287" xr:uid="{AA7AD692-35BE-48A4-AF46-1B6413916E3B}"/>
-    <hyperlink ref="L48" r:id="rId288" display="https://scholar.google.co.in/citations?user=EdcH-Y0AAAAJ&amp;hl=en" xr:uid="{CE335172-93AC-45C2-9068-7C9C19F220C4}"/>
-    <hyperlink ref="L10" r:id="rId289" xr:uid="{A33E4A1F-E63E-4F7D-9DC5-3C5AB6E82811}"/>
-    <hyperlink ref="L51" r:id="rId290" xr:uid="{027764B5-CA65-453C-BFB6-EE555AA7BF1B}"/>
-    <hyperlink ref="L61" r:id="rId291" xr:uid="{E2F70942-EACF-4A90-B18A-A80CB466AAE7}"/>
-    <hyperlink ref="L65" r:id="rId292" xr:uid="{5645BFE0-C2D6-4EED-AFCB-0EF806CC91E9}"/>
-    <hyperlink ref="L34" r:id="rId293" xr:uid="{EE598F68-E624-44F6-B4DD-8299C007487F}"/>
-    <hyperlink ref="L75" r:id="rId294" display="https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=-9-RhBoAAAAJ" xr:uid="{E935D410-8781-42B6-B609-E835354DEBBB}"/>
-    <hyperlink ref="L5" r:id="rId295" display="https://scholar.google.co.in/citations?user=cVv-kdYAAAAJ&amp;hl=en" xr:uid="{746C1EFC-2FA9-49B1-AFB8-1C7FCA47096B}"/>
-    <hyperlink ref="L20" r:id="rId296" display="https://scholar.google.com/citations?user=dHkQ5D4AAAAJ&amp;hl=en" xr:uid="{25860FE4-2E75-42A8-BFFE-3AA02DEED40F}"/>
-    <hyperlink ref="L43" r:id="rId297" xr:uid="{5A9FF0C8-1A53-40E2-BF07-8AE47CB6B984}"/>
-    <hyperlink ref="L109" r:id="rId298" xr:uid="{5C89C29F-A386-4BBA-9788-4CB223E1744F}"/>
-    <hyperlink ref="L46" r:id="rId299" xr:uid="{63EFEA34-4397-48CB-B385-33D61D726E20}"/>
-    <hyperlink ref="L64" r:id="rId300" xr:uid="{0A4BFD56-8B2D-444E-8903-49F5DC5883A4}"/>
-    <hyperlink ref="L96" r:id="rId301" display="https://scholar.google.com/citations?hl=en&amp;user=utk-ZT0AAAAJ" xr:uid="{501E8FB4-1DC4-4EBD-A3BE-50F19352C1F0}"/>
-    <hyperlink ref="L84" r:id="rId302" xr:uid="{37E9CEEB-DC2C-46A2-BCF4-5A9521147A39}"/>
-    <hyperlink ref="L40" r:id="rId303" xr:uid="{EEF5DC34-1243-4468-B6B1-D9059ADE8AB0}"/>
-    <hyperlink ref="L110" r:id="rId304" display="https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;hl=en&amp;user=HDdsZFsAAAAJ&amp;scilu=&amp;scisig=AJY4_hMAAAAAZxidz75RZUbVraeNHOVGYgbAfP0&amp;gmla=ALUCkoUwv9xfR7EENoQtBn_aiKaqTyzZ1X2kORl9--L4aBw5WcKwjoDCVXVaogYeCbraaig0PTa5IzrpT_DyD12Vlt-ODcDk1Nt3fM0&amp;sciund=7577126703303180020" xr:uid="{197DCE6B-BB53-49E3-9D84-78838F524694}"/>
-    <hyperlink ref="L59" r:id="rId305" xr:uid="{B559F61A-BA8D-4A15-AF94-270FD8E6EE0D}"/>
-    <hyperlink ref="L99" r:id="rId306" xr:uid="{BDF263A7-4F8B-46B8-BBE8-705BBF9DE738}"/>
-    <hyperlink ref="L13" r:id="rId307" xr:uid="{7649604F-C033-4670-9F95-0C2C5AC47C84}"/>
-    <hyperlink ref="L45" r:id="rId308" xr:uid="{035221F3-6BA9-41F1-A09D-0FD648704591}"/>
-    <hyperlink ref="L105" r:id="rId309" xr:uid="{1CDECF45-D107-4A0E-A561-5D783437E97C}"/>
-    <hyperlink ref="L103" r:id="rId310" xr:uid="{B653EAA6-C485-435F-854D-438BD267A19D}"/>
-    <hyperlink ref="L94" r:id="rId311" xr:uid="{BAF6ABB2-16F7-4B7A-8AC8-F52F94951E56}"/>
-    <hyperlink ref="L15" r:id="rId312" xr:uid="{F38927F1-EEEB-453A-8636-E6644582D973}"/>
-    <hyperlink ref="L56" r:id="rId313" xr:uid="{9E4C99F0-F427-4B73-88C1-9DDF17D8ABDE}"/>
-    <hyperlink ref="L47" r:id="rId314" xr:uid="{4048416A-0F5D-4582-8A3D-08AFC13874F9}"/>
-    <hyperlink ref="L104" r:id="rId315" xr:uid="{8400FD3C-B4D9-436A-8179-88B2F74CE3F2}"/>
-    <hyperlink ref="L44" r:id="rId316" xr:uid="{201F5259-DE23-43B6-A300-CE6428FFA5ED}"/>
-    <hyperlink ref="L89" r:id="rId317" xr:uid="{31420B66-56AB-4794-90CA-5F5AFEE32FDC}"/>
-    <hyperlink ref="L87" r:id="rId318" xr:uid="{C4F50DBC-0BFE-4509-9E86-8433559B0E5F}"/>
-    <hyperlink ref="L63" r:id="rId319" xr:uid="{90FCCA59-114D-4A5C-9409-D7A92B5C554D}"/>
-    <hyperlink ref="L37" r:id="rId320" xr:uid="{86700D43-54F6-409C-AA74-11A10CF95742}"/>
-    <hyperlink ref="L66" r:id="rId321" xr:uid="{C018FF9B-EED7-4A65-95FA-780ACBBA2D7E}"/>
-    <hyperlink ref="L107" r:id="rId322" xr:uid="{60A89811-803F-44C1-9C4C-03400FFC3370}"/>
-    <hyperlink ref="L58" r:id="rId323" display="https://scholar.google.com/citations?user=D-wd8QgAAAAJ&amp;hl=en" xr:uid="{FEE2843B-8463-42EA-93D3-8C0055A27E1B}"/>
-    <hyperlink ref="L73" r:id="rId324" xr:uid="{D89F1643-F631-4232-BD92-A17AB43537BB}"/>
-    <hyperlink ref="L2" r:id="rId325" xr:uid="{FA588FCD-5B5F-455C-A8F1-363E48BF4B34}"/>
-    <hyperlink ref="L11" r:id="rId326" xr:uid="{75F0D2F4-DBF8-4BC0-81C8-E510EB404F91}"/>
-    <hyperlink ref="L93" r:id="rId327" xr:uid="{4B1641D3-9830-41C6-9804-FD4F1CAA246E}"/>
-    <hyperlink ref="L116" r:id="rId328" xr:uid="{187B270B-DD03-4B4E-A0EC-FA089BBBF941}"/>
-    <hyperlink ref="L79" r:id="rId329" xr:uid="{09000797-9862-4D17-81A3-8BF615CB0D28}"/>
-    <hyperlink ref="L33" r:id="rId330" xr:uid="{30E40F4D-0941-4C35-B988-415178726C05}"/>
-    <hyperlink ref="L100" r:id="rId331" xr:uid="{2A5203BE-43E1-47B8-B2C4-1CC37588A5AB}"/>
-    <hyperlink ref="L88" r:id="rId332" xr:uid="{570C26B0-6EF3-40AB-BBA0-06474B8C9E9F}"/>
-    <hyperlink ref="L30" r:id="rId333" xr:uid="{8315B941-53AD-4CC4-8A93-715BF028D5D6}"/>
-    <hyperlink ref="L85" r:id="rId334" xr:uid="{A11BA51D-FBB4-444E-9239-AD5CA8BDA6AA}"/>
-    <hyperlink ref="L108" r:id="rId335" xr:uid="{BD6653EC-2D4F-4519-B739-A572013209E8}"/>
-    <hyperlink ref="L60" r:id="rId336" xr:uid="{FCDEB08A-0CA4-4598-B598-28FC8001225C}"/>
-    <hyperlink ref="L55" r:id="rId337" xr:uid="{21317881-56A9-411E-B0E0-953DFEB53FB5}"/>
-    <hyperlink ref="L115" r:id="rId338" xr:uid="{2C2ECFF6-DA6C-4C65-B48D-83C8B953A10F}"/>
-    <hyperlink ref="L7" r:id="rId339" xr:uid="{AC52BE48-B1BC-4E71-B6C1-88AF068D6F7B}"/>
-    <hyperlink ref="L31" r:id="rId340" xr:uid="{7701D08D-592D-4F08-8A1D-722D9125A481}"/>
-    <hyperlink ref="L76" r:id="rId341" xr:uid="{08A9DD36-F049-430E-ACEE-0254B9EB019D}"/>
-    <hyperlink ref="L82" r:id="rId342" xr:uid="{69BD5E03-494B-42BC-B711-BD56B50C14BD}"/>
-    <hyperlink ref="L8" r:id="rId343" display="https://scholar.google.com/citations?user=49QO52oAAAAJ&amp;hl=en&amp;citsig=ADIE8snLeq6YPks1Pa9NqbNhY8-8" xr:uid="{597E11F7-5E1F-4746-9B2D-F0B3CE2DAADD}"/>
-    <hyperlink ref="M72" r:id="rId344" display="https://vidwan.inflibnet.ac.in/profile/161243/MTYxMjQz" xr:uid="{377E489A-5F66-4D39-9D16-5A09C06888BF}"/>
-    <hyperlink ref="M3" r:id="rId345" xr:uid="{969CA3F3-003E-45D0-B448-786C1B45A99B}"/>
-    <hyperlink ref="M83" r:id="rId346" xr:uid="{FCF270CA-7E29-44DE-9B34-531A560121D2}"/>
-    <hyperlink ref="M57" r:id="rId347" xr:uid="{27A56F3E-3B7A-497C-B419-6D4EB0B36DFE}"/>
-    <hyperlink ref="M18" r:id="rId348" xr:uid="{A8B03D72-4F58-488B-AA71-6FE545C4F974}"/>
-    <hyperlink ref="M49" r:id="rId349" xr:uid="{46B27430-2CB4-4571-B683-C90BDB1A869A}"/>
-    <hyperlink ref="M92" r:id="rId350" xr:uid="{B3372949-44D6-47D3-93F5-F231A1194C2D}"/>
-    <hyperlink ref="M106" r:id="rId351" xr:uid="{BD564D33-09CC-4E3F-8665-C7CC006586D4}"/>
-    <hyperlink ref="M68" r:id="rId352" xr:uid="{46D7BE4E-C50A-4838-A0D5-A66608E30FB1}"/>
-    <hyperlink ref="M91" r:id="rId353" xr:uid="{49346F82-88CD-458B-9055-E1D237495067}"/>
-    <hyperlink ref="M95" r:id="rId354" xr:uid="{275EA512-D486-4AA6-B9C6-EDFD8EB5E681}"/>
-    <hyperlink ref="M50" r:id="rId355" xr:uid="{F1370FFD-2A24-4E0D-842E-D15A59048874}"/>
-    <hyperlink ref="M19" r:id="rId356" xr:uid="{B079BDCE-9644-48D8-ADB9-55246D89BB3B}"/>
-    <hyperlink ref="M71" r:id="rId357" xr:uid="{21DA9F6E-42F2-4C08-8BCC-45E0F47AC02F}"/>
-    <hyperlink ref="M23" r:id="rId358" display="https://vidwan.inflibnet.ac.in/profile/162290/MTYyMjkw" xr:uid="{C5101B56-8150-4439-9561-ADE65CCB8626}"/>
-    <hyperlink ref="M78" r:id="rId359" xr:uid="{FA23B353-3F9D-46B1-82DA-820AA4FBE86D}"/>
-    <hyperlink ref="M86" r:id="rId360" xr:uid="{680496D4-6792-4688-B37B-3D2836A2CBB1}"/>
-    <hyperlink ref="M36" r:id="rId361" xr:uid="{C295F105-2491-4119-851F-B09A35F5D83B}"/>
-    <hyperlink ref="M14" r:id="rId362" xr:uid="{C6A42F1F-C70B-482C-BAF5-08E29835556D}"/>
-    <hyperlink ref="M80" r:id="rId363" xr:uid="{D12744D8-8D17-44EF-A69E-A1A202FA6698}"/>
-    <hyperlink ref="M17" r:id="rId364" xr:uid="{026E65A7-E47E-491B-A07D-37EBD353FD4E}"/>
-    <hyperlink ref="M35" r:id="rId365" xr:uid="{5D0B8227-026E-47C4-897D-D449D1EA7349}"/>
-    <hyperlink ref="M29" r:id="rId366" xr:uid="{02E7C489-97EB-4764-B304-885B559F8C0E}"/>
-    <hyperlink ref="M67" r:id="rId367" xr:uid="{7BCC998C-8FF9-4866-BDE0-4E618132491D}"/>
-    <hyperlink ref="M9" r:id="rId368" xr:uid="{91B9619A-0474-417B-A83E-F1ACC0AF0CEC}"/>
-    <hyperlink ref="M114" r:id="rId369" xr:uid="{9DC7345F-59EF-46AB-AFF8-A485034FCFB5}"/>
-    <hyperlink ref="M4" r:id="rId370" xr:uid="{C24F8B1B-E131-406E-8B92-980981B7F2F8}"/>
-    <hyperlink ref="M12" r:id="rId371" xr:uid="{BBE0AFF3-0C87-45BA-B244-2EBD516259AE}"/>
-    <hyperlink ref="M101" r:id="rId372" xr:uid="{36A3294C-FBE9-4AE5-B367-A4F7EB299507}"/>
-    <hyperlink ref="M38" r:id="rId373" xr:uid="{CC9655FE-1EDD-46F8-BE5B-9E92C5013680}"/>
-    <hyperlink ref="M21" r:id="rId374" xr:uid="{47BBD086-2D33-4012-A8B6-B4A4E0F676C3}"/>
-    <hyperlink ref="M28" r:id="rId375" xr:uid="{D9812B9F-31E0-4DAD-8A1E-6460EF4BE795}"/>
-    <hyperlink ref="M97" r:id="rId376" xr:uid="{194FE3FD-0EF9-46C4-B769-B4AAF95E0018}"/>
-    <hyperlink ref="M6" r:id="rId377" xr:uid="{3C597F50-A6C7-4686-85A0-F6E6694F57E3}"/>
-    <hyperlink ref="M70" r:id="rId378" xr:uid="{A87D811B-910D-45F2-BF34-A478CD7D8B09}"/>
-    <hyperlink ref="M22" r:id="rId379" xr:uid="{686F19E9-9FDF-4E88-8243-D809ABB3FE79}"/>
-    <hyperlink ref="M42" r:id="rId380" xr:uid="{FB2FC638-1D01-4122-BA7D-9717BC8B2EF3}"/>
-    <hyperlink ref="M102" r:id="rId381" xr:uid="{F0E56AD7-3828-45B1-A3E4-95B4E7B7495F}"/>
-    <hyperlink ref="M24" r:id="rId382" xr:uid="{5E6A27FA-6F1B-4920-AF3A-0018DC331E36}"/>
-    <hyperlink ref="M26" r:id="rId383" xr:uid="{758E2E1D-BBB4-4F0B-A1FA-EB3E5DE2D156}"/>
-    <hyperlink ref="M90" r:id="rId384" xr:uid="{1C320BD2-5251-44A7-81C2-D89E208736CC}"/>
-    <hyperlink ref="M98" r:id="rId385" xr:uid="{4BF3D2D2-9743-494B-A7D1-9EEF7423F2B3}"/>
-    <hyperlink ref="M53" r:id="rId386" xr:uid="{642FC8EF-95E5-4804-8108-73A9ADB45FBB}"/>
-    <hyperlink ref="M81" r:id="rId387" xr:uid="{6069906B-85A1-4520-B697-E8420F4D518A}"/>
-    <hyperlink ref="M111" r:id="rId388" xr:uid="{45C10A27-1AD3-4A6F-966C-946B5F9ECB83}"/>
-    <hyperlink ref="M27" r:id="rId389" xr:uid="{F2CE36A5-3E73-43DE-A91D-5D1E2781384A}"/>
-    <hyperlink ref="M54" r:id="rId390" xr:uid="{6815F862-B01A-4FF2-B310-DDE65D78FBDB}"/>
-    <hyperlink ref="M41" r:id="rId391" xr:uid="{2167CAC5-42F7-48BE-A140-282801D50406}"/>
-    <hyperlink ref="M112" r:id="rId392" xr:uid="{2D0BE123-EDFD-4091-BCF0-204188FF3B30}"/>
-    <hyperlink ref="M62" r:id="rId393" xr:uid="{7A45E352-1CCC-4E30-B5C0-2C2507845C07}"/>
-    <hyperlink ref="M48" r:id="rId394" xr:uid="{D69AB844-8B39-4156-9897-B02CB20CA4D5}"/>
-    <hyperlink ref="M10" r:id="rId395" xr:uid="{04F1C981-8348-4D72-8A69-A692D3062D64}"/>
-    <hyperlink ref="M51" r:id="rId396" xr:uid="{65DE02F5-B84D-45D0-9DC1-F7808BDFD38D}"/>
-    <hyperlink ref="M61" r:id="rId397" xr:uid="{C49314E6-1B8D-41D3-8824-C6AE59F00DDA}"/>
-    <hyperlink ref="M65" r:id="rId398" xr:uid="{22CCAF6F-639B-4091-91C4-0D9E09A79A31}"/>
-    <hyperlink ref="M34" r:id="rId399" xr:uid="{9E6DCF4C-EA31-4D9D-AE0D-50C83C0347DE}"/>
-    <hyperlink ref="M75" r:id="rId400" xr:uid="{D71D3644-6845-46C5-83D7-DA2B52AF5733}"/>
-    <hyperlink ref="M5" r:id="rId401" xr:uid="{7687E521-D8FB-41F5-A5E6-AE953D92E830}"/>
-    <hyperlink ref="M20" r:id="rId402" xr:uid="{4DDDF623-882B-481C-A6D6-41041F349837}"/>
-    <hyperlink ref="M43" r:id="rId403" xr:uid="{52C3C99B-42C3-444C-A194-78CDBDAFC9CB}"/>
-    <hyperlink ref="M109" r:id="rId404" display="https://vidwan.inflibnet.ac.in/profile/161344" xr:uid="{FE2BA8E6-DD6C-4A10-91F1-326AA51E88D5}"/>
-    <hyperlink ref="M46" r:id="rId405" xr:uid="{2FFD071F-CF1A-4200-989A-978DBA72FD44}"/>
-    <hyperlink ref="M64" r:id="rId406" xr:uid="{E4C6C757-CD64-47C7-8F12-6CE6B9FFD60C}"/>
-    <hyperlink ref="M96" r:id="rId407" xr:uid="{722D10A1-25FB-4CE7-9F0B-C75508E442CE}"/>
-    <hyperlink ref="M84" r:id="rId408" xr:uid="{32A836FB-CB40-470F-B02E-7B6392FD539D}"/>
-    <hyperlink ref="M40" r:id="rId409" location="other_information_panel" display="https://vidwan.inflibnet.ac.in/myprofile - other_information_panel" xr:uid="{FE644920-561A-44DA-A700-34ED8EB7963F}"/>
-    <hyperlink ref="M110" r:id="rId410" xr:uid="{2C076003-CA45-4492-A114-A44CC1E60BF2}"/>
-    <hyperlink ref="M59" r:id="rId411" xr:uid="{BC2FF260-09A4-4D46-81FB-823835AD57DA}"/>
-    <hyperlink ref="M99" r:id="rId412" xr:uid="{B2860DA1-1C8E-403D-9E1C-CE3896F91BFD}"/>
-    <hyperlink ref="M13" r:id="rId413" xr:uid="{2DE04985-AB3C-4D4B-BCEE-EF8C728199F4}"/>
-    <hyperlink ref="M45" r:id="rId414" xr:uid="{546046AA-45E7-4EDD-81FB-A6648B9BB595}"/>
-    <hyperlink ref="M105" r:id="rId415" xr:uid="{7330EFFC-2F12-4EFE-BF25-3D30861E8775}"/>
-    <hyperlink ref="M94" r:id="rId416" xr:uid="{4F8D1CF8-D215-443F-8914-E091AFB2DBAE}"/>
-    <hyperlink ref="M15" r:id="rId417" xr:uid="{4CD74FA1-A139-4BCD-9CB7-1D7091E614B9}"/>
-    <hyperlink ref="M56" r:id="rId418" xr:uid="{EAABDC46-8B1B-482C-B7D7-E6E7C16FB647}"/>
-    <hyperlink ref="M104" r:id="rId419" xr:uid="{ACDF2E56-83C7-477F-A573-2B4112936AD3}"/>
-    <hyperlink ref="M44" r:id="rId420" xr:uid="{B502A1CE-A61F-4999-A855-F6ECA908B905}"/>
-    <hyperlink ref="M89" r:id="rId421" xr:uid="{EF82DFB8-BEB4-47BB-B28B-AF5A4CDD6891}"/>
-    <hyperlink ref="M74" r:id="rId422" xr:uid="{6D71EE52-86C9-4EE0-A55D-7B9652B864FF}"/>
-    <hyperlink ref="M87" r:id="rId423" xr:uid="{C073950A-A28A-4ED8-B9C1-BD3B160FAEF3}"/>
-    <hyperlink ref="M63" r:id="rId424" xr:uid="{958C1C19-9C17-41E8-ADC4-BAB91255F382}"/>
-    <hyperlink ref="M37" r:id="rId425" xr:uid="{0CC98B27-C0DC-4F81-A868-5BC7C0784B50}"/>
-    <hyperlink ref="M66" r:id="rId426" xr:uid="{B86191A1-65D6-4540-845F-518E32A64FBF}"/>
-    <hyperlink ref="M107" r:id="rId427" xr:uid="{47889514-AB9C-4B04-95A5-1CCA3A0DFCA8}"/>
-    <hyperlink ref="M58" r:id="rId428" xr:uid="{36AE2A42-0E80-4A5F-8FB0-4EAB2AEA8C36}"/>
-    <hyperlink ref="M69" r:id="rId429" xr:uid="{7FE7C886-2B29-491F-8C86-5526A33F7121}"/>
-    <hyperlink ref="M73" r:id="rId430" xr:uid="{FDFB0EA9-AD4D-43E9-BEF9-C60B9531C82F}"/>
-    <hyperlink ref="M2" r:id="rId431" xr:uid="{251C34E0-B509-4755-B850-FDEB3B770405}"/>
-    <hyperlink ref="M11" r:id="rId432" xr:uid="{3203A1D8-1572-4E08-ADEF-54F74525E87A}"/>
-    <hyperlink ref="M93" r:id="rId433" xr:uid="{28CD01ED-234C-4911-A047-12722FE76C1F}"/>
-    <hyperlink ref="M116" r:id="rId434" xr:uid="{82D93DAC-CF9F-4D41-B8C8-5AE08EA58BAA}"/>
-    <hyperlink ref="M79" r:id="rId435" xr:uid="{68120C28-52E3-4EC9-9F3E-EB5A3578A3BD}"/>
-    <hyperlink ref="M33" r:id="rId436" display="https://vidwan.inflibnet.ac.in/profile/161755-" xr:uid="{B87FE430-1CFA-4F98-A7E4-77FBF96BA37F}"/>
-    <hyperlink ref="M100" r:id="rId437" xr:uid="{649E7EFF-CC71-476F-9A81-1581EC34CD48}"/>
-    <hyperlink ref="M88" r:id="rId438" xr:uid="{1C9375D7-8EF5-40A1-914C-C5A7CD3188FB}"/>
-    <hyperlink ref="M85" r:id="rId439" xr:uid="{66509B53-066F-4635-85A6-6E99D5FE0B3E}"/>
-    <hyperlink ref="M108" r:id="rId440" xr:uid="{775D1521-4736-4C73-BB71-31FD5AD1E561}"/>
-    <hyperlink ref="M60" r:id="rId441" xr:uid="{A128A132-518A-476D-BCF8-6D3638CE18D6}"/>
-    <hyperlink ref="M55" r:id="rId442" xr:uid="{A1AFE28A-9643-4A4A-95E8-53E1C4380AAE}"/>
-    <hyperlink ref="M115" r:id="rId443" xr:uid="{6A1A9D4D-97FF-42A2-B2EA-85F3F7E515C2}"/>
-    <hyperlink ref="M7" r:id="rId444" xr:uid="{BA494279-5FA7-4467-ACAA-FFA1824DB9F7}"/>
-    <hyperlink ref="M31" r:id="rId445" xr:uid="{43BBD922-4BE8-457C-9F25-7684B0D6F35B}"/>
-    <hyperlink ref="M76" r:id="rId446" xr:uid="{C2281EE1-00E4-42D3-875C-3C9C699518DB}"/>
-    <hyperlink ref="M82" r:id="rId447" xr:uid="{3C1D1058-7762-4D63-9FB9-41A44D4AB1F3}"/>
-    <hyperlink ref="E16:E17" r:id="rId448" display="https://placehold.co/400x600" xr:uid="{18BA32A8-6934-421F-9831-28D4907FFF98}"/>
-    <hyperlink ref="E17" r:id="rId449" xr:uid="{7510203D-B2F6-44B8-BB79-8C3F26D4C98A}"/>
-    <hyperlink ref="E16" r:id="rId450" xr:uid="{7C7925F6-A06D-4A2F-A60E-DE952DACBD81}"/>
-    <hyperlink ref="E54" r:id="rId451" xr:uid="{41208DE8-410A-4988-814F-34D6808B3973}"/>
-    <hyperlink ref="E65" r:id="rId452" xr:uid="{2A43A7D2-0D9B-42A8-8E87-E447ECDB9951}"/>
-    <hyperlink ref="E60" r:id="rId453" xr:uid="{6FED2870-0657-4424-9493-C87C5558030E}"/>
-    <hyperlink ref="E112" r:id="rId454" xr:uid="{72604405-579A-4D04-AD70-2F433C2E73DD}"/>
-    <hyperlink ref="E117" r:id="rId455" display="https://placehold.co/400x600" xr:uid="{6297514C-C37E-424D-8BB6-2D18272D027F}"/>
+    <hyperlink ref="E32" r:id="rId68" xr:uid="{01F92761-8D63-4A2C-8713-25D41165DB40}"/>
+    <hyperlink ref="E34" r:id="rId69" xr:uid="{FFD57A2F-B179-4903-B296-F8069D1F1332}"/>
+    <hyperlink ref="E36" r:id="rId70" xr:uid="{291A37C6-A686-4CDE-9352-CAE725E23B11}"/>
+    <hyperlink ref="E38" r:id="rId71" xr:uid="{6ECECF25-2624-4D12-A089-9B4C4DBCF38B}"/>
+    <hyperlink ref="E40" r:id="rId72" xr:uid="{B8267D85-A691-4187-91DB-27E364616A8C}"/>
+    <hyperlink ref="E42" r:id="rId73" xr:uid="{AA69E1F0-E88A-495C-A844-C33C82F6CE26}"/>
+    <hyperlink ref="E44" r:id="rId74" xr:uid="{269F03E1-526C-4849-A6D5-8276665E4485}"/>
+    <hyperlink ref="E46" r:id="rId75" xr:uid="{D722AC52-912D-4A3F-8560-FAA4DCA60A56}"/>
+    <hyperlink ref="E48" r:id="rId76" xr:uid="{6ED9D463-8E32-4780-942A-C1EC9D07542B}"/>
+    <hyperlink ref="E50" r:id="rId77" xr:uid="{FAAE2569-D069-46B3-A7AA-6969338A4AFF}"/>
+    <hyperlink ref="E52" r:id="rId78" xr:uid="{919767C3-0A6A-4A63-9549-0F7B3A7EE7DF}"/>
+    <hyperlink ref="E54" r:id="rId79" xr:uid="{BD76B93C-ACC1-4CF1-A623-39E4FAFED853}"/>
+    <hyperlink ref="E56" r:id="rId80" xr:uid="{7964589D-7453-4997-AC7B-F98F5B5B7029}"/>
+    <hyperlink ref="E58" r:id="rId81" xr:uid="{F72D2D0A-AD07-45DC-AA3D-223C36C995AB}"/>
+    <hyperlink ref="E60" r:id="rId82" xr:uid="{D79CAE5D-C5B6-4B75-8261-008B5374EBDB}"/>
+    <hyperlink ref="E62" r:id="rId83" xr:uid="{75C81E45-FAA6-4175-A2FE-BA7C7F71F6F3}"/>
+    <hyperlink ref="E66" r:id="rId84" xr:uid="{F199289C-0CB7-41CD-95E9-D9C97B86A7E7}"/>
+    <hyperlink ref="E68" r:id="rId85" xr:uid="{E4715AC6-7D6D-4434-A585-79B8F25233F6}"/>
+    <hyperlink ref="E70" r:id="rId86" xr:uid="{CFD1BDC4-A848-4998-9430-C29DB079EED4}"/>
+    <hyperlink ref="E72" r:id="rId87" xr:uid="{DEC62E70-AB7A-4365-B90A-11A1D549F375}"/>
+    <hyperlink ref="E74" r:id="rId88" xr:uid="{A925F566-676A-47EA-9068-3A8AC9C78A71}"/>
+    <hyperlink ref="E76" r:id="rId89" xr:uid="{826BB4FF-EF4E-4C68-AE45-B4C9CEE10FB5}"/>
+    <hyperlink ref="E78" r:id="rId90" xr:uid="{D55B186E-0A96-4185-9D34-01F9C47E843E}"/>
+    <hyperlink ref="E80" r:id="rId91" xr:uid="{AC60663B-FB99-47D2-A9DA-11C43648559B}"/>
+    <hyperlink ref="E82" r:id="rId92" xr:uid="{F83899A5-222C-48AC-9ABC-BC254C3600A8}"/>
+    <hyperlink ref="E84" r:id="rId93" display="https://placehold.co/400x600" xr:uid="{2EE015AD-95D3-42D3-9727-0C2D20C22B2D}"/>
+    <hyperlink ref="E86" r:id="rId94" xr:uid="{1E9351A5-5685-4A61-91E2-9C72A14FBA45}"/>
+    <hyperlink ref="E88" r:id="rId95" xr:uid="{DA14C2E4-99E6-4273-B1C6-88E4314A2B53}"/>
+    <hyperlink ref="E90" r:id="rId96" display="https://placehold.co/400x600" xr:uid="{CED33FAF-E705-4A0E-B5BA-28AC459A08F9}"/>
+    <hyperlink ref="E92" r:id="rId97" xr:uid="{69683834-3F44-4B9E-879F-17C7B3985064}"/>
+    <hyperlink ref="E94" r:id="rId98" xr:uid="{6706B29D-6B9E-414D-A766-C429245D96A7}"/>
+    <hyperlink ref="E96" r:id="rId99" xr:uid="{B8549196-6B30-41D5-B870-CDF1F6C0AE2B}"/>
+    <hyperlink ref="E98" r:id="rId100" xr:uid="{70722206-091E-437D-B026-345C8CDB5176}"/>
+    <hyperlink ref="E100" r:id="rId101" xr:uid="{EF057E02-0A38-4475-84BA-2BC1ED64BA7D}"/>
+    <hyperlink ref="E102" r:id="rId102" xr:uid="{F307B800-2CAD-4E08-A635-F4AD9976A897}"/>
+    <hyperlink ref="E104" r:id="rId103" xr:uid="{42F0B609-7315-4192-A377-FDEDE5FDDF8B}"/>
+    <hyperlink ref="E106" r:id="rId104" xr:uid="{0BBF4990-1413-476C-AFE7-EC34A9F113B0}"/>
+    <hyperlink ref="E108" r:id="rId105" xr:uid="{43D0B648-1D21-45A3-A6E9-CB546100DAA2}"/>
+    <hyperlink ref="E110" r:id="rId106" xr:uid="{3BF79D70-269C-4AB5-B83F-712DABFF4480}"/>
+    <hyperlink ref="E112" r:id="rId107" xr:uid="{622A2536-A959-42B4-B4F9-EE23F2A44517}"/>
+    <hyperlink ref="E114" r:id="rId108" xr:uid="{7690046C-47D4-4A7B-8DBE-6704DCCAE9C8}"/>
+    <hyperlink ref="J71" r:id="rId109" display="https://www.linkedin.com/in/dr-nilay-patel-106bab14/" xr:uid="{B2E17E23-9358-429B-BBF9-5EE4C8E363CB}"/>
+    <hyperlink ref="J82" r:id="rId110" display="https://www.linkedin.com/in/poonam-thanki-b112a6a2/" xr:uid="{BB16F397-78CE-4DBD-8BE4-13D65525672B}"/>
+    <hyperlink ref="J56" r:id="rId111" display="https://www.linkedin.com/in/dr-manthan-s-manavadaria-2a222219/" xr:uid="{4954A101-EA09-4BF1-8202-A72F86653038}"/>
+    <hyperlink ref="J18" r:id="rId112" display="https://www.linkedin.com/in/bhavin-mehta-86b47795/" xr:uid="{DB7D7CE8-51EF-48EE-BFBF-A021321BDC5F}"/>
+    <hyperlink ref="J48" r:id="rId113" display="https://www.linkedin.com/in/dr-kanwar-preet-kaur-bamrah-64a3a221/" xr:uid="{53166117-8C5A-4AB4-89B7-C2E8B83BC5A5}"/>
+    <hyperlink ref="J91" r:id="rId114" display="https://www.linkedin.com/in/rikita-chokshi-44bb65263/" xr:uid="{184885D3-531C-43E9-853D-5C2EAF6E7696}"/>
+    <hyperlink ref="J105" r:id="rId115" xr:uid="{FBE16C58-F91B-4934-8550-681C7F68CFE1}"/>
+    <hyperlink ref="J67" r:id="rId116" display="https://www.linkedin.com/in/mrugendrasinh-rahevar/" xr:uid="{F0663F50-387A-4315-8A34-03206888175F}"/>
+    <hyperlink ref="J90" r:id="rId117" display="https://www.linkedin.com/in/ravi-patel-13686b19/" xr:uid="{FC6DE30F-2E95-4AA2-B879-8CEAD23CEEC4}"/>
+    <hyperlink ref="J94" r:id="rId118" display="https://www.linkedin.com/in/ronak-patel-63663613a/" xr:uid="{EB8CC283-1781-41D5-BE2D-3C04AED15B01}"/>
+    <hyperlink ref="J49" r:id="rId119" display="https://www.linkedin.com/in/dr-kawaljitsingh-randhawa-96816064/" xr:uid="{4AE0FF76-EF4F-45C3-A542-A7D876A7DA2C}"/>
+    <hyperlink ref="J19" r:id="rId120" display="http://linkedin.com/in/bimal-patel-b7504849" xr:uid="{B02CE38D-7D41-45E6-8D0A-5F0FCF595503}"/>
+    <hyperlink ref="J70" r:id="rId121" display="https://www.linkedin.com/in/nikita-bhatt-ce/?originalSubdomain=in" xr:uid="{9EC6AE06-F884-4149-B7FC-88140006B7F4}"/>
+    <hyperlink ref="J23" r:id="rId122" display="https://www.linkedin.com/in/deep-kothadiya-phd-70983a86/" xr:uid="{8691FEB4-6E3B-4049-9588-FC79EAF0F2EC}"/>
+    <hyperlink ref="J77" r:id="rId123" display="https://www.linkedin.com/in/parmanand-patel-1269016b/" xr:uid="{53EDE3BB-D85D-4DAD-A587-55DA1C805D27}"/>
+    <hyperlink ref="J51" r:id="rId124" display="https://www.linkedin.com/in/krunal-maheriya-aba5681a1/" xr:uid="{9D29078E-A414-4A64-86B1-F77733FF0F8A}"/>
+    <hyperlink ref="J85" r:id="rId125" xr:uid="{21E8E151-1B01-486F-A7D7-4BE4F0BC0B27}"/>
+    <hyperlink ref="J35" r:id="rId126" display="https://www.linkedin.com/in/dr-hardik-modi-181035b/" xr:uid="{F7F908AF-23C0-42F7-8AFE-DF52AF52580B}"/>
+    <hyperlink ref="J14" r:id="rId127" display="http://hlinkedin.com/in/dr-ashwin-makwana-9a6688112" xr:uid="{3D2F3A09-18C9-4E22-B6FA-494330FEF01E}"/>
+    <hyperlink ref="J79" r:id="rId128" xr:uid="{4DA1EB91-0A15-4D6C-9213-F6D1EE675204}"/>
+    <hyperlink ref="J17" r:id="rId129" xr:uid="{8E63BCC9-6C05-45B8-8789-EBB4905292F2}"/>
+    <hyperlink ref="J34" r:id="rId130" display="https://www.linkedin.com/in/gaurav-kumar1582/" xr:uid="{BF49CFFA-7535-44BB-8F9A-67BEFFD957B6}"/>
+    <hyperlink ref="J29" r:id="rId131" display="https://www.linkedin.com/in/dhaval-patel-481b0885/" xr:uid="{5704F17D-173C-4E5E-89CF-B8F7987D86F5}"/>
+    <hyperlink ref="J76" r:id="rId132" display="https://www.linkedin.com/me?trk=p_mwlite_profile_self-secondary_nav" xr:uid="{6148FF48-4942-4818-844D-79919D56DB98}"/>
+    <hyperlink ref="J66" r:id="rId133" display="https://www.linkedin.com/in/dr-miral-desai-245448a2/" xr:uid="{D2BE1269-3E17-415C-B581-A936373A624C}"/>
+    <hyperlink ref="J31" r:id="rId134" display="https://www.linkedin.com/in/gajanan-patange-05ba2219/overlay/about-this-profile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BEvV8mS8jTpy2mGfBhro1og%3D%3D" xr:uid="{CDEEC399-875E-4DDA-A567-6EFC42A0F87E}"/>
+    <hyperlink ref="J113" r:id="rId135" display="https://www.linkedin.com/in/vikas-panchal-873277251/" xr:uid="{A3606037-07FB-4104-B411-BA37A6E2F3CA}"/>
+    <hyperlink ref="J100" r:id="rId136" display="https://www.linkedin.com/in/sneha-padhiar-4aaa17146/" xr:uid="{8CF4272D-E96D-4E1C-80AD-5D3F2F554C53}"/>
+    <hyperlink ref="J37" r:id="rId137" display="https://www.linkedin.com/in/harshul-yagnik-81a6a022/" xr:uid="{683E4E91-B763-4226-99B6-F3E30837AD4B}"/>
+    <hyperlink ref="J21" r:id="rId138" display="https://www.linkedin.com/in/brinda-patel-652073252" xr:uid="{791133CF-E0A2-4B6D-8618-AC19B4D3A9FA}"/>
+    <hyperlink ref="J28" r:id="rId139" xr:uid="{F8104DB3-2B23-47B7-B622-17690E08D84A}"/>
+    <hyperlink ref="J96" r:id="rId140" xr:uid="{B357E631-0C5E-406B-9B45-A421DE003AD4}"/>
+    <hyperlink ref="J69" r:id="rId141" display="http://www.linkedin.com/in/neha-chauhan22" xr:uid="{E7A9417A-8B16-4D59-A23C-B258564D85D5}"/>
+    <hyperlink ref="J22" r:id="rId142" xr:uid="{895691E5-0B23-47DD-9A36-18923B4FD652}"/>
+    <hyperlink ref="J38" r:id="rId143" display="https://www.linkedin.com/public-profile/settings?trk=d_flagship3_profile_self_view_public_profile" xr:uid="{E4C32594-CCCB-41B2-AE51-AE67F83944BE}"/>
+    <hyperlink ref="J41" r:id="rId144" display="https://www.linkedin.com/in/jalpa-ardeshana-381496b7/" xr:uid="{67C7A4AD-28FD-4291-92FB-A9C4AA0671B4}"/>
+    <hyperlink ref="J101" r:id="rId145" display="https://www.linkedin.com/in/dr-spoorthy-v-10ab3813a/" xr:uid="{EDA5921D-C45B-4D8B-B9FA-3205F4F396D6}"/>
+    <hyperlink ref="J24" r:id="rId146" display="https://www.linkedin.com/in/dhara-patel-839488138" xr:uid="{27C9FC8C-0A44-49AE-8688-8690C8579833}"/>
+    <hyperlink ref="J26" r:id="rId147" display="https://www.linkedin.com/in/dharmendrasinh-chauhan-073a491a4/" xr:uid="{D50E69C7-4F51-4D1B-90EC-FE9F9A44906E}"/>
+    <hyperlink ref="J89" r:id="rId148" display="https://www.linkedin.com/in/rajnik-katriya/" xr:uid="{3AEC1C40-35D9-4AE3-A7E8-9E58FA2C8E43}"/>
+    <hyperlink ref="J97" r:id="rId149" xr:uid="{6137F2DC-1F93-4037-B861-A959BDB6DCE6}"/>
+    <hyperlink ref="J52" r:id="rId150" display="http://www.linkedin.com/in/kundan-patel-b9508b27b" xr:uid="{D4BB537A-7CA1-4F2B-9985-F5921034561E}"/>
+    <hyperlink ref="J80" r:id="rId151" xr:uid="{BFFCC995-B6DF-474C-93AA-BDF180E05422}"/>
+    <hyperlink ref="J110" r:id="rId152" display="https://www.linkedin.com/in/vidisha-pradhan-733a1b63/" xr:uid="{06E43119-E5BC-45C4-9126-F192D3006C5B}"/>
+    <hyperlink ref="J27" r:id="rId153" display="https://www.linkedin.com/in/dharmendrasinh-rathod-4482a2a4/" xr:uid="{3BDD0888-FF6F-403B-8A93-FD5176D0DA38}"/>
+    <hyperlink ref="J53" r:id="rId154" display="http://www.linkedin.com/in/madhav-oza-60bb5650" xr:uid="{24641904-0D92-4561-9EC0-14DC5197E375}"/>
+    <hyperlink ref="J40" r:id="rId155" xr:uid="{10BD029B-F728-4FEF-934E-F502C3B3ECDD}"/>
+    <hyperlink ref="J111" r:id="rId156" display="https://www.linkedin.com/in/dr-vijay-chaudhary-12769b311/" xr:uid="{B15A7FAF-9082-4A84-BAA5-265E44F10859}"/>
+    <hyperlink ref="J61" r:id="rId157" display="http://inkedin.com/in/mjdesai/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=in" xr:uid="{58387078-A78B-4059-8DB7-2DA181BAC97F}"/>
+    <hyperlink ref="J47" r:id="rId158" xr:uid="{F61EBA1D-096B-4367-83C7-464D0E0332DE}"/>
+    <hyperlink ref="J50" r:id="rId159" xr:uid="{A7C5CA17-C1E0-4B34-9F67-339F0FC32426}"/>
+    <hyperlink ref="J64" r:id="rId160" display="https://www.linkedin.com/in/mihirmehta-educational-project-and-placements/" xr:uid="{1EF2631D-C319-4F6C-9AF3-9E886A6E863A}"/>
+    <hyperlink ref="J33" r:id="rId161" display="https://www.linkedin.com/in/gaurang-patel-a99266119/" xr:uid="{4A4B2655-5B11-4CEB-8516-A9D046224C31}"/>
+    <hyperlink ref="J74" r:id="rId162" display="http://www.linkedin.com/in/nishant-koshti-52b68b8b" xr:uid="{2E5CF16C-0D7F-4454-B4F7-592A3EC43855}"/>
+    <hyperlink ref="J20" r:id="rId163" display="https://www.linkedin.com/in/brijesh-kundaliya-552b7722/" xr:uid="{FC5C15E0-2AD1-4E2F-8F1E-F2F96829A7A6}"/>
+    <hyperlink ref="J42" r:id="rId164" display="https://www.linkedin.com/in/jalpesh-vasa/" xr:uid="{6768F239-6E23-4A84-8C3E-45670A76F700}"/>
+    <hyperlink ref="J108" r:id="rId165" display="https://www.linkedin.com/in/vaishali-mewada-7a619053/" xr:uid="{DEFB6E16-7F29-44C5-ACAD-D6B1E16E6C24}"/>
+    <hyperlink ref="J45" r:id="rId166" xr:uid="{CCF872D9-BD3F-4521-9093-8C3148DBAC43}"/>
+    <hyperlink ref="J112" r:id="rId167" display="http://www.linkedin.com/in/vijaykumar-panchal-631852280" xr:uid="{2810BDF3-4A14-413D-B157-AF8059E92C49}"/>
+    <hyperlink ref="J63" r:id="rId168" display="https://www.linkedin.com/in/dr-mihir-bhatt-806a85aa/" xr:uid="{AA93D706-7CF6-45C4-B768-B797EB6775B7}"/>
+    <hyperlink ref="J95" r:id="rId169" display="https://www.linkedin.com/in/dr-sagar-chokshi-8646601a/" xr:uid="{35109E28-E96A-4139-B689-0AB43FF55E92}"/>
+    <hyperlink ref="J83" r:id="rId170" display="http://www.linkedin.com/in/pratik-panchal-a35b325a" xr:uid="{6FB924B7-EDB2-44F0-B0D7-E78551105315}"/>
+    <hyperlink ref="J39" r:id="rId171" display="https://www.linkedin.com/in/hemangi-oza-60a189190/" xr:uid="{AC43F6B8-459E-4FF0-82E4-75F8CDE25269}"/>
+    <hyperlink ref="J109" r:id="rId172" display="http://linkedin.com/in/vibha-parmar-81b3045b" xr:uid="{9792CDE9-6059-48ED-AD46-8BECFEF07152}"/>
+    <hyperlink ref="J58" r:id="rId173" display="http://www.linkedin.com/in/maulik-shah-30b483119" xr:uid="{E23FB3E1-55AD-4659-9463-2B3E19FC5E7D}"/>
+    <hyperlink ref="J98" r:id="rId174" display="http://www.linkedin.com/in/saritavisavalia" xr:uid="{3504F31F-4BD3-4D8B-B727-C2FF9DDFF1EA}"/>
+    <hyperlink ref="J13" r:id="rId175" xr:uid="{ACF63811-234F-442B-91D8-C6863212F92A}"/>
+    <hyperlink ref="J44" r:id="rId176" display="https://www.linkedin.com/in/dr-jigar-sarda-00384414/" xr:uid="{0EFC12BA-8B5C-4E86-968D-797B0D43FD98}"/>
+    <hyperlink ref="J104" r:id="rId177" display="https://www.linkedin.com/in/trusha-patel-gajjar" xr:uid="{98AA2D43-F8B2-4B29-93BA-7A9CCA8109B2}"/>
+    <hyperlink ref="J102" r:id="rId178" display="https://www.linkedin.com/in/srushti-gajjar-92b829142?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{544D82DB-5386-42AC-B979-94C259CA9E97}"/>
+    <hyperlink ref="J93" r:id="rId179" xr:uid="{F1631FCD-D701-415F-89D8-AB6A7D513AC5}"/>
+    <hyperlink ref="J15" r:id="rId180" display="https://www.linkedin.com/in/asifiqbal-thakor-56949b237/" xr:uid="{3A40B3CD-F1BE-4530-B451-07DF410D1272}"/>
+    <hyperlink ref="J55" r:id="rId181" xr:uid="{99110411-88B4-4B0C-9258-D7E7320C877C}"/>
+    <hyperlink ref="J46" r:id="rId182" display="https://www.linkedin.com/in/jivanadhar-joshi-a76a12ab/" xr:uid="{ED0C7354-C517-49E0-BDF5-C6BF1EC0A53C}"/>
+    <hyperlink ref="J103" r:id="rId183" display="https://in.linkedin.com/in/dr-tigmanshu-patel-b3252639" xr:uid="{8223C32D-E35E-4436-B593-C54F5FEED7DB}"/>
+    <hyperlink ref="J43" r:id="rId184" display="http://linkedin.com/in/jay-bhavsar-a4a9646a" xr:uid="{A3106519-72EE-423E-976E-09F1FD98B248}"/>
+    <hyperlink ref="J88" r:id="rId185" display="http://www.linkedin.com/in/purvi-prajapati-37ba6651" xr:uid="{7A2661BA-3D20-4DF8-8332-CC5726684DD1}"/>
+    <hyperlink ref="J73" r:id="rId186" display="https://www.linkedin.com/in/nirpex-patel-508956119/" xr:uid="{8BF234A3-EF12-4093-8EAF-09B2432506EF}"/>
+    <hyperlink ref="J86" r:id="rId187" display="https://www.linkedin.com/in/priyanka-patel-ph-d-00403393/" xr:uid="{8D6AEC45-7FD5-4128-9D12-F2A6CBB1E864}"/>
+    <hyperlink ref="J62" r:id="rId188" display="https://www.linkedin.com/in/mehulkumar-katakiya-029357b8/" xr:uid="{D058A74D-8E61-413C-9B75-7FF7917660C9}"/>
+    <hyperlink ref="J36" r:id="rId189" display="https://www.linkedin.com/in/harmish-bhatt-88581510a/" xr:uid="{7CC36C27-9781-439B-A945-9C1160C69911}"/>
+    <hyperlink ref="J65" r:id="rId190" display="https://www.linkedin.com/in/mikin-patel-24191386/" xr:uid="{3AEB0F01-575C-4799-B7A0-11A1F0947768}"/>
+    <hyperlink ref="J106" r:id="rId191" display="https://www.linkedin.com/in/dr-upesh-patel-875878138/" xr:uid="{5D7DA379-79C5-410F-9398-20936275BC46}"/>
+    <hyperlink ref="J57" r:id="rId192" xr:uid="{509B130C-6A0C-4944-BFE2-75F1FDF097C4}"/>
+    <hyperlink ref="J68" r:id="rId193" display="https://www.linkedin.com/in/muskan-dave-023197162/" xr:uid="{C8C7BB25-838D-4DFF-B4BD-F8943C06375E}"/>
+    <hyperlink ref="J72" r:id="rId194" display="https://www.linkedin.com/in/dr-nirav-bhatt/" xr:uid="{3F4736BB-5DB7-48E0-ABC4-5DBB591E1122}"/>
+    <hyperlink ref="J11" r:id="rId195" xr:uid="{714022ED-2EC9-40BB-978A-F936135E18E1}"/>
+    <hyperlink ref="J92" r:id="rId196" display="https://www.linkedin.com/in/ritesh-patel-462b0b11" xr:uid="{F4558EEF-FFB0-474A-8E3E-CEBF9566FCDB}"/>
+    <hyperlink ref="J115" r:id="rId197" display="http://www.linkedin.com/in/viral-panara-773877201" xr:uid="{4FB52C9B-4BDB-4971-A78B-1CD2EE789E52}"/>
+    <hyperlink ref="J78" r:id="rId198" display="https://www.linkedin.com/in/shah-parth-d/" xr:uid="{A61E294E-BDA5-4C2E-BA18-BA2B9C98C973}"/>
+    <hyperlink ref="J32" r:id="rId199" display="https://www.linkedin.com/in/gargi-ray-983a8522/" xr:uid="{0C76E47F-7D1B-4E1C-A88F-86156C9D1D6E}"/>
+    <hyperlink ref="J99" r:id="rId200" display="http://www.linkedin.com/in/satayu-travadi-9aab0919" xr:uid="{A79F3F36-387F-427F-848C-3BB8A221E707}"/>
+    <hyperlink ref="J87" r:id="rId201" xr:uid="{A7A467B8-5468-4830-9ADC-34F28E8899B5}"/>
+    <hyperlink ref="J30" r:id="rId202" display="https://www.linkedin.com/in/dheeraj-kumar-shringi-030586107?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{D1B60D12-635A-4E71-93D8-B47244D1EF44}"/>
+    <hyperlink ref="J84" r:id="rId203" display="https://in.linkedin.com/in/pratik-mochi-09764b102?original_referer=https%3A%2F%2Fwww.google.com%2F" xr:uid="{CD8066BB-0BA9-4FA9-88DB-0C291F6209A7}"/>
+    <hyperlink ref="J107" r:id="rId204" display="https://www.linkedin.com/in/vaibhavi-patel-67b035224/" xr:uid="{51D509E7-546B-4519-845F-AF5DC77392B9}"/>
+    <hyperlink ref="J59" r:id="rId205" display="http://www.linkedin.com/in/mayuri-popat-213852b1" xr:uid="{336D4B2F-0BBF-4ADA-8647-F20659482547}"/>
+    <hyperlink ref="J54" r:id="rId206" display="http://www.linkedin.com/in/madhavajwalia" xr:uid="{8DE9B663-AD20-42DB-A7F0-4FD167AD95E8}"/>
+    <hyperlink ref="J114" r:id="rId207" display="https://www.linkedin.com/in/vipul-vyas-19214bab/" xr:uid="{00F74D28-7144-4D8C-9870-393AE49126D5}"/>
+    <hyperlink ref="J75" r:id="rId208" display="https://www.linkedin.com/in/nishat-shaikh-b7446019a/" xr:uid="{45535606-CAE7-44BB-B1C5-622D742D5E66}"/>
+    <hyperlink ref="J16" r:id="rId209" display="https://www.linkedin.com/in/avani-khokhariya/" xr:uid="{F2664F6A-73CC-4DAD-982B-E296BD77DF0A}"/>
+    <hyperlink ref="J81" r:id="rId210" xr:uid="{2C60818F-B78B-4EC2-9BA4-C7D88C933280}"/>
+    <hyperlink ref="J25" r:id="rId211" display="https://www.linkedin.com/in/dhara-s-032a6a24/" xr:uid="{4FE7FF63-A73E-4E09-94C4-E2CD5FE6F81D}"/>
+    <hyperlink ref="K71" r:id="rId212" xr:uid="{E7CCB95C-4D9A-474B-9296-0EE719EC4AB3}"/>
+    <hyperlink ref="K91" r:id="rId213" xr:uid="{92D21BA9-793A-4610-9A6A-641322C6CC28}"/>
+    <hyperlink ref="K105" r:id="rId214" xr:uid="{2E05A515-7245-4DDB-9E9C-D041E881E2BF}"/>
+    <hyperlink ref="K85" r:id="rId215" xr:uid="{8C1C3B99-0196-4695-95EB-EEFEEA76042B}"/>
+    <hyperlink ref="K66" r:id="rId216" xr:uid="{4C2AA447-E23D-4BD3-8516-CF8A69E7C676}"/>
+    <hyperlink ref="K89" r:id="rId217" xr:uid="{68D88C01-9035-44B0-9EAE-4AE7236572CC}"/>
+    <hyperlink ref="K97" r:id="rId218" xr:uid="{B89BB500-5F1B-4985-B0B7-D69D9B22538C}"/>
+    <hyperlink ref="K27" r:id="rId219" xr:uid="{461288D1-54CE-41D7-ACBC-4EB753D35618}"/>
+    <hyperlink ref="K63" r:id="rId220" display="https://sites.google.com/a/charusat.ac.in/mihir-bhatt-ee/home/about-me?pli=1" xr:uid="{DD66FE1D-24F8-42A6-8DDC-651F08933CB6}"/>
+    <hyperlink ref="K44" r:id="rId221" xr:uid="{185428FC-1CEB-406E-A327-B537B63CC062}"/>
+    <hyperlink ref="K104" r:id="rId222" xr:uid="{6E3402FB-A293-4394-A12F-C9CE90A43581}"/>
+    <hyperlink ref="K93" r:id="rId223" display="https://sites.google.com/view/ronak-patel/" xr:uid="{30BB4B45-BE3C-4B51-8751-F1166793B9D8}"/>
+    <hyperlink ref="K86" r:id="rId224" display="https://sites.google.com/a/charusat.ac.in/priyanka-patel/about-me" xr:uid="{2F80CF65-0198-4866-9245-0932E2D2E991}"/>
+    <hyperlink ref="K11" r:id="rId225" xr:uid="{B7911887-1D4E-4149-9255-34290DE15C67}"/>
+    <hyperlink ref="K92" r:id="rId226" xr:uid="{CC19190B-EF5A-4030-970E-47B4649A66EC}"/>
+    <hyperlink ref="K78" r:id="rId227" display="http://learnwithparth.in/" xr:uid="{0D098BA1-951E-49B0-BA34-5489DFACFB69}"/>
+    <hyperlink ref="K59" r:id="rId228" display="https://sites.google.com/charusat.ac.in/mayuri-popat/home/academic-experience?authuser=0" xr:uid="{CD111632-8632-4F99-808E-7B0BA423BCF0}"/>
+    <hyperlink ref="K25" r:id="rId229" display="http://https/www.simpldhara.github.io" xr:uid="{1B0FEF49-7DD4-45B9-B1E6-577EDB068225}"/>
+    <hyperlink ref="K4" r:id="rId230" xr:uid="{A55ED677-5A40-43B5-A2E0-3934032012FA}"/>
+    <hyperlink ref="I12" r:id="rId231" xr:uid="{559F5BE6-A98D-4918-9ADE-3B5DB2AC1B24}"/>
+    <hyperlink ref="I13" r:id="rId232" xr:uid="{B5B2A2F7-DD9E-4163-AECE-07D5742E906D}"/>
+    <hyperlink ref="I48" r:id="rId233" xr:uid="{2DF8A589-77D3-487D-9871-F11C086009D1}"/>
+    <hyperlink ref="I81" r:id="rId234" xr:uid="{4F6BB86B-ECFA-4396-9D2B-715AF4C8A22C}"/>
+    <hyperlink ref="I49" r:id="rId235" xr:uid="{C80EDEE3-BA73-444F-89E4-2007846DC254}"/>
+    <hyperlink ref="I89" r:id="rId236" xr:uid="{E27523F8-498C-4ABD-8999-7C5FE36E5CA5}"/>
+    <hyperlink ref="L71" r:id="rId237" xr:uid="{948CADBD-38FA-4A43-B789-35C5FE176C3F}"/>
+    <hyperlink ref="L3" r:id="rId238" xr:uid="{F46A9101-D683-4CCF-9110-8584476B2BA9}"/>
+    <hyperlink ref="L82" r:id="rId239" xr:uid="{6E19F5D8-BA05-4C24-BFED-0131679AE1A3}"/>
+    <hyperlink ref="L56" r:id="rId240" xr:uid="{15D92DD2-9C84-4024-BCB0-89C6EAD615FB}"/>
+    <hyperlink ref="L18" r:id="rId241" xr:uid="{E24865B7-0C5D-46C6-8B52-CB38271DBD7E}"/>
+    <hyperlink ref="L48" r:id="rId242" xr:uid="{4D2C143E-EFF2-43ED-8C1B-94D7326ABF76}"/>
+    <hyperlink ref="L91" r:id="rId243" xr:uid="{22687922-AA0C-441B-A3FA-FB8732C6A78E}"/>
+    <hyperlink ref="L105" r:id="rId244" display="https://scholar.google.com/citations?user=Gzsxo-oAAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{FF9B096B-7991-46C3-B06A-152491BA6C90}"/>
+    <hyperlink ref="L67" r:id="rId245" xr:uid="{690AB285-269F-47C4-BA46-90F767A79CC1}"/>
+    <hyperlink ref="L90" r:id="rId246" xr:uid="{9AF26C9F-30B4-4DAE-A809-C138362FFD00}"/>
+    <hyperlink ref="L94" r:id="rId247" xr:uid="{8D4A0E6E-AA77-4CD4-AA54-DEC95D5CF09E}"/>
+    <hyperlink ref="L49" r:id="rId248" xr:uid="{A64FDC24-6D97-4969-AC20-BF200CE32B3A}"/>
+    <hyperlink ref="L19" r:id="rId249" xr:uid="{2DF7625D-5BDC-4383-BFF5-27331B9E27C1}"/>
+    <hyperlink ref="L70" r:id="rId250" display="https://scholar.google.co.in/citations?user=9PPA-6oAAAAJ&amp;hl=en" xr:uid="{38968AA0-46FD-46B0-84CD-C755BCC30A99}"/>
+    <hyperlink ref="L23" r:id="rId251" xr:uid="{4FF8802A-1D76-4C6B-91B4-17C781B102D6}"/>
+    <hyperlink ref="L51" r:id="rId252" xr:uid="{8365015A-789A-4D2C-9684-352B6CC70A5E}"/>
+    <hyperlink ref="L85" r:id="rId253" xr:uid="{BD03203D-E2A2-453C-8DB9-B1F0B5A13124}"/>
+    <hyperlink ref="L35" r:id="rId254" display="https://scholar.google.com/citations?user=ay8-QY0AAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{CEA8B045-C60C-4ADA-9F10-8B980373388F}"/>
+    <hyperlink ref="L14" r:id="rId255" display="https://scholar.google.com/citations?user=TCsNw-YAAAAJ&amp;hl=en" xr:uid="{D0B58B70-976E-4FD0-A498-4FE5480744DA}"/>
+    <hyperlink ref="L17" r:id="rId256" xr:uid="{19EAA634-8BE7-4A2F-8B30-8A424E254965}"/>
+    <hyperlink ref="L29" r:id="rId257" xr:uid="{3D65CD0F-C15B-4E98-9324-C36FAB47EBC4}"/>
+    <hyperlink ref="L66" r:id="rId258" xr:uid="{264FF3AA-8D89-41E4-9DA6-521BD58711A9}"/>
+    <hyperlink ref="L31" r:id="rId259" display="https://www.bing.com/ck/a?!&amp;&amp;p=6a7ac5a017a1300aJmltdHM9MTcyOTQ2ODgwMCZpZ3VpZD0wMDExMmIyNS1kMzQ5LTY3MTItMmE4My0zZTA1ZDI1NjY2MWEmaW5zaWQ9NTE5NQ&amp;ptn=3&amp;ver=2&amp;hsh=3&amp;fclid=00112b25-d349-6712-2a83-3e05d256661a&amp;psq=google+scholer+gajanan+patange&amp;u=a1aHR0cHM6Ly9zY2hvbGFyLmdvb2dsZS5wbC9jaXRhdGlvbnM_dXNlcj1fRDRISUhjQUFBQUomaGw9ZW4&amp;ntb=1" xr:uid="{275A790E-9657-41D9-B9F2-78D3822C4310}"/>
+    <hyperlink ref="L9" r:id="rId260" xr:uid="{758E6349-E050-42DF-B5C3-FBA97B821030}"/>
+    <hyperlink ref="L113" r:id="rId261" xr:uid="{9ACD46AD-FE8F-41CE-9823-5DC65F691D5B}"/>
+    <hyperlink ref="L4" r:id="rId262" xr:uid="{9B291D90-C0E1-493C-9E5E-17CAF2B7D2F2}"/>
+    <hyperlink ref="L12" r:id="rId263" xr:uid="{8C6729CD-380A-483D-A997-7DBCBA390939}"/>
+    <hyperlink ref="L100" r:id="rId264" xr:uid="{C07AED6D-34B0-40AA-B65E-C9BFB9F1574D}"/>
+    <hyperlink ref="L37" r:id="rId265" display="https://scholar.google.com/citations?user=6d-aVTEAAAAJ&amp;hl=en" xr:uid="{EBC010F8-7D12-4DC1-9FDA-49EFC51EFF71}"/>
+    <hyperlink ref="L21" r:id="rId266" xr:uid="{0DDB7A07-865A-4AD7-986A-DE5D031FFBD0}"/>
+    <hyperlink ref="L28" r:id="rId267" xr:uid="{E6ABE8A4-4EFC-489A-B104-3BCC2E998A7B}"/>
+    <hyperlink ref="L96" r:id="rId268" xr:uid="{ABDCFD31-BA21-4022-B6C1-EDDD441956ED}"/>
+    <hyperlink ref="L6" r:id="rId269" xr:uid="{591DF322-16B2-4785-A83C-3147BF3D09D2}"/>
+    <hyperlink ref="L69" r:id="rId270" xr:uid="{BB403419-C3FE-440B-B0A2-AF35C3C2E8E3}"/>
+    <hyperlink ref="L22" r:id="rId271" xr:uid="{A227399F-9975-4976-9597-2D3E6151DCB8}"/>
+    <hyperlink ref="L38" r:id="rId272" xr:uid="{535A1FEE-65AB-4486-BF0D-ADD9A3382AFB}"/>
+    <hyperlink ref="L41" r:id="rId273" display="https://scholar.google.com/citations?hl=en&amp;user=geQ-r_QAAAAJ" xr:uid="{36509863-135E-43CA-B732-4C0DEFDDC2FC}"/>
+    <hyperlink ref="L101" r:id="rId274" xr:uid="{7F8D3F89-D92D-4081-B489-E387250A10BD}"/>
+    <hyperlink ref="L24" r:id="rId275" xr:uid="{B4A03D8A-649C-469B-B24A-E9F9B481D48B}"/>
+    <hyperlink ref="L26" r:id="rId276" xr:uid="{D3034C74-7237-42E2-A6B8-CD4BA8BBBF41}"/>
+    <hyperlink ref="L89" r:id="rId277" xr:uid="{53AE3D77-EDB3-413A-8D8F-16969CBE8103}"/>
+    <hyperlink ref="L97" r:id="rId278" xr:uid="{76D99C50-072C-40D7-BDEB-328FCCB109D9}"/>
+    <hyperlink ref="L52" r:id="rId279" xr:uid="{CD634DA2-F1A0-45FA-A86C-61D935383D2E}"/>
+    <hyperlink ref="L80" r:id="rId280" xr:uid="{F6874B5E-545B-4745-A546-56B6FD5105E9}"/>
+    <hyperlink ref="L110" r:id="rId281" xr:uid="{C22F05F4-D13D-45A5-A5B0-3237064F3209}"/>
+    <hyperlink ref="L27" r:id="rId282" xr:uid="{32CD251C-92CC-42C2-865F-89BE3026727C}"/>
+    <hyperlink ref="L53" r:id="rId283" xr:uid="{287D782E-D3CC-498E-B117-EBE696C4D447}"/>
+    <hyperlink ref="L40" r:id="rId284" xr:uid="{B241D450-267C-40BF-9C45-8957239BDD86}"/>
+    <hyperlink ref="L61" r:id="rId285" xr:uid="{AA7AD692-35BE-48A4-AF46-1B6413916E3B}"/>
+    <hyperlink ref="L47" r:id="rId286" display="https://scholar.google.co.in/citations?user=EdcH-Y0AAAAJ&amp;hl=en" xr:uid="{CE335172-93AC-45C2-9068-7C9C19F220C4}"/>
+    <hyperlink ref="L10" r:id="rId287" xr:uid="{A33E4A1F-E63E-4F7D-9DC5-3C5AB6E82811}"/>
+    <hyperlink ref="L50" r:id="rId288" xr:uid="{027764B5-CA65-453C-BFB6-EE555AA7BF1B}"/>
+    <hyperlink ref="L60" r:id="rId289" xr:uid="{E2F70942-EACF-4A90-B18A-A80CB466AAE7}"/>
+    <hyperlink ref="L64" r:id="rId290" xr:uid="{5645BFE0-C2D6-4EED-AFCB-0EF806CC91E9}"/>
+    <hyperlink ref="L33" r:id="rId291" xr:uid="{EE598F68-E624-44F6-B4DD-8299C007487F}"/>
+    <hyperlink ref="L74" r:id="rId292" display="https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=-9-RhBoAAAAJ" xr:uid="{E935D410-8781-42B6-B609-E835354DEBBB}"/>
+    <hyperlink ref="L5" r:id="rId293" display="https://scholar.google.co.in/citations?user=cVv-kdYAAAAJ&amp;hl=en" xr:uid="{746C1EFC-2FA9-49B1-AFB8-1C7FCA47096B}"/>
+    <hyperlink ref="L20" r:id="rId294" display="https://scholar.google.com/citations?user=dHkQ5D4AAAAJ&amp;hl=en" xr:uid="{25860FE4-2E75-42A8-BFFE-3AA02DEED40F}"/>
+    <hyperlink ref="L42" r:id="rId295" xr:uid="{5A9FF0C8-1A53-40E2-BF07-8AE47CB6B984}"/>
+    <hyperlink ref="L108" r:id="rId296" xr:uid="{5C89C29F-A386-4BBA-9788-4CB223E1744F}"/>
+    <hyperlink ref="L45" r:id="rId297" xr:uid="{63EFEA34-4397-48CB-B385-33D61D726E20}"/>
+    <hyperlink ref="L63" r:id="rId298" xr:uid="{0A4BFD56-8B2D-444E-8903-49F5DC5883A4}"/>
+    <hyperlink ref="L95" r:id="rId299" display="https://scholar.google.com/citations?hl=en&amp;user=utk-ZT0AAAAJ" xr:uid="{501E8FB4-1DC4-4EBD-A3BE-50F19352C1F0}"/>
+    <hyperlink ref="L83" r:id="rId300" xr:uid="{37E9CEEB-DC2C-46A2-BCF4-5A9521147A39}"/>
+    <hyperlink ref="L39" r:id="rId301" xr:uid="{EEF5DC34-1243-4468-B6B1-D9059ADE8AB0}"/>
+    <hyperlink ref="L109" r:id="rId302" display="https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;hl=en&amp;user=HDdsZFsAAAAJ&amp;scilu=&amp;scisig=AJY4_hMAAAAAZxidz75RZUbVraeNHOVGYgbAfP0&amp;gmla=ALUCkoUwv9xfR7EENoQtBn_aiKaqTyzZ1X2kORl9--L4aBw5WcKwjoDCVXVaogYeCbraaig0PTa5IzrpT_DyD12Vlt-ODcDk1Nt3fM0&amp;sciund=7577126703303180020" xr:uid="{197DCE6B-BB53-49E3-9D84-78838F524694}"/>
+    <hyperlink ref="L58" r:id="rId303" xr:uid="{B559F61A-BA8D-4A15-AF94-270FD8E6EE0D}"/>
+    <hyperlink ref="L98" r:id="rId304" xr:uid="{BDF263A7-4F8B-46B8-BBE8-705BBF9DE738}"/>
+    <hyperlink ref="L13" r:id="rId305" xr:uid="{7649604F-C033-4670-9F95-0C2C5AC47C84}"/>
+    <hyperlink ref="L44" r:id="rId306" xr:uid="{035221F3-6BA9-41F1-A09D-0FD648704591}"/>
+    <hyperlink ref="L104" r:id="rId307" xr:uid="{1CDECF45-D107-4A0E-A561-5D783437E97C}"/>
+    <hyperlink ref="L102" r:id="rId308" xr:uid="{B653EAA6-C485-435F-854D-438BD267A19D}"/>
+    <hyperlink ref="L93" r:id="rId309" xr:uid="{BAF6ABB2-16F7-4B7A-8AC8-F52F94951E56}"/>
+    <hyperlink ref="L15" r:id="rId310" xr:uid="{F38927F1-EEEB-453A-8636-E6644582D973}"/>
+    <hyperlink ref="L55" r:id="rId311" xr:uid="{9E4C99F0-F427-4B73-88C1-9DDF17D8ABDE}"/>
+    <hyperlink ref="L46" r:id="rId312" xr:uid="{4048416A-0F5D-4582-8A3D-08AFC13874F9}"/>
+    <hyperlink ref="L103" r:id="rId313" xr:uid="{8400FD3C-B4D9-436A-8179-88B2F74CE3F2}"/>
+    <hyperlink ref="L43" r:id="rId314" xr:uid="{201F5259-DE23-43B6-A300-CE6428FFA5ED}"/>
+    <hyperlink ref="L88" r:id="rId315" xr:uid="{31420B66-56AB-4794-90CA-5F5AFEE32FDC}"/>
+    <hyperlink ref="L86" r:id="rId316" xr:uid="{C4F50DBC-0BFE-4509-9E86-8433559B0E5F}"/>
+    <hyperlink ref="L62" r:id="rId317" xr:uid="{90FCCA59-114D-4A5C-9409-D7A92B5C554D}"/>
+    <hyperlink ref="L36" r:id="rId318" xr:uid="{86700D43-54F6-409C-AA74-11A10CF95742}"/>
+    <hyperlink ref="L65" r:id="rId319" xr:uid="{C018FF9B-EED7-4A65-95FA-780ACBBA2D7E}"/>
+    <hyperlink ref="L106" r:id="rId320" xr:uid="{60A89811-803F-44C1-9C4C-03400FFC3370}"/>
+    <hyperlink ref="L57" r:id="rId321" display="https://scholar.google.com/citations?user=D-wd8QgAAAAJ&amp;hl=en" xr:uid="{FEE2843B-8463-42EA-93D3-8C0055A27E1B}"/>
+    <hyperlink ref="L72" r:id="rId322" xr:uid="{D89F1643-F631-4232-BD92-A17AB43537BB}"/>
+    <hyperlink ref="L2" r:id="rId323" xr:uid="{FA588FCD-5B5F-455C-A8F1-363E48BF4B34}"/>
+    <hyperlink ref="L11" r:id="rId324" xr:uid="{75F0D2F4-DBF8-4BC0-81C8-E510EB404F91}"/>
+    <hyperlink ref="L92" r:id="rId325" xr:uid="{4B1641D3-9830-41C6-9804-FD4F1CAA246E}"/>
+    <hyperlink ref="L115" r:id="rId326" xr:uid="{187B270B-DD03-4B4E-A0EC-FA089BBBF941}"/>
+    <hyperlink ref="L78" r:id="rId327" xr:uid="{09000797-9862-4D17-81A3-8BF615CB0D28}"/>
+    <hyperlink ref="L32" r:id="rId328" xr:uid="{30E40F4D-0941-4C35-B988-415178726C05}"/>
+    <hyperlink ref="L99" r:id="rId329" xr:uid="{2A5203BE-43E1-47B8-B2C4-1CC37588A5AB}"/>
+    <hyperlink ref="L87" r:id="rId330" xr:uid="{570C26B0-6EF3-40AB-BBA0-06474B8C9E9F}"/>
+    <hyperlink ref="L30" r:id="rId331" xr:uid="{8315B941-53AD-4CC4-8A93-715BF028D5D6}"/>
+    <hyperlink ref="L84" r:id="rId332" xr:uid="{A11BA51D-FBB4-444E-9239-AD5CA8BDA6AA}"/>
+    <hyperlink ref="L107" r:id="rId333" xr:uid="{BD6653EC-2D4F-4519-B739-A572013209E8}"/>
+    <hyperlink ref="L59" r:id="rId334" xr:uid="{FCDEB08A-0CA4-4598-B598-28FC8001225C}"/>
+    <hyperlink ref="L54" r:id="rId335" xr:uid="{21317881-56A9-411E-B0E0-953DFEB53FB5}"/>
+    <hyperlink ref="L114" r:id="rId336" xr:uid="{2C2ECFF6-DA6C-4C65-B48D-83C8B953A10F}"/>
+    <hyperlink ref="L7" r:id="rId337" xr:uid="{AC52BE48-B1BC-4E71-B6C1-88AF068D6F7B}"/>
+    <hyperlink ref="L75" r:id="rId338" xr:uid="{08A9DD36-F049-430E-ACEE-0254B9EB019D}"/>
+    <hyperlink ref="L81" r:id="rId339" xr:uid="{69BD5E03-494B-42BC-B711-BD56B50C14BD}"/>
+    <hyperlink ref="L8" r:id="rId340" display="https://scholar.google.com/citations?user=49QO52oAAAAJ&amp;hl=en&amp;citsig=ADIE8snLeq6YPks1Pa9NqbNhY8-8" xr:uid="{597E11F7-5E1F-4746-9B2D-F0B3CE2DAADD}"/>
+    <hyperlink ref="M71" r:id="rId341" display="https://vidwan.inflibnet.ac.in/profile/161243/MTYxMjQz" xr:uid="{377E489A-5F66-4D39-9D16-5A09C06888BF}"/>
+    <hyperlink ref="M3" r:id="rId342" xr:uid="{969CA3F3-003E-45D0-B448-786C1B45A99B}"/>
+    <hyperlink ref="M82" r:id="rId343" xr:uid="{FCF270CA-7E29-44DE-9B34-531A560121D2}"/>
+    <hyperlink ref="M56" r:id="rId344" xr:uid="{27A56F3E-3B7A-497C-B419-6D4EB0B36DFE}"/>
+    <hyperlink ref="M18" r:id="rId345" xr:uid="{A8B03D72-4F58-488B-AA71-6FE545C4F974}"/>
+    <hyperlink ref="M48" r:id="rId346" xr:uid="{46B27430-2CB4-4571-B683-C90BDB1A869A}"/>
+    <hyperlink ref="M91" r:id="rId347" xr:uid="{B3372949-44D6-47D3-93F5-F231A1194C2D}"/>
+    <hyperlink ref="M105" r:id="rId348" xr:uid="{BD564D33-09CC-4E3F-8665-C7CC006586D4}"/>
+    <hyperlink ref="M67" r:id="rId349" xr:uid="{46D7BE4E-C50A-4838-A0D5-A66608E30FB1}"/>
+    <hyperlink ref="M90" r:id="rId350" xr:uid="{49346F82-88CD-458B-9055-E1D237495067}"/>
+    <hyperlink ref="M94" r:id="rId351" xr:uid="{275EA512-D486-4AA6-B9C6-EDFD8EB5E681}"/>
+    <hyperlink ref="M49" r:id="rId352" xr:uid="{F1370FFD-2A24-4E0D-842E-D15A59048874}"/>
+    <hyperlink ref="M19" r:id="rId353" xr:uid="{B079BDCE-9644-48D8-ADB9-55246D89BB3B}"/>
+    <hyperlink ref="M70" r:id="rId354" xr:uid="{21DA9F6E-42F2-4C08-8BCC-45E0F47AC02F}"/>
+    <hyperlink ref="M23" r:id="rId355" display="https://vidwan.inflibnet.ac.in/profile/162290/MTYyMjkw" xr:uid="{C5101B56-8150-4439-9561-ADE65CCB8626}"/>
+    <hyperlink ref="M77" r:id="rId356" xr:uid="{FA23B353-3F9D-46B1-82DA-820AA4FBE86D}"/>
+    <hyperlink ref="M85" r:id="rId357" xr:uid="{680496D4-6792-4688-B37B-3D2836A2CBB1}"/>
+    <hyperlink ref="M35" r:id="rId358" xr:uid="{C295F105-2491-4119-851F-B09A35F5D83B}"/>
+    <hyperlink ref="M14" r:id="rId359" xr:uid="{C6A42F1F-C70B-482C-BAF5-08E29835556D}"/>
+    <hyperlink ref="M79" r:id="rId360" xr:uid="{D12744D8-8D17-44EF-A69E-A1A202FA6698}"/>
+    <hyperlink ref="M17" r:id="rId361" xr:uid="{026E65A7-E47E-491B-A07D-37EBD353FD4E}"/>
+    <hyperlink ref="M34" r:id="rId362" xr:uid="{5D0B8227-026E-47C4-897D-D449D1EA7349}"/>
+    <hyperlink ref="M29" r:id="rId363" xr:uid="{02E7C489-97EB-4764-B304-885B559F8C0E}"/>
+    <hyperlink ref="M66" r:id="rId364" xr:uid="{7BCC998C-8FF9-4866-BDE0-4E618132491D}"/>
+    <hyperlink ref="M9" r:id="rId365" xr:uid="{91B9619A-0474-417B-A83E-F1ACC0AF0CEC}"/>
+    <hyperlink ref="M113" r:id="rId366" xr:uid="{9DC7345F-59EF-46AB-AFF8-A485034FCFB5}"/>
+    <hyperlink ref="M4" r:id="rId367" xr:uid="{C24F8B1B-E131-406E-8B92-980981B7F2F8}"/>
+    <hyperlink ref="M12" r:id="rId368" xr:uid="{BBE0AFF3-0C87-45BA-B244-2EBD516259AE}"/>
+    <hyperlink ref="M100" r:id="rId369" xr:uid="{36A3294C-FBE9-4AE5-B367-A4F7EB299507}"/>
+    <hyperlink ref="M37" r:id="rId370" xr:uid="{CC9655FE-1EDD-46F8-BE5B-9E92C5013680}"/>
+    <hyperlink ref="M21" r:id="rId371" xr:uid="{47BBD086-2D33-4012-A8B6-B4A4E0F676C3}"/>
+    <hyperlink ref="M28" r:id="rId372" xr:uid="{D9812B9F-31E0-4DAD-8A1E-6460EF4BE795}"/>
+    <hyperlink ref="M96" r:id="rId373" xr:uid="{194FE3FD-0EF9-46C4-B769-B4AAF95E0018}"/>
+    <hyperlink ref="M6" r:id="rId374" xr:uid="{3C597F50-A6C7-4686-85A0-F6E6694F57E3}"/>
+    <hyperlink ref="M69" r:id="rId375" xr:uid="{A87D811B-910D-45F2-BF34-A478CD7D8B09}"/>
+    <hyperlink ref="M22" r:id="rId376" xr:uid="{686F19E9-9FDF-4E88-8243-D809ABB3FE79}"/>
+    <hyperlink ref="M41" r:id="rId377" xr:uid="{FB2FC638-1D01-4122-BA7D-9717BC8B2EF3}"/>
+    <hyperlink ref="M101" r:id="rId378" xr:uid="{F0E56AD7-3828-45B1-A3E4-95B4E7B7495F}"/>
+    <hyperlink ref="M24" r:id="rId379" xr:uid="{5E6A27FA-6F1B-4920-AF3A-0018DC331E36}"/>
+    <hyperlink ref="M26" r:id="rId380" xr:uid="{758E2E1D-BBB4-4F0B-A1FA-EB3E5DE2D156}"/>
+    <hyperlink ref="M89" r:id="rId381" xr:uid="{1C320BD2-5251-44A7-81C2-D89E208736CC}"/>
+    <hyperlink ref="M97" r:id="rId382" xr:uid="{4BF3D2D2-9743-494B-A7D1-9EEF7423F2B3}"/>
+    <hyperlink ref="M52" r:id="rId383" xr:uid="{642FC8EF-95E5-4804-8108-73A9ADB45FBB}"/>
+    <hyperlink ref="M80" r:id="rId384" xr:uid="{6069906B-85A1-4520-B697-E8420F4D518A}"/>
+    <hyperlink ref="M110" r:id="rId385" xr:uid="{45C10A27-1AD3-4A6F-966C-946B5F9ECB83}"/>
+    <hyperlink ref="M27" r:id="rId386" xr:uid="{F2CE36A5-3E73-43DE-A91D-5D1E2781384A}"/>
+    <hyperlink ref="M53" r:id="rId387" xr:uid="{6815F862-B01A-4FF2-B310-DDE65D78FBDB}"/>
+    <hyperlink ref="M40" r:id="rId388" xr:uid="{2167CAC5-42F7-48BE-A140-282801D50406}"/>
+    <hyperlink ref="M111" r:id="rId389" xr:uid="{2D0BE123-EDFD-4091-BCF0-204188FF3B30}"/>
+    <hyperlink ref="M61" r:id="rId390" xr:uid="{7A45E352-1CCC-4E30-B5C0-2C2507845C07}"/>
+    <hyperlink ref="M47" r:id="rId391" xr:uid="{D69AB844-8B39-4156-9897-B02CB20CA4D5}"/>
+    <hyperlink ref="M10" r:id="rId392" xr:uid="{04F1C981-8348-4D72-8A69-A692D3062D64}"/>
+    <hyperlink ref="M50" r:id="rId393" xr:uid="{65DE02F5-B84D-45D0-9DC1-F7808BDFD38D}"/>
+    <hyperlink ref="M60" r:id="rId394" xr:uid="{C49314E6-1B8D-41D3-8824-C6AE59F00DDA}"/>
+    <hyperlink ref="M64" r:id="rId395" xr:uid="{22CCAF6F-639B-4091-91C4-0D9E09A79A31}"/>
+    <hyperlink ref="M33" r:id="rId396" xr:uid="{9E6DCF4C-EA31-4D9D-AE0D-50C83C0347DE}"/>
+    <hyperlink ref="M74" r:id="rId397" xr:uid="{D71D3644-6845-46C5-83D7-DA2B52AF5733}"/>
+    <hyperlink ref="M5" r:id="rId398" xr:uid="{7687E521-D8FB-41F5-A5E6-AE953D92E830}"/>
+    <hyperlink ref="M20" r:id="rId399" xr:uid="{4DDDF623-882B-481C-A6D6-41041F349837}"/>
+    <hyperlink ref="M42" r:id="rId400" xr:uid="{52C3C99B-42C3-444C-A194-78CDBDAFC9CB}"/>
+    <hyperlink ref="M108" r:id="rId401" display="https://vidwan.inflibnet.ac.in/profile/161344" xr:uid="{FE2BA8E6-DD6C-4A10-91F1-326AA51E88D5}"/>
+    <hyperlink ref="M45" r:id="rId402" xr:uid="{2FFD071F-CF1A-4200-989A-978DBA72FD44}"/>
+    <hyperlink ref="M63" r:id="rId403" xr:uid="{E4C6C757-CD64-47C7-8F12-6CE6B9FFD60C}"/>
+    <hyperlink ref="M95" r:id="rId404" xr:uid="{722D10A1-25FB-4CE7-9F0B-C75508E442CE}"/>
+    <hyperlink ref="M83" r:id="rId405" xr:uid="{32A836FB-CB40-470F-B02E-7B6392FD539D}"/>
+    <hyperlink ref="M39" r:id="rId406" location="other_information_panel" display="https://vidwan.inflibnet.ac.in/myprofile - other_information_panel" xr:uid="{FE644920-561A-44DA-A700-34ED8EB7963F}"/>
+    <hyperlink ref="M109" r:id="rId407" xr:uid="{2C076003-CA45-4492-A114-A44CC1E60BF2}"/>
+    <hyperlink ref="M58" r:id="rId408" xr:uid="{BC2FF260-09A4-4D46-81FB-823835AD57DA}"/>
+    <hyperlink ref="M98" r:id="rId409" xr:uid="{B2860DA1-1C8E-403D-9E1C-CE3896F91BFD}"/>
+    <hyperlink ref="M13" r:id="rId410" xr:uid="{2DE04985-AB3C-4D4B-BCEE-EF8C728199F4}"/>
+    <hyperlink ref="M44" r:id="rId411" xr:uid="{546046AA-45E7-4EDD-81FB-A6648B9BB595}"/>
+    <hyperlink ref="M104" r:id="rId412" xr:uid="{7330EFFC-2F12-4EFE-BF25-3D30861E8775}"/>
+    <hyperlink ref="M93" r:id="rId413" xr:uid="{4F8D1CF8-D215-443F-8914-E091AFB2DBAE}"/>
+    <hyperlink ref="M15" r:id="rId414" xr:uid="{4CD74FA1-A139-4BCD-9CB7-1D7091E614B9}"/>
+    <hyperlink ref="M55" r:id="rId415" xr:uid="{EAABDC46-8B1B-482C-B7D7-E6E7C16FB647}"/>
+    <hyperlink ref="M103" r:id="rId416" xr:uid="{ACDF2E56-83C7-477F-A573-2B4112936AD3}"/>
+    <hyperlink ref="M43" r:id="rId417" xr:uid="{B502A1CE-A61F-4999-A855-F6ECA908B905}"/>
+    <hyperlink ref="M88" r:id="rId418" xr:uid="{EF82DFB8-BEB4-47BB-B28B-AF5A4CDD6891}"/>
+    <hyperlink ref="M73" r:id="rId419" xr:uid="{6D71EE52-86C9-4EE0-A55D-7B9652B864FF}"/>
+    <hyperlink ref="M86" r:id="rId420" xr:uid="{C073950A-A28A-4ED8-B9C1-BD3B160FAEF3}"/>
+    <hyperlink ref="M62" r:id="rId421" xr:uid="{958C1C19-9C17-41E8-ADC4-BAB91255F382}"/>
+    <hyperlink ref="M36" r:id="rId422" xr:uid="{0CC98B27-C0DC-4F81-A868-5BC7C0784B50}"/>
+    <hyperlink ref="M65" r:id="rId423" xr:uid="{B86191A1-65D6-4540-845F-518E32A64FBF}"/>
+    <hyperlink ref="M106" r:id="rId424" xr:uid="{47889514-AB9C-4B04-95A5-1CCA3A0DFCA8}"/>
+    <hyperlink ref="M57" r:id="rId425" xr:uid="{36AE2A42-0E80-4A5F-8FB0-4EAB2AEA8C36}"/>
+    <hyperlink ref="M68" r:id="rId426" xr:uid="{7FE7C886-2B29-491F-8C86-5526A33F7121}"/>
+    <hyperlink ref="M72" r:id="rId427" xr:uid="{FDFB0EA9-AD4D-43E9-BEF9-C60B9531C82F}"/>
+    <hyperlink ref="M2" r:id="rId428" xr:uid="{251C34E0-B509-4755-B850-FDEB3B770405}"/>
+    <hyperlink ref="M11" r:id="rId429" xr:uid="{3203A1D8-1572-4E08-ADEF-54F74525E87A}"/>
+    <hyperlink ref="M92" r:id="rId430" xr:uid="{28CD01ED-234C-4911-A047-12722FE76C1F}"/>
+    <hyperlink ref="M115" r:id="rId431" xr:uid="{82D93DAC-CF9F-4D41-B8C8-5AE08EA58BAA}"/>
+    <hyperlink ref="M78" r:id="rId432" xr:uid="{68120C28-52E3-4EC9-9F3E-EB5A3578A3BD}"/>
+    <hyperlink ref="M32" r:id="rId433" display="https://vidwan.inflibnet.ac.in/profile/161755-" xr:uid="{B87FE430-1CFA-4F98-A7E4-77FBF96BA37F}"/>
+    <hyperlink ref="M99" r:id="rId434" xr:uid="{649E7EFF-CC71-476F-9A81-1581EC34CD48}"/>
+    <hyperlink ref="M87" r:id="rId435" xr:uid="{1C9375D7-8EF5-40A1-914C-C5A7CD3188FB}"/>
+    <hyperlink ref="M84" r:id="rId436" xr:uid="{66509B53-066F-4635-85A6-6E99D5FE0B3E}"/>
+    <hyperlink ref="M107" r:id="rId437" xr:uid="{775D1521-4736-4C73-BB71-31FD5AD1E561}"/>
+    <hyperlink ref="M59" r:id="rId438" xr:uid="{A128A132-518A-476D-BCF8-6D3638CE18D6}"/>
+    <hyperlink ref="M54" r:id="rId439" xr:uid="{A1AFE28A-9643-4A4A-95E8-53E1C4380AAE}"/>
+    <hyperlink ref="M114" r:id="rId440" xr:uid="{6A1A9D4D-97FF-42A2-B2EA-85F3F7E515C2}"/>
+    <hyperlink ref="M7" r:id="rId441" xr:uid="{BA494279-5FA7-4467-ACAA-FFA1824DB9F7}"/>
+    <hyperlink ref="M75" r:id="rId442" xr:uid="{C2281EE1-00E4-42D3-875C-3C9C699518DB}"/>
+    <hyperlink ref="M81" r:id="rId443" xr:uid="{3C1D1058-7762-4D63-9FB9-41A44D4AB1F3}"/>
+    <hyperlink ref="E16:E17" r:id="rId444" display="https://placehold.co/400x600" xr:uid="{18BA32A8-6934-421F-9831-28D4907FFF98}"/>
+    <hyperlink ref="E17" r:id="rId445" xr:uid="{7510203D-B2F6-44B8-BB79-8C3F26D4C98A}"/>
+    <hyperlink ref="E16" r:id="rId446" xr:uid="{7C7925F6-A06D-4A2F-A60E-DE952DACBD81}"/>
+    <hyperlink ref="E53" r:id="rId447" xr:uid="{41208DE8-410A-4988-814F-34D6808B3973}"/>
+    <hyperlink ref="E64" r:id="rId448" xr:uid="{2A43A7D2-0D9B-42A8-8E87-E447ECDB9951}"/>
+    <hyperlink ref="E59" r:id="rId449" xr:uid="{6FED2870-0657-4424-9493-C87C5558030E}"/>
+    <hyperlink ref="E111" r:id="rId450" xr:uid="{72604405-579A-4D04-AD70-2F433C2E73DD}"/>
+    <hyperlink ref="E116" r:id="rId451" xr:uid="{6297514C-C37E-424D-8BB6-2D18272D027F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId456"/>
+  <pageSetup orientation="portrait" r:id="rId452"/>
 </worksheet>
 </file>
 

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motat\OneDrive\Desktop\CSPIT_NEW_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1998F46-14D8-44A1-808C-90E3F11C55C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784647EB-9709-437C-9638-A3E8065BE17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1636" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1000">
   <si>
     <t>Name</t>
   </si>
@@ -398,9 +398,6 @@
     <t xml:space="preserve">Data Structure and Design &amp; Analysis of Algorithms, Theory of Computation, and Compiler Construction. </t>
   </si>
   <si>
-    <t>Vibration, Smart Materials and Robotics</t>
-  </si>
-  <si>
     <t>Construction Project Management</t>
   </si>
   <si>
@@ -516,9 +513,6 @@
   </si>
   <si>
     <t>dheerajshringi.aiml@charusat.ac.in</t>
-  </si>
-  <si>
-    <t>dipalpatel.me@charusat.ac.in</t>
   </si>
   <si>
     <t>gajananpatange.me@charusat.ac.in</t>
@@ -859,22 +853,6 @@
   </si>
   <si>
     <t>Data structure &amp; algorithm, Design and analysis of algorithm, Theory of computation, Compiler Construction, C and C++ Programming, Computer Network, Operating System</t>
-  </si>
-  <si>
-    <t>1. Engineering Graphics
-2. Elements of Engineering 
-3.Theory of Machines
-4.Mechanism and Machines.
-5. Dynamics of Machines
-6.Mechanical Vibrations
-7. Design concept and machine drawing
-8. Computer Aided Design
-9. Hydraulic and Pneumatic 
-10. Instrumentation and control
-11.Industrial Automation and Robotics
-12.Finite element analysis
-13.Software practice.
-14.Major Project.</t>
   </si>
   <si>
     <t xml:space="preserve">1.	Production and Operation management.
@@ -1283,9 +1261,6 @@
     <t>https://vidwan.inflibnet.ac.in/profile/405962</t>
   </si>
   <si>
-    <t>https://vidwan.inflibnet.ac.in/profile/63735</t>
-  </si>
-  <si>
     <t>https://vidwan.inflibnet.ac.in/profile/164076</t>
   </si>
   <si>
@@ -1496,15 +1471,6 @@
     <t>https://vidwan.inflibnet.ac.in/profile/161331</t>
   </si>
   <si>
-    <t>https://placehold.co/400x606</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x629</t>
-  </si>
-  <si>
-    <t>https://placehold.co/400x680</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x683</t>
   </si>
   <si>
@@ -1559,9 +1525,6 @@
     <t>https://www.linkedin.com/in/dheerajNAkumarNAshringiNA030586107?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app</t>
   </si>
   <si>
-    <t>www.linkedin.com/in/dipalkumarNApatelNA4b97997</t>
-  </si>
-  <si>
     <t>https://www.linkedin.com/in/gajananNApatangeNA05ba2219/overlay/aboutNAthisNAprofile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BEvV8mS8jTpy2mGfBhro1og%3D%3D</t>
   </si>
   <si>
@@ -1974,9 +1937,6 @@
   </si>
   <si>
     <t>https://scholar.google.com/citations?view_op=new_profile&amp;hl=en</t>
-  </si>
-  <si>
-    <t>https://scholar.google.com/citations?user=U39HxloAAAAJ&amp;hl=en</t>
   </si>
   <si>
     <t>https://www.bing.com/ck/a?!&amp;&amp;p=6a7ac5a017a1300aJmltdHM9MTcyOTQ2ODgwMCZpZ3VpZD0wMDExMmIyNS1kMzQ5LTY3MTItMmE4My0zZTA1ZDI1NjY2MWEmaW5zaWQ9NTE5NQ&amp;ptn=3&amp;ver=2&amp;hsh=3&amp;fclid=00112b25NAd349NA6712NA2a83NA3e05d256661a&amp;psq=google+scholer+gajanan+patange&amp;u=a1aHR0cHM6Ly9zY2hvbGFyLmdvb2dsZS5wbC9jaXRhdGlvbnM_dXNlcj1fRDRISUhjQUFBQUomaGw9ZW4&amp;ntb=1</t>
@@ -2328,9 +2288,6 @@
     <t>Implementation and Performance Analysis of Novel spatial Modulation aided wireless communication in heterogeneous condition NA CHARUSAT</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Experimental investigations on thrust force and delamination factor in drilling of hybrid matrix composites using magnetorheological damper” sanctioned by CHARUSAT as a Principal Investigator. 2. Design and development of prototype shock absorber/Isolator using magnetorheological Dampers” sanctioned by SACNAISRO, Ahmedabad as a CoNA Principal Investigator. 3.Electrical Vehicle (ANSYS static and vibration analysis) assigned by Ev Meta, Ahmedabad. </t>
-  </si>
-  <si>
     <t>AI Enabled Smart Bin NA Student Startup &amp; Innovation Policy (SSIP 2.0), GOG</t>
   </si>
   <si>
@@ -2772,9 +2729,6 @@
     <t>CSPIT_Faculty\Mechanical\MAYURKUMAR.webp</t>
   </si>
   <si>
-    <t>CSPIT_Faculty\Electrical\MIHIR.webp</t>
-  </si>
-  <si>
     <t>CSPIT_Faculty\Electrical\MIHIR_SIDDHARTH.webp</t>
   </si>
   <si>
@@ -2961,9 +2915,6 @@
     <t xml:space="preserve">Mr. Dheeraj Shringi  </t>
   </si>
   <si>
-    <t xml:space="preserve">Dr. Dipalkumar Patel  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Dr. Gajanan Patange  </t>
   </si>
   <si>
@@ -3223,6 +3174,18 @@
   </si>
   <si>
     <t xml:space="preserve">Dr. Abhishek Swarnkar  </t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Civil\AMIT_KUMAR.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\CSE\pinal.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electronics\VISHAL.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electrical\MIHIR_BHATT.webp</t>
   </si>
 </sst>
 </file>
@@ -3718,10 +3681,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:N116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3754,7 +3717,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -3772,18 +3735,18 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>893</v>
+        <v>882</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>108</v>
@@ -3795,10 +3758,10 @@
         <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>795</v>
+        <v>785</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>106</v>
@@ -3807,19 +3770,19 @@
         <v>106</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>106</v>
@@ -3827,7 +3790,7 @@
     </row>
     <row r="3" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>1007</v>
+        <v>995</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>108</v>
@@ -3839,10 +3802,10 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>835</v>
+        <v>825</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>106</v>
@@ -3851,42 +3814,42 @@
         <v>106</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="M3" s="9" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>894</v>
+        <v>883</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>822</v>
+        <v>812</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>106</v>
@@ -3895,19 +3858,19 @@
         <v>106</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="N4" s="10" t="s">
         <v>106</v>
@@ -3915,7 +3878,7 @@
     </row>
     <row r="5" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>895</v>
+        <v>884</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>108</v>
@@ -3927,10 +3890,10 @@
         <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>836</v>
+        <v>826</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>106</v>
@@ -3939,19 +3902,19 @@
         <v>106</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="N5" s="6" t="s">
         <v>106</v>
@@ -3959,7 +3922,7 @@
     </row>
     <row r="6" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>896</v>
+        <v>885</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>108</v>
@@ -3971,10 +3934,10 @@
         <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>823</v>
+        <v>813</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>106</v>
@@ -3983,19 +3946,19 @@
         <v>106</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>583</v>
+        <v>575</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="N6" s="4" t="s">
         <v>106</v>
@@ -4003,7 +3966,7 @@
     </row>
     <row r="7" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>897</v>
+        <v>886</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>109</v>
@@ -4015,39 +3978,39 @@
         <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>824</v>
+        <v>814</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G7" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>898</v>
+        <v>887</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>108</v>
@@ -4059,10 +4022,10 @@
         <v>116</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>447</v>
+        <v>996</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G8" s="4" t="s">
         <v>106</v>
@@ -4071,16 +4034,16 @@
         <v>106</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>106</v>
@@ -4091,22 +4054,22 @@
     </row>
     <row r="9" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>899</v>
+        <v>888</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>837</v>
+        <v>827</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G9" s="4" t="s">
         <v>106</v>
@@ -4115,27 +4078,27 @@
         <v>106</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="M9" s="9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>900</v>
+        <v>889</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>108</v>
@@ -4147,10 +4110,10 @@
         <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>796</v>
+        <v>786</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G10" s="4" t="s">
         <v>106</v>
@@ -4159,19 +4122,19 @@
         <v>106</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="N10" s="10" t="s">
         <v>106</v>
@@ -4179,22 +4142,22 @@
     </row>
     <row r="11" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>901</v>
+        <v>890</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>838</v>
+        <v>828</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>106</v>
@@ -4203,19 +4166,19 @@
         <v>106</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>100</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="N11" s="10" t="s">
         <v>106</v>
@@ -4223,7 +4186,7 @@
     </row>
     <row r="12" spans="1:14" ht="198" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>902</v>
+        <v>891</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>108</v>
@@ -4235,39 +4198,39 @@
         <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>797</v>
+        <v>787</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G12" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>709</v>
+        <v>700</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>903</v>
+        <v>892</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>110</v>
@@ -4279,19 +4242,19 @@
         <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>866</v>
+        <v>855</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G13" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>100</v>
@@ -4300,18 +4263,18 @@
         <v>106</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>904</v>
+        <v>893</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>109</v>
@@ -4323,54 +4286,54 @@
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>798</v>
+        <v>788</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="G14" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>710</v>
+        <v>701</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>591</v>
+        <v>583</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>905</v>
+        <v>894</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>867</v>
+        <v>856</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G15" s="4" t="s">
         <v>106</v>
@@ -4379,19 +4342,19 @@
         <v>106</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N15" s="10" t="s">
         <v>106</v>
@@ -4399,7 +4362,7 @@
     </row>
     <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>906</v>
+        <v>895</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>108</v>
@@ -4411,10 +4374,10 @@
         <v>118</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>825</v>
+        <v>815</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G16" s="4" t="s">
         <v>106</v>
@@ -4423,10 +4386,10 @@
         <v>106</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>106</v>
@@ -4443,28 +4406,28 @@
     </row>
     <row r="17" spans="1:14" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>907</v>
+        <v>896</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>700</v>
+        <v>691</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>711</v>
+        <v>702</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>106</v>
@@ -4476,18 +4439,18 @@
         <v>106</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>908</v>
+        <v>897</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>108</v>
@@ -4499,10 +4462,10 @@
         <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>839</v>
+        <v>829</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G18" s="4" t="s">
         <v>106</v>
@@ -4511,27 +4474,27 @@
         <v>106</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>909</v>
+        <v>898</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>110</v>
@@ -4543,39 +4506,39 @@
         <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>868</v>
+        <v>857</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G19" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>910</v>
+        <v>899</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>108</v>
@@ -4587,10 +4550,10 @@
         <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>869</v>
+        <v>858</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>106</v>
@@ -4599,19 +4562,19 @@
         <v>106</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
       <c r="M20" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="N20" s="14" t="s">
         <v>106</v>
@@ -4619,7 +4582,7 @@
     </row>
     <row r="21" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>911</v>
+        <v>900</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>108</v>
@@ -4631,10 +4594,10 @@
         <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>826</v>
+        <v>816</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="G21" s="4" t="s">
         <v>106</v>
@@ -4643,19 +4606,19 @@
         <v>106</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
       <c r="M21" s="9" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>106</v>
@@ -4663,7 +4626,7 @@
     </row>
     <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>912</v>
+        <v>901</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>110</v>
@@ -4675,19 +4638,19 @@
         <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>840</v>
+        <v>830</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>100</v>
@@ -4696,10 +4659,10 @@
         <v>106</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
       <c r="M22" s="9" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="N22" s="10" t="s">
         <v>106</v>
@@ -4707,7 +4670,7 @@
     </row>
     <row r="23" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>913</v>
+        <v>902</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>108</v>
@@ -4719,10 +4682,10 @@
         <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>799</v>
+        <v>789</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G23" s="4" t="s">
         <v>106</v>
@@ -4731,42 +4694,42 @@
         <v>106</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
       <c r="M23" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>914</v>
+        <v>903</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>841</v>
+        <v>831</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="G24" s="4" t="s">
         <v>106</v>
@@ -4775,19 +4738,19 @@
         <v>106</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
       <c r="M24" s="9" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>106</v>
@@ -4795,7 +4758,7 @@
     </row>
     <row r="25" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>915</v>
+        <v>904</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>108</v>
@@ -4807,10 +4770,10 @@
         <v>119</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>827</v>
+        <v>817</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>106</v>
@@ -4819,27 +4782,27 @@
         <v>106</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>106</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>1006</v>
+        <v>994</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>110</v>
@@ -4851,31 +4814,31 @@
         <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>712</v>
+        <v>703</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
       <c r="M26" s="9" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="N26" s="10" t="s">
         <v>106</v>
@@ -4883,22 +4846,22 @@
     </row>
     <row r="27" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>916</v>
+        <v>905</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>828</v>
+        <v>818</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>106</v>
@@ -4907,27 +4870,27 @@
         <v>106</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="M27" s="9" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>917</v>
+        <v>906</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>108</v>
@@ -4939,10 +4902,10 @@
         <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>800</v>
+        <v>790</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>106</v>
@@ -4951,42 +4914,42 @@
         <v>106</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
       <c r="M28" s="9" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>918</v>
+        <v>907</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>801</v>
+        <v>791</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>106</v>
@@ -4995,19 +4958,19 @@
         <v>106</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="M29" s="9" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="N29" s="14" t="s">
         <v>106</v>
@@ -5015,7 +4978,7 @@
     </row>
     <row r="30" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>919</v>
+        <v>908</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>108</v>
@@ -5027,10 +4990,10 @@
         <v>120</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>106</v>
@@ -5039,16 +5002,16 @@
         <v>106</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="M30" s="17">
         <v>583944</v>
@@ -5057,9 +5020,9 @@
         <v>106</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="237.6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" ht="264" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>920</v>
+        <v>909</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>110</v>
@@ -5068,86 +5031,86 @@
         <v>5</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>461</v>
+      </c>
+      <c r="K31" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L31" s="9" t="s">
+        <v>599</v>
+      </c>
+      <c r="M31" s="9" t="s">
+        <v>679</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="198" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>910</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="I31" s="4" t="s">
+      <c r="E32" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H32" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="K31" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L31" s="9" t="s">
-        <v>607</v>
-      </c>
-      <c r="M31" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="N31" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="264" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>921</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H32" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="4" t="s">
-        <v>162</v>
-      </c>
       <c r="J32" s="9" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="198" x14ac:dyDescent="0.3">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>922</v>
+        <v>911</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>108</v>
@@ -5156,42 +5119,42 @@
         <v>4</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>811</v>
+        <v>773</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G33" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H33" s="8" t="s">
-        <v>106</v>
+      <c r="H33" s="6" t="s">
+        <v>704</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
       <c r="M33" s="9" t="s">
-        <v>689</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+        <v>373</v>
+      </c>
+      <c r="N33" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>923</v>
+        <v>912</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>108</v>
@@ -5200,365 +5163,365 @@
         <v>4</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>66</v>
+        <v>31</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>783</v>
+        <v>774</v>
       </c>
       <c r="F34" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I34" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="J34" s="9" t="s">
+        <v>464</v>
+      </c>
+      <c r="K34" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M34" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="N34" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>993</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I35" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="J35" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="K35" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L35" s="9" t="s">
+        <v>602</v>
+      </c>
+      <c r="M35" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="N35" s="10" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>913</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="F36" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="I34" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="K34" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L34" s="9" t="s">
-        <v>610</v>
-      </c>
-      <c r="M34" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="N34" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>924</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="F35" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I35" s="4" t="s">
+      <c r="G36" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="J35" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="K35" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L35" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M35" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="N35" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>1005</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>870</v>
-      </c>
-      <c r="F36" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I36" s="4" t="s">
-        <v>166</v>
-      </c>
       <c r="J36" s="9" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="K36" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="N36" s="10" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="N36" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>925</v>
+        <v>914</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>4</v>
+        <v>552</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>844</v>
+        <v>819</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>274</v>
+        <v>693</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H37" s="6" t="s">
+      <c r="H37" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K37" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
       <c r="M37" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="N37" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+      <c r="N37" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>926</v>
+        <v>915</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>829</v>
+        <v>820</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>702</v>
+        <v>272</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>475</v>
-      </c>
-      <c r="K38" s="14" t="s">
+        <v>468</v>
+      </c>
+      <c r="K38" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>613</v>
-      </c>
-      <c r="M38" s="9" t="s">
-        <v>381</v>
-      </c>
-      <c r="N38" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N38" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>927</v>
+        <v>916</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>560</v>
+        <v>4</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>830</v>
+        <v>802</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H39" s="6" t="s">
+      <c r="H39" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>169</v>
+        <v>106</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>476</v>
-      </c>
-      <c r="K39" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="K39" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="M39" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N39" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+        <v>606</v>
+      </c>
+      <c r="M39" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="N39" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>928</v>
+        <v>917</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>4</v>
+        <v>552</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>812</v>
+        <v>864</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G40" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>106</v>
+      <c r="H40" s="6" t="s">
+        <v>705</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="K40" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="K40" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
       <c r="M40" s="9" t="s">
-        <v>382</v>
-      </c>
-      <c r="N40" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="N40" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>929</v>
+        <v>918</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>560</v>
+        <v>4</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>875</v>
+        <v>775</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G41" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>715</v>
+        <v>106</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="K41" s="10" t="s">
+        <v>471</v>
+      </c>
+      <c r="K41" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
       <c r="M41" s="9" t="s">
-        <v>383</v>
-      </c>
-      <c r="N41" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="N41" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>930</v>
+        <v>919</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>4</v>
+        <v>552</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>785</v>
+        <v>804</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G42" s="4" t="s">
         <v>106</v>
@@ -5567,42 +5530,42 @@
         <v>106</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="K42" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="K42" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="M42" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="N42" s="19" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="N42" s="10" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>931</v>
+        <v>920</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>560</v>
+        <v>4</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>814</v>
+        <v>803</v>
       </c>
       <c r="F43" s="6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="G43" s="4" t="s">
         <v>106</v>
@@ -5611,42 +5574,42 @@
         <v>106</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>480</v>
-      </c>
-      <c r="K43" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="K43" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="M43" s="9" t="s">
-        <v>385</v>
-      </c>
-      <c r="N43" s="10" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="N43" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>932</v>
+        <v>921</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>813</v>
+        <v>821</v>
       </c>
       <c r="F44" s="6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G44" s="4" t="s">
         <v>106</v>
@@ -5655,42 +5618,42 @@
         <v>106</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>481</v>
-      </c>
-      <c r="K44" s="14" t="s">
-        <v>106</v>
+        <v>474</v>
+      </c>
+      <c r="K44" s="9" t="s">
+        <v>535</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="M44" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="N44" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="45" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:14" ht="290.39999999999998" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>933</v>
+        <v>922</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>5</v>
+        <v>555</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>831</v>
+        <v>835</v>
       </c>
       <c r="F45" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G45" s="4" t="s">
         <v>106</v>
@@ -5699,130 +5662,130 @@
         <v>106</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>482</v>
-      </c>
-      <c r="K45" s="9" t="s">
-        <v>543</v>
+        <v>102</v>
+      </c>
+      <c r="K45" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="M45" s="9" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="N45" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="46" spans="1:14" ht="290.39999999999998" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>934</v>
+        <v>923</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>563</v>
+        <v>4</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="F46" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G46" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>106</v>
+        <v>347</v>
       </c>
       <c r="I46" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="J46" s="9" t="s">
+        <v>475</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L46" s="9" t="s">
+        <v>613</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N46" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>924</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I47" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="J46" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="K46" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L46" s="9" t="s">
-        <v>621</v>
-      </c>
-      <c r="M46" s="9" t="s">
-        <v>388</v>
-      </c>
-      <c r="N46" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>935</v>
-      </c>
-      <c r="B47" s="4" t="s">
+      <c r="J47" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K47" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="M47" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="N47" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>925</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="F47" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="I47" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="J47" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="K47" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L47" s="9" t="s">
-        <v>622</v>
-      </c>
-      <c r="M47" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N47" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>936</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>847</v>
+        <v>838</v>
       </c>
       <c r="F48" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>106</v>
@@ -5830,28 +5793,28 @@
       <c r="H48" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="I48" s="4" t="s">
-        <v>177</v>
+      <c r="I48" s="11" t="s">
+        <v>567</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K48" s="14" t="s">
-        <v>106</v>
+        <v>476</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>536</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="M48" s="9" t="s">
-        <v>362</v>
+        <v>385</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>937</v>
+        <v>926</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>108</v>
@@ -5860,350 +5823,350 @@
         <v>5</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>848</v>
+        <v>839</v>
       </c>
       <c r="F49" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H49" s="4" t="s">
-        <v>106</v>
+      <c r="H49" s="6" t="s">
+        <v>706</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>575</v>
+        <v>176</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>544</v>
+        <v>106</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="M49" s="9" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>938</v>
+        <v>927</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C50" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>22</v>
+        <v>684</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>849</v>
+        <v>840</v>
       </c>
       <c r="F50" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H50" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="J50" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L50" s="9" t="s">
+        <v>617</v>
+      </c>
+      <c r="M50" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="N50" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>928</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>792</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H51" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J51" s="9" t="s">
+        <v>478</v>
+      </c>
+      <c r="K51" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L51" s="9" t="s">
+        <v>618</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N51" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>929</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="G50" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>716</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="J50" s="9" t="s">
-        <v>485</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L50" s="9" t="s">
-        <v>625</v>
-      </c>
-      <c r="M50" s="9" t="s">
-        <v>390</v>
-      </c>
-      <c r="N50" s="10" t="s">
-        <v>751</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>939</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D51" s="6" t="s">
-        <v>693</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="F51" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="I51" s="4" t="s">
+      <c r="G52" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>626</v>
-      </c>
-      <c r="M51" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="N51" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>940</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H52" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="J52" s="9" t="s">
-        <v>486</v>
-      </c>
-      <c r="K52" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="K52" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="M52" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N52" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="M52" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="N52" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>941</v>
+        <v>930</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H53" s="4" t="s">
-        <v>106</v>
+      <c r="H53" s="6" t="s">
+        <v>708</v>
       </c>
       <c r="I53" s="4" t="s">
         <v>181</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="N53" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>4</v>
+        <v>554</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>58</v>
+        <v>122</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>852</v>
+        <v>843</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>718</v>
+        <v>709</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="K54" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="K54" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>943</v>
+        <v>932</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>853</v>
+        <v>844</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>291</v>
+        <v>694</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>719</v>
+        <v>106</v>
       </c>
       <c r="I55" s="4" t="s">
         <v>182</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="K55" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>944</v>
+        <v>933</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>87</v>
+        <v>685</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>703</v>
+        <v>289</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>106</v>
+        <v>710</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>105</v>
+        <v>481</v>
       </c>
       <c r="K56" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>945</v>
+        <v>934</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>108</v>
@@ -6212,277 +6175,277 @@
         <v>5</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>694</v>
+        <v>123</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>871</v>
+        <v>793</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="K57" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="356.4" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>946</v>
+        <v>935</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>5</v>
+        <v>553</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>803</v>
+        <v>776</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>721</v>
+        <v>712</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="K58" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="356.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>947</v>
+        <v>936</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>561</v>
+        <v>4</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>79</v>
+        <v>124</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>786</v>
+        <v>845</v>
       </c>
       <c r="F59" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G59" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H59" s="6" t="s">
-        <v>722</v>
+      <c r="H59" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="I59" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="K59" s="9" t="s">
+        <v>537</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>626</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>937</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>846</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H60" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="I60" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="J59" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="K59" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L59" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="M59" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="N59" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
-        <v>948</v>
-      </c>
-      <c r="B60" s="4" t="s">
+      <c r="J60" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="K60" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>627</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>938</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C60" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H60" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I60" s="4" t="s">
+      <c r="C61" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I61" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="J60" s="9" t="s">
-        <v>492</v>
-      </c>
-      <c r="K60" s="9" t="s">
-        <v>545</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="N60" s="10" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H61" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>493</v>
+      <c r="J61" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="K61" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L61" s="9" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="M61" s="9" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="N61" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
-        <v>950</v>
+        <v>939</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>562</v>
+        <v>4</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>61</v>
+        <v>686</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>815</v>
+        <v>806</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H62" s="4" t="s">
+      <c r="H62" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>101</v>
+        <v>486</v>
       </c>
       <c r="K62" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="N62" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+      <c r="N62" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>951</v>
+        <v>940</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>695</v>
+        <v>74</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>816</v>
+        <v>999</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>106</v>
@@ -6491,159 +6454,159 @@
         <v>106</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="K63" s="14" t="s">
-        <v>106</v>
+        <v>487</v>
+      </c>
+      <c r="K63" s="9" t="s">
+        <v>538</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="N63" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>952</v>
+        <v>941</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>5</v>
+        <v>556</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>857</v>
+        <v>847</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>106</v>
+        <v>714</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="K64" s="9" t="s">
-        <v>546</v>
+        <v>488</v>
+      </c>
+      <c r="K64" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="N64" s="10" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+      <c r="N64" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>953</v>
+        <v>942</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>564</v>
+        <v>4</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>724</v>
+        <v>348</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="K65" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="N65" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="277.2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>954</v>
+        <v>943</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>872</v>
+        <v>862</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>351</v>
+        <v>715</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="K66" s="14" t="s">
-        <v>106</v>
+        <v>490</v>
+      </c>
+      <c r="K66" s="9" t="s">
+        <v>539</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="277.2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>955</v>
+        <v>944</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>108</v>
@@ -6652,174 +6615,174 @@
         <v>5</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>873</v>
+        <v>794</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>725</v>
+        <v>106</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>498</v>
-      </c>
-      <c r="K67" s="9" t="s">
-        <v>547</v>
+        <v>491</v>
+      </c>
+      <c r="K67" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="N67" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="N67" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>956</v>
+        <v>945</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>19</v>
+        <v>125</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>804</v>
+        <v>863</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H68" s="6" t="s">
+      <c r="H68" s="8" t="s">
         <v>106</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="K68" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L68" s="9" t="s">
-        <v>643</v>
+      <c r="L68" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="N68" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>957</v>
+        <v>946</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>4</v>
+        <v>106</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>126</v>
+        <v>45</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>874</v>
+        <v>807</v>
       </c>
       <c r="F69" s="6" t="s">
-        <v>303</v>
+        <v>696</v>
       </c>
       <c r="G69" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H69" s="8" t="s">
+      <c r="H69" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I69" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>493</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L69" s="9" t="s">
+        <v>635</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>992</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="J69" s="9" t="s">
-        <v>500</v>
-      </c>
-      <c r="K69" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L69" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M69" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="N69" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>958</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>198</v>
-      </c>
       <c r="J70" s="9" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="K70" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L70" s="9" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="M70" s="9" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="N70" s="10" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>1004</v>
+        <v>947</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>110</v>
@@ -6828,42 +6791,42 @@
         <v>5</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>696</v>
+        <v>12</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>805</v>
+        <v>848</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H71" s="4" t="s">
-        <v>106</v>
+      <c r="H71" s="6" t="s">
+        <v>716</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>106</v>
+        <v>495</v>
+      </c>
+      <c r="K71" s="9" t="s">
+        <v>540</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="N71" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="N71" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>959</v>
+        <v>948</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>110</v>
@@ -6872,86 +6835,86 @@
         <v>5</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>12</v>
+        <v>126</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>859</v>
+        <v>777</v>
       </c>
       <c r="F72" s="6" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G72" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>726</v>
+        <v>717</v>
       </c>
       <c r="I72" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="K72" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>638</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>405</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>949</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>697</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I73" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="J72" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="K72" s="9" t="s">
-        <v>548</v>
-      </c>
-      <c r="L72" s="9" t="s">
-        <v>646</v>
-      </c>
-      <c r="M72" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="N72" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>960</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>201</v>
-      </c>
       <c r="J73" s="9" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="K73" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L73" s="9" t="s">
-        <v>647</v>
+      <c r="L73" s="10" t="s">
+        <v>639</v>
       </c>
       <c r="M73" s="9" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="N73" s="10" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>961</v>
+        <v>950</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>108</v>
@@ -6960,13 +6923,13 @@
         <v>4</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>818</v>
+        <v>778</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>706</v>
+        <v>304</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>106</v>
@@ -6975,27 +6938,27 @@
         <v>106</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="K74" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L74" s="10" t="s">
-        <v>648</v>
+      <c r="L74" s="9" t="s">
+        <v>640</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>410</v>
+        <v>359</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>753</v>
+        <v>106</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>962</v>
+        <v>951</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>108</v>
@@ -7004,42 +6967,42 @@
         <v>4</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>67</v>
+        <v>127</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H75" s="6" t="s">
+      <c r="H75" s="8" t="s">
         <v>106</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="K75" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>362</v>
+        <v>407</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>106</v>
+        <v>748</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>963</v>
+        <v>952</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>108</v>
@@ -7048,57 +7011,57 @@
         <v>4</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>128</v>
+        <v>33</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>790</v>
+        <v>779</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
       <c r="K76" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L76" s="9" t="s">
-        <v>650</v>
-      </c>
-      <c r="M76" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="N76" s="10" t="s">
-        <v>758</v>
+      <c r="L76" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M76" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N76" s="19" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>964</v>
+        <v>953</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>4</v>
+        <v>554</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>789</v>
+        <v>865</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>106</v>
@@ -7107,262 +7070,262 @@
         <v>106</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="K77" s="14" t="s">
+        <v>501</v>
+      </c>
+      <c r="K77" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L77" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="M77" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N77" s="19" t="s">
+      <c r="M77" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="N77" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>965</v>
+        <v>991</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H78" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="K78" s="9" t="s">
+        <v>541</v>
+      </c>
+      <c r="L78" s="9" t="s">
+        <v>642</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="N78" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C78" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="D78" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="F78" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="G78" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H78" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I78" s="4" t="s">
+      <c r="C79" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="J78" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="K78" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L78" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M78" s="9" t="s">
-        <v>412</v>
-      </c>
-      <c r="N78" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>1003</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H79" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>207</v>
-      </c>
       <c r="J79" s="9" t="s">
-        <v>510</v>
-      </c>
-      <c r="K79" s="9" t="s">
-        <v>549</v>
-      </c>
-      <c r="L79" s="9" t="s">
-        <v>651</v>
+        <v>98</v>
+      </c>
+      <c r="K79" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L79" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="M79" s="9" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="N79" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>966</v>
+        <v>955</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>4</v>
+        <v>554</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>792</v>
+        <v>809</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>312</v>
+        <v>698</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H80" s="6" t="s">
+      <c r="H80" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I80" s="4" t="s">
         <v>208</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K80" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L80" s="10" t="s">
-        <v>106</v>
+      <c r="L80" s="9" t="s">
+        <v>643</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>414</v>
-      </c>
-      <c r="N80" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+      <c r="N80" s="10" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>967</v>
+        <v>956</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>55</v>
+        <v>128</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>819</v>
+        <v>997</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>707</v>
+        <v>310</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I81" s="4" t="s">
-        <v>210</v>
+      <c r="H81" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="K81" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>968</v>
+        <v>990</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>565</v>
+        <v>5</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>129</v>
+        <v>14</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>449</v>
+        <v>866</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H82" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I82" s="11" t="s">
+      <c r="H82" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I82" s="4" t="s">
         <v>209</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="K82" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="K82" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="N82" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>1002</v>
+        <v>957</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>5</v>
+        <v>554</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>877</v>
+        <v>849</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>106</v>
@@ -7371,262 +7334,262 @@
         <v>106</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="K83" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="N83" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>969</v>
+        <v>958</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>860</v>
+        <v>443</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H84" s="4" t="s">
+      <c r="H84" s="8" t="s">
         <v>106</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>212</v>
+        <v>106</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="K84" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="K84" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="N84" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+      <c r="N84" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="330" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>970</v>
+        <v>959</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>450</v>
+        <v>867</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H85" s="8" t="s">
+      <c r="H85" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="K85" s="14" t="s">
-        <v>106</v>
+        <v>97</v>
+      </c>
+      <c r="K85" s="9" t="s">
+        <v>542</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="N85" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="330" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+      <c r="N85" s="10" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>971</v>
+        <v>960</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>27</v>
+        <v>93</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>878</v>
+        <v>783</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>106</v>
+        <v>718</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>97</v>
+        <v>506</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>420</v>
+        <v>681</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>760</v>
+        <v>751</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>972</v>
+        <v>961</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>5</v>
+        <v>554</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>793</v>
+        <v>850</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H87" s="6" t="s">
-        <v>728</v>
+      <c r="H87" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="K87" s="9" t="s">
-        <v>551</v>
+        <v>112</v>
+      </c>
+      <c r="K87" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>690</v>
+        <v>417</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>761</v>
+        <v>106</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>973</v>
+        <v>989</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H88" s="4" t="s">
+      <c r="H88" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>112</v>
+        <v>507</v>
       </c>
       <c r="K88" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="N88" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+      <c r="N88" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="290.39999999999998" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>1001</v>
+        <v>962</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>879</v>
+        <v>851</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>106</v>
@@ -7634,28 +7597,28 @@
       <c r="H89" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I89" s="4" t="s">
-        <v>216</v>
+      <c r="I89" s="11" t="s">
+        <v>568</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="K89" s="14" t="s">
-        <v>106</v>
+        <v>508</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>544</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="N89" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="290.39999999999998" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+      <c r="N89" s="10" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>974</v>
+        <v>963</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>108</v>
@@ -7664,42 +7627,42 @@
         <v>4</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>862</v>
+        <v>444</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>576</v>
+        <v>719</v>
+      </c>
+      <c r="I90" s="4" t="s">
+        <v>215</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="K90" s="9" t="s">
-        <v>552</v>
+        <v>509</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>975</v>
+        <v>964</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>108</v>
@@ -7708,130 +7671,130 @@
         <v>4</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>451</v>
+        <v>796</v>
       </c>
       <c r="F91" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="K91" s="9" t="s">
+        <v>545</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>654</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="N91" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="250.8" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>869</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="I92" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J92" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="N92" s="10" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>966</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="F93" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="I91" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="J91" s="9" t="s">
-        <v>517</v>
-      </c>
-      <c r="K91" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L91" s="9" t="s">
-        <v>662</v>
-      </c>
-      <c r="M91" s="9" t="s">
-        <v>424</v>
-      </c>
-      <c r="N91" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
-        <v>976</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I92" s="4" t="s">
+      <c r="G93" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H93" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I93" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="J92" s="9" t="s">
-        <v>518</v>
-      </c>
-      <c r="K92" s="9" t="s">
-        <v>553</v>
-      </c>
-      <c r="L92" s="9" t="s">
-        <v>663</v>
-      </c>
-      <c r="M92" s="9" t="s">
-        <v>425</v>
-      </c>
-      <c r="N92" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="250.8" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>977</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H93" s="6" t="s">
-        <v>730</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>219</v>
-      </c>
       <c r="J93" s="9" t="s">
-        <v>519</v>
+        <v>104</v>
       </c>
       <c r="K93" s="9" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="L93" s="9" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="M93" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="N93" s="10" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
-        <v>978</v>
+        <v>966</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>108</v>
@@ -7840,86 +7803,86 @@
         <v>4</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>85</v>
+        <v>21</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>807</v>
+        <v>798</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="G94" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H94" s="4" t="s">
+      <c r="H94" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I94" s="4" t="s">
+        <v>219</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>512</v>
+      </c>
+      <c r="K94" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>657</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="N94" s="10" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>967</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D95" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>852</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="I95" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J94" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K94" s="9" t="s">
-        <v>555</v>
-      </c>
-      <c r="L94" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="M94" s="9" t="s">
-        <v>427</v>
-      </c>
-      <c r="N94" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>978</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>221</v>
-      </c>
       <c r="J95" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="K95" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="K95" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L95" s="9" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="M95" s="9" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="N95" s="10" t="s">
-        <v>764</v>
+        <v>755</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>979</v>
+        <v>968</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>110</v>
@@ -7928,145 +7891,145 @@
         <v>5</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>863</v>
+        <v>878</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>731</v>
+        <v>722</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="K96" s="10" t="s">
+        <v>880</v>
+      </c>
+      <c r="K96" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>980</v>
+        <v>969</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>889</v>
+        <v>870</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>732</v>
+        <v>349</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>891</v>
-      </c>
-      <c r="K97" s="14" t="s">
-        <v>106</v>
+        <v>881</v>
+      </c>
+      <c r="K97" s="9" t="s">
+        <v>548</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>981</v>
+        <v>970</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>5</v>
+        <v>554</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>881</v>
+        <v>871</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>352</v>
+        <v>106</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>892</v>
-      </c>
-      <c r="K98" s="9" t="s">
-        <v>556</v>
+        <v>103</v>
+      </c>
+      <c r="K98" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>431</v>
-      </c>
-      <c r="N98" s="10" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="N98" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>982</v>
+        <v>971</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>882</v>
+        <v>872</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>106</v>
@@ -8075,86 +8038,86 @@
         <v>106</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K99" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="K99" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>432</v>
-      </c>
-      <c r="N99" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="N99" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>883</v>
+        <v>799</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H100" s="6" t="s">
+      <c r="H100" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>522</v>
-      </c>
-      <c r="K100" s="14" t="s">
+        <v>515</v>
+      </c>
+      <c r="K100" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N100" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>5</v>
+        <v>558</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>809</v>
+        <v>784</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>106</v>
@@ -8163,86 +8126,86 @@
         <v>106</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="K101" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="K101" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="N101" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>566</v>
+        <v>4</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>794</v>
+        <v>822</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H102" s="4" t="s">
+      <c r="H102" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="K102" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="M102" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="N102" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+      <c r="M102" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N102" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>4</v>
+        <v>559</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>832</v>
+        <v>873</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>106</v>
@@ -8251,19 +8214,19 @@
         <v>106</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>229</v>
+        <v>106</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="K103" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>674</v>
-      </c>
-      <c r="M103" s="10" t="s">
-        <v>106</v>
+        <v>666</v>
+      </c>
+      <c r="M103" s="9" t="s">
+        <v>432</v>
       </c>
       <c r="N103" s="14" t="s">
         <v>106</v>
@@ -8271,22 +8234,22 @@
     </row>
     <row r="104" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>567</v>
+        <v>554</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>884</v>
+        <v>874</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>106</v>
@@ -8295,159 +8258,159 @@
         <v>106</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="K104" s="14" t="s">
-        <v>106</v>
+        <v>519</v>
+      </c>
+      <c r="K104" s="9" t="s">
+        <v>549</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="N104" s="14" t="s">
+        <v>433</v>
+      </c>
+      <c r="N104" s="10" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D105" s="6" t="s">
-        <v>83</v>
+        <v>18</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>885</v>
+        <v>875</v>
       </c>
       <c r="F105" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G105" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H105" s="6" t="s">
-        <v>106</v>
+      <c r="H105" s="18" t="s">
+        <v>350</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="J105" s="9" t="s">
-        <v>527</v>
+        <v>96</v>
       </c>
       <c r="K105" s="9" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="L105" s="9" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
       <c r="M105" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="N105" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+        <v>434</v>
+      </c>
+      <c r="N105" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="B106" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="G106" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H106" s="18" t="s">
-        <v>353</v>
+      <c r="H106" s="6" t="s">
+        <v>351</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J106" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K106" s="9" t="s">
-        <v>558</v>
+        <v>520</v>
+      </c>
+      <c r="K106" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="L106" s="9" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="M106" s="9" t="s">
-        <v>438</v>
-      </c>
-      <c r="N106" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
+        <v>435</v>
+      </c>
+      <c r="N106" s="10" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="B107" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C107" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D107" s="6" t="s">
         <v>134</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>887</v>
+        <v>823</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G107" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H107" s="6" t="s">
-        <v>354</v>
+      <c r="H107" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J107" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="K107" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="K107" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L107" s="9" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="M107" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="N107" s="10" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+      <c r="N107" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>108</v>
@@ -8456,57 +8419,57 @@
         <v>4</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>135</v>
+        <v>71</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>833</v>
+        <v>800</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>339</v>
+        <v>71</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H108" s="8" t="s">
+      <c r="H108" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="K108" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>440</v>
-      </c>
-      <c r="N108" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+        <v>437</v>
+      </c>
+      <c r="N108" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>4</v>
+        <v>560</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>810</v>
+        <v>877</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>71</v>
+        <v>337</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>106</v>
@@ -8515,115 +8478,115 @@
         <v>106</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>530</v>
-      </c>
-      <c r="K109" s="14" t="s">
-        <v>106</v>
+        <v>523</v>
+      </c>
+      <c r="K109" s="10" t="s">
+        <v>551</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="N109" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="D110" s="6" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>888</v>
+        <v>824</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G110" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H110" s="4" t="s">
+      <c r="H110" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I110" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="K110" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>673</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>439</v>
+      </c>
+      <c r="N110" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>988</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D111" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G111" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="I111" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="J110" s="9" t="s">
-        <v>531</v>
-      </c>
-      <c r="K110" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="L110" s="9" t="s">
-        <v>681</v>
-      </c>
-      <c r="M110" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="N110" s="10" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>994</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>560</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>834</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>236</v>
-      </c>
       <c r="J111" s="9" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="K111" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L111" s="9" t="s">
-        <v>682</v>
+      <c r="L111" s="10" t="s">
+        <v>674</v>
       </c>
       <c r="M111" s="9" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N111" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>1000</v>
+        <v>983</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>109</v>
@@ -8632,174 +8595,174 @@
         <v>5</v>
       </c>
       <c r="D112" s="6" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>890</v>
+        <v>810</v>
       </c>
       <c r="F112" s="6" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G112" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H112" s="6" t="s">
-        <v>733</v>
+      <c r="H112" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="I112" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>526</v>
+      </c>
+      <c r="K112" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L112" s="10" t="s">
+        <v>675</v>
+      </c>
+      <c r="M112" s="17" t="s">
+        <v>440</v>
+      </c>
+      <c r="N112" s="10" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>984</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>554</v>
+      </c>
+      <c r="D113" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G113" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H113" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I113" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="J112" s="9" t="s">
-        <v>533</v>
-      </c>
-      <c r="K112" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L112" s="10" t="s">
-        <v>683</v>
-      </c>
-      <c r="M112" s="9" t="s">
-        <v>444</v>
-      </c>
-      <c r="N112" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>995</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H113" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="J113" s="9" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="K113" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L113" s="10" t="s">
-        <v>684</v>
-      </c>
-      <c r="M113" s="17" t="s">
-        <v>444</v>
+      <c r="L113" s="9" t="s">
+        <v>676</v>
+      </c>
+      <c r="M113" s="9" t="s">
+        <v>441</v>
       </c>
       <c r="N113" s="10" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>864</v>
+        <v>811</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>344</v>
+        <v>699</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>535</v>
-      </c>
-      <c r="K114" s="14" t="s">
-        <v>106</v>
+        <v>528</v>
+      </c>
+      <c r="K114" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>445</v>
+        <v>359</v>
       </c>
       <c r="N114" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>562</v>
+        <v>553</v>
       </c>
       <c r="D115" s="6" t="s">
         <v>136</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>821</v>
+        <v>854</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>708</v>
+        <v>342</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H115" s="6" t="s">
-        <v>107</v>
+      <c r="H115" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>536</v>
-      </c>
-      <c r="K115" s="10" t="s">
-        <v>107</v>
+        <v>529</v>
+      </c>
+      <c r="K115" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="N115" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A116" s="4" t="s">
-        <v>998</v>
+        <v>442</v>
+      </c>
+      <c r="N115" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A116" s="16" t="s">
+        <v>987</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>108</v>
@@ -8807,78 +8770,34 @@
       <c r="C116" s="4" t="s">
         <v>561</v>
       </c>
-      <c r="D116" s="6" t="s">
-        <v>137</v>
+      <c r="D116" s="15" t="s">
+        <v>689</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>865</v>
-      </c>
-      <c r="F116" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="G116" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H116" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I116" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="J116" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="K116" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L116" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="M116" s="9" t="s">
-        <v>446</v>
-      </c>
-      <c r="N116" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A117" s="16" t="s">
-        <v>999</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C117" s="4" t="s">
+        <v>998</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H116" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I116" s="16" t="s">
         <v>569</v>
       </c>
-      <c r="D117" s="15" t="s">
-        <v>698</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="F117" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H117" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I117" s="16" t="s">
-        <v>577</v>
-      </c>
-      <c r="J117" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K117" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="L117" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M117" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="N117" s="20" t="s">
+      <c r="J116" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K116" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L116" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M116" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N116" s="20" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8889,7 +8808,7 @@
     <hyperlink ref="E3" r:id="rId2" xr:uid="{B0FAAFEF-605D-4098-8F11-6FC6A0E9E0D6}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{AB4A22E1-9601-4D07-8888-34F1D29BD46A}"/>
     <hyperlink ref="E6" r:id="rId4" xr:uid="{D5047CB0-F6D4-4475-9DBF-0B83B4DAEAB4}"/>
-    <hyperlink ref="E8" r:id="rId5" display="https://placehold.co/400x600" xr:uid="{341347BE-FDF4-47C3-A9AA-7BF0532F61DB}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{341347BE-FDF4-47C3-A9AA-7BF0532F61DB}"/>
     <hyperlink ref="E10" r:id="rId6" xr:uid="{CE30ABE6-4735-49AC-9E38-986CD096C5BF}"/>
     <hyperlink ref="E12" r:id="rId7" xr:uid="{17D5C088-BD3A-4E75-8035-22B027942A64}"/>
     <hyperlink ref="E14" r:id="rId8" xr:uid="{6815D31E-1624-40E4-AD43-8FB5276A3E13}"/>
@@ -8900,46 +8819,46 @@
     <hyperlink ref="E26" r:id="rId13" xr:uid="{5B8C9469-79CD-4130-A71A-FB9845883315}"/>
     <hyperlink ref="E28" r:id="rId14" xr:uid="{C6FD206E-083A-424A-BEB2-E5FA5EA1028A}"/>
     <hyperlink ref="E30" r:id="rId15" xr:uid="{3C06105A-95B0-486E-B562-804FA49B279E}"/>
-    <hyperlink ref="E32" r:id="rId16" xr:uid="{445C6875-08FB-4A0D-945E-88ACC5B3E36F}"/>
-    <hyperlink ref="E34" r:id="rId17" xr:uid="{65D66EC6-EE19-4700-A25B-1483B78EB1EF}"/>
-    <hyperlink ref="E36" r:id="rId18" xr:uid="{2E844F72-E0A3-4D15-89E8-4C62C40B0097}"/>
-    <hyperlink ref="E38" r:id="rId19" xr:uid="{15AC029B-EF8F-4E8F-BB97-C5EC917FD18C}"/>
-    <hyperlink ref="E40" r:id="rId20" xr:uid="{5FE82AD6-8780-451F-B565-3C9E2036135F}"/>
-    <hyperlink ref="E42" r:id="rId21" xr:uid="{F7983BF9-576C-4FA2-B35A-DFA749ACF1B5}"/>
-    <hyperlink ref="E44" r:id="rId22" xr:uid="{DF66767C-72DE-4D71-B54F-89D37A2B3207}"/>
-    <hyperlink ref="E46" r:id="rId23" xr:uid="{E6907F0E-8A63-42E5-881D-83BE98378391}"/>
-    <hyperlink ref="E48" r:id="rId24" xr:uid="{BF819DDD-F33C-4323-B234-FA5AEFEBF540}"/>
-    <hyperlink ref="E50" r:id="rId25" xr:uid="{B4631102-EF86-443A-975E-E151B867331C}"/>
-    <hyperlink ref="E52" r:id="rId26" xr:uid="{D0C8995E-2389-436D-96F9-0ECFED635D2D}"/>
-    <hyperlink ref="E56" r:id="rId27" xr:uid="{D60F983F-3A4A-4B45-A5A9-1CBD13CCBAB1}"/>
-    <hyperlink ref="E58" r:id="rId28" xr:uid="{DDB2A0FD-936A-490E-BE1E-1762A651B20C}"/>
-    <hyperlink ref="E62" r:id="rId29" xr:uid="{5E732335-693B-490D-844A-64351A2B11C7}"/>
-    <hyperlink ref="E64" r:id="rId30" xr:uid="{B032BBB6-4D16-4E33-A3F0-D7039E10D767}"/>
-    <hyperlink ref="E66" r:id="rId31" xr:uid="{C71F9231-ACA2-46E1-BE2F-462475789CDA}"/>
-    <hyperlink ref="E68" r:id="rId32" xr:uid="{6DAF2527-3F52-4351-90EE-F788A7836287}"/>
-    <hyperlink ref="E70" r:id="rId33" xr:uid="{C213B07F-FB90-4578-BA40-CB5277C5E9F8}"/>
-    <hyperlink ref="E72" r:id="rId34" xr:uid="{B6B3C0BC-449F-4D5F-8991-2960BC1E1B95}"/>
-    <hyperlink ref="E74" r:id="rId35" xr:uid="{12F3E568-1027-43BC-89EA-C5D4D2C3F3B1}"/>
-    <hyperlink ref="E76" r:id="rId36" xr:uid="{9BCFDA15-C8D8-41F6-B5C1-8DB9E3F54F38}"/>
-    <hyperlink ref="E78" r:id="rId37" xr:uid="{5074351A-0735-4679-AE99-F1F491EAD66F}"/>
-    <hyperlink ref="E80" r:id="rId38" xr:uid="{797A27FB-9286-43BA-A3D3-06E0B7DF57C7}"/>
-    <hyperlink ref="E82" r:id="rId39" display="https://placehold.co/400x600" xr:uid="{E22D4C78-609C-4F6C-902E-67DDEA2AEC08}"/>
-    <hyperlink ref="E84" r:id="rId40" xr:uid="{689543FA-D772-478F-B75B-353A8D5F5A0F}"/>
-    <hyperlink ref="E86" r:id="rId41" xr:uid="{6F1B4F40-1347-45F9-B0B9-89687F77E0B0}"/>
-    <hyperlink ref="E88" r:id="rId42" xr:uid="{269A95A2-A318-4245-8364-07E925D041A6}"/>
-    <hyperlink ref="E90" r:id="rId43" xr:uid="{BC5C79FD-42B9-4F63-B259-53ADA917C149}"/>
-    <hyperlink ref="E92" r:id="rId44" xr:uid="{F219C840-96AC-40EA-9D7B-C09CBA360D2A}"/>
-    <hyperlink ref="E94" r:id="rId45" xr:uid="{E85B62E0-66A6-4BDE-AB82-B3F3885FF25D}"/>
-    <hyperlink ref="E96" r:id="rId46" xr:uid="{F685C903-F46A-4AEA-A4B6-30F5F5C38E02}"/>
-    <hyperlink ref="E98" r:id="rId47" xr:uid="{34A32507-5178-4AE2-8923-C76F8834EAC3}"/>
-    <hyperlink ref="E100" r:id="rId48" xr:uid="{316F114E-DC59-4C12-AAE4-7C561A6A4A37}"/>
-    <hyperlink ref="E102" r:id="rId49" xr:uid="{E6C4E1E9-ADFC-463C-BA35-72BF5470C0FC}"/>
-    <hyperlink ref="E104" r:id="rId50" xr:uid="{5C2E1F62-17AE-4C61-86CF-CFAADD48E3DA}"/>
-    <hyperlink ref="E106" r:id="rId51" xr:uid="{EB2D28AA-5611-4D14-B6D8-65655568052B}"/>
-    <hyperlink ref="E108" r:id="rId52" xr:uid="{1A1FF6C3-6CA4-4205-87F4-FFA4C505FE05}"/>
-    <hyperlink ref="E110" r:id="rId53" xr:uid="{D5F8DE7D-9A2E-4EB2-AD3E-1B6347BBB03A}"/>
-    <hyperlink ref="E114" r:id="rId54" xr:uid="{F52A7ADE-923C-4FC0-835C-C78BE5475FD1}"/>
-    <hyperlink ref="E116" r:id="rId55" xr:uid="{88BB9B9A-193B-430A-8A94-9996D9F8B858}"/>
+    <hyperlink ref="E31" r:id="rId16" xr:uid="{445C6875-08FB-4A0D-945E-88ACC5B3E36F}"/>
+    <hyperlink ref="E33" r:id="rId17" xr:uid="{65D66EC6-EE19-4700-A25B-1483B78EB1EF}"/>
+    <hyperlink ref="E35" r:id="rId18" xr:uid="{2E844F72-E0A3-4D15-89E8-4C62C40B0097}"/>
+    <hyperlink ref="E37" r:id="rId19" xr:uid="{15AC029B-EF8F-4E8F-BB97-C5EC917FD18C}"/>
+    <hyperlink ref="E39" r:id="rId20" xr:uid="{5FE82AD6-8780-451F-B565-3C9E2036135F}"/>
+    <hyperlink ref="E41" r:id="rId21" xr:uid="{F7983BF9-576C-4FA2-B35A-DFA749ACF1B5}"/>
+    <hyperlink ref="E43" r:id="rId22" xr:uid="{DF66767C-72DE-4D71-B54F-89D37A2B3207}"/>
+    <hyperlink ref="E45" r:id="rId23" xr:uid="{E6907F0E-8A63-42E5-881D-83BE98378391}"/>
+    <hyperlink ref="E47" r:id="rId24" xr:uid="{BF819DDD-F33C-4323-B234-FA5AEFEBF540}"/>
+    <hyperlink ref="E49" r:id="rId25" xr:uid="{B4631102-EF86-443A-975E-E151B867331C}"/>
+    <hyperlink ref="E51" r:id="rId26" xr:uid="{D0C8995E-2389-436D-96F9-0ECFED635D2D}"/>
+    <hyperlink ref="E55" r:id="rId27" xr:uid="{D60F983F-3A4A-4B45-A5A9-1CBD13CCBAB1}"/>
+    <hyperlink ref="E57" r:id="rId28" xr:uid="{DDB2A0FD-936A-490E-BE1E-1762A651B20C}"/>
+    <hyperlink ref="E61" r:id="rId29" xr:uid="{5E732335-693B-490D-844A-64351A2B11C7}"/>
+    <hyperlink ref="E63" r:id="rId30" xr:uid="{B032BBB6-4D16-4E33-A3F0-D7039E10D767}"/>
+    <hyperlink ref="E65" r:id="rId31" xr:uid="{C71F9231-ACA2-46E1-BE2F-462475789CDA}"/>
+    <hyperlink ref="E67" r:id="rId32" xr:uid="{6DAF2527-3F52-4351-90EE-F788A7836287}"/>
+    <hyperlink ref="E69" r:id="rId33" xr:uid="{C213B07F-FB90-4578-BA40-CB5277C5E9F8}"/>
+    <hyperlink ref="E71" r:id="rId34" xr:uid="{B6B3C0BC-449F-4D5F-8991-2960BC1E1B95}"/>
+    <hyperlink ref="E73" r:id="rId35" xr:uid="{12F3E568-1027-43BC-89EA-C5D4D2C3F3B1}"/>
+    <hyperlink ref="E75" r:id="rId36" xr:uid="{9BCFDA15-C8D8-41F6-B5C1-8DB9E3F54F38}"/>
+    <hyperlink ref="E77" r:id="rId37" xr:uid="{5074351A-0735-4679-AE99-F1F491EAD66F}"/>
+    <hyperlink ref="E79" r:id="rId38" xr:uid="{797A27FB-9286-43BA-A3D3-06E0B7DF57C7}"/>
+    <hyperlink ref="E81" r:id="rId39" xr:uid="{E22D4C78-609C-4F6C-902E-67DDEA2AEC08}"/>
+    <hyperlink ref="E83" r:id="rId40" xr:uid="{689543FA-D772-478F-B75B-353A8D5F5A0F}"/>
+    <hyperlink ref="E85" r:id="rId41" xr:uid="{6F1B4F40-1347-45F9-B0B9-89687F77E0B0}"/>
+    <hyperlink ref="E87" r:id="rId42" xr:uid="{269A95A2-A318-4245-8364-07E925D041A6}"/>
+    <hyperlink ref="E89" r:id="rId43" xr:uid="{BC5C79FD-42B9-4F63-B259-53ADA917C149}"/>
+    <hyperlink ref="E91" r:id="rId44" xr:uid="{F219C840-96AC-40EA-9D7B-C09CBA360D2A}"/>
+    <hyperlink ref="E93" r:id="rId45" xr:uid="{E85B62E0-66A6-4BDE-AB82-B3F3885FF25D}"/>
+    <hyperlink ref="E95" r:id="rId46" xr:uid="{F685C903-F46A-4AEA-A4B6-30F5F5C38E02}"/>
+    <hyperlink ref="E97" r:id="rId47" xr:uid="{34A32507-5178-4AE2-8923-C76F8834EAC3}"/>
+    <hyperlink ref="E99" r:id="rId48" xr:uid="{316F114E-DC59-4C12-AAE4-7C561A6A4A37}"/>
+    <hyperlink ref="E101" r:id="rId49" xr:uid="{E6C4E1E9-ADFC-463C-BA35-72BF5470C0FC}"/>
+    <hyperlink ref="E103" r:id="rId50" xr:uid="{5C2E1F62-17AE-4C61-86CF-CFAADD48E3DA}"/>
+    <hyperlink ref="E105" r:id="rId51" xr:uid="{EB2D28AA-5611-4D14-B6D8-65655568052B}"/>
+    <hyperlink ref="E107" r:id="rId52" xr:uid="{1A1FF6C3-6CA4-4205-87F4-FFA4C505FE05}"/>
+    <hyperlink ref="E109" r:id="rId53" xr:uid="{D5F8DE7D-9A2E-4EB2-AD3E-1B6347BBB03A}"/>
+    <hyperlink ref="E113" r:id="rId54" xr:uid="{F52A7ADE-923C-4FC0-835C-C78BE5475FD1}"/>
+    <hyperlink ref="E115" r:id="rId55" xr:uid="{88BB9B9A-193B-430A-8A94-9996D9F8B858}"/>
     <hyperlink ref="E5" r:id="rId56" xr:uid="{673B2D9E-5CEE-40DD-A0A2-66025584E8C2}"/>
     <hyperlink ref="E7" r:id="rId57" xr:uid="{20202916-CECB-497F-BB8D-D7E09DCEC193}"/>
     <hyperlink ref="E9" r:id="rId58" xr:uid="{E7773CE7-BD5F-4624-B940-0E795B4A4E30}"/>
@@ -8952,397 +8871,393 @@
     <hyperlink ref="E25" r:id="rId65" xr:uid="{F6A0C9FE-D2B9-4181-8F81-93868F3E313C}"/>
     <hyperlink ref="E27" r:id="rId66" xr:uid="{848B184F-1DE9-469A-9D63-F5CDEBF10D7A}"/>
     <hyperlink ref="E29" r:id="rId67" xr:uid="{1AF17D20-76D5-4714-B7E2-2D8B8CB9ADC3}"/>
-    <hyperlink ref="E31" r:id="rId68" display="https://placehold.co/400x600" xr:uid="{22DD1D25-8288-4AC9-A5FC-D9B7B89B515C}"/>
-    <hyperlink ref="E33" r:id="rId69" xr:uid="{01F92761-8D63-4A2C-8713-25D41165DB40}"/>
-    <hyperlink ref="E35" r:id="rId70" xr:uid="{FFD57A2F-B179-4903-B296-F8069D1F1332}"/>
-    <hyperlink ref="E37" r:id="rId71" xr:uid="{291A37C6-A686-4CDE-9352-CAE725E23B11}"/>
-    <hyperlink ref="E39" r:id="rId72" xr:uid="{6ECECF25-2624-4D12-A089-9B4C4DBCF38B}"/>
-    <hyperlink ref="E41" r:id="rId73" xr:uid="{B8267D85-A691-4187-91DB-27E364616A8C}"/>
-    <hyperlink ref="E43" r:id="rId74" xr:uid="{AA69E1F0-E88A-495C-A844-C33C82F6CE26}"/>
-    <hyperlink ref="E45" r:id="rId75" xr:uid="{269F03E1-526C-4849-A6D5-8276665E4485}"/>
-    <hyperlink ref="E47" r:id="rId76" xr:uid="{D722AC52-912D-4A3F-8560-FAA4DCA60A56}"/>
-    <hyperlink ref="E49" r:id="rId77" xr:uid="{6ED9D463-8E32-4780-942A-C1EC9D07542B}"/>
-    <hyperlink ref="E51" r:id="rId78" xr:uid="{FAAE2569-D069-46B3-A7AA-6969338A4AFF}"/>
-    <hyperlink ref="E53" r:id="rId79" xr:uid="{919767C3-0A6A-4A63-9549-0F7B3A7EE7DF}"/>
-    <hyperlink ref="E55" r:id="rId80" xr:uid="{BD76B93C-ACC1-4CF1-A623-39E4FAFED853}"/>
-    <hyperlink ref="E57" r:id="rId81" xr:uid="{7964589D-7453-4997-AC7B-F98F5B5B7029}"/>
-    <hyperlink ref="E59" r:id="rId82" xr:uid="{F72D2D0A-AD07-45DC-AA3D-223C36C995AB}"/>
-    <hyperlink ref="E61" r:id="rId83" xr:uid="{D79CAE5D-C5B6-4B75-8261-008B5374EBDB}"/>
-    <hyperlink ref="E63" r:id="rId84" xr:uid="{75C81E45-FAA6-4175-A2FE-BA7C7F71F6F3}"/>
-    <hyperlink ref="E67" r:id="rId85" xr:uid="{F199289C-0CB7-41CD-95E9-D9C97B86A7E7}"/>
-    <hyperlink ref="E69" r:id="rId86" xr:uid="{E4715AC6-7D6D-4434-A585-79B8F25233F6}"/>
-    <hyperlink ref="E71" r:id="rId87" xr:uid="{CFD1BDC4-A848-4998-9430-C29DB079EED4}"/>
-    <hyperlink ref="E73" r:id="rId88" xr:uid="{DEC62E70-AB7A-4365-B90A-11A1D549F375}"/>
-    <hyperlink ref="E75" r:id="rId89" xr:uid="{A925F566-676A-47EA-9068-3A8AC9C78A71}"/>
-    <hyperlink ref="E77" r:id="rId90" xr:uid="{826BB4FF-EF4E-4C68-AE45-B4C9CEE10FB5}"/>
-    <hyperlink ref="E79" r:id="rId91" xr:uid="{D55B186E-0A96-4185-9D34-01F9C47E843E}"/>
-    <hyperlink ref="E81" r:id="rId92" xr:uid="{AC60663B-FB99-47D2-A9DA-11C43648559B}"/>
-    <hyperlink ref="E83" r:id="rId93" xr:uid="{F83899A5-222C-48AC-9ABC-BC254C3600A8}"/>
-    <hyperlink ref="E85" r:id="rId94" display="https://placehold.co/400x600" xr:uid="{2EE015AD-95D3-42D3-9727-0C2D20C22B2D}"/>
-    <hyperlink ref="E87" r:id="rId95" xr:uid="{1E9351A5-5685-4A61-91E2-9C72A14FBA45}"/>
-    <hyperlink ref="E89" r:id="rId96" xr:uid="{DA14C2E4-99E6-4273-B1C6-88E4314A2B53}"/>
-    <hyperlink ref="E91" r:id="rId97" display="https://placehold.co/400x600" xr:uid="{CED33FAF-E705-4A0E-B5BA-28AC459A08F9}"/>
-    <hyperlink ref="E93" r:id="rId98" xr:uid="{69683834-3F44-4B9E-879F-17C7B3985064}"/>
-    <hyperlink ref="E95" r:id="rId99" xr:uid="{6706B29D-6B9E-414D-A766-C429245D96A7}"/>
-    <hyperlink ref="E97" r:id="rId100" xr:uid="{B8549196-6B30-41D5-B870-CDF1F6C0AE2B}"/>
-    <hyperlink ref="E99" r:id="rId101" xr:uid="{70722206-091E-437D-B026-345C8CDB5176}"/>
-    <hyperlink ref="E101" r:id="rId102" xr:uid="{EF057E02-0A38-4475-84BA-2BC1ED64BA7D}"/>
-    <hyperlink ref="E103" r:id="rId103" xr:uid="{F307B800-2CAD-4E08-A635-F4AD9976A897}"/>
-    <hyperlink ref="E105" r:id="rId104" xr:uid="{42F0B609-7315-4192-A377-FDEDE5FDDF8B}"/>
-    <hyperlink ref="E107" r:id="rId105" xr:uid="{0BBF4990-1413-476C-AFE7-EC34A9F113B0}"/>
-    <hyperlink ref="E109" r:id="rId106" xr:uid="{43D0B648-1D21-45A3-A6E9-CB546100DAA2}"/>
-    <hyperlink ref="E111" r:id="rId107" xr:uid="{3BF79D70-269C-4AB5-B83F-712DABFF4480}"/>
-    <hyperlink ref="E113" r:id="rId108" xr:uid="{622A2536-A959-42B4-B4F9-EE23F2A44517}"/>
-    <hyperlink ref="E115" r:id="rId109" xr:uid="{7690046C-47D4-4A7B-8DBE-6704DCCAE9C8}"/>
-    <hyperlink ref="J72" r:id="rId110" display="https://www.linkedin.com/in/dr-nilay-patel-106bab14/" xr:uid="{B2E17E23-9358-429B-BBF9-5EE4C8E363CB}"/>
-    <hyperlink ref="J83" r:id="rId111" display="https://www.linkedin.com/in/poonam-thanki-b112a6a2/" xr:uid="{BB16F397-78CE-4DBD-8BE4-13D65525672B}"/>
-    <hyperlink ref="J57" r:id="rId112" display="https://www.linkedin.com/in/dr-manthan-s-manavadaria-2a222219/" xr:uid="{4954A101-EA09-4BF1-8202-A72F86653038}"/>
-    <hyperlink ref="J18" r:id="rId113" display="https://www.linkedin.com/in/bhavin-mehta-86b47795/" xr:uid="{DB7D7CE8-51EF-48EE-BFBF-A021321BDC5F}"/>
-    <hyperlink ref="J49" r:id="rId114" display="https://www.linkedin.com/in/dr-kanwar-preet-kaur-bamrah-64a3a221/" xr:uid="{53166117-8C5A-4AB4-89B7-C2E8B83BC5A5}"/>
-    <hyperlink ref="J92" r:id="rId115" display="https://www.linkedin.com/in/rikita-chokshi-44bb65263/" xr:uid="{184885D3-531C-43E9-853D-5C2EAF6E7696}"/>
-    <hyperlink ref="J106" r:id="rId116" xr:uid="{FBE16C58-F91B-4934-8550-681C7F68CFE1}"/>
-    <hyperlink ref="J68" r:id="rId117" display="https://www.linkedin.com/in/mrugendrasinh-rahevar/" xr:uid="{F0663F50-387A-4315-8A34-03206888175F}"/>
-    <hyperlink ref="J91" r:id="rId118" display="https://www.linkedin.com/in/ravi-patel-13686b19/" xr:uid="{FC6DE30F-2E95-4AA2-B879-8CEAD23CEEC4}"/>
-    <hyperlink ref="J95" r:id="rId119" display="https://www.linkedin.com/in/ronak-patel-63663613a/" xr:uid="{EB8CC283-1781-41D5-BE2D-3C04AED15B01}"/>
-    <hyperlink ref="J50" r:id="rId120" display="https://www.linkedin.com/in/dr-kawaljitsingh-randhawa-96816064/" xr:uid="{4AE0FF76-EF4F-45C3-A542-A7D876A7DA2C}"/>
-    <hyperlink ref="J19" r:id="rId121" display="http://linkedin.com/in/bimal-patel-b7504849" xr:uid="{B02CE38D-7D41-45E6-8D0A-5F0FCF595503}"/>
-    <hyperlink ref="J71" r:id="rId122" display="https://www.linkedin.com/in/nikita-bhatt-ce/?originalSubdomain=in" xr:uid="{9EC6AE06-F884-4149-B7FC-88140006B7F4}"/>
-    <hyperlink ref="J23" r:id="rId123" display="https://www.linkedin.com/in/deep-kothadiya-phd-70983a86/" xr:uid="{8691FEB4-6E3B-4049-9588-FC79EAF0F2EC}"/>
-    <hyperlink ref="J78" r:id="rId124" display="https://www.linkedin.com/in/parmanand-patel-1269016b/" xr:uid="{53EDE3BB-D85D-4DAD-A587-55DA1C805D27}"/>
-    <hyperlink ref="J52" r:id="rId125" display="https://www.linkedin.com/in/krunal-maheriya-aba5681a1/" xr:uid="{9D29078E-A414-4A64-86B1-F77733FF0F8A}"/>
-    <hyperlink ref="J86" r:id="rId126" xr:uid="{21E8E151-1B01-486F-A7D7-4BE4F0BC0B27}"/>
-    <hyperlink ref="J36" r:id="rId127" display="https://www.linkedin.com/in/dr-hardik-modi-181035b/" xr:uid="{F7F908AF-23C0-42F7-8AFE-DF52AF52580B}"/>
-    <hyperlink ref="J14" r:id="rId128" display="http://hlinkedin.com/in/dr-ashwin-makwana-9a6688112" xr:uid="{3D2F3A09-18C9-4E22-B6FA-494330FEF01E}"/>
-    <hyperlink ref="J80" r:id="rId129" xr:uid="{4DA1EB91-0A15-4D6C-9213-F6D1EE675204}"/>
-    <hyperlink ref="J17" r:id="rId130" xr:uid="{8E63BCC9-6C05-45B8-8789-EBB4905292F2}"/>
-    <hyperlink ref="J35" r:id="rId131" display="https://www.linkedin.com/in/gaurav-kumar1582/" xr:uid="{BF49CFFA-7535-44BB-8F9A-67BEFFD957B6}"/>
-    <hyperlink ref="J29" r:id="rId132" display="https://www.linkedin.com/in/dhaval-patel-481b0885/" xr:uid="{5704F17D-173C-4E5E-89CF-B8F7987D86F5}"/>
-    <hyperlink ref="J77" r:id="rId133" display="https://www.linkedin.com/me?trk=p_mwlite_profile_self-secondary_nav" xr:uid="{6148FF48-4942-4818-844D-79919D56DB98}"/>
-    <hyperlink ref="J67" r:id="rId134" display="https://www.linkedin.com/in/dr-miral-desai-245448a2/" xr:uid="{D2BE1269-3E17-415C-B581-A936373A624C}"/>
-    <hyperlink ref="J32" r:id="rId135" display="https://www.linkedin.com/in/gajanan-patange-05ba2219/overlay/about-this-profile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BEvV8mS8jTpy2mGfBhro1og%3D%3D" xr:uid="{CDEEC399-875E-4DDA-A567-6EFC42A0F87E}"/>
-    <hyperlink ref="J114" r:id="rId136" display="https://www.linkedin.com/in/vikas-panchal-873277251/" xr:uid="{A3606037-07FB-4104-B411-BA37A6E2F3CA}"/>
-    <hyperlink ref="J101" r:id="rId137" display="https://www.linkedin.com/in/sneha-padhiar-4aaa17146/" xr:uid="{8CF4272D-E96D-4E1C-80AD-5D3F2F554C53}"/>
-    <hyperlink ref="J38" r:id="rId138" display="https://www.linkedin.com/in/harshul-yagnik-81a6a022/" xr:uid="{683E4E91-B763-4226-99B6-F3E30837AD4B}"/>
-    <hyperlink ref="J21" r:id="rId139" display="https://www.linkedin.com/in/brinda-patel-652073252" xr:uid="{791133CF-E0A2-4B6D-8618-AC19B4D3A9FA}"/>
-    <hyperlink ref="J28" r:id="rId140" xr:uid="{F8104DB3-2B23-47B7-B622-17690E08D84A}"/>
-    <hyperlink ref="J97" r:id="rId141" xr:uid="{B357E631-0C5E-406B-9B45-A421DE003AD4}"/>
-    <hyperlink ref="J70" r:id="rId142" display="http://www.linkedin.com/in/neha-chauhan22" xr:uid="{E7A9417A-8B16-4D59-A23C-B258564D85D5}"/>
-    <hyperlink ref="J22" r:id="rId143" xr:uid="{895691E5-0B23-47DD-9A36-18923B4FD652}"/>
-    <hyperlink ref="J39" r:id="rId144" display="https://www.linkedin.com/public-profile/settings?trk=d_flagship3_profile_self_view_public_profile" xr:uid="{E4C32594-CCCB-41B2-AE51-AE67F83944BE}"/>
-    <hyperlink ref="J42" r:id="rId145" display="https://www.linkedin.com/in/jalpa-ardeshana-381496b7/" xr:uid="{67C7A4AD-28FD-4291-92FB-A9C4AA0671B4}"/>
-    <hyperlink ref="J102" r:id="rId146" display="https://www.linkedin.com/in/dr-spoorthy-v-10ab3813a/" xr:uid="{EDA5921D-C45B-4D8B-B9FA-3205F4F396D6}"/>
-    <hyperlink ref="J24" r:id="rId147" display="https://www.linkedin.com/in/dhara-patel-839488138" xr:uid="{27C9FC8C-0A44-49AE-8688-8690C8579833}"/>
-    <hyperlink ref="J26" r:id="rId148" display="https://www.linkedin.com/in/dharmendrasinh-chauhan-073a491a4/" xr:uid="{D50E69C7-4F51-4D1B-90EC-FE9F9A44906E}"/>
-    <hyperlink ref="J90" r:id="rId149" display="https://www.linkedin.com/in/rajnik-katriya/" xr:uid="{3AEC1C40-35D9-4AE3-A7E8-9E58FA2C8E43}"/>
-    <hyperlink ref="J98" r:id="rId150" xr:uid="{6137F2DC-1F93-4037-B861-A959BDB6DCE6}"/>
-    <hyperlink ref="J53" r:id="rId151" display="http://www.linkedin.com/in/kundan-patel-b9508b27b" xr:uid="{D4BB537A-7CA1-4F2B-9985-F5921034561E}"/>
-    <hyperlink ref="J81" r:id="rId152" xr:uid="{BFFCC995-B6DF-474C-93AA-BDF180E05422}"/>
-    <hyperlink ref="J111" r:id="rId153" display="https://www.linkedin.com/in/vidisha-pradhan-733a1b63/" xr:uid="{06E43119-E5BC-45C4-9126-F192D3006C5B}"/>
-    <hyperlink ref="J27" r:id="rId154" display="https://www.linkedin.com/in/dharmendrasinh-rathod-4482a2a4/" xr:uid="{3BDD0888-FF6F-403B-8A93-FD5176D0DA38}"/>
-    <hyperlink ref="J54" r:id="rId155" display="http://www.linkedin.com/in/madhav-oza-60bb5650" xr:uid="{24641904-0D92-4561-9EC0-14DC5197E375}"/>
-    <hyperlink ref="J41" r:id="rId156" xr:uid="{10BD029B-F728-4FEF-934E-F502C3B3ECDD}"/>
-    <hyperlink ref="J112" r:id="rId157" display="https://www.linkedin.com/in/dr-vijay-chaudhary-12769b311/" xr:uid="{B15A7FAF-9082-4A84-BAA5-265E44F10859}"/>
-    <hyperlink ref="J62" r:id="rId158" display="http://inkedin.com/in/mjdesai/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=in" xr:uid="{58387078-A78B-4059-8DB7-2DA181BAC97F}"/>
-    <hyperlink ref="J48" r:id="rId159" xr:uid="{F61EBA1D-096B-4367-83C7-464D0E0332DE}"/>
-    <hyperlink ref="J51" r:id="rId160" xr:uid="{A7C5CA17-C1E0-4B34-9F67-339F0FC32426}"/>
-    <hyperlink ref="J65" r:id="rId161" display="https://www.linkedin.com/in/mihirmehta-educational-project-and-placements/" xr:uid="{1EF2631D-C319-4F6C-9AF3-9E886A6E863A}"/>
-    <hyperlink ref="J34" r:id="rId162" display="https://www.linkedin.com/in/gaurang-patel-a99266119/" xr:uid="{4A4B2655-5B11-4CEB-8516-A9D046224C31}"/>
-    <hyperlink ref="J75" r:id="rId163" display="http://www.linkedin.com/in/nishant-koshti-52b68b8b" xr:uid="{2E5CF16C-0D7F-4454-B4F7-592A3EC43855}"/>
-    <hyperlink ref="J20" r:id="rId164" display="https://www.linkedin.com/in/brijesh-kundaliya-552b7722/" xr:uid="{FC5C15E0-2AD1-4E2F-8F1E-F2F96829A7A6}"/>
-    <hyperlink ref="J43" r:id="rId165" display="https://www.linkedin.com/in/jalpesh-vasa/" xr:uid="{6768F239-6E23-4A84-8C3E-45670A76F700}"/>
-    <hyperlink ref="J109" r:id="rId166" display="https://www.linkedin.com/in/vaishali-mewada-7a619053/" xr:uid="{DEFB6E16-7F29-44C5-ACAD-D6B1E16E6C24}"/>
-    <hyperlink ref="J46" r:id="rId167" xr:uid="{CCF872D9-BD3F-4521-9093-8C3148DBAC43}"/>
-    <hyperlink ref="J113" r:id="rId168" display="http://www.linkedin.com/in/vijaykumar-panchal-631852280" xr:uid="{2810BDF3-4A14-413D-B157-AF8059E92C49}"/>
-    <hyperlink ref="J64" r:id="rId169" display="https://www.linkedin.com/in/dr-mihir-bhatt-806a85aa/" xr:uid="{AA93D706-7CF6-45C4-B768-B797EB6775B7}"/>
-    <hyperlink ref="J96" r:id="rId170" display="https://www.linkedin.com/in/dr-sagar-chokshi-8646601a/" xr:uid="{35109E28-E96A-4139-B689-0AB43FF55E92}"/>
-    <hyperlink ref="J84" r:id="rId171" display="http://www.linkedin.com/in/pratik-panchal-a35b325a" xr:uid="{6FB924B7-EDB2-44F0-B0D7-E78551105315}"/>
-    <hyperlink ref="J40" r:id="rId172" display="https://www.linkedin.com/in/hemangi-oza-60a189190/" xr:uid="{AC43F6B8-459E-4FF0-82E4-75F8CDE25269}"/>
-    <hyperlink ref="J110" r:id="rId173" display="http://linkedin.com/in/vibha-parmar-81b3045b" xr:uid="{9792CDE9-6059-48ED-AD46-8BECFEF07152}"/>
-    <hyperlink ref="J59" r:id="rId174" display="http://www.linkedin.com/in/maulik-shah-30b483119" xr:uid="{E23FB3E1-55AD-4659-9463-2B3E19FC5E7D}"/>
-    <hyperlink ref="J99" r:id="rId175" display="http://www.linkedin.com/in/saritavisavalia" xr:uid="{3504F31F-4BD3-4D8B-B727-C2FF9DDFF1EA}"/>
-    <hyperlink ref="J13" r:id="rId176" xr:uid="{ACF63811-234F-442B-91D8-C6863212F92A}"/>
-    <hyperlink ref="J45" r:id="rId177" display="https://www.linkedin.com/in/dr-jigar-sarda-00384414/" xr:uid="{0EFC12BA-8B5C-4E86-968D-797B0D43FD98}"/>
-    <hyperlink ref="J105" r:id="rId178" display="https://www.linkedin.com/in/trusha-patel-gajjar" xr:uid="{98AA2D43-F8B2-4B29-93BA-7A9CCA8109B2}"/>
-    <hyperlink ref="J103" r:id="rId179" display="https://www.linkedin.com/in/srushti-gajjar-92b829142?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{544D82DB-5386-42AC-B979-94C259CA9E97}"/>
-    <hyperlink ref="J94" r:id="rId180" xr:uid="{F1631FCD-D701-415F-89D8-AB6A7D513AC5}"/>
-    <hyperlink ref="J15" r:id="rId181" display="https://www.linkedin.com/in/asifiqbal-thakor-56949b237/" xr:uid="{3A40B3CD-F1BE-4530-B451-07DF410D1272}"/>
-    <hyperlink ref="J56" r:id="rId182" xr:uid="{99110411-88B4-4B0C-9258-D7E7320C877C}"/>
-    <hyperlink ref="J47" r:id="rId183" display="https://www.linkedin.com/in/jivanadhar-joshi-a76a12ab/" xr:uid="{ED0C7354-C517-49E0-BDF5-C6BF1EC0A53C}"/>
-    <hyperlink ref="J104" r:id="rId184" display="https://in.linkedin.com/in/dr-tigmanshu-patel-b3252639" xr:uid="{8223C32D-E35E-4436-B593-C54F5FEED7DB}"/>
-    <hyperlink ref="J44" r:id="rId185" display="http://linkedin.com/in/jay-bhavsar-a4a9646a" xr:uid="{A3106519-72EE-423E-976E-09F1FD98B248}"/>
-    <hyperlink ref="J89" r:id="rId186" display="http://www.linkedin.com/in/purvi-prajapati-37ba6651" xr:uid="{7A2661BA-3D20-4DF8-8332-CC5726684DD1}"/>
-    <hyperlink ref="J74" r:id="rId187" display="https://www.linkedin.com/in/nirpex-patel-508956119/" xr:uid="{8BF234A3-EF12-4093-8EAF-09B2432506EF}"/>
-    <hyperlink ref="J87" r:id="rId188" display="https://www.linkedin.com/in/priyanka-patel-ph-d-00403393/" xr:uid="{8D6AEC45-7FD5-4128-9D12-F2A6CBB1E864}"/>
-    <hyperlink ref="J63" r:id="rId189" display="https://www.linkedin.com/in/mehulkumar-katakiya-029357b8/" xr:uid="{D058A74D-8E61-413C-9B75-7FF7917660C9}"/>
-    <hyperlink ref="J37" r:id="rId190" display="https://www.linkedin.com/in/harmish-bhatt-88581510a/" xr:uid="{7CC36C27-9781-439B-A945-9C1160C69911}"/>
-    <hyperlink ref="J66" r:id="rId191" display="https://www.linkedin.com/in/mikin-patel-24191386/" xr:uid="{3AEB0F01-575C-4799-B7A0-11A1F0947768}"/>
-    <hyperlink ref="J107" r:id="rId192" display="https://www.linkedin.com/in/dr-upesh-patel-875878138/" xr:uid="{5D7DA379-79C5-410F-9398-20936275BC46}"/>
-    <hyperlink ref="J58" r:id="rId193" xr:uid="{509B130C-6A0C-4944-BFE2-75F1FDF097C4}"/>
-    <hyperlink ref="J69" r:id="rId194" display="https://www.linkedin.com/in/muskan-dave-023197162/" xr:uid="{C8C7BB25-838D-4DFF-B4BD-F8943C06375E}"/>
-    <hyperlink ref="J73" r:id="rId195" display="https://www.linkedin.com/in/dr-nirav-bhatt/" xr:uid="{3F4736BB-5DB7-48E0-ABC4-5DBB591E1122}"/>
-    <hyperlink ref="J11" r:id="rId196" xr:uid="{714022ED-2EC9-40BB-978A-F936135E18E1}"/>
-    <hyperlink ref="J93" r:id="rId197" display="https://www.linkedin.com/in/ritesh-patel-462b0b11" xr:uid="{F4558EEF-FFB0-474A-8E3E-CEBF9566FCDB}"/>
-    <hyperlink ref="J116" r:id="rId198" display="http://www.linkedin.com/in/viral-panara-773877201" xr:uid="{4FB52C9B-4BDB-4971-A78B-1CD2EE789E52}"/>
-    <hyperlink ref="J79" r:id="rId199" display="https://www.linkedin.com/in/shah-parth-d/" xr:uid="{A61E294E-BDA5-4C2E-BA18-BA2B9C98C973}"/>
-    <hyperlink ref="J33" r:id="rId200" display="https://www.linkedin.com/in/gargi-ray-983a8522/" xr:uid="{0C76E47F-7D1B-4E1C-A88F-86156C9D1D6E}"/>
-    <hyperlink ref="J100" r:id="rId201" display="http://www.linkedin.com/in/satayu-travadi-9aab0919" xr:uid="{A79F3F36-387F-427F-848C-3BB8A221E707}"/>
-    <hyperlink ref="J88" r:id="rId202" xr:uid="{A7A467B8-5468-4830-9ADC-34F28E8899B5}"/>
-    <hyperlink ref="J30" r:id="rId203" display="https://www.linkedin.com/in/dheeraj-kumar-shringi-030586107?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{D1B60D12-635A-4E71-93D8-B47244D1EF44}"/>
-    <hyperlink ref="J85" r:id="rId204" display="https://in.linkedin.com/in/pratik-mochi-09764b102?original_referer=https%3A%2F%2Fwww.google.com%2F" xr:uid="{CD8066BB-0BA9-4FA9-88DB-0C291F6209A7}"/>
-    <hyperlink ref="J108" r:id="rId205" display="https://www.linkedin.com/in/vaibhavi-patel-67b035224/" xr:uid="{51D509E7-546B-4519-845F-AF5DC77392B9}"/>
-    <hyperlink ref="J60" r:id="rId206" display="http://www.linkedin.com/in/mayuri-popat-213852b1" xr:uid="{336D4B2F-0BBF-4ADA-8647-F20659482547}"/>
-    <hyperlink ref="J55" r:id="rId207" display="http://www.linkedin.com/in/madhavajwalia" xr:uid="{8DE9B663-AD20-42DB-A7F0-4FD167AD95E8}"/>
-    <hyperlink ref="J115" r:id="rId208" display="https://www.linkedin.com/in/vipul-vyas-19214bab/" xr:uid="{00F74D28-7144-4D8C-9870-393AE49126D5}"/>
-    <hyperlink ref="J31" r:id="rId209" display="http://www.linkedin.com/in/dipalkumar-patel-4b97997" xr:uid="{CFB485EB-93AC-436E-BD76-13F13D42FA00}"/>
-    <hyperlink ref="J76" r:id="rId210" display="https://www.linkedin.com/in/nishat-shaikh-b7446019a/" xr:uid="{45535606-CAE7-44BB-B1C5-622D742D5E66}"/>
-    <hyperlink ref="J16" r:id="rId211" display="https://www.linkedin.com/in/avani-khokhariya/" xr:uid="{F2664F6A-73CC-4DAD-982B-E296BD77DF0A}"/>
-    <hyperlink ref="J82" r:id="rId212" xr:uid="{2C60818F-B78B-4EC2-9BA4-C7D88C933280}"/>
-    <hyperlink ref="J25" r:id="rId213" display="https://www.linkedin.com/in/dhara-s-032a6a24/" xr:uid="{4FE7FF63-A73E-4E09-94C4-E2CD5FE6F81D}"/>
-    <hyperlink ref="K72" r:id="rId214" xr:uid="{E7CCB95C-4D9A-474B-9296-0EE719EC4AB3}"/>
-    <hyperlink ref="K92" r:id="rId215" xr:uid="{92D21BA9-793A-4610-9A6A-641322C6CC28}"/>
-    <hyperlink ref="K106" r:id="rId216" xr:uid="{2E05A515-7245-4DDB-9E9C-D041E881E2BF}"/>
-    <hyperlink ref="K86" r:id="rId217" xr:uid="{8C1C3B99-0196-4695-95EB-EEFEEA76042B}"/>
-    <hyperlink ref="K67" r:id="rId218" xr:uid="{4C2AA447-E23D-4BD3-8516-CF8A69E7C676}"/>
-    <hyperlink ref="K90" r:id="rId219" xr:uid="{68D88C01-9035-44B0-9EAE-4AE7236572CC}"/>
-    <hyperlink ref="K98" r:id="rId220" xr:uid="{B89BB500-5F1B-4985-B0B7-D69D9B22538C}"/>
-    <hyperlink ref="K27" r:id="rId221" xr:uid="{461288D1-54CE-41D7-ACBC-4EB753D35618}"/>
-    <hyperlink ref="K64" r:id="rId222" display="https://sites.google.com/a/charusat.ac.in/mihir-bhatt-ee/home/about-me?pli=1" xr:uid="{DD66FE1D-24F8-42A6-8DDC-651F08933CB6}"/>
-    <hyperlink ref="K45" r:id="rId223" xr:uid="{185428FC-1CEB-406E-A327-B537B63CC062}"/>
-    <hyperlink ref="K105" r:id="rId224" xr:uid="{6E3402FB-A293-4394-A12F-C9CE90A43581}"/>
-    <hyperlink ref="K94" r:id="rId225" display="https://sites.google.com/view/ronak-patel/" xr:uid="{30BB4B45-BE3C-4B51-8751-F1166793B9D8}"/>
-    <hyperlink ref="K87" r:id="rId226" display="https://sites.google.com/a/charusat.ac.in/priyanka-patel/about-me" xr:uid="{2F80CF65-0198-4866-9245-0932E2D2E991}"/>
-    <hyperlink ref="K11" r:id="rId227" xr:uid="{B7911887-1D4E-4149-9255-34290DE15C67}"/>
-    <hyperlink ref="K93" r:id="rId228" xr:uid="{CC19190B-EF5A-4030-970E-47B4649A66EC}"/>
-    <hyperlink ref="K79" r:id="rId229" display="http://learnwithparth.in/" xr:uid="{0D098BA1-951E-49B0-BA34-5489DFACFB69}"/>
-    <hyperlink ref="K60" r:id="rId230" display="https://sites.google.com/charusat.ac.in/mayuri-popat/home/academic-experience?authuser=0" xr:uid="{CD111632-8632-4F99-808E-7B0BA423BCF0}"/>
-    <hyperlink ref="K25" r:id="rId231" display="http://https/www.simpldhara.github.io" xr:uid="{1B0FEF49-7DD4-45B9-B1E6-577EDB068225}"/>
-    <hyperlink ref="K4" r:id="rId232" xr:uid="{A55ED677-5A40-43B5-A2E0-3934032012FA}"/>
-    <hyperlink ref="I12" r:id="rId233" xr:uid="{559F5BE6-A98D-4918-9ADE-3B5DB2AC1B24}"/>
-    <hyperlink ref="I13" r:id="rId234" xr:uid="{B5B2A2F7-DD9E-4163-AECE-07D5742E906D}"/>
-    <hyperlink ref="I49" r:id="rId235" xr:uid="{2DF8A589-77D3-487D-9871-F11C086009D1}"/>
-    <hyperlink ref="I82" r:id="rId236" xr:uid="{4F6BB86B-ECFA-4396-9D2B-715AF4C8A22C}"/>
-    <hyperlink ref="I50" r:id="rId237" xr:uid="{C80EDEE3-BA73-444F-89E4-2007846DC254}"/>
-    <hyperlink ref="I90" r:id="rId238" xr:uid="{E27523F8-498C-4ABD-8999-7C5FE36E5CA5}"/>
-    <hyperlink ref="L72" r:id="rId239" xr:uid="{948CADBD-38FA-4A43-B789-35C5FE176C3F}"/>
-    <hyperlink ref="L3" r:id="rId240" xr:uid="{F46A9101-D683-4CCF-9110-8584476B2BA9}"/>
-    <hyperlink ref="L83" r:id="rId241" xr:uid="{6E19F5D8-BA05-4C24-BFED-0131679AE1A3}"/>
-    <hyperlink ref="L57" r:id="rId242" xr:uid="{15D92DD2-9C84-4024-BCB0-89C6EAD615FB}"/>
-    <hyperlink ref="L18" r:id="rId243" xr:uid="{E24865B7-0C5D-46C6-8B52-CB38271DBD7E}"/>
-    <hyperlink ref="L49" r:id="rId244" xr:uid="{4D2C143E-EFF2-43ED-8C1B-94D7326ABF76}"/>
-    <hyperlink ref="L92" r:id="rId245" xr:uid="{22687922-AA0C-441B-A3FA-FB8732C6A78E}"/>
-    <hyperlink ref="L106" r:id="rId246" display="https://scholar.google.com/citations?user=Gzsxo-oAAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{FF9B096B-7991-46C3-B06A-152491BA6C90}"/>
-    <hyperlink ref="L68" r:id="rId247" xr:uid="{690AB285-269F-47C4-BA46-90F767A79CC1}"/>
-    <hyperlink ref="L91" r:id="rId248" xr:uid="{9AF26C9F-30B4-4DAE-A809-C138362FFD00}"/>
-    <hyperlink ref="L95" r:id="rId249" xr:uid="{8D4A0E6E-AA77-4CD4-AA54-DEC95D5CF09E}"/>
-    <hyperlink ref="L50" r:id="rId250" xr:uid="{A64FDC24-6D97-4969-AC20-BF200CE32B3A}"/>
-    <hyperlink ref="L19" r:id="rId251" xr:uid="{2DF7625D-5BDC-4383-BFF5-27331B9E27C1}"/>
-    <hyperlink ref="L71" r:id="rId252" display="https://scholar.google.co.in/citations?user=9PPA-6oAAAAJ&amp;hl=en" xr:uid="{38968AA0-46FD-46B0-84CD-C755BCC30A99}"/>
-    <hyperlink ref="L23" r:id="rId253" xr:uid="{4FF8802A-1D76-4C6B-91B4-17C781B102D6}"/>
-    <hyperlink ref="L52" r:id="rId254" xr:uid="{8365015A-789A-4D2C-9684-352B6CC70A5E}"/>
-    <hyperlink ref="L86" r:id="rId255" xr:uid="{BD03203D-E2A2-453C-8DB9-B1F0B5A13124}"/>
-    <hyperlink ref="L36" r:id="rId256" display="https://scholar.google.com/citations?user=ay8-QY0AAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{CEA8B045-C60C-4ADA-9F10-8B980373388F}"/>
-    <hyperlink ref="L14" r:id="rId257" display="https://scholar.google.com/citations?user=TCsNw-YAAAAJ&amp;hl=en" xr:uid="{D0B58B70-976E-4FD0-A498-4FE5480744DA}"/>
-    <hyperlink ref="L17" r:id="rId258" xr:uid="{19EAA634-8BE7-4A2F-8B30-8A424E254965}"/>
-    <hyperlink ref="L29" r:id="rId259" xr:uid="{3D65CD0F-C15B-4E98-9324-C36FAB47EBC4}"/>
-    <hyperlink ref="L67" r:id="rId260" xr:uid="{264FF3AA-8D89-41E4-9DA6-521BD58711A9}"/>
-    <hyperlink ref="L32" r:id="rId261" display="https://www.bing.com/ck/a?!&amp;&amp;p=6a7ac5a017a1300aJmltdHM9MTcyOTQ2ODgwMCZpZ3VpZD0wMDExMmIyNS1kMzQ5LTY3MTItMmE4My0zZTA1ZDI1NjY2MWEmaW5zaWQ9NTE5NQ&amp;ptn=3&amp;ver=2&amp;hsh=3&amp;fclid=00112b25-d349-6712-2a83-3e05d256661a&amp;psq=google+scholer+gajanan+patange&amp;u=a1aHR0cHM6Ly9zY2hvbGFyLmdvb2dsZS5wbC9jaXRhdGlvbnM_dXNlcj1fRDRISUhjQUFBQUomaGw9ZW4&amp;ntb=1" xr:uid="{275A790E-9657-41D9-B9F2-78D3822C4310}"/>
-    <hyperlink ref="L9" r:id="rId262" xr:uid="{758E6349-E050-42DF-B5C3-FBA97B821030}"/>
-    <hyperlink ref="L114" r:id="rId263" xr:uid="{9ACD46AD-FE8F-41CE-9823-5DC65F691D5B}"/>
-    <hyperlink ref="L4" r:id="rId264" xr:uid="{9B291D90-C0E1-493C-9E5E-17CAF2B7D2F2}"/>
-    <hyperlink ref="L12" r:id="rId265" xr:uid="{8C6729CD-380A-483D-A997-7DBCBA390939}"/>
-    <hyperlink ref="L101" r:id="rId266" xr:uid="{C07AED6D-34B0-40AA-B65E-C9BFB9F1574D}"/>
-    <hyperlink ref="L38" r:id="rId267" display="https://scholar.google.com/citations?user=6d-aVTEAAAAJ&amp;hl=en" xr:uid="{EBC010F8-7D12-4DC1-9FDA-49EFC51EFF71}"/>
-    <hyperlink ref="L21" r:id="rId268" xr:uid="{0DDB7A07-865A-4AD7-986A-DE5D031FFBD0}"/>
-    <hyperlink ref="L28" r:id="rId269" xr:uid="{E6ABE8A4-4EFC-489A-B104-3BCC2E998A7B}"/>
-    <hyperlink ref="L97" r:id="rId270" xr:uid="{ABDCFD31-BA21-4022-B6C1-EDDD441956ED}"/>
-    <hyperlink ref="L6" r:id="rId271" xr:uid="{591DF322-16B2-4785-A83C-3147BF3D09D2}"/>
-    <hyperlink ref="L70" r:id="rId272" xr:uid="{BB403419-C3FE-440B-B0A2-AF35C3C2E8E3}"/>
-    <hyperlink ref="L22" r:id="rId273" xr:uid="{A227399F-9975-4976-9597-2D3E6151DCB8}"/>
-    <hyperlink ref="L39" r:id="rId274" xr:uid="{535A1FEE-65AB-4486-BF0D-ADD9A3382AFB}"/>
-    <hyperlink ref="L42" r:id="rId275" display="https://scholar.google.com/citations?hl=en&amp;user=geQ-r_QAAAAJ" xr:uid="{36509863-135E-43CA-B732-4C0DEFDDC2FC}"/>
-    <hyperlink ref="L102" r:id="rId276" xr:uid="{7F8D3F89-D92D-4081-B489-E387250A10BD}"/>
-    <hyperlink ref="L24" r:id="rId277" xr:uid="{B4A03D8A-649C-469B-B24A-E9F9B481D48B}"/>
-    <hyperlink ref="L26" r:id="rId278" xr:uid="{D3034C74-7237-42E2-A6B8-CD4BA8BBBF41}"/>
-    <hyperlink ref="L90" r:id="rId279" xr:uid="{53AE3D77-EDB3-413A-8D8F-16969CBE8103}"/>
-    <hyperlink ref="L98" r:id="rId280" xr:uid="{76D99C50-072C-40D7-BDEB-328FCCB109D9}"/>
-    <hyperlink ref="L53" r:id="rId281" xr:uid="{CD634DA2-F1A0-45FA-A86C-61D935383D2E}"/>
-    <hyperlink ref="L81" r:id="rId282" xr:uid="{F6874B5E-545B-4745-A546-56B6FD5105E9}"/>
-    <hyperlink ref="L111" r:id="rId283" xr:uid="{C22F05F4-D13D-45A5-A5B0-3237064F3209}"/>
-    <hyperlink ref="L27" r:id="rId284" xr:uid="{32CD251C-92CC-42C2-865F-89BE3026727C}"/>
-    <hyperlink ref="L54" r:id="rId285" xr:uid="{287D782E-D3CC-498E-B117-EBE696C4D447}"/>
-    <hyperlink ref="L41" r:id="rId286" xr:uid="{B241D450-267C-40BF-9C45-8957239BDD86}"/>
-    <hyperlink ref="L62" r:id="rId287" xr:uid="{AA7AD692-35BE-48A4-AF46-1B6413916E3B}"/>
-    <hyperlink ref="L48" r:id="rId288" display="https://scholar.google.co.in/citations?user=EdcH-Y0AAAAJ&amp;hl=en" xr:uid="{CE335172-93AC-45C2-9068-7C9C19F220C4}"/>
-    <hyperlink ref="L10" r:id="rId289" xr:uid="{A33E4A1F-E63E-4F7D-9DC5-3C5AB6E82811}"/>
-    <hyperlink ref="L51" r:id="rId290" xr:uid="{027764B5-CA65-453C-BFB6-EE555AA7BF1B}"/>
-    <hyperlink ref="L61" r:id="rId291" xr:uid="{E2F70942-EACF-4A90-B18A-A80CB466AAE7}"/>
-    <hyperlink ref="L65" r:id="rId292" xr:uid="{5645BFE0-C2D6-4EED-AFCB-0EF806CC91E9}"/>
-    <hyperlink ref="L34" r:id="rId293" xr:uid="{EE598F68-E624-44F6-B4DD-8299C007487F}"/>
-    <hyperlink ref="L75" r:id="rId294" display="https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=-9-RhBoAAAAJ" xr:uid="{E935D410-8781-42B6-B609-E835354DEBBB}"/>
-    <hyperlink ref="L5" r:id="rId295" display="https://scholar.google.co.in/citations?user=cVv-kdYAAAAJ&amp;hl=en" xr:uid="{746C1EFC-2FA9-49B1-AFB8-1C7FCA47096B}"/>
-    <hyperlink ref="L20" r:id="rId296" display="https://scholar.google.com/citations?user=dHkQ5D4AAAAJ&amp;hl=en" xr:uid="{25860FE4-2E75-42A8-BFFE-3AA02DEED40F}"/>
-    <hyperlink ref="L43" r:id="rId297" xr:uid="{5A9FF0C8-1A53-40E2-BF07-8AE47CB6B984}"/>
-    <hyperlink ref="L109" r:id="rId298" xr:uid="{5C89C29F-A386-4BBA-9788-4CB223E1744F}"/>
-    <hyperlink ref="L46" r:id="rId299" xr:uid="{63EFEA34-4397-48CB-B385-33D61D726E20}"/>
-    <hyperlink ref="L64" r:id="rId300" xr:uid="{0A4BFD56-8B2D-444E-8903-49F5DC5883A4}"/>
-    <hyperlink ref="L96" r:id="rId301" display="https://scholar.google.com/citations?hl=en&amp;user=utk-ZT0AAAAJ" xr:uid="{501E8FB4-1DC4-4EBD-A3BE-50F19352C1F0}"/>
-    <hyperlink ref="L84" r:id="rId302" xr:uid="{37E9CEEB-DC2C-46A2-BCF4-5A9521147A39}"/>
-    <hyperlink ref="L40" r:id="rId303" xr:uid="{EEF5DC34-1243-4468-B6B1-D9059ADE8AB0}"/>
-    <hyperlink ref="L110" r:id="rId304" display="https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;hl=en&amp;user=HDdsZFsAAAAJ&amp;scilu=&amp;scisig=AJY4_hMAAAAAZxidz75RZUbVraeNHOVGYgbAfP0&amp;gmla=ALUCkoUwv9xfR7EENoQtBn_aiKaqTyzZ1X2kORl9--L4aBw5WcKwjoDCVXVaogYeCbraaig0PTa5IzrpT_DyD12Vlt-ODcDk1Nt3fM0&amp;sciund=7577126703303180020" xr:uid="{197DCE6B-BB53-49E3-9D84-78838F524694}"/>
-    <hyperlink ref="L59" r:id="rId305" xr:uid="{B559F61A-BA8D-4A15-AF94-270FD8E6EE0D}"/>
-    <hyperlink ref="L99" r:id="rId306" xr:uid="{BDF263A7-4F8B-46B8-BBE8-705BBF9DE738}"/>
-    <hyperlink ref="L13" r:id="rId307" xr:uid="{7649604F-C033-4670-9F95-0C2C5AC47C84}"/>
-    <hyperlink ref="L45" r:id="rId308" xr:uid="{035221F3-6BA9-41F1-A09D-0FD648704591}"/>
-    <hyperlink ref="L105" r:id="rId309" xr:uid="{1CDECF45-D107-4A0E-A561-5D783437E97C}"/>
-    <hyperlink ref="L103" r:id="rId310" xr:uid="{B653EAA6-C485-435F-854D-438BD267A19D}"/>
-    <hyperlink ref="L94" r:id="rId311" xr:uid="{BAF6ABB2-16F7-4B7A-8AC8-F52F94951E56}"/>
-    <hyperlink ref="L15" r:id="rId312" xr:uid="{F38927F1-EEEB-453A-8636-E6644582D973}"/>
-    <hyperlink ref="L56" r:id="rId313" xr:uid="{9E4C99F0-F427-4B73-88C1-9DDF17D8ABDE}"/>
-    <hyperlink ref="L47" r:id="rId314" xr:uid="{4048416A-0F5D-4582-8A3D-08AFC13874F9}"/>
-    <hyperlink ref="L104" r:id="rId315" xr:uid="{8400FD3C-B4D9-436A-8179-88B2F74CE3F2}"/>
-    <hyperlink ref="L44" r:id="rId316" xr:uid="{201F5259-DE23-43B6-A300-CE6428FFA5ED}"/>
-    <hyperlink ref="L89" r:id="rId317" xr:uid="{31420B66-56AB-4794-90CA-5F5AFEE32FDC}"/>
-    <hyperlink ref="L87" r:id="rId318" xr:uid="{C4F50DBC-0BFE-4509-9E86-8433559B0E5F}"/>
-    <hyperlink ref="L63" r:id="rId319" xr:uid="{90FCCA59-114D-4A5C-9409-D7A92B5C554D}"/>
-    <hyperlink ref="L37" r:id="rId320" xr:uid="{86700D43-54F6-409C-AA74-11A10CF95742}"/>
-    <hyperlink ref="L66" r:id="rId321" xr:uid="{C018FF9B-EED7-4A65-95FA-780ACBBA2D7E}"/>
-    <hyperlink ref="L107" r:id="rId322" xr:uid="{60A89811-803F-44C1-9C4C-03400FFC3370}"/>
-    <hyperlink ref="L58" r:id="rId323" display="https://scholar.google.com/citations?user=D-wd8QgAAAAJ&amp;hl=en" xr:uid="{FEE2843B-8463-42EA-93D3-8C0055A27E1B}"/>
-    <hyperlink ref="L73" r:id="rId324" xr:uid="{D89F1643-F631-4232-BD92-A17AB43537BB}"/>
-    <hyperlink ref="L2" r:id="rId325" xr:uid="{FA588FCD-5B5F-455C-A8F1-363E48BF4B34}"/>
-    <hyperlink ref="L11" r:id="rId326" xr:uid="{75F0D2F4-DBF8-4BC0-81C8-E510EB404F91}"/>
-    <hyperlink ref="L93" r:id="rId327" xr:uid="{4B1641D3-9830-41C6-9804-FD4F1CAA246E}"/>
-    <hyperlink ref="L116" r:id="rId328" xr:uid="{187B270B-DD03-4B4E-A0EC-FA089BBBF941}"/>
-    <hyperlink ref="L79" r:id="rId329" xr:uid="{09000797-9862-4D17-81A3-8BF615CB0D28}"/>
-    <hyperlink ref="L33" r:id="rId330" xr:uid="{30E40F4D-0941-4C35-B988-415178726C05}"/>
-    <hyperlink ref="L100" r:id="rId331" xr:uid="{2A5203BE-43E1-47B8-B2C4-1CC37588A5AB}"/>
-    <hyperlink ref="L88" r:id="rId332" xr:uid="{570C26B0-6EF3-40AB-BBA0-06474B8C9E9F}"/>
-    <hyperlink ref="L30" r:id="rId333" xr:uid="{8315B941-53AD-4CC4-8A93-715BF028D5D6}"/>
-    <hyperlink ref="L85" r:id="rId334" xr:uid="{A11BA51D-FBB4-444E-9239-AD5CA8BDA6AA}"/>
-    <hyperlink ref="L108" r:id="rId335" xr:uid="{BD6653EC-2D4F-4519-B739-A572013209E8}"/>
-    <hyperlink ref="L60" r:id="rId336" xr:uid="{FCDEB08A-0CA4-4598-B598-28FC8001225C}"/>
-    <hyperlink ref="L55" r:id="rId337" xr:uid="{21317881-56A9-411E-B0E0-953DFEB53FB5}"/>
-    <hyperlink ref="L115" r:id="rId338" xr:uid="{2C2ECFF6-DA6C-4C65-B48D-83C8B953A10F}"/>
-    <hyperlink ref="L7" r:id="rId339" xr:uid="{AC52BE48-B1BC-4E71-B6C1-88AF068D6F7B}"/>
-    <hyperlink ref="L31" r:id="rId340" xr:uid="{7701D08D-592D-4F08-8A1D-722D9125A481}"/>
-    <hyperlink ref="L76" r:id="rId341" xr:uid="{08A9DD36-F049-430E-ACEE-0254B9EB019D}"/>
-    <hyperlink ref="L82" r:id="rId342" xr:uid="{69BD5E03-494B-42BC-B711-BD56B50C14BD}"/>
-    <hyperlink ref="L8" r:id="rId343" display="https://scholar.google.com/citations?user=49QO52oAAAAJ&amp;hl=en&amp;citsig=ADIE8snLeq6YPks1Pa9NqbNhY8-8" xr:uid="{597E11F7-5E1F-4746-9B2D-F0B3CE2DAADD}"/>
-    <hyperlink ref="M72" r:id="rId344" display="https://vidwan.inflibnet.ac.in/profile/161243/MTYxMjQz" xr:uid="{377E489A-5F66-4D39-9D16-5A09C06888BF}"/>
-    <hyperlink ref="M3" r:id="rId345" xr:uid="{969CA3F3-003E-45D0-B448-786C1B45A99B}"/>
-    <hyperlink ref="M83" r:id="rId346" xr:uid="{FCF270CA-7E29-44DE-9B34-531A560121D2}"/>
-    <hyperlink ref="M57" r:id="rId347" xr:uid="{27A56F3E-3B7A-497C-B419-6D4EB0B36DFE}"/>
-    <hyperlink ref="M18" r:id="rId348" xr:uid="{A8B03D72-4F58-488B-AA71-6FE545C4F974}"/>
-    <hyperlink ref="M49" r:id="rId349" xr:uid="{46B27430-2CB4-4571-B683-C90BDB1A869A}"/>
-    <hyperlink ref="M92" r:id="rId350" xr:uid="{B3372949-44D6-47D3-93F5-F231A1194C2D}"/>
-    <hyperlink ref="M106" r:id="rId351" xr:uid="{BD564D33-09CC-4E3F-8665-C7CC006586D4}"/>
-    <hyperlink ref="M68" r:id="rId352" xr:uid="{46D7BE4E-C50A-4838-A0D5-A66608E30FB1}"/>
-    <hyperlink ref="M91" r:id="rId353" xr:uid="{49346F82-88CD-458B-9055-E1D237495067}"/>
-    <hyperlink ref="M95" r:id="rId354" xr:uid="{275EA512-D486-4AA6-B9C6-EDFD8EB5E681}"/>
-    <hyperlink ref="M50" r:id="rId355" xr:uid="{F1370FFD-2A24-4E0D-842E-D15A59048874}"/>
-    <hyperlink ref="M19" r:id="rId356" xr:uid="{B079BDCE-9644-48D8-ADB9-55246D89BB3B}"/>
-    <hyperlink ref="M71" r:id="rId357" xr:uid="{21DA9F6E-42F2-4C08-8BCC-45E0F47AC02F}"/>
-    <hyperlink ref="M23" r:id="rId358" display="https://vidwan.inflibnet.ac.in/profile/162290/MTYyMjkw" xr:uid="{C5101B56-8150-4439-9561-ADE65CCB8626}"/>
-    <hyperlink ref="M78" r:id="rId359" xr:uid="{FA23B353-3F9D-46B1-82DA-820AA4FBE86D}"/>
-    <hyperlink ref="M86" r:id="rId360" xr:uid="{680496D4-6792-4688-B37B-3D2836A2CBB1}"/>
-    <hyperlink ref="M36" r:id="rId361" xr:uid="{C295F105-2491-4119-851F-B09A35F5D83B}"/>
-    <hyperlink ref="M14" r:id="rId362" xr:uid="{C6A42F1F-C70B-482C-BAF5-08E29835556D}"/>
-    <hyperlink ref="M80" r:id="rId363" xr:uid="{D12744D8-8D17-44EF-A69E-A1A202FA6698}"/>
-    <hyperlink ref="M17" r:id="rId364" xr:uid="{026E65A7-E47E-491B-A07D-37EBD353FD4E}"/>
-    <hyperlink ref="M35" r:id="rId365" xr:uid="{5D0B8227-026E-47C4-897D-D449D1EA7349}"/>
-    <hyperlink ref="M29" r:id="rId366" xr:uid="{02E7C489-97EB-4764-B304-885B559F8C0E}"/>
-    <hyperlink ref="M67" r:id="rId367" xr:uid="{7BCC998C-8FF9-4866-BDE0-4E618132491D}"/>
-    <hyperlink ref="M9" r:id="rId368" xr:uid="{91B9619A-0474-417B-A83E-F1ACC0AF0CEC}"/>
-    <hyperlink ref="M114" r:id="rId369" xr:uid="{9DC7345F-59EF-46AB-AFF8-A485034FCFB5}"/>
-    <hyperlink ref="M4" r:id="rId370" xr:uid="{C24F8B1B-E131-406E-8B92-980981B7F2F8}"/>
-    <hyperlink ref="M12" r:id="rId371" xr:uid="{BBE0AFF3-0C87-45BA-B244-2EBD516259AE}"/>
-    <hyperlink ref="M101" r:id="rId372" xr:uid="{36A3294C-FBE9-4AE5-B367-A4F7EB299507}"/>
-    <hyperlink ref="M38" r:id="rId373" xr:uid="{CC9655FE-1EDD-46F8-BE5B-9E92C5013680}"/>
-    <hyperlink ref="M21" r:id="rId374" xr:uid="{47BBD086-2D33-4012-A8B6-B4A4E0F676C3}"/>
-    <hyperlink ref="M28" r:id="rId375" xr:uid="{D9812B9F-31E0-4DAD-8A1E-6460EF4BE795}"/>
-    <hyperlink ref="M97" r:id="rId376" xr:uid="{194FE3FD-0EF9-46C4-B769-B4AAF95E0018}"/>
-    <hyperlink ref="M6" r:id="rId377" xr:uid="{3C597F50-A6C7-4686-85A0-F6E6694F57E3}"/>
-    <hyperlink ref="M70" r:id="rId378" xr:uid="{A87D811B-910D-45F2-BF34-A478CD7D8B09}"/>
-    <hyperlink ref="M22" r:id="rId379" xr:uid="{686F19E9-9FDF-4E88-8243-D809ABB3FE79}"/>
-    <hyperlink ref="M42" r:id="rId380" xr:uid="{FB2FC638-1D01-4122-BA7D-9717BC8B2EF3}"/>
-    <hyperlink ref="M102" r:id="rId381" xr:uid="{F0E56AD7-3828-45B1-A3E4-95B4E7B7495F}"/>
-    <hyperlink ref="M24" r:id="rId382" xr:uid="{5E6A27FA-6F1B-4920-AF3A-0018DC331E36}"/>
-    <hyperlink ref="M26" r:id="rId383" xr:uid="{758E2E1D-BBB4-4F0B-A1FA-EB3E5DE2D156}"/>
-    <hyperlink ref="M90" r:id="rId384" xr:uid="{1C320BD2-5251-44A7-81C2-D89E208736CC}"/>
-    <hyperlink ref="M98" r:id="rId385" xr:uid="{4BF3D2D2-9743-494B-A7D1-9EEF7423F2B3}"/>
-    <hyperlink ref="M53" r:id="rId386" xr:uid="{642FC8EF-95E5-4804-8108-73A9ADB45FBB}"/>
-    <hyperlink ref="M81" r:id="rId387" xr:uid="{6069906B-85A1-4520-B697-E8420F4D518A}"/>
-    <hyperlink ref="M111" r:id="rId388" xr:uid="{45C10A27-1AD3-4A6F-966C-946B5F9ECB83}"/>
-    <hyperlink ref="M27" r:id="rId389" xr:uid="{F2CE36A5-3E73-43DE-A91D-5D1E2781384A}"/>
-    <hyperlink ref="M54" r:id="rId390" xr:uid="{6815F862-B01A-4FF2-B310-DDE65D78FBDB}"/>
-    <hyperlink ref="M41" r:id="rId391" xr:uid="{2167CAC5-42F7-48BE-A140-282801D50406}"/>
-    <hyperlink ref="M112" r:id="rId392" xr:uid="{2D0BE123-EDFD-4091-BCF0-204188FF3B30}"/>
-    <hyperlink ref="M62" r:id="rId393" xr:uid="{7A45E352-1CCC-4E30-B5C0-2C2507845C07}"/>
-    <hyperlink ref="M48" r:id="rId394" xr:uid="{D69AB844-8B39-4156-9897-B02CB20CA4D5}"/>
-    <hyperlink ref="M10" r:id="rId395" xr:uid="{04F1C981-8348-4D72-8A69-A692D3062D64}"/>
-    <hyperlink ref="M51" r:id="rId396" xr:uid="{65DE02F5-B84D-45D0-9DC1-F7808BDFD38D}"/>
-    <hyperlink ref="M61" r:id="rId397" xr:uid="{C49314E6-1B8D-41D3-8824-C6AE59F00DDA}"/>
-    <hyperlink ref="M65" r:id="rId398" xr:uid="{22CCAF6F-639B-4091-91C4-0D9E09A79A31}"/>
-    <hyperlink ref="M34" r:id="rId399" xr:uid="{9E6DCF4C-EA31-4D9D-AE0D-50C83C0347DE}"/>
-    <hyperlink ref="M75" r:id="rId400" xr:uid="{D71D3644-6845-46C5-83D7-DA2B52AF5733}"/>
-    <hyperlink ref="M5" r:id="rId401" xr:uid="{7687E521-D8FB-41F5-A5E6-AE953D92E830}"/>
-    <hyperlink ref="M20" r:id="rId402" xr:uid="{4DDDF623-882B-481C-A6D6-41041F349837}"/>
-    <hyperlink ref="M43" r:id="rId403" xr:uid="{52C3C99B-42C3-444C-A194-78CDBDAFC9CB}"/>
-    <hyperlink ref="M109" r:id="rId404" display="https://vidwan.inflibnet.ac.in/profile/161344" xr:uid="{FE2BA8E6-DD6C-4A10-91F1-326AA51E88D5}"/>
-    <hyperlink ref="M46" r:id="rId405" xr:uid="{2FFD071F-CF1A-4200-989A-978DBA72FD44}"/>
-    <hyperlink ref="M64" r:id="rId406" xr:uid="{E4C6C757-CD64-47C7-8F12-6CE6B9FFD60C}"/>
-    <hyperlink ref="M96" r:id="rId407" xr:uid="{722D10A1-25FB-4CE7-9F0B-C75508E442CE}"/>
-    <hyperlink ref="M84" r:id="rId408" xr:uid="{32A836FB-CB40-470F-B02E-7B6392FD539D}"/>
-    <hyperlink ref="M40" r:id="rId409" location="other_information_panel" display="https://vidwan.inflibnet.ac.in/myprofile - other_information_panel" xr:uid="{FE644920-561A-44DA-A700-34ED8EB7963F}"/>
-    <hyperlink ref="M110" r:id="rId410" xr:uid="{2C076003-CA45-4492-A114-A44CC1E60BF2}"/>
-    <hyperlink ref="M59" r:id="rId411" xr:uid="{BC2FF260-09A4-4D46-81FB-823835AD57DA}"/>
-    <hyperlink ref="M99" r:id="rId412" xr:uid="{B2860DA1-1C8E-403D-9E1C-CE3896F91BFD}"/>
-    <hyperlink ref="M13" r:id="rId413" xr:uid="{2DE04985-AB3C-4D4B-BCEE-EF8C728199F4}"/>
-    <hyperlink ref="M45" r:id="rId414" xr:uid="{546046AA-45E7-4EDD-81FB-A6648B9BB595}"/>
-    <hyperlink ref="M105" r:id="rId415" xr:uid="{7330EFFC-2F12-4EFE-BF25-3D30861E8775}"/>
-    <hyperlink ref="M94" r:id="rId416" xr:uid="{4F8D1CF8-D215-443F-8914-E091AFB2DBAE}"/>
-    <hyperlink ref="M15" r:id="rId417" xr:uid="{4CD74FA1-A139-4BCD-9CB7-1D7091E614B9}"/>
-    <hyperlink ref="M56" r:id="rId418" xr:uid="{EAABDC46-8B1B-482C-B7D7-E6E7C16FB647}"/>
-    <hyperlink ref="M104" r:id="rId419" xr:uid="{ACDF2E56-83C7-477F-A573-2B4112936AD3}"/>
-    <hyperlink ref="M44" r:id="rId420" xr:uid="{B502A1CE-A61F-4999-A855-F6ECA908B905}"/>
-    <hyperlink ref="M89" r:id="rId421" xr:uid="{EF82DFB8-BEB4-47BB-B28B-AF5A4CDD6891}"/>
-    <hyperlink ref="M74" r:id="rId422" xr:uid="{6D71EE52-86C9-4EE0-A55D-7B9652B864FF}"/>
-    <hyperlink ref="M87" r:id="rId423" xr:uid="{C073950A-A28A-4ED8-B9C1-BD3B160FAEF3}"/>
-    <hyperlink ref="M63" r:id="rId424" xr:uid="{958C1C19-9C17-41E8-ADC4-BAB91255F382}"/>
-    <hyperlink ref="M37" r:id="rId425" xr:uid="{0CC98B27-C0DC-4F81-A868-5BC7C0784B50}"/>
-    <hyperlink ref="M66" r:id="rId426" xr:uid="{B86191A1-65D6-4540-845F-518E32A64FBF}"/>
-    <hyperlink ref="M107" r:id="rId427" xr:uid="{47889514-AB9C-4B04-95A5-1CCA3A0DFCA8}"/>
-    <hyperlink ref="M58" r:id="rId428" xr:uid="{36AE2A42-0E80-4A5F-8FB0-4EAB2AEA8C36}"/>
-    <hyperlink ref="M69" r:id="rId429" xr:uid="{7FE7C886-2B29-491F-8C86-5526A33F7121}"/>
-    <hyperlink ref="M73" r:id="rId430" xr:uid="{FDFB0EA9-AD4D-43E9-BEF9-C60B9531C82F}"/>
-    <hyperlink ref="M2" r:id="rId431" xr:uid="{251C34E0-B509-4755-B850-FDEB3B770405}"/>
-    <hyperlink ref="M11" r:id="rId432" xr:uid="{3203A1D8-1572-4E08-ADEF-54F74525E87A}"/>
-    <hyperlink ref="M93" r:id="rId433" xr:uid="{28CD01ED-234C-4911-A047-12722FE76C1F}"/>
-    <hyperlink ref="M116" r:id="rId434" xr:uid="{82D93DAC-CF9F-4D41-B8C8-5AE08EA58BAA}"/>
-    <hyperlink ref="M79" r:id="rId435" xr:uid="{68120C28-52E3-4EC9-9F3E-EB5A3578A3BD}"/>
-    <hyperlink ref="M33" r:id="rId436" display="https://vidwan.inflibnet.ac.in/profile/161755-" xr:uid="{B87FE430-1CFA-4F98-A7E4-77FBF96BA37F}"/>
-    <hyperlink ref="M100" r:id="rId437" xr:uid="{649E7EFF-CC71-476F-9A81-1581EC34CD48}"/>
-    <hyperlink ref="M88" r:id="rId438" xr:uid="{1C9375D7-8EF5-40A1-914C-C5A7CD3188FB}"/>
-    <hyperlink ref="M85" r:id="rId439" xr:uid="{66509B53-066F-4635-85A6-6E99D5FE0B3E}"/>
-    <hyperlink ref="M108" r:id="rId440" xr:uid="{775D1521-4736-4C73-BB71-31FD5AD1E561}"/>
-    <hyperlink ref="M60" r:id="rId441" xr:uid="{A128A132-518A-476D-BCF8-6D3638CE18D6}"/>
-    <hyperlink ref="M55" r:id="rId442" xr:uid="{A1AFE28A-9643-4A4A-95E8-53E1C4380AAE}"/>
-    <hyperlink ref="M115" r:id="rId443" xr:uid="{6A1A9D4D-97FF-42A2-B2EA-85F3F7E515C2}"/>
-    <hyperlink ref="M7" r:id="rId444" xr:uid="{BA494279-5FA7-4467-ACAA-FFA1824DB9F7}"/>
-    <hyperlink ref="M31" r:id="rId445" xr:uid="{43BBD922-4BE8-457C-9F25-7684B0D6F35B}"/>
-    <hyperlink ref="M76" r:id="rId446" xr:uid="{C2281EE1-00E4-42D3-875C-3C9C699518DB}"/>
-    <hyperlink ref="M82" r:id="rId447" xr:uid="{3C1D1058-7762-4D63-9FB9-41A44D4AB1F3}"/>
-    <hyperlink ref="E16:E17" r:id="rId448" display="https://placehold.co/400x600" xr:uid="{18BA32A8-6934-421F-9831-28D4907FFF98}"/>
-    <hyperlink ref="E17" r:id="rId449" xr:uid="{7510203D-B2F6-44B8-BB79-8C3F26D4C98A}"/>
-    <hyperlink ref="E16" r:id="rId450" xr:uid="{7C7925F6-A06D-4A2F-A60E-DE952DACBD81}"/>
-    <hyperlink ref="E54" r:id="rId451" xr:uid="{41208DE8-410A-4988-814F-34D6808B3973}"/>
-    <hyperlink ref="E65" r:id="rId452" xr:uid="{2A43A7D2-0D9B-42A8-8E87-E447ECDB9951}"/>
-    <hyperlink ref="E60" r:id="rId453" xr:uid="{6FED2870-0657-4424-9493-C87C5558030E}"/>
-    <hyperlink ref="E112" r:id="rId454" xr:uid="{72604405-579A-4D04-AD70-2F433C2E73DD}"/>
-    <hyperlink ref="E117" r:id="rId455" display="https://placehold.co/400x600" xr:uid="{6297514C-C37E-424D-8BB6-2D18272D027F}"/>
+    <hyperlink ref="E32" r:id="rId68" xr:uid="{01F92761-8D63-4A2C-8713-25D41165DB40}"/>
+    <hyperlink ref="E34" r:id="rId69" xr:uid="{FFD57A2F-B179-4903-B296-F8069D1F1332}"/>
+    <hyperlink ref="E36" r:id="rId70" xr:uid="{291A37C6-A686-4CDE-9352-CAE725E23B11}"/>
+    <hyperlink ref="E38" r:id="rId71" xr:uid="{6ECECF25-2624-4D12-A089-9B4C4DBCF38B}"/>
+    <hyperlink ref="E40" r:id="rId72" xr:uid="{B8267D85-A691-4187-91DB-27E364616A8C}"/>
+    <hyperlink ref="E42" r:id="rId73" xr:uid="{AA69E1F0-E88A-495C-A844-C33C82F6CE26}"/>
+    <hyperlink ref="E44" r:id="rId74" xr:uid="{269F03E1-526C-4849-A6D5-8276665E4485}"/>
+    <hyperlink ref="E46" r:id="rId75" xr:uid="{D722AC52-912D-4A3F-8560-FAA4DCA60A56}"/>
+    <hyperlink ref="E48" r:id="rId76" xr:uid="{6ED9D463-8E32-4780-942A-C1EC9D07542B}"/>
+    <hyperlink ref="E50" r:id="rId77" xr:uid="{FAAE2569-D069-46B3-A7AA-6969338A4AFF}"/>
+    <hyperlink ref="E52" r:id="rId78" xr:uid="{919767C3-0A6A-4A63-9549-0F7B3A7EE7DF}"/>
+    <hyperlink ref="E54" r:id="rId79" xr:uid="{BD76B93C-ACC1-4CF1-A623-39E4FAFED853}"/>
+    <hyperlink ref="E56" r:id="rId80" xr:uid="{7964589D-7453-4997-AC7B-F98F5B5B7029}"/>
+    <hyperlink ref="E58" r:id="rId81" xr:uid="{F72D2D0A-AD07-45DC-AA3D-223C36C995AB}"/>
+    <hyperlink ref="E60" r:id="rId82" xr:uid="{D79CAE5D-C5B6-4B75-8261-008B5374EBDB}"/>
+    <hyperlink ref="E62" r:id="rId83" xr:uid="{75C81E45-FAA6-4175-A2FE-BA7C7F71F6F3}"/>
+    <hyperlink ref="E66" r:id="rId84" xr:uid="{F199289C-0CB7-41CD-95E9-D9C97B86A7E7}"/>
+    <hyperlink ref="E68" r:id="rId85" xr:uid="{E4715AC6-7D6D-4434-A585-79B8F25233F6}"/>
+    <hyperlink ref="E70" r:id="rId86" xr:uid="{CFD1BDC4-A848-4998-9430-C29DB079EED4}"/>
+    <hyperlink ref="E72" r:id="rId87" xr:uid="{DEC62E70-AB7A-4365-B90A-11A1D549F375}"/>
+    <hyperlink ref="E74" r:id="rId88" xr:uid="{A925F566-676A-47EA-9068-3A8AC9C78A71}"/>
+    <hyperlink ref="E76" r:id="rId89" xr:uid="{826BB4FF-EF4E-4C68-AE45-B4C9CEE10FB5}"/>
+    <hyperlink ref="E78" r:id="rId90" xr:uid="{D55B186E-0A96-4185-9D34-01F9C47E843E}"/>
+    <hyperlink ref="E80" r:id="rId91" xr:uid="{AC60663B-FB99-47D2-A9DA-11C43648559B}"/>
+    <hyperlink ref="E82" r:id="rId92" xr:uid="{F83899A5-222C-48AC-9ABC-BC254C3600A8}"/>
+    <hyperlink ref="E84" r:id="rId93" display="https://placehold.co/400x600" xr:uid="{2EE015AD-95D3-42D3-9727-0C2D20C22B2D}"/>
+    <hyperlink ref="E86" r:id="rId94" xr:uid="{1E9351A5-5685-4A61-91E2-9C72A14FBA45}"/>
+    <hyperlink ref="E88" r:id="rId95" xr:uid="{DA14C2E4-99E6-4273-B1C6-88E4314A2B53}"/>
+    <hyperlink ref="E90" r:id="rId96" display="https://placehold.co/400x600" xr:uid="{CED33FAF-E705-4A0E-B5BA-28AC459A08F9}"/>
+    <hyperlink ref="E92" r:id="rId97" xr:uid="{69683834-3F44-4B9E-879F-17C7B3985064}"/>
+    <hyperlink ref="E94" r:id="rId98" xr:uid="{6706B29D-6B9E-414D-A766-C429245D96A7}"/>
+    <hyperlink ref="E96" r:id="rId99" xr:uid="{B8549196-6B30-41D5-B870-CDF1F6C0AE2B}"/>
+    <hyperlink ref="E98" r:id="rId100" xr:uid="{70722206-091E-437D-B026-345C8CDB5176}"/>
+    <hyperlink ref="E100" r:id="rId101" xr:uid="{EF057E02-0A38-4475-84BA-2BC1ED64BA7D}"/>
+    <hyperlink ref="E102" r:id="rId102" xr:uid="{F307B800-2CAD-4E08-A635-F4AD9976A897}"/>
+    <hyperlink ref="E104" r:id="rId103" xr:uid="{42F0B609-7315-4192-A377-FDEDE5FDDF8B}"/>
+    <hyperlink ref="E106" r:id="rId104" xr:uid="{0BBF4990-1413-476C-AFE7-EC34A9F113B0}"/>
+    <hyperlink ref="E108" r:id="rId105" xr:uid="{43D0B648-1D21-45A3-A6E9-CB546100DAA2}"/>
+    <hyperlink ref="E110" r:id="rId106" xr:uid="{3BF79D70-269C-4AB5-B83F-712DABFF4480}"/>
+    <hyperlink ref="E112" r:id="rId107" xr:uid="{622A2536-A959-42B4-B4F9-EE23F2A44517}"/>
+    <hyperlink ref="E114" r:id="rId108" xr:uid="{7690046C-47D4-4A7B-8DBE-6704DCCAE9C8}"/>
+    <hyperlink ref="J71" r:id="rId109" display="https://www.linkedin.com/in/dr-nilay-patel-106bab14/" xr:uid="{B2E17E23-9358-429B-BBF9-5EE4C8E363CB}"/>
+    <hyperlink ref="J82" r:id="rId110" display="https://www.linkedin.com/in/poonam-thanki-b112a6a2/" xr:uid="{BB16F397-78CE-4DBD-8BE4-13D65525672B}"/>
+    <hyperlink ref="J56" r:id="rId111" display="https://www.linkedin.com/in/dr-manthan-s-manavadaria-2a222219/" xr:uid="{4954A101-EA09-4BF1-8202-A72F86653038}"/>
+    <hyperlink ref="J18" r:id="rId112" display="https://www.linkedin.com/in/bhavin-mehta-86b47795/" xr:uid="{DB7D7CE8-51EF-48EE-BFBF-A021321BDC5F}"/>
+    <hyperlink ref="J48" r:id="rId113" display="https://www.linkedin.com/in/dr-kanwar-preet-kaur-bamrah-64a3a221/" xr:uid="{53166117-8C5A-4AB4-89B7-C2E8B83BC5A5}"/>
+    <hyperlink ref="J91" r:id="rId114" display="https://www.linkedin.com/in/rikita-chokshi-44bb65263/" xr:uid="{184885D3-531C-43E9-853D-5C2EAF6E7696}"/>
+    <hyperlink ref="J105" r:id="rId115" xr:uid="{FBE16C58-F91B-4934-8550-681C7F68CFE1}"/>
+    <hyperlink ref="J67" r:id="rId116" display="https://www.linkedin.com/in/mrugendrasinh-rahevar/" xr:uid="{F0663F50-387A-4315-8A34-03206888175F}"/>
+    <hyperlink ref="J90" r:id="rId117" display="https://www.linkedin.com/in/ravi-patel-13686b19/" xr:uid="{FC6DE30F-2E95-4AA2-B879-8CEAD23CEEC4}"/>
+    <hyperlink ref="J94" r:id="rId118" display="https://www.linkedin.com/in/ronak-patel-63663613a/" xr:uid="{EB8CC283-1781-41D5-BE2D-3C04AED15B01}"/>
+    <hyperlink ref="J49" r:id="rId119" display="https://www.linkedin.com/in/dr-kawaljitsingh-randhawa-96816064/" xr:uid="{4AE0FF76-EF4F-45C3-A542-A7D876A7DA2C}"/>
+    <hyperlink ref="J19" r:id="rId120" display="http://linkedin.com/in/bimal-patel-b7504849" xr:uid="{B02CE38D-7D41-45E6-8D0A-5F0FCF595503}"/>
+    <hyperlink ref="J70" r:id="rId121" display="https://www.linkedin.com/in/nikita-bhatt-ce/?originalSubdomain=in" xr:uid="{9EC6AE06-F884-4149-B7FC-88140006B7F4}"/>
+    <hyperlink ref="J23" r:id="rId122" display="https://www.linkedin.com/in/deep-kothadiya-phd-70983a86/" xr:uid="{8691FEB4-6E3B-4049-9588-FC79EAF0F2EC}"/>
+    <hyperlink ref="J77" r:id="rId123" display="https://www.linkedin.com/in/parmanand-patel-1269016b/" xr:uid="{53EDE3BB-D85D-4DAD-A587-55DA1C805D27}"/>
+    <hyperlink ref="J51" r:id="rId124" display="https://www.linkedin.com/in/krunal-maheriya-aba5681a1/" xr:uid="{9D29078E-A414-4A64-86B1-F77733FF0F8A}"/>
+    <hyperlink ref="J85" r:id="rId125" xr:uid="{21E8E151-1B01-486F-A7D7-4BE4F0BC0B27}"/>
+    <hyperlink ref="J35" r:id="rId126" display="https://www.linkedin.com/in/dr-hardik-modi-181035b/" xr:uid="{F7F908AF-23C0-42F7-8AFE-DF52AF52580B}"/>
+    <hyperlink ref="J14" r:id="rId127" display="http://hlinkedin.com/in/dr-ashwin-makwana-9a6688112" xr:uid="{3D2F3A09-18C9-4E22-B6FA-494330FEF01E}"/>
+    <hyperlink ref="J79" r:id="rId128" xr:uid="{4DA1EB91-0A15-4D6C-9213-F6D1EE675204}"/>
+    <hyperlink ref="J17" r:id="rId129" xr:uid="{8E63BCC9-6C05-45B8-8789-EBB4905292F2}"/>
+    <hyperlink ref="J34" r:id="rId130" display="https://www.linkedin.com/in/gaurav-kumar1582/" xr:uid="{BF49CFFA-7535-44BB-8F9A-67BEFFD957B6}"/>
+    <hyperlink ref="J29" r:id="rId131" display="https://www.linkedin.com/in/dhaval-patel-481b0885/" xr:uid="{5704F17D-173C-4E5E-89CF-B8F7987D86F5}"/>
+    <hyperlink ref="J76" r:id="rId132" display="https://www.linkedin.com/me?trk=p_mwlite_profile_self-secondary_nav" xr:uid="{6148FF48-4942-4818-844D-79919D56DB98}"/>
+    <hyperlink ref="J66" r:id="rId133" display="https://www.linkedin.com/in/dr-miral-desai-245448a2/" xr:uid="{D2BE1269-3E17-415C-B581-A936373A624C}"/>
+    <hyperlink ref="J31" r:id="rId134" display="https://www.linkedin.com/in/gajanan-patange-05ba2219/overlay/about-this-profile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BEvV8mS8jTpy2mGfBhro1og%3D%3D" xr:uid="{CDEEC399-875E-4DDA-A567-6EFC42A0F87E}"/>
+    <hyperlink ref="J113" r:id="rId135" display="https://www.linkedin.com/in/vikas-panchal-873277251/" xr:uid="{A3606037-07FB-4104-B411-BA37A6E2F3CA}"/>
+    <hyperlink ref="J100" r:id="rId136" display="https://www.linkedin.com/in/sneha-padhiar-4aaa17146/" xr:uid="{8CF4272D-E96D-4E1C-80AD-5D3F2F554C53}"/>
+    <hyperlink ref="J37" r:id="rId137" display="https://www.linkedin.com/in/harshul-yagnik-81a6a022/" xr:uid="{683E4E91-B763-4226-99B6-F3E30837AD4B}"/>
+    <hyperlink ref="J21" r:id="rId138" display="https://www.linkedin.com/in/brinda-patel-652073252" xr:uid="{791133CF-E0A2-4B6D-8618-AC19B4D3A9FA}"/>
+    <hyperlink ref="J28" r:id="rId139" xr:uid="{F8104DB3-2B23-47B7-B622-17690E08D84A}"/>
+    <hyperlink ref="J96" r:id="rId140" xr:uid="{B357E631-0C5E-406B-9B45-A421DE003AD4}"/>
+    <hyperlink ref="J69" r:id="rId141" display="http://www.linkedin.com/in/neha-chauhan22" xr:uid="{E7A9417A-8B16-4D59-A23C-B258564D85D5}"/>
+    <hyperlink ref="J22" r:id="rId142" xr:uid="{895691E5-0B23-47DD-9A36-18923B4FD652}"/>
+    <hyperlink ref="J38" r:id="rId143" display="https://www.linkedin.com/public-profile/settings?trk=d_flagship3_profile_self_view_public_profile" xr:uid="{E4C32594-CCCB-41B2-AE51-AE67F83944BE}"/>
+    <hyperlink ref="J41" r:id="rId144" display="https://www.linkedin.com/in/jalpa-ardeshana-381496b7/" xr:uid="{67C7A4AD-28FD-4291-92FB-A9C4AA0671B4}"/>
+    <hyperlink ref="J101" r:id="rId145" display="https://www.linkedin.com/in/dr-spoorthy-v-10ab3813a/" xr:uid="{EDA5921D-C45B-4D8B-B9FA-3205F4F396D6}"/>
+    <hyperlink ref="J24" r:id="rId146" display="https://www.linkedin.com/in/dhara-patel-839488138" xr:uid="{27C9FC8C-0A44-49AE-8688-8690C8579833}"/>
+    <hyperlink ref="J26" r:id="rId147" display="https://www.linkedin.com/in/dharmendrasinh-chauhan-073a491a4/" xr:uid="{D50E69C7-4F51-4D1B-90EC-FE9F9A44906E}"/>
+    <hyperlink ref="J89" r:id="rId148" display="https://www.linkedin.com/in/rajnik-katriya/" xr:uid="{3AEC1C40-35D9-4AE3-A7E8-9E58FA2C8E43}"/>
+    <hyperlink ref="J97" r:id="rId149" xr:uid="{6137F2DC-1F93-4037-B861-A959BDB6DCE6}"/>
+    <hyperlink ref="J52" r:id="rId150" display="http://www.linkedin.com/in/kundan-patel-b9508b27b" xr:uid="{D4BB537A-7CA1-4F2B-9985-F5921034561E}"/>
+    <hyperlink ref="J80" r:id="rId151" xr:uid="{BFFCC995-B6DF-474C-93AA-BDF180E05422}"/>
+    <hyperlink ref="J110" r:id="rId152" display="https://www.linkedin.com/in/vidisha-pradhan-733a1b63/" xr:uid="{06E43119-E5BC-45C4-9126-F192D3006C5B}"/>
+    <hyperlink ref="J27" r:id="rId153" display="https://www.linkedin.com/in/dharmendrasinh-rathod-4482a2a4/" xr:uid="{3BDD0888-FF6F-403B-8A93-FD5176D0DA38}"/>
+    <hyperlink ref="J53" r:id="rId154" display="http://www.linkedin.com/in/madhav-oza-60bb5650" xr:uid="{24641904-0D92-4561-9EC0-14DC5197E375}"/>
+    <hyperlink ref="J40" r:id="rId155" xr:uid="{10BD029B-F728-4FEF-934E-F502C3B3ECDD}"/>
+    <hyperlink ref="J111" r:id="rId156" display="https://www.linkedin.com/in/dr-vijay-chaudhary-12769b311/" xr:uid="{B15A7FAF-9082-4A84-BAA5-265E44F10859}"/>
+    <hyperlink ref="J61" r:id="rId157" display="http://inkedin.com/in/mjdesai/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=in" xr:uid="{58387078-A78B-4059-8DB7-2DA181BAC97F}"/>
+    <hyperlink ref="J47" r:id="rId158" xr:uid="{F61EBA1D-096B-4367-83C7-464D0E0332DE}"/>
+    <hyperlink ref="J50" r:id="rId159" xr:uid="{A7C5CA17-C1E0-4B34-9F67-339F0FC32426}"/>
+    <hyperlink ref="J64" r:id="rId160" display="https://www.linkedin.com/in/mihirmehta-educational-project-and-placements/" xr:uid="{1EF2631D-C319-4F6C-9AF3-9E886A6E863A}"/>
+    <hyperlink ref="J33" r:id="rId161" display="https://www.linkedin.com/in/gaurang-patel-a99266119/" xr:uid="{4A4B2655-5B11-4CEB-8516-A9D046224C31}"/>
+    <hyperlink ref="J74" r:id="rId162" display="http://www.linkedin.com/in/nishant-koshti-52b68b8b" xr:uid="{2E5CF16C-0D7F-4454-B4F7-592A3EC43855}"/>
+    <hyperlink ref="J20" r:id="rId163" display="https://www.linkedin.com/in/brijesh-kundaliya-552b7722/" xr:uid="{FC5C15E0-2AD1-4E2F-8F1E-F2F96829A7A6}"/>
+    <hyperlink ref="J42" r:id="rId164" display="https://www.linkedin.com/in/jalpesh-vasa/" xr:uid="{6768F239-6E23-4A84-8C3E-45670A76F700}"/>
+    <hyperlink ref="J108" r:id="rId165" display="https://www.linkedin.com/in/vaishali-mewada-7a619053/" xr:uid="{DEFB6E16-7F29-44C5-ACAD-D6B1E16E6C24}"/>
+    <hyperlink ref="J45" r:id="rId166" xr:uid="{CCF872D9-BD3F-4521-9093-8C3148DBAC43}"/>
+    <hyperlink ref="J112" r:id="rId167" display="http://www.linkedin.com/in/vijaykumar-panchal-631852280" xr:uid="{2810BDF3-4A14-413D-B157-AF8059E92C49}"/>
+    <hyperlink ref="J63" r:id="rId168" display="https://www.linkedin.com/in/dr-mihir-bhatt-806a85aa/" xr:uid="{AA93D706-7CF6-45C4-B768-B797EB6775B7}"/>
+    <hyperlink ref="J95" r:id="rId169" display="https://www.linkedin.com/in/dr-sagar-chokshi-8646601a/" xr:uid="{35109E28-E96A-4139-B689-0AB43FF55E92}"/>
+    <hyperlink ref="J83" r:id="rId170" display="http://www.linkedin.com/in/pratik-panchal-a35b325a" xr:uid="{6FB924B7-EDB2-44F0-B0D7-E78551105315}"/>
+    <hyperlink ref="J39" r:id="rId171" display="https://www.linkedin.com/in/hemangi-oza-60a189190/" xr:uid="{AC43F6B8-459E-4FF0-82E4-75F8CDE25269}"/>
+    <hyperlink ref="J109" r:id="rId172" display="http://linkedin.com/in/vibha-parmar-81b3045b" xr:uid="{9792CDE9-6059-48ED-AD46-8BECFEF07152}"/>
+    <hyperlink ref="J58" r:id="rId173" display="http://www.linkedin.com/in/maulik-shah-30b483119" xr:uid="{E23FB3E1-55AD-4659-9463-2B3E19FC5E7D}"/>
+    <hyperlink ref="J98" r:id="rId174" display="http://www.linkedin.com/in/saritavisavalia" xr:uid="{3504F31F-4BD3-4D8B-B727-C2FF9DDFF1EA}"/>
+    <hyperlink ref="J13" r:id="rId175" xr:uid="{ACF63811-234F-442B-91D8-C6863212F92A}"/>
+    <hyperlink ref="J44" r:id="rId176" display="https://www.linkedin.com/in/dr-jigar-sarda-00384414/" xr:uid="{0EFC12BA-8B5C-4E86-968D-797B0D43FD98}"/>
+    <hyperlink ref="J104" r:id="rId177" display="https://www.linkedin.com/in/trusha-patel-gajjar" xr:uid="{98AA2D43-F8B2-4B29-93BA-7A9CCA8109B2}"/>
+    <hyperlink ref="J102" r:id="rId178" display="https://www.linkedin.com/in/srushti-gajjar-92b829142?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{544D82DB-5386-42AC-B979-94C259CA9E97}"/>
+    <hyperlink ref="J93" r:id="rId179" xr:uid="{F1631FCD-D701-415F-89D8-AB6A7D513AC5}"/>
+    <hyperlink ref="J15" r:id="rId180" display="https://www.linkedin.com/in/asifiqbal-thakor-56949b237/" xr:uid="{3A40B3CD-F1BE-4530-B451-07DF410D1272}"/>
+    <hyperlink ref="J55" r:id="rId181" xr:uid="{99110411-88B4-4B0C-9258-D7E7320C877C}"/>
+    <hyperlink ref="J46" r:id="rId182" display="https://www.linkedin.com/in/jivanadhar-joshi-a76a12ab/" xr:uid="{ED0C7354-C517-49E0-BDF5-C6BF1EC0A53C}"/>
+    <hyperlink ref="J103" r:id="rId183" display="https://in.linkedin.com/in/dr-tigmanshu-patel-b3252639" xr:uid="{8223C32D-E35E-4436-B593-C54F5FEED7DB}"/>
+    <hyperlink ref="J43" r:id="rId184" display="http://linkedin.com/in/jay-bhavsar-a4a9646a" xr:uid="{A3106519-72EE-423E-976E-09F1FD98B248}"/>
+    <hyperlink ref="J88" r:id="rId185" display="http://www.linkedin.com/in/purvi-prajapati-37ba6651" xr:uid="{7A2661BA-3D20-4DF8-8332-CC5726684DD1}"/>
+    <hyperlink ref="J73" r:id="rId186" display="https://www.linkedin.com/in/nirpex-patel-508956119/" xr:uid="{8BF234A3-EF12-4093-8EAF-09B2432506EF}"/>
+    <hyperlink ref="J86" r:id="rId187" display="https://www.linkedin.com/in/priyanka-patel-ph-d-00403393/" xr:uid="{8D6AEC45-7FD5-4128-9D12-F2A6CBB1E864}"/>
+    <hyperlink ref="J62" r:id="rId188" display="https://www.linkedin.com/in/mehulkumar-katakiya-029357b8/" xr:uid="{D058A74D-8E61-413C-9B75-7FF7917660C9}"/>
+    <hyperlink ref="J36" r:id="rId189" display="https://www.linkedin.com/in/harmish-bhatt-88581510a/" xr:uid="{7CC36C27-9781-439B-A945-9C1160C69911}"/>
+    <hyperlink ref="J65" r:id="rId190" display="https://www.linkedin.com/in/mikin-patel-24191386/" xr:uid="{3AEB0F01-575C-4799-B7A0-11A1F0947768}"/>
+    <hyperlink ref="J106" r:id="rId191" display="https://www.linkedin.com/in/dr-upesh-patel-875878138/" xr:uid="{5D7DA379-79C5-410F-9398-20936275BC46}"/>
+    <hyperlink ref="J57" r:id="rId192" xr:uid="{509B130C-6A0C-4944-BFE2-75F1FDF097C4}"/>
+    <hyperlink ref="J68" r:id="rId193" display="https://www.linkedin.com/in/muskan-dave-023197162/" xr:uid="{C8C7BB25-838D-4DFF-B4BD-F8943C06375E}"/>
+    <hyperlink ref="J72" r:id="rId194" display="https://www.linkedin.com/in/dr-nirav-bhatt/" xr:uid="{3F4736BB-5DB7-48E0-ABC4-5DBB591E1122}"/>
+    <hyperlink ref="J11" r:id="rId195" xr:uid="{714022ED-2EC9-40BB-978A-F936135E18E1}"/>
+    <hyperlink ref="J92" r:id="rId196" display="https://www.linkedin.com/in/ritesh-patel-462b0b11" xr:uid="{F4558EEF-FFB0-474A-8E3E-CEBF9566FCDB}"/>
+    <hyperlink ref="J115" r:id="rId197" display="http://www.linkedin.com/in/viral-panara-773877201" xr:uid="{4FB52C9B-4BDB-4971-A78B-1CD2EE789E52}"/>
+    <hyperlink ref="J78" r:id="rId198" display="https://www.linkedin.com/in/shah-parth-d/" xr:uid="{A61E294E-BDA5-4C2E-BA18-BA2B9C98C973}"/>
+    <hyperlink ref="J32" r:id="rId199" display="https://www.linkedin.com/in/gargi-ray-983a8522/" xr:uid="{0C76E47F-7D1B-4E1C-A88F-86156C9D1D6E}"/>
+    <hyperlink ref="J99" r:id="rId200" display="http://www.linkedin.com/in/satayu-travadi-9aab0919" xr:uid="{A79F3F36-387F-427F-848C-3BB8A221E707}"/>
+    <hyperlink ref="J87" r:id="rId201" xr:uid="{A7A467B8-5468-4830-9ADC-34F28E8899B5}"/>
+    <hyperlink ref="J30" r:id="rId202" display="https://www.linkedin.com/in/dheeraj-kumar-shringi-030586107?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{D1B60D12-635A-4E71-93D8-B47244D1EF44}"/>
+    <hyperlink ref="J84" r:id="rId203" display="https://in.linkedin.com/in/pratik-mochi-09764b102?original_referer=https%3A%2F%2Fwww.google.com%2F" xr:uid="{CD8066BB-0BA9-4FA9-88DB-0C291F6209A7}"/>
+    <hyperlink ref="J107" r:id="rId204" display="https://www.linkedin.com/in/vaibhavi-patel-67b035224/" xr:uid="{51D509E7-546B-4519-845F-AF5DC77392B9}"/>
+    <hyperlink ref="J59" r:id="rId205" display="http://www.linkedin.com/in/mayuri-popat-213852b1" xr:uid="{336D4B2F-0BBF-4ADA-8647-F20659482547}"/>
+    <hyperlink ref="J54" r:id="rId206" display="http://www.linkedin.com/in/madhavajwalia" xr:uid="{8DE9B663-AD20-42DB-A7F0-4FD167AD95E8}"/>
+    <hyperlink ref="J114" r:id="rId207" display="https://www.linkedin.com/in/vipul-vyas-19214bab/" xr:uid="{00F74D28-7144-4D8C-9870-393AE49126D5}"/>
+    <hyperlink ref="J75" r:id="rId208" display="https://www.linkedin.com/in/nishat-shaikh-b7446019a/" xr:uid="{45535606-CAE7-44BB-B1C5-622D742D5E66}"/>
+    <hyperlink ref="J16" r:id="rId209" display="https://www.linkedin.com/in/avani-khokhariya/" xr:uid="{F2664F6A-73CC-4DAD-982B-E296BD77DF0A}"/>
+    <hyperlink ref="J81" r:id="rId210" xr:uid="{2C60818F-B78B-4EC2-9BA4-C7D88C933280}"/>
+    <hyperlink ref="J25" r:id="rId211" display="https://www.linkedin.com/in/dhara-s-032a6a24/" xr:uid="{4FE7FF63-A73E-4E09-94C4-E2CD5FE6F81D}"/>
+    <hyperlink ref="K71" r:id="rId212" xr:uid="{E7CCB95C-4D9A-474B-9296-0EE719EC4AB3}"/>
+    <hyperlink ref="K91" r:id="rId213" xr:uid="{92D21BA9-793A-4610-9A6A-641322C6CC28}"/>
+    <hyperlink ref="K105" r:id="rId214" xr:uid="{2E05A515-7245-4DDB-9E9C-D041E881E2BF}"/>
+    <hyperlink ref="K85" r:id="rId215" xr:uid="{8C1C3B99-0196-4695-95EB-EEFEEA76042B}"/>
+    <hyperlink ref="K66" r:id="rId216" xr:uid="{4C2AA447-E23D-4BD3-8516-CF8A69E7C676}"/>
+    <hyperlink ref="K89" r:id="rId217" xr:uid="{68D88C01-9035-44B0-9EAE-4AE7236572CC}"/>
+    <hyperlink ref="K97" r:id="rId218" xr:uid="{B89BB500-5F1B-4985-B0B7-D69D9B22538C}"/>
+    <hyperlink ref="K27" r:id="rId219" xr:uid="{461288D1-54CE-41D7-ACBC-4EB753D35618}"/>
+    <hyperlink ref="K63" r:id="rId220" display="https://sites.google.com/a/charusat.ac.in/mihir-bhatt-ee/home/about-me?pli=1" xr:uid="{DD66FE1D-24F8-42A6-8DDC-651F08933CB6}"/>
+    <hyperlink ref="K44" r:id="rId221" xr:uid="{185428FC-1CEB-406E-A327-B537B63CC062}"/>
+    <hyperlink ref="K104" r:id="rId222" xr:uid="{6E3402FB-A293-4394-A12F-C9CE90A43581}"/>
+    <hyperlink ref="K93" r:id="rId223" display="https://sites.google.com/view/ronak-patel/" xr:uid="{30BB4B45-BE3C-4B51-8751-F1166793B9D8}"/>
+    <hyperlink ref="K86" r:id="rId224" display="https://sites.google.com/a/charusat.ac.in/priyanka-patel/about-me" xr:uid="{2F80CF65-0198-4866-9245-0932E2D2E991}"/>
+    <hyperlink ref="K11" r:id="rId225" xr:uid="{B7911887-1D4E-4149-9255-34290DE15C67}"/>
+    <hyperlink ref="K92" r:id="rId226" xr:uid="{CC19190B-EF5A-4030-970E-47B4649A66EC}"/>
+    <hyperlink ref="K78" r:id="rId227" display="http://learnwithparth.in/" xr:uid="{0D098BA1-951E-49B0-BA34-5489DFACFB69}"/>
+    <hyperlink ref="K59" r:id="rId228" display="https://sites.google.com/charusat.ac.in/mayuri-popat/home/academic-experience?authuser=0" xr:uid="{CD111632-8632-4F99-808E-7B0BA423BCF0}"/>
+    <hyperlink ref="K25" r:id="rId229" display="http://https/www.simpldhara.github.io" xr:uid="{1B0FEF49-7DD4-45B9-B1E6-577EDB068225}"/>
+    <hyperlink ref="K4" r:id="rId230" xr:uid="{A55ED677-5A40-43B5-A2E0-3934032012FA}"/>
+    <hyperlink ref="I12" r:id="rId231" xr:uid="{559F5BE6-A98D-4918-9ADE-3B5DB2AC1B24}"/>
+    <hyperlink ref="I13" r:id="rId232" xr:uid="{B5B2A2F7-DD9E-4163-AECE-07D5742E906D}"/>
+    <hyperlink ref="I48" r:id="rId233" xr:uid="{2DF8A589-77D3-487D-9871-F11C086009D1}"/>
+    <hyperlink ref="I81" r:id="rId234" xr:uid="{4F6BB86B-ECFA-4396-9D2B-715AF4C8A22C}"/>
+    <hyperlink ref="I49" r:id="rId235" xr:uid="{C80EDEE3-BA73-444F-89E4-2007846DC254}"/>
+    <hyperlink ref="I89" r:id="rId236" xr:uid="{E27523F8-498C-4ABD-8999-7C5FE36E5CA5}"/>
+    <hyperlink ref="L71" r:id="rId237" xr:uid="{948CADBD-38FA-4A43-B789-35C5FE176C3F}"/>
+    <hyperlink ref="L3" r:id="rId238" xr:uid="{F46A9101-D683-4CCF-9110-8584476B2BA9}"/>
+    <hyperlink ref="L82" r:id="rId239" xr:uid="{6E19F5D8-BA05-4C24-BFED-0131679AE1A3}"/>
+    <hyperlink ref="L56" r:id="rId240" xr:uid="{15D92DD2-9C84-4024-BCB0-89C6EAD615FB}"/>
+    <hyperlink ref="L18" r:id="rId241" xr:uid="{E24865B7-0C5D-46C6-8B52-CB38271DBD7E}"/>
+    <hyperlink ref="L48" r:id="rId242" xr:uid="{4D2C143E-EFF2-43ED-8C1B-94D7326ABF76}"/>
+    <hyperlink ref="L91" r:id="rId243" xr:uid="{22687922-AA0C-441B-A3FA-FB8732C6A78E}"/>
+    <hyperlink ref="L105" r:id="rId244" display="https://scholar.google.com/citations?user=Gzsxo-oAAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{FF9B096B-7991-46C3-B06A-152491BA6C90}"/>
+    <hyperlink ref="L67" r:id="rId245" xr:uid="{690AB285-269F-47C4-BA46-90F767A79CC1}"/>
+    <hyperlink ref="L90" r:id="rId246" xr:uid="{9AF26C9F-30B4-4DAE-A809-C138362FFD00}"/>
+    <hyperlink ref="L94" r:id="rId247" xr:uid="{8D4A0E6E-AA77-4CD4-AA54-DEC95D5CF09E}"/>
+    <hyperlink ref="L49" r:id="rId248" xr:uid="{A64FDC24-6D97-4969-AC20-BF200CE32B3A}"/>
+    <hyperlink ref="L19" r:id="rId249" xr:uid="{2DF7625D-5BDC-4383-BFF5-27331B9E27C1}"/>
+    <hyperlink ref="L70" r:id="rId250" display="https://scholar.google.co.in/citations?user=9PPA-6oAAAAJ&amp;hl=en" xr:uid="{38968AA0-46FD-46B0-84CD-C755BCC30A99}"/>
+    <hyperlink ref="L23" r:id="rId251" xr:uid="{4FF8802A-1D76-4C6B-91B4-17C781B102D6}"/>
+    <hyperlink ref="L51" r:id="rId252" xr:uid="{8365015A-789A-4D2C-9684-352B6CC70A5E}"/>
+    <hyperlink ref="L85" r:id="rId253" xr:uid="{BD03203D-E2A2-453C-8DB9-B1F0B5A13124}"/>
+    <hyperlink ref="L35" r:id="rId254" display="https://scholar.google.com/citations?user=ay8-QY0AAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{CEA8B045-C60C-4ADA-9F10-8B980373388F}"/>
+    <hyperlink ref="L14" r:id="rId255" display="https://scholar.google.com/citations?user=TCsNw-YAAAAJ&amp;hl=en" xr:uid="{D0B58B70-976E-4FD0-A498-4FE5480744DA}"/>
+    <hyperlink ref="L17" r:id="rId256" xr:uid="{19EAA634-8BE7-4A2F-8B30-8A424E254965}"/>
+    <hyperlink ref="L29" r:id="rId257" xr:uid="{3D65CD0F-C15B-4E98-9324-C36FAB47EBC4}"/>
+    <hyperlink ref="L66" r:id="rId258" xr:uid="{264FF3AA-8D89-41E4-9DA6-521BD58711A9}"/>
+    <hyperlink ref="L31" r:id="rId259" display="https://www.bing.com/ck/a?!&amp;&amp;p=6a7ac5a017a1300aJmltdHM9MTcyOTQ2ODgwMCZpZ3VpZD0wMDExMmIyNS1kMzQ5LTY3MTItMmE4My0zZTA1ZDI1NjY2MWEmaW5zaWQ9NTE5NQ&amp;ptn=3&amp;ver=2&amp;hsh=3&amp;fclid=00112b25-d349-6712-2a83-3e05d256661a&amp;psq=google+scholer+gajanan+patange&amp;u=a1aHR0cHM6Ly9zY2hvbGFyLmdvb2dsZS5wbC9jaXRhdGlvbnM_dXNlcj1fRDRISUhjQUFBQUomaGw9ZW4&amp;ntb=1" xr:uid="{275A790E-9657-41D9-B9F2-78D3822C4310}"/>
+    <hyperlink ref="L9" r:id="rId260" xr:uid="{758E6349-E050-42DF-B5C3-FBA97B821030}"/>
+    <hyperlink ref="L113" r:id="rId261" xr:uid="{9ACD46AD-FE8F-41CE-9823-5DC65F691D5B}"/>
+    <hyperlink ref="L4" r:id="rId262" xr:uid="{9B291D90-C0E1-493C-9E5E-17CAF2B7D2F2}"/>
+    <hyperlink ref="L12" r:id="rId263" xr:uid="{8C6729CD-380A-483D-A997-7DBCBA390939}"/>
+    <hyperlink ref="L100" r:id="rId264" xr:uid="{C07AED6D-34B0-40AA-B65E-C9BFB9F1574D}"/>
+    <hyperlink ref="L37" r:id="rId265" display="https://scholar.google.com/citations?user=6d-aVTEAAAAJ&amp;hl=en" xr:uid="{EBC010F8-7D12-4DC1-9FDA-49EFC51EFF71}"/>
+    <hyperlink ref="L21" r:id="rId266" xr:uid="{0DDB7A07-865A-4AD7-986A-DE5D031FFBD0}"/>
+    <hyperlink ref="L28" r:id="rId267" xr:uid="{E6ABE8A4-4EFC-489A-B104-3BCC2E998A7B}"/>
+    <hyperlink ref="L96" r:id="rId268" xr:uid="{ABDCFD31-BA21-4022-B6C1-EDDD441956ED}"/>
+    <hyperlink ref="L6" r:id="rId269" xr:uid="{591DF322-16B2-4785-A83C-3147BF3D09D2}"/>
+    <hyperlink ref="L69" r:id="rId270" xr:uid="{BB403419-C3FE-440B-B0A2-AF35C3C2E8E3}"/>
+    <hyperlink ref="L22" r:id="rId271" xr:uid="{A227399F-9975-4976-9597-2D3E6151DCB8}"/>
+    <hyperlink ref="L38" r:id="rId272" xr:uid="{535A1FEE-65AB-4486-BF0D-ADD9A3382AFB}"/>
+    <hyperlink ref="L41" r:id="rId273" display="https://scholar.google.com/citations?hl=en&amp;user=geQ-r_QAAAAJ" xr:uid="{36509863-135E-43CA-B732-4C0DEFDDC2FC}"/>
+    <hyperlink ref="L101" r:id="rId274" xr:uid="{7F8D3F89-D92D-4081-B489-E387250A10BD}"/>
+    <hyperlink ref="L24" r:id="rId275" xr:uid="{B4A03D8A-649C-469B-B24A-E9F9B481D48B}"/>
+    <hyperlink ref="L26" r:id="rId276" xr:uid="{D3034C74-7237-42E2-A6B8-CD4BA8BBBF41}"/>
+    <hyperlink ref="L89" r:id="rId277" xr:uid="{53AE3D77-EDB3-413A-8D8F-16969CBE8103}"/>
+    <hyperlink ref="L97" r:id="rId278" xr:uid="{76D99C50-072C-40D7-BDEB-328FCCB109D9}"/>
+    <hyperlink ref="L52" r:id="rId279" xr:uid="{CD634DA2-F1A0-45FA-A86C-61D935383D2E}"/>
+    <hyperlink ref="L80" r:id="rId280" xr:uid="{F6874B5E-545B-4745-A546-56B6FD5105E9}"/>
+    <hyperlink ref="L110" r:id="rId281" xr:uid="{C22F05F4-D13D-45A5-A5B0-3237064F3209}"/>
+    <hyperlink ref="L27" r:id="rId282" xr:uid="{32CD251C-92CC-42C2-865F-89BE3026727C}"/>
+    <hyperlink ref="L53" r:id="rId283" xr:uid="{287D782E-D3CC-498E-B117-EBE696C4D447}"/>
+    <hyperlink ref="L40" r:id="rId284" xr:uid="{B241D450-267C-40BF-9C45-8957239BDD86}"/>
+    <hyperlink ref="L61" r:id="rId285" xr:uid="{AA7AD692-35BE-48A4-AF46-1B6413916E3B}"/>
+    <hyperlink ref="L47" r:id="rId286" display="https://scholar.google.co.in/citations?user=EdcH-Y0AAAAJ&amp;hl=en" xr:uid="{CE335172-93AC-45C2-9068-7C9C19F220C4}"/>
+    <hyperlink ref="L10" r:id="rId287" xr:uid="{A33E4A1F-E63E-4F7D-9DC5-3C5AB6E82811}"/>
+    <hyperlink ref="L50" r:id="rId288" xr:uid="{027764B5-CA65-453C-BFB6-EE555AA7BF1B}"/>
+    <hyperlink ref="L60" r:id="rId289" xr:uid="{E2F70942-EACF-4A90-B18A-A80CB466AAE7}"/>
+    <hyperlink ref="L64" r:id="rId290" xr:uid="{5645BFE0-C2D6-4EED-AFCB-0EF806CC91E9}"/>
+    <hyperlink ref="L33" r:id="rId291" xr:uid="{EE598F68-E624-44F6-B4DD-8299C007487F}"/>
+    <hyperlink ref="L74" r:id="rId292" display="https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=-9-RhBoAAAAJ" xr:uid="{E935D410-8781-42B6-B609-E835354DEBBB}"/>
+    <hyperlink ref="L5" r:id="rId293" display="https://scholar.google.co.in/citations?user=cVv-kdYAAAAJ&amp;hl=en" xr:uid="{746C1EFC-2FA9-49B1-AFB8-1C7FCA47096B}"/>
+    <hyperlink ref="L20" r:id="rId294" display="https://scholar.google.com/citations?user=dHkQ5D4AAAAJ&amp;hl=en" xr:uid="{25860FE4-2E75-42A8-BFFE-3AA02DEED40F}"/>
+    <hyperlink ref="L42" r:id="rId295" xr:uid="{5A9FF0C8-1A53-40E2-BF07-8AE47CB6B984}"/>
+    <hyperlink ref="L108" r:id="rId296" xr:uid="{5C89C29F-A386-4BBA-9788-4CB223E1744F}"/>
+    <hyperlink ref="L45" r:id="rId297" xr:uid="{63EFEA34-4397-48CB-B385-33D61D726E20}"/>
+    <hyperlink ref="L63" r:id="rId298" xr:uid="{0A4BFD56-8B2D-444E-8903-49F5DC5883A4}"/>
+    <hyperlink ref="L95" r:id="rId299" display="https://scholar.google.com/citations?hl=en&amp;user=utk-ZT0AAAAJ" xr:uid="{501E8FB4-1DC4-4EBD-A3BE-50F19352C1F0}"/>
+    <hyperlink ref="L83" r:id="rId300" xr:uid="{37E9CEEB-DC2C-46A2-BCF4-5A9521147A39}"/>
+    <hyperlink ref="L39" r:id="rId301" xr:uid="{EEF5DC34-1243-4468-B6B1-D9059ADE8AB0}"/>
+    <hyperlink ref="L109" r:id="rId302" display="https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;hl=en&amp;user=HDdsZFsAAAAJ&amp;scilu=&amp;scisig=AJY4_hMAAAAAZxidz75RZUbVraeNHOVGYgbAfP0&amp;gmla=ALUCkoUwv9xfR7EENoQtBn_aiKaqTyzZ1X2kORl9--L4aBw5WcKwjoDCVXVaogYeCbraaig0PTa5IzrpT_DyD12Vlt-ODcDk1Nt3fM0&amp;sciund=7577126703303180020" xr:uid="{197DCE6B-BB53-49E3-9D84-78838F524694}"/>
+    <hyperlink ref="L58" r:id="rId303" xr:uid="{B559F61A-BA8D-4A15-AF94-270FD8E6EE0D}"/>
+    <hyperlink ref="L98" r:id="rId304" xr:uid="{BDF263A7-4F8B-46B8-BBE8-705BBF9DE738}"/>
+    <hyperlink ref="L13" r:id="rId305" xr:uid="{7649604F-C033-4670-9F95-0C2C5AC47C84}"/>
+    <hyperlink ref="L44" r:id="rId306" xr:uid="{035221F3-6BA9-41F1-A09D-0FD648704591}"/>
+    <hyperlink ref="L104" r:id="rId307" xr:uid="{1CDECF45-D107-4A0E-A561-5D783437E97C}"/>
+    <hyperlink ref="L102" r:id="rId308" xr:uid="{B653EAA6-C485-435F-854D-438BD267A19D}"/>
+    <hyperlink ref="L93" r:id="rId309" xr:uid="{BAF6ABB2-16F7-4B7A-8AC8-F52F94951E56}"/>
+    <hyperlink ref="L15" r:id="rId310" xr:uid="{F38927F1-EEEB-453A-8636-E6644582D973}"/>
+    <hyperlink ref="L55" r:id="rId311" xr:uid="{9E4C99F0-F427-4B73-88C1-9DDF17D8ABDE}"/>
+    <hyperlink ref="L46" r:id="rId312" xr:uid="{4048416A-0F5D-4582-8A3D-08AFC13874F9}"/>
+    <hyperlink ref="L103" r:id="rId313" xr:uid="{8400FD3C-B4D9-436A-8179-88B2F74CE3F2}"/>
+    <hyperlink ref="L43" r:id="rId314" xr:uid="{201F5259-DE23-43B6-A300-CE6428FFA5ED}"/>
+    <hyperlink ref="L88" r:id="rId315" xr:uid="{31420B66-56AB-4794-90CA-5F5AFEE32FDC}"/>
+    <hyperlink ref="L86" r:id="rId316" xr:uid="{C4F50DBC-0BFE-4509-9E86-8433559B0E5F}"/>
+    <hyperlink ref="L62" r:id="rId317" xr:uid="{90FCCA59-114D-4A5C-9409-D7A92B5C554D}"/>
+    <hyperlink ref="L36" r:id="rId318" xr:uid="{86700D43-54F6-409C-AA74-11A10CF95742}"/>
+    <hyperlink ref="L65" r:id="rId319" xr:uid="{C018FF9B-EED7-4A65-95FA-780ACBBA2D7E}"/>
+    <hyperlink ref="L106" r:id="rId320" xr:uid="{60A89811-803F-44C1-9C4C-03400FFC3370}"/>
+    <hyperlink ref="L57" r:id="rId321" display="https://scholar.google.com/citations?user=D-wd8QgAAAAJ&amp;hl=en" xr:uid="{FEE2843B-8463-42EA-93D3-8C0055A27E1B}"/>
+    <hyperlink ref="L72" r:id="rId322" xr:uid="{D89F1643-F631-4232-BD92-A17AB43537BB}"/>
+    <hyperlink ref="L2" r:id="rId323" xr:uid="{FA588FCD-5B5F-455C-A8F1-363E48BF4B34}"/>
+    <hyperlink ref="L11" r:id="rId324" xr:uid="{75F0D2F4-DBF8-4BC0-81C8-E510EB404F91}"/>
+    <hyperlink ref="L92" r:id="rId325" xr:uid="{4B1641D3-9830-41C6-9804-FD4F1CAA246E}"/>
+    <hyperlink ref="L115" r:id="rId326" xr:uid="{187B270B-DD03-4B4E-A0EC-FA089BBBF941}"/>
+    <hyperlink ref="L78" r:id="rId327" xr:uid="{09000797-9862-4D17-81A3-8BF615CB0D28}"/>
+    <hyperlink ref="L32" r:id="rId328" xr:uid="{30E40F4D-0941-4C35-B988-415178726C05}"/>
+    <hyperlink ref="L99" r:id="rId329" xr:uid="{2A5203BE-43E1-47B8-B2C4-1CC37588A5AB}"/>
+    <hyperlink ref="L87" r:id="rId330" xr:uid="{570C26B0-6EF3-40AB-BBA0-06474B8C9E9F}"/>
+    <hyperlink ref="L30" r:id="rId331" xr:uid="{8315B941-53AD-4CC4-8A93-715BF028D5D6}"/>
+    <hyperlink ref="L84" r:id="rId332" xr:uid="{A11BA51D-FBB4-444E-9239-AD5CA8BDA6AA}"/>
+    <hyperlink ref="L107" r:id="rId333" xr:uid="{BD6653EC-2D4F-4519-B739-A572013209E8}"/>
+    <hyperlink ref="L59" r:id="rId334" xr:uid="{FCDEB08A-0CA4-4598-B598-28FC8001225C}"/>
+    <hyperlink ref="L54" r:id="rId335" xr:uid="{21317881-56A9-411E-B0E0-953DFEB53FB5}"/>
+    <hyperlink ref="L114" r:id="rId336" xr:uid="{2C2ECFF6-DA6C-4C65-B48D-83C8B953A10F}"/>
+    <hyperlink ref="L7" r:id="rId337" xr:uid="{AC52BE48-B1BC-4E71-B6C1-88AF068D6F7B}"/>
+    <hyperlink ref="L75" r:id="rId338" xr:uid="{08A9DD36-F049-430E-ACEE-0254B9EB019D}"/>
+    <hyperlink ref="L81" r:id="rId339" xr:uid="{69BD5E03-494B-42BC-B711-BD56B50C14BD}"/>
+    <hyperlink ref="L8" r:id="rId340" display="https://scholar.google.com/citations?user=49QO52oAAAAJ&amp;hl=en&amp;citsig=ADIE8snLeq6YPks1Pa9NqbNhY8-8" xr:uid="{597E11F7-5E1F-4746-9B2D-F0B3CE2DAADD}"/>
+    <hyperlink ref="M71" r:id="rId341" display="https://vidwan.inflibnet.ac.in/profile/161243/MTYxMjQz" xr:uid="{377E489A-5F66-4D39-9D16-5A09C06888BF}"/>
+    <hyperlink ref="M3" r:id="rId342" xr:uid="{969CA3F3-003E-45D0-B448-786C1B45A99B}"/>
+    <hyperlink ref="M82" r:id="rId343" xr:uid="{FCF270CA-7E29-44DE-9B34-531A560121D2}"/>
+    <hyperlink ref="M56" r:id="rId344" xr:uid="{27A56F3E-3B7A-497C-B419-6D4EB0B36DFE}"/>
+    <hyperlink ref="M18" r:id="rId345" xr:uid="{A8B03D72-4F58-488B-AA71-6FE545C4F974}"/>
+    <hyperlink ref="M48" r:id="rId346" xr:uid="{46B27430-2CB4-4571-B683-C90BDB1A869A}"/>
+    <hyperlink ref="M91" r:id="rId347" xr:uid="{B3372949-44D6-47D3-93F5-F231A1194C2D}"/>
+    <hyperlink ref="M105" r:id="rId348" xr:uid="{BD564D33-09CC-4E3F-8665-C7CC006586D4}"/>
+    <hyperlink ref="M67" r:id="rId349" xr:uid="{46D7BE4E-C50A-4838-A0D5-A66608E30FB1}"/>
+    <hyperlink ref="M90" r:id="rId350" xr:uid="{49346F82-88CD-458B-9055-E1D237495067}"/>
+    <hyperlink ref="M94" r:id="rId351" xr:uid="{275EA512-D486-4AA6-B9C6-EDFD8EB5E681}"/>
+    <hyperlink ref="M49" r:id="rId352" xr:uid="{F1370FFD-2A24-4E0D-842E-D15A59048874}"/>
+    <hyperlink ref="M19" r:id="rId353" xr:uid="{B079BDCE-9644-48D8-ADB9-55246D89BB3B}"/>
+    <hyperlink ref="M70" r:id="rId354" xr:uid="{21DA9F6E-42F2-4C08-8BCC-45E0F47AC02F}"/>
+    <hyperlink ref="M23" r:id="rId355" display="https://vidwan.inflibnet.ac.in/profile/162290/MTYyMjkw" xr:uid="{C5101B56-8150-4439-9561-ADE65CCB8626}"/>
+    <hyperlink ref="M77" r:id="rId356" xr:uid="{FA23B353-3F9D-46B1-82DA-820AA4FBE86D}"/>
+    <hyperlink ref="M85" r:id="rId357" xr:uid="{680496D4-6792-4688-B37B-3D2836A2CBB1}"/>
+    <hyperlink ref="M35" r:id="rId358" xr:uid="{C295F105-2491-4119-851F-B09A35F5D83B}"/>
+    <hyperlink ref="M14" r:id="rId359" xr:uid="{C6A42F1F-C70B-482C-BAF5-08E29835556D}"/>
+    <hyperlink ref="M79" r:id="rId360" xr:uid="{D12744D8-8D17-44EF-A69E-A1A202FA6698}"/>
+    <hyperlink ref="M17" r:id="rId361" xr:uid="{026E65A7-E47E-491B-A07D-37EBD353FD4E}"/>
+    <hyperlink ref="M34" r:id="rId362" xr:uid="{5D0B8227-026E-47C4-897D-D449D1EA7349}"/>
+    <hyperlink ref="M29" r:id="rId363" xr:uid="{02E7C489-97EB-4764-B304-885B559F8C0E}"/>
+    <hyperlink ref="M66" r:id="rId364" xr:uid="{7BCC998C-8FF9-4866-BDE0-4E618132491D}"/>
+    <hyperlink ref="M9" r:id="rId365" xr:uid="{91B9619A-0474-417B-A83E-F1ACC0AF0CEC}"/>
+    <hyperlink ref="M113" r:id="rId366" xr:uid="{9DC7345F-59EF-46AB-AFF8-A485034FCFB5}"/>
+    <hyperlink ref="M4" r:id="rId367" xr:uid="{C24F8B1B-E131-406E-8B92-980981B7F2F8}"/>
+    <hyperlink ref="M12" r:id="rId368" xr:uid="{BBE0AFF3-0C87-45BA-B244-2EBD516259AE}"/>
+    <hyperlink ref="M100" r:id="rId369" xr:uid="{36A3294C-FBE9-4AE5-B367-A4F7EB299507}"/>
+    <hyperlink ref="M37" r:id="rId370" xr:uid="{CC9655FE-1EDD-46F8-BE5B-9E92C5013680}"/>
+    <hyperlink ref="M21" r:id="rId371" xr:uid="{47BBD086-2D33-4012-A8B6-B4A4E0F676C3}"/>
+    <hyperlink ref="M28" r:id="rId372" xr:uid="{D9812B9F-31E0-4DAD-8A1E-6460EF4BE795}"/>
+    <hyperlink ref="M96" r:id="rId373" xr:uid="{194FE3FD-0EF9-46C4-B769-B4AAF95E0018}"/>
+    <hyperlink ref="M6" r:id="rId374" xr:uid="{3C597F50-A6C7-4686-85A0-F6E6694F57E3}"/>
+    <hyperlink ref="M69" r:id="rId375" xr:uid="{A87D811B-910D-45F2-BF34-A478CD7D8B09}"/>
+    <hyperlink ref="M22" r:id="rId376" xr:uid="{686F19E9-9FDF-4E88-8243-D809ABB3FE79}"/>
+    <hyperlink ref="M41" r:id="rId377" xr:uid="{FB2FC638-1D01-4122-BA7D-9717BC8B2EF3}"/>
+    <hyperlink ref="M101" r:id="rId378" xr:uid="{F0E56AD7-3828-45B1-A3E4-95B4E7B7495F}"/>
+    <hyperlink ref="M24" r:id="rId379" xr:uid="{5E6A27FA-6F1B-4920-AF3A-0018DC331E36}"/>
+    <hyperlink ref="M26" r:id="rId380" xr:uid="{758E2E1D-BBB4-4F0B-A1FA-EB3E5DE2D156}"/>
+    <hyperlink ref="M89" r:id="rId381" xr:uid="{1C320BD2-5251-44A7-81C2-D89E208736CC}"/>
+    <hyperlink ref="M97" r:id="rId382" xr:uid="{4BF3D2D2-9743-494B-A7D1-9EEF7423F2B3}"/>
+    <hyperlink ref="M52" r:id="rId383" xr:uid="{642FC8EF-95E5-4804-8108-73A9ADB45FBB}"/>
+    <hyperlink ref="M80" r:id="rId384" xr:uid="{6069906B-85A1-4520-B697-E8420F4D518A}"/>
+    <hyperlink ref="M110" r:id="rId385" xr:uid="{45C10A27-1AD3-4A6F-966C-946B5F9ECB83}"/>
+    <hyperlink ref="M27" r:id="rId386" xr:uid="{F2CE36A5-3E73-43DE-A91D-5D1E2781384A}"/>
+    <hyperlink ref="M53" r:id="rId387" xr:uid="{6815F862-B01A-4FF2-B310-DDE65D78FBDB}"/>
+    <hyperlink ref="M40" r:id="rId388" xr:uid="{2167CAC5-42F7-48BE-A140-282801D50406}"/>
+    <hyperlink ref="M111" r:id="rId389" xr:uid="{2D0BE123-EDFD-4091-BCF0-204188FF3B30}"/>
+    <hyperlink ref="M61" r:id="rId390" xr:uid="{7A45E352-1CCC-4E30-B5C0-2C2507845C07}"/>
+    <hyperlink ref="M47" r:id="rId391" xr:uid="{D69AB844-8B39-4156-9897-B02CB20CA4D5}"/>
+    <hyperlink ref="M10" r:id="rId392" xr:uid="{04F1C981-8348-4D72-8A69-A692D3062D64}"/>
+    <hyperlink ref="M50" r:id="rId393" xr:uid="{65DE02F5-B84D-45D0-9DC1-F7808BDFD38D}"/>
+    <hyperlink ref="M60" r:id="rId394" xr:uid="{C49314E6-1B8D-41D3-8824-C6AE59F00DDA}"/>
+    <hyperlink ref="M64" r:id="rId395" xr:uid="{22CCAF6F-639B-4091-91C4-0D9E09A79A31}"/>
+    <hyperlink ref="M33" r:id="rId396" xr:uid="{9E6DCF4C-EA31-4D9D-AE0D-50C83C0347DE}"/>
+    <hyperlink ref="M74" r:id="rId397" xr:uid="{D71D3644-6845-46C5-83D7-DA2B52AF5733}"/>
+    <hyperlink ref="M5" r:id="rId398" xr:uid="{7687E521-D8FB-41F5-A5E6-AE953D92E830}"/>
+    <hyperlink ref="M20" r:id="rId399" xr:uid="{4DDDF623-882B-481C-A6D6-41041F349837}"/>
+    <hyperlink ref="M42" r:id="rId400" xr:uid="{52C3C99B-42C3-444C-A194-78CDBDAFC9CB}"/>
+    <hyperlink ref="M108" r:id="rId401" display="https://vidwan.inflibnet.ac.in/profile/161344" xr:uid="{FE2BA8E6-DD6C-4A10-91F1-326AA51E88D5}"/>
+    <hyperlink ref="M45" r:id="rId402" xr:uid="{2FFD071F-CF1A-4200-989A-978DBA72FD44}"/>
+    <hyperlink ref="M63" r:id="rId403" xr:uid="{E4C6C757-CD64-47C7-8F12-6CE6B9FFD60C}"/>
+    <hyperlink ref="M95" r:id="rId404" xr:uid="{722D10A1-25FB-4CE7-9F0B-C75508E442CE}"/>
+    <hyperlink ref="M83" r:id="rId405" xr:uid="{32A836FB-CB40-470F-B02E-7B6392FD539D}"/>
+    <hyperlink ref="M39" r:id="rId406" location="other_information_panel" display="https://vidwan.inflibnet.ac.in/myprofile - other_information_panel" xr:uid="{FE644920-561A-44DA-A700-34ED8EB7963F}"/>
+    <hyperlink ref="M109" r:id="rId407" xr:uid="{2C076003-CA45-4492-A114-A44CC1E60BF2}"/>
+    <hyperlink ref="M58" r:id="rId408" xr:uid="{BC2FF260-09A4-4D46-81FB-823835AD57DA}"/>
+    <hyperlink ref="M98" r:id="rId409" xr:uid="{B2860DA1-1C8E-403D-9E1C-CE3896F91BFD}"/>
+    <hyperlink ref="M13" r:id="rId410" xr:uid="{2DE04985-AB3C-4D4B-BCEE-EF8C728199F4}"/>
+    <hyperlink ref="M44" r:id="rId411" xr:uid="{546046AA-45E7-4EDD-81FB-A6648B9BB595}"/>
+    <hyperlink ref="M104" r:id="rId412" xr:uid="{7330EFFC-2F12-4EFE-BF25-3D30861E8775}"/>
+    <hyperlink ref="M93" r:id="rId413" xr:uid="{4F8D1CF8-D215-443F-8914-E091AFB2DBAE}"/>
+    <hyperlink ref="M15" r:id="rId414" xr:uid="{4CD74FA1-A139-4BCD-9CB7-1D7091E614B9}"/>
+    <hyperlink ref="M55" r:id="rId415" xr:uid="{EAABDC46-8B1B-482C-B7D7-E6E7C16FB647}"/>
+    <hyperlink ref="M103" r:id="rId416" xr:uid="{ACDF2E56-83C7-477F-A573-2B4112936AD3}"/>
+    <hyperlink ref="M43" r:id="rId417" xr:uid="{B502A1CE-A61F-4999-A855-F6ECA908B905}"/>
+    <hyperlink ref="M88" r:id="rId418" xr:uid="{EF82DFB8-BEB4-47BB-B28B-AF5A4CDD6891}"/>
+    <hyperlink ref="M73" r:id="rId419" xr:uid="{6D71EE52-86C9-4EE0-A55D-7B9652B864FF}"/>
+    <hyperlink ref="M86" r:id="rId420" xr:uid="{C073950A-A28A-4ED8-B9C1-BD3B160FAEF3}"/>
+    <hyperlink ref="M62" r:id="rId421" xr:uid="{958C1C19-9C17-41E8-ADC4-BAB91255F382}"/>
+    <hyperlink ref="M36" r:id="rId422" xr:uid="{0CC98B27-C0DC-4F81-A868-5BC7C0784B50}"/>
+    <hyperlink ref="M65" r:id="rId423" xr:uid="{B86191A1-65D6-4540-845F-518E32A64FBF}"/>
+    <hyperlink ref="M106" r:id="rId424" xr:uid="{47889514-AB9C-4B04-95A5-1CCA3A0DFCA8}"/>
+    <hyperlink ref="M57" r:id="rId425" xr:uid="{36AE2A42-0E80-4A5F-8FB0-4EAB2AEA8C36}"/>
+    <hyperlink ref="M68" r:id="rId426" xr:uid="{7FE7C886-2B29-491F-8C86-5526A33F7121}"/>
+    <hyperlink ref="M72" r:id="rId427" xr:uid="{FDFB0EA9-AD4D-43E9-BEF9-C60B9531C82F}"/>
+    <hyperlink ref="M2" r:id="rId428" xr:uid="{251C34E0-B509-4755-B850-FDEB3B770405}"/>
+    <hyperlink ref="M11" r:id="rId429" xr:uid="{3203A1D8-1572-4E08-ADEF-54F74525E87A}"/>
+    <hyperlink ref="M92" r:id="rId430" xr:uid="{28CD01ED-234C-4911-A047-12722FE76C1F}"/>
+    <hyperlink ref="M115" r:id="rId431" xr:uid="{82D93DAC-CF9F-4D41-B8C8-5AE08EA58BAA}"/>
+    <hyperlink ref="M78" r:id="rId432" xr:uid="{68120C28-52E3-4EC9-9F3E-EB5A3578A3BD}"/>
+    <hyperlink ref="M32" r:id="rId433" display="https://vidwan.inflibnet.ac.in/profile/161755-" xr:uid="{B87FE430-1CFA-4F98-A7E4-77FBF96BA37F}"/>
+    <hyperlink ref="M99" r:id="rId434" xr:uid="{649E7EFF-CC71-476F-9A81-1581EC34CD48}"/>
+    <hyperlink ref="M87" r:id="rId435" xr:uid="{1C9375D7-8EF5-40A1-914C-C5A7CD3188FB}"/>
+    <hyperlink ref="M84" r:id="rId436" xr:uid="{66509B53-066F-4635-85A6-6E99D5FE0B3E}"/>
+    <hyperlink ref="M107" r:id="rId437" xr:uid="{775D1521-4736-4C73-BB71-31FD5AD1E561}"/>
+    <hyperlink ref="M59" r:id="rId438" xr:uid="{A128A132-518A-476D-BCF8-6D3638CE18D6}"/>
+    <hyperlink ref="M54" r:id="rId439" xr:uid="{A1AFE28A-9643-4A4A-95E8-53E1C4380AAE}"/>
+    <hyperlink ref="M114" r:id="rId440" xr:uid="{6A1A9D4D-97FF-42A2-B2EA-85F3F7E515C2}"/>
+    <hyperlink ref="M7" r:id="rId441" xr:uid="{BA494279-5FA7-4467-ACAA-FFA1824DB9F7}"/>
+    <hyperlink ref="M75" r:id="rId442" xr:uid="{C2281EE1-00E4-42D3-875C-3C9C699518DB}"/>
+    <hyperlink ref="M81" r:id="rId443" xr:uid="{3C1D1058-7762-4D63-9FB9-41A44D4AB1F3}"/>
+    <hyperlink ref="E16:E17" r:id="rId444" display="https://placehold.co/400x600" xr:uid="{18BA32A8-6934-421F-9831-28D4907FFF98}"/>
+    <hyperlink ref="E17" r:id="rId445" xr:uid="{7510203D-B2F6-44B8-BB79-8C3F26D4C98A}"/>
+    <hyperlink ref="E16" r:id="rId446" xr:uid="{7C7925F6-A06D-4A2F-A60E-DE952DACBD81}"/>
+    <hyperlink ref="E53" r:id="rId447" xr:uid="{41208DE8-410A-4988-814F-34D6808B3973}"/>
+    <hyperlink ref="E64" r:id="rId448" xr:uid="{2A43A7D2-0D9B-42A8-8E87-E447ECDB9951}"/>
+    <hyperlink ref="E59" r:id="rId449" xr:uid="{6FED2870-0657-4424-9493-C87C5558030E}"/>
+    <hyperlink ref="E111" r:id="rId450" xr:uid="{72604405-579A-4D04-AD70-2F433C2E73DD}"/>
+    <hyperlink ref="E116" r:id="rId451" xr:uid="{6297514C-C37E-424D-8BB6-2D18272D027F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId456"/>
+  <pageSetup orientation="portrait" r:id="rId452"/>
 </worksheet>
 </file>
 

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\motat\OneDrive\Desktop\CSPIT_NEW_2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CSPIT_Main\CSPIT_NEW_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784647EB-9709-437C-9638-A3E8065BE17D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C19EE12-9DBC-4A9B-A6D5-84EE6E7D60B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1000">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="1004">
   <si>
     <t>Name</t>
   </si>
@@ -1471,9 +1471,6 @@
     <t>https://vidwan.inflibnet.ac.in/profile/161331</t>
   </si>
   <si>
-    <t>https://placehold.co/400x683</t>
-  </si>
-  <si>
     <t>https://placehold.co/400x689</t>
   </si>
   <si>
@@ -3186,6 +3183,21 @@
   </si>
   <si>
     <t>CSPIT_Faculty\Electrical\MIHIR_BHATT.webp</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electrical\pratikmochi.webp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr. Kunal Bhatt </t>
+  </si>
+  <si>
+    <t>Power Electronics, Renewable Energy, Electric Vehicle Technology, Smart Grids and Microgrids</t>
+  </si>
+  <si>
+    <t>CSPIT_Faculty\Electrical\KunalBhatt.webp</t>
+  </si>
+  <si>
+    <t>kunalbhatt.ee@charusat.ac.in</t>
   </si>
 </sst>
 </file>
@@ -3308,7 +3320,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3366,6 +3378,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3681,10 +3696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N116"/>
+  <dimension ref="A1:N117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="82" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3717,7 +3732,7 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -3735,18 +3750,18 @@
         <v>11</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>108</v>
@@ -3758,7 +3773,7 @@
         <v>114</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>240</v>
@@ -3773,13 +3788,13 @@
         <v>137</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="K2" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L2" s="9" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M2" s="9" t="s">
         <v>352</v>
@@ -3790,7 +3805,7 @@
     </row>
     <row r="3" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>108</v>
@@ -3802,7 +3817,7 @@
         <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>241</v>
@@ -3817,36 +3832,36 @@
         <v>139</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="K3" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L3" s="9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M3" s="9" t="s">
         <v>353</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F4" s="6" t="s">
         <v>242</v>
@@ -3861,13 +3876,13 @@
         <v>138</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>354</v>
@@ -3878,7 +3893,7 @@
     </row>
     <row r="5" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>108</v>
@@ -3890,7 +3905,7 @@
         <v>68</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="F5" s="6" t="s">
         <v>243</v>
@@ -3905,13 +3920,13 @@
         <v>140</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="K5" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="M5" s="9" t="s">
         <v>355</v>
@@ -3922,7 +3937,7 @@
     </row>
     <row r="6" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>108</v>
@@ -3934,7 +3949,7 @@
         <v>44</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>244</v>
@@ -3949,13 +3964,13 @@
         <v>141</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="K6" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M6" s="9" t="s">
         <v>356</v>
@@ -3966,7 +3981,7 @@
     </row>
     <row r="7" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>109</v>
@@ -3978,7 +3993,7 @@
         <v>115</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>245</v>
@@ -3993,24 +4008,24 @@
         <v>143</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="K7" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L7" s="9" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M7" s="9" t="s">
         <v>357</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>108</v>
@@ -4022,7 +4037,7 @@
         <v>116</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>246</v>
@@ -4037,13 +4052,13 @@
         <v>142</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="K8" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L8" s="9" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M8" s="10" t="s">
         <v>106</v>
@@ -4054,19 +4069,19 @@
     </row>
     <row r="9" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>36</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>247</v>
@@ -4081,24 +4096,24 @@
         <v>144</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L9" s="9" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M9" s="9" t="s">
         <v>358</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>108</v>
@@ -4110,7 +4125,7 @@
         <v>63</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="F10" s="6" t="s">
         <v>248</v>
@@ -4125,13 +4140,13 @@
         <v>145</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="K10" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L10" s="9" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M10" s="9" t="s">
         <v>359</v>
@@ -4142,22 +4157,22 @@
     </row>
     <row r="11" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>117</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G11" s="4" t="s">
         <v>106</v>
@@ -4172,10 +4187,10 @@
         <v>100</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="L11" s="9" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="M11" s="9" t="s">
         <v>359</v>
@@ -4186,7 +4201,7 @@
     </row>
     <row r="12" spans="1:14" ht="198" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>108</v>
@@ -4198,7 +4213,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>249</v>
@@ -4207,30 +4222,30 @@
         <v>106</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="I12" s="11" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K12" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>360</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>110</v>
@@ -4242,7 +4257,7 @@
         <v>81</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F13" s="6" t="s">
         <v>250</v>
@@ -4254,7 +4269,7 @@
         <v>344</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>100</v>
@@ -4263,18 +4278,18 @@
         <v>106</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>359</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>109</v>
@@ -4286,7 +4301,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>251</v>
@@ -4295,42 +4310,42 @@
         <v>106</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>147</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K14" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>361</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>86</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F15" s="6" t="s">
         <v>252</v>
@@ -4345,13 +4360,13 @@
         <v>148</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K15" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>362</v>
@@ -4362,7 +4377,7 @@
     </row>
     <row r="16" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>108</v>
@@ -4374,7 +4389,7 @@
         <v>118</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="F16" s="6" t="s">
         <v>253</v>
@@ -4389,7 +4404,7 @@
         <v>149</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K16" s="10" t="s">
         <v>106</v>
@@ -4406,28 +4421,28 @@
     </row>
     <row r="17" spans="1:14" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>30</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G17" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I17" s="4" t="s">
         <v>106</v>
@@ -4439,18 +4454,18 @@
         <v>106</v>
       </c>
       <c r="L17" s="9" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M17" s="9" t="s">
         <v>363</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>108</v>
@@ -4462,7 +4477,7 @@
         <v>15</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="F18" s="6" t="s">
         <v>254</v>
@@ -4477,24 +4492,24 @@
         <v>150</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K18" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L18" s="9" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M18" s="9" t="s">
         <v>364</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>110</v>
@@ -4506,7 +4521,7 @@
         <v>23</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F19" s="6" t="s">
         <v>255</v>
@@ -4521,24 +4536,24 @@
         <v>151</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K19" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L19" s="9" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M19" s="9" t="s">
         <v>365</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>108</v>
@@ -4550,7 +4565,7 @@
         <v>69</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F20" s="6" t="s">
         <v>256</v>
@@ -4565,13 +4580,13 @@
         <v>152</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K20" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L20" s="9" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M20" s="9" t="s">
         <v>359</v>
@@ -4582,7 +4597,7 @@
     </row>
     <row r="21" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>108</v>
@@ -4594,7 +4609,7 @@
         <v>41</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="F21" s="6" t="s">
         <v>257</v>
@@ -4609,13 +4624,13 @@
         <v>153</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K21" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L21" s="9" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M21" s="9" t="s">
         <v>366</v>
@@ -4626,7 +4641,7 @@
     </row>
     <row r="22" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>110</v>
@@ -4638,10 +4653,10 @@
         <v>46</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G22" s="4" t="s">
         <v>106</v>
@@ -4659,7 +4674,7 @@
         <v>106</v>
       </c>
       <c r="L22" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="M22" s="9" t="s">
         <v>367</v>
@@ -4670,7 +4685,7 @@
     </row>
     <row r="23" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B23" s="4" t="s">
         <v>108</v>
@@ -4682,7 +4697,7 @@
         <v>24</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>258</v>
@@ -4697,36 +4712,36 @@
         <v>155</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K23" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L23" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M23" s="9" t="s">
         <v>368</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="211.2" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D24" s="6" t="s">
         <v>50</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="F24" s="6" t="s">
         <v>259</v>
@@ -4741,13 +4756,13 @@
         <v>156</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K24" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L24" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="M24" s="9" t="s">
         <v>369</v>
@@ -4758,7 +4773,7 @@
     </row>
     <row r="25" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>108</v>
@@ -4770,7 +4785,7 @@
         <v>119</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="F25" s="6" t="s">
         <v>260</v>
@@ -4782,27 +4797,27 @@
         <v>106</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K25" s="9" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>106</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="26" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B26" s="4" t="s">
         <v>110</v>
@@ -4814,7 +4829,7 @@
         <v>51</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="F26" s="6" t="s">
         <v>261</v>
@@ -4823,19 +4838,19 @@
         <v>106</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I26" s="4" t="s">
         <v>157</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="L26" s="9" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M26" s="9" t="s">
         <v>370</v>
@@ -4846,19 +4861,19 @@
     </row>
     <row r="27" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D27" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="F27" s="6" t="s">
         <v>262</v>
@@ -4873,24 +4888,24 @@
         <v>158</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K27" s="9" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="L27" s="9" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M27" s="9" t="s">
         <v>371</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="28" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>108</v>
@@ -4902,7 +4917,7 @@
         <v>42</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F28" s="6" t="s">
         <v>263</v>
@@ -4914,39 +4929,39 @@
         <v>106</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K28" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M28" s="9" t="s">
         <v>360</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="29" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D29" s="6" t="s">
         <v>32</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F29" s="6" t="s">
         <v>264</v>
@@ -4958,16 +4973,16 @@
         <v>106</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K29" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L29" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="M29" s="9" t="s">
         <v>372</v>
@@ -4978,7 +4993,7 @@
     </row>
     <row r="30" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>108</v>
@@ -4990,7 +5005,7 @@
         <v>120</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F30" s="6" t="s">
         <v>265</v>
@@ -5005,13 +5020,13 @@
         <v>159</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L30" s="9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M30" s="17">
         <v>583944</v>
@@ -5022,7 +5037,7 @@
     </row>
     <row r="31" spans="1:14" ht="264" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>110</v>
@@ -5034,7 +5049,7 @@
         <v>35</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="F31" s="6" t="s">
         <v>266</v>
@@ -5049,16 +5064,16 @@
         <v>160</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K31" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L31" s="9" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>106</v>
@@ -5066,7 +5081,7 @@
     </row>
     <row r="32" spans="1:14" ht="198" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B32" s="4" t="s">
         <v>108</v>
@@ -5078,7 +5093,7 @@
         <v>121</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="F32" s="6" t="s">
         <v>267</v>
@@ -5093,24 +5108,24 @@
         <v>161</v>
       </c>
       <c r="J32" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K32" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L32" s="9" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M32" s="9" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="33" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>108</v>
@@ -5122,7 +5137,7 @@
         <v>66</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="F33" s="6" t="s">
         <v>268</v>
@@ -5131,19 +5146,19 @@
         <v>106</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>162</v>
       </c>
       <c r="J33" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K33" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L33" s="9" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M33" s="9" t="s">
         <v>373</v>
@@ -5154,7 +5169,7 @@
     </row>
     <row r="34" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>108</v>
@@ -5166,7 +5181,7 @@
         <v>31</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>269</v>
@@ -5181,7 +5196,7 @@
         <v>163</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K34" s="14" t="s">
         <v>106</v>
@@ -5198,7 +5213,7 @@
     </row>
     <row r="35" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B35" s="4" t="s">
         <v>110</v>
@@ -5207,10 +5222,10 @@
         <v>5</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F35" s="6" t="s">
         <v>270</v>
@@ -5225,24 +5240,24 @@
         <v>164</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K35" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L35" s="9" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M35" s="9" t="s">
         <v>375</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="36" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>108</v>
@@ -5254,7 +5269,7 @@
         <v>94</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="F36" s="6" t="s">
         <v>271</v>
@@ -5269,13 +5284,13 @@
         <v>165</v>
       </c>
       <c r="J36" s="9" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K36" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L36" s="9" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M36" s="9" t="s">
         <v>376</v>
@@ -5286,22 +5301,22 @@
     </row>
     <row r="37" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D37" s="6" t="s">
         <v>40</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G37" s="4" t="s">
         <v>106</v>
@@ -5313,13 +5328,13 @@
         <v>166</v>
       </c>
       <c r="J37" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K37" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L37" s="9" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M37" s="9" t="s">
         <v>377</v>
@@ -5330,19 +5345,19 @@
     </row>
     <row r="38" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D38" s="6" t="s">
         <v>47</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="F38" s="6" t="s">
         <v>272</v>
@@ -5357,13 +5372,13 @@
         <v>167</v>
       </c>
       <c r="J38" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L38" s="9" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="M38" s="10" t="s">
         <v>106</v>
@@ -5374,7 +5389,7 @@
     </row>
     <row r="39" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>108</v>
@@ -5386,7 +5401,7 @@
         <v>77</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F39" s="6" t="s">
         <v>273</v>
@@ -5401,13 +5416,13 @@
         <v>106</v>
       </c>
       <c r="J39" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K39" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L39" s="9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M39" s="9" t="s">
         <v>378</v>
@@ -5418,19 +5433,19 @@
     </row>
     <row r="40" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D40" s="6" t="s">
         <v>59</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="F40" s="6" t="s">
         <v>274</v>
@@ -5439,19 +5454,19 @@
         <v>106</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>168</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K40" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M40" s="9" t="s">
         <v>379</v>
@@ -5462,7 +5477,7 @@
     </row>
     <row r="41" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>108</v>
@@ -5474,7 +5489,7 @@
         <v>48</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="F41" s="6" t="s">
         <v>275</v>
@@ -5489,13 +5504,13 @@
         <v>169</v>
       </c>
       <c r="J41" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K41" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M41" s="9" t="s">
         <v>380</v>
@@ -5506,19 +5521,19 @@
     </row>
     <row r="42" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="D42" s="6" t="s">
         <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F42" s="6" t="s">
         <v>276</v>
@@ -5533,24 +5548,24 @@
         <v>170</v>
       </c>
       <c r="J42" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K42" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L42" s="9" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M42" s="9" t="s">
         <v>381</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="43" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>108</v>
@@ -5562,7 +5577,7 @@
         <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F43" s="6" t="s">
         <v>277</v>
@@ -5577,13 +5592,13 @@
         <v>171</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K43" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L43" s="9" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M43" s="9" t="s">
         <v>382</v>
@@ -5594,7 +5609,7 @@
     </row>
     <row r="44" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B44" s="4" t="s">
         <v>108</v>
@@ -5606,7 +5621,7 @@
         <v>82</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="F44" s="6" t="s">
         <v>278</v>
@@ -5621,13 +5636,13 @@
         <v>172</v>
       </c>
       <c r="J44" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K44" s="9" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="L44" s="9" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="M44" s="9" t="s">
         <v>383</v>
@@ -5638,19 +5653,19 @@
     </row>
     <row r="45" spans="1:14" ht="290.39999999999998" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="D45" s="6" t="s">
         <v>72</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="F45" s="6" t="s">
         <v>279</v>
@@ -5671,7 +5686,7 @@
         <v>106</v>
       </c>
       <c r="L45" s="9" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="M45" s="9" t="s">
         <v>384</v>
@@ -5682,7 +5697,7 @@
     </row>
     <row r="46" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B46" s="4" t="s">
         <v>108</v>
@@ -5694,7 +5709,7 @@
         <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="F46" s="6" t="s">
         <v>280</v>
@@ -5709,13 +5724,13 @@
         <v>174</v>
       </c>
       <c r="J46" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L46" s="9" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="M46" s="10" t="s">
         <v>106</v>
@@ -5726,7 +5741,7 @@
     </row>
     <row r="47" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>110</v>
@@ -5738,7 +5753,7 @@
         <v>62</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F47" s="6" t="s">
         <v>281</v>
@@ -5759,7 +5774,7 @@
         <v>106</v>
       </c>
       <c r="L47" s="9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M47" s="9" t="s">
         <v>359</v>
@@ -5770,7 +5785,7 @@
     </row>
     <row r="48" spans="1:14" ht="105.6" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B48" s="4" t="s">
         <v>108</v>
@@ -5782,7 +5797,7 @@
         <v>16</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="F48" s="6" t="s">
         <v>282</v>
@@ -5794,27 +5809,27 @@
         <v>106</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J48" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="L48" s="9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M48" s="9" t="s">
         <v>385</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="49" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>108</v>
@@ -5826,7 +5841,7 @@
         <v>22</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F49" s="6" t="s">
         <v>283</v>
@@ -5835,30 +5850,30 @@
         <v>106</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I49" s="11" t="s">
         <v>176</v>
       </c>
       <c r="J49" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K49" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L49" s="9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="M49" s="9" t="s">
         <v>386</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="50" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B50" s="4" t="s">
         <v>110</v>
@@ -5867,10 +5882,10 @@
         <v>5</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>284</v>
@@ -5879,7 +5894,7 @@
         <v>106</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I50" s="4" t="s">
         <v>177</v>
@@ -5891,7 +5906,7 @@
         <v>106</v>
       </c>
       <c r="L50" s="9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M50" s="9" t="s">
         <v>359</v>
@@ -5900,273 +5915,263 @@
         <v>106</v>
       </c>
     </row>
-    <row r="51" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
-        <v>928</v>
+        <v>1000</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C51" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" s="6" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F51" s="6"/>
+      <c r="G51" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="21" t="s">
+        <v>1003</v>
+      </c>
+      <c r="J51" s="9"/>
+      <c r="K51" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L51" s="9"/>
+      <c r="M51" s="9"/>
+      <c r="N51" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>927</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="6" t="s">
+      <c r="D52" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E51" s="2" t="s">
-        <v>792</v>
-      </c>
-      <c r="F51" s="6" t="s">
+      <c r="E52" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="F52" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="G51" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I51" s="4" t="s">
+      <c r="G52" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H52" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I52" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="J51" s="9" t="s">
-        <v>478</v>
-      </c>
-      <c r="K51" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L51" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="M51" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N51" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>929</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D52" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="F52" s="6" t="s">
-        <v>286</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H52" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I52" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="J52" s="9" t="s">
-        <v>479</v>
-      </c>
-      <c r="K52" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="K52" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L52" s="9" t="s">
-        <v>619</v>
-      </c>
-      <c r="M52" s="9" t="s">
-        <v>387</v>
-      </c>
-      <c r="N52" s="10" t="s">
+        <v>617</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N52" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="F53" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G53" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H53" s="6" t="s">
-        <v>708</v>
+      <c r="H53" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J53" s="9" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L53" s="9" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="M53" s="9" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="N53" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="54" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B54" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>122</v>
+        <v>58</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F54" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G54" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H54" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J54" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K54" s="14" t="s">
+        <v>479</v>
+      </c>
+      <c r="K54" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L54" s="9" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="M54" s="9" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F55" s="6" t="s">
-        <v>694</v>
+        <v>288</v>
       </c>
       <c r="G55" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H55" s="6" t="s">
-        <v>106</v>
+        <v>708</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="J55" s="9" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="K55" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L55" s="9" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="M55" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="171.6" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B56" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>5</v>
+        <v>554</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>685</v>
+        <v>87</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>860</v>
+        <v>843</v>
       </c>
       <c r="F56" s="6" t="s">
-        <v>289</v>
+        <v>693</v>
       </c>
       <c r="G56" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H56" s="6" t="s">
-        <v>710</v>
+        <v>106</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J56" s="9" t="s">
-        <v>481</v>
+        <v>105</v>
       </c>
       <c r="K56" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L56" s="9" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="M56" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A57" s="4" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>108</v>
@@ -6175,277 +6180,277 @@
         <v>5</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>123</v>
+        <v>684</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>793</v>
+        <v>859</v>
       </c>
       <c r="F57" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G57" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H57" s="6" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J57" s="9" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="K57" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L57" s="9" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="M57" s="9" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="356.4" x14ac:dyDescent="0.3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>553</v>
+        <v>5</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="F58" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G58" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H58" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J58" s="9" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="K58" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L58" s="9" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="M58" s="9" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:14" ht="356.4" x14ac:dyDescent="0.3">
       <c r="A59" s="4" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C59" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H59" s="6" t="s">
+        <v>711</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="J59" s="9" t="s">
+        <v>482</v>
+      </c>
+      <c r="K59" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L59" s="9" t="s">
+        <v>624</v>
+      </c>
+      <c r="M59" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="N59" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>935</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D59" s="6" t="s">
+      <c r="D60" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E60" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>292</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="J60" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="K60" s="9" t="s">
+        <v>536</v>
+      </c>
+      <c r="L60" s="9" t="s">
+        <v>625</v>
+      </c>
+      <c r="M60" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="N60" s="10" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>936</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E61" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="F59" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H59" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I59" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="J59" s="9" t="s">
+      <c r="F61" s="6" t="s">
+        <v>694</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H61" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="J61" s="10" t="s">
         <v>484</v>
       </c>
-      <c r="K59" s="9" t="s">
-        <v>537</v>
-      </c>
-      <c r="L59" s="9" t="s">
+      <c r="K61" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L61" s="9" t="s">
         <v>626</v>
       </c>
-      <c r="M59" s="9" t="s">
-        <v>394</v>
-      </c>
-      <c r="N59" s="10" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="4" t="s">
+      <c r="M61" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="N61" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
         <v>937</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D60" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="F60" s="6" t="s">
-        <v>695</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H60" s="6" t="s">
-        <v>713</v>
-      </c>
-      <c r="I60" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>485</v>
-      </c>
-      <c r="K60" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L60" s="9" t="s">
-        <v>627</v>
-      </c>
-      <c r="M60" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="N60" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A61" s="4" t="s">
-        <v>938</v>
-      </c>
-      <c r="B61" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="D61" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>805</v>
-      </c>
-      <c r="F61" s="6" t="s">
-        <v>293</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H61" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I61" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="J61" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="K61" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L61" s="9" t="s">
-        <v>628</v>
-      </c>
-      <c r="M61" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="N61" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="66" x14ac:dyDescent="0.3">
-      <c r="A62" s="4" t="s">
-        <v>939</v>
       </c>
       <c r="B62" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>4</v>
+        <v>553</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>686</v>
+        <v>61</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
       <c r="F62" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G62" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H62" s="6" t="s">
+      <c r="H62" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="J62" s="9" t="s">
-        <v>486</v>
+        <v>101</v>
       </c>
       <c r="K62" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L62" s="9" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="M62" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="N62" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="132" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>74</v>
+        <v>685</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>999</v>
+        <v>805</v>
       </c>
       <c r="F63" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G63" s="4" t="s">
         <v>106</v>
@@ -6454,159 +6459,159 @@
         <v>106</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J63" s="9" t="s">
-        <v>487</v>
-      </c>
-      <c r="K63" s="9" t="s">
-        <v>538</v>
+        <v>485</v>
+      </c>
+      <c r="K63" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L63" s="9" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="M63" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="N63" s="10" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+      <c r="N63" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B64" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>556</v>
+        <v>5</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>847</v>
+        <v>998</v>
       </c>
       <c r="F64" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G64" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H64" s="6" t="s">
-        <v>714</v>
+        <v>106</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="J64" s="9" t="s">
-        <v>488</v>
-      </c>
-      <c r="K64" s="14" t="s">
-        <v>106</v>
+        <v>486</v>
+      </c>
+      <c r="K64" s="9" t="s">
+        <v>537</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="M64" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="N64" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+      <c r="N64" s="10" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>4</v>
+        <v>555</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>861</v>
+        <v>846</v>
       </c>
       <c r="F65" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G65" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H65" s="6" t="s">
-        <v>348</v>
+        <v>713</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J65" s="9" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K65" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="M65" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="N65" s="10" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="277.2" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+      <c r="N65" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="B66" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>34</v>
+        <v>95</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F66" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G66" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H66" s="6" t="s">
-        <v>715</v>
+        <v>348</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="J66" s="9" t="s">
-        <v>490</v>
-      </c>
-      <c r="K66" s="9" t="s">
-        <v>539</v>
+        <v>488</v>
+      </c>
+      <c r="K66" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L66" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="M66" s="9" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="277.2" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="B67" s="4" t="s">
         <v>108</v>
@@ -6615,174 +6620,174 @@
         <v>5</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>794</v>
+        <v>861</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G67" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H67" s="6" t="s">
-        <v>106</v>
+        <v>714</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="J67" s="9" t="s">
-        <v>491</v>
-      </c>
-      <c r="K67" s="14" t="s">
-        <v>106</v>
+        <v>489</v>
+      </c>
+      <c r="K67" s="9" t="s">
+        <v>538</v>
       </c>
       <c r="L67" s="9" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="M67" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="N67" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B68" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>125</v>
+        <v>19</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>863</v>
+        <v>793</v>
       </c>
       <c r="F68" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G68" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H68" s="8" t="s">
+      <c r="H68" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J68" s="9" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="K68" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L68" s="10" t="s">
-        <v>106</v>
+      <c r="L68" s="9" t="s">
+        <v>633</v>
       </c>
       <c r="M68" s="9" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="N68" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="4" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>106</v>
+        <v>4</v>
       </c>
       <c r="D69" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G69" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H69" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I69" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="J69" s="9" t="s">
+        <v>491</v>
+      </c>
+      <c r="K69" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L69" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M69" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="N69" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>945</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="D70" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="F69" s="6" t="s">
-        <v>696</v>
-      </c>
-      <c r="G69" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H69" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I69" s="4" t="s">
+      <c r="E70" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>695</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I70" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J69" s="9" t="s">
-        <v>493</v>
-      </c>
-      <c r="K69" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L69" s="9" t="s">
-        <v>635</v>
-      </c>
-      <c r="M69" s="9" t="s">
+      <c r="J70" s="9" t="s">
+        <v>492</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L70" s="9" t="s">
+        <v>634</v>
+      </c>
+      <c r="M70" s="9" t="s">
         <v>402</v>
       </c>
-      <c r="N69" s="10" t="s">
-        <v>746</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="4" t="s">
-        <v>992</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D70" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="F70" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="G70" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H70" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I70" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="J70" s="9" t="s">
-        <v>494</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L70" s="9" t="s">
-        <v>636</v>
-      </c>
-      <c r="M70" s="9" t="s">
-        <v>403</v>
-      </c>
       <c r="N70" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A71" s="4" t="s">
-        <v>947</v>
+        <v>991</v>
       </c>
       <c r="B71" s="4" t="s">
         <v>110</v>
@@ -6791,42 +6796,42 @@
         <v>5</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>12</v>
+        <v>686</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>848</v>
+        <v>794</v>
       </c>
       <c r="F71" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G71" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H71" s="6" t="s">
-        <v>716</v>
+      <c r="H71" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="J71" s="9" t="s">
-        <v>495</v>
-      </c>
-      <c r="K71" s="9" t="s">
-        <v>540</v>
+        <v>493</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="L71" s="9" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="M71" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="N71" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B72" s="4" t="s">
         <v>110</v>
@@ -6835,86 +6840,86 @@
         <v>5</v>
       </c>
       <c r="D72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H72" s="6" t="s">
+        <v>715</v>
+      </c>
+      <c r="I72" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="J72" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="K72" s="9" t="s">
+        <v>539</v>
+      </c>
+      <c r="L72" s="9" t="s">
+        <v>636</v>
+      </c>
+      <c r="M72" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="N72" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>947</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="E72" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="F72" s="6" t="s">
+      <c r="E73" s="2" t="s">
+        <v>776</v>
+      </c>
+      <c r="F73" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H72" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="I72" s="4" t="s">
+      <c r="G73" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H73" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="I73" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="J72" s="9" t="s">
-        <v>496</v>
-      </c>
-      <c r="K72" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L72" s="9" t="s">
-        <v>638</v>
-      </c>
-      <c r="M72" s="9" t="s">
+      <c r="J73" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="K73" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L73" s="9" t="s">
+        <v>637</v>
+      </c>
+      <c r="M73" s="9" t="s">
         <v>405</v>
       </c>
-      <c r="N72" s="10" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="4" t="s">
-        <v>949</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D73" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>808</v>
-      </c>
-      <c r="F73" s="6" t="s">
-        <v>697</v>
-      </c>
-      <c r="G73" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H73" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I73" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="J73" s="9" t="s">
-        <v>497</v>
-      </c>
-      <c r="K73" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L73" s="10" t="s">
-        <v>639</v>
-      </c>
-      <c r="M73" s="9" t="s">
-        <v>406</v>
-      </c>
       <c r="N73" s="10" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="B74" s="4" t="s">
         <v>108</v>
@@ -6923,13 +6928,13 @@
         <v>4</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>778</v>
+        <v>807</v>
       </c>
       <c r="F74" s="6" t="s">
-        <v>304</v>
+        <v>696</v>
       </c>
       <c r="G74" s="4" t="s">
         <v>106</v>
@@ -6938,27 +6943,27 @@
         <v>106</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J74" s="9" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="K74" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L74" s="9" t="s">
-        <v>640</v>
+      <c r="L74" s="10" t="s">
+        <v>638</v>
       </c>
       <c r="M74" s="9" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="N74" s="10" t="s">
-        <v>106</v>
+        <v>742</v>
       </c>
     </row>
     <row r="75" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A75" s="4" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>108</v>
@@ -6967,42 +6972,42 @@
         <v>4</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F75" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G75" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H75" s="8" t="s">
+      <c r="H75" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J75" s="9" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="K75" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L75" s="9" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="M75" s="9" t="s">
-        <v>407</v>
+        <v>359</v>
       </c>
       <c r="N75" s="10" t="s">
-        <v>748</v>
+        <v>106</v>
       </c>
     </row>
     <row r="76" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>108</v>
@@ -7011,57 +7016,57 @@
         <v>4</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>33</v>
+        <v>127</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>779</v>
       </c>
       <c r="F76" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G76" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H76" s="6" t="s">
+      <c r="H76" s="8" t="s">
         <v>106</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="J76" s="9" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="K76" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L76" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M76" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N76" s="19" t="s">
-        <v>106</v>
+      <c r="L76" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="M76" s="9" t="s">
+        <v>407</v>
+      </c>
+      <c r="N76" s="10" t="s">
+        <v>747</v>
       </c>
     </row>
     <row r="77" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A77" s="4" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B77" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>865</v>
+        <v>778</v>
       </c>
       <c r="F77" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G77" s="4" t="s">
         <v>106</v>
@@ -7070,262 +7075,262 @@
         <v>106</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="J77" s="9" t="s">
-        <v>501</v>
-      </c>
-      <c r="K77" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="K77" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L77" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="M77" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="N77" s="14" t="s">
+      <c r="M77" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="N77" s="19" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="78" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
-        <v>991</v>
+        <v>952</v>
       </c>
       <c r="B78" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H78" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I78" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="J78" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L78" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M78" s="9" t="s">
+        <v>408</v>
+      </c>
+      <c r="N78" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>990</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C78" s="4" t="s">
+      <c r="C79" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D78" s="6" t="s">
-        <v>688</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="F78" s="6" t="s">
+      <c r="D79" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="F79" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="G78" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H78" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I78" s="4" t="s">
+      <c r="G79" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H79" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I79" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="J78" s="9" t="s">
-        <v>502</v>
-      </c>
-      <c r="K78" s="9" t="s">
-        <v>541</v>
-      </c>
-      <c r="L78" s="9" t="s">
-        <v>642</v>
-      </c>
-      <c r="M78" s="9" t="s">
+      <c r="J79" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="K79" s="9" t="s">
+        <v>540</v>
+      </c>
+      <c r="L79" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="M79" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="N78" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A79" s="4" t="s">
-        <v>954</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="F79" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="G79" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H79" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I79" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="J79" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="K79" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L79" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M79" s="9" t="s">
-        <v>410</v>
-      </c>
       <c r="N79" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>554</v>
+        <v>4</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>809</v>
+        <v>781</v>
       </c>
       <c r="F80" s="6" t="s">
-        <v>698</v>
+        <v>309</v>
       </c>
       <c r="G80" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H80" s="4" t="s">
+      <c r="H80" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="J80" s="9" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K80" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="L80" s="9" t="s">
-        <v>643</v>
+      <c r="L80" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="M80" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="N80" s="10" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+      <c r="N80" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A81" s="4" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>128</v>
+        <v>55</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>997</v>
+        <v>808</v>
       </c>
       <c r="F81" s="6" t="s">
-        <v>310</v>
+        <v>697</v>
       </c>
       <c r="G81" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H81" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>207</v>
+      <c r="H81" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I81" s="4" t="s">
+        <v>208</v>
       </c>
       <c r="J81" s="9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="K81" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L81" s="9" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="M81" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
-        <v>990</v>
+        <v>955</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>5</v>
+        <v>556</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>14</v>
+        <v>128</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>866</v>
+        <v>996</v>
       </c>
       <c r="F82" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G82" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H82" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I82" s="4" t="s">
-        <v>209</v>
+      <c r="H82" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>207</v>
       </c>
       <c r="J82" s="9" t="s">
-        <v>503</v>
-      </c>
-      <c r="K82" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="K82" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L82" s="9" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="M82" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="N82" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="83" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
-        <v>957</v>
+        <v>989</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>849</v>
+        <v>865</v>
       </c>
       <c r="F83" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G83" s="4" t="s">
         <v>106</v>
@@ -7334,262 +7339,262 @@
         <v>106</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="J83" s="9" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="K83" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L83" s="9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="M83" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="N83" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="84" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:14" ht="145.19999999999999" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>5</v>
+        <v>553</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>443</v>
+        <v>848</v>
       </c>
       <c r="F84" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G84" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H84" s="8" t="s">
+      <c r="H84" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
       <c r="J84" s="9" t="s">
-        <v>505</v>
-      </c>
-      <c r="K84" s="14" t="s">
+        <v>503</v>
+      </c>
+      <c r="K84" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L84" s="9" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="M84" s="9" t="s">
-        <v>415</v>
-      </c>
-      <c r="N84" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="330" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="N84" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>27</v>
+        <v>129</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>867</v>
+        <v>999</v>
       </c>
       <c r="F85" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G85" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H85" s="6" t="s">
+      <c r="H85" s="8" t="s">
         <v>106</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>211</v>
+        <v>106</v>
       </c>
       <c r="J85" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>542</v>
+        <v>504</v>
+      </c>
+      <c r="K85" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L85" s="9" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M85" s="9" t="s">
-        <v>416</v>
-      </c>
-      <c r="N85" s="10" t="s">
-        <v>750</v>
-      </c>
-    </row>
-    <row r="86" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+      <c r="N85" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="330" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>783</v>
+        <v>866</v>
       </c>
       <c r="F86" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G86" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H86" s="6" t="s">
-        <v>718</v>
+        <v>106</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J86" s="9" t="s">
-        <v>506</v>
+        <v>97</v>
       </c>
       <c r="K86" s="9" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="L86" s="9" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="M86" s="9" t="s">
-        <v>681</v>
+        <v>416</v>
       </c>
       <c r="N86" s="10" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
     </row>
     <row r="87" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B87" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>850</v>
+        <v>782</v>
       </c>
       <c r="F87" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G87" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H87" s="4" t="s">
-        <v>106</v>
+      <c r="H87" s="6" t="s">
+        <v>717</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J87" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="K87" s="14" t="s">
-        <v>106</v>
+        <v>505</v>
+      </c>
+      <c r="K87" s="9" t="s">
+        <v>542</v>
       </c>
       <c r="L87" s="9" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="M87" s="9" t="s">
-        <v>417</v>
+        <v>680</v>
       </c>
       <c r="N87" s="10" t="s">
-        <v>106</v>
+        <v>750</v>
       </c>
     </row>
     <row r="88" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
-        <v>989</v>
+        <v>960</v>
       </c>
       <c r="B88" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>5</v>
+        <v>553</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
       <c r="F88" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G88" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H88" s="6" t="s">
+      <c r="H88" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J88" s="9" t="s">
-        <v>507</v>
+        <v>112</v>
       </c>
       <c r="K88" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L88" s="9" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="M88" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="N88" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="290.39999999999998" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+      <c r="N88" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A89" s="4" t="s">
-        <v>962</v>
+        <v>988</v>
       </c>
       <c r="B89" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G89" s="4" t="s">
         <v>106</v>
@@ -7597,28 +7602,28 @@
       <c r="H89" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="I89" s="11" t="s">
-        <v>568</v>
+      <c r="I89" s="4" t="s">
+        <v>214</v>
       </c>
       <c r="J89" s="9" t="s">
-        <v>508</v>
-      </c>
-      <c r="K89" s="9" t="s">
-        <v>544</v>
+        <v>506</v>
+      </c>
+      <c r="K89" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L89" s="9" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="M89" s="9" t="s">
-        <v>419</v>
-      </c>
-      <c r="N89" s="10" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+      <c r="N89" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="290.39999999999998" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B90" s="4" t="s">
         <v>108</v>
@@ -7627,42 +7632,42 @@
         <v>4</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>444</v>
+        <v>850</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G90" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H90" s="6" t="s">
-        <v>719</v>
-      </c>
-      <c r="I90" s="4" t="s">
-        <v>215</v>
+        <v>106</v>
+      </c>
+      <c r="I90" s="11" t="s">
+        <v>567</v>
       </c>
       <c r="J90" s="9" t="s">
-        <v>509</v>
-      </c>
-      <c r="K90" s="10" t="s">
-        <v>106</v>
+        <v>507</v>
+      </c>
+      <c r="K90" s="9" t="s">
+        <v>543</v>
       </c>
       <c r="L90" s="9" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="M90" s="9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N90" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A91" s="4" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B91" s="4" t="s">
         <v>108</v>
@@ -7671,130 +7676,130 @@
         <v>4</v>
       </c>
       <c r="D91" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H91" s="6" t="s">
+        <v>718</v>
+      </c>
+      <c r="I91" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="J91" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L91" s="9" t="s">
+        <v>652</v>
+      </c>
+      <c r="M91" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="N91" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>963</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E91" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="F91" s="6" t="s">
+      <c r="E92" s="2" t="s">
+        <v>795</v>
+      </c>
+      <c r="F92" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="G91" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H91" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I91" s="4" t="s">
+      <c r="G92" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H92" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I92" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="J91" s="9" t="s">
+      <c r="J92" s="9" t="s">
+        <v>509</v>
+      </c>
+      <c r="K92" s="9" t="s">
+        <v>544</v>
+      </c>
+      <c r="L92" s="9" t="s">
+        <v>653</v>
+      </c>
+      <c r="M92" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="N92" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="250.8" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>964</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D93" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G93" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H93" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="I93" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="J93" s="9" t="s">
         <v>510</v>
       </c>
-      <c r="K91" s="9" t="s">
+      <c r="K93" s="9" t="s">
         <v>545</v>
       </c>
-      <c r="L91" s="9" t="s">
+      <c r="L93" s="9" t="s">
         <v>654</v>
       </c>
-      <c r="M91" s="9" t="s">
-        <v>421</v>
-      </c>
-      <c r="N91" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="250.8" x14ac:dyDescent="0.3">
-      <c r="A92" s="4" t="s">
+      <c r="M93" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="N93" s="10" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
         <v>965</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D92" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="F92" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="G92" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H92" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="I92" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="J92" s="9" t="s">
-        <v>511</v>
-      </c>
-      <c r="K92" s="9" t="s">
-        <v>546</v>
-      </c>
-      <c r="L92" s="9" t="s">
-        <v>655</v>
-      </c>
-      <c r="M92" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="N92" s="10" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A93" s="4" t="s">
-        <v>966</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D93" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="F93" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H93" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I93" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="J93" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="K93" s="9" t="s">
-        <v>547</v>
-      </c>
-      <c r="L93" s="9" t="s">
-        <v>656</v>
-      </c>
-      <c r="M93" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="N93" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
-      <c r="A94" s="4" t="s">
-        <v>966</v>
       </c>
       <c r="B94" s="4" t="s">
         <v>108</v>
@@ -7803,86 +7808,86 @@
         <v>4</v>
       </c>
       <c r="D94" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H94" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I94" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="J94" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K94" s="9" t="s">
+        <v>546</v>
+      </c>
+      <c r="L94" s="9" t="s">
+        <v>655</v>
+      </c>
+      <c r="M94" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="N94" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>965</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="F94" s="6" t="s">
+      <c r="E95" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="F95" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="G94" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H94" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I94" s="4" t="s">
+      <c r="G95" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H95" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I95" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="J94" s="9" t="s">
-        <v>512</v>
-      </c>
-      <c r="K94" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L94" s="9" t="s">
-        <v>657</v>
-      </c>
-      <c r="M94" s="9" t="s">
+      <c r="J95" s="9" t="s">
+        <v>511</v>
+      </c>
+      <c r="K95" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L95" s="9" t="s">
+        <v>656</v>
+      </c>
+      <c r="M95" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="N94" s="10" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="132" x14ac:dyDescent="0.3">
-      <c r="A95" s="4" t="s">
-        <v>967</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D95" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="F95" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="G95" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H95" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="I95" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="J95" s="9" t="s">
-        <v>513</v>
-      </c>
-      <c r="K95" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L95" s="9" t="s">
-        <v>658</v>
-      </c>
-      <c r="M95" s="9" t="s">
-        <v>425</v>
-      </c>
       <c r="N95" s="10" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
     </row>
     <row r="96" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B96" s="4" t="s">
         <v>110</v>
@@ -7891,145 +7896,145 @@
         <v>5</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>878</v>
+        <v>851</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G96" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H96" s="6" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="J96" s="9" t="s">
-        <v>880</v>
-      </c>
-      <c r="K96" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="K96" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L96" s="9" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="M96" s="9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N96" s="10" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="132" x14ac:dyDescent="0.3">
       <c r="A97" s="4" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C97" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>870</v>
+        <v>877</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G97" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H97" s="6" t="s">
-        <v>349</v>
+        <v>721</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J97" s="9" t="s">
-        <v>881</v>
-      </c>
-      <c r="K97" s="9" t="s">
-        <v>548</v>
+        <v>879</v>
+      </c>
+      <c r="K97" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L97" s="9" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="M97" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N97" s="10" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B98" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="4" t="s">
-        <v>554</v>
+        <v>5</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G98" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H98" s="6" t="s">
-        <v>106</v>
+        <v>349</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="J98" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="K98" s="10" t="s">
-        <v>106</v>
+        <v>880</v>
+      </c>
+      <c r="K98" s="9" t="s">
+        <v>547</v>
       </c>
       <c r="L98" s="9" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="M98" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="N98" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+      <c r="N98" s="10" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A99" s="4" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B99" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G99" s="4" t="s">
         <v>106</v>
@@ -8038,86 +8043,86 @@
         <v>106</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="J99" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="K99" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="K99" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L99" s="9" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="M99" s="9" t="s">
-        <v>429</v>
-      </c>
-      <c r="N99" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="N99" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B100" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>5</v>
+        <v>553</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>799</v>
+        <v>871</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G100" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H100" s="4" t="s">
+      <c r="H100" s="6" t="s">
         <v>106</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="J100" s="9" t="s">
-        <v>515</v>
-      </c>
-      <c r="K100" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="K100" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L100" s="9" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="M100" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="N100" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A101" s="4" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B101" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C101" s="4" t="s">
-        <v>558</v>
+        <v>5</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>784</v>
+        <v>798</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G101" s="4" t="s">
         <v>106</v>
@@ -8126,86 +8131,86 @@
         <v>106</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="J101" s="9" t="s">
-        <v>516</v>
-      </c>
-      <c r="K101" s="14" t="s">
+        <v>514</v>
+      </c>
+      <c r="K101" s="10" t="s">
         <v>106</v>
       </c>
       <c r="L101" s="9" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="M101" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="N101" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="B102" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>4</v>
+        <v>557</v>
       </c>
       <c r="D102" s="6" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>822</v>
+        <v>783</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G102" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H102" s="6" t="s">
+      <c r="H102" s="4" t="s">
         <v>106</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J102" s="9" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="K102" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L102" s="9" t="s">
-        <v>665</v>
-      </c>
-      <c r="M102" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="N102" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+        <v>663</v>
+      </c>
+      <c r="M102" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="N102" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A103" s="4" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B103" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C103" s="4" t="s">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>873</v>
+        <v>821</v>
       </c>
       <c r="F103" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G103" s="4" t="s">
         <v>106</v>
@@ -8214,19 +8219,19 @@
         <v>106</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>106</v>
+        <v>227</v>
       </c>
       <c r="J103" s="9" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="K103" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L103" s="9" t="s">
-        <v>666</v>
-      </c>
-      <c r="M103" s="9" t="s">
-        <v>432</v>
+        <v>664</v>
+      </c>
+      <c r="M103" s="10" t="s">
+        <v>106</v>
       </c>
       <c r="N103" s="14" t="s">
         <v>106</v>
@@ -8234,22 +8239,22 @@
     </row>
     <row r="104" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B104" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="D104" s="6" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G104" s="4" t="s">
         <v>106</v>
@@ -8258,159 +8263,159 @@
         <v>106</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>228</v>
+        <v>106</v>
       </c>
       <c r="J104" s="9" t="s">
-        <v>519</v>
-      </c>
-      <c r="K104" s="9" t="s">
-        <v>549</v>
+        <v>517</v>
+      </c>
+      <c r="K104" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L104" s="9" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="M104" s="9" t="s">
-        <v>433</v>
-      </c>
-      <c r="N104" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="N104" s="14" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="105" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B105" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>553</v>
+      </c>
+      <c r="D105" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>873</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G105" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H105" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I105" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="J105" s="9" t="s">
+        <v>518</v>
+      </c>
+      <c r="K105" s="9" t="s">
+        <v>548</v>
+      </c>
+      <c r="L105" s="9" t="s">
+        <v>666</v>
+      </c>
+      <c r="M105" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="N105" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>976</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>109</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D105" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="F105" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="G105" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H105" s="18" t="s">
-        <v>350</v>
-      </c>
-      <c r="I105" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="J105" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="K105" s="9" t="s">
-        <v>550</v>
-      </c>
-      <c r="L105" s="9" t="s">
-        <v>668</v>
-      </c>
-      <c r="M105" s="9" t="s">
-        <v>434</v>
-      </c>
-      <c r="N105" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
-      <c r="A106" s="4" t="s">
-        <v>978</v>
-      </c>
-      <c r="B106" s="4" t="s">
-        <v>110</v>
       </c>
       <c r="C106" s="4" t="s">
         <v>5</v>
       </c>
       <c r="D106" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="G106" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H106" s="18" t="s">
+        <v>350</v>
+      </c>
+      <c r="I106" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="J106" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K106" s="9" t="s">
+        <v>549</v>
+      </c>
+      <c r="L106" s="9" t="s">
+        <v>667</v>
+      </c>
+      <c r="M106" s="9" t="s">
+        <v>434</v>
+      </c>
+      <c r="N106" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>977</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="F106" s="6" t="s">
+      <c r="E107" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="F107" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="G106" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H106" s="6" t="s">
+      <c r="G107" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H107" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="I106" s="4" t="s">
+      <c r="I107" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="J106" s="9" t="s">
-        <v>520</v>
-      </c>
-      <c r="K106" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="L106" s="9" t="s">
-        <v>669</v>
-      </c>
-      <c r="M106" s="9" t="s">
+      <c r="J107" s="9" t="s">
+        <v>519</v>
+      </c>
+      <c r="K107" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L107" s="9" t="s">
+        <v>668</v>
+      </c>
+      <c r="M107" s="9" t="s">
         <v>435</v>
       </c>
-      <c r="N106" s="10" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A107" s="4" t="s">
-        <v>979</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D107" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>823</v>
-      </c>
-      <c r="F107" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H107" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="I107" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="J107" s="9" t="s">
-        <v>521</v>
-      </c>
-      <c r="K107" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L107" s="9" t="s">
-        <v>670</v>
-      </c>
-      <c r="M107" s="9" t="s">
-        <v>436</v>
-      </c>
-      <c r="N107" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="N107" s="10" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B108" s="4" t="s">
         <v>108</v>
@@ -8419,57 +8424,57 @@
         <v>4</v>
       </c>
       <c r="D108" s="6" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>800</v>
+        <v>822</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>71</v>
+        <v>336</v>
       </c>
       <c r="G108" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H108" s="4" t="s">
+      <c r="H108" s="8" t="s">
         <v>106</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J108" s="9" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="K108" s="14" t="s">
         <v>106</v>
       </c>
       <c r="L108" s="9" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="M108" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="N108" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+        <v>436</v>
+      </c>
+      <c r="N108" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B109" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C109" s="4" t="s">
-        <v>560</v>
+        <v>4</v>
       </c>
       <c r="D109" s="6" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>877</v>
+        <v>799</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>337</v>
+        <v>71</v>
       </c>
       <c r="G109" s="4" t="s">
         <v>106</v>
@@ -8478,115 +8483,115 @@
         <v>106</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J109" s="9" t="s">
-        <v>523</v>
-      </c>
-      <c r="K109" s="10" t="s">
-        <v>551</v>
+        <v>521</v>
+      </c>
+      <c r="K109" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L109" s="9" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="M109" s="9" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="N109" s="10" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="B110" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="D110" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G110" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H110" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I110" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="J110" s="9" t="s">
+        <v>522</v>
+      </c>
+      <c r="K110" s="10" t="s">
+        <v>550</v>
+      </c>
+      <c r="L110" s="9" t="s">
+        <v>671</v>
+      </c>
+      <c r="M110" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="N110" s="10" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="92.4" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>981</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>551</v>
+      </c>
+      <c r="D111" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>824</v>
-      </c>
-      <c r="F110" s="6" t="s">
+      <c r="E111" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="F111" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="G110" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H110" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I110" s="4" t="s">
+      <c r="G111" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H111" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I111" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="J110" s="9" t="s">
-        <v>524</v>
-      </c>
-      <c r="K110" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L110" s="9" t="s">
-        <v>673</v>
-      </c>
-      <c r="M110" s="9" t="s">
+      <c r="J111" s="9" t="s">
+        <v>523</v>
+      </c>
+      <c r="K111" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L111" s="9" t="s">
+        <v>672</v>
+      </c>
+      <c r="M111" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="N110" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
-      <c r="A111" s="4" t="s">
-        <v>988</v>
-      </c>
-      <c r="B111" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D111" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E111" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="F111" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H111" s="6" t="s">
-        <v>723</v>
-      </c>
-      <c r="I111" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="J111" s="9" t="s">
-        <v>525</v>
-      </c>
-      <c r="K111" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L111" s="10" t="s">
-        <v>674</v>
-      </c>
-      <c r="M111" s="9" t="s">
-        <v>440</v>
-      </c>
       <c r="N111" s="14" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="112" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
-        <v>983</v>
+        <v>987</v>
       </c>
       <c r="B112" s="4" t="s">
         <v>109</v>
@@ -8595,130 +8600,130 @@
         <v>5</v>
       </c>
       <c r="D112" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H112" s="6" t="s">
+        <v>722</v>
+      </c>
+      <c r="I112" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="J112" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="K112" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L112" s="10" t="s">
+        <v>673</v>
+      </c>
+      <c r="M112" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="N112" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>982</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E112" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="F112" s="6" t="s">
+      <c r="E113" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="F113" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="G112" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H112" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="I112" s="4" t="s">
+      <c r="G113" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H113" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I113" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="J112" s="9" t="s">
-        <v>526</v>
-      </c>
-      <c r="K112" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L112" s="10" t="s">
-        <v>675</v>
-      </c>
-      <c r="M112" s="17" t="s">
+      <c r="J113" s="9" t="s">
+        <v>525</v>
+      </c>
+      <c r="K113" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L113" s="10" t="s">
+        <v>674</v>
+      </c>
+      <c r="M113" s="17" t="s">
         <v>440</v>
       </c>
-      <c r="N112" s="10" t="s">
-        <v>759</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
-      <c r="A113" s="4" t="s">
-        <v>984</v>
-      </c>
-      <c r="B113" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="C113" s="4" t="s">
-        <v>554</v>
-      </c>
-      <c r="D113" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="F113" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="G113" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="H113" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I113" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="J113" s="9" t="s">
-        <v>527</v>
-      </c>
-      <c r="K113" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="L113" s="9" t="s">
-        <v>676</v>
-      </c>
-      <c r="M113" s="9" t="s">
-        <v>441</v>
-      </c>
       <c r="N113" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="184.8" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B114" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D114" s="6" t="s">
-        <v>135</v>
+        <v>37</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>811</v>
+        <v>852</v>
       </c>
       <c r="F114" s="6" t="s">
-        <v>699</v>
+        <v>341</v>
       </c>
       <c r="G114" s="4" t="s">
         <v>106</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J114" s="9" t="s">
-        <v>528</v>
-      </c>
-      <c r="K114" s="10" t="s">
-        <v>107</v>
+        <v>526</v>
+      </c>
+      <c r="K114" s="14" t="s">
+        <v>106</v>
       </c>
       <c r="L114" s="9" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="M114" s="9" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="N114" s="10" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="115" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:14" ht="66" x14ac:dyDescent="0.3">
       <c r="A115" s="4" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B115" s="4" t="s">
         <v>108</v>
@@ -8727,77 +8732,121 @@
         <v>553</v>
       </c>
       <c r="D115" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>854</v>
+        <v>810</v>
       </c>
       <c r="F115" s="6" t="s">
-        <v>342</v>
+        <v>698</v>
       </c>
       <c r="G115" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="H115" s="8" t="s">
-        <v>106</v>
+      <c r="H115" s="6" t="s">
+        <v>107</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J115" s="9" t="s">
-        <v>529</v>
-      </c>
-      <c r="K115" s="14" t="s">
-        <v>106</v>
+        <v>527</v>
+      </c>
+      <c r="K115" s="10" t="s">
+        <v>107</v>
       </c>
       <c r="L115" s="9" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="M115" s="9" t="s">
-        <v>442</v>
-      </c>
-      <c r="N115" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A116" s="16" t="s">
-        <v>987</v>
+        <v>359</v>
+      </c>
+      <c r="N115" s="10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>985</v>
       </c>
       <c r="B116" s="4" t="s">
         <v>108</v>
       </c>
       <c r="C116" s="4" t="s">
-        <v>561</v>
-      </c>
-      <c r="D116" s="15" t="s">
-        <v>689</v>
+        <v>552</v>
+      </c>
+      <c r="D116" s="6" t="s">
+        <v>136</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>998</v>
-      </c>
-      <c r="F116" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="H116" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="I116" s="16" t="s">
-        <v>569</v>
-      </c>
-      <c r="J116" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="K116" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="L116" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="M116" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="N116" s="20" t="s">
+        <v>853</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G116" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="H116" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="I116" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J116" s="9" t="s">
+        <v>528</v>
+      </c>
+      <c r="K116" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="L116" s="9" t="s">
+        <v>677</v>
+      </c>
+      <c r="M116" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="N116" s="14" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A117" s="16" t="s">
+        <v>986</v>
+      </c>
+      <c r="B117" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="D117" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>997</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H117" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="I117" s="16" t="s">
+        <v>568</v>
+      </c>
+      <c r="J117" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K117" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="L117" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="M117" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="N117" s="20" t="s">
         <v>106</v>
       </c>
     </row>
@@ -8829,36 +8878,36 @@
     <hyperlink ref="E45" r:id="rId23" xr:uid="{E6907F0E-8A63-42E5-881D-83BE98378391}"/>
     <hyperlink ref="E47" r:id="rId24" xr:uid="{BF819DDD-F33C-4323-B234-FA5AEFEBF540}"/>
     <hyperlink ref="E49" r:id="rId25" xr:uid="{B4631102-EF86-443A-975E-E151B867331C}"/>
-    <hyperlink ref="E51" r:id="rId26" xr:uid="{D0C8995E-2389-436D-96F9-0ECFED635D2D}"/>
-    <hyperlink ref="E55" r:id="rId27" xr:uid="{D60F983F-3A4A-4B45-A5A9-1CBD13CCBAB1}"/>
-    <hyperlink ref="E57" r:id="rId28" xr:uid="{DDB2A0FD-936A-490E-BE1E-1762A651B20C}"/>
-    <hyperlink ref="E61" r:id="rId29" xr:uid="{5E732335-693B-490D-844A-64351A2B11C7}"/>
-    <hyperlink ref="E63" r:id="rId30" xr:uid="{B032BBB6-4D16-4E33-A3F0-D7039E10D767}"/>
-    <hyperlink ref="E65" r:id="rId31" xr:uid="{C71F9231-ACA2-46E1-BE2F-462475789CDA}"/>
-    <hyperlink ref="E67" r:id="rId32" xr:uid="{6DAF2527-3F52-4351-90EE-F788A7836287}"/>
-    <hyperlink ref="E69" r:id="rId33" xr:uid="{C213B07F-FB90-4578-BA40-CB5277C5E9F8}"/>
-    <hyperlink ref="E71" r:id="rId34" xr:uid="{B6B3C0BC-449F-4D5F-8991-2960BC1E1B95}"/>
-    <hyperlink ref="E73" r:id="rId35" xr:uid="{12F3E568-1027-43BC-89EA-C5D4D2C3F3B1}"/>
-    <hyperlink ref="E75" r:id="rId36" xr:uid="{9BCFDA15-C8D8-41F6-B5C1-8DB9E3F54F38}"/>
-    <hyperlink ref="E77" r:id="rId37" xr:uid="{5074351A-0735-4679-AE99-F1F491EAD66F}"/>
-    <hyperlink ref="E79" r:id="rId38" xr:uid="{797A27FB-9286-43BA-A3D3-06E0B7DF57C7}"/>
-    <hyperlink ref="E81" r:id="rId39" xr:uid="{E22D4C78-609C-4F6C-902E-67DDEA2AEC08}"/>
-    <hyperlink ref="E83" r:id="rId40" xr:uid="{689543FA-D772-478F-B75B-353A8D5F5A0F}"/>
-    <hyperlink ref="E85" r:id="rId41" xr:uid="{6F1B4F40-1347-45F9-B0B9-89687F77E0B0}"/>
-    <hyperlink ref="E87" r:id="rId42" xr:uid="{269A95A2-A318-4245-8364-07E925D041A6}"/>
-    <hyperlink ref="E89" r:id="rId43" xr:uid="{BC5C79FD-42B9-4F63-B259-53ADA917C149}"/>
-    <hyperlink ref="E91" r:id="rId44" xr:uid="{F219C840-96AC-40EA-9D7B-C09CBA360D2A}"/>
-    <hyperlink ref="E93" r:id="rId45" xr:uid="{E85B62E0-66A6-4BDE-AB82-B3F3885FF25D}"/>
-    <hyperlink ref="E95" r:id="rId46" xr:uid="{F685C903-F46A-4AEA-A4B6-30F5F5C38E02}"/>
-    <hyperlink ref="E97" r:id="rId47" xr:uid="{34A32507-5178-4AE2-8923-C76F8834EAC3}"/>
-    <hyperlink ref="E99" r:id="rId48" xr:uid="{316F114E-DC59-4C12-AAE4-7C561A6A4A37}"/>
-    <hyperlink ref="E101" r:id="rId49" xr:uid="{E6C4E1E9-ADFC-463C-BA35-72BF5470C0FC}"/>
-    <hyperlink ref="E103" r:id="rId50" xr:uid="{5C2E1F62-17AE-4C61-86CF-CFAADD48E3DA}"/>
-    <hyperlink ref="E105" r:id="rId51" xr:uid="{EB2D28AA-5611-4D14-B6D8-65655568052B}"/>
-    <hyperlink ref="E107" r:id="rId52" xr:uid="{1A1FF6C3-6CA4-4205-87F4-FFA4C505FE05}"/>
-    <hyperlink ref="E109" r:id="rId53" xr:uid="{D5F8DE7D-9A2E-4EB2-AD3E-1B6347BBB03A}"/>
-    <hyperlink ref="E113" r:id="rId54" xr:uid="{F52A7ADE-923C-4FC0-835C-C78BE5475FD1}"/>
-    <hyperlink ref="E115" r:id="rId55" xr:uid="{88BB9B9A-193B-430A-8A94-9996D9F8B858}"/>
+    <hyperlink ref="E52" r:id="rId26" xr:uid="{D0C8995E-2389-436D-96F9-0ECFED635D2D}"/>
+    <hyperlink ref="E56" r:id="rId27" xr:uid="{D60F983F-3A4A-4B45-A5A9-1CBD13CCBAB1}"/>
+    <hyperlink ref="E58" r:id="rId28" xr:uid="{DDB2A0FD-936A-490E-BE1E-1762A651B20C}"/>
+    <hyperlink ref="E62" r:id="rId29" xr:uid="{5E732335-693B-490D-844A-64351A2B11C7}"/>
+    <hyperlink ref="E64" r:id="rId30" xr:uid="{B032BBB6-4D16-4E33-A3F0-D7039E10D767}"/>
+    <hyperlink ref="E66" r:id="rId31" xr:uid="{C71F9231-ACA2-46E1-BE2F-462475789CDA}"/>
+    <hyperlink ref="E68" r:id="rId32" xr:uid="{6DAF2527-3F52-4351-90EE-F788A7836287}"/>
+    <hyperlink ref="E70" r:id="rId33" xr:uid="{C213B07F-FB90-4578-BA40-CB5277C5E9F8}"/>
+    <hyperlink ref="E72" r:id="rId34" xr:uid="{B6B3C0BC-449F-4D5F-8991-2960BC1E1B95}"/>
+    <hyperlink ref="E74" r:id="rId35" xr:uid="{12F3E568-1027-43BC-89EA-C5D4D2C3F3B1}"/>
+    <hyperlink ref="E76" r:id="rId36" xr:uid="{9BCFDA15-C8D8-41F6-B5C1-8DB9E3F54F38}"/>
+    <hyperlink ref="E78" r:id="rId37" xr:uid="{5074351A-0735-4679-AE99-F1F491EAD66F}"/>
+    <hyperlink ref="E80" r:id="rId38" xr:uid="{797A27FB-9286-43BA-A3D3-06E0B7DF57C7}"/>
+    <hyperlink ref="E82" r:id="rId39" xr:uid="{E22D4C78-609C-4F6C-902E-67DDEA2AEC08}"/>
+    <hyperlink ref="E84" r:id="rId40" xr:uid="{689543FA-D772-478F-B75B-353A8D5F5A0F}"/>
+    <hyperlink ref="E86" r:id="rId41" xr:uid="{6F1B4F40-1347-45F9-B0B9-89687F77E0B0}"/>
+    <hyperlink ref="E88" r:id="rId42" xr:uid="{269A95A2-A318-4245-8364-07E925D041A6}"/>
+    <hyperlink ref="E90" r:id="rId43" xr:uid="{BC5C79FD-42B9-4F63-B259-53ADA917C149}"/>
+    <hyperlink ref="E92" r:id="rId44" xr:uid="{F219C840-96AC-40EA-9D7B-C09CBA360D2A}"/>
+    <hyperlink ref="E94" r:id="rId45" xr:uid="{E85B62E0-66A6-4BDE-AB82-B3F3885FF25D}"/>
+    <hyperlink ref="E96" r:id="rId46" xr:uid="{F685C903-F46A-4AEA-A4B6-30F5F5C38E02}"/>
+    <hyperlink ref="E98" r:id="rId47" xr:uid="{34A32507-5178-4AE2-8923-C76F8834EAC3}"/>
+    <hyperlink ref="E100" r:id="rId48" xr:uid="{316F114E-DC59-4C12-AAE4-7C561A6A4A37}"/>
+    <hyperlink ref="E102" r:id="rId49" xr:uid="{E6C4E1E9-ADFC-463C-BA35-72BF5470C0FC}"/>
+    <hyperlink ref="E104" r:id="rId50" xr:uid="{5C2E1F62-17AE-4C61-86CF-CFAADD48E3DA}"/>
+    <hyperlink ref="E106" r:id="rId51" xr:uid="{EB2D28AA-5611-4D14-B6D8-65655568052B}"/>
+    <hyperlink ref="E108" r:id="rId52" xr:uid="{1A1FF6C3-6CA4-4205-87F4-FFA4C505FE05}"/>
+    <hyperlink ref="E110" r:id="rId53" xr:uid="{D5F8DE7D-9A2E-4EB2-AD3E-1B6347BBB03A}"/>
+    <hyperlink ref="E114" r:id="rId54" xr:uid="{F52A7ADE-923C-4FC0-835C-C78BE5475FD1}"/>
+    <hyperlink ref="E116" r:id="rId55" xr:uid="{88BB9B9A-193B-430A-8A94-9996D9F8B858}"/>
     <hyperlink ref="E5" r:id="rId56" xr:uid="{673B2D9E-5CEE-40DD-A0A2-66025584E8C2}"/>
     <hyperlink ref="E7" r:id="rId57" xr:uid="{20202916-CECB-497F-BB8D-D7E09DCEC193}"/>
     <hyperlink ref="E9" r:id="rId58" xr:uid="{E7773CE7-BD5F-4624-B940-0E795B4A4E30}"/>
@@ -8881,383 +8930,385 @@
     <hyperlink ref="E46" r:id="rId75" xr:uid="{D722AC52-912D-4A3F-8560-FAA4DCA60A56}"/>
     <hyperlink ref="E48" r:id="rId76" xr:uid="{6ED9D463-8E32-4780-942A-C1EC9D07542B}"/>
     <hyperlink ref="E50" r:id="rId77" xr:uid="{FAAE2569-D069-46B3-A7AA-6969338A4AFF}"/>
-    <hyperlink ref="E52" r:id="rId78" xr:uid="{919767C3-0A6A-4A63-9549-0F7B3A7EE7DF}"/>
-    <hyperlink ref="E54" r:id="rId79" xr:uid="{BD76B93C-ACC1-4CF1-A623-39E4FAFED853}"/>
-    <hyperlink ref="E56" r:id="rId80" xr:uid="{7964589D-7453-4997-AC7B-F98F5B5B7029}"/>
-    <hyperlink ref="E58" r:id="rId81" xr:uid="{F72D2D0A-AD07-45DC-AA3D-223C36C995AB}"/>
-    <hyperlink ref="E60" r:id="rId82" xr:uid="{D79CAE5D-C5B6-4B75-8261-008B5374EBDB}"/>
-    <hyperlink ref="E62" r:id="rId83" xr:uid="{75C81E45-FAA6-4175-A2FE-BA7C7F71F6F3}"/>
-    <hyperlink ref="E66" r:id="rId84" xr:uid="{F199289C-0CB7-41CD-95E9-D9C97B86A7E7}"/>
-    <hyperlink ref="E68" r:id="rId85" xr:uid="{E4715AC6-7D6D-4434-A585-79B8F25233F6}"/>
-    <hyperlink ref="E70" r:id="rId86" xr:uid="{CFD1BDC4-A848-4998-9430-C29DB079EED4}"/>
-    <hyperlink ref="E72" r:id="rId87" xr:uid="{DEC62E70-AB7A-4365-B90A-11A1D549F375}"/>
-    <hyperlink ref="E74" r:id="rId88" xr:uid="{A925F566-676A-47EA-9068-3A8AC9C78A71}"/>
-    <hyperlink ref="E76" r:id="rId89" xr:uid="{826BB4FF-EF4E-4C68-AE45-B4C9CEE10FB5}"/>
-    <hyperlink ref="E78" r:id="rId90" xr:uid="{D55B186E-0A96-4185-9D34-01F9C47E843E}"/>
-    <hyperlink ref="E80" r:id="rId91" xr:uid="{AC60663B-FB99-47D2-A9DA-11C43648559B}"/>
-    <hyperlink ref="E82" r:id="rId92" xr:uid="{F83899A5-222C-48AC-9ABC-BC254C3600A8}"/>
-    <hyperlink ref="E84" r:id="rId93" display="https://placehold.co/400x600" xr:uid="{2EE015AD-95D3-42D3-9727-0C2D20C22B2D}"/>
-    <hyperlink ref="E86" r:id="rId94" xr:uid="{1E9351A5-5685-4A61-91E2-9C72A14FBA45}"/>
-    <hyperlink ref="E88" r:id="rId95" xr:uid="{DA14C2E4-99E6-4273-B1C6-88E4314A2B53}"/>
-    <hyperlink ref="E90" r:id="rId96" display="https://placehold.co/400x600" xr:uid="{CED33FAF-E705-4A0E-B5BA-28AC459A08F9}"/>
-    <hyperlink ref="E92" r:id="rId97" xr:uid="{69683834-3F44-4B9E-879F-17C7B3985064}"/>
-    <hyperlink ref="E94" r:id="rId98" xr:uid="{6706B29D-6B9E-414D-A766-C429245D96A7}"/>
-    <hyperlink ref="E96" r:id="rId99" xr:uid="{B8549196-6B30-41D5-B870-CDF1F6C0AE2B}"/>
-    <hyperlink ref="E98" r:id="rId100" xr:uid="{70722206-091E-437D-B026-345C8CDB5176}"/>
-    <hyperlink ref="E100" r:id="rId101" xr:uid="{EF057E02-0A38-4475-84BA-2BC1ED64BA7D}"/>
-    <hyperlink ref="E102" r:id="rId102" xr:uid="{F307B800-2CAD-4E08-A635-F4AD9976A897}"/>
-    <hyperlink ref="E104" r:id="rId103" xr:uid="{42F0B609-7315-4192-A377-FDEDE5FDDF8B}"/>
-    <hyperlink ref="E106" r:id="rId104" xr:uid="{0BBF4990-1413-476C-AFE7-EC34A9F113B0}"/>
-    <hyperlink ref="E108" r:id="rId105" xr:uid="{43D0B648-1D21-45A3-A6E9-CB546100DAA2}"/>
-    <hyperlink ref="E110" r:id="rId106" xr:uid="{3BF79D70-269C-4AB5-B83F-712DABFF4480}"/>
-    <hyperlink ref="E112" r:id="rId107" xr:uid="{622A2536-A959-42B4-B4F9-EE23F2A44517}"/>
-    <hyperlink ref="E114" r:id="rId108" xr:uid="{7690046C-47D4-4A7B-8DBE-6704DCCAE9C8}"/>
-    <hyperlink ref="J71" r:id="rId109" display="https://www.linkedin.com/in/dr-nilay-patel-106bab14/" xr:uid="{B2E17E23-9358-429B-BBF9-5EE4C8E363CB}"/>
-    <hyperlink ref="J82" r:id="rId110" display="https://www.linkedin.com/in/poonam-thanki-b112a6a2/" xr:uid="{BB16F397-78CE-4DBD-8BE4-13D65525672B}"/>
-    <hyperlink ref="J56" r:id="rId111" display="https://www.linkedin.com/in/dr-manthan-s-manavadaria-2a222219/" xr:uid="{4954A101-EA09-4BF1-8202-A72F86653038}"/>
+    <hyperlink ref="E53" r:id="rId78" xr:uid="{919767C3-0A6A-4A63-9549-0F7B3A7EE7DF}"/>
+    <hyperlink ref="E55" r:id="rId79" xr:uid="{BD76B93C-ACC1-4CF1-A623-39E4FAFED853}"/>
+    <hyperlink ref="E57" r:id="rId80" xr:uid="{7964589D-7453-4997-AC7B-F98F5B5B7029}"/>
+    <hyperlink ref="E59" r:id="rId81" xr:uid="{F72D2D0A-AD07-45DC-AA3D-223C36C995AB}"/>
+    <hyperlink ref="E61" r:id="rId82" xr:uid="{D79CAE5D-C5B6-4B75-8261-008B5374EBDB}"/>
+    <hyperlink ref="E63" r:id="rId83" xr:uid="{75C81E45-FAA6-4175-A2FE-BA7C7F71F6F3}"/>
+    <hyperlink ref="E67" r:id="rId84" xr:uid="{F199289C-0CB7-41CD-95E9-D9C97B86A7E7}"/>
+    <hyperlink ref="E69" r:id="rId85" xr:uid="{E4715AC6-7D6D-4434-A585-79B8F25233F6}"/>
+    <hyperlink ref="E71" r:id="rId86" xr:uid="{CFD1BDC4-A848-4998-9430-C29DB079EED4}"/>
+    <hyperlink ref="E73" r:id="rId87" xr:uid="{DEC62E70-AB7A-4365-B90A-11A1D549F375}"/>
+    <hyperlink ref="E75" r:id="rId88" xr:uid="{A925F566-676A-47EA-9068-3A8AC9C78A71}"/>
+    <hyperlink ref="E77" r:id="rId89" xr:uid="{826BB4FF-EF4E-4C68-AE45-B4C9CEE10FB5}"/>
+    <hyperlink ref="E79" r:id="rId90" xr:uid="{D55B186E-0A96-4185-9D34-01F9C47E843E}"/>
+    <hyperlink ref="E81" r:id="rId91" xr:uid="{AC60663B-FB99-47D2-A9DA-11C43648559B}"/>
+    <hyperlink ref="E83" r:id="rId92" xr:uid="{F83899A5-222C-48AC-9ABC-BC254C3600A8}"/>
+    <hyperlink ref="E85" r:id="rId93" xr:uid="{2EE015AD-95D3-42D3-9727-0C2D20C22B2D}"/>
+    <hyperlink ref="E87" r:id="rId94" xr:uid="{1E9351A5-5685-4A61-91E2-9C72A14FBA45}"/>
+    <hyperlink ref="E89" r:id="rId95" xr:uid="{DA14C2E4-99E6-4273-B1C6-88E4314A2B53}"/>
+    <hyperlink ref="E91" r:id="rId96" display="https://placehold.co/400x600" xr:uid="{CED33FAF-E705-4A0E-B5BA-28AC459A08F9}"/>
+    <hyperlink ref="E93" r:id="rId97" xr:uid="{69683834-3F44-4B9E-879F-17C7B3985064}"/>
+    <hyperlink ref="E95" r:id="rId98" xr:uid="{6706B29D-6B9E-414D-A766-C429245D96A7}"/>
+    <hyperlink ref="E97" r:id="rId99" xr:uid="{B8549196-6B30-41D5-B870-CDF1F6C0AE2B}"/>
+    <hyperlink ref="E99" r:id="rId100" xr:uid="{70722206-091E-437D-B026-345C8CDB5176}"/>
+    <hyperlink ref="E101" r:id="rId101" xr:uid="{EF057E02-0A38-4475-84BA-2BC1ED64BA7D}"/>
+    <hyperlink ref="E103" r:id="rId102" xr:uid="{F307B800-2CAD-4E08-A635-F4AD9976A897}"/>
+    <hyperlink ref="E105" r:id="rId103" xr:uid="{42F0B609-7315-4192-A377-FDEDE5FDDF8B}"/>
+    <hyperlink ref="E107" r:id="rId104" xr:uid="{0BBF4990-1413-476C-AFE7-EC34A9F113B0}"/>
+    <hyperlink ref="E109" r:id="rId105" xr:uid="{43D0B648-1D21-45A3-A6E9-CB546100DAA2}"/>
+    <hyperlink ref="E111" r:id="rId106" xr:uid="{3BF79D70-269C-4AB5-B83F-712DABFF4480}"/>
+    <hyperlink ref="E113" r:id="rId107" xr:uid="{622A2536-A959-42B4-B4F9-EE23F2A44517}"/>
+    <hyperlink ref="E115" r:id="rId108" xr:uid="{7690046C-47D4-4A7B-8DBE-6704DCCAE9C8}"/>
+    <hyperlink ref="J72" r:id="rId109" display="https://www.linkedin.com/in/dr-nilay-patel-106bab14/" xr:uid="{B2E17E23-9358-429B-BBF9-5EE4C8E363CB}"/>
+    <hyperlink ref="J83" r:id="rId110" display="https://www.linkedin.com/in/poonam-thanki-b112a6a2/" xr:uid="{BB16F397-78CE-4DBD-8BE4-13D65525672B}"/>
+    <hyperlink ref="J57" r:id="rId111" display="https://www.linkedin.com/in/dr-manthan-s-manavadaria-2a222219/" xr:uid="{4954A101-EA09-4BF1-8202-A72F86653038}"/>
     <hyperlink ref="J18" r:id="rId112" display="https://www.linkedin.com/in/bhavin-mehta-86b47795/" xr:uid="{DB7D7CE8-51EF-48EE-BFBF-A021321BDC5F}"/>
     <hyperlink ref="J48" r:id="rId113" display="https://www.linkedin.com/in/dr-kanwar-preet-kaur-bamrah-64a3a221/" xr:uid="{53166117-8C5A-4AB4-89B7-C2E8B83BC5A5}"/>
-    <hyperlink ref="J91" r:id="rId114" display="https://www.linkedin.com/in/rikita-chokshi-44bb65263/" xr:uid="{184885D3-531C-43E9-853D-5C2EAF6E7696}"/>
-    <hyperlink ref="J105" r:id="rId115" xr:uid="{FBE16C58-F91B-4934-8550-681C7F68CFE1}"/>
-    <hyperlink ref="J67" r:id="rId116" display="https://www.linkedin.com/in/mrugendrasinh-rahevar/" xr:uid="{F0663F50-387A-4315-8A34-03206888175F}"/>
-    <hyperlink ref="J90" r:id="rId117" display="https://www.linkedin.com/in/ravi-patel-13686b19/" xr:uid="{FC6DE30F-2E95-4AA2-B879-8CEAD23CEEC4}"/>
-    <hyperlink ref="J94" r:id="rId118" display="https://www.linkedin.com/in/ronak-patel-63663613a/" xr:uid="{EB8CC283-1781-41D5-BE2D-3C04AED15B01}"/>
+    <hyperlink ref="J92" r:id="rId114" display="https://www.linkedin.com/in/rikita-chokshi-44bb65263/" xr:uid="{184885D3-531C-43E9-853D-5C2EAF6E7696}"/>
+    <hyperlink ref="J106" r:id="rId115" xr:uid="{FBE16C58-F91B-4934-8550-681C7F68CFE1}"/>
+    <hyperlink ref="J68" r:id="rId116" display="https://www.linkedin.com/in/mrugendrasinh-rahevar/" xr:uid="{F0663F50-387A-4315-8A34-03206888175F}"/>
+    <hyperlink ref="J91" r:id="rId117" display="https://www.linkedin.com/in/ravi-patel-13686b19/" xr:uid="{FC6DE30F-2E95-4AA2-B879-8CEAD23CEEC4}"/>
+    <hyperlink ref="J95" r:id="rId118" display="https://www.linkedin.com/in/ronak-patel-63663613a/" xr:uid="{EB8CC283-1781-41D5-BE2D-3C04AED15B01}"/>
     <hyperlink ref="J49" r:id="rId119" display="https://www.linkedin.com/in/dr-kawaljitsingh-randhawa-96816064/" xr:uid="{4AE0FF76-EF4F-45C3-A542-A7D876A7DA2C}"/>
     <hyperlink ref="J19" r:id="rId120" display="http://linkedin.com/in/bimal-patel-b7504849" xr:uid="{B02CE38D-7D41-45E6-8D0A-5F0FCF595503}"/>
-    <hyperlink ref="J70" r:id="rId121" display="https://www.linkedin.com/in/nikita-bhatt-ce/?originalSubdomain=in" xr:uid="{9EC6AE06-F884-4149-B7FC-88140006B7F4}"/>
+    <hyperlink ref="J71" r:id="rId121" display="https://www.linkedin.com/in/nikita-bhatt-ce/?originalSubdomain=in" xr:uid="{9EC6AE06-F884-4149-B7FC-88140006B7F4}"/>
     <hyperlink ref="J23" r:id="rId122" display="https://www.linkedin.com/in/deep-kothadiya-phd-70983a86/" xr:uid="{8691FEB4-6E3B-4049-9588-FC79EAF0F2EC}"/>
-    <hyperlink ref="J77" r:id="rId123" display="https://www.linkedin.com/in/parmanand-patel-1269016b/" xr:uid="{53EDE3BB-D85D-4DAD-A587-55DA1C805D27}"/>
-    <hyperlink ref="J51" r:id="rId124" display="https://www.linkedin.com/in/krunal-maheriya-aba5681a1/" xr:uid="{9D29078E-A414-4A64-86B1-F77733FF0F8A}"/>
-    <hyperlink ref="J85" r:id="rId125" xr:uid="{21E8E151-1B01-486F-A7D7-4BE4F0BC0B27}"/>
+    <hyperlink ref="J78" r:id="rId123" display="https://www.linkedin.com/in/parmanand-patel-1269016b/" xr:uid="{53EDE3BB-D85D-4DAD-A587-55DA1C805D27}"/>
+    <hyperlink ref="J52" r:id="rId124" display="https://www.linkedin.com/in/krunal-maheriya-aba5681a1/" xr:uid="{9D29078E-A414-4A64-86B1-F77733FF0F8A}"/>
+    <hyperlink ref="J86" r:id="rId125" xr:uid="{21E8E151-1B01-486F-A7D7-4BE4F0BC0B27}"/>
     <hyperlink ref="J35" r:id="rId126" display="https://www.linkedin.com/in/dr-hardik-modi-181035b/" xr:uid="{F7F908AF-23C0-42F7-8AFE-DF52AF52580B}"/>
     <hyperlink ref="J14" r:id="rId127" display="http://hlinkedin.com/in/dr-ashwin-makwana-9a6688112" xr:uid="{3D2F3A09-18C9-4E22-B6FA-494330FEF01E}"/>
-    <hyperlink ref="J79" r:id="rId128" xr:uid="{4DA1EB91-0A15-4D6C-9213-F6D1EE675204}"/>
+    <hyperlink ref="J80" r:id="rId128" xr:uid="{4DA1EB91-0A15-4D6C-9213-F6D1EE675204}"/>
     <hyperlink ref="J17" r:id="rId129" xr:uid="{8E63BCC9-6C05-45B8-8789-EBB4905292F2}"/>
     <hyperlink ref="J34" r:id="rId130" display="https://www.linkedin.com/in/gaurav-kumar1582/" xr:uid="{BF49CFFA-7535-44BB-8F9A-67BEFFD957B6}"/>
     <hyperlink ref="J29" r:id="rId131" display="https://www.linkedin.com/in/dhaval-patel-481b0885/" xr:uid="{5704F17D-173C-4E5E-89CF-B8F7987D86F5}"/>
-    <hyperlink ref="J76" r:id="rId132" display="https://www.linkedin.com/me?trk=p_mwlite_profile_self-secondary_nav" xr:uid="{6148FF48-4942-4818-844D-79919D56DB98}"/>
-    <hyperlink ref="J66" r:id="rId133" display="https://www.linkedin.com/in/dr-miral-desai-245448a2/" xr:uid="{D2BE1269-3E17-415C-B581-A936373A624C}"/>
+    <hyperlink ref="J77" r:id="rId132" display="https://www.linkedin.com/me?trk=p_mwlite_profile_self-secondary_nav" xr:uid="{6148FF48-4942-4818-844D-79919D56DB98}"/>
+    <hyperlink ref="J67" r:id="rId133" display="https://www.linkedin.com/in/dr-miral-desai-245448a2/" xr:uid="{D2BE1269-3E17-415C-B581-A936373A624C}"/>
     <hyperlink ref="J31" r:id="rId134" display="https://www.linkedin.com/in/gajanan-patange-05ba2219/overlay/about-this-profile/?lipi=urn%3Ali%3Apage%3Ad_flagship3_profile_view_base%3BEvV8mS8jTpy2mGfBhro1og%3D%3D" xr:uid="{CDEEC399-875E-4DDA-A567-6EFC42A0F87E}"/>
-    <hyperlink ref="J113" r:id="rId135" display="https://www.linkedin.com/in/vikas-panchal-873277251/" xr:uid="{A3606037-07FB-4104-B411-BA37A6E2F3CA}"/>
-    <hyperlink ref="J100" r:id="rId136" display="https://www.linkedin.com/in/sneha-padhiar-4aaa17146/" xr:uid="{8CF4272D-E96D-4E1C-80AD-5D3F2F554C53}"/>
+    <hyperlink ref="J114" r:id="rId135" display="https://www.linkedin.com/in/vikas-panchal-873277251/" xr:uid="{A3606037-07FB-4104-B411-BA37A6E2F3CA}"/>
+    <hyperlink ref="J101" r:id="rId136" display="https://www.linkedin.com/in/sneha-padhiar-4aaa17146/" xr:uid="{8CF4272D-E96D-4E1C-80AD-5D3F2F554C53}"/>
     <hyperlink ref="J37" r:id="rId137" display="https://www.linkedin.com/in/harshul-yagnik-81a6a022/" xr:uid="{683E4E91-B763-4226-99B6-F3E30837AD4B}"/>
     <hyperlink ref="J21" r:id="rId138" display="https://www.linkedin.com/in/brinda-patel-652073252" xr:uid="{791133CF-E0A2-4B6D-8618-AC19B4D3A9FA}"/>
     <hyperlink ref="J28" r:id="rId139" xr:uid="{F8104DB3-2B23-47B7-B622-17690E08D84A}"/>
-    <hyperlink ref="J96" r:id="rId140" xr:uid="{B357E631-0C5E-406B-9B45-A421DE003AD4}"/>
-    <hyperlink ref="J69" r:id="rId141" display="http://www.linkedin.com/in/neha-chauhan22" xr:uid="{E7A9417A-8B16-4D59-A23C-B258564D85D5}"/>
+    <hyperlink ref="J97" r:id="rId140" xr:uid="{B357E631-0C5E-406B-9B45-A421DE003AD4}"/>
+    <hyperlink ref="J70" r:id="rId141" display="http://www.linkedin.com/in/neha-chauhan22" xr:uid="{E7A9417A-8B16-4D59-A23C-B258564D85D5}"/>
     <hyperlink ref="J22" r:id="rId142" xr:uid="{895691E5-0B23-47DD-9A36-18923B4FD652}"/>
     <hyperlink ref="J38" r:id="rId143" display="https://www.linkedin.com/public-profile/settings?trk=d_flagship3_profile_self_view_public_profile" xr:uid="{E4C32594-CCCB-41B2-AE51-AE67F83944BE}"/>
     <hyperlink ref="J41" r:id="rId144" display="https://www.linkedin.com/in/jalpa-ardeshana-381496b7/" xr:uid="{67C7A4AD-28FD-4291-92FB-A9C4AA0671B4}"/>
-    <hyperlink ref="J101" r:id="rId145" display="https://www.linkedin.com/in/dr-spoorthy-v-10ab3813a/" xr:uid="{EDA5921D-C45B-4D8B-B9FA-3205F4F396D6}"/>
+    <hyperlink ref="J102" r:id="rId145" display="https://www.linkedin.com/in/dr-spoorthy-v-10ab3813a/" xr:uid="{EDA5921D-C45B-4D8B-B9FA-3205F4F396D6}"/>
     <hyperlink ref="J24" r:id="rId146" display="https://www.linkedin.com/in/dhara-patel-839488138" xr:uid="{27C9FC8C-0A44-49AE-8688-8690C8579833}"/>
     <hyperlink ref="J26" r:id="rId147" display="https://www.linkedin.com/in/dharmendrasinh-chauhan-073a491a4/" xr:uid="{D50E69C7-4F51-4D1B-90EC-FE9F9A44906E}"/>
-    <hyperlink ref="J89" r:id="rId148" display="https://www.linkedin.com/in/rajnik-katriya/" xr:uid="{3AEC1C40-35D9-4AE3-A7E8-9E58FA2C8E43}"/>
-    <hyperlink ref="J97" r:id="rId149" xr:uid="{6137F2DC-1F93-4037-B861-A959BDB6DCE6}"/>
-    <hyperlink ref="J52" r:id="rId150" display="http://www.linkedin.com/in/kundan-patel-b9508b27b" xr:uid="{D4BB537A-7CA1-4F2B-9985-F5921034561E}"/>
-    <hyperlink ref="J80" r:id="rId151" xr:uid="{BFFCC995-B6DF-474C-93AA-BDF180E05422}"/>
-    <hyperlink ref="J110" r:id="rId152" display="https://www.linkedin.com/in/vidisha-pradhan-733a1b63/" xr:uid="{06E43119-E5BC-45C4-9126-F192D3006C5B}"/>
+    <hyperlink ref="J90" r:id="rId148" display="https://www.linkedin.com/in/rajnik-katriya/" xr:uid="{3AEC1C40-35D9-4AE3-A7E8-9E58FA2C8E43}"/>
+    <hyperlink ref="J98" r:id="rId149" xr:uid="{6137F2DC-1F93-4037-B861-A959BDB6DCE6}"/>
+    <hyperlink ref="J53" r:id="rId150" display="http://www.linkedin.com/in/kundan-patel-b9508b27b" xr:uid="{D4BB537A-7CA1-4F2B-9985-F5921034561E}"/>
+    <hyperlink ref="J81" r:id="rId151" xr:uid="{BFFCC995-B6DF-474C-93AA-BDF180E05422}"/>
+    <hyperlink ref="J111" r:id="rId152" display="https://www.linkedin.com/in/vidisha-pradhan-733a1b63/" xr:uid="{06E43119-E5BC-45C4-9126-F192D3006C5B}"/>
     <hyperlink ref="J27" r:id="rId153" display="https://www.linkedin.com/in/dharmendrasinh-rathod-4482a2a4/" xr:uid="{3BDD0888-FF6F-403B-8A93-FD5176D0DA38}"/>
-    <hyperlink ref="J53" r:id="rId154" display="http://www.linkedin.com/in/madhav-oza-60bb5650" xr:uid="{24641904-0D92-4561-9EC0-14DC5197E375}"/>
+    <hyperlink ref="J54" r:id="rId154" display="http://www.linkedin.com/in/madhav-oza-60bb5650" xr:uid="{24641904-0D92-4561-9EC0-14DC5197E375}"/>
     <hyperlink ref="J40" r:id="rId155" xr:uid="{10BD029B-F728-4FEF-934E-F502C3B3ECDD}"/>
-    <hyperlink ref="J111" r:id="rId156" display="https://www.linkedin.com/in/dr-vijay-chaudhary-12769b311/" xr:uid="{B15A7FAF-9082-4A84-BAA5-265E44F10859}"/>
-    <hyperlink ref="J61" r:id="rId157" display="http://inkedin.com/in/mjdesai/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=in" xr:uid="{58387078-A78B-4059-8DB7-2DA181BAC97F}"/>
+    <hyperlink ref="J112" r:id="rId156" display="https://www.linkedin.com/in/dr-vijay-chaudhary-12769b311/" xr:uid="{B15A7FAF-9082-4A84-BAA5-265E44F10859}"/>
+    <hyperlink ref="J62" r:id="rId157" display="http://inkedin.com/in/mjdesai/?original_referer=https%3A%2F%2Fwww%2Egoogle%2Ecom%2F&amp;originalSubdomain=in" xr:uid="{58387078-A78B-4059-8DB7-2DA181BAC97F}"/>
     <hyperlink ref="J47" r:id="rId158" xr:uid="{F61EBA1D-096B-4367-83C7-464D0E0332DE}"/>
     <hyperlink ref="J50" r:id="rId159" xr:uid="{A7C5CA17-C1E0-4B34-9F67-339F0FC32426}"/>
-    <hyperlink ref="J64" r:id="rId160" display="https://www.linkedin.com/in/mihirmehta-educational-project-and-placements/" xr:uid="{1EF2631D-C319-4F6C-9AF3-9E886A6E863A}"/>
+    <hyperlink ref="J65" r:id="rId160" display="https://www.linkedin.com/in/mihirmehta-educational-project-and-placements/" xr:uid="{1EF2631D-C319-4F6C-9AF3-9E886A6E863A}"/>
     <hyperlink ref="J33" r:id="rId161" display="https://www.linkedin.com/in/gaurang-patel-a99266119/" xr:uid="{4A4B2655-5B11-4CEB-8516-A9D046224C31}"/>
-    <hyperlink ref="J74" r:id="rId162" display="http://www.linkedin.com/in/nishant-koshti-52b68b8b" xr:uid="{2E5CF16C-0D7F-4454-B4F7-592A3EC43855}"/>
+    <hyperlink ref="J75" r:id="rId162" display="http://www.linkedin.com/in/nishant-koshti-52b68b8b" xr:uid="{2E5CF16C-0D7F-4454-B4F7-592A3EC43855}"/>
     <hyperlink ref="J20" r:id="rId163" display="https://www.linkedin.com/in/brijesh-kundaliya-552b7722/" xr:uid="{FC5C15E0-2AD1-4E2F-8F1E-F2F96829A7A6}"/>
     <hyperlink ref="J42" r:id="rId164" display="https://www.linkedin.com/in/jalpesh-vasa/" xr:uid="{6768F239-6E23-4A84-8C3E-45670A76F700}"/>
-    <hyperlink ref="J108" r:id="rId165" display="https://www.linkedin.com/in/vaishali-mewada-7a619053/" xr:uid="{DEFB6E16-7F29-44C5-ACAD-D6B1E16E6C24}"/>
+    <hyperlink ref="J109" r:id="rId165" display="https://www.linkedin.com/in/vaishali-mewada-7a619053/" xr:uid="{DEFB6E16-7F29-44C5-ACAD-D6B1E16E6C24}"/>
     <hyperlink ref="J45" r:id="rId166" xr:uid="{CCF872D9-BD3F-4521-9093-8C3148DBAC43}"/>
-    <hyperlink ref="J112" r:id="rId167" display="http://www.linkedin.com/in/vijaykumar-panchal-631852280" xr:uid="{2810BDF3-4A14-413D-B157-AF8059E92C49}"/>
-    <hyperlink ref="J63" r:id="rId168" display="https://www.linkedin.com/in/dr-mihir-bhatt-806a85aa/" xr:uid="{AA93D706-7CF6-45C4-B768-B797EB6775B7}"/>
-    <hyperlink ref="J95" r:id="rId169" display="https://www.linkedin.com/in/dr-sagar-chokshi-8646601a/" xr:uid="{35109E28-E96A-4139-B689-0AB43FF55E92}"/>
-    <hyperlink ref="J83" r:id="rId170" display="http://www.linkedin.com/in/pratik-panchal-a35b325a" xr:uid="{6FB924B7-EDB2-44F0-B0D7-E78551105315}"/>
+    <hyperlink ref="J113" r:id="rId167" display="http://www.linkedin.com/in/vijaykumar-panchal-631852280" xr:uid="{2810BDF3-4A14-413D-B157-AF8059E92C49}"/>
+    <hyperlink ref="J64" r:id="rId168" display="https://www.linkedin.com/in/dr-mihir-bhatt-806a85aa/" xr:uid="{AA93D706-7CF6-45C4-B768-B797EB6775B7}"/>
+    <hyperlink ref="J96" r:id="rId169" display="https://www.linkedin.com/in/dr-sagar-chokshi-8646601a/" xr:uid="{35109E28-E96A-4139-B689-0AB43FF55E92}"/>
+    <hyperlink ref="J84" r:id="rId170" display="http://www.linkedin.com/in/pratik-panchal-a35b325a" xr:uid="{6FB924B7-EDB2-44F0-B0D7-E78551105315}"/>
     <hyperlink ref="J39" r:id="rId171" display="https://www.linkedin.com/in/hemangi-oza-60a189190/" xr:uid="{AC43F6B8-459E-4FF0-82E4-75F8CDE25269}"/>
-    <hyperlink ref="J109" r:id="rId172" display="http://linkedin.com/in/vibha-parmar-81b3045b" xr:uid="{9792CDE9-6059-48ED-AD46-8BECFEF07152}"/>
-    <hyperlink ref="J58" r:id="rId173" display="http://www.linkedin.com/in/maulik-shah-30b483119" xr:uid="{E23FB3E1-55AD-4659-9463-2B3E19FC5E7D}"/>
-    <hyperlink ref="J98" r:id="rId174" display="http://www.linkedin.com/in/saritavisavalia" xr:uid="{3504F31F-4BD3-4D8B-B727-C2FF9DDFF1EA}"/>
+    <hyperlink ref="J110" r:id="rId172" display="http://linkedin.com/in/vibha-parmar-81b3045b" xr:uid="{9792CDE9-6059-48ED-AD46-8BECFEF07152}"/>
+    <hyperlink ref="J59" r:id="rId173" display="http://www.linkedin.com/in/maulik-shah-30b483119" xr:uid="{E23FB3E1-55AD-4659-9463-2B3E19FC5E7D}"/>
+    <hyperlink ref="J99" r:id="rId174" display="http://www.linkedin.com/in/saritavisavalia" xr:uid="{3504F31F-4BD3-4D8B-B727-C2FF9DDFF1EA}"/>
     <hyperlink ref="J13" r:id="rId175" xr:uid="{ACF63811-234F-442B-91D8-C6863212F92A}"/>
     <hyperlink ref="J44" r:id="rId176" display="https://www.linkedin.com/in/dr-jigar-sarda-00384414/" xr:uid="{0EFC12BA-8B5C-4E86-968D-797B0D43FD98}"/>
-    <hyperlink ref="J104" r:id="rId177" display="https://www.linkedin.com/in/trusha-patel-gajjar" xr:uid="{98AA2D43-F8B2-4B29-93BA-7A9CCA8109B2}"/>
-    <hyperlink ref="J102" r:id="rId178" display="https://www.linkedin.com/in/srushti-gajjar-92b829142?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{544D82DB-5386-42AC-B979-94C259CA9E97}"/>
-    <hyperlink ref="J93" r:id="rId179" xr:uid="{F1631FCD-D701-415F-89D8-AB6A7D513AC5}"/>
+    <hyperlink ref="J105" r:id="rId177" display="https://www.linkedin.com/in/trusha-patel-gajjar" xr:uid="{98AA2D43-F8B2-4B29-93BA-7A9CCA8109B2}"/>
+    <hyperlink ref="J103" r:id="rId178" display="https://www.linkedin.com/in/srushti-gajjar-92b829142?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{544D82DB-5386-42AC-B979-94C259CA9E97}"/>
+    <hyperlink ref="J94" r:id="rId179" xr:uid="{F1631FCD-D701-415F-89D8-AB6A7D513AC5}"/>
     <hyperlink ref="J15" r:id="rId180" display="https://www.linkedin.com/in/asifiqbal-thakor-56949b237/" xr:uid="{3A40B3CD-F1BE-4530-B451-07DF410D1272}"/>
-    <hyperlink ref="J55" r:id="rId181" xr:uid="{99110411-88B4-4B0C-9258-D7E7320C877C}"/>
+    <hyperlink ref="J56" r:id="rId181" xr:uid="{99110411-88B4-4B0C-9258-D7E7320C877C}"/>
     <hyperlink ref="J46" r:id="rId182" display="https://www.linkedin.com/in/jivanadhar-joshi-a76a12ab/" xr:uid="{ED0C7354-C517-49E0-BDF5-C6BF1EC0A53C}"/>
-    <hyperlink ref="J103" r:id="rId183" display="https://in.linkedin.com/in/dr-tigmanshu-patel-b3252639" xr:uid="{8223C32D-E35E-4436-B593-C54F5FEED7DB}"/>
+    <hyperlink ref="J104" r:id="rId183" display="https://in.linkedin.com/in/dr-tigmanshu-patel-b3252639" xr:uid="{8223C32D-E35E-4436-B593-C54F5FEED7DB}"/>
     <hyperlink ref="J43" r:id="rId184" display="http://linkedin.com/in/jay-bhavsar-a4a9646a" xr:uid="{A3106519-72EE-423E-976E-09F1FD98B248}"/>
-    <hyperlink ref="J88" r:id="rId185" display="http://www.linkedin.com/in/purvi-prajapati-37ba6651" xr:uid="{7A2661BA-3D20-4DF8-8332-CC5726684DD1}"/>
-    <hyperlink ref="J73" r:id="rId186" display="https://www.linkedin.com/in/nirpex-patel-508956119/" xr:uid="{8BF234A3-EF12-4093-8EAF-09B2432506EF}"/>
-    <hyperlink ref="J86" r:id="rId187" display="https://www.linkedin.com/in/priyanka-patel-ph-d-00403393/" xr:uid="{8D6AEC45-7FD5-4128-9D12-F2A6CBB1E864}"/>
-    <hyperlink ref="J62" r:id="rId188" display="https://www.linkedin.com/in/mehulkumar-katakiya-029357b8/" xr:uid="{D058A74D-8E61-413C-9B75-7FF7917660C9}"/>
+    <hyperlink ref="J89" r:id="rId185" display="http://www.linkedin.com/in/purvi-prajapati-37ba6651" xr:uid="{7A2661BA-3D20-4DF8-8332-CC5726684DD1}"/>
+    <hyperlink ref="J74" r:id="rId186" display="https://www.linkedin.com/in/nirpex-patel-508956119/" xr:uid="{8BF234A3-EF12-4093-8EAF-09B2432506EF}"/>
+    <hyperlink ref="J87" r:id="rId187" display="https://www.linkedin.com/in/priyanka-patel-ph-d-00403393/" xr:uid="{8D6AEC45-7FD5-4128-9D12-F2A6CBB1E864}"/>
+    <hyperlink ref="J63" r:id="rId188" display="https://www.linkedin.com/in/mehulkumar-katakiya-029357b8/" xr:uid="{D058A74D-8E61-413C-9B75-7FF7917660C9}"/>
     <hyperlink ref="J36" r:id="rId189" display="https://www.linkedin.com/in/harmish-bhatt-88581510a/" xr:uid="{7CC36C27-9781-439B-A945-9C1160C69911}"/>
-    <hyperlink ref="J65" r:id="rId190" display="https://www.linkedin.com/in/mikin-patel-24191386/" xr:uid="{3AEB0F01-575C-4799-B7A0-11A1F0947768}"/>
-    <hyperlink ref="J106" r:id="rId191" display="https://www.linkedin.com/in/dr-upesh-patel-875878138/" xr:uid="{5D7DA379-79C5-410F-9398-20936275BC46}"/>
-    <hyperlink ref="J57" r:id="rId192" xr:uid="{509B130C-6A0C-4944-BFE2-75F1FDF097C4}"/>
-    <hyperlink ref="J68" r:id="rId193" display="https://www.linkedin.com/in/muskan-dave-023197162/" xr:uid="{C8C7BB25-838D-4DFF-B4BD-F8943C06375E}"/>
-    <hyperlink ref="J72" r:id="rId194" display="https://www.linkedin.com/in/dr-nirav-bhatt/" xr:uid="{3F4736BB-5DB7-48E0-ABC4-5DBB591E1122}"/>
+    <hyperlink ref="J66" r:id="rId190" display="https://www.linkedin.com/in/mikin-patel-24191386/" xr:uid="{3AEB0F01-575C-4799-B7A0-11A1F0947768}"/>
+    <hyperlink ref="J107" r:id="rId191" display="https://www.linkedin.com/in/dr-upesh-patel-875878138/" xr:uid="{5D7DA379-79C5-410F-9398-20936275BC46}"/>
+    <hyperlink ref="J58" r:id="rId192" xr:uid="{509B130C-6A0C-4944-BFE2-75F1FDF097C4}"/>
+    <hyperlink ref="J69" r:id="rId193" display="https://www.linkedin.com/in/muskan-dave-023197162/" xr:uid="{C8C7BB25-838D-4DFF-B4BD-F8943C06375E}"/>
+    <hyperlink ref="J73" r:id="rId194" display="https://www.linkedin.com/in/dr-nirav-bhatt/" xr:uid="{3F4736BB-5DB7-48E0-ABC4-5DBB591E1122}"/>
     <hyperlink ref="J11" r:id="rId195" xr:uid="{714022ED-2EC9-40BB-978A-F936135E18E1}"/>
-    <hyperlink ref="J92" r:id="rId196" display="https://www.linkedin.com/in/ritesh-patel-462b0b11" xr:uid="{F4558EEF-FFB0-474A-8E3E-CEBF9566FCDB}"/>
-    <hyperlink ref="J115" r:id="rId197" display="http://www.linkedin.com/in/viral-panara-773877201" xr:uid="{4FB52C9B-4BDB-4971-A78B-1CD2EE789E52}"/>
-    <hyperlink ref="J78" r:id="rId198" display="https://www.linkedin.com/in/shah-parth-d/" xr:uid="{A61E294E-BDA5-4C2E-BA18-BA2B9C98C973}"/>
+    <hyperlink ref="J93" r:id="rId196" display="https://www.linkedin.com/in/ritesh-patel-462b0b11" xr:uid="{F4558EEF-FFB0-474A-8E3E-CEBF9566FCDB}"/>
+    <hyperlink ref="J116" r:id="rId197" display="http://www.linkedin.com/in/viral-panara-773877201" xr:uid="{4FB52C9B-4BDB-4971-A78B-1CD2EE789E52}"/>
+    <hyperlink ref="J79" r:id="rId198" display="https://www.linkedin.com/in/shah-parth-d/" xr:uid="{A61E294E-BDA5-4C2E-BA18-BA2B9C98C973}"/>
     <hyperlink ref="J32" r:id="rId199" display="https://www.linkedin.com/in/gargi-ray-983a8522/" xr:uid="{0C76E47F-7D1B-4E1C-A88F-86156C9D1D6E}"/>
-    <hyperlink ref="J99" r:id="rId200" display="http://www.linkedin.com/in/satayu-travadi-9aab0919" xr:uid="{A79F3F36-387F-427F-848C-3BB8A221E707}"/>
-    <hyperlink ref="J87" r:id="rId201" xr:uid="{A7A467B8-5468-4830-9ADC-34F28E8899B5}"/>
+    <hyperlink ref="J100" r:id="rId200" display="http://www.linkedin.com/in/satayu-travadi-9aab0919" xr:uid="{A79F3F36-387F-427F-848C-3BB8A221E707}"/>
+    <hyperlink ref="J88" r:id="rId201" xr:uid="{A7A467B8-5468-4830-9ADC-34F28E8899B5}"/>
     <hyperlink ref="J30" r:id="rId202" display="https://www.linkedin.com/in/dheeraj-kumar-shringi-030586107?utm_source=share&amp;utm_campaign=share_via&amp;utm_content=profile&amp;utm_medium=android_app" xr:uid="{D1B60D12-635A-4E71-93D8-B47244D1EF44}"/>
-    <hyperlink ref="J84" r:id="rId203" display="https://in.linkedin.com/in/pratik-mochi-09764b102?original_referer=https%3A%2F%2Fwww.google.com%2F" xr:uid="{CD8066BB-0BA9-4FA9-88DB-0C291F6209A7}"/>
-    <hyperlink ref="J107" r:id="rId204" display="https://www.linkedin.com/in/vaibhavi-patel-67b035224/" xr:uid="{51D509E7-546B-4519-845F-AF5DC77392B9}"/>
-    <hyperlink ref="J59" r:id="rId205" display="http://www.linkedin.com/in/mayuri-popat-213852b1" xr:uid="{336D4B2F-0BBF-4ADA-8647-F20659482547}"/>
-    <hyperlink ref="J54" r:id="rId206" display="http://www.linkedin.com/in/madhavajwalia" xr:uid="{8DE9B663-AD20-42DB-A7F0-4FD167AD95E8}"/>
-    <hyperlink ref="J114" r:id="rId207" display="https://www.linkedin.com/in/vipul-vyas-19214bab/" xr:uid="{00F74D28-7144-4D8C-9870-393AE49126D5}"/>
-    <hyperlink ref="J75" r:id="rId208" display="https://www.linkedin.com/in/nishat-shaikh-b7446019a/" xr:uid="{45535606-CAE7-44BB-B1C5-622D742D5E66}"/>
+    <hyperlink ref="J85" r:id="rId203" display="https://in.linkedin.com/in/pratik-mochi-09764b102?original_referer=https%3A%2F%2Fwww.google.com%2F" xr:uid="{CD8066BB-0BA9-4FA9-88DB-0C291F6209A7}"/>
+    <hyperlink ref="J108" r:id="rId204" display="https://www.linkedin.com/in/vaibhavi-patel-67b035224/" xr:uid="{51D509E7-546B-4519-845F-AF5DC77392B9}"/>
+    <hyperlink ref="J60" r:id="rId205" display="http://www.linkedin.com/in/mayuri-popat-213852b1" xr:uid="{336D4B2F-0BBF-4ADA-8647-F20659482547}"/>
+    <hyperlink ref="J55" r:id="rId206" display="http://www.linkedin.com/in/madhavajwalia" xr:uid="{8DE9B663-AD20-42DB-A7F0-4FD167AD95E8}"/>
+    <hyperlink ref="J115" r:id="rId207" display="https://www.linkedin.com/in/vipul-vyas-19214bab/" xr:uid="{00F74D28-7144-4D8C-9870-393AE49126D5}"/>
+    <hyperlink ref="J76" r:id="rId208" display="https://www.linkedin.com/in/nishat-shaikh-b7446019a/" xr:uid="{45535606-CAE7-44BB-B1C5-622D742D5E66}"/>
     <hyperlink ref="J16" r:id="rId209" display="https://www.linkedin.com/in/avani-khokhariya/" xr:uid="{F2664F6A-73CC-4DAD-982B-E296BD77DF0A}"/>
-    <hyperlink ref="J81" r:id="rId210" xr:uid="{2C60818F-B78B-4EC2-9BA4-C7D88C933280}"/>
+    <hyperlink ref="J82" r:id="rId210" xr:uid="{2C60818F-B78B-4EC2-9BA4-C7D88C933280}"/>
     <hyperlink ref="J25" r:id="rId211" display="https://www.linkedin.com/in/dhara-s-032a6a24/" xr:uid="{4FE7FF63-A73E-4E09-94C4-E2CD5FE6F81D}"/>
-    <hyperlink ref="K71" r:id="rId212" xr:uid="{E7CCB95C-4D9A-474B-9296-0EE719EC4AB3}"/>
-    <hyperlink ref="K91" r:id="rId213" xr:uid="{92D21BA9-793A-4610-9A6A-641322C6CC28}"/>
-    <hyperlink ref="K105" r:id="rId214" xr:uid="{2E05A515-7245-4DDB-9E9C-D041E881E2BF}"/>
-    <hyperlink ref="K85" r:id="rId215" xr:uid="{8C1C3B99-0196-4695-95EB-EEFEEA76042B}"/>
-    <hyperlink ref="K66" r:id="rId216" xr:uid="{4C2AA447-E23D-4BD3-8516-CF8A69E7C676}"/>
-    <hyperlink ref="K89" r:id="rId217" xr:uid="{68D88C01-9035-44B0-9EAE-4AE7236572CC}"/>
-    <hyperlink ref="K97" r:id="rId218" xr:uid="{B89BB500-5F1B-4985-B0B7-D69D9B22538C}"/>
+    <hyperlink ref="K72" r:id="rId212" xr:uid="{E7CCB95C-4D9A-474B-9296-0EE719EC4AB3}"/>
+    <hyperlink ref="K92" r:id="rId213" xr:uid="{92D21BA9-793A-4610-9A6A-641322C6CC28}"/>
+    <hyperlink ref="K106" r:id="rId214" xr:uid="{2E05A515-7245-4DDB-9E9C-D041E881E2BF}"/>
+    <hyperlink ref="K86" r:id="rId215" xr:uid="{8C1C3B99-0196-4695-95EB-EEFEEA76042B}"/>
+    <hyperlink ref="K67" r:id="rId216" xr:uid="{4C2AA447-E23D-4BD3-8516-CF8A69E7C676}"/>
+    <hyperlink ref="K90" r:id="rId217" xr:uid="{68D88C01-9035-44B0-9EAE-4AE7236572CC}"/>
+    <hyperlink ref="K98" r:id="rId218" xr:uid="{B89BB500-5F1B-4985-B0B7-D69D9B22538C}"/>
     <hyperlink ref="K27" r:id="rId219" xr:uid="{461288D1-54CE-41D7-ACBC-4EB753D35618}"/>
-    <hyperlink ref="K63" r:id="rId220" display="https://sites.google.com/a/charusat.ac.in/mihir-bhatt-ee/home/about-me?pli=1" xr:uid="{DD66FE1D-24F8-42A6-8DDC-651F08933CB6}"/>
+    <hyperlink ref="K64" r:id="rId220" display="https://sites.google.com/a/charusat.ac.in/mihir-bhatt-ee/home/about-me?pli=1" xr:uid="{DD66FE1D-24F8-42A6-8DDC-651F08933CB6}"/>
     <hyperlink ref="K44" r:id="rId221" xr:uid="{185428FC-1CEB-406E-A327-B537B63CC062}"/>
-    <hyperlink ref="K104" r:id="rId222" xr:uid="{6E3402FB-A293-4394-A12F-C9CE90A43581}"/>
-    <hyperlink ref="K93" r:id="rId223" display="https://sites.google.com/view/ronak-patel/" xr:uid="{30BB4B45-BE3C-4B51-8751-F1166793B9D8}"/>
-    <hyperlink ref="K86" r:id="rId224" display="https://sites.google.com/a/charusat.ac.in/priyanka-patel/about-me" xr:uid="{2F80CF65-0198-4866-9245-0932E2D2E991}"/>
+    <hyperlink ref="K105" r:id="rId222" xr:uid="{6E3402FB-A293-4394-A12F-C9CE90A43581}"/>
+    <hyperlink ref="K94" r:id="rId223" display="https://sites.google.com/view/ronak-patel/" xr:uid="{30BB4B45-BE3C-4B51-8751-F1166793B9D8}"/>
+    <hyperlink ref="K87" r:id="rId224" display="https://sites.google.com/a/charusat.ac.in/priyanka-patel/about-me" xr:uid="{2F80CF65-0198-4866-9245-0932E2D2E991}"/>
     <hyperlink ref="K11" r:id="rId225" xr:uid="{B7911887-1D4E-4149-9255-34290DE15C67}"/>
-    <hyperlink ref="K92" r:id="rId226" xr:uid="{CC19190B-EF5A-4030-970E-47B4649A66EC}"/>
-    <hyperlink ref="K78" r:id="rId227" display="http://learnwithparth.in/" xr:uid="{0D098BA1-951E-49B0-BA34-5489DFACFB69}"/>
-    <hyperlink ref="K59" r:id="rId228" display="https://sites.google.com/charusat.ac.in/mayuri-popat/home/academic-experience?authuser=0" xr:uid="{CD111632-8632-4F99-808E-7B0BA423BCF0}"/>
+    <hyperlink ref="K93" r:id="rId226" xr:uid="{CC19190B-EF5A-4030-970E-47B4649A66EC}"/>
+    <hyperlink ref="K79" r:id="rId227" display="http://learnwithparth.in/" xr:uid="{0D098BA1-951E-49B0-BA34-5489DFACFB69}"/>
+    <hyperlink ref="K60" r:id="rId228" display="https://sites.google.com/charusat.ac.in/mayuri-popat/home/academic-experience?authuser=0" xr:uid="{CD111632-8632-4F99-808E-7B0BA423BCF0}"/>
     <hyperlink ref="K25" r:id="rId229" display="http://https/www.simpldhara.github.io" xr:uid="{1B0FEF49-7DD4-45B9-B1E6-577EDB068225}"/>
     <hyperlink ref="K4" r:id="rId230" xr:uid="{A55ED677-5A40-43B5-A2E0-3934032012FA}"/>
     <hyperlink ref="I12" r:id="rId231" xr:uid="{559F5BE6-A98D-4918-9ADE-3B5DB2AC1B24}"/>
     <hyperlink ref="I13" r:id="rId232" xr:uid="{B5B2A2F7-DD9E-4163-AECE-07D5742E906D}"/>
     <hyperlink ref="I48" r:id="rId233" xr:uid="{2DF8A589-77D3-487D-9871-F11C086009D1}"/>
-    <hyperlink ref="I81" r:id="rId234" xr:uid="{4F6BB86B-ECFA-4396-9D2B-715AF4C8A22C}"/>
+    <hyperlink ref="I82" r:id="rId234" xr:uid="{4F6BB86B-ECFA-4396-9D2B-715AF4C8A22C}"/>
     <hyperlink ref="I49" r:id="rId235" xr:uid="{C80EDEE3-BA73-444F-89E4-2007846DC254}"/>
-    <hyperlink ref="I89" r:id="rId236" xr:uid="{E27523F8-498C-4ABD-8999-7C5FE36E5CA5}"/>
-    <hyperlink ref="L71" r:id="rId237" xr:uid="{948CADBD-38FA-4A43-B789-35C5FE176C3F}"/>
+    <hyperlink ref="I90" r:id="rId236" xr:uid="{E27523F8-498C-4ABD-8999-7C5FE36E5CA5}"/>
+    <hyperlink ref="L72" r:id="rId237" xr:uid="{948CADBD-38FA-4A43-B789-35C5FE176C3F}"/>
     <hyperlink ref="L3" r:id="rId238" xr:uid="{F46A9101-D683-4CCF-9110-8584476B2BA9}"/>
-    <hyperlink ref="L82" r:id="rId239" xr:uid="{6E19F5D8-BA05-4C24-BFED-0131679AE1A3}"/>
-    <hyperlink ref="L56" r:id="rId240" xr:uid="{15D92DD2-9C84-4024-BCB0-89C6EAD615FB}"/>
+    <hyperlink ref="L83" r:id="rId239" xr:uid="{6E19F5D8-BA05-4C24-BFED-0131679AE1A3}"/>
+    <hyperlink ref="L57" r:id="rId240" xr:uid="{15D92DD2-9C84-4024-BCB0-89C6EAD615FB}"/>
     <hyperlink ref="L18" r:id="rId241" xr:uid="{E24865B7-0C5D-46C6-8B52-CB38271DBD7E}"/>
     <hyperlink ref="L48" r:id="rId242" xr:uid="{4D2C143E-EFF2-43ED-8C1B-94D7326ABF76}"/>
-    <hyperlink ref="L91" r:id="rId243" xr:uid="{22687922-AA0C-441B-A3FA-FB8732C6A78E}"/>
-    <hyperlink ref="L105" r:id="rId244" display="https://scholar.google.com/citations?user=Gzsxo-oAAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{FF9B096B-7991-46C3-B06A-152491BA6C90}"/>
-    <hyperlink ref="L67" r:id="rId245" xr:uid="{690AB285-269F-47C4-BA46-90F767A79CC1}"/>
-    <hyperlink ref="L90" r:id="rId246" xr:uid="{9AF26C9F-30B4-4DAE-A809-C138362FFD00}"/>
-    <hyperlink ref="L94" r:id="rId247" xr:uid="{8D4A0E6E-AA77-4CD4-AA54-DEC95D5CF09E}"/>
+    <hyperlink ref="L92" r:id="rId243" xr:uid="{22687922-AA0C-441B-A3FA-FB8732C6A78E}"/>
+    <hyperlink ref="L106" r:id="rId244" display="https://scholar.google.com/citations?user=Gzsxo-oAAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{FF9B096B-7991-46C3-B06A-152491BA6C90}"/>
+    <hyperlink ref="L68" r:id="rId245" xr:uid="{690AB285-269F-47C4-BA46-90F767A79CC1}"/>
+    <hyperlink ref="L91" r:id="rId246" xr:uid="{9AF26C9F-30B4-4DAE-A809-C138362FFD00}"/>
+    <hyperlink ref="L95" r:id="rId247" xr:uid="{8D4A0E6E-AA77-4CD4-AA54-DEC95D5CF09E}"/>
     <hyperlink ref="L49" r:id="rId248" xr:uid="{A64FDC24-6D97-4969-AC20-BF200CE32B3A}"/>
     <hyperlink ref="L19" r:id="rId249" xr:uid="{2DF7625D-5BDC-4383-BFF5-27331B9E27C1}"/>
-    <hyperlink ref="L70" r:id="rId250" display="https://scholar.google.co.in/citations?user=9PPA-6oAAAAJ&amp;hl=en" xr:uid="{38968AA0-46FD-46B0-84CD-C755BCC30A99}"/>
+    <hyperlink ref="L71" r:id="rId250" display="https://scholar.google.co.in/citations?user=9PPA-6oAAAAJ&amp;hl=en" xr:uid="{38968AA0-46FD-46B0-84CD-C755BCC30A99}"/>
     <hyperlink ref="L23" r:id="rId251" xr:uid="{4FF8802A-1D76-4C6B-91B4-17C781B102D6}"/>
-    <hyperlink ref="L51" r:id="rId252" xr:uid="{8365015A-789A-4D2C-9684-352B6CC70A5E}"/>
-    <hyperlink ref="L85" r:id="rId253" xr:uid="{BD03203D-E2A2-453C-8DB9-B1F0B5A13124}"/>
+    <hyperlink ref="L52" r:id="rId252" xr:uid="{8365015A-789A-4D2C-9684-352B6CC70A5E}"/>
+    <hyperlink ref="L86" r:id="rId253" xr:uid="{BD03203D-E2A2-453C-8DB9-B1F0B5A13124}"/>
     <hyperlink ref="L35" r:id="rId254" display="https://scholar.google.com/citations?user=ay8-QY0AAAAJ&amp;hl=en&amp;oi=ao" xr:uid="{CEA8B045-C60C-4ADA-9F10-8B980373388F}"/>
     <hyperlink ref="L14" r:id="rId255" display="https://scholar.google.com/citations?user=TCsNw-YAAAAJ&amp;hl=en" xr:uid="{D0B58B70-976E-4FD0-A498-4FE5480744DA}"/>
     <hyperlink ref="L17" r:id="rId256" xr:uid="{19EAA634-8BE7-4A2F-8B30-8A424E254965}"/>
     <hyperlink ref="L29" r:id="rId257" xr:uid="{3D65CD0F-C15B-4E98-9324-C36FAB47EBC4}"/>
-    <hyperlink ref="L66" r:id="rId258" xr:uid="{264FF3AA-8D89-41E4-9DA6-521BD58711A9}"/>
+    <hyperlink ref="L67" r:id="rId258" xr:uid="{264FF3AA-8D89-41E4-9DA6-521BD58711A9}"/>
     <hyperlink ref="L31" r:id="rId259" display="https://www.bing.com/ck/a?!&amp;&amp;p=6a7ac5a017a1300aJmltdHM9MTcyOTQ2ODgwMCZpZ3VpZD0wMDExMmIyNS1kMzQ5LTY3MTItMmE4My0zZTA1ZDI1NjY2MWEmaW5zaWQ9NTE5NQ&amp;ptn=3&amp;ver=2&amp;hsh=3&amp;fclid=00112b25-d349-6712-2a83-3e05d256661a&amp;psq=google+scholer+gajanan+patange&amp;u=a1aHR0cHM6Ly9zY2hvbGFyLmdvb2dsZS5wbC9jaXRhdGlvbnM_dXNlcj1fRDRISUhjQUFBQUomaGw9ZW4&amp;ntb=1" xr:uid="{275A790E-9657-41D9-B9F2-78D3822C4310}"/>
     <hyperlink ref="L9" r:id="rId260" xr:uid="{758E6349-E050-42DF-B5C3-FBA97B821030}"/>
-    <hyperlink ref="L113" r:id="rId261" xr:uid="{9ACD46AD-FE8F-41CE-9823-5DC65F691D5B}"/>
+    <hyperlink ref="L114" r:id="rId261" xr:uid="{9ACD46AD-FE8F-41CE-9823-5DC65F691D5B}"/>
     <hyperlink ref="L4" r:id="rId262" xr:uid="{9B291D90-C0E1-493C-9E5E-17CAF2B7D2F2}"/>
     <hyperlink ref="L12" r:id="rId263" xr:uid="{8C6729CD-380A-483D-A997-7DBCBA390939}"/>
-    <hyperlink ref="L100" r:id="rId264" xr:uid="{C07AED6D-34B0-40AA-B65E-C9BFB9F1574D}"/>
+    <hyperlink ref="L101" r:id="rId264" xr:uid="{C07AED6D-34B0-40AA-B65E-C9BFB9F1574D}"/>
     <hyperlink ref="L37" r:id="rId265" display="https://scholar.google.com/citations?user=6d-aVTEAAAAJ&amp;hl=en" xr:uid="{EBC010F8-7D12-4DC1-9FDA-49EFC51EFF71}"/>
     <hyperlink ref="L21" r:id="rId266" xr:uid="{0DDB7A07-865A-4AD7-986A-DE5D031FFBD0}"/>
     <hyperlink ref="L28" r:id="rId267" xr:uid="{E6ABE8A4-4EFC-489A-B104-3BCC2E998A7B}"/>
-    <hyperlink ref="L96" r:id="rId268" xr:uid="{ABDCFD31-BA21-4022-B6C1-EDDD441956ED}"/>
+    <hyperlink ref="L97" r:id="rId268" xr:uid="{ABDCFD31-BA21-4022-B6C1-EDDD441956ED}"/>
     <hyperlink ref="L6" r:id="rId269" xr:uid="{591DF322-16B2-4785-A83C-3147BF3D09D2}"/>
-    <hyperlink ref="L69" r:id="rId270" xr:uid="{BB403419-C3FE-440B-B0A2-AF35C3C2E8E3}"/>
+    <hyperlink ref="L70" r:id="rId270" xr:uid="{BB403419-C3FE-440B-B0A2-AF35C3C2E8E3}"/>
     <hyperlink ref="L22" r:id="rId271" xr:uid="{A227399F-9975-4976-9597-2D3E6151DCB8}"/>
     <hyperlink ref="L38" r:id="rId272" xr:uid="{535A1FEE-65AB-4486-BF0D-ADD9A3382AFB}"/>
     <hyperlink ref="L41" r:id="rId273" display="https://scholar.google.com/citations?hl=en&amp;user=geQ-r_QAAAAJ" xr:uid="{36509863-135E-43CA-B732-4C0DEFDDC2FC}"/>
-    <hyperlink ref="L101" r:id="rId274" xr:uid="{7F8D3F89-D92D-4081-B489-E387250A10BD}"/>
+    <hyperlink ref="L102" r:id="rId274" xr:uid="{7F8D3F89-D92D-4081-B489-E387250A10BD}"/>
     <hyperlink ref="L24" r:id="rId275" xr:uid="{B4A03D8A-649C-469B-B24A-E9F9B481D48B}"/>
     <hyperlink ref="L26" r:id="rId276" xr:uid="{D3034C74-7237-42E2-A6B8-CD4BA8BBBF41}"/>
-    <hyperlink ref="L89" r:id="rId277" xr:uid="{53AE3D77-EDB3-413A-8D8F-16969CBE8103}"/>
-    <hyperlink ref="L97" r:id="rId278" xr:uid="{76D99C50-072C-40D7-BDEB-328FCCB109D9}"/>
-    <hyperlink ref="L52" r:id="rId279" xr:uid="{CD634DA2-F1A0-45FA-A86C-61D935383D2E}"/>
-    <hyperlink ref="L80" r:id="rId280" xr:uid="{F6874B5E-545B-4745-A546-56B6FD5105E9}"/>
-    <hyperlink ref="L110" r:id="rId281" xr:uid="{C22F05F4-D13D-45A5-A5B0-3237064F3209}"/>
+    <hyperlink ref="L90" r:id="rId277" xr:uid="{53AE3D77-EDB3-413A-8D8F-16969CBE8103}"/>
+    <hyperlink ref="L98" r:id="rId278" xr:uid="{76D99C50-072C-40D7-BDEB-328FCCB109D9}"/>
+    <hyperlink ref="L53" r:id="rId279" xr:uid="{CD634DA2-F1A0-45FA-A86C-61D935383D2E}"/>
+    <hyperlink ref="L81" r:id="rId280" xr:uid="{F6874B5E-545B-4745-A546-56B6FD5105E9}"/>
+    <hyperlink ref="L111" r:id="rId281" xr:uid="{C22F05F4-D13D-45A5-A5B0-3237064F3209}"/>
     <hyperlink ref="L27" r:id="rId282" xr:uid="{32CD251C-92CC-42C2-865F-89BE3026727C}"/>
-    <hyperlink ref="L53" r:id="rId283" xr:uid="{287D782E-D3CC-498E-B117-EBE696C4D447}"/>
+    <hyperlink ref="L54" r:id="rId283" xr:uid="{287D782E-D3CC-498E-B117-EBE696C4D447}"/>
     <hyperlink ref="L40" r:id="rId284" xr:uid="{B241D450-267C-40BF-9C45-8957239BDD86}"/>
-    <hyperlink ref="L61" r:id="rId285" xr:uid="{AA7AD692-35BE-48A4-AF46-1B6413916E3B}"/>
+    <hyperlink ref="L62" r:id="rId285" xr:uid="{AA7AD692-35BE-48A4-AF46-1B6413916E3B}"/>
     <hyperlink ref="L47" r:id="rId286" display="https://scholar.google.co.in/citations?user=EdcH-Y0AAAAJ&amp;hl=en" xr:uid="{CE335172-93AC-45C2-9068-7C9C19F220C4}"/>
     <hyperlink ref="L10" r:id="rId287" xr:uid="{A33E4A1F-E63E-4F7D-9DC5-3C5AB6E82811}"/>
     <hyperlink ref="L50" r:id="rId288" xr:uid="{027764B5-CA65-453C-BFB6-EE555AA7BF1B}"/>
-    <hyperlink ref="L60" r:id="rId289" xr:uid="{E2F70942-EACF-4A90-B18A-A80CB466AAE7}"/>
-    <hyperlink ref="L64" r:id="rId290" xr:uid="{5645BFE0-C2D6-4EED-AFCB-0EF806CC91E9}"/>
+    <hyperlink ref="L61" r:id="rId289" xr:uid="{E2F70942-EACF-4A90-B18A-A80CB466AAE7}"/>
+    <hyperlink ref="L65" r:id="rId290" xr:uid="{5645BFE0-C2D6-4EED-AFCB-0EF806CC91E9}"/>
     <hyperlink ref="L33" r:id="rId291" xr:uid="{EE598F68-E624-44F6-B4DD-8299C007487F}"/>
-    <hyperlink ref="L74" r:id="rId292" display="https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=-9-RhBoAAAAJ" xr:uid="{E935D410-8781-42B6-B609-E835354DEBBB}"/>
+    <hyperlink ref="L75" r:id="rId292" display="https://scholar.google.com/citations?hl=en&amp;authuser=1&amp;user=-9-RhBoAAAAJ" xr:uid="{E935D410-8781-42B6-B609-E835354DEBBB}"/>
     <hyperlink ref="L5" r:id="rId293" display="https://scholar.google.co.in/citations?user=cVv-kdYAAAAJ&amp;hl=en" xr:uid="{746C1EFC-2FA9-49B1-AFB8-1C7FCA47096B}"/>
     <hyperlink ref="L20" r:id="rId294" display="https://scholar.google.com/citations?user=dHkQ5D4AAAAJ&amp;hl=en" xr:uid="{25860FE4-2E75-42A8-BFFE-3AA02DEED40F}"/>
     <hyperlink ref="L42" r:id="rId295" xr:uid="{5A9FF0C8-1A53-40E2-BF07-8AE47CB6B984}"/>
-    <hyperlink ref="L108" r:id="rId296" xr:uid="{5C89C29F-A386-4BBA-9788-4CB223E1744F}"/>
+    <hyperlink ref="L109" r:id="rId296" xr:uid="{5C89C29F-A386-4BBA-9788-4CB223E1744F}"/>
     <hyperlink ref="L45" r:id="rId297" xr:uid="{63EFEA34-4397-48CB-B385-33D61D726E20}"/>
-    <hyperlink ref="L63" r:id="rId298" xr:uid="{0A4BFD56-8B2D-444E-8903-49F5DC5883A4}"/>
-    <hyperlink ref="L95" r:id="rId299" display="https://scholar.google.com/citations?hl=en&amp;user=utk-ZT0AAAAJ" xr:uid="{501E8FB4-1DC4-4EBD-A3BE-50F19352C1F0}"/>
-    <hyperlink ref="L83" r:id="rId300" xr:uid="{37E9CEEB-DC2C-46A2-BCF4-5A9521147A39}"/>
+    <hyperlink ref="L64" r:id="rId298" xr:uid="{0A4BFD56-8B2D-444E-8903-49F5DC5883A4}"/>
+    <hyperlink ref="L96" r:id="rId299" display="https://scholar.google.com/citations?hl=en&amp;user=utk-ZT0AAAAJ" xr:uid="{501E8FB4-1DC4-4EBD-A3BE-50F19352C1F0}"/>
+    <hyperlink ref="L84" r:id="rId300" xr:uid="{37E9CEEB-DC2C-46A2-BCF4-5A9521147A39}"/>
     <hyperlink ref="L39" r:id="rId301" xr:uid="{EEF5DC34-1243-4468-B6B1-D9059ADE8AB0}"/>
-    <hyperlink ref="L109" r:id="rId302" display="https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;hl=en&amp;user=HDdsZFsAAAAJ&amp;scilu=&amp;scisig=AJY4_hMAAAAAZxidz75RZUbVraeNHOVGYgbAfP0&amp;gmla=ALUCkoUwv9xfR7EENoQtBn_aiKaqTyzZ1X2kORl9--L4aBw5WcKwjoDCVXVaogYeCbraaig0PTa5IzrpT_DyD12Vlt-ODcDk1Nt3fM0&amp;sciund=7577126703303180020" xr:uid="{197DCE6B-BB53-49E3-9D84-78838F524694}"/>
-    <hyperlink ref="L58" r:id="rId303" xr:uid="{B559F61A-BA8D-4A15-AF94-270FD8E6EE0D}"/>
-    <hyperlink ref="L98" r:id="rId304" xr:uid="{BDF263A7-4F8B-46B8-BBE8-705BBF9DE738}"/>
+    <hyperlink ref="L110" r:id="rId302" display="https://scholar.google.com/citations?view_op=list_works&amp;hl=en&amp;hl=en&amp;user=HDdsZFsAAAAJ&amp;scilu=&amp;scisig=AJY4_hMAAAAAZxidz75RZUbVraeNHOVGYgbAfP0&amp;gmla=ALUCkoUwv9xfR7EENoQtBn_aiKaqTyzZ1X2kORl9--L4aBw5WcKwjoDCVXVaogYeCbraaig0PTa5IzrpT_DyD12Vlt-ODcDk1Nt3fM0&amp;sciund=7577126703303180020" xr:uid="{197DCE6B-BB53-49E3-9D84-78838F524694}"/>
+    <hyperlink ref="L59" r:id="rId303" xr:uid="{B559F61A-BA8D-4A15-AF94-270FD8E6EE0D}"/>
+    <hyperlink ref="L99" r:id="rId304" xr:uid="{BDF263A7-4F8B-46B8-BBE8-705BBF9DE738}"/>
     <hyperlink ref="L13" r:id="rId305" xr:uid="{7649604F-C033-4670-9F95-0C2C5AC47C84}"/>
     <hyperlink ref="L44" r:id="rId306" xr:uid="{035221F3-6BA9-41F1-A09D-0FD648704591}"/>
-    <hyperlink ref="L104" r:id="rId307" xr:uid="{1CDECF45-D107-4A0E-A561-5D783437E97C}"/>
-    <hyperlink ref="L102" r:id="rId308" xr:uid="{B653EAA6-C485-435F-854D-438BD267A19D}"/>
-    <hyperlink ref="L93" r:id="rId309" xr:uid="{BAF6ABB2-16F7-4B7A-8AC8-F52F94951E56}"/>
+    <hyperlink ref="L105" r:id="rId307" xr:uid="{1CDECF45-D107-4A0E-A561-5D783437E97C}"/>
+    <hyperlink ref="L103" r:id="rId308" xr:uid="{B653EAA6-C485-435F-854D-438BD267A19D}"/>
+    <hyperlink ref="L94" r:id="rId309" xr:uid="{BAF6ABB2-16F7-4B7A-8AC8-F52F94951E56}"/>
     <hyperlink ref="L15" r:id="rId310" xr:uid="{F38927F1-EEEB-453A-8636-E6644582D973}"/>
-    <hyperlink ref="L55" r:id="rId311" xr:uid="{9E4C99F0-F427-4B73-88C1-9DDF17D8ABDE}"/>
+    <hyperlink ref="L56" r:id="rId311" xr:uid="{9E4C99F0-F427-4B73-88C1-9DDF17D8ABDE}"/>
     <hyperlink ref="L46" r:id="rId312" xr:uid="{4048416A-0F5D-4582-8A3D-08AFC13874F9}"/>
-    <hyperlink ref="L103" r:id="rId313" xr:uid="{8400FD3C-B4D9-436A-8179-88B2F74CE3F2}"/>
+    <hyperlink ref="L104" r:id="rId313" xr:uid="{8400FD3C-B4D9-436A-8179-88B2F74CE3F2}"/>
     <hyperlink ref="L43" r:id="rId314" xr:uid="{201F5259-DE23-43B6-A300-CE6428FFA5ED}"/>
-    <hyperlink ref="L88" r:id="rId315" xr:uid="{31420B66-56AB-4794-90CA-5F5AFEE32FDC}"/>
-    <hyperlink ref="L86" r:id="rId316" xr:uid="{C4F50DBC-0BFE-4509-9E86-8433559B0E5F}"/>
-    <hyperlink ref="L62" r:id="rId317" xr:uid="{90FCCA59-114D-4A5C-9409-D7A92B5C554D}"/>
+    <hyperlink ref="L89" r:id="rId315" xr:uid="{31420B66-56AB-4794-90CA-5F5AFEE32FDC}"/>
+    <hyperlink ref="L87" r:id="rId316" xr:uid="{C4F50DBC-0BFE-4509-9E86-8433559B0E5F}"/>
+    <hyperlink ref="L63" r:id="rId317" xr:uid="{90FCCA59-114D-4A5C-9409-D7A92B5C554D}"/>
     <hyperlink ref="L36" r:id="rId318" xr:uid="{86700D43-54F6-409C-AA74-11A10CF95742}"/>
-    <hyperlink ref="L65" r:id="rId319" xr:uid="{C018FF9B-EED7-4A65-95FA-780ACBBA2D7E}"/>
-    <hyperlink ref="L106" r:id="rId320" xr:uid="{60A89811-803F-44C1-9C4C-03400FFC3370}"/>
-    <hyperlink ref="L57" r:id="rId321" display="https://scholar.google.com/citations?user=D-wd8QgAAAAJ&amp;hl=en" xr:uid="{FEE2843B-8463-42EA-93D3-8C0055A27E1B}"/>
-    <hyperlink ref="L72" r:id="rId322" xr:uid="{D89F1643-F631-4232-BD92-A17AB43537BB}"/>
+    <hyperlink ref="L66" r:id="rId319" xr:uid="{C018FF9B-EED7-4A65-95FA-780ACBBA2D7E}"/>
+    <hyperlink ref="L107" r:id="rId320" xr:uid="{60A89811-803F-44C1-9C4C-03400FFC3370}"/>
+    <hyperlink ref="L58" r:id="rId321" display="https://scholar.google.com/citations?user=D-wd8QgAAAAJ&amp;hl=en" xr:uid="{FEE2843B-8463-42EA-93D3-8C0055A27E1B}"/>
+    <hyperlink ref="L73" r:id="rId322" xr:uid="{D89F1643-F631-4232-BD92-A17AB43537BB}"/>
     <hyperlink ref="L2" r:id="rId323" xr:uid="{FA588FCD-5B5F-455C-A8F1-363E48BF4B34}"/>
     <hyperlink ref="L11" r:id="rId324" xr:uid="{75F0D2F4-DBF8-4BC0-81C8-E510EB404F91}"/>
-    <hyperlink ref="L92" r:id="rId325" xr:uid="{4B1641D3-9830-41C6-9804-FD4F1CAA246E}"/>
-    <hyperlink ref="L115" r:id="rId326" xr:uid="{187B270B-DD03-4B4E-A0EC-FA089BBBF941}"/>
-    <hyperlink ref="L78" r:id="rId327" xr:uid="{09000797-9862-4D17-81A3-8BF615CB0D28}"/>
+    <hyperlink ref="L93" r:id="rId325" xr:uid="{4B1641D3-9830-41C6-9804-FD4F1CAA246E}"/>
+    <hyperlink ref="L116" r:id="rId326" xr:uid="{187B270B-DD03-4B4E-A0EC-FA089BBBF941}"/>
+    <hyperlink ref="L79" r:id="rId327" xr:uid="{09000797-9862-4D17-81A3-8BF615CB0D28}"/>
     <hyperlink ref="L32" r:id="rId328" xr:uid="{30E40F4D-0941-4C35-B988-415178726C05}"/>
-    <hyperlink ref="L99" r:id="rId329" xr:uid="{2A5203BE-43E1-47B8-B2C4-1CC37588A5AB}"/>
-    <hyperlink ref="L87" r:id="rId330" xr:uid="{570C26B0-6EF3-40AB-BBA0-06474B8C9E9F}"/>
+    <hyperlink ref="L100" r:id="rId329" xr:uid="{2A5203BE-43E1-47B8-B2C4-1CC37588A5AB}"/>
+    <hyperlink ref="L88" r:id="rId330" xr:uid="{570C26B0-6EF3-40AB-BBA0-06474B8C9E9F}"/>
     <hyperlink ref="L30" r:id="rId331" xr:uid="{8315B941-53AD-4CC4-8A93-715BF028D5D6}"/>
-    <hyperlink ref="L84" r:id="rId332" xr:uid="{A11BA51D-FBB4-444E-9239-AD5CA8BDA6AA}"/>
-    <hyperlink ref="L107" r:id="rId333" xr:uid="{BD6653EC-2D4F-4519-B739-A572013209E8}"/>
-    <hyperlink ref="L59" r:id="rId334" xr:uid="{FCDEB08A-0CA4-4598-B598-28FC8001225C}"/>
-    <hyperlink ref="L54" r:id="rId335" xr:uid="{21317881-56A9-411E-B0E0-953DFEB53FB5}"/>
-    <hyperlink ref="L114" r:id="rId336" xr:uid="{2C2ECFF6-DA6C-4C65-B48D-83C8B953A10F}"/>
+    <hyperlink ref="L85" r:id="rId332" xr:uid="{A11BA51D-FBB4-444E-9239-AD5CA8BDA6AA}"/>
+    <hyperlink ref="L108" r:id="rId333" xr:uid="{BD6653EC-2D4F-4519-B739-A572013209E8}"/>
+    <hyperlink ref="L60" r:id="rId334" xr:uid="{FCDEB08A-0CA4-4598-B598-28FC8001225C}"/>
+    <hyperlink ref="L55" r:id="rId335" xr:uid="{21317881-56A9-411E-B0E0-953DFEB53FB5}"/>
+    <hyperlink ref="L115" r:id="rId336" xr:uid="{2C2ECFF6-DA6C-4C65-B48D-83C8B953A10F}"/>
     <hyperlink ref="L7" r:id="rId337" xr:uid="{AC52BE48-B1BC-4E71-B6C1-88AF068D6F7B}"/>
-    <hyperlink ref="L75" r:id="rId338" xr:uid="{08A9DD36-F049-430E-ACEE-0254B9EB019D}"/>
-    <hyperlink ref="L81" r:id="rId339" xr:uid="{69BD5E03-494B-42BC-B711-BD56B50C14BD}"/>
+    <hyperlink ref="L76" r:id="rId338" xr:uid="{08A9DD36-F049-430E-ACEE-0254B9EB019D}"/>
+    <hyperlink ref="L82" r:id="rId339" xr:uid="{69BD5E03-494B-42BC-B711-BD56B50C14BD}"/>
     <hyperlink ref="L8" r:id="rId340" display="https://scholar.google.com/citations?user=49QO52oAAAAJ&amp;hl=en&amp;citsig=ADIE8snLeq6YPks1Pa9NqbNhY8-8" xr:uid="{597E11F7-5E1F-4746-9B2D-F0B3CE2DAADD}"/>
-    <hyperlink ref="M71" r:id="rId341" display="https://vidwan.inflibnet.ac.in/profile/161243/MTYxMjQz" xr:uid="{377E489A-5F66-4D39-9D16-5A09C06888BF}"/>
+    <hyperlink ref="M72" r:id="rId341" display="https://vidwan.inflibnet.ac.in/profile/161243/MTYxMjQz" xr:uid="{377E489A-5F66-4D39-9D16-5A09C06888BF}"/>
     <hyperlink ref="M3" r:id="rId342" xr:uid="{969CA3F3-003E-45D0-B448-786C1B45A99B}"/>
-    <hyperlink ref="M82" r:id="rId343" xr:uid="{FCF270CA-7E29-44DE-9B34-531A560121D2}"/>
-    <hyperlink ref="M56" r:id="rId344" xr:uid="{27A56F3E-3B7A-497C-B419-6D4EB0B36DFE}"/>
+    <hyperlink ref="M83" r:id="rId343" xr:uid="{FCF270CA-7E29-44DE-9B34-531A560121D2}"/>
+    <hyperlink ref="M57" r:id="rId344" xr:uid="{27A56F3E-3B7A-497C-B419-6D4EB0B36DFE}"/>
     <hyperlink ref="M18" r:id="rId345" xr:uid="{A8B03D72-4F58-488B-AA71-6FE545C4F974}"/>
     <hyperlink ref="M48" r:id="rId346" xr:uid="{46B27430-2CB4-4571-B683-C90BDB1A869A}"/>
-    <hyperlink ref="M91" r:id="rId347" xr:uid="{B3372949-44D6-47D3-93F5-F231A1194C2D}"/>
-    <hyperlink ref="M105" r:id="rId348" xr:uid="{BD564D33-09CC-4E3F-8665-C7CC006586D4}"/>
-    <hyperlink ref="M67" r:id="rId349" xr:uid="{46D7BE4E-C50A-4838-A0D5-A66608E30FB1}"/>
-    <hyperlink ref="M90" r:id="rId350" xr:uid="{49346F82-88CD-458B-9055-E1D237495067}"/>
-    <hyperlink ref="M94" r:id="rId351" xr:uid="{275EA512-D486-4AA6-B9C6-EDFD8EB5E681}"/>
+    <hyperlink ref="M92" r:id="rId347" xr:uid="{B3372949-44D6-47D3-93F5-F231A1194C2D}"/>
+    <hyperlink ref="M106" r:id="rId348" xr:uid="{BD564D33-09CC-4E3F-8665-C7CC006586D4}"/>
+    <hyperlink ref="M68" r:id="rId349" xr:uid="{46D7BE4E-C50A-4838-A0D5-A66608E30FB1}"/>
+    <hyperlink ref="M91" r:id="rId350" xr:uid="{49346F82-88CD-458B-9055-E1D237495067}"/>
+    <hyperlink ref="M95" r:id="rId351" xr:uid="{275EA512-D486-4AA6-B9C6-EDFD8EB5E681}"/>
     <hyperlink ref="M49" r:id="rId352" xr:uid="{F1370FFD-2A24-4E0D-842E-D15A59048874}"/>
     <hyperlink ref="M19" r:id="rId353" xr:uid="{B079BDCE-9644-48D8-ADB9-55246D89BB3B}"/>
-    <hyperlink ref="M70" r:id="rId354" xr:uid="{21DA9F6E-42F2-4C08-8BCC-45E0F47AC02F}"/>
+    <hyperlink ref="M71" r:id="rId354" xr:uid="{21DA9F6E-42F2-4C08-8BCC-45E0F47AC02F}"/>
     <hyperlink ref="M23" r:id="rId355" display="https://vidwan.inflibnet.ac.in/profile/162290/MTYyMjkw" xr:uid="{C5101B56-8150-4439-9561-ADE65CCB8626}"/>
-    <hyperlink ref="M77" r:id="rId356" xr:uid="{FA23B353-3F9D-46B1-82DA-820AA4FBE86D}"/>
-    <hyperlink ref="M85" r:id="rId357" xr:uid="{680496D4-6792-4688-B37B-3D2836A2CBB1}"/>
+    <hyperlink ref="M78" r:id="rId356" xr:uid="{FA23B353-3F9D-46B1-82DA-820AA4FBE86D}"/>
+    <hyperlink ref="M86" r:id="rId357" xr:uid="{680496D4-6792-4688-B37B-3D2836A2CBB1}"/>
     <hyperlink ref="M35" r:id="rId358" xr:uid="{C295F105-2491-4119-851F-B09A35F5D83B}"/>
     <hyperlink ref="M14" r:id="rId359" xr:uid="{C6A42F1F-C70B-482C-BAF5-08E29835556D}"/>
-    <hyperlink ref="M79" r:id="rId360" xr:uid="{D12744D8-8D17-44EF-A69E-A1A202FA6698}"/>
+    <hyperlink ref="M80" r:id="rId360" xr:uid="{D12744D8-8D17-44EF-A69E-A1A202FA6698}"/>
     <hyperlink ref="M17" r:id="rId361" xr:uid="{026E65A7-E47E-491B-A07D-37EBD353FD4E}"/>
     <hyperlink ref="M34" r:id="rId362" xr:uid="{5D0B8227-026E-47C4-897D-D449D1EA7349}"/>
     <hyperlink ref="M29" r:id="rId363" xr:uid="{02E7C489-97EB-4764-B304-885B559F8C0E}"/>
-    <hyperlink ref="M66" r:id="rId364" xr:uid="{7BCC998C-8FF9-4866-BDE0-4E618132491D}"/>
+    <hyperlink ref="M67" r:id="rId364" xr:uid="{7BCC998C-8FF9-4866-BDE0-4E618132491D}"/>
     <hyperlink ref="M9" r:id="rId365" xr:uid="{91B9619A-0474-417B-A83E-F1ACC0AF0CEC}"/>
-    <hyperlink ref="M113" r:id="rId366" xr:uid="{9DC7345F-59EF-46AB-AFF8-A485034FCFB5}"/>
+    <hyperlink ref="M114" r:id="rId366" xr:uid="{9DC7345F-59EF-46AB-AFF8-A485034FCFB5}"/>
     <hyperlink ref="M4" r:id="rId367" xr:uid="{C24F8B1B-E131-406E-8B92-980981B7F2F8}"/>
     <hyperlink ref="M12" r:id="rId368" xr:uid="{BBE0AFF3-0C87-45BA-B244-2EBD516259AE}"/>
-    <hyperlink ref="M100" r:id="rId369" xr:uid="{36A3294C-FBE9-4AE5-B367-A4F7EB299507}"/>
+    <hyperlink ref="M101" r:id="rId369" xr:uid="{36A3294C-FBE9-4AE5-B367-A4F7EB299507}"/>
     <hyperlink ref="M37" r:id="rId370" xr:uid="{CC9655FE-1EDD-46F8-BE5B-9E92C5013680}"/>
     <hyperlink ref="M21" r:id="rId371" xr:uid="{47BBD086-2D33-4012-A8B6-B4A4E0F676C3}"/>
     <hyperlink ref="M28" r:id="rId372" xr:uid="{D9812B9F-31E0-4DAD-8A1E-6460EF4BE795}"/>
-    <hyperlink ref="M96" r:id="rId373" xr:uid="{194FE3FD-0EF9-46C4-B769-B4AAF95E0018}"/>
+    <hyperlink ref="M97" r:id="rId373" xr:uid="{194FE3FD-0EF9-46C4-B769-B4AAF95E0018}"/>
     <hyperlink ref="M6" r:id="rId374" xr:uid="{3C597F50-A6C7-4686-85A0-F6E6694F57E3}"/>
-    <hyperlink ref="M69" r:id="rId375" xr:uid="{A87D811B-910D-45F2-BF34-A478CD7D8B09}"/>
+    <hyperlink ref="M70" r:id="rId375" xr:uid="{A87D811B-910D-45F2-BF34-A478CD7D8B09}"/>
     <hyperlink ref="M22" r:id="rId376" xr:uid="{686F19E9-9FDF-4E88-8243-D809ABB3FE79}"/>
     <hyperlink ref="M41" r:id="rId377" xr:uid="{FB2FC638-1D01-4122-BA7D-9717BC8B2EF3}"/>
-    <hyperlink ref="M101" r:id="rId378" xr:uid="{F0E56AD7-3828-45B1-A3E4-95B4E7B7495F}"/>
+    <hyperlink ref="M102" r:id="rId378" xr:uid="{F0E56AD7-3828-45B1-A3E4-95B4E7B7495F}"/>
     <hyperlink ref="M24" r:id="rId379" xr:uid="{5E6A27FA-6F1B-4920-AF3A-0018DC331E36}"/>
     <hyperlink ref="M26" r:id="rId380" xr:uid="{758E2E1D-BBB4-4F0B-A1FA-EB3E5DE2D156}"/>
-    <hyperlink ref="M89" r:id="rId381" xr:uid="{1C320BD2-5251-44A7-81C2-D89E208736CC}"/>
-    <hyperlink ref="M97" r:id="rId382" xr:uid="{4BF3D2D2-9743-494B-A7D1-9EEF7423F2B3}"/>
-    <hyperlink ref="M52" r:id="rId383" xr:uid="{642FC8EF-95E5-4804-8108-73A9ADB45FBB}"/>
-    <hyperlink ref="M80" r:id="rId384" xr:uid="{6069906B-85A1-4520-B697-E8420F4D518A}"/>
-    <hyperlink ref="M110" r:id="rId385" xr:uid="{45C10A27-1AD3-4A6F-966C-946B5F9ECB83}"/>
+    <hyperlink ref="M90" r:id="rId381" xr:uid="{1C320BD2-5251-44A7-81C2-D89E208736CC}"/>
+    <hyperlink ref="M98" r:id="rId382" xr:uid="{4BF3D2D2-9743-494B-A7D1-9EEF7423F2B3}"/>
+    <hyperlink ref="M53" r:id="rId383" xr:uid="{642FC8EF-95E5-4804-8108-73A9ADB45FBB}"/>
+    <hyperlink ref="M81" r:id="rId384" xr:uid="{6069906B-85A1-4520-B697-E8420F4D518A}"/>
+    <hyperlink ref="M111" r:id="rId385" xr:uid="{45C10A27-1AD3-4A6F-966C-946B5F9ECB83}"/>
     <hyperlink ref="M27" r:id="rId386" xr:uid="{F2CE36A5-3E73-43DE-A91D-5D1E2781384A}"/>
-    <hyperlink ref="M53" r:id="rId387" xr:uid="{6815F862-B01A-4FF2-B310-DDE65D78FBDB}"/>
+    <hyperlink ref="M54" r:id="rId387" xr:uid="{6815F862-B01A-4FF2-B310-DDE65D78FBDB}"/>
     <hyperlink ref="M40" r:id="rId388" xr:uid="{2167CAC5-42F7-48BE-A140-282801D50406}"/>
-    <hyperlink ref="M111" r:id="rId389" xr:uid="{2D0BE123-EDFD-4091-BCF0-204188FF3B30}"/>
-    <hyperlink ref="M61" r:id="rId390" xr:uid="{7A45E352-1CCC-4E30-B5C0-2C2507845C07}"/>
+    <hyperlink ref="M112" r:id="rId389" xr:uid="{2D0BE123-EDFD-4091-BCF0-204188FF3B30}"/>
+    <hyperlink ref="M62" r:id="rId390" xr:uid="{7A45E352-1CCC-4E30-B5C0-2C2507845C07}"/>
     <hyperlink ref="M47" r:id="rId391" xr:uid="{D69AB844-8B39-4156-9897-B02CB20CA4D5}"/>
     <hyperlink ref="M10" r:id="rId392" xr:uid="{04F1C981-8348-4D72-8A69-A692D3062D64}"/>
     <hyperlink ref="M50" r:id="rId393" xr:uid="{65DE02F5-B84D-45D0-9DC1-F7808BDFD38D}"/>
-    <hyperlink ref="M60" r:id="rId394" xr:uid="{C49314E6-1B8D-41D3-8824-C6AE59F00DDA}"/>
-    <hyperlink ref="M64" r:id="rId395" xr:uid="{22CCAF6F-639B-4091-91C4-0D9E09A79A31}"/>
+    <hyperlink ref="M61" r:id="rId394" xr:uid="{C49314E6-1B8D-41D3-8824-C6AE59F00DDA}"/>
+    <hyperlink ref="M65" r:id="rId395" xr:uid="{22CCAF6F-639B-4091-91C4-0D9E09A79A31}"/>
     <hyperlink ref="M33" r:id="rId396" xr:uid="{9E6DCF4C-EA31-4D9D-AE0D-50C83C0347DE}"/>
-    <hyperlink ref="M74" r:id="rId397" xr:uid="{D71D3644-6845-46C5-83D7-DA2B52AF5733}"/>
+    <hyperlink ref="M75" r:id="rId397" xr:uid="{D71D3644-6845-46C5-83D7-DA2B52AF5733}"/>
     <hyperlink ref="M5" r:id="rId398" xr:uid="{7687E521-D8FB-41F5-A5E6-AE953D92E830}"/>
     <hyperlink ref="M20" r:id="rId399" xr:uid="{4DDDF623-882B-481C-A6D6-41041F349837}"/>
     <hyperlink ref="M42" r:id="rId400" xr:uid="{52C3C99B-42C3-444C-A194-78CDBDAFC9CB}"/>
-    <hyperlink ref="M108" r:id="rId401" display="https://vidwan.inflibnet.ac.in/profile/161344" xr:uid="{FE2BA8E6-DD6C-4A10-91F1-326AA51E88D5}"/>
+    <hyperlink ref="M109" r:id="rId401" display="https://vidwan.inflibnet.ac.in/profile/161344" xr:uid="{FE2BA8E6-DD6C-4A10-91F1-326AA51E88D5}"/>
     <hyperlink ref="M45" r:id="rId402" xr:uid="{2FFD071F-CF1A-4200-989A-978DBA72FD44}"/>
-    <hyperlink ref="M63" r:id="rId403" xr:uid="{E4C6C757-CD64-47C7-8F12-6CE6B9FFD60C}"/>
-    <hyperlink ref="M95" r:id="rId404" xr:uid="{722D10A1-25FB-4CE7-9F0B-C75508E442CE}"/>
-    <hyperlink ref="M83" r:id="rId405" xr:uid="{32A836FB-CB40-470F-B02E-7B6392FD539D}"/>
+    <hyperlink ref="M64" r:id="rId403" xr:uid="{E4C6C757-CD64-47C7-8F12-6CE6B9FFD60C}"/>
+    <hyperlink ref="M96" r:id="rId404" xr:uid="{722D10A1-25FB-4CE7-9F0B-C75508E442CE}"/>
+    <hyperlink ref="M84" r:id="rId405" xr:uid="{32A836FB-CB40-470F-B02E-7B6392FD539D}"/>
     <hyperlink ref="M39" r:id="rId406" location="other_information_panel" display="https://vidwan.inflibnet.ac.in/myprofile - other_information_panel" xr:uid="{FE644920-561A-44DA-A700-34ED8EB7963F}"/>
-    <hyperlink ref="M109" r:id="rId407" xr:uid="{2C076003-CA45-4492-A114-A44CC1E60BF2}"/>
-    <hyperlink ref="M58" r:id="rId408" xr:uid="{BC2FF260-09A4-4D46-81FB-823835AD57DA}"/>
-    <hyperlink ref="M98" r:id="rId409" xr:uid="{B2860DA1-1C8E-403D-9E1C-CE3896F91BFD}"/>
+    <hyperlink ref="M110" r:id="rId407" xr:uid="{2C076003-CA45-4492-A114-A44CC1E60BF2}"/>
+    <hyperlink ref="M59" r:id="rId408" xr:uid="{BC2FF260-09A4-4D46-81FB-823835AD57DA}"/>
+    <hyperlink ref="M99" r:id="rId409" xr:uid="{B2860DA1-1C8E-403D-9E1C-CE3896F91BFD}"/>
     <hyperlink ref="M13" r:id="rId410" xr:uid="{2DE04985-AB3C-4D4B-BCEE-EF8C728199F4}"/>
     <hyperlink ref="M44" r:id="rId411" xr:uid="{546046AA-45E7-4EDD-81FB-A6648B9BB595}"/>
-    <hyperlink ref="M104" r:id="rId412" xr:uid="{7330EFFC-2F12-4EFE-BF25-3D30861E8775}"/>
-    <hyperlink ref="M93" r:id="rId413" xr:uid="{4F8D1CF8-D215-443F-8914-E091AFB2DBAE}"/>
+    <hyperlink ref="M105" r:id="rId412" xr:uid="{7330EFFC-2F12-4EFE-BF25-3D30861E8775}"/>
+    <hyperlink ref="M94" r:id="rId413" xr:uid="{4F8D1CF8-D215-443F-8914-E091AFB2DBAE}"/>
     <hyperlink ref="M15" r:id="rId414" xr:uid="{4CD74FA1-A139-4BCD-9CB7-1D7091E614B9}"/>
-    <hyperlink ref="M55" r:id="rId415" xr:uid="{EAABDC46-8B1B-482C-B7D7-E6E7C16FB647}"/>
-    <hyperlink ref="M103" r:id="rId416" xr:uid="{ACDF2E56-83C7-477F-A573-2B4112936AD3}"/>
+    <hyperlink ref="M56" r:id="rId415" xr:uid="{EAABDC46-8B1B-482C-B7D7-E6E7C16FB647}"/>
+    <hyperlink ref="M104" r:id="rId416" xr:uid="{ACDF2E56-83C7-477F-A573-2B4112936AD3}"/>
     <hyperlink ref="M43" r:id="rId417" xr:uid="{B502A1CE-A61F-4999-A855-F6ECA908B905}"/>
-    <hyperlink ref="M88" r:id="rId418" xr:uid="{EF82DFB8-BEB4-47BB-B28B-AF5A4CDD6891}"/>
-    <hyperlink ref="M73" r:id="rId419" xr:uid="{6D71EE52-86C9-4EE0-A55D-7B9652B864FF}"/>
-    <hyperlink ref="M86" r:id="rId420" xr:uid="{C073950A-A28A-4ED8-B9C1-BD3B160FAEF3}"/>
-    <hyperlink ref="M62" r:id="rId421" xr:uid="{958C1C19-9C17-41E8-ADC4-BAB91255F382}"/>
+    <hyperlink ref="M89" r:id="rId418" xr:uid="{EF82DFB8-BEB4-47BB-B28B-AF5A4CDD6891}"/>
+    <hyperlink ref="M74" r:id="rId419" xr:uid="{6D71EE52-86C9-4EE0-A55D-7B9652B864FF}"/>
+    <hyperlink ref="M87" r:id="rId420" xr:uid="{C073950A-A28A-4ED8-B9C1-BD3B160FAEF3}"/>
+    <hyperlink ref="M63" r:id="rId421" xr:uid="{958C1C19-9C17-41E8-ADC4-BAB91255F382}"/>
     <hyperlink ref="M36" r:id="rId422" xr:uid="{0CC98B27-C0DC-4F81-A868-5BC7C0784B50}"/>
-    <hyperlink ref="M65" r:id="rId423" xr:uid="{B86191A1-65D6-4540-845F-518E32A64FBF}"/>
-    <hyperlink ref="M106" r:id="rId424" xr:uid="{47889514-AB9C-4B04-95A5-1CCA3A0DFCA8}"/>
-    <hyperlink ref="M57" r:id="rId425" xr:uid="{36AE2A42-0E80-4A5F-8FB0-4EAB2AEA8C36}"/>
-    <hyperlink ref="M68" r:id="rId426" xr:uid="{7FE7C886-2B29-491F-8C86-5526A33F7121}"/>
-    <hyperlink ref="M72" r:id="rId427" xr:uid="{FDFB0EA9-AD4D-43E9-BEF9-C60B9531C82F}"/>
+    <hyperlink ref="M66" r:id="rId423" xr:uid="{B86191A1-65D6-4540-845F-518E32A64FBF}"/>
+    <hyperlink ref="M107" r:id="rId424" xr:uid="{47889514-AB9C-4B04-95A5-1CCA3A0DFCA8}"/>
+    <hyperlink ref="M58" r:id="rId425" xr:uid="{36AE2A42-0E80-4A5F-8FB0-4EAB2AEA8C36}"/>
+    <hyperlink ref="M69" r:id="rId426" xr:uid="{7FE7C886-2B29-491F-8C86-5526A33F7121}"/>
+    <hyperlink ref="M73" r:id="rId427" xr:uid="{FDFB0EA9-AD4D-43E9-BEF9-C60B9531C82F}"/>
     <hyperlink ref="M2" r:id="rId428" xr:uid="{251C34E0-B509-4755-B850-FDEB3B770405}"/>
     <hyperlink ref="M11" r:id="rId429" xr:uid="{3203A1D8-1572-4E08-ADEF-54F74525E87A}"/>
-    <hyperlink ref="M92" r:id="rId430" xr:uid="{28CD01ED-234C-4911-A047-12722FE76C1F}"/>
-    <hyperlink ref="M115" r:id="rId431" xr:uid="{82D93DAC-CF9F-4D41-B8C8-5AE08EA58BAA}"/>
-    <hyperlink ref="M78" r:id="rId432" xr:uid="{68120C28-52E3-4EC9-9F3E-EB5A3578A3BD}"/>
+    <hyperlink ref="M93" r:id="rId430" xr:uid="{28CD01ED-234C-4911-A047-12722FE76C1F}"/>
+    <hyperlink ref="M116" r:id="rId431" xr:uid="{82D93DAC-CF9F-4D41-B8C8-5AE08EA58BAA}"/>
+    <hyperlink ref="M79" r:id="rId432" xr:uid="{68120C28-52E3-4EC9-9F3E-EB5A3578A3BD}"/>
     <hyperlink ref="M32" r:id="rId433" display="https://vidwan.inflibnet.ac.in/profile/161755-" xr:uid="{B87FE430-1CFA-4F98-A7E4-77FBF96BA37F}"/>
-    <hyperlink ref="M99" r:id="rId434" xr:uid="{649E7EFF-CC71-476F-9A81-1581EC34CD48}"/>
-    <hyperlink ref="M87" r:id="rId435" xr:uid="{1C9375D7-8EF5-40A1-914C-C5A7CD3188FB}"/>
-    <hyperlink ref="M84" r:id="rId436" xr:uid="{66509B53-066F-4635-85A6-6E99D5FE0B3E}"/>
-    <hyperlink ref="M107" r:id="rId437" xr:uid="{775D1521-4736-4C73-BB71-31FD5AD1E561}"/>
-    <hyperlink ref="M59" r:id="rId438" xr:uid="{A128A132-518A-476D-BCF8-6D3638CE18D6}"/>
-    <hyperlink ref="M54" r:id="rId439" xr:uid="{A1AFE28A-9643-4A4A-95E8-53E1C4380AAE}"/>
-    <hyperlink ref="M114" r:id="rId440" xr:uid="{6A1A9D4D-97FF-42A2-B2EA-85F3F7E515C2}"/>
+    <hyperlink ref="M100" r:id="rId434" xr:uid="{649E7EFF-CC71-476F-9A81-1581EC34CD48}"/>
+    <hyperlink ref="M88" r:id="rId435" xr:uid="{1C9375D7-8EF5-40A1-914C-C5A7CD3188FB}"/>
+    <hyperlink ref="M85" r:id="rId436" xr:uid="{66509B53-066F-4635-85A6-6E99D5FE0B3E}"/>
+    <hyperlink ref="M108" r:id="rId437" xr:uid="{775D1521-4736-4C73-BB71-31FD5AD1E561}"/>
+    <hyperlink ref="M60" r:id="rId438" xr:uid="{A128A132-518A-476D-BCF8-6D3638CE18D6}"/>
+    <hyperlink ref="M55" r:id="rId439" xr:uid="{A1AFE28A-9643-4A4A-95E8-53E1C4380AAE}"/>
+    <hyperlink ref="M115" r:id="rId440" xr:uid="{6A1A9D4D-97FF-42A2-B2EA-85F3F7E515C2}"/>
     <hyperlink ref="M7" r:id="rId441" xr:uid="{BA494279-5FA7-4467-ACAA-FFA1824DB9F7}"/>
-    <hyperlink ref="M75" r:id="rId442" xr:uid="{C2281EE1-00E4-42D3-875C-3C9C699518DB}"/>
-    <hyperlink ref="M81" r:id="rId443" xr:uid="{3C1D1058-7762-4D63-9FB9-41A44D4AB1F3}"/>
+    <hyperlink ref="M76" r:id="rId442" xr:uid="{C2281EE1-00E4-42D3-875C-3C9C699518DB}"/>
+    <hyperlink ref="M82" r:id="rId443" xr:uid="{3C1D1058-7762-4D63-9FB9-41A44D4AB1F3}"/>
     <hyperlink ref="E16:E17" r:id="rId444" display="https://placehold.co/400x600" xr:uid="{18BA32A8-6934-421F-9831-28D4907FFF98}"/>
     <hyperlink ref="E17" r:id="rId445" xr:uid="{7510203D-B2F6-44B8-BB79-8C3F26D4C98A}"/>
     <hyperlink ref="E16" r:id="rId446" xr:uid="{7C7925F6-A06D-4A2F-A60E-DE952DACBD81}"/>
-    <hyperlink ref="E53" r:id="rId447" xr:uid="{41208DE8-410A-4988-814F-34D6808B3973}"/>
-    <hyperlink ref="E64" r:id="rId448" xr:uid="{2A43A7D2-0D9B-42A8-8E87-E447ECDB9951}"/>
-    <hyperlink ref="E59" r:id="rId449" xr:uid="{6FED2870-0657-4424-9493-C87C5558030E}"/>
-    <hyperlink ref="E111" r:id="rId450" xr:uid="{72604405-579A-4D04-AD70-2F433C2E73DD}"/>
-    <hyperlink ref="E116" r:id="rId451" xr:uid="{6297514C-C37E-424D-8BB6-2D18272D027F}"/>
+    <hyperlink ref="E54" r:id="rId447" xr:uid="{41208DE8-410A-4988-814F-34D6808B3973}"/>
+    <hyperlink ref="E65" r:id="rId448" xr:uid="{2A43A7D2-0D9B-42A8-8E87-E447ECDB9951}"/>
+    <hyperlink ref="E60" r:id="rId449" xr:uid="{6FED2870-0657-4424-9493-C87C5558030E}"/>
+    <hyperlink ref="E112" r:id="rId450" xr:uid="{72604405-579A-4D04-AD70-2F433C2E73DD}"/>
+    <hyperlink ref="E117" r:id="rId451" xr:uid="{6297514C-C37E-424D-8BB6-2D18272D027F}"/>
+    <hyperlink ref="E51" r:id="rId452" xr:uid="{6CC1B28A-064E-4FA0-B299-8865396AB14B}"/>
+    <hyperlink ref="I51" r:id="rId453" xr:uid="{63D19B3D-E537-40D3-8AB7-9B1678C75672}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId452"/>
+  <pageSetup orientation="portrait" r:id="rId454"/>
 </worksheet>
 </file>
 

--- a/faculty_data.xlsx
+++ b/faculty_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\CSPIT_Main\CSPIT_NEW_2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C19EE12-9DBC-4A9B-A6D5-84EE6E7D60B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E3FC34-D802-42B5-97D9-49FE93FD7A06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="1105">
   <si>
     <t>Name</t>
   </si>
@@ -3199,12 +3199,351 @@
   <si>
     <t>kunalbhatt.ee@charusat.ac.in</t>
   </si>
+  <si>
+    <t>Membership in Professional Organization / Society</t>
+  </si>
+  <si>
+    <t>Professional Certification Earned</t>
+  </si>
+  <si>
+    <t>SCRS</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>1. IEEE
+2. ISTE</t>
+  </si>
+  <si>
+    <t>1. Microsoft Certified : Azure Fundamentals
+2. Microsoft Certified: Azure AI Fundamentals</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certified Information Security Manager® (CISM®) </t>
+  </si>
+  <si>
+    <t>CSI</t>
+  </si>
+  <si>
+    <t>Microsoft Certified: Azure AI Fundamentals</t>
+  </si>
+  <si>
+    <t>Internal Auditor ISO/IEC 17025-2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISTE, SAEINDIA, </t>
+  </si>
+  <si>
+    <t>FORMULA BHARAT JUDGE</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>IEEE</t>
+  </si>
+  <si>
+    <t>IEEE,ISTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. CSI Associate Life Member, 
+2. ISTD Life Member, 
+3. CII-HR Panel member
+4. CII-Industry Academia Panel member 
+</t>
+  </si>
+  <si>
+    <t>Microsoft Certifed Professional (MCP)</t>
+  </si>
+  <si>
+    <t>ISTE</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>The Institution of Engineers (India)</t>
+  </si>
+  <si>
+    <t>Soft Computing Research Society(SCRS)</t>
+  </si>
+  <si>
+    <t>NPTEL Introduction to Internet of Things</t>
+  </si>
+  <si>
+    <t>ISTE, Soft Computing Research Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Networking Fundamental By Microsoft Technology </t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>AWS Cloud Practitioner</t>
+  </si>
+  <si>
+    <t>Microsoft Certified: Azure Fundamentals
+Microsoft Certified: Azure AI Fundamentals</t>
+  </si>
+  <si>
+    <t>IEEE (Professional) and ISTE</t>
+  </si>
+  <si>
+    <t>Microsoft Azure AZ-900</t>
+  </si>
+  <si>
+    <t>nil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">	Life Member Of  Indian Society For Technical Education(LM55005)
+	Life Member Of Indian Institution Of Industrial Engineering LM( 434499)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certified ‘IGBC Accredited Professional – Associate’ by Indian Green Building Council, CII on 
+September 2021 </t>
+  </si>
+  <si>
+    <t>CSWA SOLIDWORKS CAD design Associate</t>
+  </si>
+  <si>
+    <t>Google Business Intelligence</t>
+  </si>
+  <si>
+    <t>International Association of Engineers (IAENG)</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>3 IEEE and 4. ISTE</t>
+  </si>
+  <si>
+    <t>1. NPTEL certificate 
+subjects:- Applied Natural Language Processing 
+Python for Data Science,	
+Introduction to Research,
+Deep Learning</t>
+  </si>
+  <si>
+    <t>No Membership</t>
+  </si>
+  <si>
+    <t>No certification as such</t>
+  </si>
+  <si>
+    <t>Deep learning Specialization, AWS Academy Machine Learning Foundation, MLOps Specialization</t>
+  </si>
+  <si>
+    <t>SCRS (Soft Computing Research Society) - 2024-04-15-5421</t>
+  </si>
+  <si>
+    <t>AWS cloud Practitioner Certification</t>
+  </si>
+  <si>
+    <t>Laboratory Management System as per ISO/IEC 17025:2017 &amp; Internal Audit</t>
+  </si>
+  <si>
+    <t>IEEE, EuMA, IE, IETE, ISTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metamaterials and Metasurface using Circuit Theory under CCE-Proficience Programme, IISc Bengaluru </t>
+  </si>
+  <si>
+    <t>Istec Vibration Category 1+ Certification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IEEE, </t>
+  </si>
+  <si>
+    <t>"Certified Blockchain Associate" by Kerala Blockchain Academy, “Certified 365 fundamentals” by Microsoft, “Certified Security, Compliance and Identity Fundamentals” by Microsoft, “Certified Azure Fundamentals” by Microsoft</t>
+  </si>
+  <si>
+    <t>1. IE (India), 2. ISTE, 3. IETE, 4. SAISE</t>
+  </si>
+  <si>
+    <t>1. Google Data Analytics
+2. ARPIT-2020 (Electronic Systems for Sensor Application)
+3. AICTE UHV-I and UHV-II</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soft Computing Research Society (SCRS) </t>
+  </si>
+  <si>
+    <t>Space Society of Mechanical Engineers (SSME), Society of Automotive Engineers (SAE), Composite Excellence Centre for Asia (CECA), Indian Society for Technical Education (ISTE)</t>
+  </si>
+  <si>
+    <t>Soft Computing Research Society</t>
+  </si>
+  <si>
+    <t>Not Applicable</t>
+  </si>
+  <si>
+    <t>ISTE, AMM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute of Engineer India, The Indian society for Technical Education, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Certified "IGBC Accredited Professional – Associate’ by Indian Green Building Council, CII </t>
+  </si>
+  <si>
+    <t>1. Laboratory Management System Awareness &amp;  Auditing (As per ISO / IEC  17025 : 2017 &amp; NABL Requirements)
+2. Internal audit as per ISO 9001:2015 Quality management system (QMS)</t>
+  </si>
+  <si>
+    <t>Microsoft Certified: Security, Compliance, and Identity Fundamentals</t>
+  </si>
+  <si>
+    <t>IEEE, ISTE</t>
+  </si>
+  <si>
+    <t>American Concrete Institute (ACI)
+Indian Concrete Institute (ICI)</t>
+  </si>
+  <si>
+    <t>Energy Auditor, Energy Manager</t>
+  </si>
+  <si>
+    <t>1. Oracle Cloud Data Management Certified Foundation Associate.  
+2. Microsoft Technology Associate: Database Administration Fundamentals</t>
+  </si>
+  <si>
+    <t>ISO 9001:2015 Internal Auditor (Quality Management System Training)</t>
+  </si>
+  <si>
+    <t>Red Hat Systems Administration , Microsoft Certified (Azure Fundamentals)</t>
+  </si>
+  <si>
+    <t>AWS Solution Architect Associate, EC Council  Certified Ethical Hacking</t>
+  </si>
+  <si>
+    <t>Salesforce B2C Commerce  Developer</t>
+  </si>
+  <si>
+    <t>Institute of Engineer India, Structural Engineering Forum of India</t>
+  </si>
+  <si>
+    <t>CSI, ISTE, IEEE, IEI</t>
+  </si>
+  <si>
+    <t>ISTE--</t>
+  </si>
+  <si>
+    <t>Renewal Pending in IEEE</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>1. Association for Computing Machinery
+2. South Asia Institute of Science and Engineering
+3. International Association of Engineers</t>
+  </si>
+  <si>
+    <t>1. Certified Cloud Security Engineer by EC-Council
+2. Certified Blockchain Associate by Kerala Blockchain Academy
+3. Microsoft Certified: Security, Compliance, and Identity Fundamentals by Microsoft 
+4. Certified Network Defender by EC-Council
+5. EC-Council Certified Incident Handler by EC-Council 
+6. Computer Hacking Forensic Investigator by EC-Council 
+7. Certified EC-Council Instructor by EC-Council 
+8. Certified Ethical Hacker by EC-Council 
+9. Microsoft Azure Fundamentals by Microsoft 
+10. Google Associate Cloud Engineer by Google 
+11. Oracle Autonomous Database Cloud 2019 Certified Specialist by Oracle
+12. Oracle Cloud Infrastructure Foundations 2020 Certified Associate by Oracle</t>
+  </si>
+  <si>
+    <t>Composites Excellence Center of Asia, International Society for Research and Development</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ACM </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	Microsoft Certified Networking Fundamentals ,
+certification on National Programming Aptitude Test </t>
+  </si>
+  <si>
+    <t>NPTEL Certification (Blockchain Technology)</t>
+  </si>
+  <si>
+    <t>IAENG</t>
+  </si>
+  <si>
+    <t>AWS Solution Architecture Associate</t>
+  </si>
+  <si>
+    <t>CSI,IETF</t>
+  </si>
+  <si>
+    <t>CCNA Instructor, CCNSP Instructor</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>ISTE (LM 82407), CECA (20207067)</t>
+  </si>
+  <si>
+    <t>1. IEEE- Senior Member
+2. ISTE</t>
+  </si>
+  <si>
+    <t>AWS cloud practitioner certification, Microsoft Azure Fundamentals</t>
+  </si>
+  <si>
+    <t>Google Advanced Data Analytics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 nptel certification </t>
+  </si>
+  <si>
+    <t>ISTE, ISA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trainer, Automation Technologies, </t>
+  </si>
+  <si>
+    <t>CISCO CERTIFIED NETWORK ASSOCIATE, CISCO CERTIFIED ACADEMY INSTRUCTOR</t>
+  </si>
+  <si>
+    <t>NPTEL-Internet of Things</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ethical Hacking </t>
+  </si>
+  <si>
+    <t>Institution of Engineers (IE), ISTE, AMM, ISRD</t>
+  </si>
+  <si>
+    <t>Autodesk certifications on AutoCAD</t>
+  </si>
+  <si>
+    <t>1. Google Data Analytics 
+2. Google Advanced Data Analytics
+3. Google AI Essentials</t>
+  </si>
+  <si>
+    <t>STRUCTURAL ENGINEERING FORUM OF INDIA [SEFI]</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3276,6 +3615,13 @@
       <sz val="10"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3291,7 +3637,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3314,13 +3660,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3377,10 +3736,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3696,10 +4080,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N117"/>
+  <dimension ref="A1:P117"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="82" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="76" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3713,9 +4097,10 @@
     <col min="12" max="12" width="34.88671875" style="12" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.21875" style="12" customWidth="1"/>
     <col min="14" max="14" width="25.88671875" style="12"/>
+    <col min="15" max="16" width="8.88671875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" s="3" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3755,11 +4140,17 @@
       <c r="M1" s="13" t="s">
         <v>681</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="24" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O1" s="13" t="s">
+        <v>1004</v>
+      </c>
+      <c r="P1" s="13" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>881</v>
       </c>
@@ -3799,11 +4190,17 @@
       <c r="M2" s="9" t="s">
         <v>352</v>
       </c>
-      <c r="N2" s="14" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="N2" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>994</v>
       </c>
@@ -3843,11 +4240,17 @@
       <c r="M3" s="9" t="s">
         <v>353</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="26" t="s">
         <v>723</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="O3" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>882</v>
       </c>
@@ -3887,11 +4290,17 @@
       <c r="M4" s="9" t="s">
         <v>354</v>
       </c>
-      <c r="N4" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="79.2" x14ac:dyDescent="0.3">
+      <c r="N4" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="O4" s="21" t="s">
+        <v>1008</v>
+      </c>
+      <c r="P4" s="21" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>883</v>
       </c>
@@ -3931,11 +4340,17 @@
       <c r="M5" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="66" x14ac:dyDescent="0.3">
+      <c r="N5" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>532</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="66" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>884</v>
       </c>
@@ -3975,11 +4390,17 @@
       <c r="M6" s="9" t="s">
         <v>356</v>
       </c>
-      <c r="N6" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="409.6" x14ac:dyDescent="0.3">
+      <c r="N6" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="O6" s="21" t="s">
+        <v>1010</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>885</v>
       </c>
@@ -4019,11 +4440,17 @@
       <c r="M7" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="26" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="O7" s="21" t="s">
+        <v>1012</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>886</v>
